--- a/data/AMP.MI.xlsx
+++ b/data/AMP.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1734" uniqueCount="1734">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1735" uniqueCount="1735">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,16 +44,16 @@
     <t xml:space="preserve">AMP.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">7.50163507461548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.42127561569214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47799921035767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.26056098937988</t>
+    <t xml:space="preserve">7.50163459777832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4212760925293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47799968719482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.26056051254272</t>
   </si>
   <si>
     <t xml:space="preserve">7.06675720214844</t>
@@ -62,19 +62,19 @@
     <t xml:space="preserve">7.32673788070679</t>
   </si>
   <si>
-    <t xml:space="preserve">7.38818883895874</t>
+    <t xml:space="preserve">7.38818836212158</t>
   </si>
   <si>
     <t xml:space="preserve">7.27001523971558</t>
   </si>
   <si>
-    <t xml:space="preserve">7.13766098022461</t>
+    <t xml:space="preserve">7.13766145706177</t>
   </si>
   <si>
     <t xml:space="preserve">7.19438409805298</t>
   </si>
   <si>
-    <t xml:space="preserve">7.30310344696045</t>
+    <t xml:space="preserve">7.30310297012329</t>
   </si>
   <si>
     <t xml:space="preserve">7.09039211273193</t>
@@ -83,28 +83,28 @@
     <t xml:space="preserve">7.24165391921997</t>
   </si>
   <si>
-    <t xml:space="preserve">7.45436525344849</t>
+    <t xml:space="preserve">7.45436573028564</t>
   </si>
   <si>
     <t xml:space="preserve">7.34564590454102</t>
   </si>
   <si>
-    <t xml:space="preserve">7.46381902694702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25583505630493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.28892278671265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52054262161255</t>
+    <t xml:space="preserve">7.46381807327271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25583457946777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2889232635498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52054166793823</t>
   </si>
   <si>
     <t xml:space="preserve">7.39291524887085</t>
   </si>
   <si>
-    <t xml:space="preserve">7.24638032913208</t>
+    <t xml:space="preserve">7.24637937545776</t>
   </si>
   <si>
     <t xml:space="preserve">7.15656900405884</t>
@@ -113,22 +113,22 @@
     <t xml:space="preserve">6.94858407974243</t>
   </si>
   <si>
-    <t xml:space="preserve">6.60824394226074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55152225494385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.68860340118408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42862129211426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38607883453369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51843309402466</t>
+    <t xml:space="preserve">6.60824489593506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.55152130126953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68860292434692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42862176895142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38607978820801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51843357086182</t>
   </si>
   <si>
     <t xml:space="preserve">6.71696519851685</t>
@@ -137,7 +137,7 @@
     <t xml:space="preserve">6.98639869689941</t>
   </si>
   <si>
-    <t xml:space="preserve">6.81150341033936</t>
+    <t xml:space="preserve">6.81150245666504</t>
   </si>
   <si>
     <t xml:space="preserve">6.9391303062439</t>
@@ -146,16 +146,16 @@
     <t xml:space="preserve">6.80204963684082</t>
   </si>
   <si>
-    <t xml:space="preserve">6.72641849517822</t>
+    <t xml:space="preserve">6.72641754150391</t>
   </si>
   <si>
     <t xml:space="preserve">7.09984540939331</t>
   </si>
   <si>
-    <t xml:space="preserve">6.99585342407227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90604162216187</t>
+    <t xml:space="preserve">6.99585294723511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90604114532471</t>
   </si>
   <si>
     <t xml:space="preserve">6.90131521224976</t>
@@ -167,40 +167,40 @@
     <t xml:space="preserve">6.7595067024231</t>
   </si>
   <si>
-    <t xml:space="preserve">6.73114490509033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89658737182617</t>
+    <t xml:space="preserve">6.73114585876465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89658784866333</t>
   </si>
   <si>
     <t xml:space="preserve">6.88713359832764</t>
   </si>
   <si>
-    <t xml:space="preserve">6.96276426315308</t>
+    <t xml:space="preserve">6.96276473999023</t>
   </si>
   <si>
     <t xml:space="preserve">7.11402654647827</t>
   </si>
   <si>
-    <t xml:space="preserve">7.21801996231079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18965673446655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31728410720825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.21329212188721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14711427688599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35037326812744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20383834838867</t>
+    <t xml:space="preserve">7.21801853179932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18965721130371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31728458404541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.21329259872437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14711475372314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35037279129028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20383739471436</t>
   </si>
   <si>
     <t xml:space="preserve">7.27946853637695</t>
@@ -212,19 +212,19 @@
     <t xml:space="preserve">7.01948833465576</t>
   </si>
   <si>
-    <t xml:space="preserve">7.109299659729</t>
+    <t xml:space="preserve">7.10929918289185</t>
   </si>
   <si>
     <t xml:space="preserve">7.37873411178589</t>
   </si>
   <si>
-    <t xml:space="preserve">7.43545722961426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33619213104248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61508131027222</t>
+    <t xml:space="preserve">7.4354567527771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33619260787964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6150803565979</t>
   </si>
   <si>
     <t xml:space="preserve">7.52526903152466</t>
@@ -233,22 +233,22 @@
     <t xml:space="preserve">7.59617280960083</t>
   </si>
   <si>
-    <t xml:space="preserve">7.69071197509766</t>
+    <t xml:space="preserve">7.69071245193481</t>
   </si>
   <si>
     <t xml:space="preserve">7.66707611083984</t>
   </si>
   <si>
-    <t xml:space="preserve">7.8467001914978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71434640884399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75688886642456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81833982467651</t>
+    <t xml:space="preserve">7.84669971466064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71434688568115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75688934326172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81833839416504</t>
   </si>
   <si>
     <t xml:space="preserve">7.85142755508423</t>
@@ -257,25 +257,25 @@
     <t xml:space="preserve">8.00268936157227</t>
   </si>
   <si>
-    <t xml:space="preserve">8.00741577148438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98850727081299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90342330932617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.06413841247559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99796152114868</t>
+    <t xml:space="preserve">8.00741672515869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9885082244873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90342235565186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0641393661499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99796056747437</t>
   </si>
   <si>
     <t xml:space="preserve">8.21067428588867</t>
   </si>
   <si>
-    <t xml:space="preserve">8.13751697540283</t>
+    <t xml:space="preserve">8.13751602172852</t>
   </si>
   <si>
     <t xml:space="preserve">8.21827411651611</t>
@@ -290,22 +290,22 @@
     <t xml:space="preserve">8.29428100585938</t>
   </si>
   <si>
-    <t xml:space="preserve">8.3370361328125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.36078834533691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34653663635254</t>
+    <t xml:space="preserve">8.33703517913818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3607873916626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34653568267822</t>
   </si>
   <si>
     <t xml:space="preserve">8.28003025054932</t>
   </si>
   <si>
-    <t xml:space="preserve">8.19927215576172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.20402240753174</t>
+    <t xml:space="preserve">8.19927310943604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.20402336120605</t>
   </si>
   <si>
     <t xml:space="preserve">8.26577854156494</t>
@@ -314,46 +314,46 @@
     <t xml:space="preserve">8.13276672363281</t>
   </si>
   <si>
-    <t xml:space="preserve">8.03300666809082</t>
+    <t xml:space="preserve">8.03300762176514</t>
   </si>
   <si>
     <t xml:space="preserve">7.93799781799316</t>
   </si>
   <si>
-    <t xml:space="preserve">7.75748157501221</t>
+    <t xml:space="preserve">7.75748062133789</t>
   </si>
   <si>
     <t xml:space="preserve">7.74322891235352</t>
   </si>
   <si>
-    <t xml:space="preserve">7.76698207855225</t>
+    <t xml:space="preserve">7.76698160171509</t>
   </si>
   <si>
     <t xml:space="preserve">7.67197275161743</t>
   </si>
   <si>
-    <t xml:space="preserve">7.75273036956787</t>
+    <t xml:space="preserve">7.75273132324219</t>
   </si>
   <si>
     <t xml:space="preserve">8.10901355743408</t>
   </si>
   <si>
-    <t xml:space="preserve">8.06626033782959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.18027019500732</t>
+    <t xml:space="preserve">8.06625938415527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.18026924133301</t>
   </si>
   <si>
     <t xml:space="preserve">7.7907338142395</t>
   </si>
   <si>
-    <t xml:space="preserve">7.82873773574829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83823823928833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99025201797485</t>
+    <t xml:space="preserve">7.82873725891113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83823776245117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99025392532349</t>
   </si>
   <si>
     <t xml:space="preserve">8.04725933074951</t>
@@ -368,67 +368,67 @@
     <t xml:space="preserve">7.83348798751831</t>
   </si>
   <si>
-    <t xml:space="preserve">7.99975347518921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08051300048828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03775691986084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02825546264648</t>
+    <t xml:space="preserve">7.99975442886353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08051204681396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03775596618652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0282564163208</t>
   </si>
   <si>
     <t xml:space="preserve">8.17552089691162</t>
   </si>
   <si>
-    <t xml:space="preserve">8.30378150939941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28953170776367</t>
+    <t xml:space="preserve">8.30378246307373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28953075408936</t>
   </si>
   <si>
     <t xml:space="preserve">8.31803417205811</t>
   </si>
   <si>
-    <t xml:space="preserve">8.31328296661377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.43204498291016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48904991149902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47479915618896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45579624176025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41779327392578</t>
+    <t xml:space="preserve">8.31328392028809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.43204402923584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48904895782471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47479724884033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45579719543457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41779136657715</t>
   </si>
   <si>
     <t xml:space="preserve">8.27527904510498</t>
   </si>
   <si>
-    <t xml:space="preserve">8.41304302215576</t>
+    <t xml:space="preserve">8.41304206848145</t>
   </si>
   <si>
     <t xml:space="preserve">8.49380016326904</t>
   </si>
   <si>
-    <t xml:space="preserve">8.63631439208984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73607349395752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.6410665512085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76457500457764</t>
+    <t xml:space="preserve">8.63631343841553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.7360725402832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64106559753418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76457595825195</t>
   </si>
   <si>
     <t xml:space="preserve">8.88808727264404</t>
@@ -437,10 +437,10 @@
     <t xml:space="preserve">8.78357791900635</t>
   </si>
   <si>
-    <t xml:space="preserve">8.91658878326416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.94034290313721</t>
+    <t xml:space="preserve">8.91659069061279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.94034099578857</t>
   </si>
   <si>
     <t xml:space="preserve">9.05435276031494</t>
@@ -449,25 +449,25 @@
     <t xml:space="preserve">8.97834587097168</t>
   </si>
   <si>
-    <t xml:space="preserve">8.94984340667725</t>
+    <t xml:space="preserve">8.94984436035156</t>
   </si>
   <si>
     <t xml:space="preserve">8.878586769104</t>
   </si>
   <si>
-    <t xml:space="preserve">8.88333702087402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.95459461212158</t>
+    <t xml:space="preserve">8.88333606719971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.95459270477295</t>
   </si>
   <si>
     <t xml:space="preserve">8.86433506011963</t>
   </si>
   <si>
-    <t xml:space="preserve">8.9023380279541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89283657073975</t>
+    <t xml:space="preserve">8.90233993530273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89283752441406</t>
   </si>
   <si>
     <t xml:space="preserve">8.78832721710205</t>
@@ -482,22 +482,22 @@
     <t xml:space="preserve">8.68856906890869</t>
   </si>
   <si>
-    <t xml:space="preserve">8.6125602722168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66956615447998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66006660461426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.79782867431641</t>
+    <t xml:space="preserve">8.61256122589111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66956806182861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66006565093994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.79782772064209</t>
   </si>
   <si>
     <t xml:space="preserve">8.62681293487549</t>
   </si>
   <si>
-    <t xml:space="preserve">8.74557304382324</t>
+    <t xml:space="preserve">8.74557399749756</t>
   </si>
   <si>
     <t xml:space="preserve">8.62206172943115</t>
@@ -506,10 +506,10 @@
     <t xml:space="preserve">8.68381977081299</t>
   </si>
   <si>
-    <t xml:space="preserve">8.74082374572754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59355926513672</t>
+    <t xml:space="preserve">8.74082279205322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59356021881104</t>
   </si>
   <si>
     <t xml:space="preserve">8.65531539916992</t>
@@ -518,19 +518,19 @@
     <t xml:space="preserve">8.69331836700439</t>
   </si>
   <si>
-    <t xml:space="preserve">8.8215799331665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2158670425415</t>
+    <t xml:space="preserve">8.82158088684082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21586894989014</t>
   </si>
   <si>
     <t xml:space="preserve">9.38688373565674</t>
   </si>
   <si>
-    <t xml:space="preserve">9.20636749267578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14936256408691</t>
+    <t xml:space="preserve">9.20636653900146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.14936351776123</t>
   </si>
   <si>
     <t xml:space="preserve">9.02584934234619</t>
@@ -542,25 +542,25 @@
     <t xml:space="preserve">8.94509315490723</t>
   </si>
   <si>
-    <t xml:space="preserve">8.63156414031982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55080509185791</t>
+    <t xml:space="preserve">8.63156223297119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.55080604553223</t>
   </si>
   <si>
     <t xml:space="preserve">8.52705383300781</t>
   </si>
   <si>
-    <t xml:space="preserve">8.52230262756348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71232128143311</t>
+    <t xml:space="preserve">8.52230453491211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71232223510742</t>
   </si>
   <si>
     <t xml:space="preserve">8.47004795074463</t>
   </si>
   <si>
-    <t xml:space="preserve">8.58880996704102</t>
+    <t xml:space="preserve">8.5888090133667</t>
   </si>
   <si>
     <t xml:space="preserve">8.50805187225342</t>
@@ -569,76 +569,76 @@
     <t xml:space="preserve">8.59831047058105</t>
   </si>
   <si>
-    <t xml:space="preserve">9.12085914611816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.23487091064453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19686603546143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.6458158493042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28478050231934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.43679428100586</t>
+    <t xml:space="preserve">9.12086009979248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.23486995697021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19686698913574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64581394195557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28478145599365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.43679523468018</t>
   </si>
   <si>
     <t xml:space="preserve">7.5532112121582</t>
   </si>
   <si>
-    <t xml:space="preserve">8.10426330566406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07576179504395</t>
+    <t xml:space="preserve">8.10426425933838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07576084136963</t>
   </si>
   <si>
     <t xml:space="preserve">8.51280212402344</t>
   </si>
   <si>
-    <t xml:space="preserve">8.53655242919922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57455635070801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.60781002044678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49855041503906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35603904724121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30853366851807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5033016204834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.70757007598877</t>
+    <t xml:space="preserve">8.53655433654785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57455730438232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.60781192779541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.49855136871338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35603809356689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30853271484375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.50329971313477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.70756912231445</t>
   </si>
   <si>
     <t xml:space="preserve">8.77882671356201</t>
   </si>
   <si>
-    <t xml:space="preserve">8.85483455657959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.80257892608643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.87383556365967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.84058284759521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2918758392334</t>
+    <t xml:space="preserve">8.85483360290527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.80257987976074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8738374710083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.84058380126953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.29187488555908</t>
   </si>
   <si>
     <t xml:space="preserve">9.10185718536377</t>
@@ -653,22 +653,22 @@
     <t xml:space="preserve">9.47714233398438</t>
   </si>
   <si>
-    <t xml:space="preserve">9.54839992523193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5198974609375</t>
+    <t xml:space="preserve">9.5483980178833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51989650726318</t>
   </si>
   <si>
     <t xml:space="preserve">9.43438911437988</t>
   </si>
   <si>
-    <t xml:space="preserve">9.50089359283447</t>
+    <t xml:space="preserve">9.50089550018311</t>
   </si>
   <si>
     <t xml:space="preserve">9.58640384674072</t>
   </si>
   <si>
-    <t xml:space="preserve">9.62440776824951</t>
+    <t xml:space="preserve">9.6244068145752</t>
   </si>
   <si>
     <t xml:space="preserve">9.57690143585205</t>
@@ -677,73 +677,73 @@
     <t xml:space="preserve">9.49614429473877</t>
   </si>
   <si>
-    <t xml:space="preserve">9.24912357330322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24437141418457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.29662609100342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60540580749512</t>
+    <t xml:space="preserve">9.24912166595459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24437046051025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2966251373291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60540390014648</t>
   </si>
   <si>
     <t xml:space="preserve">9.95693778991699</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1089525222778</t>
+    <t xml:space="preserve">10.1089534759521</t>
   </si>
   <si>
     <t xml:space="preserve">9.97593975067139</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0614471435547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.78592014312744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85242938995361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.86192893981934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.80492401123047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.93793678283691</t>
+    <t xml:space="preserve">10.061448097229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.78592109680176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85242748260498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.86192989349365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.80492496490479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.93793773651123</t>
   </si>
   <si>
     <t xml:space="preserve">10.1754589080811</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1564559936523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3369741439819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3939800262451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4129829406738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5839986801147</t>
+    <t xml:space="preserve">10.1564569473267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3369722366333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3939781188965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4129819869995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5839977264404</t>
   </si>
   <si>
     <t xml:space="preserve">10.6315002441406</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5174903869629</t>
+    <t xml:space="preserve">10.5174913406372</t>
   </si>
   <si>
     <t xml:space="preserve">10.4889888763428</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7360134124756</t>
+    <t xml:space="preserve">10.7360124588013</t>
   </si>
   <si>
     <t xml:space="preserve">10.6695051193237</t>
@@ -752,46 +752,46 @@
     <t xml:space="preserve">10.6600046157837</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9735345840454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0495405197144</t>
+    <t xml:space="preserve">10.9735336303711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0495414733887</t>
   </si>
   <si>
     <t xml:space="preserve">10.8785247802734</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8120193481445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8025169372559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7835159301758</t>
+    <t xml:space="preserve">10.8120183944702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8025178909302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7835168838501</t>
   </si>
   <si>
     <t xml:space="preserve">10.8690233230591</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0590419769287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0020370483398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0970458984375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1635513305664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2965650558472</t>
+    <t xml:space="preserve">11.0590410232544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0020351409912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0970449447632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1635522842407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2965641021729</t>
   </si>
   <si>
     <t xml:space="preserve">11.2585620880127</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4200763702393</t>
+    <t xml:space="preserve">11.4200773239136</t>
   </si>
   <si>
     <t xml:space="preserve">11.1255483627319</t>
@@ -803,13 +803,13 @@
     <t xml:space="preserve">11.3345680236816</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3155660629272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.353569984436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4485788345337</t>
+    <t xml:space="preserve">11.3155670166016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3535690307617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4485807418823</t>
   </si>
   <si>
     <t xml:space="preserve">11.6005935668945</t>
@@ -821,7 +821,7 @@
     <t xml:space="preserve">11.6290950775146</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7533187866211</t>
+    <t xml:space="preserve">11.7533168792725</t>
   </si>
   <si>
     <t xml:space="preserve">12.0017614364624</t>
@@ -833,37 +833,37 @@
     <t xml:space="preserve">12.1259832382202</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0973176956177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1068716049194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1164283752441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1450939178467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2406511306763</t>
+    <t xml:space="preserve">12.0973167419434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1068725585938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1164293289185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1450958251953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.240650177002</t>
   </si>
   <si>
     <t xml:space="preserve">12.2788724899292</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2024278640747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3935394287109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3648719787598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4222049713135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0877618789673</t>
+    <t xml:space="preserve">12.202428817749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3935403823853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3648729324341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4222068786621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.087760925293</t>
   </si>
   <si>
     <t xml:space="preserve">12.3266496658325</t>
@@ -872,37 +872,37 @@
     <t xml:space="preserve">11.6577625274658</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4666519165039</t>
+    <t xml:space="preserve">11.4666509628296</t>
   </si>
   <si>
     <t xml:space="preserve">11.8679838180542</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9062051773071</t>
+    <t xml:space="preserve">11.9062061309814</t>
   </si>
   <si>
     <t xml:space="preserve">11.9444284439087</t>
   </si>
   <si>
-    <t xml:space="preserve">11.934871673584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8010950088501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7437620162964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6959829330444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.638650894165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5430965423584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2468748092651</t>
+    <t xml:space="preserve">11.9348726272583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8010959625244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7437610626221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6959838867188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6386518478394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5430955886841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2468738555908</t>
   </si>
   <si>
     <t xml:space="preserve">11.0462083816528</t>
@@ -914,31 +914,31 @@
     <t xml:space="preserve">10.7213191986084</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7690963745117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9028730392456</t>
+    <t xml:space="preserve">10.7690982818604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9028749465942</t>
   </si>
   <si>
     <t xml:space="preserve">11.0748748779297</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0653190612793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1130962371826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3042068481445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5239858627319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5526523590088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5144290924072</t>
+    <t xml:space="preserve">11.0653171539307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1130971908569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3042058944702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5239849090576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5526514053345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5144300460815</t>
   </si>
   <si>
     <t xml:space="preserve">11.5813179016113</t>
@@ -947,37 +947,37 @@
     <t xml:space="preserve">11.4379844665527</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6768741607666</t>
+    <t xml:space="preserve">11.6768751144409</t>
   </si>
   <si>
     <t xml:space="preserve">11.6004285812378</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5048732757568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4475412368774</t>
+    <t xml:space="preserve">11.5048723220825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4475393295288</t>
   </si>
   <si>
     <t xml:space="preserve">11.418872833252</t>
   </si>
   <si>
-    <t xml:space="preserve">11.275541305542</t>
+    <t xml:space="preserve">11.2755393981934</t>
   </si>
   <si>
     <t xml:space="preserve">11.1990966796875</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0844306945801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8264303207397</t>
+    <t xml:space="preserve">11.0844297409058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8264312744141</t>
   </si>
   <si>
     <t xml:space="preserve">10.9984292984009</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9506511688232</t>
+    <t xml:space="preserve">10.9506521224976</t>
   </si>
   <si>
     <t xml:space="preserve">11.3615407943726</t>
@@ -989,10 +989,10 @@
     <t xml:space="preserve">11.2373199462891</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2946510314941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4857635498047</t>
+    <t xml:space="preserve">11.2946519851685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.485764503479</t>
   </si>
   <si>
     <t xml:space="preserve">11.4953174591064</t>
@@ -1007,37 +1007,37 @@
     <t xml:space="preserve">11.2564296722412</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3424301147461</t>
+    <t xml:space="preserve">11.3424291610718</t>
   </si>
   <si>
     <t xml:space="preserve">11.6099843978882</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8966512680054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9922075271606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1642055511475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1928739547729</t>
+    <t xml:space="preserve">11.8966493606567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9922065734863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1642045974731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1928720474243</t>
   </si>
   <si>
     <t xml:space="preserve">12.1355390548706</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2310943603516</t>
+    <t xml:space="preserve">12.2310953140259</t>
   </si>
   <si>
     <t xml:space="preserve">12.2215394973755</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2597618103027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1546516418457</t>
+    <t xml:space="preserve">12.2597627639771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1546506881714</t>
   </si>
   <si>
     <t xml:space="preserve">12.0113172531128</t>
@@ -1046,40 +1046,40 @@
     <t xml:space="preserve">12.403094291687</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3362054824829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2884273529053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6706495285034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7088708877563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8330926895142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9764261245728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0050935745239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0242052078247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9955396652222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3744287490845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9635400772095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0304288864136</t>
+    <t xml:space="preserve">12.3362045288086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2884283065796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6706504821777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7088718414307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8330945968628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9764270782471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0050926208496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0242042541504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9955387115479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3744277954102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9635391235352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0304279327393</t>
   </si>
   <si>
     <t xml:space="preserve">12.2119827270508</t>
@@ -1088,10 +1088,10 @@
     <t xml:space="preserve">12.3553171157837</t>
   </si>
   <si>
-    <t xml:space="preserve">12.460428237915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0782060623169</t>
+    <t xml:space="preserve">12.4604272842407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0782070159912</t>
   </si>
   <si>
     <t xml:space="preserve">11.6195402145386</t>
@@ -1133,31 +1133,31 @@
     <t xml:space="preserve">11.9157619476318</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3075389862061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7279825210571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7375373840332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6897611618042</t>
+    <t xml:space="preserve">12.3075380325317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7279834747314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7375383377075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6897602081299</t>
   </si>
   <si>
     <t xml:space="preserve">12.8235387802124</t>
   </si>
   <si>
-    <t xml:space="preserve">13.329981803894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3204250335693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2822036743164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1484270095825</t>
+    <t xml:space="preserve">13.3299827575684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.320426940918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2822046279907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1484260559082</t>
   </si>
   <si>
     <t xml:space="preserve">13.6262035369873</t>
@@ -1172,10 +1172,10 @@
     <t xml:space="preserve">13.7599821090698</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8077592849731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7122049331665</t>
+    <t xml:space="preserve">13.8077583312988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7122030258179</t>
   </si>
   <si>
     <t xml:space="preserve">13.4542045593262</t>
@@ -1184,13 +1184,13 @@
     <t xml:space="preserve">13.6739826202393</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5019826889038</t>
+    <t xml:space="preserve">13.5019807815552</t>
   </si>
   <si>
     <t xml:space="preserve">13.167537689209</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8044271469116</t>
+    <t xml:space="preserve">12.8044261932373</t>
   </si>
   <si>
     <t xml:space="preserve">12.5942058563232</t>
@@ -1202,31 +1202,31 @@
     <t xml:space="preserve">12.651538848877</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6993160247803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0146484375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0719833374023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0433139801025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7853174209595</t>
+    <t xml:space="preserve">12.6993169784546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0146493911743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.071982383728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0433149337769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7853164672852</t>
   </si>
   <si>
     <t xml:space="preserve">12.4699831008911</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4413175582886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.919093132019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2344264984131</t>
+    <t xml:space="preserve">12.4413166046143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9190940856934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2344274520874</t>
   </si>
   <si>
     <t xml:space="preserve">13.2917604446411</t>
@@ -1241,7 +1241,7 @@
     <t xml:space="preserve">13.5306482315063</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5210933685303</t>
+    <t xml:space="preserve">13.521092414856</t>
   </si>
   <si>
     <t xml:space="preserve">13.3586483001709</t>
@@ -1250,16 +1250,16 @@
     <t xml:space="preserve">13.5402040481567</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4446477890015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0815372467041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0528707504272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4924278259277</t>
+    <t xml:space="preserve">13.4446487426758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0815382003784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0528717041016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4924259185791</t>
   </si>
   <si>
     <t xml:space="preserve">13.7695360183716</t>
@@ -1268,19 +1268,19 @@
     <t xml:space="preserve">13.8459815979004</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5115394592285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9988708496094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2090930938721</t>
+    <t xml:space="preserve">13.5115375518799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9988689422607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2090911865234</t>
   </si>
   <si>
     <t xml:space="preserve">14.3524255752563</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6104249954224</t>
+    <t xml:space="preserve">14.6104259490967</t>
   </si>
   <si>
     <t xml:space="preserve">14.5148696899414</t>
@@ -1298,13 +1298,13 @@
     <t xml:space="preserve">15.1359806060791</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0786457061768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3366451263428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1933126449585</t>
+    <t xml:space="preserve">15.0786466598511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3366441726685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1933135986328</t>
   </si>
   <si>
     <t xml:space="preserve">15.2219800949097</t>
@@ -1313,52 +1313,52 @@
     <t xml:space="preserve">15.2602024078369</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1264247894287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1168689727783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9353132247925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8110914230347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3939800262451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4990882873535</t>
+    <t xml:space="preserve">15.1264238357544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.116868019104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9353122711182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8110904693604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3939790725708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4990892410278</t>
   </si>
   <si>
     <t xml:space="preserve">15.4704236984253</t>
   </si>
   <si>
-    <t xml:space="preserve">15.47998046875</t>
+    <t xml:space="preserve">15.4799795150757</t>
   </si>
   <si>
     <t xml:space="preserve">15.6710891723633</t>
   </si>
   <si>
-    <t xml:space="preserve">15.62331199646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.785756111145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8908662796021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6519775390625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2410898208618</t>
+    <t xml:space="preserve">15.6233129501343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7857580184937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8908681869507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6519794464111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2410907745361</t>
   </si>
   <si>
     <t xml:space="preserve">15.5755338668823</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0401563644409</t>
+    <t xml:space="preserve">15.0401554107666</t>
   </si>
   <si>
     <t xml:space="preserve">14.886194229126</t>
@@ -1373,16 +1373,16 @@
     <t xml:space="preserve">14.9535522460938</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0978908538818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1356296539307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6167602539062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.838080406189</t>
+    <t xml:space="preserve">15.0978899002075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1356287002563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6167612075806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8380813598633</t>
   </si>
   <si>
     <t xml:space="preserve">14.8477029800415</t>
@@ -1391,10 +1391,10 @@
     <t xml:space="preserve">15.4154376983643</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7233629226685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3584537506104</t>
+    <t xml:space="preserve">15.7233619689941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.358455657959</t>
   </si>
   <si>
     <t xml:space="preserve">16.704870223999</t>
@@ -1409,31 +1409,31 @@
     <t xml:space="preserve">16.4450569152832</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4546813964844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5701522827148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3488311767578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.310338973999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7722263336182</t>
+    <t xml:space="preserve">16.4546794891357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5701503753662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3488330841064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3103408813477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7722282409668</t>
   </si>
   <si>
     <t xml:space="preserve">16.9743003845215</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9165668487549</t>
+    <t xml:space="preserve">16.9165649414062</t>
   </si>
   <si>
     <t xml:space="preserve">16.8203392028809</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5509071350098</t>
+    <t xml:space="preserve">16.5509090423584</t>
   </si>
   <si>
     <t xml:space="preserve">16.5027923583984</t>
@@ -1442,46 +1442,46 @@
     <t xml:space="preserve">16.9261894226074</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0897750854492</t>
+    <t xml:space="preserve">17.0897731781006</t>
   </si>
   <si>
     <t xml:space="preserve">17.1378860473633</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3014698028564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1763782501221</t>
+    <t xml:space="preserve">17.3014717102051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1763801574707</t>
   </si>
   <si>
     <t xml:space="preserve">17.0224170684814</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6182670593262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6952476501465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4643020629883</t>
+    <t xml:space="preserve">16.6182651519775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6952457427979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4643039703369</t>
   </si>
   <si>
     <t xml:space="preserve">16.6471328735352</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8010921478271</t>
+    <t xml:space="preserve">16.8010940551758</t>
   </si>
   <si>
     <t xml:space="preserve">16.608642578125</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7626037597656</t>
+    <t xml:space="preserve">16.7626056671143</t>
   </si>
   <si>
     <t xml:space="preserve">17.3592090606689</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8018474578857</t>
+    <t xml:space="preserve">17.8018455505371</t>
   </si>
   <si>
     <t xml:space="preserve">18.2156200408936</t>
@@ -1493,55 +1493,55 @@
     <t xml:space="preserve">18.3503379821777</t>
   </si>
   <si>
-    <t xml:space="preserve">18.436939239502</t>
+    <t xml:space="preserve">18.4369411468506</t>
   </si>
   <si>
     <t xml:space="preserve">18.9950504302979</t>
   </si>
   <si>
-    <t xml:space="preserve">18.408073425293</t>
+    <t xml:space="preserve">18.4080715179443</t>
   </si>
   <si>
     <t xml:space="preserve">18.6871299743652</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5235424041748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3407173156738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1290149688721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8980770111084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0520362854004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0231666564941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5716552734375</t>
+    <t xml:space="preserve">18.5235443115234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3407135009766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1290168762207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8980751037598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0520343780518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0231685638428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5716571807861</t>
   </si>
   <si>
     <t xml:space="preserve">18.6486377716064</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4754295349121</t>
+    <t xml:space="preserve">18.4754314422607</t>
   </si>
   <si>
     <t xml:space="preserve">18.3022232055664</t>
   </si>
   <si>
-    <t xml:space="preserve">18.379207611084</t>
+    <t xml:space="preserve">18.3792057037354</t>
   </si>
   <si>
     <t xml:space="preserve">18.4850521087646</t>
   </si>
   <si>
-    <t xml:space="preserve">18.331090927124</t>
+    <t xml:space="preserve">18.3310890197754</t>
   </si>
   <si>
     <t xml:space="preserve">18.2059993743896</t>
@@ -1550,16 +1550,16 @@
     <t xml:space="preserve">18.2733554840088</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8403415679932</t>
+    <t xml:space="preserve">17.8403396606445</t>
   </si>
   <si>
     <t xml:space="preserve">18.6678829193115</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1001472473145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.28297996521</t>
+    <t xml:space="preserve">18.1001491546631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2829780578613</t>
   </si>
   <si>
     <t xml:space="preserve">19.0239219665527</t>
@@ -1571,7 +1571,7 @@
     <t xml:space="preserve">19.7071266174316</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6686382293701</t>
+    <t xml:space="preserve">19.6686363220215</t>
   </si>
   <si>
     <t xml:space="preserve">19.4761829376221</t>
@@ -1583,10 +1583,10 @@
     <t xml:space="preserve">19.004674911499</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7256202697754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8026008605957</t>
+    <t xml:space="preserve">18.7256183624268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8025989532471</t>
   </si>
   <si>
     <t xml:space="preserve">19.0527858734131</t>
@@ -1598,16 +1598,16 @@
     <t xml:space="preserve">18.9661827087402</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4176940917969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7833576202393</t>
+    <t xml:space="preserve">18.4176959991455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7833557128906</t>
   </si>
   <si>
     <t xml:space="preserve">18.3118476867676</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5612831115723</t>
+    <t xml:space="preserve">17.5612850189209</t>
   </si>
   <si>
     <t xml:space="preserve">16.8107166290283</t>
@@ -1616,10 +1616,10 @@
     <t xml:space="preserve">15.6848697662354</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8195877075195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9061908721924</t>
+    <t xml:space="preserve">15.8195886611938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.906192779541</t>
   </si>
   <si>
     <t xml:space="preserve">15.2326078414917</t>
@@ -1628,25 +1628,25 @@
     <t xml:space="preserve">15.6560049057007</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6944923400879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0409088134766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9639272689819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1748723983765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2999658584595</t>
+    <t xml:space="preserve">15.6944913864136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0409069061279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9639291763306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1748733520508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2999668121338</t>
   </si>
   <si>
     <t xml:space="preserve">15.2229852676392</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2037401199341</t>
+    <t xml:space="preserve">15.2037410736084</t>
   </si>
   <si>
     <t xml:space="preserve">15.2422313690186</t>
@@ -1655,19 +1655,19 @@
     <t xml:space="preserve">15.0690231323242</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8765726089478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9246835708618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8958168029785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8669500350952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1556262969971</t>
+    <t xml:space="preserve">14.8765716552734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9246845245361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8958158493042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8669490814209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1556282043457</t>
   </si>
   <si>
     <t xml:space="preserve">15.2807216644287</t>
@@ -1685,16 +1685,16 @@
     <t xml:space="preserve">13.3273296356201</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2792167663574</t>
+    <t xml:space="preserve">13.2792158126831</t>
   </si>
   <si>
     <t xml:space="preserve">13.5871391296387</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4620447158813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5967626571655</t>
+    <t xml:space="preserve">13.4620456695557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5967617034912</t>
   </si>
   <si>
     <t xml:space="preserve">13.8565740585327</t>
@@ -1703,22 +1703,22 @@
     <t xml:space="preserve">13.6929883956909</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4235563278198</t>
+    <t xml:space="preserve">13.4235553741455</t>
   </si>
   <si>
     <t xml:space="preserve">14.0778932571411</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2222328186035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7129859924316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.433931350708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3761940002441</t>
+    <t xml:space="preserve">14.2222318649292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7129878997803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4339303970337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3761949539185</t>
   </si>
   <si>
     <t xml:space="preserve">14.5205335617065</t>
@@ -1733,7 +1733,7 @@
     <t xml:space="preserve">13.9431772232056</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7988386154175</t>
+    <t xml:space="preserve">13.7988376617432</t>
   </si>
   <si>
     <t xml:space="preserve">13.962423324585</t>
@@ -1748,13 +1748,13 @@
     <t xml:space="preserve">14.6360054016113</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9816665649414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9135570526123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5197811126709</t>
+    <t xml:space="preserve">13.9816675186157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.913556098938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5197820663452</t>
   </si>
   <si>
     <t xml:space="preserve">13.3850650787354</t>
@@ -1763,19 +1763,19 @@
     <t xml:space="preserve">13.9527997970581</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2799692153931</t>
+    <t xml:space="preserve">14.2799682617188</t>
   </si>
   <si>
     <t xml:space="preserve">15.0594005584717</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4827966690063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1075134277344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3095903396606</t>
+    <t xml:space="preserve">15.482795715332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1075124740601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.309588432312</t>
   </si>
   <si>
     <t xml:space="preserve">15.405816078186</t>
@@ -1784,34 +1784,34 @@
     <t xml:space="preserve">15.3769474029541</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5405330657959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.58864402771</t>
+    <t xml:space="preserve">15.5405321121216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5886449813843</t>
   </si>
   <si>
     <t xml:space="preserve">15.5212850570679</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3673248291016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2518539428711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1460037231445</t>
+    <t xml:space="preserve">15.3673257827759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2518529891968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1460046768188</t>
   </si>
   <si>
     <t xml:space="preserve">15.0497789382935</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0882701873779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1652498245239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8484554290771</t>
+    <t xml:space="preserve">15.0882692337036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1652488708496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8484563827515</t>
   </si>
   <si>
     <t xml:space="preserve">15.9446811676025</t>
@@ -1823,13 +1823,13 @@
     <t xml:space="preserve">15.4443035125732</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7810955047607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6656255722046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6271362304688</t>
+    <t xml:space="preserve">15.7810974121094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6656265258789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6271352767944</t>
   </si>
   <si>
     <t xml:space="preserve">15.0016651153564</t>
@@ -1838,40 +1838,40 @@
     <t xml:space="preserve">15.1267604827881</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4539289474487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4250602722168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6752510070801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5982666015625</t>
+    <t xml:space="preserve">15.4539279937744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4250612258911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6752490997314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5982675552368</t>
   </si>
   <si>
     <t xml:space="preserve">15.7426080703735</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9735479354858</t>
+    <t xml:space="preserve">15.9735498428345</t>
   </si>
   <si>
     <t xml:space="preserve">16.67600440979</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2044944763184</t>
+    <t xml:space="preserve">16.2044925689697</t>
   </si>
   <si>
     <t xml:space="preserve">15.4924192428589</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0216617584229</t>
+    <t xml:space="preserve">16.0216636657715</t>
   </si>
   <si>
     <t xml:space="preserve">16.93581199646</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0993976593018</t>
+    <t xml:space="preserve">17.0993957519531</t>
   </si>
   <si>
     <t xml:space="preserve">16.7433586120605</t>
@@ -1886,19 +1886,19 @@
     <t xml:space="preserve">17.0031700134277</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6663799285889</t>
+    <t xml:space="preserve">16.6663780212402</t>
   </si>
   <si>
     <t xml:space="preserve">17.0609073638916</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9839248657227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1475067138672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1186447143555</t>
+    <t xml:space="preserve">16.983922958374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1475105285645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1186428070068</t>
   </si>
   <si>
     <t xml:space="preserve">16.4931716918945</t>
@@ -1910,7 +1910,7 @@
     <t xml:space="preserve">16.1275119781494</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1660022735596</t>
+    <t xml:space="preserve">16.1660003662109</t>
   </si>
   <si>
     <t xml:space="preserve">16.0890197753906</t>
@@ -1922,13 +1922,13 @@
     <t xml:space="preserve">16.4835472106934</t>
   </si>
   <si>
-    <t xml:space="preserve">16.156379699707</t>
+    <t xml:space="preserve">16.1563777923584</t>
   </si>
   <si>
     <t xml:space="preserve">17.7633571624756</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9269409179688</t>
+    <t xml:space="preserve">17.9269390106201</t>
   </si>
   <si>
     <t xml:space="preserve">18.3599605560303</t>
@@ -1937,28 +1937,28 @@
     <t xml:space="preserve">17.5709037780762</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5420379638672</t>
+    <t xml:space="preserve">17.5420360565186</t>
   </si>
   <si>
     <t xml:space="preserve">18.0905265808105</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9469394683838</t>
+    <t xml:space="preserve">18.9469413757324</t>
   </si>
   <si>
     <t xml:space="preserve">18.8521842956543</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1526546478271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8892955780029</t>
+    <t xml:space="preserve">19.1526565551758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8892974853516</t>
   </si>
   <si>
     <t xml:space="preserve">19.7923698425293</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2108135223389</t>
+    <t xml:space="preserve">19.2108116149902</t>
   </si>
   <si>
     <t xml:space="preserve">19.2301979064941</t>
@@ -1976,7 +1976,7 @@
     <t xml:space="preserve">19.249584197998</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3174324035645</t>
+    <t xml:space="preserve">19.3174304962158</t>
   </si>
   <si>
     <t xml:space="preserve">19.520975112915</t>
@@ -2012,37 +2012,37 @@
     <t xml:space="preserve">20.8585605621338</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1105690002441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2576179504395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1413059234619</t>
+    <t xml:space="preserve">21.1105709075928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2576160430908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1413040161133</t>
   </si>
   <si>
     <t xml:space="preserve">19.7729835510254</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5985164642334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9280662536621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9668388366699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3933143615723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2382335662842</t>
+    <t xml:space="preserve">19.5985145568848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9280681610107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9668369293213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3933124542236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2382316589355</t>
   </si>
   <si>
     <t xml:space="preserve">19.9474544525146</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8505268096924</t>
+    <t xml:space="preserve">19.8505249023438</t>
   </si>
   <si>
     <t xml:space="preserve">20.0249919891357</t>
@@ -2063,16 +2063,16 @@
     <t xml:space="preserve">20.9942588806152</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7228622436523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3351554870605</t>
+    <t xml:space="preserve">20.722864151001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3351573944092</t>
   </si>
   <si>
     <t xml:space="preserve">20.4320831298828</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4902400970459</t>
+    <t xml:space="preserve">20.4902381896973</t>
   </si>
   <si>
     <t xml:space="preserve">21.5952033996582</t>
@@ -2099,13 +2099,13 @@
     <t xml:space="preserve">21.478889465332</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5758171081543</t>
+    <t xml:space="preserve">21.5758152008057</t>
   </si>
   <si>
     <t xml:space="preserve">21.3431930541992</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6145839691162</t>
+    <t xml:space="preserve">21.6145858764648</t>
   </si>
   <si>
     <t xml:space="preserve">22.1767597198486</t>
@@ -2120,13 +2120,13 @@
     <t xml:space="preserve">22.85524559021</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4287662506104</t>
+    <t xml:space="preserve">22.428768157959</t>
   </si>
   <si>
     <t xml:space="preserve">22.5838489532471</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2930698394775</t>
+    <t xml:space="preserve">22.2930717468262</t>
   </si>
   <si>
     <t xml:space="preserve">22.2736854553223</t>
@@ -2147,7 +2147,7 @@
     <t xml:space="preserve">22.3899974822998</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5644645690918</t>
+    <t xml:space="preserve">22.5644664764404</t>
   </si>
   <si>
     <t xml:space="preserve">21.6727428436279</t>
@@ -2159,7 +2159,7 @@
     <t xml:space="preserve">20.7616348266602</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4401206970215</t>
+    <t xml:space="preserve">21.4401187896729</t>
   </si>
   <si>
     <t xml:space="preserve">21.0911827087402</t>
@@ -2183,7 +2183,7 @@
     <t xml:space="preserve">21.6921253204346</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9247512817383</t>
+    <t xml:space="preserve">21.9247493743896</t>
   </si>
   <si>
     <t xml:space="preserve">22.0022926330566</t>
@@ -2192,10 +2192,10 @@
     <t xml:space="preserve">21.8084373474121</t>
   </si>
   <si>
-    <t xml:space="preserve">21.905366897583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9554882049561</t>
+    <t xml:space="preserve">21.9053688049316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9554901123047</t>
   </si>
   <si>
     <t xml:space="preserve">20.9167156219482</t>
@@ -2207,13 +2207,13 @@
     <t xml:space="preserve">21.1687240600586</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6840953826904</t>
+    <t xml:space="preserve">20.6840934753418</t>
   </si>
   <si>
     <t xml:space="preserve">21.2074947357178</t>
   </si>
   <si>
-    <t xml:space="preserve">21.246265411377</t>
+    <t xml:space="preserve">21.2462673187256</t>
   </si>
   <si>
     <t xml:space="preserve">20.6259365081787</t>
@@ -2234,7 +2234,7 @@
     <t xml:space="preserve">22.9909400939941</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3592624664307</t>
+    <t xml:space="preserve">23.359260559082</t>
   </si>
   <si>
     <t xml:space="preserve">23.8051242828369</t>
@@ -2255,10 +2255,10 @@
     <t xml:space="preserve">24.1540584564209</t>
   </si>
   <si>
-    <t xml:space="preserve">24.2315998077393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3285236358643</t>
+    <t xml:space="preserve">24.2315979003906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3285255432129</t>
   </si>
   <si>
     <t xml:space="preserve">24.73561668396</t>
@@ -2276,7 +2276,7 @@
     <t xml:space="preserve">24.6968460083008</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3559436798096</t>
+    <t xml:space="preserve">25.3559455871582</t>
   </si>
   <si>
     <t xml:space="preserve">25.666109085083</t>
@@ -2291,7 +2291,7 @@
     <t xml:space="preserve">24.9876270294189</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3171768188477</t>
+    <t xml:space="preserve">25.317174911499</t>
   </si>
   <si>
     <t xml:space="preserve">25.2008628845215</t>
@@ -2321,7 +2321,7 @@
     <t xml:space="preserve">24.9294681549072</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9488563537598</t>
+    <t xml:space="preserve">24.9488544464111</t>
   </si>
   <si>
     <t xml:space="preserve">25.0651664733887</t>
@@ -2330,7 +2330,7 @@
     <t xml:space="preserve">25.6854953765869</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7242660522461</t>
+    <t xml:space="preserve">25.7242641448975</t>
   </si>
   <si>
     <t xml:space="preserve">25.2202472686768</t>
@@ -2348,13 +2348,13 @@
     <t xml:space="preserve">25.9956588745117</t>
   </si>
   <si>
-    <t xml:space="preserve">25.9375038146973</t>
+    <t xml:space="preserve">25.9375057220459</t>
   </si>
   <si>
     <t xml:space="preserve">25.5304126739502</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2088985443115</t>
+    <t xml:space="preserve">26.2088966369629</t>
   </si>
   <si>
     <t xml:space="preserve">25.1427097320557</t>
@@ -2366,10 +2366,10 @@
     <t xml:space="preserve">25.2784042358398</t>
   </si>
   <si>
-    <t xml:space="preserve">26.0538139343262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.61598777771</t>
+    <t xml:space="preserve">26.0538158416748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6159858703613</t>
   </si>
   <si>
     <t xml:space="preserve">26.6741428375244</t>
@@ -2384,7 +2384,7 @@
     <t xml:space="preserve">27.6240215301514</t>
   </si>
   <si>
-    <t xml:space="preserve">27.9341888427734</t>
+    <t xml:space="preserve">27.9341869354248</t>
   </si>
   <si>
     <t xml:space="preserve">28.1086540222168</t>
@@ -2393,10 +2393,10 @@
     <t xml:space="preserve">28.2443523406982</t>
   </si>
   <si>
-    <t xml:space="preserve">28.6126708984375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.2136154174805</t>
+    <t xml:space="preserve">28.6126728057861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.2136135101318</t>
   </si>
   <si>
     <t xml:space="preserve">28.7095985412598</t>
@@ -2417,7 +2417,7 @@
     <t xml:space="preserve">23.960205078125</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8325443267822</t>
+    <t xml:space="preserve">24.8325424194336</t>
   </si>
   <si>
     <t xml:space="preserve">23.785737991333</t>
@@ -2426,10 +2426,10 @@
     <t xml:space="preserve">20.1219215393066</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6372852325439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8183879852295</t>
+    <t xml:space="preserve">19.6372871398926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8183889389038</t>
   </si>
   <si>
     <t xml:space="preserve">17.582447052002</t>
@@ -2441,34 +2441,34 @@
     <t xml:space="preserve">16.3611755371094</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1559753417969</t>
+    <t xml:space="preserve">17.1559734344482</t>
   </si>
   <si>
     <t xml:space="preserve">17.7859935760498</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0089225769043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.406322479248</t>
+    <t xml:space="preserve">18.0089244842529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4063205718994</t>
   </si>
   <si>
     <t xml:space="preserve">19.1138858795166</t>
   </si>
   <si>
-    <t xml:space="preserve">18.416015625</t>
+    <t xml:space="preserve">18.4160137176514</t>
   </si>
   <si>
     <t xml:space="preserve">18.4935550689697</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3869361877441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1446208953857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6406059265137</t>
+    <t xml:space="preserve">18.3869380950928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1446228027344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.640604019165</t>
   </si>
   <si>
     <t xml:space="preserve">17.6696815490723</t>
@@ -2480,7 +2480,7 @@
     <t xml:space="preserve">17.9119987487793</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0654220581055</t>
+    <t xml:space="preserve">19.0654201507568</t>
   </si>
   <si>
     <t xml:space="preserve">18.7067928314209</t>
@@ -2489,7 +2489,7 @@
     <t xml:space="preserve">18.7213344573975</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0460357666016</t>
+    <t xml:space="preserve">19.0460376739502</t>
   </si>
   <si>
     <t xml:space="preserve">18.2221641540527</t>
@@ -2504,19 +2504,19 @@
     <t xml:space="preserve">19.1284236907959</t>
   </si>
   <si>
-    <t xml:space="preserve">20.306079864502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.548397064209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.286693572998</t>
+    <t xml:space="preserve">20.3060817718506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5483951568604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2866954803467</t>
   </si>
   <si>
     <t xml:space="preserve">20.2673091888428</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0637645721436</t>
+    <t xml:space="preserve">20.0637664794922</t>
   </si>
   <si>
     <t xml:space="preserve">20.9845657348633</t>
@@ -2564,7 +2564,7 @@
     <t xml:space="preserve">23.8535861968994</t>
   </si>
   <si>
-    <t xml:space="preserve">24.1831378936768</t>
+    <t xml:space="preserve">24.1831359863281</t>
   </si>
   <si>
     <t xml:space="preserve">23.8729705810547</t>
@@ -2585,43 +2585,43 @@
     <t xml:space="preserve">22.9715576171875</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2155323028564</t>
+    <t xml:space="preserve">22.2155303955078</t>
   </si>
   <si>
     <t xml:space="preserve">22.3996906280518</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0394039154053</t>
+    <t xml:space="preserve">23.0394058227539</t>
   </si>
   <si>
     <t xml:space="preserve">23.2817192077637</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6500415802002</t>
+    <t xml:space="preserve">23.6500396728516</t>
   </si>
   <si>
     <t xml:space="preserve">23.02001953125</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0491008758545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4949607849121</t>
+    <t xml:space="preserve">23.0490989685059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4949588775635</t>
   </si>
   <si>
     <t xml:space="preserve">23.8148136138916</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7583179473877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7970886230469</t>
+    <t xml:space="preserve">22.7583160400391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7970905303955</t>
   </si>
   <si>
     <t xml:space="preserve">22.9812469482422</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0781745910645</t>
+    <t xml:space="preserve">23.0781764984131</t>
   </si>
   <si>
     <t xml:space="preserve">23.620964050293</t>
@@ -2630,7 +2630,7 @@
     <t xml:space="preserve">23.5918846130371</t>
   </si>
   <si>
-    <t xml:space="preserve">23.8923568725586</t>
+    <t xml:space="preserve">23.89235496521</t>
   </si>
   <si>
     <t xml:space="preserve">24.0959033966064</t>
@@ -2654,25 +2654,25 @@
     <t xml:space="preserve">25.1039371490479</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6564159393311</t>
+    <t xml:space="preserve">25.6564178466797</t>
   </si>
   <si>
     <t xml:space="preserve">25.4431781768799</t>
   </si>
   <si>
-    <t xml:space="preserve">25.4334869384766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1233234405518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5110263824463</t>
+    <t xml:space="preserve">25.4334850311279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1233215332031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5110282897949</t>
   </si>
   <si>
     <t xml:space="preserve">26.9552326202393</t>
   </si>
   <si>
-    <t xml:space="preserve">26.9067687988281</t>
+    <t xml:space="preserve">26.9067668914795</t>
   </si>
   <si>
     <t xml:space="preserve">28.0601921081543</t>
@@ -2708,13 +2708,13 @@
     <t xml:space="preserve">27.45924949646</t>
   </si>
   <si>
-    <t xml:space="preserve">27.6918716430664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9649238586426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.449556350708</t>
+    <t xml:space="preserve">27.6918697357178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9649257659912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.4495544433594</t>
   </si>
   <si>
     <t xml:space="preserve">27.1103134155273</t>
@@ -2738,19 +2738,19 @@
     <t xml:space="preserve">26.8583030700684</t>
   </si>
   <si>
-    <t xml:space="preserve">28.0117263793945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0715427398682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.1587772369385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.7984924316406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.8566455841064</t>
+    <t xml:space="preserve">28.0117282867432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0715446472168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.1587753295898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.798490524292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.8566474914551</t>
   </si>
   <si>
     <t xml:space="preserve">28.6029796600342</t>
@@ -2786,10 +2786,10 @@
     <t xml:space="preserve">29.8242511749268</t>
   </si>
   <si>
-    <t xml:space="preserve">30.4155025482178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6110153198242</t>
+    <t xml:space="preserve">30.4155006408691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6110134124756</t>
   </si>
   <si>
     <t xml:space="preserve">29.9211807250977</t>
@@ -2798,16 +2798,16 @@
     <t xml:space="preserve">30.279806137085</t>
   </si>
   <si>
-    <t xml:space="preserve">30.4736595153809</t>
+    <t xml:space="preserve">30.4736614227295</t>
   </si>
   <si>
     <t xml:space="preserve">29.6013202667236</t>
   </si>
   <si>
-    <t xml:space="preserve">29.7660961151123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.2507286071777</t>
+    <t xml:space="preserve">29.7660942077637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.2507266998291</t>
   </si>
   <si>
     <t xml:space="preserve">30.9292125701904</t>
@@ -2825,19 +2825,19 @@
     <t xml:space="preserve">31.3847675323486</t>
   </si>
   <si>
-    <t xml:space="preserve">31.2006072998047</t>
+    <t xml:space="preserve">31.2006053924561</t>
   </si>
   <si>
     <t xml:space="preserve">31.394458770752</t>
   </si>
   <si>
-    <t xml:space="preserve">31.1812191009521</t>
+    <t xml:space="preserve">31.1812210083008</t>
   </si>
   <si>
     <t xml:space="preserve">31.1424541473389</t>
   </si>
   <si>
-    <t xml:space="preserve">31.2781467437744</t>
+    <t xml:space="preserve">31.278148651123</t>
   </si>
   <si>
     <t xml:space="preserve">30.9389057159424</t>
@@ -2846,13 +2846,13 @@
     <t xml:space="preserve">31.0164470672607</t>
   </si>
   <si>
-    <t xml:space="preserve">29.1554584503174</t>
+    <t xml:space="preserve">29.155460357666</t>
   </si>
   <si>
     <t xml:space="preserve">29.6497840881348</t>
   </si>
   <si>
-    <t xml:space="preserve">31.3653831481934</t>
+    <t xml:space="preserve">31.365385055542</t>
   </si>
   <si>
     <t xml:space="preserve">32.470344543457</t>
@@ -2861,7 +2861,7 @@
     <t xml:space="preserve">33.3911437988281</t>
   </si>
   <si>
-    <t xml:space="preserve">34.1568641662598</t>
+    <t xml:space="preserve">34.156867980957</t>
   </si>
   <si>
     <t xml:space="preserve">33.8079261779785</t>
@@ -2870,16 +2870,16 @@
     <t xml:space="preserve">32.9549713134766</t>
   </si>
   <si>
-    <t xml:space="preserve">33.8273124694824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.0599327087402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.6414909362793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.9339294433594</t>
+    <t xml:space="preserve">33.8273162841797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.0599365234375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.6414947509766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.9339332580566</t>
   </si>
   <si>
     <t xml:space="preserve">34.961353302002</t>
@@ -2894,10 +2894,10 @@
     <t xml:space="preserve">33.1488304138184</t>
   </si>
   <si>
-    <t xml:space="preserve">33.1585159301758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.3426780700684</t>
+    <t xml:space="preserve">33.158519744873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.3426818847656</t>
   </si>
   <si>
     <t xml:space="preserve">31.985710144043</t>
@@ -2915,13 +2915,13 @@
     <t xml:space="preserve">32.5381889343262</t>
   </si>
   <si>
-    <t xml:space="preserve">31.7240085601807</t>
+    <t xml:space="preserve">31.724006652832</t>
   </si>
   <si>
     <t xml:space="preserve">31.3459949493408</t>
   </si>
   <si>
-    <t xml:space="preserve">31.4816951751709</t>
+    <t xml:space="preserve">31.4816932678223</t>
   </si>
   <si>
     <t xml:space="preserve">31.5980033874512</t>
@@ -2930,37 +2930,37 @@
     <t xml:space="preserve">31.3363056182861</t>
   </si>
   <si>
-    <t xml:space="preserve">31.54953956604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0923271179199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.5769577026367</t>
+    <t xml:space="preserve">31.5495414733887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0923309326172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.576961517334</t>
   </si>
   <si>
     <t xml:space="preserve">31.8306293487549</t>
   </si>
   <si>
-    <t xml:space="preserve">32.6351127624512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.4218826293945</t>
+    <t xml:space="preserve">32.6351165771484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.4218788146973</t>
   </si>
   <si>
     <t xml:space="preserve">32.9065132141113</t>
   </si>
   <si>
-    <t xml:space="preserve">32.1698684692383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.6932754516602</t>
+    <t xml:space="preserve">32.169864654541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6932716369629</t>
   </si>
   <si>
     <t xml:space="preserve">32.218334197998</t>
   </si>
   <si>
-    <t xml:space="preserve">32.7611198425293</t>
+    <t xml:space="preserve">32.7611236572266</t>
   </si>
   <si>
     <t xml:space="preserve">32.9937477111816</t>
@@ -2969,13 +2969,13 @@
     <t xml:space="preserve">32.8968162536621</t>
   </si>
   <si>
-    <t xml:space="preserve">32.5285034179688</t>
+    <t xml:space="preserve">32.5284996032715</t>
   </si>
   <si>
     <t xml:space="preserve">32.0050964355469</t>
   </si>
   <si>
-    <t xml:space="preserve">31.6755485534668</t>
+    <t xml:space="preserve">31.6755466461182</t>
   </si>
   <si>
     <t xml:space="preserve">32.7998924255371</t>
@@ -2984,10 +2984,10 @@
     <t xml:space="preserve">32.6448135375977</t>
   </si>
   <si>
-    <t xml:space="preserve">32.5866508483887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.8677406311035</t>
+    <t xml:space="preserve">32.5866546630859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.8677444458008</t>
   </si>
   <si>
     <t xml:space="preserve">33.1100578308105</t>
@@ -2999,7 +2999,7 @@
     <t xml:space="preserve">33.2942161560059</t>
   </si>
   <si>
-    <t xml:space="preserve">33.0712814331055</t>
+    <t xml:space="preserve">33.0712852478027</t>
   </si>
   <si>
     <t xml:space="preserve">32.8386650085449</t>
@@ -3041,19 +3041,19 @@
     <t xml:space="preserve">35.5235214233398</t>
   </si>
   <si>
-    <t xml:space="preserve">36.3377075195312</t>
+    <t xml:space="preserve">36.337703704834</t>
   </si>
   <si>
     <t xml:space="preserve">36.0856971740723</t>
   </si>
   <si>
-    <t xml:space="preserve">35.8627662658691</t>
+    <t xml:space="preserve">35.8627624511719</t>
   </si>
   <si>
     <t xml:space="preserve">34.7674980163574</t>
   </si>
   <si>
-    <t xml:space="preserve">34.4088668823242</t>
+    <t xml:space="preserve">34.4088706970215</t>
   </si>
   <si>
     <t xml:space="preserve">33.8660850524902</t>
@@ -3065,49 +3065,49 @@
     <t xml:space="preserve">32.2571067810059</t>
   </si>
   <si>
-    <t xml:space="preserve">32.2861824035645</t>
+    <t xml:space="preserve">32.2861862182617</t>
   </si>
   <si>
     <t xml:space="preserve">32.9452819824219</t>
   </si>
   <si>
-    <t xml:space="preserve">33.1972961425781</t>
+    <t xml:space="preserve">33.1972923278809</t>
   </si>
   <si>
     <t xml:space="preserve">30.4251956939697</t>
   </si>
   <si>
-    <t xml:space="preserve">29.9308700561523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.1166915893555</t>
+    <t xml:space="preserve">29.930871963501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.1166896820068</t>
   </si>
   <si>
     <t xml:space="preserve">29.4365482330322</t>
   </si>
   <si>
-    <t xml:space="preserve">30.8419818878174</t>
+    <t xml:space="preserve">30.8419799804688</t>
   </si>
   <si>
     <t xml:space="preserve">31.1036815643311</t>
   </si>
   <si>
-    <t xml:space="preserve">31.9469413757324</t>
+    <t xml:space="preserve">31.9469375610352</t>
   </si>
   <si>
     <t xml:space="preserve">30.9776763916016</t>
   </si>
   <si>
-    <t xml:space="preserve">31.1909141540527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5883159637451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0067539215088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.9793338775635</t>
+    <t xml:space="preserve">31.1909122467041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5883121490479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0067558288574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.9793357849121</t>
   </si>
   <si>
     <t xml:space="preserve">30.5996627807617</t>
@@ -3119,16 +3119,16 @@
     <t xml:space="preserve">30.861364364624</t>
   </si>
   <si>
-    <t xml:space="preserve">31.2296829223633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.1230659484863</t>
+    <t xml:space="preserve">31.2296848297119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.123067855835</t>
   </si>
   <si>
     <t xml:space="preserve">30.7644386291504</t>
   </si>
   <si>
-    <t xml:space="preserve">31.4041519165039</t>
+    <t xml:space="preserve">31.4041538238525</t>
   </si>
   <si>
     <t xml:space="preserve">31.7433967590332</t>
@@ -3143,7 +3143,7 @@
     <t xml:space="preserve">31.8112468719482</t>
   </si>
   <si>
-    <t xml:space="preserve">34.0017852783203</t>
+    <t xml:space="preserve">34.001781463623</t>
   </si>
   <si>
     <t xml:space="preserve">33.4299163818359</t>
@@ -3152,7 +3152,7 @@
     <t xml:space="preserve">34.3797950744629</t>
   </si>
   <si>
-    <t xml:space="preserve">34.1374740600586</t>
+    <t xml:space="preserve">34.1374778747559</t>
   </si>
   <si>
     <t xml:space="preserve">34.1277847290039</t>
@@ -3164,7 +3164,7 @@
     <t xml:space="preserve">34.7287292480469</t>
   </si>
   <si>
-    <t xml:space="preserve">35.5138320922852</t>
+    <t xml:space="preserve">35.5138282775879</t>
   </si>
   <si>
     <t xml:space="preserve">35.3490562438965</t>
@@ -3176,28 +3176,28 @@
     <t xml:space="preserve">33.604377746582</t>
   </si>
   <si>
-    <t xml:space="preserve">34.0502433776855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.3119506835938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.7303848266602</t>
+    <t xml:space="preserve">34.0502471923828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.3119468688965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.7303810119629</t>
   </si>
   <si>
     <t xml:space="preserve">34.602725982666</t>
   </si>
   <si>
-    <t xml:space="preserve">34.0793228149414</t>
+    <t xml:space="preserve">34.0793190002441</t>
   </si>
   <si>
     <t xml:space="preserve">32.7514343261719</t>
   </si>
   <si>
-    <t xml:space="preserve">32.3831100463867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3637237548828</t>
+    <t xml:space="preserve">32.383113861084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3637275695801</t>
   </si>
   <si>
     <t xml:space="preserve">32.567268371582</t>
@@ -3212,10 +3212,10 @@
     <t xml:space="preserve">35.3199768066406</t>
   </si>
   <si>
-    <t xml:space="preserve">36.4218978881836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.2020225524902</t>
+    <t xml:space="preserve">36.4219017028809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.202018737793</t>
   </si>
   <si>
     <t xml:space="preserve">36.4999122619629</t>
@@ -3227,7 +3227,7 @@
     <t xml:space="preserve">37.6310882568359</t>
   </si>
   <si>
-    <t xml:space="preserve">37.9821434020996</t>
+    <t xml:space="preserve">37.9821395874023</t>
   </si>
   <si>
     <t xml:space="preserve">37.6798439025879</t>
@@ -3272,7 +3272,7 @@
     <t xml:space="preserve">39.2985954284668</t>
   </si>
   <si>
-    <t xml:space="preserve">39.1815757751465</t>
+    <t xml:space="preserve">39.1815795898438</t>
   </si>
   <si>
     <t xml:space="preserve">40.2054862976074</t>
@@ -3284,7 +3284,7 @@
     <t xml:space="preserve">40.3420066833496</t>
   </si>
   <si>
-    <t xml:space="preserve">41.1026268005371</t>
+    <t xml:space="preserve">41.1026229858398</t>
   </si>
   <si>
     <t xml:space="preserve">40.605297088623</t>
@@ -3293,7 +3293,7 @@
     <t xml:space="preserve">40.4005165100098</t>
   </si>
   <si>
-    <t xml:space="preserve">40.566291809082</t>
+    <t xml:space="preserve">40.5662879943848</t>
   </si>
   <si>
     <t xml:space="preserve">40.1957359313965</t>
@@ -3311,34 +3311,34 @@
     <t xml:space="preserve">37.1240081787109</t>
   </si>
   <si>
-    <t xml:space="preserve">38.1284103393555</t>
+    <t xml:space="preserve">38.1284141540527</t>
   </si>
   <si>
     <t xml:space="preserve">38.1186637878418</t>
   </si>
   <si>
-    <t xml:space="preserve">38.9475364685059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.5618858337402</t>
+    <t xml:space="preserve">38.9475402832031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.561882019043</t>
   </si>
   <si>
     <t xml:space="preserve">39.7471618652344</t>
   </si>
   <si>
-    <t xml:space="preserve">39.0548095703125</t>
+    <t xml:space="preserve">39.0548057556152</t>
   </si>
   <si>
     <t xml:space="preserve">40.0397109985352</t>
   </si>
   <si>
-    <t xml:space="preserve">39.7666625976562</t>
+    <t xml:space="preserve">39.7666664123535</t>
   </si>
   <si>
     <t xml:space="preserve">39.435115814209</t>
   </si>
   <si>
-    <t xml:space="preserve">40.020206451416</t>
+    <t xml:space="preserve">40.0202102661133</t>
   </si>
   <si>
     <t xml:space="preserve">39.3473510742188</t>
@@ -3350,7 +3350,7 @@
     <t xml:space="preserve">41.2488975524902</t>
   </si>
   <si>
-    <t xml:space="preserve">41.3366622924805</t>
+    <t xml:space="preserve">41.3366584777832</t>
   </si>
   <si>
     <t xml:space="preserve">40.9563522338867</t>
@@ -3368,10 +3368,10 @@
     <t xml:space="preserve">40.8685874938965</t>
   </si>
   <si>
-    <t xml:space="preserve">41.0538673400879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.6292037963867</t>
+    <t xml:space="preserve">41.0538635253906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.6291999816895</t>
   </si>
   <si>
     <t xml:space="preserve">41.7559776306152</t>
@@ -3383,7 +3383,7 @@
     <t xml:space="preserve">41.8437423706055</t>
   </si>
   <si>
-    <t xml:space="preserve">41.8534889221191</t>
+    <t xml:space="preserve">41.8534927368164</t>
   </si>
   <si>
     <t xml:space="preserve">42.1850395202637</t>
@@ -3401,7 +3401,7 @@
     <t xml:space="preserve">42.6628684997559</t>
   </si>
   <si>
-    <t xml:space="preserve">42.3898239135742</t>
+    <t xml:space="preserve">42.3898277282715</t>
   </si>
   <si>
     <t xml:space="preserve">42.5946044921875</t>
@@ -3413,7 +3413,7 @@
     <t xml:space="preserve">43.1796951293945</t>
   </si>
   <si>
-    <t xml:space="preserve">43.306468963623</t>
+    <t xml:space="preserve">43.3064651489258</t>
   </si>
   <si>
     <t xml:space="preserve">43.6282691955566</t>
@@ -3434,19 +3434,19 @@
     <t xml:space="preserve">42.1557884216309</t>
   </si>
   <si>
-    <t xml:space="preserve">42.0777740478516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.3127517700195</t>
+    <t xml:space="preserve">42.0777778625488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.3127555847168</t>
   </si>
   <si>
     <t xml:space="preserve">41.619457244873</t>
   </si>
   <si>
-    <t xml:space="preserve">40.615047454834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.4439277648926</t>
+    <t xml:space="preserve">40.6150512695312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.4439315795898</t>
   </si>
   <si>
     <t xml:space="preserve">41.6779670715332</t>
@@ -3455,7 +3455,7 @@
     <t xml:space="preserve">43.7160301208496</t>
   </si>
   <si>
-    <t xml:space="preserve">43.8135452270508</t>
+    <t xml:space="preserve">43.8135414123535</t>
   </si>
   <si>
     <t xml:space="preserve">44.9739761352539</t>
@@ -3467,7 +3467,7 @@
     <t xml:space="preserve">42.5751037597656</t>
   </si>
   <si>
-    <t xml:space="preserve">40.3810119628906</t>
+    <t xml:space="preserve">40.3810157775879</t>
   </si>
   <si>
     <t xml:space="preserve">40.8783378601074</t>
@@ -3482,31 +3482,31 @@
     <t xml:space="preserve">40.1079711914062</t>
   </si>
   <si>
-    <t xml:space="preserve">40.2737464904785</t>
+    <t xml:space="preserve">40.2737426757812</t>
   </si>
   <si>
     <t xml:space="preserve">40.7028121948242</t>
   </si>
   <si>
-    <t xml:space="preserve">39.591136932373</t>
+    <t xml:space="preserve">39.5911407470703</t>
   </si>
   <si>
     <t xml:space="preserve">39.6496467590332</t>
   </si>
   <si>
-    <t xml:space="preserve">40.5077857971191</t>
+    <t xml:space="preserve">40.5077819824219</t>
   </si>
   <si>
     <t xml:space="preserve">40.8100776672363</t>
   </si>
   <si>
-    <t xml:space="preserve">41.8632431030273</t>
+    <t xml:space="preserve">41.8632392883301</t>
   </si>
   <si>
     <t xml:space="preserve">42.2435531616211</t>
   </si>
   <si>
-    <t xml:space="preserve">43.433235168457</t>
+    <t xml:space="preserve">43.4332389831543</t>
   </si>
   <si>
     <t xml:space="preserve">42.1947937011719</t>
@@ -3518,7 +3518,7 @@
     <t xml:space="preserve">42.8578987121582</t>
   </si>
   <si>
-    <t xml:space="preserve">43.5892639160156</t>
+    <t xml:space="preserve">43.5892601013184</t>
   </si>
   <si>
     <t xml:space="preserve">43.0139236450195</t>
@@ -3527,28 +3527,28 @@
     <t xml:space="preserve">43.0334243774414</t>
   </si>
   <si>
-    <t xml:space="preserve">43.6477699279785</t>
+    <t xml:space="preserve">43.6477661132812</t>
   </si>
   <si>
     <t xml:space="preserve">44.622917175293</t>
   </si>
   <si>
-    <t xml:space="preserve">44.5156555175781</t>
+    <t xml:space="preserve">44.5156593322754</t>
   </si>
   <si>
     <t xml:space="preserve">45.3835372924805</t>
   </si>
   <si>
-    <t xml:space="preserve">44.9252166748047</t>
+    <t xml:space="preserve">44.925220489502</t>
   </si>
   <si>
     <t xml:space="preserve">44.3791313171387</t>
   </si>
   <si>
-    <t xml:space="preserve">44.6619262695312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.8667030334473</t>
+    <t xml:space="preserve">44.661922454834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.8667068481445</t>
   </si>
   <si>
     <t xml:space="preserve">44.0865859985352</t>
@@ -3566,13 +3566,13 @@
     <t xml:space="preserve">41.2879028320312</t>
   </si>
   <si>
-    <t xml:space="preserve">42.224048614502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.1513824462891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.6974678039551</t>
+    <t xml:space="preserve">42.2240447998047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.1513862609863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.6974639892578</t>
   </si>
   <si>
     <t xml:space="preserve">42.0485191345215</t>
@@ -3593,19 +3593,19 @@
     <t xml:space="preserve">40.7808227539062</t>
   </si>
   <si>
-    <t xml:space="preserve">40.7418174743652</t>
+    <t xml:space="preserve">40.741813659668</t>
   </si>
   <si>
     <t xml:space="preserve">40.9173431396484</t>
   </si>
   <si>
-    <t xml:space="preserve">41.7072143554688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.6141090393066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.126537322998</t>
+    <t xml:space="preserve">41.707218170166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.6141128540039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.1265335083008</t>
   </si>
   <si>
     <t xml:space="preserve">42.9846687316895</t>
@@ -3614,10 +3614,10 @@
     <t xml:space="preserve">43.0041656494141</t>
   </si>
   <si>
-    <t xml:space="preserve">43.1991958618164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.1841087341309</t>
+    <t xml:space="preserve">43.1991996765137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.1841049194336</t>
   </si>
   <si>
     <t xml:space="preserve">44.3108711242676</t>
@@ -3626,22 +3626,22 @@
     <t xml:space="preserve">45.081241607666</t>
   </si>
   <si>
-    <t xml:space="preserve">45.7443428039551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.0466423034668</t>
+    <t xml:space="preserve">45.7443466186523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.0466461181641</t>
   </si>
   <si>
     <t xml:space="preserve">46.2709274291992</t>
   </si>
   <si>
-    <t xml:space="preserve">45.4810562133789</t>
+    <t xml:space="preserve">45.4810523986816</t>
   </si>
   <si>
     <t xml:space="preserve">44.5449066162109</t>
   </si>
   <si>
-    <t xml:space="preserve">44.7106857299805</t>
+    <t xml:space="preserve">44.7106819152832</t>
   </si>
   <si>
     <t xml:space="preserve">43.2284545898438</t>
@@ -3659,16 +3659,16 @@
     <t xml:space="preserve">39.513126373291</t>
   </si>
   <si>
-    <t xml:space="preserve">38.9572906494141</t>
+    <t xml:space="preserve">38.9572944641113</t>
   </si>
   <si>
     <t xml:space="preserve">38.7525100708008</t>
   </si>
   <si>
-    <t xml:space="preserve">37.7578620910645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.3146362304688</t>
+    <t xml:space="preserve">37.7578582763672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.3146324157715</t>
   </si>
   <si>
     <t xml:space="preserve">35.037181854248</t>
@@ -3677,10 +3677,10 @@
     <t xml:space="preserve">35.5247573852539</t>
   </si>
   <si>
-    <t xml:space="preserve">35.5637626647949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.9786720275879</t>
+    <t xml:space="preserve">35.5637664794922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.9786758422852</t>
   </si>
   <si>
     <t xml:space="preserve">36.5974273681641</t>
@@ -3707,13 +3707,13 @@
     <t xml:space="preserve">35.6417770385742</t>
   </si>
   <si>
-    <t xml:space="preserve">35.2907218933105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.4715919494629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.8767547607422</t>
+    <t xml:space="preserve">35.2907257080078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.4715957641602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.8767585754395</t>
   </si>
   <si>
     <t xml:space="preserve">35.2614669799805</t>
@@ -3725,7 +3725,7 @@
     <t xml:space="preserve">34.7933959960938</t>
   </si>
   <si>
-    <t xml:space="preserve">34.6568794250488</t>
+    <t xml:space="preserve">34.6568756103516</t>
   </si>
   <si>
     <t xml:space="preserve">34.2765693664551</t>
@@ -3737,10 +3737,10 @@
     <t xml:space="preserve">35.0859413146973</t>
   </si>
   <si>
-    <t xml:space="preserve">35.7783012390137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.4706573486328</t>
+    <t xml:space="preserve">35.7782974243164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.4706611633301</t>
   </si>
   <si>
     <t xml:space="preserve">37.4945640563965</t>
@@ -3758,22 +3758,22 @@
     <t xml:space="preserve">35.3004760742188</t>
   </si>
   <si>
-    <t xml:space="preserve">34.0912895202637</t>
+    <t xml:space="preserve">34.0912857055664</t>
   </si>
   <si>
     <t xml:space="preserve">36.1781120300293</t>
   </si>
   <si>
-    <t xml:space="preserve">34.2083053588867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.9494209289551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.6612815856934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.4467506408691</t>
+    <t xml:space="preserve">34.208309173584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.9494171142578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.6612777709961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.4467468261719</t>
   </si>
   <si>
     <t xml:space="preserve">36.8119583129883</t>
@@ -3797,7 +3797,7 @@
     <t xml:space="preserve">36.7534484863281</t>
   </si>
   <si>
-    <t xml:space="preserve">39.0840606689453</t>
+    <t xml:space="preserve">39.0840644836426</t>
   </si>
   <si>
     <t xml:space="preserve">39.6008911132812</t>
@@ -3824,13 +3824,13 @@
     <t xml:space="preserve">39.2108306884766</t>
   </si>
   <si>
-    <t xml:space="preserve">40.0104560852051</t>
+    <t xml:space="preserve">40.0104522705078</t>
   </si>
   <si>
     <t xml:space="preserve">39.8056716918945</t>
   </si>
   <si>
-    <t xml:space="preserve">39.2010765075684</t>
+    <t xml:space="preserve">39.2010803222656</t>
   </si>
   <si>
     <t xml:space="preserve">38.5477294921875</t>
@@ -3848,7 +3848,7 @@
     <t xml:space="preserve">35.983081817627</t>
   </si>
   <si>
-    <t xml:space="preserve">36.7924575805664</t>
+    <t xml:space="preserve">36.7924537658691</t>
   </si>
   <si>
     <t xml:space="preserve">37.2702827453613</t>
@@ -3857,7 +3857,7 @@
     <t xml:space="preserve">36.6754379272461</t>
   </si>
   <si>
-    <t xml:space="preserve">36.2561264038086</t>
+    <t xml:space="preserve">36.2561225891113</t>
   </si>
   <si>
     <t xml:space="preserve">35.8465538024902</t>
@@ -3866,7 +3866,7 @@
     <t xml:space="preserve">34.5788612365723</t>
   </si>
   <si>
-    <t xml:space="preserve">32.7553291320801</t>
+    <t xml:space="preserve">32.7553329467773</t>
   </si>
   <si>
     <t xml:space="preserve">33.4769439697266</t>
@@ -3875,7 +3875,7 @@
     <t xml:space="preserve">33.4671936035156</t>
   </si>
   <si>
-    <t xml:space="preserve">31.5168895721436</t>
+    <t xml:space="preserve">31.5168876647949</t>
   </si>
   <si>
     <t xml:space="preserve">33.3989295959473</t>
@@ -5214,6 +5214,9 @@
   </si>
   <si>
     <t xml:space="preserve">32.9199981689453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.5099983215332</t>
   </si>
 </sst>
 </file>
@@ -61247,7 +61250,7 @@
     </row>
     <row r="2143">
       <c r="A2143" s="1" t="n">
-        <v>45446.6495833333</v>
+        <v>45446.2916666667</v>
       </c>
       <c r="B2143" t="n">
         <v>873360</v>
@@ -61268,6 +61271,32 @@
         <v>1733</v>
       </c>
       <c r="H2143" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2144">
+      <c r="A2144" s="1" t="n">
+        <v>45447.6494097222</v>
+      </c>
+      <c r="B2144" t="n">
+        <v>583992</v>
+      </c>
+      <c r="C2144" t="n">
+        <v>33.7999992370605</v>
+      </c>
+      <c r="D2144" t="n">
+        <v>32.7000007629395</v>
+      </c>
+      <c r="E2144" t="n">
+        <v>33</v>
+      </c>
+      <c r="F2144" t="n">
+        <v>33.5099983215332</v>
+      </c>
+      <c r="G2144" t="s">
+        <v>1734</v>
+      </c>
+      <c r="H2144" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/AMP.MI.xlsx
+++ b/data/AMP.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1735" uniqueCount="1735">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1736" uniqueCount="1736">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,25 +44,25 @@
     <t xml:space="preserve">AMP.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">7.50163459777832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4212760925293</t>
+    <t xml:space="preserve">7.50163412094116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.42127656936646</t>
   </si>
   <si>
     <t xml:space="preserve">7.47799968719482</t>
   </si>
   <si>
-    <t xml:space="preserve">7.26056051254272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06675720214844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32673788070679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38818836212158</t>
+    <t xml:space="preserve">7.26056098937988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.0667576789856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32673835754395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38818788528442</t>
   </si>
   <si>
     <t xml:space="preserve">7.27001523971558</t>
@@ -77,88 +77,88 @@
     <t xml:space="preserve">7.30310297012329</t>
   </si>
   <si>
-    <t xml:space="preserve">7.09039211273193</t>
+    <t xml:space="preserve">7.09039163589478</t>
   </si>
   <si>
     <t xml:space="preserve">7.24165391921997</t>
   </si>
   <si>
-    <t xml:space="preserve">7.45436573028564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34564590454102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46381807327271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25583457946777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2889232635498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52054166793823</t>
+    <t xml:space="preserve">7.45436525344849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34564638137817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46381902694702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25583505630493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.28892278671265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52054214477539</t>
   </si>
   <si>
     <t xml:space="preserve">7.39291524887085</t>
   </si>
   <si>
-    <t xml:space="preserve">7.24637937545776</t>
+    <t xml:space="preserve">7.24638080596924</t>
   </si>
   <si>
     <t xml:space="preserve">7.15656900405884</t>
   </si>
   <si>
-    <t xml:space="preserve">6.94858407974243</t>
+    <t xml:space="preserve">6.94858360290527</t>
   </si>
   <si>
     <t xml:space="preserve">6.60824489593506</t>
   </si>
   <si>
-    <t xml:space="preserve">6.55152130126953</t>
+    <t xml:space="preserve">6.55152177810669</t>
   </si>
   <si>
     <t xml:space="preserve">6.68860292434692</t>
   </si>
   <si>
-    <t xml:space="preserve">6.42862176895142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38607978820801</t>
+    <t xml:space="preserve">6.42862129211426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38608026504517</t>
   </si>
   <si>
     <t xml:space="preserve">6.51843357086182</t>
   </si>
   <si>
-    <t xml:space="preserve">6.71696519851685</t>
+    <t xml:space="preserve">6.71696424484253</t>
   </si>
   <si>
     <t xml:space="preserve">6.98639869689941</t>
   </si>
   <si>
-    <t xml:space="preserve">6.81150245666504</t>
+    <t xml:space="preserve">6.81150341033936</t>
   </si>
   <si>
     <t xml:space="preserve">6.9391303062439</t>
   </si>
   <si>
-    <t xml:space="preserve">6.80204963684082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72641754150391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.09984540939331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.99585294723511</t>
+    <t xml:space="preserve">6.80204916000366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72641801834106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09984588623047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.99585342407227</t>
   </si>
   <si>
     <t xml:space="preserve">6.90604114532471</t>
   </si>
   <si>
-    <t xml:space="preserve">6.90131521224976</t>
+    <t xml:space="preserve">6.9013147354126</t>
   </si>
   <si>
     <t xml:space="preserve">6.94385719299316</t>
@@ -167,16 +167,16 @@
     <t xml:space="preserve">6.7595067024231</t>
   </si>
   <si>
-    <t xml:space="preserve">6.73114585876465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89658784866333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88713359832764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96276473999023</t>
+    <t xml:space="preserve">6.73114538192749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89658737182617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88713407516479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96276521682739</t>
   </si>
   <si>
     <t xml:space="preserve">7.11402654647827</t>
@@ -185,34 +185,34 @@
     <t xml:space="preserve">7.21801853179932</t>
   </si>
   <si>
-    <t xml:space="preserve">7.18965721130371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31728458404541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.21329259872437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14711475372314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35037279129028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20383739471436</t>
+    <t xml:space="preserve">7.18965768814087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31728410720825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.21329164505005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14711427688599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35037231445312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20383787155151</t>
   </si>
   <si>
     <t xml:space="preserve">7.27946853637695</t>
   </si>
   <si>
-    <t xml:space="preserve">7.03839588165283</t>
+    <t xml:space="preserve">7.03839635848999</t>
   </si>
   <si>
     <t xml:space="preserve">7.01948833465576</t>
   </si>
   <si>
-    <t xml:space="preserve">7.10929918289185</t>
+    <t xml:space="preserve">7.109299659729</t>
   </si>
   <si>
     <t xml:space="preserve">7.37873411178589</t>
@@ -221,7 +221,7 @@
     <t xml:space="preserve">7.4354567527771</t>
   </si>
   <si>
-    <t xml:space="preserve">7.33619260787964</t>
+    <t xml:space="preserve">7.33619213104248</t>
   </si>
   <si>
     <t xml:space="preserve">7.6150803565979</t>
@@ -230,37 +230,37 @@
     <t xml:space="preserve">7.52526903152466</t>
   </si>
   <si>
-    <t xml:space="preserve">7.59617280960083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69071245193481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66707611083984</t>
+    <t xml:space="preserve">7.59617233276367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69071102142334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.667076587677</t>
   </si>
   <si>
     <t xml:space="preserve">7.84669971466064</t>
   </si>
   <si>
-    <t xml:space="preserve">7.71434688568115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75688934326172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81833839416504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85142755508423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00268936157227</t>
+    <t xml:space="preserve">7.71434545516968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75688886642456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81833934783936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85142803192139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00268840789795</t>
   </si>
   <si>
     <t xml:space="preserve">8.00741672515869</t>
   </si>
   <si>
-    <t xml:space="preserve">7.9885082244873</t>
+    <t xml:space="preserve">7.98850870132446</t>
   </si>
   <si>
     <t xml:space="preserve">7.90342235565186</t>
@@ -269,7 +269,7 @@
     <t xml:space="preserve">8.0641393661499</t>
   </si>
   <si>
-    <t xml:space="preserve">7.99796056747437</t>
+    <t xml:space="preserve">7.99796152114868</t>
   </si>
   <si>
     <t xml:space="preserve">8.21067428588867</t>
@@ -278,28 +278,28 @@
     <t xml:space="preserve">8.13751602172852</t>
   </si>
   <si>
-    <t xml:space="preserve">8.21827411651611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22777462005615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.17076969146729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29428100585938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33703517913818</t>
+    <t xml:space="preserve">8.2182731628418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22777557373047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1707706451416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29428195953369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33703708648682</t>
   </si>
   <si>
     <t xml:space="preserve">8.3607873916626</t>
   </si>
   <si>
-    <t xml:space="preserve">8.34653568267822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28003025054932</t>
+    <t xml:space="preserve">8.34653663635254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.280029296875</t>
   </si>
   <si>
     <t xml:space="preserve">8.19927310943604</t>
@@ -311,7 +311,7 @@
     <t xml:space="preserve">8.26577854156494</t>
   </si>
   <si>
-    <t xml:space="preserve">8.13276672363281</t>
+    <t xml:space="preserve">8.13276767730713</t>
   </si>
   <si>
     <t xml:space="preserve">8.03300762176514</t>
@@ -320,7 +320,7 @@
     <t xml:space="preserve">7.93799781799316</t>
   </si>
   <si>
-    <t xml:space="preserve">7.75748062133789</t>
+    <t xml:space="preserve">7.75748109817505</t>
   </si>
   <si>
     <t xml:space="preserve">7.74322891235352</t>
@@ -332,85 +332,85 @@
     <t xml:space="preserve">7.67197275161743</t>
   </si>
   <si>
-    <t xml:space="preserve">7.75273132324219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10901355743408</t>
+    <t xml:space="preserve">7.75273084640503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1090145111084</t>
   </si>
   <si>
     <t xml:space="preserve">8.06625938415527</t>
   </si>
   <si>
-    <t xml:space="preserve">8.18026924133301</t>
+    <t xml:space="preserve">8.18027114868164</t>
   </si>
   <si>
     <t xml:space="preserve">7.7907338142395</t>
   </si>
   <si>
-    <t xml:space="preserve">7.82873725891113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83823776245117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99025392532349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.04725933074951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00925445556641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92849731445312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83348798751831</t>
+    <t xml:space="preserve">7.82873821258545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83823728561401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99025249481201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0472583770752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00925350189209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92849683761597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83348894119263</t>
   </si>
   <si>
     <t xml:space="preserve">7.99975442886353</t>
   </si>
   <si>
-    <t xml:space="preserve">8.08051204681396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03775596618652</t>
+    <t xml:space="preserve">8.08051109313965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03775691986084</t>
   </si>
   <si>
     <t xml:space="preserve">8.0282564163208</t>
   </si>
   <si>
-    <t xml:space="preserve">8.17552089691162</t>
+    <t xml:space="preserve">8.17551898956299</t>
   </si>
   <si>
     <t xml:space="preserve">8.30378246307373</t>
   </si>
   <si>
-    <t xml:space="preserve">8.28953075408936</t>
+    <t xml:space="preserve">8.28953266143799</t>
   </si>
   <si>
     <t xml:space="preserve">8.31803417205811</t>
   </si>
   <si>
-    <t xml:space="preserve">8.31328392028809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.43204402923584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48904895782471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47479724884033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45579719543457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41779136657715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27527904510498</t>
+    <t xml:space="preserve">8.31328296661377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.43204498291016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48905086517334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47479915618896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45579528808594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41779232025146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2752799987793</t>
   </si>
   <si>
     <t xml:space="preserve">8.41304206848145</t>
@@ -425,7 +425,7 @@
     <t xml:space="preserve">8.7360725402832</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64106559753418</t>
+    <t xml:space="preserve">8.64106369018555</t>
   </si>
   <si>
     <t xml:space="preserve">8.76457595825195</t>
@@ -434,115 +434,115 @@
     <t xml:space="preserve">8.88808727264404</t>
   </si>
   <si>
-    <t xml:space="preserve">8.78357791900635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91659069061279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.94034099578857</t>
+    <t xml:space="preserve">8.78357887268066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91658973693848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.94034194946289</t>
   </si>
   <si>
     <t xml:space="preserve">9.05435276031494</t>
   </si>
   <si>
-    <t xml:space="preserve">8.97834587097168</t>
+    <t xml:space="preserve">8.97834491729736</t>
   </si>
   <si>
     <t xml:space="preserve">8.94984436035156</t>
   </si>
   <si>
-    <t xml:space="preserve">8.878586769104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.88333606719971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.95459270477295</t>
+    <t xml:space="preserve">8.87858581542969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.88333797454834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.95459365844727</t>
   </si>
   <si>
     <t xml:space="preserve">8.86433506011963</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90233993530273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89283752441406</t>
+    <t xml:space="preserve">8.9023380279541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89283847808838</t>
   </si>
   <si>
     <t xml:space="preserve">8.78832721710205</t>
   </si>
   <si>
-    <t xml:space="preserve">8.72182178497314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.70281887054443</t>
+    <t xml:space="preserve">8.72182273864746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.70282077789307</t>
   </si>
   <si>
     <t xml:space="preserve">8.68856906890869</t>
   </si>
   <si>
-    <t xml:space="preserve">8.61256122589111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66956806182861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66006565093994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.79782772064209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62681293487549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74557399749756</t>
+    <t xml:space="preserve">8.61256217956543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6695671081543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66006755828857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.79782962799072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6268138885498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74557304382324</t>
   </si>
   <si>
     <t xml:space="preserve">8.62206172943115</t>
   </si>
   <si>
-    <t xml:space="preserve">8.68381977081299</t>
+    <t xml:space="preserve">8.68381786346436</t>
   </si>
   <si>
     <t xml:space="preserve">8.74082279205322</t>
   </si>
   <si>
-    <t xml:space="preserve">8.59356021881104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65531539916992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.69331836700439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.82158088684082</t>
+    <t xml:space="preserve">8.5935583114624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65531444549561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.69331932067871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8215799331665</t>
   </si>
   <si>
     <t xml:space="preserve">9.21586894989014</t>
   </si>
   <si>
-    <t xml:space="preserve">9.38688373565674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20636653900146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14936351776123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02584934234619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.07335472106934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.94509315490723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63156223297119</t>
+    <t xml:space="preserve">9.38688468933105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20636749267578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.14936256408691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02585124969482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.07335567474365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.94509220123291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63156414031982</t>
   </si>
   <si>
     <t xml:space="preserve">8.55080604553223</t>
@@ -551,10 +551,10 @@
     <t xml:space="preserve">8.52705383300781</t>
   </si>
   <si>
-    <t xml:space="preserve">8.52230453491211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71232223510742</t>
+    <t xml:space="preserve">8.52230358123779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71232032775879</t>
   </si>
   <si>
     <t xml:space="preserve">8.47004795074463</t>
@@ -578,61 +578,61 @@
     <t xml:space="preserve">9.19686698913574</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64581394195557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28478145599365</t>
+    <t xml:space="preserve">8.64581489562988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28477954864502</t>
   </si>
   <si>
     <t xml:space="preserve">8.43679523468018</t>
   </si>
   <si>
-    <t xml:space="preserve">7.5532112121582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10426425933838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07576084136963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.51280212402344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53655433654785</t>
+    <t xml:space="preserve">7.55321168899536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10426330566406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07575988769531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.51280117034912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53655529022217</t>
   </si>
   <si>
     <t xml:space="preserve">8.57455730438232</t>
   </si>
   <si>
-    <t xml:space="preserve">8.60781192779541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49855136871338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35603809356689</t>
+    <t xml:space="preserve">8.60781002044678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.49854946136475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35603713989258</t>
   </si>
   <si>
     <t xml:space="preserve">8.30853271484375</t>
   </si>
   <si>
-    <t xml:space="preserve">8.50329971313477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.70756912231445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77882671356201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85483360290527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.80257987976074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8738374710083</t>
+    <t xml:space="preserve">8.5033016204834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.70757102966309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.7788257598877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85483455657959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.80258083343506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.87383651733398</t>
   </si>
   <si>
     <t xml:space="preserve">8.84058380126953</t>
@@ -641,25 +641,25 @@
     <t xml:space="preserve">9.29187488555908</t>
   </si>
   <si>
-    <t xml:space="preserve">9.10185718536377</t>
+    <t xml:space="preserve">9.10185623168945</t>
   </si>
   <si>
     <t xml:space="preserve">9.27762413024902</t>
   </si>
   <si>
-    <t xml:space="preserve">9.4058837890625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47714233398438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5483980178833</t>
+    <t xml:space="preserve">9.40588569641113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47714328765869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.54839897155762</t>
   </si>
   <si>
     <t xml:space="preserve">9.51989650726318</t>
   </si>
   <si>
-    <t xml:space="preserve">9.43438911437988</t>
+    <t xml:space="preserve">9.43438816070557</t>
   </si>
   <si>
     <t xml:space="preserve">9.50089550018311</t>
@@ -668,22 +668,22 @@
     <t xml:space="preserve">9.58640384674072</t>
   </si>
   <si>
-    <t xml:space="preserve">9.6244068145752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.57690143585205</t>
+    <t xml:space="preserve">9.62440776824951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.57690238952637</t>
   </si>
   <si>
     <t xml:space="preserve">9.49614429473877</t>
   </si>
   <si>
-    <t xml:space="preserve">9.24912166595459</t>
+    <t xml:space="preserve">9.24912261962891</t>
   </si>
   <si>
     <t xml:space="preserve">9.24437046051025</t>
   </si>
   <si>
-    <t xml:space="preserve">9.2966251373291</t>
+    <t xml:space="preserve">9.29662609100342</t>
   </si>
   <si>
     <t xml:space="preserve">9.60540390014648</t>
@@ -692,7 +692,7 @@
     <t xml:space="preserve">9.95693778991699</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1089534759521</t>
+    <t xml:space="preserve">10.1089525222778</t>
   </si>
   <si>
     <t xml:space="preserve">9.97593975067139</t>
@@ -701,91 +701,91 @@
     <t xml:space="preserve">10.061448097229</t>
   </si>
   <si>
-    <t xml:space="preserve">9.78592109680176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85242748260498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.86192989349365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.80492496490479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.93793773651123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1754589080811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1564569473267</t>
+    <t xml:space="preserve">9.78592205047607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85242938995361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.86192893981934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.80492401123047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.93793678283691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1754579544067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1564559936523</t>
   </si>
   <si>
     <t xml:space="preserve">10.3369722366333</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3939781188965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4129819869995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5839977264404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6315002441406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5174913406372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4889888763428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7360124588013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6695051193237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6600046157837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9735336303711</t>
+    <t xml:space="preserve">10.3939800262451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4129810333252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5839967727661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6315011978149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5174903869629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4889879226685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7360105514526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.669506072998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6600036621094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9735345840454</t>
   </si>
   <si>
     <t xml:space="preserve">11.0495414733887</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8785247802734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8120183944702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8025178909302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7835168838501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8690233230591</t>
+    <t xml:space="preserve">10.8785238265991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8120193481445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8025197982788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7835149765015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8690242767334</t>
   </si>
   <si>
     <t xml:space="preserve">11.0590410232544</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0020351409912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0970449447632</t>
+    <t xml:space="preserve">11.0020370483398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0970458984375</t>
   </si>
   <si>
     <t xml:space="preserve">11.1635522842407</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2965641021729</t>
+    <t xml:space="preserve">11.2965650558472</t>
   </si>
   <si>
     <t xml:space="preserve">11.2585620880127</t>
@@ -794,13 +794,13 @@
     <t xml:space="preserve">11.4200773239136</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1255483627319</t>
+    <t xml:space="preserve">11.1255502700806</t>
   </si>
   <si>
     <t xml:space="preserve">11.3725719451904</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3345680236816</t>
+    <t xml:space="preserve">11.3345670700073</t>
   </si>
   <si>
     <t xml:space="preserve">11.3155670166016</t>
@@ -812,22 +812,22 @@
     <t xml:space="preserve">11.4485807418823</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6005935668945</t>
+    <t xml:space="preserve">11.6005926132202</t>
   </si>
   <si>
     <t xml:space="preserve">11.5815906524658</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6290950775146</t>
+    <t xml:space="preserve">11.629096031189</t>
   </si>
   <si>
     <t xml:space="preserve">11.7533168792725</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0017614364624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0399837493896</t>
+    <t xml:space="preserve">12.0017623901367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0399827957153</t>
   </si>
   <si>
     <t xml:space="preserve">12.1259832382202</t>
@@ -836,34 +836,34 @@
     <t xml:space="preserve">12.0973167419434</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1068725585938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1164293289185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1450958251953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.240650177002</t>
+    <t xml:space="preserve">12.1068744659424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1164283752441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.145094871521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2406511306763</t>
   </si>
   <si>
     <t xml:space="preserve">12.2788724899292</t>
   </si>
   <si>
-    <t xml:space="preserve">12.202428817749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3935403823853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3648729324341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4222068786621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.087760925293</t>
+    <t xml:space="preserve">12.2024278640747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3935394287109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3648719787598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4222059249878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0877618789673</t>
   </si>
   <si>
     <t xml:space="preserve">12.3266496658325</t>
@@ -872,7 +872,7 @@
     <t xml:space="preserve">11.6577625274658</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4666509628296</t>
+    <t xml:space="preserve">11.4666519165039</t>
   </si>
   <si>
     <t xml:space="preserve">11.8679838180542</t>
@@ -884,10 +884,10 @@
     <t xml:space="preserve">11.9444284439087</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9348726272583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8010959625244</t>
+    <t xml:space="preserve">11.9348735809326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8010950088501</t>
   </si>
   <si>
     <t xml:space="preserve">11.7437610626221</t>
@@ -896,7 +896,7 @@
     <t xml:space="preserve">11.6959838867188</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6386518478394</t>
+    <t xml:space="preserve">11.6386528015137</t>
   </si>
   <si>
     <t xml:space="preserve">11.5430955886841</t>
@@ -908,28 +908,28 @@
     <t xml:space="preserve">11.0462083816528</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8550968170166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7213191986084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7690982818604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9028749465942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0748748779297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0653171539307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1130971908569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3042058944702</t>
+    <t xml:space="preserve">10.855094909668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7213182449341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.769097328186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9028739929199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0748739242554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.065318107605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1130962371826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3042068481445</t>
   </si>
   <si>
     <t xml:space="preserve">11.5239849090576</t>
@@ -947,31 +947,31 @@
     <t xml:space="preserve">11.4379844665527</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6768751144409</t>
+    <t xml:space="preserve">11.6768732070923</t>
   </si>
   <si>
     <t xml:space="preserve">11.6004285812378</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5048723220825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4475393295288</t>
+    <t xml:space="preserve">11.5048742294312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4475383758545</t>
   </si>
   <si>
     <t xml:space="preserve">11.418872833252</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2755393981934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1990966796875</t>
+    <t xml:space="preserve">11.2755403518677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1990957260132</t>
   </si>
   <si>
     <t xml:space="preserve">11.0844297409058</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8264312744141</t>
+    <t xml:space="preserve">10.8264293670654</t>
   </si>
   <si>
     <t xml:space="preserve">10.9984292984009</t>
@@ -980,19 +980,19 @@
     <t xml:space="preserve">10.9506521224976</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3615407943726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3328733444214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2373199462891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2946519851685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.485764503479</t>
+    <t xml:space="preserve">11.3615417480469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3328742980957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2373189926147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2946500778198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4857635498047</t>
   </si>
   <si>
     <t xml:space="preserve">11.4953174591064</t>
@@ -1001,7 +1001,7 @@
     <t xml:space="preserve">11.4093179702759</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2277631759644</t>
+    <t xml:space="preserve">11.2277641296387</t>
   </si>
   <si>
     <t xml:space="preserve">11.2564296722412</t>
@@ -1016,7 +1016,7 @@
     <t xml:space="preserve">11.8966493606567</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9922065734863</t>
+    <t xml:space="preserve">11.992205619812</t>
   </si>
   <si>
     <t xml:space="preserve">12.1642045974731</t>
@@ -1025,13 +1025,13 @@
     <t xml:space="preserve">12.1928720474243</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1355390548706</t>
+    <t xml:space="preserve">12.1355400085449</t>
   </si>
   <si>
     <t xml:space="preserve">12.2310953140259</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2215394973755</t>
+    <t xml:space="preserve">12.2215375900269</t>
   </si>
   <si>
     <t xml:space="preserve">12.2597627639771</t>
@@ -1046,16 +1046,16 @@
     <t xml:space="preserve">12.403094291687</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3362045288086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2884283065796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6706504821777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7088718414307</t>
+    <t xml:space="preserve">12.3362054824829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2884292602539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6706495285034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7088737487793</t>
   </si>
   <si>
     <t xml:space="preserve">12.8330945968628</t>
@@ -1064,49 +1064,49 @@
     <t xml:space="preserve">12.9764270782471</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0050926208496</t>
+    <t xml:space="preserve">13.0050945281982</t>
   </si>
   <si>
     <t xml:space="preserve">13.0242042541504</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9955387115479</t>
+    <t xml:space="preserve">12.9955377578735</t>
   </si>
   <si>
     <t xml:space="preserve">12.3744277954102</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9635391235352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0304279327393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2119827270508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3553171157837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4604272842407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0782070159912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6195402145386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.734206199646</t>
+    <t xml:space="preserve">11.9635410308838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0304288864136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2119836807251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3553161621094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.460428237915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0782060623169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6195383071899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7342071533203</t>
   </si>
   <si>
     <t xml:space="preserve">11.5717620849609</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8488731384277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9539852142334</t>
+    <t xml:space="preserve">11.8488721847534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9539842605591</t>
   </si>
   <si>
     <t xml:space="preserve">12.2693166732788</t>
@@ -1115,16 +1115,16 @@
     <t xml:space="preserve">12.250205039978</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3839836120605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3170948028564</t>
+    <t xml:space="preserve">12.3839845657349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3170957565308</t>
   </si>
   <si>
     <t xml:space="preserve">12.5464277267456</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5177621841431</t>
+    <t xml:space="preserve">12.5177602767944</t>
   </si>
   <si>
     <t xml:space="preserve">12.3457612991333</t>
@@ -1133,16 +1133,16 @@
     <t xml:space="preserve">11.9157619476318</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3075380325317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7279834747314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7375383377075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6897602081299</t>
+    <t xml:space="preserve">12.3075389862061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7279825210571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7375392913818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6897611618042</t>
   </si>
   <si>
     <t xml:space="preserve">12.8235387802124</t>
@@ -1154,37 +1154,37 @@
     <t xml:space="preserve">13.320426940918</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2822046279907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1484260559082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6262035369873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6644258499146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.740870475769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7599821090698</t>
+    <t xml:space="preserve">13.2822036743164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1484279632568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6262044906616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6644268035889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7408714294434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7599802017212</t>
   </si>
   <si>
     <t xml:space="preserve">13.8077583312988</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7122030258179</t>
+    <t xml:space="preserve">13.7122039794922</t>
   </si>
   <si>
     <t xml:space="preserve">13.4542045593262</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6739826202393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5019807815552</t>
+    <t xml:space="preserve">13.6739816665649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5019826889038</t>
   </si>
   <si>
     <t xml:space="preserve">13.167537689209</t>
@@ -1196,13 +1196,13 @@
     <t xml:space="preserve">12.5942058563232</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5655374526978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.651538848877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6993169784546</t>
+    <t xml:space="preserve">12.5655384063721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6515378952026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6993160247803</t>
   </si>
   <si>
     <t xml:space="preserve">13.0146493911743</t>
@@ -1217,7 +1217,7 @@
     <t xml:space="preserve">12.7853164672852</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4699831008911</t>
+    <t xml:space="preserve">12.4699840545654</t>
   </si>
   <si>
     <t xml:space="preserve">12.4413166046143</t>
@@ -1229,7 +1229,7 @@
     <t xml:space="preserve">13.2344274520874</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2917604446411</t>
+    <t xml:space="preserve">13.2917594909668</t>
   </si>
   <si>
     <t xml:space="preserve">13.4637603759766</t>
@@ -1250,10 +1250,10 @@
     <t xml:space="preserve">13.5402040481567</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4446487426758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0815382003784</t>
+    <t xml:space="preserve">13.4446477890015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0815372467041</t>
   </si>
   <si>
     <t xml:space="preserve">13.0528717041016</t>
@@ -1262,13 +1262,13 @@
     <t xml:space="preserve">13.4924259185791</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7695360183716</t>
+    <t xml:space="preserve">13.7695379257202</t>
   </si>
   <si>
     <t xml:space="preserve">13.8459815979004</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5115375518799</t>
+    <t xml:space="preserve">13.5115385055542</t>
   </si>
   <si>
     <t xml:space="preserve">13.9988689422607</t>
@@ -1280,10 +1280,10 @@
     <t xml:space="preserve">14.3524255752563</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6104259490967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5148696899414</t>
+    <t xml:space="preserve">14.610424041748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5148706436157</t>
   </si>
   <si>
     <t xml:space="preserve">14.7824249267578</t>
@@ -1295,49 +1295,49 @@
     <t xml:space="preserve">14.9066467285156</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1359806060791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0786466598511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3366441726685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1933135986328</t>
+    <t xml:space="preserve">15.1359796524048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0786457061768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3366451263428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1933126449585</t>
   </si>
   <si>
     <t xml:space="preserve">15.2219800949097</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2602024078369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1264238357544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.116868019104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9353122711182</t>
+    <t xml:space="preserve">15.2602014541626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1264247894287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1168689727783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9353132247925</t>
   </si>
   <si>
     <t xml:space="preserve">14.8110904693604</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3939790725708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4990892410278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4704236984253</t>
+    <t xml:space="preserve">15.3939800262451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4990901947021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4704256057739</t>
   </si>
   <si>
     <t xml:space="preserve">15.4799795150757</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6710891723633</t>
+    <t xml:space="preserve">15.6710901260376</t>
   </si>
   <si>
     <t xml:space="preserve">15.6233129501343</t>
@@ -1346,13 +1346,13 @@
     <t xml:space="preserve">15.7857580184937</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8908681869507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6519794464111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2410907745361</t>
+    <t xml:space="preserve">15.8908662796021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6519784927368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2410898208618</t>
   </si>
   <si>
     <t xml:space="preserve">15.5755338668823</t>
@@ -1373,46 +1373,46 @@
     <t xml:space="preserve">14.9535522460938</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0978899002075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1356287002563</t>
+    <t xml:space="preserve">15.0978918075562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1356296539307</t>
   </si>
   <si>
     <t xml:space="preserve">14.6167612075806</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8380813598633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8477029800415</t>
+    <t xml:space="preserve">14.838080406189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8477039337158</t>
   </si>
   <si>
     <t xml:space="preserve">15.4154376983643</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7233619689941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.358455657959</t>
+    <t xml:space="preserve">15.7233600616455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3584537506104</t>
   </si>
   <si>
     <t xml:space="preserve">16.704870223999</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3969459533691</t>
+    <t xml:space="preserve">16.3969478607178</t>
   </si>
   <si>
     <t xml:space="preserve">16.406566619873</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4450569152832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4546794891357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5701503753662</t>
+    <t xml:space="preserve">16.4450588226318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4546813964844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5701522827148</t>
   </si>
   <si>
     <t xml:space="preserve">16.3488330841064</t>
@@ -1421,13 +1421,13 @@
     <t xml:space="preserve">16.3103408813477</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7722282409668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9743003845215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9165649414062</t>
+    <t xml:space="preserve">16.7722263336182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9743022918701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9165668487549</t>
   </si>
   <si>
     <t xml:space="preserve">16.8203392028809</t>
@@ -1436,10 +1436,10 @@
     <t xml:space="preserve">16.5509090423584</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5027923583984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9261894226074</t>
+    <t xml:space="preserve">16.5027904510498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9261875152588</t>
   </si>
   <si>
     <t xml:space="preserve">17.0897731781006</t>
@@ -1448,19 +1448,19 @@
     <t xml:space="preserve">17.1378860473633</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3014717102051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1763801574707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0224170684814</t>
+    <t xml:space="preserve">17.3014698028564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1763782501221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0224151611328</t>
   </si>
   <si>
     <t xml:space="preserve">16.6182651519775</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6952457427979</t>
+    <t xml:space="preserve">16.6952495574951</t>
   </si>
   <si>
     <t xml:space="preserve">16.4643039703369</t>
@@ -1469,10 +1469,10 @@
     <t xml:space="preserve">16.6471328735352</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8010940551758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.608642578125</t>
+    <t xml:space="preserve">16.8010959625244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6086444854736</t>
   </si>
   <si>
     <t xml:space="preserve">16.7626056671143</t>
@@ -1481,19 +1481,19 @@
     <t xml:space="preserve">17.3592090606689</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8018455505371</t>
+    <t xml:space="preserve">17.8018474578857</t>
   </si>
   <si>
     <t xml:space="preserve">18.2156200408936</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7056217193604</t>
+    <t xml:space="preserve">17.7056198120117</t>
   </si>
   <si>
     <t xml:space="preserve">18.3503379821777</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4369411468506</t>
+    <t xml:space="preserve">18.436939239502</t>
   </si>
   <si>
     <t xml:space="preserve">18.9950504302979</t>
@@ -1502,37 +1502,37 @@
     <t xml:space="preserve">18.4080715179443</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6871299743652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5235443115234</t>
+    <t xml:space="preserve">18.6871280670166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5235424041748</t>
   </si>
   <si>
     <t xml:space="preserve">18.3407135009766</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1290168762207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8980751037598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0520343780518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0231685638428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5716571807861</t>
+    <t xml:space="preserve">18.1290187835693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8980731964111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0520362854004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0231666564941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5716590881348</t>
   </si>
   <si>
     <t xml:space="preserve">18.6486377716064</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4754314422607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3022232055664</t>
+    <t xml:space="preserve">18.4754333496094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.302225112915</t>
   </si>
   <si>
     <t xml:space="preserve">18.3792057037354</t>
@@ -1541,10 +1541,10 @@
     <t xml:space="preserve">18.4850521087646</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3310890197754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2059993743896</t>
+    <t xml:space="preserve">18.331090927124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.205997467041</t>
   </si>
   <si>
     <t xml:space="preserve">18.2733554840088</t>
@@ -1562,13 +1562,13 @@
     <t xml:space="preserve">18.2829780578613</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0239219665527</t>
+    <t xml:space="preserve">19.0239200592041</t>
   </si>
   <si>
     <t xml:space="preserve">19.6301441192627</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7071266174316</t>
+    <t xml:space="preserve">19.707124710083</t>
   </si>
   <si>
     <t xml:space="preserve">19.6686363220215</t>
@@ -1580,16 +1580,16 @@
     <t xml:space="preserve">19.3414669036865</t>
   </si>
   <si>
-    <t xml:space="preserve">19.004674911499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7256183624268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8025989532471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0527858734131</t>
+    <t xml:space="preserve">19.0046768188477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7256202697754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8026008605957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0527877807617</t>
   </si>
   <si>
     <t xml:space="preserve">19.2452411651611</t>
@@ -1598,7 +1598,7 @@
     <t xml:space="preserve">18.9661827087402</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4176959991455</t>
+    <t xml:space="preserve">18.4176940917969</t>
   </si>
   <si>
     <t xml:space="preserve">18.7833557128906</t>
@@ -1607,34 +1607,34 @@
     <t xml:space="preserve">18.3118476867676</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5612850189209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8107166290283</t>
+    <t xml:space="preserve">17.5612812042236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8107147216797</t>
   </si>
   <si>
     <t xml:space="preserve">15.6848697662354</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8195886611938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.906192779541</t>
+    <t xml:space="preserve">15.8195896148682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9061908721924</t>
   </si>
   <si>
     <t xml:space="preserve">15.2326078414917</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6560049057007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6944913864136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0409069061279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9639291763306</t>
+    <t xml:space="preserve">15.6560029983521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6944952011108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0409088134766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9639263153076</t>
   </si>
   <si>
     <t xml:space="preserve">15.1748733520508</t>
@@ -1643,28 +1643,28 @@
     <t xml:space="preserve">15.2999668121338</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2229852676392</t>
+    <t xml:space="preserve">15.2229862213135</t>
   </si>
   <si>
     <t xml:space="preserve">15.2037410736084</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2422313690186</t>
+    <t xml:space="preserve">15.2422304153442</t>
   </si>
   <si>
     <t xml:space="preserve">15.0690231323242</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8765716552734</t>
+    <t xml:space="preserve">14.8765707015991</t>
   </si>
   <si>
     <t xml:space="preserve">14.9246845245361</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8958158493042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8669490814209</t>
+    <t xml:space="preserve">14.8958168029785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8669471740723</t>
   </si>
   <si>
     <t xml:space="preserve">15.1556282043457</t>
@@ -1676,16 +1676,16 @@
     <t xml:space="preserve">15.011287689209</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0201578140259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9335527420044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3273296356201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2792158126831</t>
+    <t xml:space="preserve">14.0201587677002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.933554649353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3273305892944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2792167663574</t>
   </si>
   <si>
     <t xml:space="preserve">13.5871391296387</t>
@@ -1694,43 +1694,43 @@
     <t xml:space="preserve">13.4620456695557</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5967617034912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8565740585327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6929883956909</t>
+    <t xml:space="preserve">13.5967626571655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8565721511841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6929893493652</t>
   </si>
   <si>
     <t xml:space="preserve">13.4235553741455</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0778932571411</t>
+    <t xml:space="preserve">14.0778942108154</t>
   </si>
   <si>
     <t xml:space="preserve">14.2222318649292</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7129878997803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4339303970337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3761949539185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5205335617065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5494022369385</t>
+    <t xml:space="preserve">14.7129859924316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4339294433594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3761959075928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5205345153809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5494012832642</t>
   </si>
   <si>
     <t xml:space="preserve">14.0009126663208</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9431772232056</t>
+    <t xml:space="preserve">13.9431762695312</t>
   </si>
   <si>
     <t xml:space="preserve">13.7988376617432</t>
@@ -1742,37 +1742,37 @@
     <t xml:space="preserve">14.1067609786987</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1548738479614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6360054016113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9816675186157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.913556098938</t>
+    <t xml:space="preserve">14.1548748016357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.636004447937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9816656112671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9135570526123</t>
   </si>
   <si>
     <t xml:space="preserve">13.5197820663452</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3850650787354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9527997970581</t>
+    <t xml:space="preserve">13.385064125061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9527988433838</t>
   </si>
   <si>
     <t xml:space="preserve">14.2799682617188</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0594005584717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.482795715332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1075124740601</t>
+    <t xml:space="preserve">15.0593996047974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4827976226807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1075134277344</t>
   </si>
   <si>
     <t xml:space="preserve">15.309588432312</t>
@@ -1790,46 +1790,46 @@
     <t xml:space="preserve">15.5886449813843</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5212850570679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3673257827759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2518529891968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1460046768188</t>
+    <t xml:space="preserve">15.5212860107422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3673248291016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2518548965454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1460037231445</t>
   </si>
   <si>
     <t xml:space="preserve">15.0497789382935</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0882692337036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1652488708496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8484563827515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9446811676025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2903442382812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4443035125732</t>
+    <t xml:space="preserve">15.0882682800293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1652498245239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8484525680542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9446821212769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2903432846069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4443044662476</t>
   </si>
   <si>
     <t xml:space="preserve">15.7810974121094</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6656265258789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6271352767944</t>
+    <t xml:space="preserve">15.6656274795532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6271333694458</t>
   </si>
   <si>
     <t xml:space="preserve">15.0016651153564</t>
@@ -1838,70 +1838,70 @@
     <t xml:space="preserve">15.1267604827881</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4539279937744</t>
+    <t xml:space="preserve">15.4539289474487</t>
   </si>
   <si>
     <t xml:space="preserve">15.4250612258911</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6752490997314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5982675552368</t>
+    <t xml:space="preserve">15.6752481460571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5982646942139</t>
   </si>
   <si>
     <t xml:space="preserve">15.7426080703735</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9735498428345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.67600440979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2044925689697</t>
+    <t xml:space="preserve">15.9735488891602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6760005950928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2044944763184</t>
   </si>
   <si>
     <t xml:space="preserve">15.4924192428589</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0216636657715</t>
+    <t xml:space="preserve">16.0216617584229</t>
   </si>
   <si>
     <t xml:space="preserve">16.93581199646</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0993957519531</t>
+    <t xml:space="preserve">17.0993976593018</t>
   </si>
   <si>
     <t xml:space="preserve">16.7433586120605</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4354362487793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4739265441895</t>
+    <t xml:space="preserve">16.4354343414307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4739284515381</t>
   </si>
   <si>
     <t xml:space="preserve">17.0031700134277</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6663780212402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0609073638916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.983922958374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1475105285645</t>
+    <t xml:space="preserve">16.6663799285889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.060905456543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9839248657227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1475086212158</t>
   </si>
   <si>
     <t xml:space="preserve">17.1186428070068</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4931716918945</t>
+    <t xml:space="preserve">16.4931697845459</t>
   </si>
   <si>
     <t xml:space="preserve">16.137134552002</t>
@@ -1910,40 +1910,40 @@
     <t xml:space="preserve">16.1275119781494</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1660003662109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0890197753906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5990200042725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4835472106934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1563777923584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7633571624756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9269390106201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3599605560303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5709037780762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5420360565186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0905265808105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9469413757324</t>
+    <t xml:space="preserve">16.1660022735596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.089017868042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5990219116211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.483549118042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1563816070557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7633590698242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9269409179688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3599586486816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5709075927734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5420379638672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0905246734619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9469394683838</t>
   </si>
   <si>
     <t xml:space="preserve">18.8521842956543</t>
@@ -1952,10 +1952,10 @@
     <t xml:space="preserve">19.1526565551758</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8892974853516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7923698425293</t>
+    <t xml:space="preserve">19.8892955780029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7923679351807</t>
   </si>
   <si>
     <t xml:space="preserve">19.2108116149902</t>
@@ -1964,7 +1964,7 @@
     <t xml:space="preserve">19.2301979064941</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2689666748047</t>
+    <t xml:space="preserve">19.2689685821533</t>
   </si>
   <si>
     <t xml:space="preserve">18.8715705871582</t>
@@ -1973,13 +1973,13 @@
     <t xml:space="preserve">18.9878807067871</t>
   </si>
   <si>
-    <t xml:space="preserve">19.249584197998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3174304962158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.520975112915</t>
+    <t xml:space="preserve">19.2495822906494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3174324035645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5209770202637</t>
   </si>
   <si>
     <t xml:space="preserve">19.6760578155518</t>
@@ -1994,58 +1994,58 @@
     <t xml:space="preserve">19.4046649932861</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5403614044189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.199462890625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4514713287354</t>
+    <t xml:space="preserve">19.5403633117676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1994609832764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4514694213867</t>
   </si>
   <si>
     <t xml:space="preserve">20.5677814483643</t>
   </si>
   <si>
-    <t xml:space="preserve">20.897331237793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8585605621338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1105709075928</t>
+    <t xml:space="preserve">20.8973293304443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8585624694824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1105690002441</t>
   </si>
   <si>
     <t xml:space="preserve">20.2576160430908</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1413040161133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7729835510254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5985145568848</t>
+    <t xml:space="preserve">20.1413059234619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.772985458374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5985164642334</t>
   </si>
   <si>
     <t xml:space="preserve">19.9280681610107</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9668369293213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3933124542236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2382316589355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9474544525146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8505249023438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0249919891357</t>
+    <t xml:space="preserve">19.9668388366699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3933162689209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2382297515869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9474506378174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8505268096924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0249938964844</t>
   </si>
   <si>
     <t xml:space="preserve">20.6065521240234</t>
@@ -2060,22 +2060,22 @@
     <t xml:space="preserve">21.0136432647705</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9942588806152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.722864151001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3351573944092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4320831298828</t>
+    <t xml:space="preserve">20.9942569732666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7228622436523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3351554870605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4320850372314</t>
   </si>
   <si>
     <t xml:space="preserve">20.4902381896973</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5952033996582</t>
+    <t xml:space="preserve">21.5952014923096</t>
   </si>
   <si>
     <t xml:space="preserve">21.4982738494873</t>
@@ -2093,16 +2093,16 @@
     <t xml:space="preserve">21.30442237854</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4207324981689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.478889465332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5758152008057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3431930541992</t>
+    <t xml:space="preserve">21.4207344055176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4788913726807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5758171081543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3431911468506</t>
   </si>
   <si>
     <t xml:space="preserve">21.6145858764648</t>
@@ -2111,16 +2111,16 @@
     <t xml:space="preserve">22.1767597198486</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8164749145508</t>
+    <t xml:space="preserve">22.8164730072021</t>
   </si>
   <si>
     <t xml:space="preserve">22.8940162658691</t>
   </si>
   <si>
-    <t xml:space="preserve">22.85524559021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.428768157959</t>
+    <t xml:space="preserve">22.8552436828613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4287662506104</t>
   </si>
   <si>
     <t xml:space="preserve">22.5838489532471</t>
@@ -2129,10 +2129,10 @@
     <t xml:space="preserve">22.2930717468262</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2736854553223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6420059204102</t>
+    <t xml:space="preserve">22.2736835479736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6420078277588</t>
   </si>
   <si>
     <t xml:space="preserve">22.9327850341797</t>
@@ -2147,25 +2147,25 @@
     <t xml:space="preserve">22.3899974822998</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5644664764404</t>
+    <t xml:space="preserve">22.5644645690918</t>
   </si>
   <si>
     <t xml:space="preserve">21.6727428436279</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7810192108154</t>
+    <t xml:space="preserve">20.7810211181641</t>
   </si>
   <si>
     <t xml:space="preserve">20.7616348266602</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4401187896729</t>
+    <t xml:space="preserve">21.4401206970215</t>
   </si>
   <si>
     <t xml:space="preserve">21.0911827087402</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1881122589111</t>
+    <t xml:space="preserve">21.1881103515625</t>
   </si>
   <si>
     <t xml:space="preserve">21.4013481140137</t>
@@ -2174,16 +2174,16 @@
     <t xml:space="preserve">22.0604476928711</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8278255462646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5370426177979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6921253204346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9247493743896</t>
+    <t xml:space="preserve">21.827823638916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5370445251465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6921272277832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9247512817383</t>
   </si>
   <si>
     <t xml:space="preserve">22.0022926330566</t>
@@ -2192,19 +2192,19 @@
     <t xml:space="preserve">21.8084373474121</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9053688049316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9554901123047</t>
+    <t xml:space="preserve">21.9053649902344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9554862976074</t>
   </si>
   <si>
     <t xml:space="preserve">20.9167156219482</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8004035949707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1687240600586</t>
+    <t xml:space="preserve">20.8004016876221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1687259674072</t>
   </si>
   <si>
     <t xml:space="preserve">20.6840934753418</t>
@@ -2213,13 +2213,13 @@
     <t xml:space="preserve">21.2074947357178</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2462673187256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6259365081787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6453227996826</t>
+    <t xml:space="preserve">21.246265411377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6259384155273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.645320892334</t>
   </si>
   <si>
     <t xml:space="preserve">22.1573753356934</t>
@@ -2228,13 +2228,13 @@
     <t xml:space="preserve">22.3512268066406</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8746280670166</t>
+    <t xml:space="preserve">22.8746299743652</t>
   </si>
   <si>
     <t xml:space="preserve">22.9909400939941</t>
   </si>
   <si>
-    <t xml:space="preserve">23.359260559082</t>
+    <t xml:space="preserve">23.3592624664307</t>
   </si>
   <si>
     <t xml:space="preserve">23.8051242828369</t>
@@ -2243,28 +2243,28 @@
     <t xml:space="preserve">24.0765171051025</t>
   </si>
   <si>
-    <t xml:space="preserve">24.2703685760498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9214363098145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4448375701904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1540584564209</t>
+    <t xml:space="preserve">24.2703723907471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9214344024658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4448356628418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1540565490723</t>
   </si>
   <si>
     <t xml:space="preserve">24.2315979003906</t>
   </si>
   <si>
-    <t xml:space="preserve">24.3285255432129</t>
+    <t xml:space="preserve">24.3285236358643</t>
   </si>
   <si>
     <t xml:space="preserve">24.73561668396</t>
   </si>
   <si>
-    <t xml:space="preserve">25.2396354675293</t>
+    <t xml:space="preserve">25.2396335601807</t>
   </si>
   <si>
     <t xml:space="preserve">25.4722576141357</t>
@@ -2273,19 +2273,19 @@
     <t xml:space="preserve">25.7436504364014</t>
   </si>
   <si>
-    <t xml:space="preserve">24.6968460083008</t>
+    <t xml:space="preserve">24.6968441009521</t>
   </si>
   <si>
     <t xml:space="preserve">25.3559455871582</t>
   </si>
   <si>
-    <t xml:space="preserve">25.666109085083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2977886199951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.394718170166</t>
+    <t xml:space="preserve">25.6661109924316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2977905273438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3947162628174</t>
   </si>
   <si>
     <t xml:space="preserve">24.9876270294189</t>
@@ -2300,13 +2300,13 @@
     <t xml:space="preserve">25.0070095062256</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8131580352783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.910083770752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7162303924561</t>
+    <t xml:space="preserve">24.813159942627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9100856781006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7162322998047</t>
   </si>
   <si>
     <t xml:space="preserve">25.0263957977295</t>
@@ -2318,7 +2318,7 @@
     <t xml:space="preserve">24.8519268035889</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9294681549072</t>
+    <t xml:space="preserve">24.9294700622559</t>
   </si>
   <si>
     <t xml:space="preserve">24.9488544464111</t>
@@ -2327,19 +2327,19 @@
     <t xml:space="preserve">25.0651664733887</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6854953765869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7242641448975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2202472686768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3753299713135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5885696411133</t>
+    <t xml:space="preserve">25.6854972839355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7242660522461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.220251083374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3753337860107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5885677337646</t>
   </si>
   <si>
     <t xml:space="preserve">26.1507415771484</t>
@@ -2348,31 +2348,31 @@
     <t xml:space="preserve">25.9956588745117</t>
   </si>
   <si>
-    <t xml:space="preserve">25.9375057220459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5304126739502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2088966369629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1427097320557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8906993865967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2784042358398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.0538158416748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6159858703613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6741428375244</t>
+    <t xml:space="preserve">25.9375038146973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5304145812988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2088985443115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.142707824707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.890697479248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2784061431885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.0538139343262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.61598777771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.674144744873</t>
   </si>
   <si>
     <t xml:space="preserve">26.790454864502</t>
@@ -2381,7 +2381,7 @@
     <t xml:space="preserve">27.5464820861816</t>
   </si>
   <si>
-    <t xml:space="preserve">27.6240215301514</t>
+    <t xml:space="preserve">27.6240234375</t>
   </si>
   <si>
     <t xml:space="preserve">27.9341869354248</t>
@@ -2393,31 +2393,31 @@
     <t xml:space="preserve">28.2443523406982</t>
   </si>
   <si>
-    <t xml:space="preserve">28.6126728057861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.2136135101318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.7095985412598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.3025074005127</t>
+    <t xml:space="preserve">28.6126747131348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.2136154174805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.7096004486084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.3025093078613</t>
   </si>
   <si>
     <t xml:space="preserve">26.3639793395996</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6079521179199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9682388305664</t>
+    <t xml:space="preserve">25.6079540252686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.968240737915</t>
   </si>
   <si>
     <t xml:space="preserve">23.960205078125</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8325424194336</t>
+    <t xml:space="preserve">24.8325443267822</t>
   </si>
   <si>
     <t xml:space="preserve">23.785737991333</t>
@@ -2429,28 +2429,28 @@
     <t xml:space="preserve">19.6372871398926</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8183889389038</t>
+    <t xml:space="preserve">15.8183870315552</t>
   </si>
   <si>
     <t xml:space="preserve">17.582447052002</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9637775421143</t>
+    <t xml:space="preserve">15.9637746810913</t>
   </si>
   <si>
     <t xml:space="preserve">16.3611755371094</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1559734344482</t>
+    <t xml:space="preserve">17.1559715270996</t>
   </si>
   <si>
     <t xml:space="preserve">17.7859935760498</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0089244842529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4063205718994</t>
+    <t xml:space="preserve">18.0089225769043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.406322479248</t>
   </si>
   <si>
     <t xml:space="preserve">19.1138858795166</t>
@@ -2459,64 +2459,64 @@
     <t xml:space="preserve">18.4160137176514</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4935550689697</t>
+    <t xml:space="preserve">18.4935569763184</t>
   </si>
   <si>
     <t xml:space="preserve">18.3869380950928</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1446228027344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.640604019165</t>
+    <t xml:space="preserve">18.1446208953857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6406059265137</t>
   </si>
   <si>
     <t xml:space="preserve">17.6696815490723</t>
   </si>
   <si>
-    <t xml:space="preserve">17.059045791626</t>
+    <t xml:space="preserve">17.0590476989746</t>
   </si>
   <si>
     <t xml:space="preserve">17.9119987487793</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0654201507568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7067928314209</t>
+    <t xml:space="preserve">19.0654220581055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7067947387695</t>
   </si>
   <si>
     <t xml:space="preserve">18.7213344573975</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0460376739502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2221641540527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1784191131592</t>
+    <t xml:space="preserve">19.0460357666016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2221622467041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1784172058105</t>
   </si>
   <si>
     <t xml:space="preserve">19.5597476959229</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1284236907959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3060817718506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5483951568604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2866954803467</t>
+    <t xml:space="preserve">19.1284275054932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.306079864502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.548397064209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.286693572998</t>
   </si>
   <si>
     <t xml:space="preserve">20.2673091888428</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0637664794922</t>
+    <t xml:space="preserve">20.0637645721436</t>
   </si>
   <si>
     <t xml:space="preserve">20.9845657348633</t>
@@ -2531,22 +2531,22 @@
     <t xml:space="preserve">22.671085357666</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1186027526855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3334999084473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7502841949463</t>
+    <t xml:space="preserve">22.1186008453369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3334980010986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7502822875977</t>
   </si>
   <si>
     <t xml:space="preserve">22.186450958252</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2656536102295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.322151184082</t>
+    <t xml:space="preserve">21.2656497955322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3221492767334</t>
   </si>
   <si>
     <t xml:space="preserve">21.9829063415527</t>
@@ -2555,13 +2555,13 @@
     <t xml:space="preserve">23.3786468505859</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4852638244629</t>
+    <t xml:space="preserve">23.4852657318115</t>
   </si>
   <si>
     <t xml:space="preserve">22.6129283905029</t>
   </si>
   <si>
-    <t xml:space="preserve">23.8535861968994</t>
+    <t xml:space="preserve">23.853588104248</t>
   </si>
   <si>
     <t xml:space="preserve">24.1831359863281</t>
@@ -2576,13 +2576,13 @@
     <t xml:space="preserve">24.1734428405762</t>
   </si>
   <si>
-    <t xml:space="preserve">23.708194732666</t>
+    <t xml:space="preserve">23.7081966400146</t>
   </si>
   <si>
     <t xml:space="preserve">23.029712677002</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9715576171875</t>
+    <t xml:space="preserve">22.9715557098389</t>
   </si>
   <si>
     <t xml:space="preserve">22.2155303955078</t>
@@ -2591,13 +2591,13 @@
     <t xml:space="preserve">22.3996906280518</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0394058227539</t>
+    <t xml:space="preserve">23.0394039154053</t>
   </si>
   <si>
     <t xml:space="preserve">23.2817192077637</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6500396728516</t>
+    <t xml:space="preserve">23.6500415802002</t>
   </si>
   <si>
     <t xml:space="preserve">23.02001953125</t>
@@ -2618,19 +2618,19 @@
     <t xml:space="preserve">22.7970905303955</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9812469482422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0781764984131</t>
+    <t xml:space="preserve">22.9812488555908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0781745910645</t>
   </si>
   <si>
     <t xml:space="preserve">23.620964050293</t>
   </si>
   <si>
-    <t xml:space="preserve">23.5918846130371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.89235496521</t>
+    <t xml:space="preserve">23.5918827056885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8923568725586</t>
   </si>
   <si>
     <t xml:space="preserve">24.0959033966064</t>
@@ -2645,7 +2645,7 @@
     <t xml:space="preserve">24.1152877807617</t>
   </si>
   <si>
-    <t xml:space="preserve">24.5223770141602</t>
+    <t xml:space="preserve">24.5223789215088</t>
   </si>
   <si>
     <t xml:space="preserve">24.6871528625488</t>
@@ -2654,34 +2654,34 @@
     <t xml:space="preserve">25.1039371490479</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6564178466797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4431781768799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4334850311279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1233215332031</t>
+    <t xml:space="preserve">25.6564159393311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4431800842285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4334869384766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1233234405518</t>
   </si>
   <si>
     <t xml:space="preserve">25.5110282897949</t>
   </si>
   <si>
-    <t xml:space="preserve">26.9552326202393</t>
+    <t xml:space="preserve">26.9552307128906</t>
   </si>
   <si>
     <t xml:space="preserve">26.9067668914795</t>
   </si>
   <si>
-    <t xml:space="preserve">28.0601921081543</t>
+    <t xml:space="preserve">28.0601902008057</t>
   </si>
   <si>
     <t xml:space="preserve">28.6514415740967</t>
   </si>
   <si>
-    <t xml:space="preserve">27.9148025512695</t>
+    <t xml:space="preserve">27.9148006439209</t>
   </si>
   <si>
     <t xml:space="preserve">28.0020351409912</t>
@@ -2696,7 +2696,7 @@
     <t xml:space="preserve">27.4204788208008</t>
   </si>
   <si>
-    <t xml:space="preserve">27.4398632049561</t>
+    <t xml:space="preserve">27.4398612976074</t>
   </si>
   <si>
     <t xml:space="preserve">27.78879737854</t>
@@ -2705,25 +2705,25 @@
     <t xml:space="preserve">27.633716583252</t>
   </si>
   <si>
-    <t xml:space="preserve">27.45924949646</t>
+    <t xml:space="preserve">27.4592475891113</t>
   </si>
   <si>
     <t xml:space="preserve">27.6918697357178</t>
   </si>
   <si>
-    <t xml:space="preserve">26.9649257659912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.4495544433594</t>
+    <t xml:space="preserve">26.9649219512939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.449556350708</t>
   </si>
   <si>
     <t xml:space="preserve">27.1103134155273</t>
   </si>
   <si>
-    <t xml:space="preserve">26.8970737457275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.8486137390137</t>
+    <t xml:space="preserve">26.8970756530762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.8486156463623</t>
   </si>
   <si>
     <t xml:space="preserve">27.0618495941162</t>
@@ -2732,7 +2732,7 @@
     <t xml:space="preserve">26.9358463287354</t>
   </si>
   <si>
-    <t xml:space="preserve">26.6547603607178</t>
+    <t xml:space="preserve">26.6547584533691</t>
   </si>
   <si>
     <t xml:space="preserve">26.8583030700684</t>
@@ -2744,67 +2744,67 @@
     <t xml:space="preserve">27.0715446472168</t>
   </si>
   <si>
-    <t xml:space="preserve">27.1587753295898</t>
+    <t xml:space="preserve">27.1587772369385</t>
   </si>
   <si>
     <t xml:space="preserve">27.798490524292</t>
   </si>
   <si>
-    <t xml:space="preserve">27.8566474914551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.6029796600342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.7774486541748</t>
+    <t xml:space="preserve">27.8566493988037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.6029777526855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.7774467468262</t>
   </si>
   <si>
     <t xml:space="preserve">28.9325294494629</t>
   </si>
   <si>
-    <t xml:space="preserve">29.4268550872803</t>
+    <t xml:space="preserve">29.4268531799316</t>
   </si>
   <si>
     <t xml:space="preserve">29.2233085632324</t>
   </si>
   <si>
-    <t xml:space="preserve">29.1263809204102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.9923439025879</t>
+    <t xml:space="preserve">29.1263828277588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9923419952393</t>
   </si>
   <si>
     <t xml:space="preserve">28.0698833465576</t>
   </si>
   <si>
-    <t xml:space="preserve">27.8857250213623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.0989608764648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.8242511749268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.4155006408691</t>
+    <t xml:space="preserve">27.8857231140137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.0989627838135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.8242530822754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.4155025482178</t>
   </si>
   <si>
     <t xml:space="preserve">29.6110134124756</t>
   </si>
   <si>
-    <t xml:space="preserve">29.9211807250977</t>
+    <t xml:space="preserve">29.921178817749</t>
   </si>
   <si>
     <t xml:space="preserve">30.279806137085</t>
   </si>
   <si>
-    <t xml:space="preserve">30.4736614227295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6013202667236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.7660942077637</t>
+    <t xml:space="preserve">30.4736595153809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6013221740723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.7660961151123</t>
   </si>
   <si>
     <t xml:space="preserve">30.2507266998291</t>
@@ -2822,16 +2822,16 @@
     <t xml:space="preserve">30.9970607757568</t>
   </si>
   <si>
-    <t xml:space="preserve">31.3847675323486</t>
+    <t xml:space="preserve">31.3847694396973</t>
   </si>
   <si>
     <t xml:space="preserve">31.2006053924561</t>
   </si>
   <si>
-    <t xml:space="preserve">31.394458770752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.1812210083008</t>
+    <t xml:space="preserve">31.3944606781006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.1812191009521</t>
   </si>
   <si>
     <t xml:space="preserve">31.1424541473389</t>
@@ -2840,7 +2840,7 @@
     <t xml:space="preserve">31.278148651123</t>
   </si>
   <si>
-    <t xml:space="preserve">30.9389057159424</t>
+    <t xml:space="preserve">30.938907623291</t>
   </si>
   <si>
     <t xml:space="preserve">31.0164470672607</t>
@@ -2858,100 +2858,100 @@
     <t xml:space="preserve">32.470344543457</t>
   </si>
   <si>
-    <t xml:space="preserve">33.3911437988281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.156867980957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.8079261779785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.9549713134766</t>
+    <t xml:space="preserve">33.3911399841309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.1568641662598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.8079299926758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.9549751281738</t>
   </si>
   <si>
     <t xml:space="preserve">33.8273162841797</t>
   </si>
   <si>
-    <t xml:space="preserve">34.0599365234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.6414947509766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.9339332580566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.961353302002</t>
+    <t xml:space="preserve">34.0599327087402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.6414985656738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.9339294433594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.9613494873047</t>
   </si>
   <si>
     <t xml:space="preserve">34.3216361999512</t>
   </si>
   <si>
-    <t xml:space="preserve">34.4379463195801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1488304138184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.158519744873</t>
+    <t xml:space="preserve">34.4379501342773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1488265991211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1585235595703</t>
   </si>
   <si>
     <t xml:space="preserve">33.3426818847656</t>
   </si>
   <si>
-    <t xml:space="preserve">31.985710144043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0826377868652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.4509544372559</t>
+    <t xml:space="preserve">31.9857082366943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.082633972168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.4509582519531</t>
   </si>
   <si>
     <t xml:space="preserve">33.2263679504395</t>
   </si>
   <si>
-    <t xml:space="preserve">32.5381889343262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.724006652832</t>
+    <t xml:space="preserve">32.5381927490234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7240104675293</t>
   </si>
   <si>
     <t xml:space="preserve">31.3459949493408</t>
   </si>
   <si>
-    <t xml:space="preserve">31.4816932678223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5980033874512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3363056182861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5495414733887</t>
+    <t xml:space="preserve">31.481689453125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5980014801025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3363075256348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5495433807373</t>
   </si>
   <si>
     <t xml:space="preserve">32.0923309326172</t>
   </si>
   <si>
-    <t xml:space="preserve">32.576961517334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.8306293487549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.6351165771484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.4218788146973</t>
+    <t xml:space="preserve">32.5769653320312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8306274414062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6351127624512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.4218826293945</t>
   </si>
   <si>
     <t xml:space="preserve">32.9065132141113</t>
   </si>
   <si>
-    <t xml:space="preserve">32.169864654541</t>
+    <t xml:space="preserve">32.1698722839355</t>
   </si>
   <si>
     <t xml:space="preserve">32.6932716369629</t>
@@ -2960,22 +2960,22 @@
     <t xml:space="preserve">32.218334197998</t>
   </si>
   <si>
-    <t xml:space="preserve">32.7611236572266</t>
+    <t xml:space="preserve">32.7611198425293</t>
   </si>
   <si>
     <t xml:space="preserve">32.9937477111816</t>
   </si>
   <si>
-    <t xml:space="preserve">32.8968162536621</t>
+    <t xml:space="preserve">32.8968200683594</t>
   </si>
   <si>
     <t xml:space="preserve">32.5284996032715</t>
   </si>
   <si>
-    <t xml:space="preserve">32.0050964355469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.6755466461182</t>
+    <t xml:space="preserve">32.0051002502441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.6755428314209</t>
   </si>
   <si>
     <t xml:space="preserve">32.7998924255371</t>
@@ -2987,16 +2987,16 @@
     <t xml:space="preserve">32.5866546630859</t>
   </si>
   <si>
-    <t xml:space="preserve">32.8677444458008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1100578308105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1391372680664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.2942161560059</t>
+    <t xml:space="preserve">32.8677406311035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1100540161133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1391334533691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.2942199707031</t>
   </si>
   <si>
     <t xml:space="preserve">33.0712852478027</t>
@@ -3014,10 +3014,10 @@
     <t xml:space="preserve">33.0518989562988</t>
   </si>
   <si>
-    <t xml:space="preserve">32.8095855712891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.4024925231934</t>
+    <t xml:space="preserve">32.8095817565918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.4024963378906</t>
   </si>
   <si>
     <t xml:space="preserve">33.5365333557129</t>
@@ -3035,19 +3035,19 @@
     <t xml:space="preserve">35.4653701782227</t>
   </si>
   <si>
-    <t xml:space="preserve">35.4072113037109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.5235214233398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.337703704834</t>
+    <t xml:space="preserve">35.4072074890137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.5235290527344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.3377075195312</t>
   </si>
   <si>
     <t xml:space="preserve">36.0856971740723</t>
   </si>
   <si>
-    <t xml:space="preserve">35.8627624511719</t>
+    <t xml:space="preserve">35.8627662658691</t>
   </si>
   <si>
     <t xml:space="preserve">34.7674980163574</t>
@@ -3056,13 +3056,13 @@
     <t xml:space="preserve">34.4088706970215</t>
   </si>
   <si>
-    <t xml:space="preserve">33.8660850524902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.8176231384277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2571067810059</t>
+    <t xml:space="preserve">33.866081237793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.8176193237305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2571029663086</t>
   </si>
   <si>
     <t xml:space="preserve">32.2861862182617</t>
@@ -3077,7 +3077,7 @@
     <t xml:space="preserve">30.4251956939697</t>
   </si>
   <si>
-    <t xml:space="preserve">29.930871963501</t>
+    <t xml:space="preserve">29.9308700561523</t>
   </si>
   <si>
     <t xml:space="preserve">29.1166896820068</t>
@@ -3086,22 +3086,22 @@
     <t xml:space="preserve">29.4365482330322</t>
   </si>
   <si>
-    <t xml:space="preserve">30.8419799804688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.1036815643311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9469375610352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.9776763916016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.1909122467041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5883121490479</t>
+    <t xml:space="preserve">30.8419780731201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.1036796569824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9469394683838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.9776744842529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.1909160614014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5883159637451</t>
   </si>
   <si>
     <t xml:space="preserve">31.0067558288574</t>
@@ -3110,7 +3110,7 @@
     <t xml:space="preserve">29.9793357849121</t>
   </si>
   <si>
-    <t xml:space="preserve">30.5996627807617</t>
+    <t xml:space="preserve">30.5996646881104</t>
   </si>
   <si>
     <t xml:space="preserve">32.1407928466797</t>
@@ -3119,22 +3119,22 @@
     <t xml:space="preserve">30.861364364624</t>
   </si>
   <si>
-    <t xml:space="preserve">31.2296848297119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.123067855835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.7644386291504</t>
+    <t xml:space="preserve">31.2296867370605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.1230640411377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.7644367218018</t>
   </si>
   <si>
     <t xml:space="preserve">31.4041538238525</t>
   </si>
   <si>
-    <t xml:space="preserve">31.7433967590332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.4235363006592</t>
+    <t xml:space="preserve">31.7433986663818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4235343933105</t>
   </si>
   <si>
     <t xml:space="preserve">32.0535583496094</t>
@@ -3143,7 +3143,7 @@
     <t xml:space="preserve">31.8112468719482</t>
   </si>
   <si>
-    <t xml:space="preserve">34.001781463623</t>
+    <t xml:space="preserve">34.0017776489258</t>
   </si>
   <si>
     <t xml:space="preserve">33.4299163818359</t>
@@ -3158,10 +3158,10 @@
     <t xml:space="preserve">34.1277847290039</t>
   </si>
   <si>
-    <t xml:space="preserve">34.6899566650391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.7287292480469</t>
+    <t xml:space="preserve">34.6899604797363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.7287330627441</t>
   </si>
   <si>
     <t xml:space="preserve">35.5138282775879</t>
@@ -3170,55 +3170,55 @@
     <t xml:space="preserve">35.3490562438965</t>
   </si>
   <si>
-    <t xml:space="preserve">34.8159599304199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.604377746582</t>
+    <t xml:space="preserve">34.8159561157227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.6043853759766</t>
   </si>
   <si>
     <t xml:space="preserve">34.0502471923828</t>
   </si>
   <si>
-    <t xml:space="preserve">34.3119468688965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.7303810119629</t>
+    <t xml:space="preserve">34.3119430541992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.7303848266602</t>
   </si>
   <si>
     <t xml:space="preserve">34.602725982666</t>
   </si>
   <si>
-    <t xml:space="preserve">34.0793190002441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.7514343261719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.383113861084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3637275695801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.567268371582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.4396057128906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.6334609985352</t>
+    <t xml:space="preserve">34.0793228149414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.7514305114746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3831100463867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3637237548828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.5672645568848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.4396095275879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.6334648132324</t>
   </si>
   <si>
     <t xml:space="preserve">35.3199768066406</t>
   </si>
   <si>
-    <t xml:space="preserve">36.4219017028809</t>
+    <t xml:space="preserve">36.4218978881836</t>
   </si>
   <si>
     <t xml:space="preserve">37.202018737793</t>
   </si>
   <si>
-    <t xml:space="preserve">36.4999122619629</t>
+    <t xml:space="preserve">36.4999084472656</t>
   </si>
   <si>
     <t xml:space="preserve">37.3190383911133</t>
@@ -3227,34 +3227,34 @@
     <t xml:space="preserve">37.6310882568359</t>
   </si>
   <si>
-    <t xml:space="preserve">37.9821395874023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.6798439025879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.5725746154785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.245433807373</t>
+    <t xml:space="preserve">37.9821434020996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.6798400878906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.5725784301758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.2454299926758</t>
   </si>
   <si>
     <t xml:space="preserve">38.8110198974609</t>
   </si>
   <si>
-    <t xml:space="preserve">38.333194732666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.4502143859863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.5867347717285</t>
+    <t xml:space="preserve">38.3331985473633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.4502105712891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.5867309570312</t>
   </si>
   <si>
     <t xml:space="preserve">39.8349266052246</t>
   </si>
   <si>
-    <t xml:space="preserve">39.1913261413574</t>
+    <t xml:space="preserve">39.1913299560547</t>
   </si>
   <si>
     <t xml:space="preserve">39.2205848693848</t>
@@ -3284,49 +3284,49 @@
     <t xml:space="preserve">40.3420066833496</t>
   </si>
   <si>
-    <t xml:space="preserve">41.1026229858398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.605297088623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.4005165100098</t>
+    <t xml:space="preserve">41.1026268005371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.6053009033203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.400520324707</t>
   </si>
   <si>
     <t xml:space="preserve">40.5662879943848</t>
   </si>
   <si>
-    <t xml:space="preserve">40.1957359313965</t>
+    <t xml:space="preserve">40.1957321166992</t>
   </si>
   <si>
     <t xml:space="preserve">40.3517608642578</t>
   </si>
   <si>
-    <t xml:space="preserve">40.5955467224121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.6594009399414</t>
+    <t xml:space="preserve">40.5955505371094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.6593971252441</t>
   </si>
   <si>
     <t xml:space="preserve">37.1240081787109</t>
   </si>
   <si>
-    <t xml:space="preserve">38.1284141540527</t>
+    <t xml:space="preserve">38.1284103393555</t>
   </si>
   <si>
     <t xml:space="preserve">38.1186637878418</t>
   </si>
   <si>
-    <t xml:space="preserve">38.9475402832031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.561882019043</t>
+    <t xml:space="preserve">38.9475364685059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.5618896484375</t>
   </si>
   <si>
     <t xml:space="preserve">39.7471618652344</t>
   </si>
   <si>
-    <t xml:space="preserve">39.0548057556152</t>
+    <t xml:space="preserve">39.0548095703125</t>
   </si>
   <si>
     <t xml:space="preserve">40.0397109985352</t>
@@ -3338,7 +3338,7 @@
     <t xml:space="preserve">39.435115814209</t>
   </si>
   <si>
-    <t xml:space="preserve">40.0202102661133</t>
+    <t xml:space="preserve">40.020206451416</t>
   </si>
   <si>
     <t xml:space="preserve">39.3473510742188</t>
@@ -3350,7 +3350,7 @@
     <t xml:space="preserve">41.2488975524902</t>
   </si>
   <si>
-    <t xml:space="preserve">41.3366584777832</t>
+    <t xml:space="preserve">41.3366622924805</t>
   </si>
   <si>
     <t xml:space="preserve">40.9563522338867</t>
@@ -3359,31 +3359,31 @@
     <t xml:space="preserve">41.3171577453613</t>
   </si>
   <si>
-    <t xml:space="preserve">40.8588371276855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.9368476867676</t>
+    <t xml:space="preserve">40.8588409423828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.9368515014648</t>
   </si>
   <si>
     <t xml:space="preserve">40.8685874938965</t>
   </si>
   <si>
-    <t xml:space="preserve">41.0538635253906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.6291999816895</t>
+    <t xml:space="preserve">41.0538673400879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.6292037963867</t>
   </si>
   <si>
     <t xml:space="preserve">41.7559776306152</t>
   </si>
   <si>
-    <t xml:space="preserve">41.9607582092285</t>
+    <t xml:space="preserve">41.9607543945312</t>
   </si>
   <si>
     <t xml:space="preserve">41.8437423706055</t>
   </si>
   <si>
-    <t xml:space="preserve">41.8534927368164</t>
+    <t xml:space="preserve">41.8534889221191</t>
   </si>
   <si>
     <t xml:space="preserve">42.1850395202637</t>
@@ -3395,16 +3395,16 @@
     <t xml:space="preserve">43.7257804870605</t>
   </si>
   <si>
-    <t xml:space="preserve">42.8773994445801</t>
+    <t xml:space="preserve">42.8774032592773</t>
   </si>
   <si>
     <t xml:space="preserve">42.6628684997559</t>
   </si>
   <si>
-    <t xml:space="preserve">42.3898277282715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.5946044921875</t>
+    <t xml:space="preserve">42.3898239135742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.5946083068848</t>
   </si>
   <si>
     <t xml:space="preserve">43.1016883850098</t>
@@ -3413,16 +3413,16 @@
     <t xml:space="preserve">43.1796951293945</t>
   </si>
   <si>
-    <t xml:space="preserve">43.3064651489258</t>
+    <t xml:space="preserve">43.306468963623</t>
   </si>
   <si>
     <t xml:space="preserve">43.6282691955566</t>
   </si>
   <si>
-    <t xml:space="preserve">43.0236740112305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.5405044555664</t>
+    <t xml:space="preserve">43.0236701965332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.5405006408691</t>
   </si>
   <si>
     <t xml:space="preserve">42.6531181335449</t>
@@ -3437,7 +3437,7 @@
     <t xml:space="preserve">42.0777778625488</t>
   </si>
   <si>
-    <t xml:space="preserve">40.3127555847168</t>
+    <t xml:space="preserve">40.3127517700195</t>
   </si>
   <si>
     <t xml:space="preserve">41.619457244873</t>
@@ -3446,28 +3446,28 @@
     <t xml:space="preserve">40.6150512695312</t>
   </si>
   <si>
-    <t xml:space="preserve">41.4439315795898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.6779670715332</t>
+    <t xml:space="preserve">41.4439277648926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.6779632568359</t>
   </si>
   <si>
     <t xml:space="preserve">43.7160301208496</t>
   </si>
   <si>
-    <t xml:space="preserve">43.8135414123535</t>
+    <t xml:space="preserve">43.813549041748</t>
   </si>
   <si>
     <t xml:space="preserve">44.9739761352539</t>
   </si>
   <si>
-    <t xml:space="preserve">43.8623046875</t>
+    <t xml:space="preserve">43.8623008728027</t>
   </si>
   <si>
     <t xml:space="preserve">42.5751037597656</t>
   </si>
   <si>
-    <t xml:space="preserve">40.3810157775879</t>
+    <t xml:space="preserve">40.3810081481934</t>
   </si>
   <si>
     <t xml:space="preserve">40.8783378601074</t>
@@ -3482,13 +3482,13 @@
     <t xml:space="preserve">40.1079711914062</t>
   </si>
   <si>
-    <t xml:space="preserve">40.2737426757812</t>
+    <t xml:space="preserve">40.2737464904785</t>
   </si>
   <si>
     <t xml:space="preserve">40.7028121948242</t>
   </si>
   <si>
-    <t xml:space="preserve">39.5911407470703</t>
+    <t xml:space="preserve">39.591136932373</t>
   </si>
   <si>
     <t xml:space="preserve">39.6496467590332</t>
@@ -3500,10 +3500,10 @@
     <t xml:space="preserve">40.8100776672363</t>
   </si>
   <si>
-    <t xml:space="preserve">41.8632392883301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.2435531616211</t>
+    <t xml:space="preserve">41.8632431030273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.2435493469238</t>
   </si>
   <si>
     <t xml:space="preserve">43.4332389831543</t>
@@ -3518,34 +3518,34 @@
     <t xml:space="preserve">42.8578987121582</t>
   </si>
   <si>
-    <t xml:space="preserve">43.5892601013184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.0139236450195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.0334243774414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.6477661132812</t>
+    <t xml:space="preserve">43.5892639160156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.0139198303223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.0334205627441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.6477699279785</t>
   </si>
   <si>
     <t xml:space="preserve">44.622917175293</t>
   </si>
   <si>
-    <t xml:space="preserve">44.5156593322754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.3835372924805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.925220489502</t>
+    <t xml:space="preserve">44.5156555175781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.3835411071777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.9252166748047</t>
   </si>
   <si>
     <t xml:space="preserve">44.3791313171387</t>
   </si>
   <si>
-    <t xml:space="preserve">44.661922454834</t>
+    <t xml:space="preserve">44.6619300842285</t>
   </si>
   <si>
     <t xml:space="preserve">44.8667068481445</t>
@@ -3560,19 +3560,19 @@
     <t xml:space="preserve">43.5014991760254</t>
   </si>
   <si>
-    <t xml:space="preserve">43.442985534668</t>
+    <t xml:space="preserve">43.4429893493652</t>
   </si>
   <si>
     <t xml:space="preserve">41.2879028320312</t>
   </si>
   <si>
-    <t xml:space="preserve">42.2240447998047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.1513862609863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.6974639892578</t>
+    <t xml:space="preserve">42.224048614502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.1513824462891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.6974678039551</t>
   </si>
   <si>
     <t xml:space="preserve">42.0485191345215</t>
@@ -3590,10 +3590,10 @@
     <t xml:space="preserve">41.8827476501465</t>
   </si>
   <si>
-    <t xml:space="preserve">40.7808227539062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.741813659668</t>
+    <t xml:space="preserve">40.7808265686035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.7418174743652</t>
   </si>
   <si>
     <t xml:space="preserve">40.9173431396484</t>
@@ -3602,7 +3602,7 @@
     <t xml:space="preserve">41.707218170166</t>
   </si>
   <si>
-    <t xml:space="preserve">42.6141128540039</t>
+    <t xml:space="preserve">42.6141090393066</t>
   </si>
   <si>
     <t xml:space="preserve">42.1265335083008</t>
@@ -3614,7 +3614,7 @@
     <t xml:space="preserve">43.0041656494141</t>
   </si>
   <si>
-    <t xml:space="preserve">43.1991996765137</t>
+    <t xml:space="preserve">43.1991958618164</t>
   </si>
   <si>
     <t xml:space="preserve">44.1841049194336</t>
@@ -3626,19 +3626,19 @@
     <t xml:space="preserve">45.081241607666</t>
   </si>
   <si>
-    <t xml:space="preserve">45.7443466186523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.0466461181641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.2709274291992</t>
+    <t xml:space="preserve">45.7443428039551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.0466384887695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.2709312438965</t>
   </si>
   <si>
     <t xml:space="preserve">45.4810523986816</t>
   </si>
   <si>
-    <t xml:space="preserve">44.5449066162109</t>
+    <t xml:space="preserve">44.5449104309082</t>
   </si>
   <si>
     <t xml:space="preserve">44.7106819152832</t>
@@ -3647,25 +3647,25 @@
     <t xml:space="preserve">43.2284545898438</t>
   </si>
   <si>
-    <t xml:space="preserve">42.4970932006836</t>
+    <t xml:space="preserve">42.4970893859863</t>
   </si>
   <si>
     <t xml:space="preserve">40.6248016357422</t>
   </si>
   <si>
-    <t xml:space="preserve">39.8544311523438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.513126373291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.9572944641113</t>
+    <t xml:space="preserve">39.8544273376465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.5131301879883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.9572906494141</t>
   </si>
   <si>
     <t xml:space="preserve">38.7525100708008</t>
   </si>
   <si>
-    <t xml:space="preserve">37.7578582763672</t>
+    <t xml:space="preserve">37.7578620910645</t>
   </si>
   <si>
     <t xml:space="preserve">36.3146324157715</t>
@@ -3674,7 +3674,7 @@
     <t xml:space="preserve">35.037181854248</t>
   </si>
   <si>
-    <t xml:space="preserve">35.5247573852539</t>
+    <t xml:space="preserve">35.5247611999512</t>
   </si>
   <si>
     <t xml:space="preserve">35.5637664794922</t>
@@ -3686,34 +3686,34 @@
     <t xml:space="preserve">36.5974273681641</t>
   </si>
   <si>
-    <t xml:space="preserve">37.2507781982422</t>
+    <t xml:space="preserve">37.2507820129395</t>
   </si>
   <si>
     <t xml:space="preserve">38.4307098388672</t>
   </si>
   <si>
-    <t xml:space="preserve">36.0903434753418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.4077453613281</t>
+    <t xml:space="preserve">36.0903472900391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.4077415466309</t>
   </si>
   <si>
     <t xml:space="preserve">35.1737060546875</t>
   </si>
   <si>
-    <t xml:space="preserve">34.2180557250977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.6417770385742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.2907257080078</t>
+    <t xml:space="preserve">34.2180595397949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.6417808532715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.2907218933105</t>
   </si>
   <si>
     <t xml:space="preserve">34.4715957641602</t>
   </si>
   <si>
-    <t xml:space="preserve">33.8767585754395</t>
+    <t xml:space="preserve">33.8767547607422</t>
   </si>
   <si>
     <t xml:space="preserve">35.2614669799805</t>
@@ -3722,10 +3722,10 @@
     <t xml:space="preserve">34.7836418151855</t>
   </si>
   <si>
-    <t xml:space="preserve">34.7933959960938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.6568756103516</t>
+    <t xml:space="preserve">34.793399810791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.6568794250488</t>
   </si>
   <si>
     <t xml:space="preserve">34.2765693664551</t>
@@ -3734,16 +3734,16 @@
     <t xml:space="preserve">34.335075378418</t>
   </si>
   <si>
-    <t xml:space="preserve">35.0859413146973</t>
+    <t xml:space="preserve">35.0859375</t>
   </si>
   <si>
     <t xml:space="preserve">35.7782974243164</t>
   </si>
   <si>
-    <t xml:space="preserve">36.4706611633301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.4945640563965</t>
+    <t xml:space="preserve">36.4706573486328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.4945678710938</t>
   </si>
   <si>
     <t xml:space="preserve">37.0167388916016</t>
@@ -3755,10 +3755,10 @@
     <t xml:space="preserve">36.6656837463379</t>
   </si>
   <si>
-    <t xml:space="preserve">35.3004760742188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.0912857055664</t>
+    <t xml:space="preserve">35.300479888916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.0912895202637</t>
   </si>
   <si>
     <t xml:space="preserve">36.1781120300293</t>
@@ -3767,19 +3767,19 @@
     <t xml:space="preserve">34.208309173584</t>
   </si>
   <si>
-    <t xml:space="preserve">34.9494171142578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.6612777709961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.4467468261719</t>
+    <t xml:space="preserve">34.9494209289551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.6612815856934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.4467506408691</t>
   </si>
   <si>
     <t xml:space="preserve">36.8119583129883</t>
   </si>
   <si>
-    <t xml:space="preserve">36.8607139587402</t>
+    <t xml:space="preserve">36.8607177734375</t>
   </si>
   <si>
     <t xml:space="preserve">36.5194129943848</t>
@@ -3788,7 +3788,7 @@
     <t xml:space="preserve">36.051342010498</t>
   </si>
   <si>
-    <t xml:space="preserve">35.6222724914551</t>
+    <t xml:space="preserve">35.6222763061523</t>
   </si>
   <si>
     <t xml:space="preserve">36.2951278686523</t>
@@ -3797,7 +3797,7 @@
     <t xml:space="preserve">36.7534484863281</t>
   </si>
   <si>
-    <t xml:space="preserve">39.0840644836426</t>
+    <t xml:space="preserve">39.0840606689453</t>
   </si>
   <si>
     <t xml:space="preserve">39.6008911132812</t>
@@ -3806,16 +3806,16 @@
     <t xml:space="preserve">39.5326347351074</t>
   </si>
   <si>
-    <t xml:space="preserve">40.8393363952637</t>
+    <t xml:space="preserve">40.8393325805664</t>
   </si>
   <si>
     <t xml:space="preserve">41.9119987487793</t>
   </si>
   <si>
-    <t xml:space="preserve">41.5024375915527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.2976531982422</t>
+    <t xml:space="preserve">41.50244140625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.2976570129395</t>
   </si>
   <si>
     <t xml:space="preserve">40.4297714233398</t>
@@ -3824,7 +3824,7 @@
     <t xml:space="preserve">39.2108306884766</t>
   </si>
   <si>
-    <t xml:space="preserve">40.0104522705078</t>
+    <t xml:space="preserve">40.0104560852051</t>
   </si>
   <si>
     <t xml:space="preserve">39.8056716918945</t>
@@ -3836,10 +3836,10 @@
     <t xml:space="preserve">38.5477294921875</t>
   </si>
   <si>
-    <t xml:space="preserve">37.3580474853516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.1922721862793</t>
+    <t xml:space="preserve">37.3580436706543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.192268371582</t>
   </si>
   <si>
     <t xml:space="preserve">36.8802223205566</t>
@@ -3848,7 +3848,7 @@
     <t xml:space="preserve">35.983081817627</t>
   </si>
   <si>
-    <t xml:space="preserve">36.7924537658691</t>
+    <t xml:space="preserve">36.7924575805664</t>
   </si>
   <si>
     <t xml:space="preserve">37.2702827453613</t>
@@ -3860,22 +3860,22 @@
     <t xml:space="preserve">36.2561225891113</t>
   </si>
   <si>
-    <t xml:space="preserve">35.8465538024902</t>
+    <t xml:space="preserve">35.8465576171875</t>
   </si>
   <si>
     <t xml:space="preserve">34.5788612365723</t>
   </si>
   <si>
-    <t xml:space="preserve">32.7553329467773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.4769439697266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.4671936035156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5168876647949</t>
+    <t xml:space="preserve">32.7553291320801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.4769401550293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.4671897888184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5168895721436</t>
   </si>
   <si>
     <t xml:space="preserve">33.3989295959473</t>
@@ -3887,16 +3887,16 @@
     <t xml:space="preserve">33.4574394226074</t>
   </si>
   <si>
-    <t xml:space="preserve">31.7411727905273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.7952766418457</t>
+    <t xml:space="preserve">31.741174697876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.7952747344971</t>
   </si>
   <si>
     <t xml:space="preserve">31.1365795135498</t>
   </si>
   <si>
-    <t xml:space="preserve">31.677318572998</t>
+    <t xml:space="preserve">31.6773166656494</t>
   </si>
   <si>
     <t xml:space="preserve">31.4708518981934</t>
@@ -3905,10 +3905,10 @@
     <t xml:space="preserve">31.4118633270264</t>
   </si>
   <si>
-    <t xml:space="preserve">31.7166404724121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.8247890472412</t>
+    <t xml:space="preserve">31.7166423797607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8247871398926</t>
   </si>
   <si>
     <t xml:space="preserve">32.1688957214355</t>
@@ -3935,7 +3935,7 @@
     <t xml:space="preserve">30.2320747375488</t>
   </si>
   <si>
-    <t xml:space="preserve">28.7180118560791</t>
+    <t xml:space="preserve">28.7180137634277</t>
   </si>
   <si>
     <t xml:space="preserve">26.6533851623535</t>
@@ -3947,7 +3947,7 @@
     <t xml:space="preserve">26.7025413513184</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7783737182617</t>
+    <t xml:space="preserve">25.7783756256104</t>
   </si>
   <si>
     <t xml:space="preserve">25.857027053833</t>
@@ -3965,19 +3965,19 @@
     <t xml:space="preserve">28.3542461395264</t>
   </si>
   <si>
-    <t xml:space="preserve">29.2980766296387</t>
+    <t xml:space="preserve">29.29807472229</t>
   </si>
   <si>
     <t xml:space="preserve">29.3668975830078</t>
   </si>
   <si>
-    <t xml:space="preserve">28.7770042419434</t>
+    <t xml:space="preserve">28.7770023345947</t>
   </si>
   <si>
     <t xml:space="preserve">28.6786880493164</t>
   </si>
   <si>
-    <t xml:space="preserve">28.7573413848877</t>
+    <t xml:space="preserve">28.7573394775391</t>
   </si>
   <si>
     <t xml:space="preserve">29.878137588501</t>
@@ -3989,7 +3989,7 @@
     <t xml:space="preserve">31.1955699920654</t>
   </si>
   <si>
-    <t xml:space="preserve">32.0607490539551</t>
+    <t xml:space="preserve">32.0607452392578</t>
   </si>
   <si>
     <t xml:space="preserve">30.664665222168</t>
@@ -4004,7 +4004,7 @@
     <t xml:space="preserve">28.6393604278564</t>
   </si>
   <si>
-    <t xml:space="preserve">28.167444229126</t>
+    <t xml:space="preserve">28.1674461364746</t>
   </si>
   <si>
     <t xml:space="preserve">28.7475090026855</t>
@@ -4013,10 +4013,10 @@
     <t xml:space="preserve">29.3570652008057</t>
   </si>
   <si>
-    <t xml:space="preserve">29.278413772583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.143590927124</t>
+    <t xml:space="preserve">29.2784118652344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.1435928344727</t>
   </si>
   <si>
     <t xml:space="preserve">30.6351699829102</t>
@@ -4031,16 +4031,16 @@
     <t xml:space="preserve">30.8121376037598</t>
   </si>
   <si>
-    <t xml:space="preserve">31.834623336792</t>
+    <t xml:space="preserve">31.8346214294434</t>
   </si>
   <si>
     <t xml:space="preserve">31.6674842834473</t>
   </si>
   <si>
-    <t xml:space="preserve">31.8936100006104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.4188766479492</t>
+    <t xml:space="preserve">31.893611907959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.4188747406006</t>
   </si>
   <si>
     <t xml:space="preserve">31.3332118988037</t>
@@ -4052,10 +4052,10 @@
     <t xml:space="preserve">29.8683071136475</t>
   </si>
   <si>
-    <t xml:space="preserve">30.182918548584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4258861541748</t>
+    <t xml:space="preserve">30.1829166412354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4258880615234</t>
   </si>
   <si>
     <t xml:space="preserve">29.8978023529053</t>
@@ -4064,7 +4064,7 @@
     <t xml:space="preserve">30.2124118804932</t>
   </si>
   <si>
-    <t xml:space="preserve">28.6196994781494</t>
+    <t xml:space="preserve">28.6196975708008</t>
   </si>
   <si>
     <t xml:space="preserve">28.3050880432129</t>
@@ -4073,10 +4073,10 @@
     <t xml:space="preserve">28.2264347076416</t>
   </si>
   <si>
-    <t xml:space="preserve">27.8528347015381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.2039527893066</t>
+    <t xml:space="preserve">27.8528366088867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.203950881958</t>
   </si>
   <si>
     <t xml:space="preserve">27.1744575500488</t>
@@ -4094,7 +4094,7 @@
     <t xml:space="preserve">25.3359546661377</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6112384796143</t>
+    <t xml:space="preserve">25.6112365722656</t>
   </si>
   <si>
     <t xml:space="preserve">25.050838470459</t>
@@ -4115,10 +4115,10 @@
     <t xml:space="preserve">25.4834270477295</t>
   </si>
   <si>
-    <t xml:space="preserve">25.59157371521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8738689422607</t>
+    <t xml:space="preserve">25.5915756225586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8738708496094</t>
   </si>
   <si>
     <t xml:space="preserve">24.6182498931885</t>
@@ -4154,7 +4154,7 @@
     <t xml:space="preserve">25.6702270507812</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4469203948975</t>
+    <t xml:space="preserve">26.4469223022461</t>
   </si>
   <si>
     <t xml:space="preserve">25.95534324646</t>
@@ -4166,7 +4166,7 @@
     <t xml:space="preserve">26.5845642089844</t>
   </si>
   <si>
-    <t xml:space="preserve">26.31911277771</t>
+    <t xml:space="preserve">26.3191108703613</t>
   </si>
   <si>
     <t xml:space="preserve">26.014331817627</t>
@@ -4175,7 +4175,7 @@
     <t xml:space="preserve">25.7095527648926</t>
   </si>
   <si>
-    <t xml:space="preserve">24.991849899292</t>
+    <t xml:space="preserve">24.9918479919434</t>
   </si>
   <si>
     <t xml:space="preserve">24.1954936981201</t>
@@ -4190,13 +4190,13 @@
     <t xml:space="preserve">24.8050479888916</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7292156219482</t>
+    <t xml:space="preserve">25.7292175292969</t>
   </si>
   <si>
     <t xml:space="preserve">25.2081432342529</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4370880126953</t>
+    <t xml:space="preserve">26.4370899200439</t>
   </si>
   <si>
     <t xml:space="preserve">25.7488803863525</t>
@@ -4208,7 +4208,7 @@
     <t xml:space="preserve">25.8078689575195</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7263946533203</t>
+    <t xml:space="preserve">24.7263965606689</t>
   </si>
   <si>
     <t xml:space="preserve">24.1070079803467</t>
@@ -4217,7 +4217,7 @@
     <t xml:space="preserve">24.2643127441406</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7165641784668</t>
+    <t xml:space="preserve">24.7165660858154</t>
   </si>
   <si>
     <t xml:space="preserve">24.667407989502</t>
@@ -4226,7 +4226,7 @@
     <t xml:space="preserve">23.7137451171875</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7657241821289</t>
+    <t xml:space="preserve">24.7657222747803</t>
   </si>
   <si>
     <t xml:space="preserve">26.2011318206787</t>
@@ -4238,7 +4238,7 @@
     <t xml:space="preserve">27.6758670806885</t>
   </si>
   <si>
-    <t xml:space="preserve">28.5607070922852</t>
+    <t xml:space="preserve">28.5607089996338</t>
   </si>
   <si>
     <t xml:space="preserve">28.0887928009033</t>
@@ -4250,10 +4250,10 @@
     <t xml:space="preserve">27.1056365966797</t>
   </si>
   <si>
-    <t xml:space="preserve">27.164623260498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9188346862793</t>
+    <t xml:space="preserve">27.1646251678467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9188365936279</t>
   </si>
   <si>
     <t xml:space="preserve">26.7123737335205</t>
@@ -4265,22 +4265,22 @@
     <t xml:space="preserve">27.2826042175293</t>
   </si>
   <si>
-    <t xml:space="preserve">27.4104156494141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5480575561523</t>
+    <t xml:space="preserve">27.4104137420654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5480556488037</t>
   </si>
   <si>
     <t xml:space="preserve">26.3977642059326</t>
   </si>
   <si>
-    <t xml:space="preserve">27.184289932251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.0592994689941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.3514251708984</t>
+    <t xml:space="preserve">27.1842880249023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.0592975616455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.3514270782471</t>
   </si>
   <si>
     <t xml:space="preserve">26.5452365875244</t>
@@ -4307,13 +4307,13 @@
     <t xml:space="preserve">26.8401832580566</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4862480163574</t>
+    <t xml:space="preserve">26.4862461090088</t>
   </si>
   <si>
     <t xml:space="preserve">26.4567527770996</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2797832489014</t>
+    <t xml:space="preserve">26.27978515625</t>
   </si>
   <si>
     <t xml:space="preserve">26.8500137329102</t>
@@ -4340,16 +4340,16 @@
     <t xml:space="preserve">27.3710880279541</t>
   </si>
   <si>
-    <t xml:space="preserve">26.3682670593262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4960803985596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9974880218506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0368156433105</t>
+    <t xml:space="preserve">26.3682689666748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4960784912109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9974899291992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0368137359619</t>
   </si>
   <si>
     <t xml:space="preserve">26.6337223052979</t>
@@ -4373,25 +4373,25 @@
     <t xml:space="preserve">25.3064594268799</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1098289489746</t>
+    <t xml:space="preserve">25.109827041626</t>
   </si>
   <si>
     <t xml:space="preserve">24.8443756103516</t>
   </si>
   <si>
-    <t xml:space="preserve">28.0199718475342</t>
+    <t xml:space="preserve">28.0199737548828</t>
   </si>
   <si>
     <t xml:space="preserve">27.3317623138428</t>
   </si>
   <si>
-    <t xml:space="preserve">27.528392791748</t>
+    <t xml:space="preserve">27.5283946990967</t>
   </si>
   <si>
     <t xml:space="preserve">26.1519737243652</t>
   </si>
   <si>
-    <t xml:space="preserve">26.8795108795166</t>
+    <t xml:space="preserve">26.879508972168</t>
   </si>
   <si>
     <t xml:space="preserve">27.6856994628906</t>
@@ -4400,10 +4400,10 @@
     <t xml:space="preserve">26.9384994506836</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5943927764893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0171527862549</t>
+    <t xml:space="preserve">26.5943946838379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0171508789062</t>
   </si>
   <si>
     <t xml:space="preserve">26.8991737365723</t>
@@ -4412,7 +4412,7 @@
     <t xml:space="preserve">27.7446880340576</t>
   </si>
   <si>
-    <t xml:space="preserve">29.6126861572266</t>
+    <t xml:space="preserve">29.6126880645752</t>
   </si>
   <si>
     <t xml:space="preserve">28.9736328125</t>
@@ -4427,28 +4427,28 @@
     <t xml:space="preserve">28.6590232849121</t>
   </si>
   <si>
-    <t xml:space="preserve">28.5312156677246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4652137756348</t>
+    <t xml:space="preserve">28.531213760376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4652118682861</t>
   </si>
   <si>
     <t xml:space="preserve">28.855655670166</t>
   </si>
   <si>
-    <t xml:space="preserve">29.3275718688965</t>
+    <t xml:space="preserve">29.3275699615479</t>
   </si>
   <si>
     <t xml:space="preserve">29.6225185394287</t>
   </si>
   <si>
-    <t xml:space="preserve">30.1042671203613</t>
+    <t xml:space="preserve">30.1042652130127</t>
   </si>
   <si>
     <t xml:space="preserve">31.1169166564941</t>
   </si>
   <si>
-    <t xml:space="preserve">31.4020328521729</t>
+    <t xml:space="preserve">31.4020309448242</t>
   </si>
   <si>
     <t xml:space="preserve">31.2938842773438</t>
@@ -4457,7 +4457,7 @@
     <t xml:space="preserve">31.7264728546143</t>
   </si>
   <si>
-    <t xml:space="preserve">31.9525985717773</t>
+    <t xml:space="preserve">31.952600479126</t>
   </si>
   <si>
     <t xml:space="preserve">32.0902404785156</t>
@@ -4472,10 +4472,10 @@
     <t xml:space="preserve">32.1492309570312</t>
   </si>
   <si>
-    <t xml:space="preserve">31.7461395263672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3950233459473</t>
+    <t xml:space="preserve">31.7461357116699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.39501953125</t>
   </si>
   <si>
     <t xml:space="preserve">32.4638404846191</t>
@@ -4496,7 +4496,7 @@
     <t xml:space="preserve">32.8177795410156</t>
   </si>
   <si>
-    <t xml:space="preserve">33.2208709716797</t>
+    <t xml:space="preserve">33.220874786377</t>
   </si>
   <si>
     <t xml:space="preserve">32.7194595336914</t>
@@ -4505,7 +4505,7 @@
     <t xml:space="preserve">32.5621566772461</t>
   </si>
   <si>
-    <t xml:space="preserve">34.8922424316406</t>
+    <t xml:space="preserve">34.8922386169434</t>
   </si>
   <si>
     <t xml:space="preserve">34.2728500366211</t>
@@ -4517,10 +4517,10 @@
     <t xml:space="preserve">35.2461738586426</t>
   </si>
   <si>
-    <t xml:space="preserve">34.8430824279785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.7251014709473</t>
+    <t xml:space="preserve">34.8430786132812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.7251052856445</t>
   </si>
   <si>
     <t xml:space="preserve">35.1871871948242</t>
@@ -4532,7 +4532,7 @@
     <t xml:space="preserve">35.1281967163086</t>
   </si>
   <si>
-    <t xml:space="preserve">34.3318367004395</t>
+    <t xml:space="preserve">34.3318405151367</t>
   </si>
   <si>
     <t xml:space="preserve">33.5354843139648</t>
@@ -5217,6 +5217,9 @@
   </si>
   <si>
     <t xml:space="preserve">33.5099983215332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34</t>
   </si>
 </sst>
 </file>
@@ -61276,7 +61279,7 @@
     </row>
     <row r="2144">
       <c r="A2144" s="1" t="n">
-        <v>45447.6494097222</v>
+        <v>45447.2916666667</v>
       </c>
       <c r="B2144" t="n">
         <v>583992</v>
@@ -61297,6 +61300,32 @@
         <v>1734</v>
       </c>
       <c r="H2144" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2145">
+      <c r="A2145" s="1" t="n">
+        <v>45448.6507291667</v>
+      </c>
+      <c r="B2145" t="n">
+        <v>387929</v>
+      </c>
+      <c r="C2145" t="n">
+        <v>34.2999992370605</v>
+      </c>
+      <c r="D2145" t="n">
+        <v>33.5999984741211</v>
+      </c>
+      <c r="E2145" t="n">
+        <v>33.7099990844727</v>
+      </c>
+      <c r="F2145" t="n">
+        <v>34</v>
+      </c>
+      <c r="G2145" t="s">
+        <v>1735</v>
+      </c>
+      <c r="H2145" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/AMP.MI.xlsx
+++ b/data/AMP.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">7.44491147994995</t>
+    <t xml:space="preserve">7.44491100311279</t>
   </si>
   <si>
     <t xml:space="preserve">AMP.MI</t>
@@ -47,16 +47,16 @@
     <t xml:space="preserve">7.50163412094116</t>
   </si>
   <si>
-    <t xml:space="preserve">7.42127656936646</t>
+    <t xml:space="preserve">7.4212760925293</t>
   </si>
   <si>
     <t xml:space="preserve">7.47799968719482</t>
   </si>
   <si>
-    <t xml:space="preserve">7.26056098937988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.0667576789856</t>
+    <t xml:space="preserve">7.26056051254272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06675720214844</t>
   </si>
   <si>
     <t xml:space="preserve">7.32673835754395</t>
@@ -68,100 +68,100 @@
     <t xml:space="preserve">7.27001523971558</t>
   </si>
   <si>
-    <t xml:space="preserve">7.13766145706177</t>
+    <t xml:space="preserve">7.13766098022461</t>
   </si>
   <si>
     <t xml:space="preserve">7.19438409805298</t>
   </si>
   <si>
-    <t xml:space="preserve">7.30310297012329</t>
+    <t xml:space="preserve">7.30310392379761</t>
   </si>
   <si>
     <t xml:space="preserve">7.09039163589478</t>
   </si>
   <si>
-    <t xml:space="preserve">7.24165391921997</t>
+    <t xml:space="preserve">7.24165344238281</t>
   </si>
   <si>
     <t xml:space="preserve">7.45436525344849</t>
   </si>
   <si>
-    <t xml:space="preserve">7.34564638137817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46381902694702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25583505630493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.28892278671265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52054214477539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39291524887085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.24638080596924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15656900405884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94858360290527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60824489593506</t>
+    <t xml:space="preserve">7.34564590454102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46381855010986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25583457946777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.28892230987549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52054166793823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39291477203369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.24637985229492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15656852722168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94858312606812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6082444190979</t>
   </si>
   <si>
     <t xml:space="preserve">6.55152177810669</t>
   </si>
   <si>
-    <t xml:space="preserve">6.68860292434692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42862129211426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38608026504517</t>
+    <t xml:space="preserve">6.68860244750977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42862272262573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38607883453369</t>
   </si>
   <si>
     <t xml:space="preserve">6.51843357086182</t>
   </si>
   <si>
-    <t xml:space="preserve">6.71696424484253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98639869689941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81150341033936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9391303062439</t>
+    <t xml:space="preserve">6.71696519851685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98639965057373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81150245666504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.93912982940674</t>
   </si>
   <si>
     <t xml:space="preserve">6.80204916000366</t>
   </si>
   <si>
-    <t xml:space="preserve">6.72641801834106</t>
+    <t xml:space="preserve">6.72641849517822</t>
   </si>
   <si>
     <t xml:space="preserve">7.09984588623047</t>
   </si>
   <si>
-    <t xml:space="preserve">6.99585342407227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90604114532471</t>
+    <t xml:space="preserve">6.99585294723511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90604162216187</t>
   </si>
   <si>
     <t xml:space="preserve">6.9013147354126</t>
   </si>
   <si>
-    <t xml:space="preserve">6.94385719299316</t>
+    <t xml:space="preserve">6.94385671615601</t>
   </si>
   <si>
     <t xml:space="preserve">6.7595067024231</t>
@@ -170,40 +170,40 @@
     <t xml:space="preserve">6.73114538192749</t>
   </si>
   <si>
-    <t xml:space="preserve">6.89658737182617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88713407516479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96276521682739</t>
+    <t xml:space="preserve">6.89658832550049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88713359832764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96276426315308</t>
   </si>
   <si>
     <t xml:space="preserve">7.11402654647827</t>
   </si>
   <si>
-    <t xml:space="preserve">7.21801853179932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18965768814087</t>
+    <t xml:space="preserve">7.21801900863647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18965721130371</t>
   </si>
   <si>
     <t xml:space="preserve">7.31728410720825</t>
   </si>
   <si>
-    <t xml:space="preserve">7.21329164505005</t>
+    <t xml:space="preserve">7.21329212188721</t>
   </si>
   <si>
     <t xml:space="preserve">7.14711427688599</t>
   </si>
   <si>
-    <t xml:space="preserve">7.35037231445312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20383787155151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27946853637695</t>
+    <t xml:space="preserve">7.35037279129028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20383834838867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27946901321411</t>
   </si>
   <si>
     <t xml:space="preserve">7.03839635848999</t>
@@ -212,7 +212,7 @@
     <t xml:space="preserve">7.01948833465576</t>
   </si>
   <si>
-    <t xml:space="preserve">7.109299659729</t>
+    <t xml:space="preserve">7.10929918289185</t>
   </si>
   <si>
     <t xml:space="preserve">7.37873411178589</t>
@@ -224,49 +224,49 @@
     <t xml:space="preserve">7.33619213104248</t>
   </si>
   <si>
-    <t xml:space="preserve">7.6150803565979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52526903152466</t>
+    <t xml:space="preserve">7.61508131027222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52526998519897</t>
   </si>
   <si>
     <t xml:space="preserve">7.59617233276367</t>
   </si>
   <si>
-    <t xml:space="preserve">7.69071102142334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.667076587677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.84669971466064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71434545516968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75688886642456</t>
+    <t xml:space="preserve">7.69071197509766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66707706451416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84670162200928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71434640884399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7568883895874</t>
   </si>
   <si>
     <t xml:space="preserve">7.81833934783936</t>
   </si>
   <si>
-    <t xml:space="preserve">7.85142803192139</t>
+    <t xml:space="preserve">7.85142707824707</t>
   </si>
   <si>
     <t xml:space="preserve">8.00268840789795</t>
   </si>
   <si>
-    <t xml:space="preserve">8.00741672515869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98850870132446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90342235565186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0641393661499</t>
+    <t xml:space="preserve">8.00741577148438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98850727081299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90342378616333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.06413841247559</t>
   </si>
   <si>
     <t xml:space="preserve">7.99796152114868</t>
@@ -281,25 +281,25 @@
     <t xml:space="preserve">8.2182731628418</t>
   </si>
   <si>
-    <t xml:space="preserve">8.22777557373047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1707706451416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29428195953369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33703708648682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3607873916626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34653663635254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.280029296875</t>
+    <t xml:space="preserve">8.22777462005615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.17077159881592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29428100585938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33703422546387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.36078643798828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34653759002686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28003025054932</t>
   </si>
   <si>
     <t xml:space="preserve">8.19927310943604</t>
@@ -311,61 +311,61 @@
     <t xml:space="preserve">8.26577854156494</t>
   </si>
   <si>
-    <t xml:space="preserve">8.13276767730713</t>
+    <t xml:space="preserve">8.1327657699585</t>
   </si>
   <si>
     <t xml:space="preserve">8.03300762176514</t>
   </si>
   <si>
-    <t xml:space="preserve">7.93799781799316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75748109817505</t>
+    <t xml:space="preserve">7.93799829483032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75748014450073</t>
   </si>
   <si>
     <t xml:space="preserve">7.74322891235352</t>
   </si>
   <si>
-    <t xml:space="preserve">7.76698160171509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67197275161743</t>
+    <t xml:space="preserve">7.76698064804077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67197179794312</t>
   </si>
   <si>
     <t xml:space="preserve">7.75273084640503</t>
   </si>
   <si>
-    <t xml:space="preserve">8.1090145111084</t>
+    <t xml:space="preserve">8.10901260375977</t>
   </si>
   <si>
     <t xml:space="preserve">8.06625938415527</t>
   </si>
   <si>
-    <t xml:space="preserve">8.18027114868164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7907338142395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82873821258545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83823728561401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99025249481201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0472583770752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00925350189209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92849683761597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83348894119263</t>
+    <t xml:space="preserve">8.18027019500732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79073333740234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82873725891113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83823871612549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99025297164917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.04725933074951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00925445556641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92849731445312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83348798751831</t>
   </si>
   <si>
     <t xml:space="preserve">7.99975442886353</t>
@@ -377,16 +377,16 @@
     <t xml:space="preserve">8.03775691986084</t>
   </si>
   <si>
-    <t xml:space="preserve">8.0282564163208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.17551898956299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30378246307373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28953266143799</t>
+    <t xml:space="preserve">8.02825546264648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1755199432373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30378341674805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28953075408936</t>
   </si>
   <si>
     <t xml:space="preserve">8.31803417205811</t>
@@ -401,16 +401,16 @@
     <t xml:space="preserve">8.48905086517334</t>
   </si>
   <si>
-    <t xml:space="preserve">8.47479915618896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45579528808594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41779232025146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2752799987793</t>
+    <t xml:space="preserve">8.47479820251465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45579719543457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41779136657715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27527904510498</t>
   </si>
   <si>
     <t xml:space="preserve">8.41304206848145</t>
@@ -425,7 +425,7 @@
     <t xml:space="preserve">8.7360725402832</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64106369018555</t>
+    <t xml:space="preserve">8.64106559753418</t>
   </si>
   <si>
     <t xml:space="preserve">8.76457595825195</t>
@@ -434,19 +434,19 @@
     <t xml:space="preserve">8.88808727264404</t>
   </si>
   <si>
-    <t xml:space="preserve">8.78357887268066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91658973693848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.94034194946289</t>
+    <t xml:space="preserve">8.78357696533203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91659069061279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.94034290313721</t>
   </si>
   <si>
     <t xml:space="preserve">9.05435276031494</t>
   </si>
   <si>
-    <t xml:space="preserve">8.97834491729736</t>
+    <t xml:space="preserve">8.97834587097168</t>
   </si>
   <si>
     <t xml:space="preserve">8.94984436035156</t>
@@ -455,19 +455,19 @@
     <t xml:space="preserve">8.87858581542969</t>
   </si>
   <si>
-    <t xml:space="preserve">8.88333797454834</t>
+    <t xml:space="preserve">8.88333702087402</t>
   </si>
   <si>
     <t xml:space="preserve">8.95459365844727</t>
   </si>
   <si>
-    <t xml:space="preserve">8.86433506011963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9023380279541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89283847808838</t>
+    <t xml:space="preserve">8.86433601379395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90233993530273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89283752441406</t>
   </si>
   <si>
     <t xml:space="preserve">8.78832721710205</t>
@@ -476,43 +476,43 @@
     <t xml:space="preserve">8.72182273864746</t>
   </si>
   <si>
-    <t xml:space="preserve">8.70282077789307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68856906890869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.61256217956543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.6695671081543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66006755828857</t>
+    <t xml:space="preserve">8.70281887054443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68857002258301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6125602722168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66956615447998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66006469726562</t>
   </si>
   <si>
     <t xml:space="preserve">8.79782962799072</t>
   </si>
   <si>
-    <t xml:space="preserve">8.6268138885498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74557304382324</t>
+    <t xml:space="preserve">8.62681293487549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74557399749756</t>
   </si>
   <si>
     <t xml:space="preserve">8.62206172943115</t>
   </si>
   <si>
-    <t xml:space="preserve">8.68381786346436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74082279205322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5935583114624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65531444549561</t>
+    <t xml:space="preserve">8.68381881713867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74082374572754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59355926513672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65531539916992</t>
   </si>
   <si>
     <t xml:space="preserve">8.69331932067871</t>
@@ -521,10 +521,10 @@
     <t xml:space="preserve">8.8215799331665</t>
   </si>
   <si>
-    <t xml:space="preserve">9.21586894989014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.38688468933105</t>
+    <t xml:space="preserve">9.2158670425415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.38688564300537</t>
   </si>
   <si>
     <t xml:space="preserve">9.20636749267578</t>
@@ -539,28 +539,28 @@
     <t xml:space="preserve">9.07335567474365</t>
   </si>
   <si>
-    <t xml:space="preserve">8.94509220123291</t>
+    <t xml:space="preserve">8.94509315490723</t>
   </si>
   <si>
     <t xml:space="preserve">8.63156414031982</t>
   </si>
   <si>
-    <t xml:space="preserve">8.55080604553223</t>
+    <t xml:space="preserve">8.55080509185791</t>
   </si>
   <si>
     <t xml:space="preserve">8.52705383300781</t>
   </si>
   <si>
-    <t xml:space="preserve">8.52230358123779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71232032775879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47004795074463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5888090133667</t>
+    <t xml:space="preserve">8.52230262756348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71232128143311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47004699707031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58880996704102</t>
   </si>
   <si>
     <t xml:space="preserve">8.50805187225342</t>
@@ -569,37 +569,37 @@
     <t xml:space="preserve">8.59831047058105</t>
   </si>
   <si>
-    <t xml:space="preserve">9.12086009979248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.23486995697021</t>
+    <t xml:space="preserve">9.12085914611816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.23487091064453</t>
   </si>
   <si>
     <t xml:space="preserve">9.19686698913574</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64581489562988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28477954864502</t>
+    <t xml:space="preserve">8.64581298828125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28478145599365</t>
   </si>
   <si>
     <t xml:space="preserve">8.43679523468018</t>
   </si>
   <si>
-    <t xml:space="preserve">7.55321168899536</t>
+    <t xml:space="preserve">7.5532112121582</t>
   </si>
   <si>
     <t xml:space="preserve">8.10426330566406</t>
   </si>
   <si>
-    <t xml:space="preserve">8.07575988769531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.51280117034912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53655529022217</t>
+    <t xml:space="preserve">8.07576084136963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.51280212402344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53655338287354</t>
   </si>
   <si>
     <t xml:space="preserve">8.57455730438232</t>
@@ -608,28 +608,28 @@
     <t xml:space="preserve">8.60781002044678</t>
   </si>
   <si>
-    <t xml:space="preserve">8.49854946136475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35603713989258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30853271484375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5033016204834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.70757102966309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7788257598877</t>
+    <t xml:space="preserve">8.49855041503906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35603809356689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30853366851807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.50330066680908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.70757007598877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77882671356201</t>
   </si>
   <si>
     <t xml:space="preserve">8.85483455657959</t>
   </si>
   <si>
-    <t xml:space="preserve">8.80258083343506</t>
+    <t xml:space="preserve">8.80257987976074</t>
   </si>
   <si>
     <t xml:space="preserve">8.87383651733398</t>
@@ -641,58 +641,58 @@
     <t xml:space="preserve">9.29187488555908</t>
   </si>
   <si>
-    <t xml:space="preserve">9.10185623168945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27762413024902</t>
+    <t xml:space="preserve">9.10185813903809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27762317657471</t>
   </si>
   <si>
     <t xml:space="preserve">9.40588569641113</t>
   </si>
   <si>
-    <t xml:space="preserve">9.47714328765869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.54839897155762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.51989650726318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43438816070557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50089550018311</t>
+    <t xml:space="preserve">9.47714233398438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.54839992523193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5198974609375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4343900680542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50089454650879</t>
   </si>
   <si>
     <t xml:space="preserve">9.58640384674072</t>
   </si>
   <si>
-    <t xml:space="preserve">9.62440776824951</t>
+    <t xml:space="preserve">9.62440586090088</t>
   </si>
   <si>
     <t xml:space="preserve">9.57690238952637</t>
   </si>
   <si>
-    <t xml:space="preserve">9.49614429473877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24912261962891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24437046051025</t>
+    <t xml:space="preserve">9.49614524841309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24912166595459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24436950683594</t>
   </si>
   <si>
     <t xml:space="preserve">9.29662609100342</t>
   </si>
   <si>
-    <t xml:space="preserve">9.60540390014648</t>
+    <t xml:space="preserve">9.6054048538208</t>
   </si>
   <si>
     <t xml:space="preserve">9.95693778991699</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1089525222778</t>
+    <t xml:space="preserve">10.1089515686035</t>
   </si>
   <si>
     <t xml:space="preserve">9.97593975067139</t>
@@ -701,34 +701,34 @@
     <t xml:space="preserve">10.061448097229</t>
   </si>
   <si>
-    <t xml:space="preserve">9.78592205047607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85242938995361</t>
+    <t xml:space="preserve">9.78592109680176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8524284362793</t>
   </si>
   <si>
     <t xml:space="preserve">9.86192893981934</t>
   </si>
   <si>
-    <t xml:space="preserve">9.80492401123047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.93793678283691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1754579544067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1564559936523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3369722366333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3939800262451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4129810333252</t>
+    <t xml:space="preserve">9.80492496490479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9379358291626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1754589080811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1564569473267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3369741439819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3939781188965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4129819869995</t>
   </si>
   <si>
     <t xml:space="preserve">10.5839967727661</t>
@@ -737,52 +737,52 @@
     <t xml:space="preserve">10.6315011978149</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5174903869629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4889879226685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7360105514526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.669506072998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6600036621094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9735345840454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0495414733887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8785238265991</t>
+    <t xml:space="preserve">10.5174913406372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4889888763428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.736011505127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6695041656494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.660005569458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9735355377197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.04953956604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8785247802734</t>
   </si>
   <si>
     <t xml:space="preserve">10.8120193481445</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8025197982788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7835149765015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8690242767334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0590410232544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0020370483398</t>
+    <t xml:space="preserve">10.8025178909302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7835168838501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8690223693848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0590419769287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0020360946655</t>
   </si>
   <si>
     <t xml:space="preserve">11.0970458984375</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1635522842407</t>
+    <t xml:space="preserve">11.1635513305664</t>
   </si>
   <si>
     <t xml:space="preserve">11.2965650558472</t>
@@ -791,13 +791,13 @@
     <t xml:space="preserve">11.2585620880127</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4200773239136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1255502700806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3725719451904</t>
+    <t xml:space="preserve">11.4200763702393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1255474090576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3725709915161</t>
   </si>
   <si>
     <t xml:space="preserve">11.3345670700073</t>
@@ -806,37 +806,37 @@
     <t xml:space="preserve">11.3155670166016</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3535690307617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4485807418823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6005926132202</t>
+    <t xml:space="preserve">11.353569984436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4485778808594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6005935668945</t>
   </si>
   <si>
     <t xml:space="preserve">11.5815906524658</t>
   </si>
   <si>
-    <t xml:space="preserve">11.629096031189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7533168792725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0017623901367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0399827957153</t>
+    <t xml:space="preserve">11.6290950775146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7533187866211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0017604827881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.039984703064</t>
   </si>
   <si>
     <t xml:space="preserve">12.1259832382202</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0973167419434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1068744659424</t>
+    <t xml:space="preserve">12.0973176956177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1068725585938</t>
   </si>
   <si>
     <t xml:space="preserve">12.1164283752441</t>
@@ -845,22 +845,22 @@
     <t xml:space="preserve">12.145094871521</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2406511306763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2788724899292</t>
+    <t xml:space="preserve">12.240650177002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2788734436035</t>
   </si>
   <si>
     <t xml:space="preserve">12.2024278640747</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3935394287109</t>
+    <t xml:space="preserve">12.3935403823853</t>
   </si>
   <si>
     <t xml:space="preserve">12.3648719787598</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4222059249878</t>
+    <t xml:space="preserve">12.4222049713135</t>
   </si>
   <si>
     <t xml:space="preserve">12.0877618789673</t>
@@ -884,34 +884,34 @@
     <t xml:space="preserve">11.9444284439087</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9348735809326</t>
+    <t xml:space="preserve">11.9348726272583</t>
   </si>
   <si>
     <t xml:space="preserve">11.8010950088501</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7437610626221</t>
+    <t xml:space="preserve">11.7437620162964</t>
   </si>
   <si>
     <t xml:space="preserve">11.6959838867188</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6386528015137</t>
+    <t xml:space="preserve">11.638650894165</t>
   </si>
   <si>
     <t xml:space="preserve">11.5430955886841</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2468738555908</t>
+    <t xml:space="preserve">11.2468748092651</t>
   </si>
   <si>
     <t xml:space="preserve">11.0462083816528</t>
   </si>
   <si>
-    <t xml:space="preserve">10.855094909668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7213182449341</t>
+    <t xml:space="preserve">10.8550958633423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7213201522827</t>
   </si>
   <si>
     <t xml:space="preserve">10.769097328186</t>
@@ -920,25 +920,25 @@
     <t xml:space="preserve">10.9028739929199</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0748739242554</t>
+    <t xml:space="preserve">11.0748748779297</t>
   </si>
   <si>
     <t xml:space="preserve">11.065318107605</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1130962371826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3042068481445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5239849090576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5526514053345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5144300460815</t>
+    <t xml:space="preserve">11.1130952835083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3042058944702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5239858627319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5526523590088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5144281387329</t>
   </si>
   <si>
     <t xml:space="preserve">11.5813179016113</t>
@@ -947,19 +947,19 @@
     <t xml:space="preserve">11.4379844665527</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6768732070923</t>
+    <t xml:space="preserve">11.6768741607666</t>
   </si>
   <si>
     <t xml:space="preserve">11.6004285812378</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5048742294312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4475383758545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.418872833252</t>
+    <t xml:space="preserve">11.5048723220825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4475412368774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4188737869263</t>
   </si>
   <si>
     <t xml:space="preserve">11.2755403518677</t>
@@ -968,7 +968,7 @@
     <t xml:space="preserve">11.1990957260132</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0844297409058</t>
+    <t xml:space="preserve">11.0844306945801</t>
   </si>
   <si>
     <t xml:space="preserve">10.8264293670654</t>
@@ -980,16 +980,16 @@
     <t xml:space="preserve">10.9506521224976</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3615417480469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3328742980957</t>
+    <t xml:space="preserve">11.3615407943726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3328733444214</t>
   </si>
   <si>
     <t xml:space="preserve">11.2373189926147</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2946500778198</t>
+    <t xml:space="preserve">11.2946510314941</t>
   </si>
   <si>
     <t xml:space="preserve">11.4857635498047</t>
@@ -1001,7 +1001,7 @@
     <t xml:space="preserve">11.4093179702759</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2277641296387</t>
+    <t xml:space="preserve">11.22776222229</t>
   </si>
   <si>
     <t xml:space="preserve">11.2564296722412</t>
@@ -1013,28 +1013,28 @@
     <t xml:space="preserve">11.6099843978882</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8966493606567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.992205619812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1642045974731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1928720474243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1355400085449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2310953140259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2215375900269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2597627639771</t>
+    <t xml:space="preserve">11.8966512680054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9922075271606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1642055511475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1928739547729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1355381011963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2310943603516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2215404510498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2597608566284</t>
   </si>
   <si>
     <t xml:space="preserve">12.1546506881714</t>
@@ -1046,19 +1046,19 @@
     <t xml:space="preserve">12.403094291687</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3362054824829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2884292602539</t>
+    <t xml:space="preserve">12.3362045288086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2884273529053</t>
   </si>
   <si>
     <t xml:space="preserve">12.6706495285034</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7088737487793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8330945968628</t>
+    <t xml:space="preserve">12.7088708877563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8330926895142</t>
   </si>
   <si>
     <t xml:space="preserve">12.9764270782471</t>
@@ -1067,25 +1067,25 @@
     <t xml:space="preserve">13.0050945281982</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0242042541504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9955377578735</t>
+    <t xml:space="preserve">13.0242052078247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9955396652222</t>
   </si>
   <si>
     <t xml:space="preserve">12.3744277954102</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9635410308838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0304288864136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2119836807251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3553161621094</t>
+    <t xml:space="preserve">11.9635400772095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0304279327393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2119817733765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3553171157837</t>
   </si>
   <si>
     <t xml:space="preserve">12.460428237915</t>
@@ -1094,7 +1094,7 @@
     <t xml:space="preserve">12.0782060623169</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6195383071899</t>
+    <t xml:space="preserve">11.6195402145386</t>
   </si>
   <si>
     <t xml:space="preserve">11.7342071533203</t>
@@ -1106,25 +1106,25 @@
     <t xml:space="preserve">11.8488721847534</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9539842605591</t>
+    <t xml:space="preserve">11.9539852142334</t>
   </si>
   <si>
     <t xml:space="preserve">12.2693166732788</t>
   </si>
   <si>
-    <t xml:space="preserve">12.250205039978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3839845657349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3170957565308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5464277267456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5177602767944</t>
+    <t xml:space="preserve">12.2502059936523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3839836120605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3170948028564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5464267730713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5177612304688</t>
   </si>
   <si>
     <t xml:space="preserve">12.3457612991333</t>
@@ -1139,7 +1139,7 @@
     <t xml:space="preserve">12.7279825210571</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7375392913818</t>
+    <t xml:space="preserve">12.7375383377075</t>
   </si>
   <si>
     <t xml:space="preserve">12.6897611618042</t>
@@ -1148,34 +1148,34 @@
     <t xml:space="preserve">12.8235387802124</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3299827575684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.320426940918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2822036743164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1484279632568</t>
+    <t xml:space="preserve">13.329981803894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3204259872437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2822046279907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1484270095825</t>
   </si>
   <si>
     <t xml:space="preserve">13.6262044906616</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6644268035889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7408714294434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7599802017212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8077583312988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7122039794922</t>
+    <t xml:space="preserve">13.6644258499146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.740870475769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7599811553955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8077592849731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7122049331665</t>
   </si>
   <si>
     <t xml:space="preserve">13.4542045593262</t>
@@ -1190,22 +1190,22 @@
     <t xml:space="preserve">13.167537689209</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8044261932373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5942058563232</t>
+    <t xml:space="preserve">12.8044271469116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5942068099976</t>
   </si>
   <si>
     <t xml:space="preserve">12.5655384063721</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6515378952026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6993160247803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0146493911743</t>
+    <t xml:space="preserve">12.651538848877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.699315071106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0146484375</t>
   </si>
   <si>
     <t xml:space="preserve">13.071982383728</t>
@@ -1217,7 +1217,7 @@
     <t xml:space="preserve">12.7853164672852</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4699840545654</t>
+    <t xml:space="preserve">12.4699831008911</t>
   </si>
   <si>
     <t xml:space="preserve">12.4413166046143</t>
@@ -1226,16 +1226,16 @@
     <t xml:space="preserve">12.9190940856934</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2344274520874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2917594909668</t>
+    <t xml:space="preserve">13.2344264984131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2917613983154</t>
   </si>
   <si>
     <t xml:space="preserve">13.4637603759766</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6070928573608</t>
+    <t xml:space="preserve">13.6070919036865</t>
   </si>
   <si>
     <t xml:space="preserve">13.5306482315063</t>
@@ -1253,34 +1253,34 @@
     <t xml:space="preserve">13.4446477890015</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0815372467041</t>
+    <t xml:space="preserve">13.0815391540527</t>
   </si>
   <si>
     <t xml:space="preserve">13.0528717041016</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4924259185791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7695379257202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8459815979004</t>
+    <t xml:space="preserve">13.4924278259277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7695360183716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8459806442261</t>
   </si>
   <si>
     <t xml:space="preserve">13.5115385055542</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9988689422607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2090911865234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3524255752563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.610424041748</t>
+    <t xml:space="preserve">13.9988698959351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2090921401978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3524265289307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6104249954224</t>
   </si>
   <si>
     <t xml:space="preserve">14.5148706436157</t>
@@ -1295,13 +1295,13 @@
     <t xml:space="preserve">14.9066467285156</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1359796524048</t>
+    <t xml:space="preserve">15.1359806060791</t>
   </si>
   <si>
     <t xml:space="preserve">15.0786457061768</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3366451263428</t>
+    <t xml:space="preserve">15.3366460800171</t>
   </si>
   <si>
     <t xml:space="preserve">15.1933126449585</t>
@@ -1310,40 +1310,40 @@
     <t xml:space="preserve">15.2219800949097</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2602014541626</t>
+    <t xml:space="preserve">15.2602024078369</t>
   </si>
   <si>
     <t xml:space="preserve">15.1264247894287</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1168689727783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9353132247925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8110904693604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3939800262451</t>
+    <t xml:space="preserve">15.116868019104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9353122711182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8110914230347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3939809799194</t>
   </si>
   <si>
     <t xml:space="preserve">15.4990901947021</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4704256057739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4799795150757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6710901260376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6233129501343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7857580184937</t>
+    <t xml:space="preserve">15.4704246520996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.47998046875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6710891723633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6233110427856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7857570648193</t>
   </si>
   <si>
     <t xml:space="preserve">15.8908662796021</t>
@@ -1361,7 +1361,7 @@
     <t xml:space="preserve">15.0401554107666</t>
   </si>
   <si>
-    <t xml:space="preserve">14.886194229126</t>
+    <t xml:space="preserve">14.8861932754517</t>
   </si>
   <si>
     <t xml:space="preserve">14.559024810791</t>
@@ -1373,31 +1373,31 @@
     <t xml:space="preserve">14.9535522460938</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0978918075562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1356296539307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6167612075806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.838080406189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8477039337158</t>
+    <t xml:space="preserve">15.0978908538818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1356287002563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6167602539062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8380813598633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8477020263672</t>
   </si>
   <si>
     <t xml:space="preserve">15.4154376983643</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7233600616455</t>
+    <t xml:space="preserve">15.7233619689941</t>
   </si>
   <si>
     <t xml:space="preserve">16.3584537506104</t>
   </si>
   <si>
-    <t xml:space="preserve">16.704870223999</t>
+    <t xml:space="preserve">16.7048721313477</t>
   </si>
   <si>
     <t xml:space="preserve">16.3969478607178</t>
@@ -1406,25 +1406,25 @@
     <t xml:space="preserve">16.406566619873</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4450588226318</t>
+    <t xml:space="preserve">16.4450569152832</t>
   </si>
   <si>
     <t xml:space="preserve">16.4546813964844</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5701522827148</t>
+    <t xml:space="preserve">16.5701503753662</t>
   </si>
   <si>
     <t xml:space="preserve">16.3488330841064</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3103408813477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7722263336182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9743022918701</t>
+    <t xml:space="preserve">16.3103427886963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7722282409668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9743003845215</t>
   </si>
   <si>
     <t xml:space="preserve">16.9165668487549</t>
@@ -1433,13 +1433,13 @@
     <t xml:space="preserve">16.8203392028809</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5509090423584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5027904510498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9261875152588</t>
+    <t xml:space="preserve">16.5509071350098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5027942657471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9261894226074</t>
   </si>
   <si>
     <t xml:space="preserve">17.0897731781006</t>
@@ -1454,13 +1454,13 @@
     <t xml:space="preserve">17.1763782501221</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0224151611328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6182651519775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6952495574951</t>
+    <t xml:space="preserve">17.0224170684814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6182670593262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6952476501465</t>
   </si>
   <si>
     <t xml:space="preserve">16.4643039703369</t>
@@ -1469,10 +1469,10 @@
     <t xml:space="preserve">16.6471328735352</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8010959625244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6086444854736</t>
+    <t xml:space="preserve">16.8010940551758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.608642578125</t>
   </si>
   <si>
     <t xml:space="preserve">16.7626056671143</t>
@@ -1481,19 +1481,19 @@
     <t xml:space="preserve">17.3592090606689</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8018474578857</t>
+    <t xml:space="preserve">17.8018455505371</t>
   </si>
   <si>
     <t xml:space="preserve">18.2156200408936</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7056198120117</t>
+    <t xml:space="preserve">17.7056217193604</t>
   </si>
   <si>
     <t xml:space="preserve">18.3503379821777</t>
   </si>
   <si>
-    <t xml:space="preserve">18.436939239502</t>
+    <t xml:space="preserve">18.4369411468506</t>
   </si>
   <si>
     <t xml:space="preserve">18.9950504302979</t>
@@ -1505,46 +1505,46 @@
     <t xml:space="preserve">18.6871280670166</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5235424041748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3407135009766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1290187835693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8980731964111</t>
+    <t xml:space="preserve">18.5235443115234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3407154083252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1290168762207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8980751037598</t>
   </si>
   <si>
     <t xml:space="preserve">18.0520362854004</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0231666564941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5716590881348</t>
+    <t xml:space="preserve">18.0231685638428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5716571807861</t>
   </si>
   <si>
     <t xml:space="preserve">18.6486377716064</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4754333496094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.302225112915</t>
+    <t xml:space="preserve">18.4754314422607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3022232055664</t>
   </si>
   <si>
     <t xml:space="preserve">18.3792057037354</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4850521087646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.331090927124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.205997467041</t>
+    <t xml:space="preserve">18.4850540161133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3310890197754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2059993743896</t>
   </si>
   <si>
     <t xml:space="preserve">18.2733554840088</t>
@@ -1553,22 +1553,22 @@
     <t xml:space="preserve">17.8403396606445</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6678829193115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1001491546631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2829780578613</t>
+    <t xml:space="preserve">18.6678810119629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1001472473145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.28297996521</t>
   </si>
   <si>
     <t xml:space="preserve">19.0239200592041</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6301441192627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.707124710083</t>
+    <t xml:space="preserve">19.6301460266113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7071285247803</t>
   </si>
   <si>
     <t xml:space="preserve">19.6686363220215</t>
@@ -1577,19 +1577,19 @@
     <t xml:space="preserve">19.4761829376221</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3414669036865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0046768188477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7256202697754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8026008605957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0527877807617</t>
+    <t xml:space="preserve">19.3414688110352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.004674911499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7256183624268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8025989532471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0527858734131</t>
   </si>
   <si>
     <t xml:space="preserve">19.2452411651611</t>
@@ -1598,28 +1598,28 @@
     <t xml:space="preserve">18.9661827087402</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4176940917969</t>
+    <t xml:space="preserve">18.4176959991455</t>
   </si>
   <si>
     <t xml:space="preserve">18.7833557128906</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3118476867676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5612812042236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8107147216797</t>
+    <t xml:space="preserve">18.3118457794189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5612831115723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8107166290283</t>
   </si>
   <si>
     <t xml:space="preserve">15.6848697662354</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8195896148682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9061908721924</t>
+    <t xml:space="preserve">15.8195877075195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.906192779541</t>
   </si>
   <si>
     <t xml:space="preserve">15.2326078414917</t>
@@ -1628,22 +1628,22 @@
     <t xml:space="preserve">15.6560029983521</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6944952011108</t>
+    <t xml:space="preserve">15.6944932937622</t>
   </si>
   <si>
     <t xml:space="preserve">16.0409088134766</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9639263153076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1748733520508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2999668121338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2229862213135</t>
+    <t xml:space="preserve">15.9639272689819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1748723983765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2999658584595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2229852676392</t>
   </si>
   <si>
     <t xml:space="preserve">15.2037410736084</t>
@@ -1658,16 +1658,16 @@
     <t xml:space="preserve">14.8765707015991</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9246845245361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8958168029785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8669471740723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1556282043457</t>
+    <t xml:space="preserve">14.9246835708618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8958158493042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8669490814209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1556272506714</t>
   </si>
   <si>
     <t xml:space="preserve">15.2807216644287</t>
@@ -1676,52 +1676,52 @@
     <t xml:space="preserve">15.011287689209</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0201587677002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.933554649353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3273305892944</t>
+    <t xml:space="preserve">14.0201568603516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9335536956787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3273296356201</t>
   </si>
   <si>
     <t xml:space="preserve">13.2792167663574</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5871391296387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4620456695557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5967626571655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8565721511841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6929893493652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4235553741455</t>
+    <t xml:space="preserve">13.587140083313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4620447158813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5967617034912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8565740585327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6929883956909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4235544204712</t>
   </si>
   <si>
     <t xml:space="preserve">14.0778942108154</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2222318649292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7129859924316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4339294433594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3761959075928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5205345153809</t>
+    <t xml:space="preserve">14.2222328186035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.712986946106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4339303970337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3761949539185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5205335617065</t>
   </si>
   <si>
     <t xml:space="preserve">14.5494012832642</t>
@@ -1730,7 +1730,7 @@
     <t xml:space="preserve">14.0009126663208</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9431762695312</t>
+    <t xml:space="preserve">13.9431772232056</t>
   </si>
   <si>
     <t xml:space="preserve">13.7988376617432</t>
@@ -1742,13 +1742,13 @@
     <t xml:space="preserve">14.1067609786987</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1548748016357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.636004447937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9816656112671</t>
+    <t xml:space="preserve">14.1548738479614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6360063552856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9816675186157</t>
   </si>
   <si>
     <t xml:space="preserve">12.9135570526123</t>
@@ -1757,28 +1757,28 @@
     <t xml:space="preserve">13.5197820663452</t>
   </si>
   <si>
-    <t xml:space="preserve">13.385064125061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9527988433838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2799682617188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0593996047974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4827976226807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1075134277344</t>
+    <t xml:space="preserve">13.3850650787354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9527997970581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2799692153931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.059401512146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.482795715332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1075124740601</t>
   </si>
   <si>
     <t xml:space="preserve">15.309588432312</t>
   </si>
   <si>
-    <t xml:space="preserve">15.405816078186</t>
+    <t xml:space="preserve">15.4058151245117</t>
   </si>
   <si>
     <t xml:space="preserve">15.3769474029541</t>
@@ -1790,13 +1790,13 @@
     <t xml:space="preserve">15.5886449813843</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5212860107422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3673248291016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2518548965454</t>
+    <t xml:space="preserve">15.5212850570679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3673257827759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2518539428711</t>
   </si>
   <si>
     <t xml:space="preserve">15.1460037231445</t>
@@ -1805,58 +1805,58 @@
     <t xml:space="preserve">15.0497789382935</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0882682800293</t>
+    <t xml:space="preserve">15.0882692337036</t>
   </si>
   <si>
     <t xml:space="preserve">15.1652498245239</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8484525680542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9446821212769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2903432846069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4443044662476</t>
+    <t xml:space="preserve">15.8484563827515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9446811676025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2903442382812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4443035125732</t>
   </si>
   <si>
     <t xml:space="preserve">15.7810974121094</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6656274795532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6271333694458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0016651153564</t>
+    <t xml:space="preserve">15.6656265258789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6271352767944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0016660690308</t>
   </si>
   <si>
     <t xml:space="preserve">15.1267604827881</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4539289474487</t>
+    <t xml:space="preserve">15.4539279937744</t>
   </si>
   <si>
     <t xml:space="preserve">15.4250612258911</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6752481460571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5982646942139</t>
+    <t xml:space="preserve">15.6752490997314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5982666015625</t>
   </si>
   <si>
     <t xml:space="preserve">15.7426080703735</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9735488891602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6760005950928</t>
+    <t xml:space="preserve">15.9735498428345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6760025024414</t>
   </si>
   <si>
     <t xml:space="preserve">16.2044944763184</t>
@@ -1865,7 +1865,7 @@
     <t xml:space="preserve">15.4924192428589</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0216617584229</t>
+    <t xml:space="preserve">16.0216636657715</t>
   </si>
   <si>
     <t xml:space="preserve">16.93581199646</t>
@@ -1880,16 +1880,16 @@
     <t xml:space="preserve">16.4354343414307</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4739284515381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0031700134277</t>
+    <t xml:space="preserve">16.4739265441895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0031719207764</t>
   </si>
   <si>
     <t xml:space="preserve">16.6663799285889</t>
   </si>
   <si>
-    <t xml:space="preserve">17.060905456543</t>
+    <t xml:space="preserve">17.0609073638916</t>
   </si>
   <si>
     <t xml:space="preserve">16.9839248657227</t>
@@ -1904,7 +1904,7 @@
     <t xml:space="preserve">16.4931697845459</t>
   </si>
   <si>
-    <t xml:space="preserve">16.137134552002</t>
+    <t xml:space="preserve">16.1371326446533</t>
   </si>
   <si>
     <t xml:space="preserve">16.1275119781494</t>
@@ -1913,58 +1913,58 @@
     <t xml:space="preserve">16.1660022735596</t>
   </si>
   <si>
-    <t xml:space="preserve">16.089017868042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5990219116211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.483549118042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1563816070557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7633590698242</t>
+    <t xml:space="preserve">16.0890197753906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5990200042725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4835472106934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.156379699707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.763355255127</t>
   </si>
   <si>
     <t xml:space="preserve">17.9269409179688</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3599586486816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5709075927734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5420379638672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0905246734619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9469394683838</t>
+    <t xml:space="preserve">18.3599605560303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5709056854248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5420360565186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0905265808105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9469413757324</t>
   </si>
   <si>
     <t xml:space="preserve">18.8521842956543</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1526565551758</t>
+    <t xml:space="preserve">19.1526546478271</t>
   </si>
   <si>
     <t xml:space="preserve">19.8892955780029</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7923679351807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2108116149902</t>
+    <t xml:space="preserve">19.7923698425293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2108135223389</t>
   </si>
   <si>
     <t xml:space="preserve">19.2301979064941</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2689685821533</t>
+    <t xml:space="preserve">19.2689666748047</t>
   </si>
   <si>
     <t xml:space="preserve">18.8715705871582</t>
@@ -1973,13 +1973,13 @@
     <t xml:space="preserve">18.9878807067871</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2495822906494</t>
+    <t xml:space="preserve">19.249584197998</t>
   </si>
   <si>
     <t xml:space="preserve">19.3174324035645</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5209770202637</t>
+    <t xml:space="preserve">19.520975112915</t>
   </si>
   <si>
     <t xml:space="preserve">19.6760578155518</t>
@@ -1994,58 +1994,58 @@
     <t xml:space="preserve">19.4046649932861</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5403633117676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1994609832764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4514694213867</t>
+    <t xml:space="preserve">19.5403614044189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.199462890625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4514713287354</t>
   </si>
   <si>
     <t xml:space="preserve">20.5677814483643</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8973293304443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8585624694824</t>
+    <t xml:space="preserve">20.897331237793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8585605621338</t>
   </si>
   <si>
     <t xml:space="preserve">21.1105690002441</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2576160430908</t>
+    <t xml:space="preserve">20.2576179504395</t>
   </si>
   <si>
     <t xml:space="preserve">20.1413059234619</t>
   </si>
   <si>
-    <t xml:space="preserve">19.772985458374</t>
+    <t xml:space="preserve">19.7729835510254</t>
   </si>
   <si>
     <t xml:space="preserve">19.5985164642334</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9280681610107</t>
+    <t xml:space="preserve">19.9280662536621</t>
   </si>
   <si>
     <t xml:space="preserve">19.9668388366699</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3933162689209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2382297515869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9474506378174</t>
+    <t xml:space="preserve">20.3933143615723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2382335662842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9474544525146</t>
   </si>
   <si>
     <t xml:space="preserve">19.8505268096924</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0249938964844</t>
+    <t xml:space="preserve">20.0249919891357</t>
   </si>
   <si>
     <t xml:space="preserve">20.6065521240234</t>
@@ -2060,7 +2060,7 @@
     <t xml:space="preserve">21.0136432647705</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9942569732666</t>
+    <t xml:space="preserve">20.9942588806152</t>
   </si>
   <si>
     <t xml:space="preserve">20.7228622436523</t>
@@ -2069,13 +2069,13 @@
     <t xml:space="preserve">20.3351554870605</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4320850372314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4902381896973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5952014923096</t>
+    <t xml:space="preserve">20.4320831298828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4902400970459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5952033996582</t>
   </si>
   <si>
     <t xml:space="preserve">21.4982738494873</t>
@@ -2093,31 +2093,31 @@
     <t xml:space="preserve">21.30442237854</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4207344055176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4788913726807</t>
+    <t xml:space="preserve">21.4207324981689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.478889465332</t>
   </si>
   <si>
     <t xml:space="preserve">21.5758171081543</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3431911468506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6145858764648</t>
+    <t xml:space="preserve">21.3431930541992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6145839691162</t>
   </si>
   <si>
     <t xml:space="preserve">22.1767597198486</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8164730072021</t>
+    <t xml:space="preserve">22.8164749145508</t>
   </si>
   <si>
     <t xml:space="preserve">22.8940162658691</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8552436828613</t>
+    <t xml:space="preserve">22.85524559021</t>
   </si>
   <si>
     <t xml:space="preserve">22.4287662506104</t>
@@ -2126,13 +2126,13 @@
     <t xml:space="preserve">22.5838489532471</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2930717468262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2736835479736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6420078277588</t>
+    <t xml:space="preserve">22.2930698394775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2736854553223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6420059204102</t>
   </si>
   <si>
     <t xml:space="preserve">22.9327850341797</t>
@@ -2153,7 +2153,7 @@
     <t xml:space="preserve">21.6727428436279</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7810211181641</t>
+    <t xml:space="preserve">20.7810192108154</t>
   </si>
   <si>
     <t xml:space="preserve">20.7616348266602</t>
@@ -2165,7 +2165,7 @@
     <t xml:space="preserve">21.0911827087402</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1881103515625</t>
+    <t xml:space="preserve">21.1881122589111</t>
   </si>
   <si>
     <t xml:space="preserve">21.4013481140137</t>
@@ -2174,13 +2174,13 @@
     <t xml:space="preserve">22.0604476928711</t>
   </si>
   <si>
-    <t xml:space="preserve">21.827823638916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5370445251465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6921272277832</t>
+    <t xml:space="preserve">21.8278255462646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5370426177979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6921253204346</t>
   </si>
   <si>
     <t xml:space="preserve">21.9247512817383</t>
@@ -2192,22 +2192,22 @@
     <t xml:space="preserve">21.8084373474121</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9053649902344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9554862976074</t>
+    <t xml:space="preserve">21.905366897583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9554882049561</t>
   </si>
   <si>
     <t xml:space="preserve">20.9167156219482</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8004016876221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1687259674072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6840934753418</t>
+    <t xml:space="preserve">20.8004035949707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1687240600586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6840953826904</t>
   </si>
   <si>
     <t xml:space="preserve">21.2074947357178</t>
@@ -2216,10 +2216,10 @@
     <t xml:space="preserve">21.246265411377</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6259384155273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.645320892334</t>
+    <t xml:space="preserve">20.6259365081787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6453227996826</t>
   </si>
   <si>
     <t xml:space="preserve">22.1573753356934</t>
@@ -2228,7 +2228,7 @@
     <t xml:space="preserve">22.3512268066406</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8746299743652</t>
+    <t xml:space="preserve">22.8746280670166</t>
   </si>
   <si>
     <t xml:space="preserve">22.9909400939941</t>
@@ -2243,19 +2243,19 @@
     <t xml:space="preserve">24.0765171051025</t>
   </si>
   <si>
-    <t xml:space="preserve">24.2703723907471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9214344024658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4448356628418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1540565490723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2315979003906</t>
+    <t xml:space="preserve">24.2703685760498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9214363098145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4448375701904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1540584564209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2315998077393</t>
   </si>
   <si>
     <t xml:space="preserve">24.3285236358643</t>
@@ -2264,7 +2264,7 @@
     <t xml:space="preserve">24.73561668396</t>
   </si>
   <si>
-    <t xml:space="preserve">25.2396335601807</t>
+    <t xml:space="preserve">25.2396354675293</t>
   </si>
   <si>
     <t xml:space="preserve">25.4722576141357</t>
@@ -2273,25 +2273,25 @@
     <t xml:space="preserve">25.7436504364014</t>
   </si>
   <si>
-    <t xml:space="preserve">24.6968441009521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3559455871582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6661109924316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2977905273438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3947162628174</t>
+    <t xml:space="preserve">24.6968460083008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3559436798096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.666109085083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2977886199951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.394718170166</t>
   </si>
   <si>
     <t xml:space="preserve">24.9876270294189</t>
   </si>
   <si>
-    <t xml:space="preserve">25.317174911499</t>
+    <t xml:space="preserve">25.3171768188477</t>
   </si>
   <si>
     <t xml:space="preserve">25.2008628845215</t>
@@ -2300,13 +2300,13 @@
     <t xml:space="preserve">25.0070095062256</t>
   </si>
   <si>
-    <t xml:space="preserve">24.813159942627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9100856781006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7162322998047</t>
+    <t xml:space="preserve">24.8131580352783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.910083770752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7162303924561</t>
   </si>
   <si>
     <t xml:space="preserve">25.0263957977295</t>
@@ -2318,28 +2318,28 @@
     <t xml:space="preserve">24.8519268035889</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9294700622559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9488544464111</t>
+    <t xml:space="preserve">24.9294681549072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9488563537598</t>
   </si>
   <si>
     <t xml:space="preserve">25.0651664733887</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6854972839355</t>
+    <t xml:space="preserve">25.6854953765869</t>
   </si>
   <si>
     <t xml:space="preserve">25.7242660522461</t>
   </si>
   <si>
-    <t xml:space="preserve">25.220251083374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3753337860107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5885677337646</t>
+    <t xml:space="preserve">25.2202472686768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3753299713135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5885696411133</t>
   </si>
   <si>
     <t xml:space="preserve">26.1507415771484</t>
@@ -2351,19 +2351,19 @@
     <t xml:space="preserve">25.9375038146973</t>
   </si>
   <si>
-    <t xml:space="preserve">25.5304145812988</t>
+    <t xml:space="preserve">25.5304126739502</t>
   </si>
   <si>
     <t xml:space="preserve">26.2088985443115</t>
   </si>
   <si>
-    <t xml:space="preserve">25.142707824707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.890697479248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2784061431885</t>
+    <t xml:space="preserve">25.1427097320557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8906993865967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2784042358398</t>
   </si>
   <si>
     <t xml:space="preserve">26.0538139343262</t>
@@ -2372,7 +2372,7 @@
     <t xml:space="preserve">26.61598777771</t>
   </si>
   <si>
-    <t xml:space="preserve">26.674144744873</t>
+    <t xml:space="preserve">26.6741428375244</t>
   </si>
   <si>
     <t xml:space="preserve">26.790454864502</t>
@@ -2381,10 +2381,10 @@
     <t xml:space="preserve">27.5464820861816</t>
   </si>
   <si>
-    <t xml:space="preserve">27.6240234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.9341869354248</t>
+    <t xml:space="preserve">27.6240215301514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9341888427734</t>
   </si>
   <si>
     <t xml:space="preserve">28.1086540222168</t>
@@ -2393,25 +2393,25 @@
     <t xml:space="preserve">28.2443523406982</t>
   </si>
   <si>
-    <t xml:space="preserve">28.6126747131348</t>
+    <t xml:space="preserve">28.6126708984375</t>
   </si>
   <si>
     <t xml:space="preserve">29.2136154174805</t>
   </si>
   <si>
-    <t xml:space="preserve">28.7096004486084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.3025093078613</t>
+    <t xml:space="preserve">28.7095985412598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.3025074005127</t>
   </si>
   <si>
     <t xml:space="preserve">26.3639793395996</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6079540252686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.968240737915</t>
+    <t xml:space="preserve">25.6079521179199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9682388305664</t>
   </si>
   <si>
     <t xml:space="preserve">23.960205078125</t>
@@ -2426,22 +2426,22 @@
     <t xml:space="preserve">20.1219215393066</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6372871398926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8183870315552</t>
+    <t xml:space="preserve">19.6372852325439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8183879852295</t>
   </si>
   <si>
     <t xml:space="preserve">17.582447052002</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9637746810913</t>
+    <t xml:space="preserve">15.9637775421143</t>
   </si>
   <si>
     <t xml:space="preserve">16.3611755371094</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1559715270996</t>
+    <t xml:space="preserve">17.1559753417969</t>
   </si>
   <si>
     <t xml:space="preserve">17.7859935760498</t>
@@ -2456,13 +2456,13 @@
     <t xml:space="preserve">19.1138858795166</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4160137176514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4935569763184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3869380950928</t>
+    <t xml:space="preserve">18.416015625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4935550689697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3869361877441</t>
   </si>
   <si>
     <t xml:space="preserve">18.1446208953857</t>
@@ -2474,7 +2474,7 @@
     <t xml:space="preserve">17.6696815490723</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0590476989746</t>
+    <t xml:space="preserve">17.059045791626</t>
   </si>
   <si>
     <t xml:space="preserve">17.9119987487793</t>
@@ -2483,7 +2483,7 @@
     <t xml:space="preserve">19.0654220581055</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7067947387695</t>
+    <t xml:space="preserve">18.7067928314209</t>
   </si>
   <si>
     <t xml:space="preserve">18.7213344573975</t>
@@ -2492,16 +2492,16 @@
     <t xml:space="preserve">19.0460357666016</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2221622467041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1784172058105</t>
+    <t xml:space="preserve">18.2221641540527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1784191131592</t>
   </si>
   <si>
     <t xml:space="preserve">19.5597476959229</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1284275054932</t>
+    <t xml:space="preserve">19.1284236907959</t>
   </si>
   <si>
     <t xml:space="preserve">20.306079864502</t>
@@ -2531,22 +2531,22 @@
     <t xml:space="preserve">22.671085357666</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1186008453369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3334980010986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7502822875977</t>
+    <t xml:space="preserve">22.1186027526855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3334999084473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7502841949463</t>
   </si>
   <si>
     <t xml:space="preserve">22.186450958252</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2656497955322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3221492767334</t>
+    <t xml:space="preserve">21.2656536102295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.322151184082</t>
   </si>
   <si>
     <t xml:space="preserve">21.9829063415527</t>
@@ -2555,16 +2555,16 @@
     <t xml:space="preserve">23.3786468505859</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4852657318115</t>
+    <t xml:space="preserve">23.4852638244629</t>
   </si>
   <si>
     <t xml:space="preserve">22.6129283905029</t>
   </si>
   <si>
-    <t xml:space="preserve">23.853588104248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1831359863281</t>
+    <t xml:space="preserve">23.8535861968994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1831378936768</t>
   </si>
   <si>
     <t xml:space="preserve">23.8729705810547</t>
@@ -2576,16 +2576,16 @@
     <t xml:space="preserve">24.1734428405762</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7081966400146</t>
+    <t xml:space="preserve">23.708194732666</t>
   </si>
   <si>
     <t xml:space="preserve">23.029712677002</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9715557098389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2155303955078</t>
+    <t xml:space="preserve">22.9715576171875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2155323028564</t>
   </si>
   <si>
     <t xml:space="preserve">22.3996906280518</t>
@@ -2603,22 +2603,22 @@
     <t xml:space="preserve">23.02001953125</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0490989685059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4949588775635</t>
+    <t xml:space="preserve">23.0491008758545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4949607849121</t>
   </si>
   <si>
     <t xml:space="preserve">23.8148136138916</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7583160400391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7970905303955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9812488555908</t>
+    <t xml:space="preserve">22.7583179473877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7970886230469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9812469482422</t>
   </si>
   <si>
     <t xml:space="preserve">23.0781745910645</t>
@@ -2627,7 +2627,7 @@
     <t xml:space="preserve">23.620964050293</t>
   </si>
   <si>
-    <t xml:space="preserve">23.5918827056885</t>
+    <t xml:space="preserve">23.5918846130371</t>
   </si>
   <si>
     <t xml:space="preserve">23.8923568725586</t>
@@ -2645,7 +2645,7 @@
     <t xml:space="preserve">24.1152877807617</t>
   </si>
   <si>
-    <t xml:space="preserve">24.5223789215088</t>
+    <t xml:space="preserve">24.5223770141602</t>
   </si>
   <si>
     <t xml:space="preserve">24.6871528625488</t>
@@ -2657,7 +2657,7 @@
     <t xml:space="preserve">25.6564159393311</t>
   </si>
   <si>
-    <t xml:space="preserve">25.4431800842285</t>
+    <t xml:space="preserve">25.4431781768799</t>
   </si>
   <si>
     <t xml:space="preserve">25.4334869384766</t>
@@ -2666,22 +2666,22 @@
     <t xml:space="preserve">25.1233234405518</t>
   </si>
   <si>
-    <t xml:space="preserve">25.5110282897949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9552307128906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9067668914795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.0601902008057</t>
+    <t xml:space="preserve">25.5110263824463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9552326202393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9067687988281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.0601921081543</t>
   </si>
   <si>
     <t xml:space="preserve">28.6514415740967</t>
   </si>
   <si>
-    <t xml:space="preserve">27.9148006439209</t>
+    <t xml:space="preserve">27.9148025512695</t>
   </si>
   <si>
     <t xml:space="preserve">28.0020351409912</t>
@@ -2696,7 +2696,7 @@
     <t xml:space="preserve">27.4204788208008</t>
   </si>
   <si>
-    <t xml:space="preserve">27.4398612976074</t>
+    <t xml:space="preserve">27.4398632049561</t>
   </si>
   <si>
     <t xml:space="preserve">27.78879737854</t>
@@ -2705,13 +2705,13 @@
     <t xml:space="preserve">27.633716583252</t>
   </si>
   <si>
-    <t xml:space="preserve">27.4592475891113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.6918697357178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9649219512939</t>
+    <t xml:space="preserve">27.45924949646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.6918716430664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9649238586426</t>
   </si>
   <si>
     <t xml:space="preserve">27.449556350708</t>
@@ -2720,10 +2720,10 @@
     <t xml:space="preserve">27.1103134155273</t>
   </si>
   <si>
-    <t xml:space="preserve">26.8970756530762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.8486156463623</t>
+    <t xml:space="preserve">26.8970737457275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.8486137390137</t>
   </si>
   <si>
     <t xml:space="preserve">27.0618495941162</t>
@@ -2732,67 +2732,67 @@
     <t xml:space="preserve">26.9358463287354</t>
   </si>
   <si>
-    <t xml:space="preserve">26.6547584533691</t>
+    <t xml:space="preserve">26.6547603607178</t>
   </si>
   <si>
     <t xml:space="preserve">26.8583030700684</t>
   </si>
   <si>
-    <t xml:space="preserve">28.0117282867432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0715446472168</t>
+    <t xml:space="preserve">28.0117263793945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0715427398682</t>
   </si>
   <si>
     <t xml:space="preserve">27.1587772369385</t>
   </si>
   <si>
-    <t xml:space="preserve">27.798490524292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.8566493988037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.6029777526855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.7774467468262</t>
+    <t xml:space="preserve">27.7984924316406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.8566455841064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.6029796600342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.7774486541748</t>
   </si>
   <si>
     <t xml:space="preserve">28.9325294494629</t>
   </si>
   <si>
-    <t xml:space="preserve">29.4268531799316</t>
+    <t xml:space="preserve">29.4268550872803</t>
   </si>
   <si>
     <t xml:space="preserve">29.2233085632324</t>
   </si>
   <si>
-    <t xml:space="preserve">29.1263828277588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.9923419952393</t>
+    <t xml:space="preserve">29.1263809204102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9923439025879</t>
   </si>
   <si>
     <t xml:space="preserve">28.0698833465576</t>
   </si>
   <si>
-    <t xml:space="preserve">27.8857231140137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.0989627838135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.8242530822754</t>
+    <t xml:space="preserve">27.8857250213623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.0989608764648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.8242511749268</t>
   </si>
   <si>
     <t xml:space="preserve">30.4155025482178</t>
   </si>
   <si>
-    <t xml:space="preserve">29.6110134124756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.921178817749</t>
+    <t xml:space="preserve">29.6110153198242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.9211807250977</t>
   </si>
   <si>
     <t xml:space="preserve">30.279806137085</t>
@@ -2801,13 +2801,13 @@
     <t xml:space="preserve">30.4736595153809</t>
   </si>
   <si>
-    <t xml:space="preserve">29.6013221740723</t>
+    <t xml:space="preserve">29.6013202667236</t>
   </si>
   <si>
     <t xml:space="preserve">29.7660961151123</t>
   </si>
   <si>
-    <t xml:space="preserve">30.2507266998291</t>
+    <t xml:space="preserve">30.2507286071777</t>
   </si>
   <si>
     <t xml:space="preserve">30.9292125701904</t>
@@ -2822,13 +2822,13 @@
     <t xml:space="preserve">30.9970607757568</t>
   </si>
   <si>
-    <t xml:space="preserve">31.3847694396973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2006053924561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3944606781006</t>
+    <t xml:space="preserve">31.3847675323486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2006072998047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.394458770752</t>
   </si>
   <si>
     <t xml:space="preserve">31.1812191009521</t>
@@ -2837,109 +2837,109 @@
     <t xml:space="preserve">31.1424541473389</t>
   </si>
   <si>
-    <t xml:space="preserve">31.278148651123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.938907623291</t>
+    <t xml:space="preserve">31.2781467437744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.9389057159424</t>
   </si>
   <si>
     <t xml:space="preserve">31.0164470672607</t>
   </si>
   <si>
-    <t xml:space="preserve">29.155460357666</t>
+    <t xml:space="preserve">29.1554584503174</t>
   </si>
   <si>
     <t xml:space="preserve">29.6497840881348</t>
   </si>
   <si>
-    <t xml:space="preserve">31.365385055542</t>
+    <t xml:space="preserve">31.3653831481934</t>
   </si>
   <si>
     <t xml:space="preserve">32.470344543457</t>
   </si>
   <si>
-    <t xml:space="preserve">33.3911399841309</t>
+    <t xml:space="preserve">33.3911437988281</t>
   </si>
   <si>
     <t xml:space="preserve">34.1568641662598</t>
   </si>
   <si>
-    <t xml:space="preserve">33.8079299926758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.9549751281738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.8273162841797</t>
+    <t xml:space="preserve">33.8079261779785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.9549713134766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.8273124694824</t>
   </si>
   <si>
     <t xml:space="preserve">34.0599327087402</t>
   </si>
   <si>
-    <t xml:space="preserve">34.6414985656738</t>
+    <t xml:space="preserve">34.6414909362793</t>
   </si>
   <si>
     <t xml:space="preserve">33.9339294433594</t>
   </si>
   <si>
-    <t xml:space="preserve">34.9613494873047</t>
+    <t xml:space="preserve">34.961353302002</t>
   </si>
   <si>
     <t xml:space="preserve">34.3216361999512</t>
   </si>
   <si>
-    <t xml:space="preserve">34.4379501342773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1488265991211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1585235595703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.3426818847656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9857082366943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.082633972168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.4509582519531</t>
+    <t xml:space="preserve">34.4379463195801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1488304138184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1585159301758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.3426780700684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.985710144043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0826377868652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.4509544372559</t>
   </si>
   <si>
     <t xml:space="preserve">33.2263679504395</t>
   </si>
   <si>
-    <t xml:space="preserve">32.5381927490234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7240104675293</t>
+    <t xml:space="preserve">32.5381889343262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7240085601807</t>
   </si>
   <si>
     <t xml:space="preserve">31.3459949493408</t>
   </si>
   <si>
-    <t xml:space="preserve">31.481689453125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5980014801025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3363075256348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5495433807373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0923309326172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.5769653320312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.8306274414062</t>
+    <t xml:space="preserve">31.4816951751709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5980033874512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3363056182861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.54953956604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0923271179199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.5769577026367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8306293487549</t>
   </si>
   <si>
     <t xml:space="preserve">32.6351127624512</t>
@@ -2951,10 +2951,10 @@
     <t xml:space="preserve">32.9065132141113</t>
   </si>
   <si>
-    <t xml:space="preserve">32.1698722839355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.6932716369629</t>
+    <t xml:space="preserve">32.1698684692383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6932754516602</t>
   </si>
   <si>
     <t xml:space="preserve">32.218334197998</t>
@@ -2966,16 +2966,16 @@
     <t xml:space="preserve">32.9937477111816</t>
   </si>
   <si>
-    <t xml:space="preserve">32.8968200683594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.5284996032715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0051002502441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.6755428314209</t>
+    <t xml:space="preserve">32.8968162536621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.5285034179688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0050964355469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.6755485534668</t>
   </si>
   <si>
     <t xml:space="preserve">32.7998924255371</t>
@@ -2984,22 +2984,22 @@
     <t xml:space="preserve">32.6448135375977</t>
   </si>
   <si>
-    <t xml:space="preserve">32.5866546630859</t>
+    <t xml:space="preserve">32.5866508483887</t>
   </si>
   <si>
     <t xml:space="preserve">32.8677406311035</t>
   </si>
   <si>
-    <t xml:space="preserve">33.1100540161133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1391334533691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.2942199707031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.0712852478027</t>
+    <t xml:space="preserve">33.1100578308105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1391372680664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.2942161560059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.0712814331055</t>
   </si>
   <si>
     <t xml:space="preserve">32.8386650085449</t>
@@ -3014,10 +3014,10 @@
     <t xml:space="preserve">33.0518989562988</t>
   </si>
   <si>
-    <t xml:space="preserve">32.8095817565918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.4024963378906</t>
+    <t xml:space="preserve">32.8095855712891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.4024925231934</t>
   </si>
   <si>
     <t xml:space="preserve">33.5365333557129</t>
@@ -3035,10 +3035,10 @@
     <t xml:space="preserve">35.4653701782227</t>
   </si>
   <si>
-    <t xml:space="preserve">35.4072074890137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.5235290527344</t>
+    <t xml:space="preserve">35.4072113037109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.5235214233398</t>
   </si>
   <si>
     <t xml:space="preserve">36.3377075195312</t>
@@ -3053,25 +3053,25 @@
     <t xml:space="preserve">34.7674980163574</t>
   </si>
   <si>
-    <t xml:space="preserve">34.4088706970215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.866081237793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.8176193237305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2571029663086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2861862182617</t>
+    <t xml:space="preserve">34.4088668823242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.8660850524902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.8176231384277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2571067810059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2861824035645</t>
   </si>
   <si>
     <t xml:space="preserve">32.9452819824219</t>
   </si>
   <si>
-    <t xml:space="preserve">33.1972923278809</t>
+    <t xml:space="preserve">33.1972961425781</t>
   </si>
   <si>
     <t xml:space="preserve">30.4251956939697</t>
@@ -3080,37 +3080,37 @@
     <t xml:space="preserve">29.9308700561523</t>
   </si>
   <si>
-    <t xml:space="preserve">29.1166896820068</t>
+    <t xml:space="preserve">29.1166915893555</t>
   </si>
   <si>
     <t xml:space="preserve">29.4365482330322</t>
   </si>
   <si>
-    <t xml:space="preserve">30.8419780731201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.1036796569824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9469394683838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.9776744842529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.1909160614014</t>
+    <t xml:space="preserve">30.8419818878174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.1036815643311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9469413757324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.9776763916016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.1909141540527</t>
   </si>
   <si>
     <t xml:space="preserve">31.5883159637451</t>
   </si>
   <si>
-    <t xml:space="preserve">31.0067558288574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.9793357849121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5996646881104</t>
+    <t xml:space="preserve">31.0067539215088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.9793338775635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5996627807617</t>
   </si>
   <si>
     <t xml:space="preserve">32.1407928466797</t>
@@ -3119,22 +3119,22 @@
     <t xml:space="preserve">30.861364364624</t>
   </si>
   <si>
-    <t xml:space="preserve">31.2296867370605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.1230640411377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.7644367218018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.4041538238525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7433986663818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.4235343933105</t>
+    <t xml:space="preserve">31.2296829223633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.1230659484863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.7644386291504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4041519165039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7433967590332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4235363006592</t>
   </si>
   <si>
     <t xml:space="preserve">32.0535583496094</t>
@@ -3143,7 +3143,7 @@
     <t xml:space="preserve">31.8112468719482</t>
   </si>
   <si>
-    <t xml:space="preserve">34.0017776489258</t>
+    <t xml:space="preserve">34.0017852783203</t>
   </si>
   <si>
     <t xml:space="preserve">33.4299163818359</t>
@@ -3152,34 +3152,34 @@
     <t xml:space="preserve">34.3797950744629</t>
   </si>
   <si>
-    <t xml:space="preserve">34.1374778747559</t>
+    <t xml:space="preserve">34.1374740600586</t>
   </si>
   <si>
     <t xml:space="preserve">34.1277847290039</t>
   </si>
   <si>
-    <t xml:space="preserve">34.6899604797363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.7287330627441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.5138282775879</t>
+    <t xml:space="preserve">34.6899566650391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.7287292480469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.5138320922852</t>
   </si>
   <si>
     <t xml:space="preserve">35.3490562438965</t>
   </si>
   <si>
-    <t xml:space="preserve">34.8159561157227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.6043853759766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.0502471923828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.3119430541992</t>
+    <t xml:space="preserve">34.8159599304199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.604377746582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.0502433776855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.3119506835938</t>
   </si>
   <si>
     <t xml:space="preserve">33.7303848266602</t>
@@ -3191,7 +3191,7 @@
     <t xml:space="preserve">34.0793228149414</t>
   </si>
   <si>
-    <t xml:space="preserve">32.7514305114746</t>
+    <t xml:space="preserve">32.7514343261719</t>
   </si>
   <si>
     <t xml:space="preserve">32.3831100463867</t>
@@ -3200,13 +3200,13 @@
     <t xml:space="preserve">32.3637237548828</t>
   </si>
   <si>
-    <t xml:space="preserve">32.5672645568848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.4396095275879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.6334648132324</t>
+    <t xml:space="preserve">32.567268371582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.4396057128906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.6334609985352</t>
   </si>
   <si>
     <t xml:space="preserve">35.3199768066406</t>
@@ -3215,10 +3215,10 @@
     <t xml:space="preserve">36.4218978881836</t>
   </si>
   <si>
-    <t xml:space="preserve">37.202018737793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.4999084472656</t>
+    <t xml:space="preserve">37.2020225524902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.4999122619629</t>
   </si>
   <si>
     <t xml:space="preserve">37.3190383911133</t>
@@ -3230,31 +3230,31 @@
     <t xml:space="preserve">37.9821434020996</t>
   </si>
   <si>
-    <t xml:space="preserve">37.6798400878906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.5725784301758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.2454299926758</t>
+    <t xml:space="preserve">37.6798439025879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.5725746154785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.245433807373</t>
   </si>
   <si>
     <t xml:space="preserve">38.8110198974609</t>
   </si>
   <si>
-    <t xml:space="preserve">38.3331985473633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.4502105712891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.5867309570312</t>
+    <t xml:space="preserve">38.333194732666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.4502143859863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.5867347717285</t>
   </si>
   <si>
     <t xml:space="preserve">39.8349266052246</t>
   </si>
   <si>
-    <t xml:space="preserve">39.1913299560547</t>
+    <t xml:space="preserve">39.1913261413574</t>
   </si>
   <si>
     <t xml:space="preserve">39.2205848693848</t>
@@ -3272,7 +3272,7 @@
     <t xml:space="preserve">39.2985954284668</t>
   </si>
   <si>
-    <t xml:space="preserve">39.1815795898438</t>
+    <t xml:space="preserve">39.1815757751465</t>
   </si>
   <si>
     <t xml:space="preserve">40.2054862976074</t>
@@ -3287,25 +3287,25 @@
     <t xml:space="preserve">41.1026268005371</t>
   </si>
   <si>
-    <t xml:space="preserve">40.6053009033203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.400520324707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.5662879943848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.1957321166992</t>
+    <t xml:space="preserve">40.605297088623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.4005165100098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.566291809082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.1957359313965</t>
   </si>
   <si>
     <t xml:space="preserve">40.3517608642578</t>
   </si>
   <si>
-    <t xml:space="preserve">40.5955505371094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.6593971252441</t>
+    <t xml:space="preserve">40.5955467224121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.6594009399414</t>
   </si>
   <si>
     <t xml:space="preserve">37.1240081787109</t>
@@ -3320,7 +3320,7 @@
     <t xml:space="preserve">38.9475364685059</t>
   </si>
   <si>
-    <t xml:space="preserve">39.5618896484375</t>
+    <t xml:space="preserve">39.5618858337402</t>
   </si>
   <si>
     <t xml:space="preserve">39.7471618652344</t>
@@ -3332,7 +3332,7 @@
     <t xml:space="preserve">40.0397109985352</t>
   </si>
   <si>
-    <t xml:space="preserve">39.7666664123535</t>
+    <t xml:space="preserve">39.7666625976562</t>
   </si>
   <si>
     <t xml:space="preserve">39.435115814209</t>
@@ -3359,10 +3359,10 @@
     <t xml:space="preserve">41.3171577453613</t>
   </si>
   <si>
-    <t xml:space="preserve">40.8588409423828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.9368515014648</t>
+    <t xml:space="preserve">40.8588371276855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.9368476867676</t>
   </si>
   <si>
     <t xml:space="preserve">40.8685874938965</t>
@@ -3377,7 +3377,7 @@
     <t xml:space="preserve">41.7559776306152</t>
   </si>
   <si>
-    <t xml:space="preserve">41.9607543945312</t>
+    <t xml:space="preserve">41.9607582092285</t>
   </si>
   <si>
     <t xml:space="preserve">41.8437423706055</t>
@@ -3395,7 +3395,7 @@
     <t xml:space="preserve">43.7257804870605</t>
   </si>
   <si>
-    <t xml:space="preserve">42.8774032592773</t>
+    <t xml:space="preserve">42.8773994445801</t>
   </si>
   <si>
     <t xml:space="preserve">42.6628684997559</t>
@@ -3404,7 +3404,7 @@
     <t xml:space="preserve">42.3898239135742</t>
   </si>
   <si>
-    <t xml:space="preserve">42.5946083068848</t>
+    <t xml:space="preserve">42.5946044921875</t>
   </si>
   <si>
     <t xml:space="preserve">43.1016883850098</t>
@@ -3419,10 +3419,10 @@
     <t xml:space="preserve">43.6282691955566</t>
   </si>
   <si>
-    <t xml:space="preserve">43.0236701965332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.5405006408691</t>
+    <t xml:space="preserve">43.0236740112305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.5405044555664</t>
   </si>
   <si>
     <t xml:space="preserve">42.6531181335449</t>
@@ -3434,7 +3434,7 @@
     <t xml:space="preserve">42.1557884216309</t>
   </si>
   <si>
-    <t xml:space="preserve">42.0777778625488</t>
+    <t xml:space="preserve">42.0777740478516</t>
   </si>
   <si>
     <t xml:space="preserve">40.3127517700195</t>
@@ -3443,31 +3443,31 @@
     <t xml:space="preserve">41.619457244873</t>
   </si>
   <si>
-    <t xml:space="preserve">40.6150512695312</t>
+    <t xml:space="preserve">40.615047454834</t>
   </si>
   <si>
     <t xml:space="preserve">41.4439277648926</t>
   </si>
   <si>
-    <t xml:space="preserve">41.6779632568359</t>
+    <t xml:space="preserve">41.6779670715332</t>
   </si>
   <si>
     <t xml:space="preserve">43.7160301208496</t>
   </si>
   <si>
-    <t xml:space="preserve">43.813549041748</t>
+    <t xml:space="preserve">43.8135452270508</t>
   </si>
   <si>
     <t xml:space="preserve">44.9739761352539</t>
   </si>
   <si>
-    <t xml:space="preserve">43.8623008728027</t>
+    <t xml:space="preserve">43.8623046875</t>
   </si>
   <si>
     <t xml:space="preserve">42.5751037597656</t>
   </si>
   <si>
-    <t xml:space="preserve">40.3810081481934</t>
+    <t xml:space="preserve">40.3810119628906</t>
   </si>
   <si>
     <t xml:space="preserve">40.8783378601074</t>
@@ -3494,7 +3494,7 @@
     <t xml:space="preserve">39.6496467590332</t>
   </si>
   <si>
-    <t xml:space="preserve">40.5077819824219</t>
+    <t xml:space="preserve">40.5077857971191</t>
   </si>
   <si>
     <t xml:space="preserve">40.8100776672363</t>
@@ -3503,10 +3503,10 @@
     <t xml:space="preserve">41.8632431030273</t>
   </si>
   <si>
-    <t xml:space="preserve">42.2435493469238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.4332389831543</t>
+    <t xml:space="preserve">42.2435531616211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.433235168457</t>
   </si>
   <si>
     <t xml:space="preserve">42.1947937011719</t>
@@ -3521,10 +3521,10 @@
     <t xml:space="preserve">43.5892639160156</t>
   </si>
   <si>
-    <t xml:space="preserve">43.0139198303223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.0334205627441</t>
+    <t xml:space="preserve">43.0139236450195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.0334243774414</t>
   </si>
   <si>
     <t xml:space="preserve">43.6477699279785</t>
@@ -3536,7 +3536,7 @@
     <t xml:space="preserve">44.5156555175781</t>
   </si>
   <si>
-    <t xml:space="preserve">45.3835411071777</t>
+    <t xml:space="preserve">45.3835372924805</t>
   </si>
   <si>
     <t xml:space="preserve">44.9252166748047</t>
@@ -3545,10 +3545,10 @@
     <t xml:space="preserve">44.3791313171387</t>
   </si>
   <si>
-    <t xml:space="preserve">44.6619300842285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.8667068481445</t>
+    <t xml:space="preserve">44.6619262695312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.8667030334473</t>
   </si>
   <si>
     <t xml:space="preserve">44.0865859985352</t>
@@ -3560,7 +3560,7 @@
     <t xml:space="preserve">43.5014991760254</t>
   </si>
   <si>
-    <t xml:space="preserve">43.4429893493652</t>
+    <t xml:space="preserve">43.442985534668</t>
   </si>
   <si>
     <t xml:space="preserve">41.2879028320312</t>
@@ -3590,7 +3590,7 @@
     <t xml:space="preserve">41.8827476501465</t>
   </si>
   <si>
-    <t xml:space="preserve">40.7808265686035</t>
+    <t xml:space="preserve">40.7808227539062</t>
   </si>
   <si>
     <t xml:space="preserve">40.7418174743652</t>
@@ -3599,13 +3599,13 @@
     <t xml:space="preserve">40.9173431396484</t>
   </si>
   <si>
-    <t xml:space="preserve">41.707218170166</t>
+    <t xml:space="preserve">41.7072143554688</t>
   </si>
   <si>
     <t xml:space="preserve">42.6141090393066</t>
   </si>
   <si>
-    <t xml:space="preserve">42.1265335083008</t>
+    <t xml:space="preserve">42.126537322998</t>
   </si>
   <si>
     <t xml:space="preserve">42.9846687316895</t>
@@ -3617,7 +3617,7 @@
     <t xml:space="preserve">43.1991958618164</t>
   </si>
   <si>
-    <t xml:space="preserve">44.1841049194336</t>
+    <t xml:space="preserve">44.1841087341309</t>
   </si>
   <si>
     <t xml:space="preserve">44.3108711242676</t>
@@ -3629,34 +3629,34 @@
     <t xml:space="preserve">45.7443428039551</t>
   </si>
   <si>
-    <t xml:space="preserve">46.0466384887695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.2709312438965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.4810523986816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.5449104309082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.7106819152832</t>
+    <t xml:space="preserve">46.0466423034668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.2709274291992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.4810562133789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.5449066162109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.7106857299805</t>
   </si>
   <si>
     <t xml:space="preserve">43.2284545898438</t>
   </si>
   <si>
-    <t xml:space="preserve">42.4970893859863</t>
+    <t xml:space="preserve">42.4970932006836</t>
   </si>
   <si>
     <t xml:space="preserve">40.6248016357422</t>
   </si>
   <si>
-    <t xml:space="preserve">39.8544273376465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.5131301879883</t>
+    <t xml:space="preserve">39.8544311523438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.513126373291</t>
   </si>
   <si>
     <t xml:space="preserve">38.9572906494141</t>
@@ -3668,49 +3668,49 @@
     <t xml:space="preserve">37.7578620910645</t>
   </si>
   <si>
-    <t xml:space="preserve">36.3146324157715</t>
+    <t xml:space="preserve">36.3146362304688</t>
   </si>
   <si>
     <t xml:space="preserve">35.037181854248</t>
   </si>
   <si>
-    <t xml:space="preserve">35.5247611999512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.5637664794922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.9786758422852</t>
+    <t xml:space="preserve">35.5247573852539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.5637626647949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.9786720275879</t>
   </si>
   <si>
     <t xml:space="preserve">36.5974273681641</t>
   </si>
   <si>
-    <t xml:space="preserve">37.2507820129395</t>
+    <t xml:space="preserve">37.2507781982422</t>
   </si>
   <si>
     <t xml:space="preserve">38.4307098388672</t>
   </si>
   <si>
-    <t xml:space="preserve">36.0903472900391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.4077415466309</t>
+    <t xml:space="preserve">36.0903434753418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.4077453613281</t>
   </si>
   <si>
     <t xml:space="preserve">35.1737060546875</t>
   </si>
   <si>
-    <t xml:space="preserve">34.2180595397949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.6417808532715</t>
+    <t xml:space="preserve">34.2180557250977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.6417770385742</t>
   </si>
   <si>
     <t xml:space="preserve">35.2907218933105</t>
   </si>
   <si>
-    <t xml:space="preserve">34.4715957641602</t>
+    <t xml:space="preserve">34.4715919494629</t>
   </si>
   <si>
     <t xml:space="preserve">33.8767547607422</t>
@@ -3722,7 +3722,7 @@
     <t xml:space="preserve">34.7836418151855</t>
   </si>
   <si>
-    <t xml:space="preserve">34.793399810791</t>
+    <t xml:space="preserve">34.7933959960938</t>
   </si>
   <si>
     <t xml:space="preserve">34.6568794250488</t>
@@ -3734,16 +3734,16 @@
     <t xml:space="preserve">34.335075378418</t>
   </si>
   <si>
-    <t xml:space="preserve">35.0859375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.7782974243164</t>
+    <t xml:space="preserve">35.0859413146973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.7783012390137</t>
   </si>
   <si>
     <t xml:space="preserve">36.4706573486328</t>
   </si>
   <si>
-    <t xml:space="preserve">37.4945678710938</t>
+    <t xml:space="preserve">37.4945640563965</t>
   </si>
   <si>
     <t xml:space="preserve">37.0167388916016</t>
@@ -3755,7 +3755,7 @@
     <t xml:space="preserve">36.6656837463379</t>
   </si>
   <si>
-    <t xml:space="preserve">35.300479888916</t>
+    <t xml:space="preserve">35.3004760742188</t>
   </si>
   <si>
     <t xml:space="preserve">34.0912895202637</t>
@@ -3764,7 +3764,7 @@
     <t xml:space="preserve">36.1781120300293</t>
   </si>
   <si>
-    <t xml:space="preserve">34.208309173584</t>
+    <t xml:space="preserve">34.2083053588867</t>
   </si>
   <si>
     <t xml:space="preserve">34.9494209289551</t>
@@ -3779,7 +3779,7 @@
     <t xml:space="preserve">36.8119583129883</t>
   </si>
   <si>
-    <t xml:space="preserve">36.8607177734375</t>
+    <t xml:space="preserve">36.8607139587402</t>
   </si>
   <si>
     <t xml:space="preserve">36.5194129943848</t>
@@ -3788,7 +3788,7 @@
     <t xml:space="preserve">36.051342010498</t>
   </si>
   <si>
-    <t xml:space="preserve">35.6222763061523</t>
+    <t xml:space="preserve">35.6222724914551</t>
   </si>
   <si>
     <t xml:space="preserve">36.2951278686523</t>
@@ -3806,16 +3806,16 @@
     <t xml:space="preserve">39.5326347351074</t>
   </si>
   <si>
-    <t xml:space="preserve">40.8393325805664</t>
+    <t xml:space="preserve">40.8393363952637</t>
   </si>
   <si>
     <t xml:space="preserve">41.9119987487793</t>
   </si>
   <si>
-    <t xml:space="preserve">41.50244140625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.2976570129395</t>
+    <t xml:space="preserve">41.5024375915527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.2976531982422</t>
   </si>
   <si>
     <t xml:space="preserve">40.4297714233398</t>
@@ -3830,16 +3830,16 @@
     <t xml:space="preserve">39.8056716918945</t>
   </si>
   <si>
-    <t xml:space="preserve">39.2010803222656</t>
+    <t xml:space="preserve">39.2010765075684</t>
   </si>
   <si>
     <t xml:space="preserve">38.5477294921875</t>
   </si>
   <si>
-    <t xml:space="preserve">37.3580436706543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.192268371582</t>
+    <t xml:space="preserve">37.3580474853516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.1922721862793</t>
   </si>
   <si>
     <t xml:space="preserve">36.8802223205566</t>
@@ -3857,10 +3857,10 @@
     <t xml:space="preserve">36.6754379272461</t>
   </si>
   <si>
-    <t xml:space="preserve">36.2561225891113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.8465576171875</t>
+    <t xml:space="preserve">36.2561264038086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.8465538024902</t>
   </si>
   <si>
     <t xml:space="preserve">34.5788612365723</t>
@@ -3869,10 +3869,10 @@
     <t xml:space="preserve">32.7553291320801</t>
   </si>
   <si>
-    <t xml:space="preserve">33.4769401550293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.4671897888184</t>
+    <t xml:space="preserve">33.4769439697266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.4671936035156</t>
   </si>
   <si>
     <t xml:space="preserve">31.5168895721436</t>
@@ -3887,16 +3887,16 @@
     <t xml:space="preserve">33.4574394226074</t>
   </si>
   <si>
-    <t xml:space="preserve">31.741174697876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.7952747344971</t>
+    <t xml:space="preserve">31.7411727905273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.7952766418457</t>
   </si>
   <si>
     <t xml:space="preserve">31.1365795135498</t>
   </si>
   <si>
-    <t xml:space="preserve">31.6773166656494</t>
+    <t xml:space="preserve">31.677318572998</t>
   </si>
   <si>
     <t xml:space="preserve">31.4708518981934</t>
@@ -3905,10 +3905,10 @@
     <t xml:space="preserve">31.4118633270264</t>
   </si>
   <si>
-    <t xml:space="preserve">31.7166423797607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.8247871398926</t>
+    <t xml:space="preserve">31.7166404724121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8247890472412</t>
   </si>
   <si>
     <t xml:space="preserve">32.1688957214355</t>
@@ -3935,7 +3935,7 @@
     <t xml:space="preserve">30.2320747375488</t>
   </si>
   <si>
-    <t xml:space="preserve">28.7180137634277</t>
+    <t xml:space="preserve">28.7180118560791</t>
   </si>
   <si>
     <t xml:space="preserve">26.6533851623535</t>
@@ -3947,7 +3947,7 @@
     <t xml:space="preserve">26.7025413513184</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7783756256104</t>
+    <t xml:space="preserve">25.7783737182617</t>
   </si>
   <si>
     <t xml:space="preserve">25.857027053833</t>
@@ -3965,19 +3965,19 @@
     <t xml:space="preserve">28.3542461395264</t>
   </si>
   <si>
-    <t xml:space="preserve">29.29807472229</t>
+    <t xml:space="preserve">29.2980766296387</t>
   </si>
   <si>
     <t xml:space="preserve">29.3668975830078</t>
   </si>
   <si>
-    <t xml:space="preserve">28.7770023345947</t>
+    <t xml:space="preserve">28.7770042419434</t>
   </si>
   <si>
     <t xml:space="preserve">28.6786880493164</t>
   </si>
   <si>
-    <t xml:space="preserve">28.7573394775391</t>
+    <t xml:space="preserve">28.7573413848877</t>
   </si>
   <si>
     <t xml:space="preserve">29.878137588501</t>
@@ -3989,7 +3989,7 @@
     <t xml:space="preserve">31.1955699920654</t>
   </si>
   <si>
-    <t xml:space="preserve">32.0607452392578</t>
+    <t xml:space="preserve">32.0607490539551</t>
   </si>
   <si>
     <t xml:space="preserve">30.664665222168</t>
@@ -4004,7 +4004,7 @@
     <t xml:space="preserve">28.6393604278564</t>
   </si>
   <si>
-    <t xml:space="preserve">28.1674461364746</t>
+    <t xml:space="preserve">28.167444229126</t>
   </si>
   <si>
     <t xml:space="preserve">28.7475090026855</t>
@@ -4013,10 +4013,10 @@
     <t xml:space="preserve">29.3570652008057</t>
   </si>
   <si>
-    <t xml:space="preserve">29.2784118652344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.1435928344727</t>
+    <t xml:space="preserve">29.278413772583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.143590927124</t>
   </si>
   <si>
     <t xml:space="preserve">30.6351699829102</t>
@@ -4031,16 +4031,16 @@
     <t xml:space="preserve">30.8121376037598</t>
   </si>
   <si>
-    <t xml:space="preserve">31.8346214294434</t>
+    <t xml:space="preserve">31.834623336792</t>
   </si>
   <si>
     <t xml:space="preserve">31.6674842834473</t>
   </si>
   <si>
-    <t xml:space="preserve">31.893611907959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.4188747406006</t>
+    <t xml:space="preserve">31.8936100006104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.4188766479492</t>
   </si>
   <si>
     <t xml:space="preserve">31.3332118988037</t>
@@ -4052,10 +4052,10 @@
     <t xml:space="preserve">29.8683071136475</t>
   </si>
   <si>
-    <t xml:space="preserve">30.1829166412354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4258880615234</t>
+    <t xml:space="preserve">30.182918548584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4258861541748</t>
   </si>
   <si>
     <t xml:space="preserve">29.8978023529053</t>
@@ -4064,7 +4064,7 @@
     <t xml:space="preserve">30.2124118804932</t>
   </si>
   <si>
-    <t xml:space="preserve">28.6196975708008</t>
+    <t xml:space="preserve">28.6196994781494</t>
   </si>
   <si>
     <t xml:space="preserve">28.3050880432129</t>
@@ -4073,10 +4073,10 @@
     <t xml:space="preserve">28.2264347076416</t>
   </si>
   <si>
-    <t xml:space="preserve">27.8528366088867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.203950881958</t>
+    <t xml:space="preserve">27.8528347015381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.2039527893066</t>
   </si>
   <si>
     <t xml:space="preserve">27.1744575500488</t>
@@ -4094,7 +4094,7 @@
     <t xml:space="preserve">25.3359546661377</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6112365722656</t>
+    <t xml:space="preserve">25.6112384796143</t>
   </si>
   <si>
     <t xml:space="preserve">25.050838470459</t>
@@ -4115,10 +4115,10 @@
     <t xml:space="preserve">25.4834270477295</t>
   </si>
   <si>
-    <t xml:space="preserve">25.5915756225586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8738708496094</t>
+    <t xml:space="preserve">25.59157371521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8738689422607</t>
   </si>
   <si>
     <t xml:space="preserve">24.6182498931885</t>
@@ -4154,7 +4154,7 @@
     <t xml:space="preserve">25.6702270507812</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4469223022461</t>
+    <t xml:space="preserve">26.4469203948975</t>
   </si>
   <si>
     <t xml:space="preserve">25.95534324646</t>
@@ -4166,7 +4166,7 @@
     <t xml:space="preserve">26.5845642089844</t>
   </si>
   <si>
-    <t xml:space="preserve">26.3191108703613</t>
+    <t xml:space="preserve">26.31911277771</t>
   </si>
   <si>
     <t xml:space="preserve">26.014331817627</t>
@@ -4175,7 +4175,7 @@
     <t xml:space="preserve">25.7095527648926</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9918479919434</t>
+    <t xml:space="preserve">24.991849899292</t>
   </si>
   <si>
     <t xml:space="preserve">24.1954936981201</t>
@@ -4190,13 +4190,13 @@
     <t xml:space="preserve">24.8050479888916</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7292175292969</t>
+    <t xml:space="preserve">25.7292156219482</t>
   </si>
   <si>
     <t xml:space="preserve">25.2081432342529</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4370899200439</t>
+    <t xml:space="preserve">26.4370880126953</t>
   </si>
   <si>
     <t xml:space="preserve">25.7488803863525</t>
@@ -4208,7 +4208,7 @@
     <t xml:space="preserve">25.8078689575195</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7263965606689</t>
+    <t xml:space="preserve">24.7263946533203</t>
   </si>
   <si>
     <t xml:space="preserve">24.1070079803467</t>
@@ -4217,7 +4217,7 @@
     <t xml:space="preserve">24.2643127441406</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7165660858154</t>
+    <t xml:space="preserve">24.7165641784668</t>
   </si>
   <si>
     <t xml:space="preserve">24.667407989502</t>
@@ -4226,7 +4226,7 @@
     <t xml:space="preserve">23.7137451171875</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7657222747803</t>
+    <t xml:space="preserve">24.7657241821289</t>
   </si>
   <si>
     <t xml:space="preserve">26.2011318206787</t>
@@ -4238,7 +4238,7 @@
     <t xml:space="preserve">27.6758670806885</t>
   </si>
   <si>
-    <t xml:space="preserve">28.5607089996338</t>
+    <t xml:space="preserve">28.5607070922852</t>
   </si>
   <si>
     <t xml:space="preserve">28.0887928009033</t>
@@ -4250,10 +4250,10 @@
     <t xml:space="preserve">27.1056365966797</t>
   </si>
   <si>
-    <t xml:space="preserve">27.1646251678467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9188365936279</t>
+    <t xml:space="preserve">27.164623260498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9188346862793</t>
   </si>
   <si>
     <t xml:space="preserve">26.7123737335205</t>
@@ -4265,22 +4265,22 @@
     <t xml:space="preserve">27.2826042175293</t>
   </si>
   <si>
-    <t xml:space="preserve">27.4104137420654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5480556488037</t>
+    <t xml:space="preserve">27.4104156494141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5480575561523</t>
   </si>
   <si>
     <t xml:space="preserve">26.3977642059326</t>
   </si>
   <si>
-    <t xml:space="preserve">27.1842880249023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.0592975616455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.3514270782471</t>
+    <t xml:space="preserve">27.184289932251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.0592994689941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.3514251708984</t>
   </si>
   <si>
     <t xml:space="preserve">26.5452365875244</t>
@@ -4307,13 +4307,13 @@
     <t xml:space="preserve">26.8401832580566</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4862461090088</t>
+    <t xml:space="preserve">26.4862480163574</t>
   </si>
   <si>
     <t xml:space="preserve">26.4567527770996</t>
   </si>
   <si>
-    <t xml:space="preserve">26.27978515625</t>
+    <t xml:space="preserve">26.2797832489014</t>
   </si>
   <si>
     <t xml:space="preserve">26.8500137329102</t>
@@ -4340,16 +4340,16 @@
     <t xml:space="preserve">27.3710880279541</t>
   </si>
   <si>
-    <t xml:space="preserve">26.3682689666748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4960784912109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9974899291992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0368137359619</t>
+    <t xml:space="preserve">26.3682670593262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4960803985596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9974880218506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0368156433105</t>
   </si>
   <si>
     <t xml:space="preserve">26.6337223052979</t>
@@ -4373,25 +4373,25 @@
     <t xml:space="preserve">25.3064594268799</t>
   </si>
   <si>
-    <t xml:space="preserve">25.109827041626</t>
+    <t xml:space="preserve">25.1098289489746</t>
   </si>
   <si>
     <t xml:space="preserve">24.8443756103516</t>
   </si>
   <si>
-    <t xml:space="preserve">28.0199737548828</t>
+    <t xml:space="preserve">28.0199718475342</t>
   </si>
   <si>
     <t xml:space="preserve">27.3317623138428</t>
   </si>
   <si>
-    <t xml:space="preserve">27.5283946990967</t>
+    <t xml:space="preserve">27.528392791748</t>
   </si>
   <si>
     <t xml:space="preserve">26.1519737243652</t>
   </si>
   <si>
-    <t xml:space="preserve">26.879508972168</t>
+    <t xml:space="preserve">26.8795108795166</t>
   </si>
   <si>
     <t xml:space="preserve">27.6856994628906</t>
@@ -4400,10 +4400,10 @@
     <t xml:space="preserve">26.9384994506836</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5943946838379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0171508789062</t>
+    <t xml:space="preserve">26.5943927764893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0171527862549</t>
   </si>
   <si>
     <t xml:space="preserve">26.8991737365723</t>
@@ -4412,7 +4412,7 @@
     <t xml:space="preserve">27.7446880340576</t>
   </si>
   <si>
-    <t xml:space="preserve">29.6126880645752</t>
+    <t xml:space="preserve">29.6126861572266</t>
   </si>
   <si>
     <t xml:space="preserve">28.9736328125</t>
@@ -4427,28 +4427,28 @@
     <t xml:space="preserve">28.6590232849121</t>
   </si>
   <si>
-    <t xml:space="preserve">28.531213760376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4652118682861</t>
+    <t xml:space="preserve">28.5312156677246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4652137756348</t>
   </si>
   <si>
     <t xml:space="preserve">28.855655670166</t>
   </si>
   <si>
-    <t xml:space="preserve">29.3275699615479</t>
+    <t xml:space="preserve">29.3275718688965</t>
   </si>
   <si>
     <t xml:space="preserve">29.6225185394287</t>
   </si>
   <si>
-    <t xml:space="preserve">30.1042652130127</t>
+    <t xml:space="preserve">30.1042671203613</t>
   </si>
   <si>
     <t xml:space="preserve">31.1169166564941</t>
   </si>
   <si>
-    <t xml:space="preserve">31.4020309448242</t>
+    <t xml:space="preserve">31.4020328521729</t>
   </si>
   <si>
     <t xml:space="preserve">31.2938842773438</t>
@@ -4457,7 +4457,7 @@
     <t xml:space="preserve">31.7264728546143</t>
   </si>
   <si>
-    <t xml:space="preserve">31.952600479126</t>
+    <t xml:space="preserve">31.9525985717773</t>
   </si>
   <si>
     <t xml:space="preserve">32.0902404785156</t>
@@ -4472,10 +4472,10 @@
     <t xml:space="preserve">32.1492309570312</t>
   </si>
   <si>
-    <t xml:space="preserve">31.7461357116699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.39501953125</t>
+    <t xml:space="preserve">31.7461395263672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3950233459473</t>
   </si>
   <si>
     <t xml:space="preserve">32.4638404846191</t>
@@ -4496,7 +4496,7 @@
     <t xml:space="preserve">32.8177795410156</t>
   </si>
   <si>
-    <t xml:space="preserve">33.220874786377</t>
+    <t xml:space="preserve">33.2208709716797</t>
   </si>
   <si>
     <t xml:space="preserve">32.7194595336914</t>
@@ -4505,7 +4505,7 @@
     <t xml:space="preserve">32.5621566772461</t>
   </si>
   <si>
-    <t xml:space="preserve">34.8922386169434</t>
+    <t xml:space="preserve">34.8922424316406</t>
   </si>
   <si>
     <t xml:space="preserve">34.2728500366211</t>
@@ -4517,10 +4517,10 @@
     <t xml:space="preserve">35.2461738586426</t>
   </si>
   <si>
-    <t xml:space="preserve">34.8430786132812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.7251052856445</t>
+    <t xml:space="preserve">34.8430824279785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.7251014709473</t>
   </si>
   <si>
     <t xml:space="preserve">35.1871871948242</t>
@@ -4532,7 +4532,7 @@
     <t xml:space="preserve">35.1281967163086</t>
   </si>
   <si>
-    <t xml:space="preserve">34.3318405151367</t>
+    <t xml:space="preserve">34.3318367004395</t>
   </si>
   <si>
     <t xml:space="preserve">33.5354843139648</t>

--- a/data/AMP.MI.xlsx
+++ b/data/AMP.MI.xlsx
@@ -44,19 +44,19 @@
     <t xml:space="preserve">AMP.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">7.50163507461548</t>
+    <t xml:space="preserve">7.501633644104</t>
   </si>
   <si>
     <t xml:space="preserve">7.42127656936646</t>
   </si>
   <si>
-    <t xml:space="preserve">7.47799921035767</t>
+    <t xml:space="preserve">7.47799968719482</t>
   </si>
   <si>
     <t xml:space="preserve">7.26056098937988</t>
   </si>
   <si>
-    <t xml:space="preserve">7.06675720214844</t>
+    <t xml:space="preserve">7.0667576789856</t>
   </si>
   <si>
     <t xml:space="preserve">7.32673788070679</t>
@@ -65,46 +65,46 @@
     <t xml:space="preserve">7.38818836212158</t>
   </si>
   <si>
-    <t xml:space="preserve">7.27001523971558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13766145706177</t>
+    <t xml:space="preserve">7.27001428604126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13766050338745</t>
   </si>
   <si>
     <t xml:space="preserve">7.19438409805298</t>
   </si>
   <si>
-    <t xml:space="preserve">7.30310297012329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.09039163589478</t>
+    <t xml:space="preserve">7.30310344696045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09039115905762</t>
   </si>
   <si>
     <t xml:space="preserve">7.24165344238281</t>
   </si>
   <si>
-    <t xml:space="preserve">7.45436477661133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34564590454102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46381902694702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25583457946777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.28892230987549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52054262161255</t>
+    <t xml:space="preserve">7.45436573028564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34564542770386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46381855010986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25583505630493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.28892278671265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52054166793823</t>
   </si>
   <si>
     <t xml:space="preserve">7.39291524887085</t>
   </si>
   <si>
-    <t xml:space="preserve">7.24638032913208</t>
+    <t xml:space="preserve">7.24637985229492</t>
   </si>
   <si>
     <t xml:space="preserve">7.15656900405884</t>
@@ -113,46 +113,46 @@
     <t xml:space="preserve">6.94858360290527</t>
   </si>
   <si>
-    <t xml:space="preserve">6.6082444190979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55152130126953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.68860340118408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42862176895142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38607931137085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51843404769897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71696472167969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98639869689941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8115029335022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9391303062439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.80204963684082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72641897201538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.09984540939331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.99585342407227</t>
+    <t xml:space="preserve">6.60824489593506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.55152177810669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68860244750977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42862224578857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38607883453369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51843357086182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71696519851685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98639965057373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81150245666504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.93912982940674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.80204916000366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72641754150391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09984588623047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.99585247039795</t>
   </si>
   <si>
     <t xml:space="preserve">6.90604162216187</t>
@@ -161,31 +161,31 @@
     <t xml:space="preserve">6.9013147354126</t>
   </si>
   <si>
-    <t xml:space="preserve">6.94385719299316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.75950717926025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.73114490509033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89658784866333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88713407516479</t>
+    <t xml:space="preserve">6.94385671615601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7595067024231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.73114538192749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89658737182617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88713359832764</t>
   </si>
   <si>
     <t xml:space="preserve">6.96276473999023</t>
   </si>
   <si>
-    <t xml:space="preserve">7.11402606964111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.21801900863647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18965673446655</t>
+    <t xml:space="preserve">7.11402654647827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.21801948547363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18965721130371</t>
   </si>
   <si>
     <t xml:space="preserve">7.31728410720825</t>
@@ -194,10 +194,10 @@
     <t xml:space="preserve">7.21329212188721</t>
   </si>
   <si>
-    <t xml:space="preserve">7.1471152305603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35037231445312</t>
+    <t xml:space="preserve">7.14711475372314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35037326812744</t>
   </si>
   <si>
     <t xml:space="preserve">7.20383787155151</t>
@@ -206,43 +206,43 @@
     <t xml:space="preserve">7.27946901321411</t>
   </si>
   <si>
-    <t xml:space="preserve">7.03839540481567</t>
+    <t xml:space="preserve">7.03839588165283</t>
   </si>
   <si>
     <t xml:space="preserve">7.01948833465576</t>
   </si>
   <si>
-    <t xml:space="preserve">7.109299659729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37873411178589</t>
+    <t xml:space="preserve">7.10929870605469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37873458862305</t>
   </si>
   <si>
     <t xml:space="preserve">7.43545722961426</t>
   </si>
   <si>
-    <t xml:space="preserve">7.33619213104248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61508131027222</t>
+    <t xml:space="preserve">7.33619260787964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61508083343506</t>
   </si>
   <si>
     <t xml:space="preserve">7.52526950836182</t>
   </si>
   <si>
-    <t xml:space="preserve">7.59617280960083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69071245193481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66707706451416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8467001914978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71434593200684</t>
+    <t xml:space="preserve">7.59617233276367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6907114982605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.667076587677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84670114517212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71434688568115</t>
   </si>
   <si>
     <t xml:space="preserve">7.75688886642456</t>
@@ -251,16 +251,16 @@
     <t xml:space="preserve">7.81833934783936</t>
   </si>
   <si>
-    <t xml:space="preserve">7.85142755508423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00268936157227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00741577148438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98850774765015</t>
+    <t xml:space="preserve">7.85142707824707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00268840789795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00741672515869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9885082244873</t>
   </si>
   <si>
     <t xml:space="preserve">7.90342283248901</t>
@@ -269,22 +269,22 @@
     <t xml:space="preserve">8.06413841247559</t>
   </si>
   <si>
-    <t xml:space="preserve">7.997962474823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21067333221436</t>
+    <t xml:space="preserve">7.99796152114868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21067523956299</t>
   </si>
   <si>
     <t xml:space="preserve">8.13751697540283</t>
   </si>
   <si>
-    <t xml:space="preserve">8.21827507019043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22777557373047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.17076969146729</t>
+    <t xml:space="preserve">8.21827411651611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22777462005615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1707706451416</t>
   </si>
   <si>
     <t xml:space="preserve">8.29428195953369</t>
@@ -296,22 +296,22 @@
     <t xml:space="preserve">8.3607873916626</t>
   </si>
   <si>
-    <t xml:space="preserve">8.34653568267822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.280029296875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1992712020874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.20402240753174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.26577758789062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1327657699585</t>
+    <t xml:space="preserve">8.34653663635254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28003025054932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19927310943604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.20402336120605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.26577949523926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13276672363281</t>
   </si>
   <si>
     <t xml:space="preserve">8.03300666809082</t>
@@ -320,43 +320,43 @@
     <t xml:space="preserve">7.93799781799316</t>
   </si>
   <si>
-    <t xml:space="preserve">7.75748157501221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74322986602783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76698207855225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67197227478027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75272989273071</t>
+    <t xml:space="preserve">7.75748109817505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74322891235352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76698112487793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67197179794312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75273084640503</t>
   </si>
   <si>
     <t xml:space="preserve">8.10901355743408</t>
   </si>
   <si>
-    <t xml:space="preserve">8.06625938415527</t>
+    <t xml:space="preserve">8.06626033782959</t>
   </si>
   <si>
     <t xml:space="preserve">8.18027114868164</t>
   </si>
   <si>
-    <t xml:space="preserve">7.7907338142395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82873821258545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83823871612549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99025344848633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.04725742340088</t>
+    <t xml:space="preserve">7.79073429107666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82873725891113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83823776245117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99025392532349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0472583770752</t>
   </si>
   <si>
     <t xml:space="preserve">8.00925445556641</t>
@@ -365,10 +365,10 @@
     <t xml:space="preserve">7.92849826812744</t>
   </si>
   <si>
-    <t xml:space="preserve">7.83348798751831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99975442886353</t>
+    <t xml:space="preserve">7.83348846435547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99975347518921</t>
   </si>
   <si>
     <t xml:space="preserve">8.08051109313965</t>
@@ -377,19 +377,19 @@
     <t xml:space="preserve">8.03775691986084</t>
   </si>
   <si>
-    <t xml:space="preserve">8.02825736999512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1755199432373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30378246307373</t>
+    <t xml:space="preserve">8.02825546264648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.17552089691162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30378341674805</t>
   </si>
   <si>
     <t xml:space="preserve">8.28953075408936</t>
   </si>
   <si>
-    <t xml:space="preserve">8.31803321838379</t>
+    <t xml:space="preserve">8.31803417205811</t>
   </si>
   <si>
     <t xml:space="preserve">8.31328296661377</t>
@@ -398,7 +398,7 @@
     <t xml:space="preserve">8.43204402923584</t>
   </si>
   <si>
-    <t xml:space="preserve">8.48905086517334</t>
+    <t xml:space="preserve">8.48904991149902</t>
   </si>
   <si>
     <t xml:space="preserve">8.47479820251465</t>
@@ -416,19 +416,19 @@
     <t xml:space="preserve">8.41304206848145</t>
   </si>
   <si>
-    <t xml:space="preserve">8.49380016326904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63631248474121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7360725402832</t>
+    <t xml:space="preserve">8.49380111694336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63631343841553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73607349395752</t>
   </si>
   <si>
     <t xml:space="preserve">8.64106464385986</t>
   </si>
   <si>
-    <t xml:space="preserve">8.76457691192627</t>
+    <t xml:space="preserve">8.76457500457764</t>
   </si>
   <si>
     <t xml:space="preserve">8.88808822631836</t>
@@ -437,25 +437,25 @@
     <t xml:space="preserve">8.78357696533203</t>
   </si>
   <si>
-    <t xml:space="preserve">8.91659069061279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.94034290313721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.05435276031494</t>
+    <t xml:space="preserve">8.91658973693848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.94034194946289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.05435180664062</t>
   </si>
   <si>
     <t xml:space="preserve">8.97834491729736</t>
   </si>
   <si>
-    <t xml:space="preserve">8.94984245300293</t>
+    <t xml:space="preserve">8.94984340667725</t>
   </si>
   <si>
     <t xml:space="preserve">8.878586769104</t>
   </si>
   <si>
-    <t xml:space="preserve">8.88333606719971</t>
+    <t xml:space="preserve">8.88333702087402</t>
   </si>
   <si>
     <t xml:space="preserve">8.95459461212158</t>
@@ -464,121 +464,121 @@
     <t xml:space="preserve">8.86433506011963</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90233993530273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89283657073975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.78832817077637</t>
+    <t xml:space="preserve">8.90233898162842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89283847808838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.78832721710205</t>
   </si>
   <si>
     <t xml:space="preserve">8.72182273864746</t>
   </si>
   <si>
-    <t xml:space="preserve">8.70281982421875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68857002258301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.61256217956543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66956806182861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66006565093994</t>
+    <t xml:space="preserve">8.70281887054443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68856906890869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.61256122589111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66956615447998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66006374359131</t>
   </si>
   <si>
     <t xml:space="preserve">8.79782962799072</t>
   </si>
   <si>
-    <t xml:space="preserve">8.62681293487549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74557495117188</t>
+    <t xml:space="preserve">8.62681198120117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74557399749756</t>
   </si>
   <si>
     <t xml:space="preserve">8.62206172943115</t>
   </si>
   <si>
-    <t xml:space="preserve">8.68381786346436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74082374572754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59355926513672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65531635284424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.69331836700439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.82158088684082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21586990356445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.38688373565674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20636749267578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1493616104126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02585124969482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.07335472106934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.94509220123291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63156414031982</t>
+    <t xml:space="preserve">8.68381881713867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74082279205322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59356021881104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65531444549561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.69331932067871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8215799331665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2158670425415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.38688564300537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20636653900146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.14936256408691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02584934234619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.07335567474365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.94509315490723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63156318664551</t>
   </si>
   <si>
     <t xml:space="preserve">8.55080509185791</t>
   </si>
   <si>
-    <t xml:space="preserve">8.5270528793335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52230358123779</t>
+    <t xml:space="preserve">8.52705478668213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52230262756348</t>
   </si>
   <si>
     <t xml:space="preserve">8.71232128143311</t>
   </si>
   <si>
-    <t xml:space="preserve">8.47004795074463</t>
+    <t xml:space="preserve">8.47004699707031</t>
   </si>
   <si>
     <t xml:space="preserve">8.58880996704102</t>
   </si>
   <si>
-    <t xml:space="preserve">8.5080509185791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59831142425537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.12085914611816</t>
+    <t xml:space="preserve">8.50805187225342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59831047058105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.12086009979248</t>
   </si>
   <si>
     <t xml:space="preserve">9.23486995697021</t>
   </si>
   <si>
-    <t xml:space="preserve">9.19686508178711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.6458158493042</t>
+    <t xml:space="preserve">9.19686698913574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64581489562988</t>
   </si>
   <si>
     <t xml:space="preserve">8.28478145599365</t>
@@ -590,13 +590,13 @@
     <t xml:space="preserve">7.55321168899536</t>
   </si>
   <si>
-    <t xml:space="preserve">8.10426330566406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07576084136963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.51280212402344</t>
+    <t xml:space="preserve">8.10426425933838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07575988769531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.51280117034912</t>
   </si>
   <si>
     <t xml:space="preserve">8.53655433654785</t>
@@ -608,37 +608,37 @@
     <t xml:space="preserve">8.60781097412109</t>
   </si>
   <si>
-    <t xml:space="preserve">8.49855041503906</t>
+    <t xml:space="preserve">8.49855136871338</t>
   </si>
   <si>
     <t xml:space="preserve">8.35603713989258</t>
   </si>
   <si>
-    <t xml:space="preserve">8.30853176116943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.50330257415771</t>
+    <t xml:space="preserve">8.30853271484375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.50330066680908</t>
   </si>
   <si>
     <t xml:space="preserve">8.70757102966309</t>
   </si>
   <si>
-    <t xml:space="preserve">8.77882766723633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85483455657959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.80258083343506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.87383651733398</t>
+    <t xml:space="preserve">8.7788257598877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85483360290527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.80257987976074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.87383556365967</t>
   </si>
   <si>
     <t xml:space="preserve">8.84058284759521</t>
   </si>
   <si>
-    <t xml:space="preserve">9.29187488555908</t>
+    <t xml:space="preserve">9.2918758392334</t>
   </si>
   <si>
     <t xml:space="preserve">9.10185718536377</t>
@@ -656,10 +656,10 @@
     <t xml:space="preserve">9.54839992523193</t>
   </si>
   <si>
-    <t xml:space="preserve">9.5198974609375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.4343900680542</t>
+    <t xml:space="preserve">9.51989650726318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43438911437988</t>
   </si>
   <si>
     <t xml:space="preserve">9.50089550018311</t>
@@ -668,7 +668,7 @@
     <t xml:space="preserve">9.58640289306641</t>
   </si>
   <si>
-    <t xml:space="preserve">9.62440490722656</t>
+    <t xml:space="preserve">9.6244068145752</t>
   </si>
   <si>
     <t xml:space="preserve">9.57690238952637</t>
@@ -680,52 +680,52 @@
     <t xml:space="preserve">9.24912071228027</t>
   </si>
   <si>
-    <t xml:space="preserve">9.24437141418457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2966251373291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6054048538208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.95693778991699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1089515686035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9759407043457</t>
+    <t xml:space="preserve">9.24437046051025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.29662704467773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60540390014648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.95693683624268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1089525222778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97593975067139</t>
   </si>
   <si>
     <t xml:space="preserve">10.0614471435547</t>
   </si>
   <si>
-    <t xml:space="preserve">9.78592300415039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85242938995361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.86192989349365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.80492305755615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9379358291626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1754579544067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.156457901001</t>
+    <t xml:space="preserve">9.78592205047607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8524284362793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.86192893981934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.80492496490479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.93793678283691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1754598617554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1564569473267</t>
   </si>
   <si>
     <t xml:space="preserve">10.3369741439819</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3939790725708</t>
+    <t xml:space="preserve">10.3939781188965</t>
   </si>
   <si>
     <t xml:space="preserve">10.4129810333252</t>
@@ -737,28 +737,28 @@
     <t xml:space="preserve">10.6315011978149</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5174913406372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4889879226685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7360124588013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6695051193237</t>
+    <t xml:space="preserve">10.5174922943115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4889888763428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.736011505127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6695041656494</t>
   </si>
   <si>
     <t xml:space="preserve">10.6600046157837</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9735326766968</t>
+    <t xml:space="preserve">10.9735345840454</t>
   </si>
   <si>
     <t xml:space="preserve">11.0495405197144</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8785247802734</t>
+    <t xml:space="preserve">10.8785266876221</t>
   </si>
   <si>
     <t xml:space="preserve">10.8120183944702</t>
@@ -770,25 +770,25 @@
     <t xml:space="preserve">10.7835168838501</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8690223693848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0590410232544</t>
+    <t xml:space="preserve">10.8690233230591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0590419769287</t>
   </si>
   <si>
     <t xml:space="preserve">11.0020370483398</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0970458984375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1635513305664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2965660095215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2585601806641</t>
+    <t xml:space="preserve">11.0970449447632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1635522842407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2965650558472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2585620880127</t>
   </si>
   <si>
     <t xml:space="preserve">11.4200763702393</t>
@@ -803,169 +803,169 @@
     <t xml:space="preserve">11.3345680236816</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3155660629272</t>
+    <t xml:space="preserve">11.3155670166016</t>
   </si>
   <si>
     <t xml:space="preserve">11.353569984436</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4485778808594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6005916595459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5815925598145</t>
+    <t xml:space="preserve">11.4485788345337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6005926132202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5815906524658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6290941238403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7533187866211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0017614364624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0399837493896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1259841918945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.097315788269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1068716049194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1164283752441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.145094871521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2406511306763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2788734436035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.202428817749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3935394287109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3648710250854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4222049713135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0877618789673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3266496658325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6577625274658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4666509628296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8679838180542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9062061309814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9444274902344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9348726272583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8010959625244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7437620162964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6959829330444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.638650894165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5430946350098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2468748092651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0462083816528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8550958633423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7213191986084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.769097328186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9028730392456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0748748779297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0653190612793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1130962371826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3042058944702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5239858627319</t>
   </si>
   <si>
     <t xml:space="preserve">11.6290950775146</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7533168792725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0017623901367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0399837493896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1259841918945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.097318649292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1068725585938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1164283752441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.145094871521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2406511306763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2788724899292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2024278640747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3935384750366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3648719787598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4222059249878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0877618789673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3266496658325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6577625274658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4666519165039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8679838180542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9062070846558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9444284439087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9348735809326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8010959625244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7437620162964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6959838867188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.638650894165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5430955886841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2468738555908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0462074279785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8550968170166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7213191986084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.769097328186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9028739929199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0748729705811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0653190612793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1130952835083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3042078018188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5239849090576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6290941238403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5526494979858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5144281387329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5813188552856</t>
+    <t xml:space="preserve">11.5526514053345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5144290924072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5813179016113</t>
   </si>
   <si>
     <t xml:space="preserve">11.4379844665527</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6768741607666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6004295349121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5048742294312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4475393295288</t>
+    <t xml:space="preserve">11.6768732070923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6004285812378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5048732757568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4475402832031</t>
   </si>
   <si>
     <t xml:space="preserve">11.4188737869263</t>
   </si>
   <si>
-    <t xml:space="preserve">11.275541305542</t>
+    <t xml:space="preserve">11.2755403518677</t>
   </si>
   <si>
     <t xml:space="preserve">11.1990957260132</t>
@@ -977,13 +977,13 @@
     <t xml:space="preserve">10.8264303207397</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9984302520752</t>
+    <t xml:space="preserve">10.9984292984009</t>
   </si>
   <si>
     <t xml:space="preserve">10.9506521224976</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3615417480469</t>
+    <t xml:space="preserve">11.3615407943726</t>
   </si>
   <si>
     <t xml:space="preserve">11.3328733444214</t>
@@ -995,64 +995,64 @@
     <t xml:space="preserve">11.2946510314941</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4857625961304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4953184127808</t>
+    <t xml:space="preserve">11.4857635498047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4953174591064</t>
   </si>
   <si>
     <t xml:space="preserve">11.4093170166016</t>
   </si>
   <si>
-    <t xml:space="preserve">11.22776222229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2564287185669</t>
+    <t xml:space="preserve">11.2277631759644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2564296722412</t>
   </si>
   <si>
     <t xml:space="preserve">11.3424291610718</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6099843978882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8966512680054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.992205619812</t>
+    <t xml:space="preserve">11.6099834442139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8966503143311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9922065734863</t>
   </si>
   <si>
     <t xml:space="preserve">12.1642065048218</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1928720474243</t>
+    <t xml:space="preserve">12.1928739547729</t>
   </si>
   <si>
     <t xml:space="preserve">12.1355390548706</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2310953140259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2215404510498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2597608566284</t>
+    <t xml:space="preserve">12.2310943603516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2215385437012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2597618103027</t>
   </si>
   <si>
     <t xml:space="preserve">12.1546516418457</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0113172531128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4030933380127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3362064361572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2884273529053</t>
+    <t xml:space="preserve">12.0113162994385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.403094291687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3362054824829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2884283065796</t>
   </si>
   <si>
     <t xml:space="preserve">12.6706504821777</t>
@@ -1070,16 +1070,16 @@
     <t xml:space="preserve">13.0050935745239</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0242042541504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9955377578735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3744277954102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9635400772095</t>
+    <t xml:space="preserve">13.024206161499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9955396652222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3744268417358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9635391235352</t>
   </si>
   <si>
     <t xml:space="preserve">12.0304279327393</t>
@@ -1094,22 +1094,22 @@
     <t xml:space="preserve">12.460428237915</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0782060623169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6195402145386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.734206199646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5717630386353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8488721847534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9539833068848</t>
+    <t xml:space="preserve">12.0782070159912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6195392608643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7342071533203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5717620849609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8488731384277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9539842605591</t>
   </si>
   <si>
     <t xml:space="preserve">12.2693166732788</t>
@@ -1121,13 +1121,13 @@
     <t xml:space="preserve">12.3839836120605</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3170948028564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5464267730713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5177612304688</t>
+    <t xml:space="preserve">12.3170957565308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5464277267456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5177621841431</t>
   </si>
   <si>
     <t xml:space="preserve">12.3457612991333</t>
@@ -1136,22 +1136,22 @@
     <t xml:space="preserve">11.9157619476318</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3075399398804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7279834747314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7375392913818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6897592544556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8235378265381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.329981803894</t>
+    <t xml:space="preserve">12.3075389862061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7279825210571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7375383377075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6897611618042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8235387802124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3299827575684</t>
   </si>
   <si>
     <t xml:space="preserve">13.3204259872437</t>
@@ -1166,28 +1166,28 @@
     <t xml:space="preserve">13.6262035369873</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6644277572632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.740870475769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7599802017212</t>
+    <t xml:space="preserve">13.6644248962402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7408695220947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7599821090698</t>
   </si>
   <si>
     <t xml:space="preserve">13.8077602386475</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7122030258179</t>
+    <t xml:space="preserve">13.7122049331665</t>
   </si>
   <si>
     <t xml:space="preserve">13.4542045593262</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6739826202393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5019807815552</t>
+    <t xml:space="preserve">13.6739816665649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5019826889038</t>
   </si>
   <si>
     <t xml:space="preserve">13.167537689209</t>
@@ -1196,13 +1196,13 @@
     <t xml:space="preserve">12.8044261932373</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5942058563232</t>
+    <t xml:space="preserve">12.5942077636719</t>
   </si>
   <si>
     <t xml:space="preserve">12.5655384063721</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6515398025513</t>
+    <t xml:space="preserve">12.6515378952026</t>
   </si>
   <si>
     <t xml:space="preserve">12.6993160247803</t>
@@ -1214,7 +1214,7 @@
     <t xml:space="preserve">13.071982383728</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0433168411255</t>
+    <t xml:space="preserve">13.0433149337769</t>
   </si>
   <si>
     <t xml:space="preserve">12.7853164672852</t>
@@ -1226,10 +1226,10 @@
     <t xml:space="preserve">12.4413175582886</t>
   </si>
   <si>
-    <t xml:space="preserve">12.919093132019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2344274520874</t>
+    <t xml:space="preserve">12.9190940856934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2344255447388</t>
   </si>
   <si>
     <t xml:space="preserve">13.2917604446411</t>
@@ -1241,25 +1241,25 @@
     <t xml:space="preserve">13.6070928573608</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5306491851807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5210933685303</t>
+    <t xml:space="preserve">13.5306482315063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.521092414856</t>
   </si>
   <si>
     <t xml:space="preserve">13.3586483001709</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5402030944824</t>
+    <t xml:space="preserve">13.5402040481567</t>
   </si>
   <si>
     <t xml:space="preserve">13.4446487426758</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0815382003784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0528717041016</t>
+    <t xml:space="preserve">13.0815372467041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0528707504272</t>
   </si>
   <si>
     <t xml:space="preserve">13.4924268722534</t>
@@ -1274,22 +1274,22 @@
     <t xml:space="preserve">13.5115375518799</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9988708496094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2090921401978</t>
+    <t xml:space="preserve">13.9988689422607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2090930938721</t>
   </si>
   <si>
     <t xml:space="preserve">14.3524255752563</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6104259490967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5148696899414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7824239730835</t>
+    <t xml:space="preserve">14.6104249954224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5148706436157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7824249267578</t>
   </si>
   <si>
     <t xml:space="preserve">14.8206472396851</t>
@@ -1298,16 +1298,16 @@
     <t xml:space="preserve">14.9066476821899</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1359806060791</t>
+    <t xml:space="preserve">15.1359796524048</t>
   </si>
   <si>
     <t xml:space="preserve">15.0786457061768</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3366451263428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1933126449585</t>
+    <t xml:space="preserve">15.3366460800171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1933135986328</t>
   </si>
   <si>
     <t xml:space="preserve">15.2219800949097</t>
@@ -1316,7 +1316,7 @@
     <t xml:space="preserve">15.2602014541626</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1264238357544</t>
+    <t xml:space="preserve">15.1264247894287</t>
   </si>
   <si>
     <t xml:space="preserve">15.116868019104</t>
@@ -1325,28 +1325,28 @@
     <t xml:space="preserve">14.9353132247925</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8110914230347</t>
+    <t xml:space="preserve">14.8110904693604</t>
   </si>
   <si>
     <t xml:space="preserve">15.3939800262451</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4990901947021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4704246520996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.47998046875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6710901260376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6233129501343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7857580184937</t>
+    <t xml:space="preserve">15.4990892410278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4704236984253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4799814224243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6710910797119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.62331199646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7857570648193</t>
   </si>
   <si>
     <t xml:space="preserve">15.8908681869507</t>
@@ -1355,16 +1355,16 @@
     <t xml:space="preserve">15.6519784927368</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2410917282104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.575535774231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0401554107666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8861923217773</t>
+    <t xml:space="preserve">15.2410888671875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5755338668823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0401563644409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8861951828003</t>
   </si>
   <si>
     <t xml:space="preserve">14.559024810791</t>
@@ -1376,7 +1376,7 @@
     <t xml:space="preserve">14.9535522460938</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0978918075562</t>
+    <t xml:space="preserve">15.0978908538818</t>
   </si>
   <si>
     <t xml:space="preserve">14.1356296539307</t>
@@ -1388,13 +1388,13 @@
     <t xml:space="preserve">14.838080406189</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8477039337158</t>
+    <t xml:space="preserve">14.8477029800415</t>
   </si>
   <si>
     <t xml:space="preserve">15.4154376983643</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7233610153198</t>
+    <t xml:space="preserve">15.7233619689941</t>
   </si>
   <si>
     <t xml:space="preserve">16.358455657959</t>
@@ -1406,13 +1406,13 @@
     <t xml:space="preserve">16.3969459533691</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4065685272217</t>
+    <t xml:space="preserve">16.406566619873</t>
   </si>
   <si>
     <t xml:space="preserve">16.4450588226318</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4546794891357</t>
+    <t xml:space="preserve">16.454683303833</t>
   </si>
   <si>
     <t xml:space="preserve">16.5701522827148</t>
@@ -1427,10 +1427,10 @@
     <t xml:space="preserve">16.7722263336182</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9743022918701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9165668487549</t>
+    <t xml:space="preserve">16.9743003845215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9165687561035</t>
   </si>
   <si>
     <t xml:space="preserve">16.8203392028809</t>
@@ -1442,13 +1442,13 @@
     <t xml:space="preserve">16.5027923583984</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9261894226074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0897750854492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1378879547119</t>
+    <t xml:space="preserve">16.9261875152588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0897731781006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1378860473633</t>
   </si>
   <si>
     <t xml:space="preserve">17.3014717102051</t>
@@ -1460,31 +1460,31 @@
     <t xml:space="preserve">17.0224170684814</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6182632446289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6952476501465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4643039703369</t>
+    <t xml:space="preserve">16.6182651519775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6952457427979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4643020629883</t>
   </si>
   <si>
     <t xml:space="preserve">16.6471328735352</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8010959625244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6086406707764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7626037597656</t>
+    <t xml:space="preserve">16.8010940551758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.608642578125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7626056671143</t>
   </si>
   <si>
     <t xml:space="preserve">17.3592090606689</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8018493652344</t>
+    <t xml:space="preserve">17.8018455505371</t>
   </si>
   <si>
     <t xml:space="preserve">18.2156200408936</t>
@@ -1493,25 +1493,25 @@
     <t xml:space="preserve">17.7056217193604</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3503379821777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4369411468506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9950542449951</t>
+    <t xml:space="preserve">18.3503398895264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4369430541992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9950504302979</t>
   </si>
   <si>
     <t xml:space="preserve">18.4080715179443</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6871280670166</t>
+    <t xml:space="preserve">18.6871299743652</t>
   </si>
   <si>
     <t xml:space="preserve">18.5235462188721</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3407135009766</t>
+    <t xml:space="preserve">18.3407154083252</t>
   </si>
   <si>
     <t xml:space="preserve">18.1290168762207</t>
@@ -1529,10 +1529,10 @@
     <t xml:space="preserve">18.5716571807861</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6486396789551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4754295349121</t>
+    <t xml:space="preserve">18.6486358642578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4754314422607</t>
   </si>
   <si>
     <t xml:space="preserve">18.3022232055664</t>
@@ -1541,31 +1541,31 @@
     <t xml:space="preserve">18.3792057037354</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4850540161133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.331090927124</t>
+    <t xml:space="preserve">18.4850521087646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3310890197754</t>
   </si>
   <si>
     <t xml:space="preserve">18.205997467041</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2733535766602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8403377532959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6678848266602</t>
+    <t xml:space="preserve">18.2733554840088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8403396606445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6678829193115</t>
   </si>
   <si>
     <t xml:space="preserve">18.1001472473145</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2829780578613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0239238739014</t>
+    <t xml:space="preserve">18.28297996521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0239200592041</t>
   </si>
   <si>
     <t xml:space="preserve">19.6301460266113</t>
@@ -1580,28 +1580,28 @@
     <t xml:space="preserve">19.4761829376221</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3414669036865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0046730041504</t>
+    <t xml:space="preserve">19.3414688110352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.004674911499</t>
   </si>
   <si>
     <t xml:space="preserve">18.7256202697754</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8026008605957</t>
+    <t xml:space="preserve">18.8025989532471</t>
   </si>
   <si>
     <t xml:space="preserve">19.0527877807617</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2452411651611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9661846160889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4176959991455</t>
+    <t xml:space="preserve">19.2452430725098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9661827087402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4176940917969</t>
   </si>
   <si>
     <t xml:space="preserve">18.7833557128906</t>
@@ -1610,31 +1610,31 @@
     <t xml:space="preserve">18.3118457794189</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5612850189209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8107166290283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6848726272583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8195886611938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.906192779541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2326078414917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6560049057007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6944923400879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0409069061279</t>
+    <t xml:space="preserve">17.5612831115723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8107147216797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6848707199097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8195877075195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9061908721924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.232608795166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6560029983521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6944942474365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0409088134766</t>
   </si>
   <si>
     <t xml:space="preserve">15.9639272689819</t>
@@ -1643,10 +1643,10 @@
     <t xml:space="preserve">15.1748723983765</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2999658584595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2229852676392</t>
+    <t xml:space="preserve">15.2999668121338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2229862213135</t>
   </si>
   <si>
     <t xml:space="preserve">15.2037410736084</t>
@@ -1655,13 +1655,13 @@
     <t xml:space="preserve">15.2422313690186</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0690240859985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8765716552734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9246845245361</t>
+    <t xml:space="preserve">15.0690221786499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8765707015991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9246835708618</t>
   </si>
   <si>
     <t xml:space="preserve">14.8958158493042</t>
@@ -1676,37 +1676,37 @@
     <t xml:space="preserve">15.2807216644287</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0112886428833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0201578140259</t>
+    <t xml:space="preserve">15.0112867355347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0201559066772</t>
   </si>
   <si>
     <t xml:space="preserve">13.9335536956787</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3273305892944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2792167663574</t>
+    <t xml:space="preserve">13.3273296356201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2792177200317</t>
   </si>
   <si>
     <t xml:space="preserve">13.587140083313</t>
   </si>
   <si>
-    <t xml:space="preserve">13.46204662323</t>
+    <t xml:space="preserve">13.4620447158813</t>
   </si>
   <si>
     <t xml:space="preserve">13.5967617034912</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8565721511841</t>
+    <t xml:space="preserve">13.8565731048584</t>
   </si>
   <si>
     <t xml:space="preserve">13.6929893493652</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4235553741455</t>
+    <t xml:space="preserve">13.4235544204712</t>
   </si>
   <si>
     <t xml:space="preserve">14.0778932571411</t>
@@ -1724,7 +1724,7 @@
     <t xml:space="preserve">14.3761940002441</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5205326080322</t>
+    <t xml:space="preserve">14.5205335617065</t>
   </si>
   <si>
     <t xml:space="preserve">14.5494022369385</t>
@@ -1733,28 +1733,28 @@
     <t xml:space="preserve">14.0009117126465</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9431772232056</t>
+    <t xml:space="preserve">13.9431762695312</t>
   </si>
   <si>
     <t xml:space="preserve">13.7988376617432</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9624214172363</t>
+    <t xml:space="preserve">13.9624223709106</t>
   </si>
   <si>
     <t xml:space="preserve">14.1067609786987</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1548738479614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.636004447937</t>
+    <t xml:space="preserve">14.1548748016357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6360063552856</t>
   </si>
   <si>
     <t xml:space="preserve">13.9816675186157</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9135570526123</t>
+    <t xml:space="preserve">12.913556098938</t>
   </si>
   <si>
     <t xml:space="preserve">13.5197801589966</t>
@@ -1763,55 +1763,55 @@
     <t xml:space="preserve">13.3850650787354</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9527988433838</t>
+    <t xml:space="preserve">13.9527997970581</t>
   </si>
   <si>
     <t xml:space="preserve">14.2799692153931</t>
   </si>
   <si>
-    <t xml:space="preserve">15.059401512146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4827947616577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1075143814087</t>
+    <t xml:space="preserve">15.0594005584717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.482795715332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1075134277344</t>
   </si>
   <si>
     <t xml:space="preserve">15.3095893859863</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4058141708374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3769464492798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5405311584473</t>
+    <t xml:space="preserve">15.4058151245117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3769474029541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5405330657959</t>
   </si>
   <si>
     <t xml:space="preserve">15.5886459350586</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5212860107422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3673238754272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2518529891968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1460037231445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0497779846191</t>
+    <t xml:space="preserve">15.5212850570679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3673257827759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2518539428711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1460046768188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0497789382935</t>
   </si>
   <si>
     <t xml:space="preserve">15.0882692337036</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1652498245239</t>
+    <t xml:space="preserve">15.1652507781982</t>
   </si>
   <si>
     <t xml:space="preserve">15.8484544754028</t>
@@ -1823,64 +1823,64 @@
     <t xml:space="preserve">15.2903442382812</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4443054199219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7810964584351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6656255722046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6271343231201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0016641616821</t>
+    <t xml:space="preserve">15.4443044662476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7810974121094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6656274795532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6271362304688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0016651153564</t>
   </si>
   <si>
     <t xml:space="preserve">15.1267595291138</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4539279937744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4250612258911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6752500534058</t>
+    <t xml:space="preserve">15.4539289474487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4250602722168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6752471923828</t>
   </si>
   <si>
     <t xml:space="preserve">15.5982666015625</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7426080703735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9735507965088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6760005950928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2044944763184</t>
+    <t xml:space="preserve">15.7426071166992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9735498428345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6760025024414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2044925689697</t>
   </si>
   <si>
     <t xml:space="preserve">15.4924192428589</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0216617584229</t>
+    <t xml:space="preserve">16.0216636657715</t>
   </si>
   <si>
     <t xml:space="preserve">16.93581199646</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0993976593018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7433586120605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4354362487793</t>
+    <t xml:space="preserve">17.0993957519531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7433605194092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4354343414307</t>
   </si>
   <si>
     <t xml:space="preserve">16.4739265441895</t>
@@ -1889,37 +1889,37 @@
     <t xml:space="preserve">17.0031700134277</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6663799285889</t>
+    <t xml:space="preserve">16.6663780212402</t>
   </si>
   <si>
     <t xml:space="preserve">17.060905456543</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9839248657227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1475086212158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1186408996582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4931735992432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1371364593506</t>
+    <t xml:space="preserve">16.983922958374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1475105285645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1186428070068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4931716918945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.137134552002</t>
   </si>
   <si>
     <t xml:space="preserve">16.1275119781494</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1660003662109</t>
+    <t xml:space="preserve">16.1660022735596</t>
   </si>
   <si>
     <t xml:space="preserve">16.0890197753906</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5990219116211</t>
+    <t xml:space="preserve">16.5990200042725</t>
   </si>
   <si>
     <t xml:space="preserve">16.4835472106934</t>
@@ -1931,19 +1931,19 @@
     <t xml:space="preserve">17.7633571624756</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9269409179688</t>
+    <t xml:space="preserve">17.9269428253174</t>
   </si>
   <si>
     <t xml:space="preserve">18.3599605560303</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5709037780762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5420360565186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0905265808105</t>
+    <t xml:space="preserve">17.5709056854248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5420379638672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0905227661133</t>
   </si>
   <si>
     <t xml:space="preserve">18.9469394683838</t>
@@ -1958,16 +1958,16 @@
     <t xml:space="preserve">19.8892974853516</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7923679351807</t>
+    <t xml:space="preserve">19.7923698425293</t>
   </si>
   <si>
     <t xml:space="preserve">19.2108116149902</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2301979064941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2689666748047</t>
+    <t xml:space="preserve">19.2301959991455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2689685821533</t>
   </si>
   <si>
     <t xml:space="preserve">18.8715686798096</t>
@@ -1982,10 +1982,10 @@
     <t xml:space="preserve">19.3174324035645</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5209770202637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6760597229004</t>
+    <t xml:space="preserve">19.5209732055664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6760578155518</t>
   </si>
   <si>
     <t xml:space="preserve">19.3755855560303</t>
@@ -2003,22 +2003,22 @@
     <t xml:space="preserve">20.1994609832764</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4514694213867</t>
+    <t xml:space="preserve">20.4514713287354</t>
   </si>
   <si>
     <t xml:space="preserve">20.5677814483643</t>
   </si>
   <si>
-    <t xml:space="preserve">20.897331237793</t>
+    <t xml:space="preserve">20.8973293304443</t>
   </si>
   <si>
     <t xml:space="preserve">20.8585605621338</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1105690002441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2576179504395</t>
+    <t xml:space="preserve">21.1105709075928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2576160430908</t>
   </si>
   <si>
     <t xml:space="preserve">20.1413059234619</t>
@@ -2027,7 +2027,7 @@
     <t xml:space="preserve">19.772985458374</t>
   </si>
   <si>
-    <t xml:space="preserve">19.598518371582</t>
+    <t xml:space="preserve">19.5985164642334</t>
   </si>
   <si>
     <t xml:space="preserve">19.9280662536621</t>
@@ -2036,10 +2036,10 @@
     <t xml:space="preserve">19.9668388366699</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3933143615723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2382297515869</t>
+    <t xml:space="preserve">20.3933162689209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2382335662842</t>
   </si>
   <si>
     <t xml:space="preserve">19.947452545166</t>
@@ -2048,37 +2048,37 @@
     <t xml:space="preserve">19.8505268096924</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0249938964844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6065502166748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5871677398682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5290088653564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0136432647705</t>
+    <t xml:space="preserve">20.0249919891357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6065521240234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5871658325195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5290126800537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0136413574219</t>
   </si>
   <si>
     <t xml:space="preserve">20.9942588806152</t>
   </si>
   <si>
-    <t xml:space="preserve">20.722864151001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3351573944092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4320850372314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4902400970459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5952014923096</t>
+    <t xml:space="preserve">20.7228622436523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3351554870605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4320831298828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4902381896973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5952033996582</t>
   </si>
   <si>
     <t xml:space="preserve">21.4982738494873</t>
@@ -2087,16 +2087,16 @@
     <t xml:space="preserve">20.7422485351562</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3157711029053</t>
+    <t xml:space="preserve">20.3157730102539</t>
   </si>
   <si>
     <t xml:space="preserve">20.8779468536377</t>
   </si>
   <si>
-    <t xml:space="preserve">21.30442237854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4207324981689</t>
+    <t xml:space="preserve">21.3044204711914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4207344055176</t>
   </si>
   <si>
     <t xml:space="preserve">21.478889465332</t>
@@ -2105,61 +2105,61 @@
     <t xml:space="preserve">21.5758152008057</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3431930541992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6145877838135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1767578125</t>
+    <t xml:space="preserve">21.3431911468506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6145839691162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1767597198486</t>
   </si>
   <si>
     <t xml:space="preserve">22.8164749145508</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8940162658691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8552436828613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.428768157959</t>
+    <t xml:space="preserve">22.8940143585205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.85524559021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4287662506104</t>
   </si>
   <si>
     <t xml:space="preserve">22.5838489532471</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2930717468262</t>
+    <t xml:space="preserve">22.2930698394775</t>
   </si>
   <si>
     <t xml:space="preserve">22.2736854553223</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6420059204102</t>
+    <t xml:space="preserve">22.6420078277588</t>
   </si>
   <si>
     <t xml:space="preserve">22.9327869415283</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0878677368164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1460208892822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3899955749512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5644645690918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6727428436279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7810192108154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7616329193115</t>
+    <t xml:space="preserve">23.087869644165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1460227966309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3899993896484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5644664764404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6727447509766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7810173034668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7616348266602</t>
   </si>
   <si>
     <t xml:space="preserve">21.4401206970215</t>
@@ -2177,13 +2177,13 @@
     <t xml:space="preserve">22.0604476928711</t>
   </si>
   <si>
-    <t xml:space="preserve">21.827823638916</t>
+    <t xml:space="preserve">21.8278255462646</t>
   </si>
   <si>
     <t xml:space="preserve">21.5370445251465</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6921272277832</t>
+    <t xml:space="preserve">21.6921253204346</t>
   </si>
   <si>
     <t xml:space="preserve">21.9247512817383</t>
@@ -2195,22 +2195,22 @@
     <t xml:space="preserve">21.8084392547607</t>
   </si>
   <si>
-    <t xml:space="preserve">21.905366897583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9554862976074</t>
+    <t xml:space="preserve">21.9053649902344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9554882049561</t>
   </si>
   <si>
     <t xml:space="preserve">20.9167175292969</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8004035949707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1687259674072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6840915679932</t>
+    <t xml:space="preserve">20.8004055023193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1687240600586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6840953826904</t>
   </si>
   <si>
     <t xml:space="preserve">21.2074947357178</t>
@@ -2222,13 +2222,13 @@
     <t xml:space="preserve">20.6259365081787</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6453227996826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1573753356934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3512268066406</t>
+    <t xml:space="preserve">20.645320892334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1573734283447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3512287139893</t>
   </si>
   <si>
     <t xml:space="preserve">22.8746299743652</t>
@@ -2237,16 +2237,16 @@
     <t xml:space="preserve">22.9909400939941</t>
   </si>
   <si>
-    <t xml:space="preserve">23.359260559082</t>
+    <t xml:space="preserve">23.3592624664307</t>
   </si>
   <si>
     <t xml:space="preserve">23.8051223754883</t>
   </si>
   <si>
-    <t xml:space="preserve">24.0765171051025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2703704833984</t>
+    <t xml:space="preserve">24.0765190124512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2703685760498</t>
   </si>
   <si>
     <t xml:space="preserve">23.9214363098145</t>
@@ -2258,34 +2258,34 @@
     <t xml:space="preserve">24.1540584564209</t>
   </si>
   <si>
-    <t xml:space="preserve">24.2315998077393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3285236358643</t>
+    <t xml:space="preserve">24.2315979003906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3285255432129</t>
   </si>
   <si>
     <t xml:space="preserve">24.73561668396</t>
   </si>
   <si>
-    <t xml:space="preserve">25.2396354675293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4722576141357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7436485290527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6968460083008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3559455871582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6661109924316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2977886199951</t>
+    <t xml:space="preserve">25.2396335601807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4722595214844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7436504364014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6968441009521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3559474945068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.666109085083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2977867126465</t>
   </si>
   <si>
     <t xml:space="preserve">25.3947162628174</t>
@@ -2294,28 +2294,28 @@
     <t xml:space="preserve">24.9876251220703</t>
   </si>
   <si>
-    <t xml:space="preserve">25.317174911499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2008628845215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0070095062256</t>
+    <t xml:space="preserve">25.3171768188477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2008647918701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.007007598877</t>
   </si>
   <si>
     <t xml:space="preserve">24.8131580352783</t>
   </si>
   <si>
-    <t xml:space="preserve">24.910083770752</t>
+    <t xml:space="preserve">24.9100856781006</t>
   </si>
   <si>
     <t xml:space="preserve">24.7162303924561</t>
   </si>
   <si>
-    <t xml:space="preserve">25.0263957977295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0457801818848</t>
+    <t xml:space="preserve">25.0263977050781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0457820892334</t>
   </si>
   <si>
     <t xml:space="preserve">24.8519268035889</t>
@@ -2324,13 +2324,13 @@
     <t xml:space="preserve">24.9294681549072</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9488563537598</t>
+    <t xml:space="preserve">24.9488544464111</t>
   </si>
   <si>
     <t xml:space="preserve">25.0651664733887</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6854953765869</t>
+    <t xml:space="preserve">25.6854934692383</t>
   </si>
   <si>
     <t xml:space="preserve">25.7242660522461</t>
@@ -2345,13 +2345,13 @@
     <t xml:space="preserve">25.5885696411133</t>
   </si>
   <si>
-    <t xml:space="preserve">26.1507415771484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9956607818604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9375038146973</t>
+    <t xml:space="preserve">26.1507396697998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9956588745117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9375057220459</t>
   </si>
   <si>
     <t xml:space="preserve">25.5304126739502</t>
@@ -2369,7 +2369,7 @@
     <t xml:space="preserve">25.2784042358398</t>
   </si>
   <si>
-    <t xml:space="preserve">26.0538139343262</t>
+    <t xml:space="preserve">26.0538158416748</t>
   </si>
   <si>
     <t xml:space="preserve">26.6159896850586</t>
@@ -2384,7 +2384,7 @@
     <t xml:space="preserve">27.546480178833</t>
   </si>
   <si>
-    <t xml:space="preserve">27.6240234375</t>
+    <t xml:space="preserve">27.6240215301514</t>
   </si>
   <si>
     <t xml:space="preserve">27.9341869354248</t>
@@ -2393,34 +2393,34 @@
     <t xml:space="preserve">28.1086540222168</t>
   </si>
   <si>
-    <t xml:space="preserve">28.2443523406982</t>
+    <t xml:space="preserve">28.2443504333496</t>
   </si>
   <si>
     <t xml:space="preserve">28.6126728057861</t>
   </si>
   <si>
-    <t xml:space="preserve">29.2136173248291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.7095985412598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.3025093078613</t>
+    <t xml:space="preserve">29.2136135101318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.7096004486084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.3025074005127</t>
   </si>
   <si>
     <t xml:space="preserve">26.3639793395996</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6079521179199</t>
+    <t xml:space="preserve">25.6079540252686</t>
   </si>
   <si>
     <t xml:space="preserve">24.968240737915</t>
   </si>
   <si>
-    <t xml:space="preserve">23.9602031707764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8325443267822</t>
+    <t xml:space="preserve">23.960205078125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8325424194336</t>
   </si>
   <si>
     <t xml:space="preserve">23.785737991333</t>
@@ -2429,22 +2429,22 @@
     <t xml:space="preserve">20.1219215393066</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6372852325439</t>
+    <t xml:space="preserve">19.6372871398926</t>
   </si>
   <si>
     <t xml:space="preserve">15.8183870315552</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5824489593506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9637765884399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3611736297607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1559715270996</t>
+    <t xml:space="preserve">17.582447052002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9637775421143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3611755371094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1559753417969</t>
   </si>
   <si>
     <t xml:space="preserve">17.7859935760498</t>
@@ -2453,25 +2453,25 @@
     <t xml:space="preserve">18.0089244842529</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4063205718994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.113883972168</t>
+    <t xml:space="preserve">18.406322479248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1138858795166</t>
   </si>
   <si>
     <t xml:space="preserve">18.416015625</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4935569763184</t>
+    <t xml:space="preserve">18.4935550689697</t>
   </si>
   <si>
     <t xml:space="preserve">18.3869361877441</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1446189880371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6406059265137</t>
+    <t xml:space="preserve">18.1446208953857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.640604019165</t>
   </si>
   <si>
     <t xml:space="preserve">17.6696815490723</t>
@@ -2489,31 +2489,31 @@
     <t xml:space="preserve">18.7067947387695</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7213344573975</t>
+    <t xml:space="preserve">18.7213325500488</t>
   </si>
   <si>
     <t xml:space="preserve">19.0460357666016</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2221622467041</t>
+    <t xml:space="preserve">18.2221603393555</t>
   </si>
   <si>
     <t xml:space="preserve">21.1784191131592</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5597457885742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1284275054932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3060779571533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.548397064209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2866954803467</t>
+    <t xml:space="preserve">19.5597476959229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1284255981445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3060817718506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5483951568604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.286693572998</t>
   </si>
   <si>
     <t xml:space="preserve">20.2673091888428</t>
@@ -2528,13 +2528,13 @@
     <t xml:space="preserve">22.089527130127</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7018203735352</t>
+    <t xml:space="preserve">21.7018184661865</t>
   </si>
   <si>
     <t xml:space="preserve">22.6710834503174</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1186027526855</t>
+    <t xml:space="preserve">22.1186046600342</t>
   </si>
   <si>
     <t xml:space="preserve">21.3334999084473</t>
@@ -2546,22 +2546,22 @@
     <t xml:space="preserve">22.186450958252</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2656517028809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3221473693848</t>
+    <t xml:space="preserve">21.2656536102295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.322151184082</t>
   </si>
   <si>
     <t xml:space="preserve">21.9829063415527</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3786468505859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4852657318115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6129264831543</t>
+    <t xml:space="preserve">23.3786487579346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4852638244629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6129283905029</t>
   </si>
   <si>
     <t xml:space="preserve">23.853588104248</t>
@@ -2579,13 +2579,13 @@
     <t xml:space="preserve">24.1734428405762</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7081966400146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.029712677002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9715557098389</t>
+    <t xml:space="preserve">23.708194732666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0297107696533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9715576171875</t>
   </si>
   <si>
     <t xml:space="preserve">22.2155303955078</t>
@@ -2594,10 +2594,10 @@
     <t xml:space="preserve">22.3996906280518</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0394058227539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2817211151123</t>
+    <t xml:space="preserve">23.0394039154053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2817192077637</t>
   </si>
   <si>
     <t xml:space="preserve">23.6500415802002</t>
@@ -2606,7 +2606,7 @@
     <t xml:space="preserve">23.02001953125</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0490989685059</t>
+    <t xml:space="preserve">23.0490970611572</t>
   </si>
   <si>
     <t xml:space="preserve">23.4949588775635</t>
@@ -2615,37 +2615,37 @@
     <t xml:space="preserve">23.8148136138916</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7583198547363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7970886230469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9812488555908</t>
+    <t xml:space="preserve">22.7583160400391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7970905303955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9812469482422</t>
   </si>
   <si>
     <t xml:space="preserve">23.0781745910645</t>
   </si>
   <si>
-    <t xml:space="preserve">23.620964050293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5918827056885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8923568725586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0959033966064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1928272247314</t>
+    <t xml:space="preserve">23.6209659576416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5918846130371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.89235496521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0959014892578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1928291320801</t>
   </si>
   <si>
     <t xml:space="preserve">24.0668239593506</t>
   </si>
   <si>
-    <t xml:space="preserve">24.1152858734131</t>
+    <t xml:space="preserve">24.1152877807617</t>
   </si>
   <si>
     <t xml:space="preserve">24.5223789215088</t>
@@ -2663,13 +2663,13 @@
     <t xml:space="preserve">25.4431800842285</t>
   </si>
   <si>
-    <t xml:space="preserve">25.4334869384766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1233234405518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5110282897949</t>
+    <t xml:space="preserve">25.4334850311279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1233215332031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5110263824463</t>
   </si>
   <si>
     <t xml:space="preserve">26.9552307128906</t>
@@ -2678,7 +2678,7 @@
     <t xml:space="preserve">26.9067687988281</t>
   </si>
   <si>
-    <t xml:space="preserve">28.0601902008057</t>
+    <t xml:space="preserve">28.0601940155029</t>
   </si>
   <si>
     <t xml:space="preserve">28.6514415740967</t>
@@ -2687,7 +2687,7 @@
     <t xml:space="preserve">27.9148006439209</t>
   </si>
   <si>
-    <t xml:space="preserve">28.0020351409912</t>
+    <t xml:space="preserve">28.0020332336426</t>
   </si>
   <si>
     <t xml:space="preserve">27.5658683776855</t>
@@ -2699,19 +2699,19 @@
     <t xml:space="preserve">27.4204788208008</t>
   </si>
   <si>
-    <t xml:space="preserve">27.4398612976074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.78879737854</t>
+    <t xml:space="preserve">27.4398632049561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.7887992858887</t>
   </si>
   <si>
     <t xml:space="preserve">27.633716583252</t>
   </si>
   <si>
-    <t xml:space="preserve">27.4592475891113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.6918716430664</t>
+    <t xml:space="preserve">27.45924949646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.6918697357178</t>
   </si>
   <si>
     <t xml:space="preserve">26.9649238586426</t>
@@ -2723,7 +2723,7 @@
     <t xml:space="preserve">27.1103134155273</t>
   </si>
   <si>
-    <t xml:space="preserve">26.8970756530762</t>
+    <t xml:space="preserve">26.8970737457275</t>
   </si>
   <si>
     <t xml:space="preserve">26.8486137390137</t>
@@ -2735,79 +2735,79 @@
     <t xml:space="preserve">26.9358463287354</t>
   </si>
   <si>
-    <t xml:space="preserve">26.6547565460205</t>
+    <t xml:space="preserve">26.6547584533691</t>
   </si>
   <si>
     <t xml:space="preserve">26.8583030700684</t>
   </si>
   <si>
-    <t xml:space="preserve">28.0117301940918</t>
+    <t xml:space="preserve">28.0117282867432</t>
   </si>
   <si>
     <t xml:space="preserve">27.0715446472168</t>
   </si>
   <si>
-    <t xml:space="preserve">27.1587753295898</t>
+    <t xml:space="preserve">27.1587772369385</t>
   </si>
   <si>
     <t xml:space="preserve">27.798490524292</t>
   </si>
   <si>
-    <t xml:space="preserve">27.8566474914551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.6029796600342</t>
+    <t xml:space="preserve">27.8566455841064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.6029777526855</t>
   </si>
   <si>
     <t xml:space="preserve">28.7774486541748</t>
   </si>
   <si>
-    <t xml:space="preserve">28.9325294494629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4268531799316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.2233066558838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.1263828277588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.9923419952393</t>
+    <t xml:space="preserve">28.9325313568115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4268550872803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.2233085632324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.1263809204102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9923439025879</t>
   </si>
   <si>
     <t xml:space="preserve">28.0698833465576</t>
   </si>
   <si>
-    <t xml:space="preserve">27.8857250213623</t>
+    <t xml:space="preserve">27.8857231140137</t>
   </si>
   <si>
     <t xml:space="preserve">28.0989627838135</t>
   </si>
   <si>
-    <t xml:space="preserve">29.824254989624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.4155044555664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6110134124756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.9211769104004</t>
+    <t xml:space="preserve">29.8242511749268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.4155025482178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6110153198242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.9211807250977</t>
   </si>
   <si>
     <t xml:space="preserve">30.279806137085</t>
   </si>
   <si>
-    <t xml:space="preserve">30.4736595153809</t>
+    <t xml:space="preserve">30.4736576080322</t>
   </si>
   <si>
     <t xml:space="preserve">29.6013221740723</t>
   </si>
   <si>
-    <t xml:space="preserve">29.7660942077637</t>
+    <t xml:space="preserve">29.7660961151123</t>
   </si>
   <si>
     <t xml:space="preserve">30.2507266998291</t>
@@ -2822,7 +2822,7 @@
     <t xml:space="preserve">31.2103004455566</t>
   </si>
   <si>
-    <t xml:space="preserve">30.9970626831055</t>
+    <t xml:space="preserve">30.9970607757568</t>
   </si>
   <si>
     <t xml:space="preserve">31.3847675323486</t>
@@ -2831,19 +2831,19 @@
     <t xml:space="preserve">31.2006053924561</t>
   </si>
   <si>
-    <t xml:space="preserve">31.394458770752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.1812191009521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.1424541473389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2781467437744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.938907623291</t>
+    <t xml:space="preserve">31.3944606781006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.1812210083008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.1424503326416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.278148651123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.9389038085938</t>
   </si>
   <si>
     <t xml:space="preserve">31.0164470672607</t>
@@ -2855,7 +2855,7 @@
     <t xml:space="preserve">29.6497840881348</t>
   </si>
   <si>
-    <t xml:space="preserve">31.3653812408447</t>
+    <t xml:space="preserve">31.3653831481934</t>
   </si>
   <si>
     <t xml:space="preserve">32.470344543457</t>
@@ -2867,7 +2867,7 @@
     <t xml:space="preserve">34.1568641662598</t>
   </si>
   <si>
-    <t xml:space="preserve">33.8079299926758</t>
+    <t xml:space="preserve">33.8079261779785</t>
   </si>
   <si>
     <t xml:space="preserve">32.9549751281738</t>
@@ -2879,13 +2879,13 @@
     <t xml:space="preserve">34.0599327087402</t>
   </si>
   <si>
-    <t xml:space="preserve">34.6414985656738</t>
+    <t xml:space="preserve">34.6414909362793</t>
   </si>
   <si>
     <t xml:space="preserve">33.9339294433594</t>
   </si>
   <si>
-    <t xml:space="preserve">34.9613494873047</t>
+    <t xml:space="preserve">34.961353302002</t>
   </si>
   <si>
     <t xml:space="preserve">34.3216361999512</t>
@@ -2894,25 +2894,25 @@
     <t xml:space="preserve">34.4379463195801</t>
   </si>
   <si>
-    <t xml:space="preserve">33.1488265991211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.158519744873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.3426818847656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9857120513916</t>
+    <t xml:space="preserve">33.1488304138184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1585159301758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.3426780700684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9857082366943</t>
   </si>
   <si>
     <t xml:space="preserve">32.082633972168</t>
   </si>
   <si>
-    <t xml:space="preserve">32.4509582519531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.2263717651367</t>
+    <t xml:space="preserve">32.4509544372559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.2263679504395</t>
   </si>
   <si>
     <t xml:space="preserve">32.5381889343262</t>
@@ -2921,40 +2921,40 @@
     <t xml:space="preserve">31.7240085601807</t>
   </si>
   <si>
-    <t xml:space="preserve">31.3459968566895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.4816913604736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5980072021484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3363056182861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.54953956604</t>
+    <t xml:space="preserve">31.3459987640381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4816951751709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5980033874512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3363075256348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5495414733887</t>
   </si>
   <si>
     <t xml:space="preserve">32.0923309326172</t>
   </si>
   <si>
-    <t xml:space="preserve">32.5769653320312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.8306274414062</t>
+    <t xml:space="preserve">32.576961517334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8306293487549</t>
   </si>
   <si>
     <t xml:space="preserve">32.6351127624512</t>
   </si>
   <si>
-    <t xml:space="preserve">32.4218788146973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.9065132141113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.1698722839355</t>
+    <t xml:space="preserve">32.4218826293945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.9065170288086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.169864654541</t>
   </si>
   <si>
     <t xml:space="preserve">32.6932716369629</t>
@@ -2963,10 +2963,10 @@
     <t xml:space="preserve">32.218334197998</t>
   </si>
   <si>
-    <t xml:space="preserve">32.7611236572266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.9937477111816</t>
+    <t xml:space="preserve">32.7611198425293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.9937438964844</t>
   </si>
   <si>
     <t xml:space="preserve">32.8968162536621</t>
@@ -2978,28 +2978,28 @@
     <t xml:space="preserve">32.0050964355469</t>
   </si>
   <si>
-    <t xml:space="preserve">31.6755447387695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.7998924255371</t>
+    <t xml:space="preserve">31.6755466461182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.7998962402344</t>
   </si>
   <si>
     <t xml:space="preserve">32.6448135375977</t>
   </si>
   <si>
-    <t xml:space="preserve">32.5866546630859</t>
+    <t xml:space="preserve">32.5866508483887</t>
   </si>
   <si>
     <t xml:space="preserve">32.8677406311035</t>
   </si>
   <si>
-    <t xml:space="preserve">33.1100578308105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1391334533691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.2942199707031</t>
+    <t xml:space="preserve">33.1100540161133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1391372680664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.2942161560059</t>
   </si>
   <si>
     <t xml:space="preserve">33.0712852478027</t>
@@ -3014,13 +3014,13 @@
     <t xml:space="preserve">32.5188064575195</t>
   </si>
   <si>
-    <t xml:space="preserve">33.0519027709961</t>
+    <t xml:space="preserve">33.0518989562988</t>
   </si>
   <si>
     <t xml:space="preserve">32.8095817565918</t>
   </si>
   <si>
-    <t xml:space="preserve">32.4024963378906</t>
+    <t xml:space="preserve">32.4024925231934</t>
   </si>
   <si>
     <t xml:space="preserve">33.5365333557129</t>
@@ -3029,7 +3029,7 @@
     <t xml:space="preserve">34.3022499084473</t>
   </si>
   <si>
-    <t xml:space="preserve">35.1164321899414</t>
+    <t xml:space="preserve">35.1164360046387</t>
   </si>
   <si>
     <t xml:space="preserve">35.0001220703125</t>
@@ -3038,7 +3038,7 @@
     <t xml:space="preserve">35.4653663635254</t>
   </si>
   <si>
-    <t xml:space="preserve">35.4072074890137</t>
+    <t xml:space="preserve">35.4072113037109</t>
   </si>
   <si>
     <t xml:space="preserve">35.5235252380371</t>
@@ -3050,19 +3050,19 @@
     <t xml:space="preserve">36.0856971740723</t>
   </si>
   <si>
-    <t xml:space="preserve">35.8627700805664</t>
+    <t xml:space="preserve">35.8627624511719</t>
   </si>
   <si>
     <t xml:space="preserve">34.7674980163574</t>
   </si>
   <si>
-    <t xml:space="preserve">34.4088668823242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.866081237793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.8176231384277</t>
+    <t xml:space="preserve">34.4088706970215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.8660850524902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.8176193237305</t>
   </si>
   <si>
     <t xml:space="preserve">32.2571029663086</t>
@@ -3080,7 +3080,7 @@
     <t xml:space="preserve">30.4251956939697</t>
   </si>
   <si>
-    <t xml:space="preserve">29.9308700561523</t>
+    <t xml:space="preserve">29.930871963501</t>
   </si>
   <si>
     <t xml:space="preserve">29.1166896820068</t>
@@ -3095,25 +3095,25 @@
     <t xml:space="preserve">31.1036815643311</t>
   </si>
   <si>
-    <t xml:space="preserve">31.9469432830811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.9776744842529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.1909122467041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5883159637451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0067539215088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.9793357849121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5996627807617</t>
+    <t xml:space="preserve">31.9469375610352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.9776763916016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.1909141540527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5883121490479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0067520141602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.9793338775635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5996646881104</t>
   </si>
   <si>
     <t xml:space="preserve">32.1407928466797</t>
@@ -3122,10 +3122,10 @@
     <t xml:space="preserve">30.861364364624</t>
   </si>
   <si>
-    <t xml:space="preserve">31.2296867370605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.1230640411377</t>
+    <t xml:space="preserve">31.2296848297119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.1230659484863</t>
   </si>
   <si>
     <t xml:space="preserve">30.7644386291504</t>
@@ -3134,7 +3134,7 @@
     <t xml:space="preserve">31.4041538238525</t>
   </si>
   <si>
-    <t xml:space="preserve">31.7433948516846</t>
+    <t xml:space="preserve">31.7433929443359</t>
   </si>
   <si>
     <t xml:space="preserve">31.4235363006592</t>
@@ -3143,10 +3143,10 @@
     <t xml:space="preserve">32.0535583496094</t>
   </si>
   <si>
-    <t xml:space="preserve">31.8112468719482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.0017776489258</t>
+    <t xml:space="preserve">31.8112392425537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.0017852783203</t>
   </si>
   <si>
     <t xml:space="preserve">33.4299163818359</t>
@@ -3155,13 +3155,13 @@
     <t xml:space="preserve">34.3797950744629</t>
   </si>
   <si>
-    <t xml:space="preserve">34.1374778747559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.1277809143066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.6899604797363</t>
+    <t xml:space="preserve">34.1374816894531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.1277847290039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.6899566650391</t>
   </si>
   <si>
     <t xml:space="preserve">34.7287292480469</t>
@@ -3173,19 +3173,19 @@
     <t xml:space="preserve">35.3490562438965</t>
   </si>
   <si>
-    <t xml:space="preserve">34.8159599304199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.6043815612793</t>
+    <t xml:space="preserve">34.8159561157227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.604377746582</t>
   </si>
   <si>
     <t xml:space="preserve">34.0502471923828</t>
   </si>
   <si>
-    <t xml:space="preserve">34.3119430541992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.7303848266602</t>
+    <t xml:space="preserve">34.3119506835938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.7303886413574</t>
   </si>
   <si>
     <t xml:space="preserve">34.602725982666</t>
@@ -3194,37 +3194,37 @@
     <t xml:space="preserve">34.0793228149414</t>
   </si>
   <si>
-    <t xml:space="preserve">32.7514343261719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3831062316895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3637199401855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.5672645568848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.4396095275879</t>
+    <t xml:space="preserve">32.7514305114746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.383113861084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3637237548828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.567268371582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.4396057128906</t>
   </si>
   <si>
     <t xml:space="preserve">33.6334609985352</t>
   </si>
   <si>
-    <t xml:space="preserve">35.3199806213379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.4218978881836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.2020225524902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.4999084472656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.3190422058105</t>
+    <t xml:space="preserve">35.3199768066406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.4219017028809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.202018737793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.4999122619629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.3190383911133</t>
   </si>
   <si>
     <t xml:space="preserve">37.6310882568359</t>
@@ -3233,7 +3233,7 @@
     <t xml:space="preserve">37.9821395874023</t>
   </si>
   <si>
-    <t xml:space="preserve">37.6798400878906</t>
+    <t xml:space="preserve">37.6798439025879</t>
   </si>
   <si>
     <t xml:space="preserve">37.5725746154785</t>
@@ -3245,22 +3245,22 @@
     <t xml:space="preserve">38.8110198974609</t>
   </si>
   <si>
-    <t xml:space="preserve">38.3331985473633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.4502105712891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.5867309570312</t>
+    <t xml:space="preserve">38.333194732666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.4502143859863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.5867347717285</t>
   </si>
   <si>
     <t xml:space="preserve">39.8349266052246</t>
   </si>
   <si>
-    <t xml:space="preserve">39.1913299560547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.2205810546875</t>
+    <t xml:space="preserve">39.1913261413574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.2205848693848</t>
   </si>
   <si>
     <t xml:space="preserve">39.9324417114258</t>
@@ -3287,10 +3287,10 @@
     <t xml:space="preserve">40.3420066833496</t>
   </si>
   <si>
-    <t xml:space="preserve">41.1026268005371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.6053009033203</t>
+    <t xml:space="preserve">41.1026229858398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.605297088623</t>
   </si>
   <si>
     <t xml:space="preserve">40.4005165100098</t>
@@ -3305,7 +3305,7 @@
     <t xml:space="preserve">40.3517608642578</t>
   </si>
   <si>
-    <t xml:space="preserve">40.5955505371094</t>
+    <t xml:space="preserve">40.5955467224121</t>
   </si>
   <si>
     <t xml:space="preserve">39.6594009399414</t>
@@ -3314,16 +3314,16 @@
     <t xml:space="preserve">37.1240081787109</t>
   </si>
   <si>
-    <t xml:space="preserve">38.1284103393555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.1186599731445</t>
+    <t xml:space="preserve">38.1284141540527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.1186637878418</t>
   </si>
   <si>
     <t xml:space="preserve">38.9475402832031</t>
   </si>
   <si>
-    <t xml:space="preserve">39.5618858337402</t>
+    <t xml:space="preserve">39.561882019043</t>
   </si>
   <si>
     <t xml:space="preserve">39.7471618652344</t>
@@ -3338,7 +3338,7 @@
     <t xml:space="preserve">39.7666664123535</t>
   </si>
   <si>
-    <t xml:space="preserve">39.4351196289062</t>
+    <t xml:space="preserve">39.435115814209</t>
   </si>
   <si>
     <t xml:space="preserve">40.0202102661133</t>
@@ -3371,10 +3371,10 @@
     <t xml:space="preserve">40.8685874938965</t>
   </si>
   <si>
-    <t xml:space="preserve">41.0538673400879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.6292037963867</t>
+    <t xml:space="preserve">41.0538635253906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.6291999816895</t>
   </si>
   <si>
     <t xml:space="preserve">41.7559776306152</t>
@@ -3386,7 +3386,7 @@
     <t xml:space="preserve">41.8437423706055</t>
   </si>
   <si>
-    <t xml:space="preserve">41.8534889221191</t>
+    <t xml:space="preserve">41.8534927368164</t>
   </si>
   <si>
     <t xml:space="preserve">42.1850395202637</t>
@@ -3404,19 +3404,19 @@
     <t xml:space="preserve">42.6628684997559</t>
   </si>
   <si>
-    <t xml:space="preserve">42.3898239135742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.5946083068848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.1016845703125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.1796989440918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.306468963623</t>
+    <t xml:space="preserve">42.3898277282715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.5946044921875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.1016883850098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.1796951293945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.3064651489258</t>
   </si>
   <si>
     <t xml:space="preserve">43.6282691955566</t>
@@ -3437,40 +3437,40 @@
     <t xml:space="preserve">42.1557884216309</t>
   </si>
   <si>
-    <t xml:space="preserve">42.0777816772461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.3127517700195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.6194534301758</t>
+    <t xml:space="preserve">42.0777778625488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.3127555847168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.619457244873</t>
   </si>
   <si>
     <t xml:space="preserve">40.6150512695312</t>
   </si>
   <si>
-    <t xml:space="preserve">41.4439277648926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.6779632568359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.7160339355469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.8135452270508</t>
+    <t xml:space="preserve">41.4439315795898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.6779670715332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.7160301208496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.8135414123535</t>
   </si>
   <si>
     <t xml:space="preserve">44.9739761352539</t>
   </si>
   <si>
-    <t xml:space="preserve">43.8623008728027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.5750999450684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.3810119628906</t>
+    <t xml:space="preserve">43.8623046875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.5751037597656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.3810157775879</t>
   </si>
   <si>
     <t xml:space="preserve">40.8783378601074</t>
@@ -3485,7 +3485,7 @@
     <t xml:space="preserve">40.1079711914062</t>
   </si>
   <si>
-    <t xml:space="preserve">40.2737464904785</t>
+    <t xml:space="preserve">40.2737426757812</t>
   </si>
   <si>
     <t xml:space="preserve">40.7028121948242</t>
@@ -3494,7 +3494,7 @@
     <t xml:space="preserve">39.5911407470703</t>
   </si>
   <si>
-    <t xml:space="preserve">39.6496505737305</t>
+    <t xml:space="preserve">39.6496467590332</t>
   </si>
   <si>
     <t xml:space="preserve">40.5077819824219</t>
@@ -3527,40 +3527,40 @@
     <t xml:space="preserve">43.0139236450195</t>
   </si>
   <si>
-    <t xml:space="preserve">43.0334205627441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.6477699279785</t>
+    <t xml:space="preserve">43.0334243774414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.6477661132812</t>
   </si>
   <si>
     <t xml:space="preserve">44.622917175293</t>
   </si>
   <si>
-    <t xml:space="preserve">44.5156517028809</t>
+    <t xml:space="preserve">44.5156593322754</t>
   </si>
   <si>
     <t xml:space="preserve">45.3835372924805</t>
   </si>
   <si>
-    <t xml:space="preserve">44.9252166748047</t>
+    <t xml:space="preserve">44.925220489502</t>
   </si>
   <si>
     <t xml:space="preserve">44.3791313171387</t>
   </si>
   <si>
-    <t xml:space="preserve">44.6619300842285</t>
+    <t xml:space="preserve">44.661922454834</t>
   </si>
   <si>
     <t xml:space="preserve">44.8667068481445</t>
   </si>
   <si>
-    <t xml:space="preserve">44.0865898132324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.887149810791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.5014953613281</t>
+    <t xml:space="preserve">44.0865859985352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.8871536254883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.5014991760254</t>
   </si>
   <si>
     <t xml:space="preserve">43.442985534668</t>
@@ -3569,22 +3569,22 @@
     <t xml:space="preserve">41.2879028320312</t>
   </si>
   <si>
-    <t xml:space="preserve">42.224048614502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.1513786315918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.6974678039551</t>
+    <t xml:space="preserve">42.2240447998047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.1513862609863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.6974639892578</t>
   </si>
   <si>
     <t xml:space="preserve">42.0485191345215</t>
   </si>
   <si>
-    <t xml:space="preserve">42.0387687683105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.7320709228516</t>
+    <t xml:space="preserve">42.0387725830078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.7320671081543</t>
   </si>
   <si>
     <t xml:space="preserve">40.7613220214844</t>
@@ -3593,13 +3593,13 @@
     <t xml:space="preserve">41.8827476501465</t>
   </si>
   <si>
-    <t xml:space="preserve">40.7808265686035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.7418174743652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.9173469543457</t>
+    <t xml:space="preserve">40.7808227539062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.741813659668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.9173431396484</t>
   </si>
   <si>
     <t xml:space="preserve">41.707218170166</t>
@@ -3614,7 +3614,7 @@
     <t xml:space="preserve">42.9846687316895</t>
   </si>
   <si>
-    <t xml:space="preserve">43.0041694641113</t>
+    <t xml:space="preserve">43.0041656494141</t>
   </si>
   <si>
     <t xml:space="preserve">43.1991996765137</t>
@@ -3629,10 +3629,10 @@
     <t xml:space="preserve">45.081241607666</t>
   </si>
   <si>
-    <t xml:space="preserve">45.7443428039551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.0466423034668</t>
+    <t xml:space="preserve">45.7443466186523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.0466461181641</t>
   </si>
   <si>
     <t xml:space="preserve">46.2709274291992</t>
@@ -3641,7 +3641,7 @@
     <t xml:space="preserve">45.4810523986816</t>
   </si>
   <si>
-    <t xml:space="preserve">44.5449104309082</t>
+    <t xml:space="preserve">44.5449066162109</t>
   </si>
   <si>
     <t xml:space="preserve">44.7106819152832</t>
@@ -3653,10 +3653,10 @@
     <t xml:space="preserve">42.4970932006836</t>
   </si>
   <si>
-    <t xml:space="preserve">40.6247978210449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.8544273376465</t>
+    <t xml:space="preserve">40.6248016357422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.8544311523438</t>
   </si>
   <si>
     <t xml:space="preserve">39.513126373291</t>
@@ -3677,7 +3677,7 @@
     <t xml:space="preserve">35.037181854248</t>
   </si>
   <si>
-    <t xml:space="preserve">35.5247611999512</t>
+    <t xml:space="preserve">35.5247573852539</t>
   </si>
   <si>
     <t xml:space="preserve">35.5637664794922</t>
@@ -3698,7 +3698,7 @@
     <t xml:space="preserve">36.0903434753418</t>
   </si>
   <si>
-    <t xml:space="preserve">35.4077415466309</t>
+    <t xml:space="preserve">35.4077453613281</t>
   </si>
   <si>
     <t xml:space="preserve">35.1737060546875</t>
@@ -3710,25 +3710,25 @@
     <t xml:space="preserve">35.6417770385742</t>
   </si>
   <si>
-    <t xml:space="preserve">35.2907218933105</t>
+    <t xml:space="preserve">35.2907257080078</t>
   </si>
   <si>
     <t xml:space="preserve">34.4715957641602</t>
   </si>
   <si>
-    <t xml:space="preserve">33.8767547607422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.2614707946777</t>
+    <t xml:space="preserve">33.8767585754395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.2614669799805</t>
   </si>
   <si>
     <t xml:space="preserve">34.7836418151855</t>
   </si>
   <si>
-    <t xml:space="preserve">34.793399810791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.6568794250488</t>
+    <t xml:space="preserve">34.7933959960938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.6568756103516</t>
   </si>
   <si>
     <t xml:space="preserve">34.2765693664551</t>
@@ -3743,19 +3743,19 @@
     <t xml:space="preserve">35.7782974243164</t>
   </si>
   <si>
-    <t xml:space="preserve">36.4706573486328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.4945678710938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.0167427062988</t>
+    <t xml:space="preserve">36.4706611633301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.4945640563965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.0167388916016</t>
   </si>
   <si>
     <t xml:space="preserve">36.9972381591797</t>
   </si>
   <si>
-    <t xml:space="preserve">36.6656875610352</t>
+    <t xml:space="preserve">36.6656837463379</t>
   </si>
   <si>
     <t xml:space="preserve">35.3004760742188</t>
@@ -3764,16 +3764,16 @@
     <t xml:space="preserve">34.0912857055664</t>
   </si>
   <si>
-    <t xml:space="preserve">36.178108215332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.2083053588867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.9494209289551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.6612815856934</t>
+    <t xml:space="preserve">36.1781120300293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.208309173584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.9494171142578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.6612777709961</t>
   </si>
   <si>
     <t xml:space="preserve">35.4467468261719</t>
@@ -3782,7 +3782,7 @@
     <t xml:space="preserve">36.8119583129883</t>
   </si>
   <si>
-    <t xml:space="preserve">36.8607177734375</t>
+    <t xml:space="preserve">36.8607139587402</t>
   </si>
   <si>
     <t xml:space="preserve">36.5194129943848</t>
@@ -3794,7 +3794,7 @@
     <t xml:space="preserve">35.6222724914551</t>
   </si>
   <si>
-    <t xml:space="preserve">36.2951316833496</t>
+    <t xml:space="preserve">36.2951278686523</t>
   </si>
   <si>
     <t xml:space="preserve">36.7534484863281</t>
@@ -3806,10 +3806,10 @@
     <t xml:space="preserve">39.6008911132812</t>
   </si>
   <si>
-    <t xml:space="preserve">39.5326309204102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.8393325805664</t>
+    <t xml:space="preserve">39.5326347351074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.8393363952637</t>
   </si>
   <si>
     <t xml:space="preserve">41.9119987487793</t>
@@ -3818,16 +3818,16 @@
     <t xml:space="preserve">41.5024375915527</t>
   </si>
   <si>
-    <t xml:space="preserve">41.2976570129395</t>
+    <t xml:space="preserve">41.2976531982422</t>
   </si>
   <si>
     <t xml:space="preserve">40.4297714233398</t>
   </si>
   <si>
-    <t xml:space="preserve">39.2108268737793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.0104560852051</t>
+    <t xml:space="preserve">39.2108306884766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.0104522705078</t>
   </si>
   <si>
     <t xml:space="preserve">39.8056716918945</t>
@@ -3839,43 +3839,43 @@
     <t xml:space="preserve">38.5477294921875</t>
   </si>
   <si>
-    <t xml:space="preserve">37.3580436706543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.192268371582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.8802185058594</t>
+    <t xml:space="preserve">37.3580474853516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.1922721862793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.8802223205566</t>
   </si>
   <si>
     <t xml:space="preserve">35.983081817627</t>
   </si>
   <si>
-    <t xml:space="preserve">36.7924575805664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.2702789306641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.6754417419434</t>
+    <t xml:space="preserve">36.7924537658691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.2702827453613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.6754379272461</t>
   </si>
   <si>
     <t xml:space="preserve">36.2561225891113</t>
   </si>
   <si>
-    <t xml:space="preserve">35.8465614318848</t>
+    <t xml:space="preserve">35.8465538024902</t>
   </si>
   <si>
     <t xml:space="preserve">34.5788612365723</t>
   </si>
   <si>
-    <t xml:space="preserve">32.7553291320801</t>
+    <t xml:space="preserve">32.7553329467773</t>
   </si>
   <si>
     <t xml:space="preserve">33.4769439697266</t>
   </si>
   <si>
-    <t xml:space="preserve">33.4671897888184</t>
+    <t xml:space="preserve">33.4671936035156</t>
   </si>
   <si>
     <t xml:space="preserve">31.5168876647949</t>
@@ -3890,7 +3890,7 @@
     <t xml:space="preserve">33.4574394226074</t>
   </si>
   <si>
-    <t xml:space="preserve">31.7411708831787</t>
+    <t xml:space="preserve">31.7411727905273</t>
   </si>
   <si>
     <t xml:space="preserve">30.7952766418457</t>
@@ -3899,7 +3899,7 @@
     <t xml:space="preserve">31.1365795135498</t>
   </si>
   <si>
-    <t xml:space="preserve">31.6773166656494</t>
+    <t xml:space="preserve">31.677318572998</t>
   </si>
   <si>
     <t xml:space="preserve">31.4708518981934</t>
@@ -3908,10 +3908,10 @@
     <t xml:space="preserve">31.4118633270264</t>
   </si>
   <si>
-    <t xml:space="preserve">31.7166423797607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.8247871398926</t>
+    <t xml:space="preserve">31.7166404724121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8247890472412</t>
   </si>
   <si>
     <t xml:space="preserve">32.1688957214355</t>
@@ -3938,7 +3938,7 @@
     <t xml:space="preserve">30.2320747375488</t>
   </si>
   <si>
-    <t xml:space="preserve">28.7180137634277</t>
+    <t xml:space="preserve">28.7180118560791</t>
   </si>
   <si>
     <t xml:space="preserve">26.6533851623535</t>
@@ -3950,7 +3950,7 @@
     <t xml:space="preserve">26.7025413513184</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7783756256104</t>
+    <t xml:space="preserve">25.7783737182617</t>
   </si>
   <si>
     <t xml:space="preserve">25.857027053833</t>
@@ -3968,19 +3968,19 @@
     <t xml:space="preserve">28.3542461395264</t>
   </si>
   <si>
-    <t xml:space="preserve">29.29807472229</t>
+    <t xml:space="preserve">29.2980766296387</t>
   </si>
   <si>
     <t xml:space="preserve">29.3668975830078</t>
   </si>
   <si>
-    <t xml:space="preserve">28.7770023345947</t>
+    <t xml:space="preserve">28.7770042419434</t>
   </si>
   <si>
     <t xml:space="preserve">28.6786880493164</t>
   </si>
   <si>
-    <t xml:space="preserve">28.7573394775391</t>
+    <t xml:space="preserve">28.7573413848877</t>
   </si>
   <si>
     <t xml:space="preserve">29.878137588501</t>
@@ -3992,7 +3992,7 @@
     <t xml:space="preserve">31.1955699920654</t>
   </si>
   <si>
-    <t xml:space="preserve">32.0607452392578</t>
+    <t xml:space="preserve">32.0607490539551</t>
   </si>
   <si>
     <t xml:space="preserve">30.664665222168</t>
@@ -4007,7 +4007,7 @@
     <t xml:space="preserve">28.6393604278564</t>
   </si>
   <si>
-    <t xml:space="preserve">28.1674461364746</t>
+    <t xml:space="preserve">28.167444229126</t>
   </si>
   <si>
     <t xml:space="preserve">28.7475090026855</t>
@@ -4016,10 +4016,10 @@
     <t xml:space="preserve">29.3570652008057</t>
   </si>
   <si>
-    <t xml:space="preserve">29.2784118652344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.1435928344727</t>
+    <t xml:space="preserve">29.278413772583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.143590927124</t>
   </si>
   <si>
     <t xml:space="preserve">30.6351699829102</t>
@@ -4034,16 +4034,16 @@
     <t xml:space="preserve">30.8121376037598</t>
   </si>
   <si>
-    <t xml:space="preserve">31.8346214294434</t>
+    <t xml:space="preserve">31.834623336792</t>
   </si>
   <si>
     <t xml:space="preserve">31.6674842834473</t>
   </si>
   <si>
-    <t xml:space="preserve">31.893611907959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.4188747406006</t>
+    <t xml:space="preserve">31.8936100006104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.4188766479492</t>
   </si>
   <si>
     <t xml:space="preserve">31.3332118988037</t>
@@ -4055,10 +4055,10 @@
     <t xml:space="preserve">29.8683071136475</t>
   </si>
   <si>
-    <t xml:space="preserve">30.1829166412354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4258880615234</t>
+    <t xml:space="preserve">30.182918548584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4258861541748</t>
   </si>
   <si>
     <t xml:space="preserve">29.8978023529053</t>
@@ -4067,7 +4067,7 @@
     <t xml:space="preserve">30.2124118804932</t>
   </si>
   <si>
-    <t xml:space="preserve">28.6196975708008</t>
+    <t xml:space="preserve">28.6196994781494</t>
   </si>
   <si>
     <t xml:space="preserve">28.3050880432129</t>
@@ -4076,10 +4076,10 @@
     <t xml:space="preserve">28.2264347076416</t>
   </si>
   <si>
-    <t xml:space="preserve">27.8528366088867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.203950881958</t>
+    <t xml:space="preserve">27.8528347015381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.2039527893066</t>
   </si>
   <si>
     <t xml:space="preserve">27.1744575500488</t>
@@ -4097,7 +4097,7 @@
     <t xml:space="preserve">25.3359546661377</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6112365722656</t>
+    <t xml:space="preserve">25.6112384796143</t>
   </si>
   <si>
     <t xml:space="preserve">25.050838470459</t>
@@ -4118,10 +4118,10 @@
     <t xml:space="preserve">25.4834270477295</t>
   </si>
   <si>
-    <t xml:space="preserve">25.5915756225586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8738708496094</t>
+    <t xml:space="preserve">25.59157371521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8738689422607</t>
   </si>
   <si>
     <t xml:space="preserve">24.6182498931885</t>
@@ -4157,7 +4157,7 @@
     <t xml:space="preserve">25.6702270507812</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4469223022461</t>
+    <t xml:space="preserve">26.4469203948975</t>
   </si>
   <si>
     <t xml:space="preserve">25.95534324646</t>
@@ -4169,7 +4169,7 @@
     <t xml:space="preserve">26.5845642089844</t>
   </si>
   <si>
-    <t xml:space="preserve">26.3191108703613</t>
+    <t xml:space="preserve">26.31911277771</t>
   </si>
   <si>
     <t xml:space="preserve">26.014331817627</t>
@@ -4178,7 +4178,7 @@
     <t xml:space="preserve">25.7095527648926</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9918479919434</t>
+    <t xml:space="preserve">24.991849899292</t>
   </si>
   <si>
     <t xml:space="preserve">24.1954936981201</t>
@@ -4193,13 +4193,13 @@
     <t xml:space="preserve">24.8050479888916</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7292175292969</t>
+    <t xml:space="preserve">25.7292156219482</t>
   </si>
   <si>
     <t xml:space="preserve">25.2081432342529</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4370899200439</t>
+    <t xml:space="preserve">26.4370880126953</t>
   </si>
   <si>
     <t xml:space="preserve">25.7488803863525</t>
@@ -4211,7 +4211,7 @@
     <t xml:space="preserve">25.8078689575195</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7263965606689</t>
+    <t xml:space="preserve">24.7263946533203</t>
   </si>
   <si>
     <t xml:space="preserve">24.1070079803467</t>
@@ -4220,7 +4220,7 @@
     <t xml:space="preserve">24.2643127441406</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7165660858154</t>
+    <t xml:space="preserve">24.7165641784668</t>
   </si>
   <si>
     <t xml:space="preserve">24.667407989502</t>
@@ -4229,7 +4229,7 @@
     <t xml:space="preserve">23.7137451171875</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7657222747803</t>
+    <t xml:space="preserve">24.7657241821289</t>
   </si>
   <si>
     <t xml:space="preserve">26.2011318206787</t>
@@ -4241,7 +4241,7 @@
     <t xml:space="preserve">27.6758670806885</t>
   </si>
   <si>
-    <t xml:space="preserve">28.5607089996338</t>
+    <t xml:space="preserve">28.5607070922852</t>
   </si>
   <si>
     <t xml:space="preserve">28.0887928009033</t>
@@ -4253,10 +4253,10 @@
     <t xml:space="preserve">27.1056365966797</t>
   </si>
   <si>
-    <t xml:space="preserve">27.1646251678467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9188365936279</t>
+    <t xml:space="preserve">27.164623260498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9188346862793</t>
   </si>
   <si>
     <t xml:space="preserve">26.7123737335205</t>
@@ -4268,22 +4268,22 @@
     <t xml:space="preserve">27.2826042175293</t>
   </si>
   <si>
-    <t xml:space="preserve">27.4104137420654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5480556488037</t>
+    <t xml:space="preserve">27.4104156494141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5480575561523</t>
   </si>
   <si>
     <t xml:space="preserve">26.3977642059326</t>
   </si>
   <si>
-    <t xml:space="preserve">27.1842880249023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.0592975616455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.3514270782471</t>
+    <t xml:space="preserve">27.184289932251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.0592994689941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.3514251708984</t>
   </si>
   <si>
     <t xml:space="preserve">26.5452365875244</t>
@@ -4310,13 +4310,13 @@
     <t xml:space="preserve">26.8401832580566</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4862461090088</t>
+    <t xml:space="preserve">26.4862480163574</t>
   </si>
   <si>
     <t xml:space="preserve">26.4567527770996</t>
   </si>
   <si>
-    <t xml:space="preserve">26.27978515625</t>
+    <t xml:space="preserve">26.2797832489014</t>
   </si>
   <si>
     <t xml:space="preserve">26.8500137329102</t>
@@ -4343,16 +4343,16 @@
     <t xml:space="preserve">27.3710880279541</t>
   </si>
   <si>
-    <t xml:space="preserve">26.3682689666748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4960784912109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9974899291992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0368137359619</t>
+    <t xml:space="preserve">26.3682670593262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4960803985596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9974880218506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0368156433105</t>
   </si>
   <si>
     <t xml:space="preserve">26.6337223052979</t>
@@ -4376,25 +4376,25 @@
     <t xml:space="preserve">25.3064594268799</t>
   </si>
   <si>
-    <t xml:space="preserve">25.109827041626</t>
+    <t xml:space="preserve">25.1098289489746</t>
   </si>
   <si>
     <t xml:space="preserve">24.8443756103516</t>
   </si>
   <si>
-    <t xml:space="preserve">28.0199737548828</t>
+    <t xml:space="preserve">28.0199718475342</t>
   </si>
   <si>
     <t xml:space="preserve">27.3317623138428</t>
   </si>
   <si>
-    <t xml:space="preserve">27.5283946990967</t>
+    <t xml:space="preserve">27.528392791748</t>
   </si>
   <si>
     <t xml:space="preserve">26.1519737243652</t>
   </si>
   <si>
-    <t xml:space="preserve">26.879508972168</t>
+    <t xml:space="preserve">26.8795108795166</t>
   </si>
   <si>
     <t xml:space="preserve">27.6856994628906</t>
@@ -4403,10 +4403,10 @@
     <t xml:space="preserve">26.9384994506836</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5943946838379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0171508789062</t>
+    <t xml:space="preserve">26.5943927764893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0171527862549</t>
   </si>
   <si>
     <t xml:space="preserve">26.8991737365723</t>
@@ -4415,7 +4415,7 @@
     <t xml:space="preserve">27.7446880340576</t>
   </si>
   <si>
-    <t xml:space="preserve">29.6126880645752</t>
+    <t xml:space="preserve">29.6126861572266</t>
   </si>
   <si>
     <t xml:space="preserve">28.9736328125</t>
@@ -4430,28 +4430,28 @@
     <t xml:space="preserve">28.6590232849121</t>
   </si>
   <si>
-    <t xml:space="preserve">28.531213760376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4652118682861</t>
+    <t xml:space="preserve">28.5312156677246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4652137756348</t>
   </si>
   <si>
     <t xml:space="preserve">28.855655670166</t>
   </si>
   <si>
-    <t xml:space="preserve">29.3275699615479</t>
+    <t xml:space="preserve">29.3275718688965</t>
   </si>
   <si>
     <t xml:space="preserve">29.6225185394287</t>
   </si>
   <si>
-    <t xml:space="preserve">30.1042652130127</t>
+    <t xml:space="preserve">30.1042671203613</t>
   </si>
   <si>
     <t xml:space="preserve">31.1169166564941</t>
   </si>
   <si>
-    <t xml:space="preserve">31.4020309448242</t>
+    <t xml:space="preserve">31.4020328521729</t>
   </si>
   <si>
     <t xml:space="preserve">31.2938842773438</t>
@@ -4460,7 +4460,7 @@
     <t xml:space="preserve">31.7264728546143</t>
   </si>
   <si>
-    <t xml:space="preserve">31.952600479126</t>
+    <t xml:space="preserve">31.9525985717773</t>
   </si>
   <si>
     <t xml:space="preserve">32.0902404785156</t>
@@ -4475,10 +4475,10 @@
     <t xml:space="preserve">32.1492309570312</t>
   </si>
   <si>
-    <t xml:space="preserve">31.7461357116699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.39501953125</t>
+    <t xml:space="preserve">31.7461395263672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3950233459473</t>
   </si>
   <si>
     <t xml:space="preserve">32.4638404846191</t>
@@ -4499,7 +4499,7 @@
     <t xml:space="preserve">32.8177795410156</t>
   </si>
   <si>
-    <t xml:space="preserve">33.220874786377</t>
+    <t xml:space="preserve">33.2208709716797</t>
   </si>
   <si>
     <t xml:space="preserve">32.7194595336914</t>
@@ -4508,7 +4508,7 @@
     <t xml:space="preserve">32.5621566772461</t>
   </si>
   <si>
-    <t xml:space="preserve">34.8922386169434</t>
+    <t xml:space="preserve">34.8922424316406</t>
   </si>
   <si>
     <t xml:space="preserve">34.2728500366211</t>
@@ -4520,10 +4520,10 @@
     <t xml:space="preserve">35.2461738586426</t>
   </si>
   <si>
-    <t xml:space="preserve">34.8430786132812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.7251052856445</t>
+    <t xml:space="preserve">34.8430824279785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.7251014709473</t>
   </si>
   <si>
     <t xml:space="preserve">35.1871871948242</t>
@@ -4535,7 +4535,7 @@
     <t xml:space="preserve">35.1281967163086</t>
   </si>
   <si>
-    <t xml:space="preserve">34.3318405151367</t>
+    <t xml:space="preserve">34.3318367004395</t>
   </si>
   <si>
     <t xml:space="preserve">33.5354843139648</t>
@@ -61337,7 +61337,7 @@
     </row>
     <row r="2146">
       <c r="A2146" s="1" t="n">
-        <v>45449.6499884259</v>
+        <v>45449.2916666667</v>
       </c>
       <c r="B2146" t="n">
         <v>298688</v>
@@ -61358,6 +61358,32 @@
         <v>1737</v>
       </c>
       <c r="H2146" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2147">
+      <c r="A2147" s="1" t="n">
+        <v>45450.6510416667</v>
+      </c>
+      <c r="B2147" t="n">
+        <v>452746</v>
+      </c>
+      <c r="C2147" t="n">
+        <v>34.0900001525879</v>
+      </c>
+      <c r="D2147" t="n">
+        <v>33.6199989318848</v>
+      </c>
+      <c r="E2147" t="n">
+        <v>33.8800010681152</v>
+      </c>
+      <c r="F2147" t="n">
+        <v>34</v>
+      </c>
+      <c r="G2147" t="s">
+        <v>1736</v>
+      </c>
+      <c r="H2147" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/AMP.MI.xlsx
+++ b/data/AMP.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1738" uniqueCount="1738">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1739" uniqueCount="1739">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,82 +38,82 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">7.44491100311279</t>
+    <t xml:space="preserve">7.44491147994995</t>
   </si>
   <si>
     <t xml:space="preserve">AMP.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">7.501633644104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.42127656936646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47799968719482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.26056098937988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.0667576789856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32673788070679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38818836212158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27001428604126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13766050338745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19438409805298</t>
+    <t xml:space="preserve">7.50163459777832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4212760925293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47800016403198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.26056146621704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06675720214844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32673740386963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38818788528442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27001571655273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13766193389893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19438362121582</t>
   </si>
   <si>
     <t xml:space="preserve">7.30310344696045</t>
   </si>
   <si>
-    <t xml:space="preserve">7.09039115905762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.24165344238281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45436573028564</t>
+    <t xml:space="preserve">7.09039211273193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.24165391921997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45436525344849</t>
   </si>
   <si>
     <t xml:space="preserve">7.34564542770386</t>
   </si>
   <si>
-    <t xml:space="preserve">7.46381855010986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25583505630493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.28892278671265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52054166793823</t>
+    <t xml:space="preserve">7.46381950378418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25583410263062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.28892230987549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52054214477539</t>
   </si>
   <si>
     <t xml:space="preserve">7.39291524887085</t>
   </si>
   <si>
-    <t xml:space="preserve">7.24637985229492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15656900405884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94858360290527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60824489593506</t>
+    <t xml:space="preserve">7.24638080596924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15656852722168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94858407974243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6082444190979</t>
   </si>
   <si>
     <t xml:space="preserve">6.55152177810669</t>
@@ -131,13 +131,13 @@
     <t xml:space="preserve">6.51843357086182</t>
   </si>
   <si>
-    <t xml:space="preserve">6.71696519851685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98639965057373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81150245666504</t>
+    <t xml:space="preserve">6.71696472167969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98639917373657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8115029335022</t>
   </si>
   <si>
     <t xml:space="preserve">6.93912982940674</t>
@@ -146,25 +146,25 @@
     <t xml:space="preserve">6.80204916000366</t>
   </si>
   <si>
-    <t xml:space="preserve">6.72641754150391</t>
+    <t xml:space="preserve">6.72641849517822</t>
   </si>
   <si>
     <t xml:space="preserve">7.09984588623047</t>
   </si>
   <si>
-    <t xml:space="preserve">6.99585247039795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90604162216187</t>
+    <t xml:space="preserve">6.99585342407227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90604114532471</t>
   </si>
   <si>
     <t xml:space="preserve">6.9013147354126</t>
   </si>
   <si>
-    <t xml:space="preserve">6.94385671615601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7595067024231</t>
+    <t xml:space="preserve">6.94385719299316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.75950717926025</t>
   </si>
   <si>
     <t xml:space="preserve">6.73114538192749</t>
@@ -173,43 +173,43 @@
     <t xml:space="preserve">6.89658737182617</t>
   </si>
   <si>
-    <t xml:space="preserve">6.88713359832764</t>
+    <t xml:space="preserve">6.88713407516479</t>
   </si>
   <si>
     <t xml:space="preserve">6.96276473999023</t>
   </si>
   <si>
-    <t xml:space="preserve">7.11402654647827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.21801948547363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18965721130371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31728410720825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.21329212188721</t>
+    <t xml:space="preserve">7.11402606964111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.21801853179932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18965768814087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31728363037109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.21329164505005</t>
   </si>
   <si>
     <t xml:space="preserve">7.14711475372314</t>
   </si>
   <si>
-    <t xml:space="preserve">7.35037326812744</t>
+    <t xml:space="preserve">7.35037279129028</t>
   </si>
   <si>
     <t xml:space="preserve">7.20383787155151</t>
   </si>
   <si>
-    <t xml:space="preserve">7.27946901321411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03839588165283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01948833465576</t>
+    <t xml:space="preserve">7.27946805953979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03839540481567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.0194878578186</t>
   </si>
   <si>
     <t xml:space="preserve">7.10929870605469</t>
@@ -218,10 +218,10 @@
     <t xml:space="preserve">7.37873458862305</t>
   </si>
   <si>
-    <t xml:space="preserve">7.43545722961426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33619260787964</t>
+    <t xml:space="preserve">7.43545770645142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33619213104248</t>
   </si>
   <si>
     <t xml:space="preserve">7.61508083343506</t>
@@ -230,40 +230,40 @@
     <t xml:space="preserve">7.52526950836182</t>
   </si>
   <si>
-    <t xml:space="preserve">7.59617233276367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6907114982605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.667076587677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.84670114517212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71434688568115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75688886642456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81833934783936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85142707824707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00268840789795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00741672515869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9885082244873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90342283248901</t>
+    <t xml:space="preserve">7.59617328643799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69071054458618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66707706451416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8467001914978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71434640884399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75688934326172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8183388710022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85142755508423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00268936157227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00741577148438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98850870132446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90342426300049</t>
   </si>
   <si>
     <t xml:space="preserve">8.06413841247559</t>
@@ -272,64 +272,64 @@
     <t xml:space="preserve">7.99796152114868</t>
   </si>
   <si>
-    <t xml:space="preserve">8.21067523956299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13751697540283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21827411651611</t>
+    <t xml:space="preserve">8.21067333221436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13751602172852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21827507019043</t>
   </si>
   <si>
     <t xml:space="preserve">8.22777462005615</t>
   </si>
   <si>
-    <t xml:space="preserve">8.1707706451416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29428195953369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33703517913818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3607873916626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34653663635254</t>
+    <t xml:space="preserve">8.17077159881592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29428100585938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33703327178955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.36078834533691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34653568267822</t>
   </si>
   <si>
     <t xml:space="preserve">8.28003025054932</t>
   </si>
   <si>
-    <t xml:space="preserve">8.19927310943604</t>
+    <t xml:space="preserve">8.19927215576172</t>
   </si>
   <si>
     <t xml:space="preserve">8.20402336120605</t>
   </si>
   <si>
-    <t xml:space="preserve">8.26577949523926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13276672363281</t>
+    <t xml:space="preserve">8.26577854156494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13276481628418</t>
   </si>
   <si>
     <t xml:space="preserve">8.03300666809082</t>
   </si>
   <si>
-    <t xml:space="preserve">7.93799781799316</t>
+    <t xml:space="preserve">7.93799686431885</t>
   </si>
   <si>
     <t xml:space="preserve">7.75748109817505</t>
   </si>
   <si>
-    <t xml:space="preserve">7.74322891235352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76698112487793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67197179794312</t>
+    <t xml:space="preserve">7.74322938919067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76698160171509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67197227478027</t>
   </si>
   <si>
     <t xml:space="preserve">7.75273084640503</t>
@@ -344,16 +344,16 @@
     <t xml:space="preserve">8.18027114868164</t>
   </si>
   <si>
-    <t xml:space="preserve">7.79073429107666</t>
+    <t xml:space="preserve">7.7907338142395</t>
   </si>
   <si>
     <t xml:space="preserve">7.82873725891113</t>
   </si>
   <si>
-    <t xml:space="preserve">7.83823776245117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99025392532349</t>
+    <t xml:space="preserve">7.83823919296265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99025344848633</t>
   </si>
   <si>
     <t xml:space="preserve">8.0472583770752</t>
@@ -362,10 +362,10 @@
     <t xml:space="preserve">8.00925445556641</t>
   </si>
   <si>
-    <t xml:space="preserve">7.92849826812744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83348846435547</t>
+    <t xml:space="preserve">7.92849731445312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83348798751831</t>
   </si>
   <si>
     <t xml:space="preserve">7.99975347518921</t>
@@ -377,19 +377,19 @@
     <t xml:space="preserve">8.03775691986084</t>
   </si>
   <si>
-    <t xml:space="preserve">8.02825546264648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.17552089691162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30378341674805</t>
+    <t xml:space="preserve">8.02825736999512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1755199432373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30378150939941</t>
   </si>
   <si>
     <t xml:space="preserve">8.28953075408936</t>
   </si>
   <si>
-    <t xml:space="preserve">8.31803417205811</t>
+    <t xml:space="preserve">8.31803321838379</t>
   </si>
   <si>
     <t xml:space="preserve">8.31328296661377</t>
@@ -398,13 +398,13 @@
     <t xml:space="preserve">8.43204402923584</t>
   </si>
   <si>
-    <t xml:space="preserve">8.48904991149902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47479820251465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45579624176025</t>
+    <t xml:space="preserve">8.48904895782471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47479724884033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45579719543457</t>
   </si>
   <si>
     <t xml:space="preserve">8.41779232025146</t>
@@ -416,40 +416,40 @@
     <t xml:space="preserve">8.41304206848145</t>
   </si>
   <si>
-    <t xml:space="preserve">8.49380111694336</t>
+    <t xml:space="preserve">8.49380016326904</t>
   </si>
   <si>
     <t xml:space="preserve">8.63631343841553</t>
   </si>
   <si>
-    <t xml:space="preserve">8.73607349395752</t>
+    <t xml:space="preserve">8.7360725402832</t>
   </si>
   <si>
     <t xml:space="preserve">8.64106464385986</t>
   </si>
   <si>
-    <t xml:space="preserve">8.76457500457764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.88808822631836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.78357696533203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91658973693848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.94034194946289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.05435180664062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97834491729736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.94984340667725</t>
+    <t xml:space="preserve">8.76457691192627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.88808631896973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.78357791900635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91659069061279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.94034290313721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.05435276031494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97834587097168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.94984149932861</t>
   </si>
   <si>
     <t xml:space="preserve">8.878586769104</t>
@@ -461,40 +461,40 @@
     <t xml:space="preserve">8.95459461212158</t>
   </si>
   <si>
-    <t xml:space="preserve">8.86433506011963</t>
+    <t xml:space="preserve">8.86433601379395</t>
   </si>
   <si>
     <t xml:space="preserve">8.90233898162842</t>
   </si>
   <si>
-    <t xml:space="preserve">8.89283847808838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.78832721710205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.72182273864746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.70281887054443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68856906890869</t>
+    <t xml:space="preserve">8.89283752441406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.78832817077637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.72182369232178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.70281982421875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68856811523438</t>
   </si>
   <si>
     <t xml:space="preserve">8.61256122589111</t>
   </si>
   <si>
-    <t xml:space="preserve">8.66956615447998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66006374359131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.79782962799072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62681198120117</t>
+    <t xml:space="preserve">8.66956806182861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66006565093994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.79783058166504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62681293487549</t>
   </si>
   <si>
     <t xml:space="preserve">8.74557399749756</t>
@@ -503,7 +503,7 @@
     <t xml:space="preserve">8.62206172943115</t>
   </si>
   <si>
-    <t xml:space="preserve">8.68381881713867</t>
+    <t xml:space="preserve">8.68381786346436</t>
   </si>
   <si>
     <t xml:space="preserve">8.74082279205322</t>
@@ -512,49 +512,49 @@
     <t xml:space="preserve">8.59356021881104</t>
   </si>
   <si>
-    <t xml:space="preserve">8.65531444549561</t>
+    <t xml:space="preserve">8.65531539916992</t>
   </si>
   <si>
     <t xml:space="preserve">8.69331932067871</t>
   </si>
   <si>
-    <t xml:space="preserve">8.8215799331665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2158670425415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.38688564300537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20636653900146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14936256408691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02584934234619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.07335567474365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.94509315490723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63156318664551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55080509185791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52705478668213</t>
+    <t xml:space="preserve">8.82158088684082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21586799621582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.38688468933105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20636749267578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1493616104126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02585029602051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.07335376739502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.94509124755859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63156414031982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.55080604553223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5270528793335</t>
   </si>
   <si>
     <t xml:space="preserve">8.52230262756348</t>
   </si>
   <si>
-    <t xml:space="preserve">8.71232128143311</t>
+    <t xml:space="preserve">8.71232032775879</t>
   </si>
   <si>
     <t xml:space="preserve">8.47004699707031</t>
@@ -563,10 +563,10 @@
     <t xml:space="preserve">8.58880996704102</t>
   </si>
   <si>
-    <t xml:space="preserve">8.50805187225342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59831047058105</t>
+    <t xml:space="preserve">8.50805282592773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59831142425537</t>
   </si>
   <si>
     <t xml:space="preserve">9.12086009979248</t>
@@ -581,25 +581,25 @@
     <t xml:space="preserve">8.64581489562988</t>
   </si>
   <si>
-    <t xml:space="preserve">8.28478145599365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.43679523468018</t>
+    <t xml:space="preserve">8.28478050231934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.43679618835449</t>
   </si>
   <si>
     <t xml:space="preserve">7.55321168899536</t>
   </si>
   <si>
-    <t xml:space="preserve">8.10426425933838</t>
+    <t xml:space="preserve">8.10426330566406</t>
   </si>
   <si>
     <t xml:space="preserve">8.07575988769531</t>
   </si>
   <si>
-    <t xml:space="preserve">8.51280117034912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53655433654785</t>
+    <t xml:space="preserve">8.51280212402344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53655338287354</t>
   </si>
   <si>
     <t xml:space="preserve">8.57455825805664</t>
@@ -608,10 +608,10 @@
     <t xml:space="preserve">8.60781097412109</t>
   </si>
   <si>
-    <t xml:space="preserve">8.49855136871338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35603713989258</t>
+    <t xml:space="preserve">8.49855041503906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35603809356689</t>
   </si>
   <si>
     <t xml:space="preserve">8.30853271484375</t>
@@ -623,13 +623,13 @@
     <t xml:space="preserve">8.70757102966309</t>
   </si>
   <si>
-    <t xml:space="preserve">8.7788257598877</t>
+    <t xml:space="preserve">8.77882766723633</t>
   </si>
   <si>
     <t xml:space="preserve">8.85483360290527</t>
   </si>
   <si>
-    <t xml:space="preserve">8.80257987976074</t>
+    <t xml:space="preserve">8.80258083343506</t>
   </si>
   <si>
     <t xml:space="preserve">8.87383556365967</t>
@@ -638,22 +638,22 @@
     <t xml:space="preserve">8.84058284759521</t>
   </si>
   <si>
-    <t xml:space="preserve">9.2918758392334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.10185718536377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27762413024902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40588569641113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47714328765869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.54839992523193</t>
+    <t xml:space="preserve">9.29187488555908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.10185623168945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27762508392334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40588665008545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47714233398438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.54839897155762</t>
   </si>
   <si>
     <t xml:space="preserve">9.51989650726318</t>
@@ -662,28 +662,28 @@
     <t xml:space="preserve">9.43438911437988</t>
   </si>
   <si>
-    <t xml:space="preserve">9.50089550018311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.58640289306641</t>
+    <t xml:space="preserve">9.50089454650879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.58640384674072</t>
   </si>
   <si>
     <t xml:space="preserve">9.6244068145752</t>
   </si>
   <si>
-    <t xml:space="preserve">9.57690238952637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.49614429473877</t>
+    <t xml:space="preserve">9.57690143585205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.49614334106445</t>
   </si>
   <si>
     <t xml:space="preserve">9.24912071228027</t>
   </si>
   <si>
-    <t xml:space="preserve">9.24437046051025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.29662704467773</t>
+    <t xml:space="preserve">9.24437236785889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.29662609100342</t>
   </si>
   <si>
     <t xml:space="preserve">9.60540390014648</t>
@@ -695,115 +695,115 @@
     <t xml:space="preserve">10.1089525222778</t>
   </si>
   <si>
-    <t xml:space="preserve">9.97593975067139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0614471435547</t>
+    <t xml:space="preserve">9.97593879699707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.061448097229</t>
   </si>
   <si>
     <t xml:space="preserve">9.78592205047607</t>
   </si>
   <si>
-    <t xml:space="preserve">9.8524284362793</t>
+    <t xml:space="preserve">9.85242938995361</t>
   </si>
   <si>
     <t xml:space="preserve">9.86192893981934</t>
   </si>
   <si>
-    <t xml:space="preserve">9.80492496490479</t>
+    <t xml:space="preserve">9.80492401123047</t>
   </si>
   <si>
     <t xml:space="preserve">9.93793678283691</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1754598617554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1564569473267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3369741439819</t>
+    <t xml:space="preserve">10.1754579544067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1564559936523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3369731903076</t>
   </si>
   <si>
     <t xml:space="preserve">10.3939781188965</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4129810333252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5839977264404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6315011978149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5174922943115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4889888763428</t>
+    <t xml:space="preserve">10.4129819869995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5839958190918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6315021514893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5174913406372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4889879226685</t>
   </si>
   <si>
     <t xml:space="preserve">10.736011505127</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6695041656494</t>
+    <t xml:space="preserve">10.669506072998</t>
   </si>
   <si>
     <t xml:space="preserve">10.6600046157837</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9735345840454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0495405197144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8785266876221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8120183944702</t>
+    <t xml:space="preserve">10.9735336303711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.049542427063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8785257339478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8120174407959</t>
   </si>
   <si>
     <t xml:space="preserve">10.8025178909302</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7835168838501</t>
+    <t xml:space="preserve">10.7835159301758</t>
   </si>
   <si>
     <t xml:space="preserve">10.8690233230591</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0590419769287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0020370483398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0970449447632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1635522842407</t>
+    <t xml:space="preserve">11.059042930603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0020351409912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0970458984375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1635513305664</t>
   </si>
   <si>
     <t xml:space="preserve">11.2965650558472</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2585620880127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4200763702393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1255474090576</t>
+    <t xml:space="preserve">11.2585601806641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4200754165649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1255483627319</t>
   </si>
   <si>
     <t xml:space="preserve">11.3725709915161</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3345680236816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3155670166016</t>
+    <t xml:space="preserve">11.3345670700073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3155660629272</t>
   </si>
   <si>
     <t xml:space="preserve">11.353569984436</t>
@@ -821,16 +821,16 @@
     <t xml:space="preserve">11.6290941238403</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7533187866211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0017614364624</t>
+    <t xml:space="preserve">11.7533168792725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0017623901367</t>
   </si>
   <si>
     <t xml:space="preserve">12.0399837493896</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1259841918945</t>
+    <t xml:space="preserve">12.1259832382202</t>
   </si>
   <si>
     <t xml:space="preserve">12.097315788269</t>
@@ -848,64 +848,64 @@
     <t xml:space="preserve">12.2406511306763</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2788734436035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.202428817749</t>
+    <t xml:space="preserve">12.2788715362549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2024269104004</t>
   </si>
   <si>
     <t xml:space="preserve">12.3935394287109</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3648710250854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4222049713135</t>
+    <t xml:space="preserve">12.3648729324341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4222068786621</t>
   </si>
   <si>
     <t xml:space="preserve">12.0877618789673</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3266496658325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6577625274658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4666509628296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8679838180542</t>
+    <t xml:space="preserve">12.3266487121582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6577615737915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4666519165039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8679847717285</t>
   </si>
   <si>
     <t xml:space="preserve">11.9062061309814</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9444274902344</t>
+    <t xml:space="preserve">11.944429397583</t>
   </si>
   <si>
     <t xml:space="preserve">11.9348726272583</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8010959625244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7437620162964</t>
+    <t xml:space="preserve">11.8010950088501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.743763923645</t>
   </si>
   <si>
     <t xml:space="preserve">11.6959829330444</t>
   </si>
   <si>
-    <t xml:space="preserve">11.638650894165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5430946350098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2468748092651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0462083816528</t>
+    <t xml:space="preserve">11.6386518478394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5430955886841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2468729019165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0462074279785</t>
   </si>
   <si>
     <t xml:space="preserve">10.8550958633423</t>
@@ -914,25 +914,25 @@
     <t xml:space="preserve">10.7213191986084</t>
   </si>
   <si>
-    <t xml:space="preserve">10.769097328186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9028730392456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0748748779297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0653190612793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1130962371826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3042058944702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5239858627319</t>
+    <t xml:space="preserve">10.7690963745117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9028749465942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0748729705811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0653171539307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1130971908569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3042078018188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5239849090576</t>
   </si>
   <si>
     <t xml:space="preserve">11.6290950775146</t>
@@ -953,13 +953,13 @@
     <t xml:space="preserve">11.6768732070923</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6004285812378</t>
+    <t xml:space="preserve">11.6004295349121</t>
   </si>
   <si>
     <t xml:space="preserve">11.5048732757568</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4475402832031</t>
+    <t xml:space="preserve">11.4475393295288</t>
   </si>
   <si>
     <t xml:space="preserve">11.4188737869263</t>
@@ -971,10 +971,10 @@
     <t xml:space="preserve">11.1990957260132</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0844306945801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8264303207397</t>
+    <t xml:space="preserve">11.0844297409058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8264293670654</t>
   </si>
   <si>
     <t xml:space="preserve">10.9984292984009</t>
@@ -986,16 +986,16 @@
     <t xml:space="preserve">11.3615407943726</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3328733444214</t>
+    <t xml:space="preserve">11.3328742980957</t>
   </si>
   <si>
     <t xml:space="preserve">11.2373180389404</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2946510314941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4857635498047</t>
+    <t xml:space="preserve">11.2946519851685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4857616424561</t>
   </si>
   <si>
     <t xml:space="preserve">11.4953174591064</t>
@@ -1004,7 +1004,7 @@
     <t xml:space="preserve">11.4093170166016</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2277631759644</t>
+    <t xml:space="preserve">11.22776222229</t>
   </si>
   <si>
     <t xml:space="preserve">11.2564296722412</t>
@@ -1013,7 +1013,7 @@
     <t xml:space="preserve">11.3424291610718</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6099834442139</t>
+    <t xml:space="preserve">11.6099843978882</t>
   </si>
   <si>
     <t xml:space="preserve">11.8966503143311</t>
@@ -1025,34 +1025,34 @@
     <t xml:space="preserve">12.1642065048218</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1928739547729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1355390548706</t>
+    <t xml:space="preserve">12.1928730010986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1355400085449</t>
   </si>
   <si>
     <t xml:space="preserve">12.2310943603516</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2215385437012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2597618103027</t>
+    <t xml:space="preserve">12.2215394973755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2597627639771</t>
   </si>
   <si>
     <t xml:space="preserve">12.1546516418457</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0113162994385</t>
+    <t xml:space="preserve">12.0113172531128</t>
   </si>
   <si>
     <t xml:space="preserve">12.403094291687</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3362054824829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2884283065796</t>
+    <t xml:space="preserve">12.3362064361572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2884273529053</t>
   </si>
   <si>
     <t xml:space="preserve">12.6706504821777</t>
@@ -1064,22 +1064,22 @@
     <t xml:space="preserve">12.8330936431885</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9764270782471</t>
+    <t xml:space="preserve">12.9764280319214</t>
   </si>
   <si>
     <t xml:space="preserve">13.0050935745239</t>
   </si>
   <si>
-    <t xml:space="preserve">13.024206161499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9955396652222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3744268417358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9635391235352</t>
+    <t xml:space="preserve">13.0242042541504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9955387115479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3744277954102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9635400772095</t>
   </si>
   <si>
     <t xml:space="preserve">12.0304279327393</t>
@@ -1091,10 +1091,10 @@
     <t xml:space="preserve">12.3553171157837</t>
   </si>
   <si>
-    <t xml:space="preserve">12.460428237915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0782070159912</t>
+    <t xml:space="preserve">12.4604272842407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0782060623169</t>
   </si>
   <si>
     <t xml:space="preserve">11.6195392608643</t>
@@ -1106,7 +1106,7 @@
     <t xml:space="preserve">11.5717620849609</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8488731384277</t>
+    <t xml:space="preserve">11.8488721847534</t>
   </si>
   <si>
     <t xml:space="preserve">11.9539842605591</t>
@@ -1121,25 +1121,25 @@
     <t xml:space="preserve">12.3839836120605</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3170957565308</t>
+    <t xml:space="preserve">12.3170948028564</t>
   </si>
   <si>
     <t xml:space="preserve">12.5464277267456</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5177621841431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3457612991333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9157619476318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3075389862061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7279825210571</t>
+    <t xml:space="preserve">12.5177612304688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3457622528076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9157629013062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3075380325317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7279815673828</t>
   </si>
   <si>
     <t xml:space="preserve">12.7375383377075</t>
@@ -1151,7 +1151,7 @@
     <t xml:space="preserve">12.8235387802124</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3299827575684</t>
+    <t xml:space="preserve">13.329981803894</t>
   </si>
   <si>
     <t xml:space="preserve">13.3204259872437</t>
@@ -1160,25 +1160,25 @@
     <t xml:space="preserve">13.2822036743164</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1484279632568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6262035369873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6644248962402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7408695220947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7599821090698</t>
+    <t xml:space="preserve">13.1484260559082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6262044906616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6644268035889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.740870475769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7599802017212</t>
   </si>
   <si>
     <t xml:space="preserve">13.8077602386475</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7122049331665</t>
+    <t xml:space="preserve">13.7122030258179</t>
   </si>
   <si>
     <t xml:space="preserve">13.4542045593262</t>
@@ -1187,7 +1187,7 @@
     <t xml:space="preserve">13.6739816665649</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5019826889038</t>
+    <t xml:space="preserve">13.5019817352295</t>
   </si>
   <si>
     <t xml:space="preserve">13.167537689209</t>
@@ -1196,16 +1196,16 @@
     <t xml:space="preserve">12.8044261932373</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5942077636719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5655384063721</t>
+    <t xml:space="preserve">12.5942058563232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5655393600464</t>
   </si>
   <si>
     <t xml:space="preserve">12.6515378952026</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6993160247803</t>
+    <t xml:space="preserve">12.6993169784546</t>
   </si>
   <si>
     <t xml:space="preserve">13.0146493911743</t>
@@ -1214,7 +1214,7 @@
     <t xml:space="preserve">13.071982383728</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0433149337769</t>
+    <t xml:space="preserve">13.0433158874512</t>
   </si>
   <si>
     <t xml:space="preserve">12.7853164672852</t>
@@ -1235,34 +1235,34 @@
     <t xml:space="preserve">13.2917604446411</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4637603759766</t>
+    <t xml:space="preserve">13.4637594223022</t>
   </si>
   <si>
     <t xml:space="preserve">13.6070928573608</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5306482315063</t>
+    <t xml:space="preserve">13.5306491851807</t>
   </si>
   <si>
     <t xml:space="preserve">13.521092414856</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3586483001709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5402040481567</t>
+    <t xml:space="preserve">13.3586473464966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5402030944824</t>
   </si>
   <si>
     <t xml:space="preserve">13.4446487426758</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0815372467041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0528707504272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4924268722534</t>
+    <t xml:space="preserve">13.0815382003784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0528726577759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4924259185791</t>
   </si>
   <si>
     <t xml:space="preserve">13.7695369720459</t>
@@ -1274,25 +1274,25 @@
     <t xml:space="preserve">13.5115375518799</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9988689422607</t>
+    <t xml:space="preserve">13.9988708496094</t>
   </si>
   <si>
     <t xml:space="preserve">14.2090930938721</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3524255752563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6104249954224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5148706436157</t>
+    <t xml:space="preserve">14.3524265289307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6104259490967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5148696899414</t>
   </si>
   <si>
     <t xml:space="preserve">14.7824249267578</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8206472396851</t>
+    <t xml:space="preserve">14.8206462860107</t>
   </si>
   <si>
     <t xml:space="preserve">14.9066476821899</t>
@@ -1307,10 +1307,10 @@
     <t xml:space="preserve">15.3366460800171</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1933135986328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2219800949097</t>
+    <t xml:space="preserve">15.1933126449585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2219791412354</t>
   </si>
   <si>
     <t xml:space="preserve">15.2602014541626</t>
@@ -1319,7 +1319,7 @@
     <t xml:space="preserve">15.1264247894287</t>
   </si>
   <si>
-    <t xml:space="preserve">15.116868019104</t>
+    <t xml:space="preserve">15.1168689727783</t>
   </si>
   <si>
     <t xml:space="preserve">14.9353132247925</t>
@@ -1331,16 +1331,16 @@
     <t xml:space="preserve">15.3939800262451</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4990892410278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4704236984253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4799814224243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6710910797119</t>
+    <t xml:space="preserve">15.4990911483765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4704246520996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.47998046875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6710901260376</t>
   </si>
   <si>
     <t xml:space="preserve">15.62331199646</t>
@@ -1349,25 +1349,25 @@
     <t xml:space="preserve">15.7857570648193</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8908681869507</t>
+    <t xml:space="preserve">15.8908662796021</t>
   </si>
   <si>
     <t xml:space="preserve">15.6519784927368</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2410888671875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5755338668823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0401563644409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8861951828003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.559024810791</t>
+    <t xml:space="preserve">15.2410907745361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5755348205566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0401544570923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8861932754517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5590238571167</t>
   </si>
   <si>
     <t xml:space="preserve">14.8284578323364</t>
@@ -1379,40 +1379,40 @@
     <t xml:space="preserve">15.0978908538818</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1356296539307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6167602539062</t>
+    <t xml:space="preserve">14.1356287002563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6167612075806</t>
   </si>
   <si>
     <t xml:space="preserve">14.838080406189</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8477029800415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4154376983643</t>
+    <t xml:space="preserve">14.8477039337158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4154386520386</t>
   </si>
   <si>
     <t xml:space="preserve">15.7233619689941</t>
   </si>
   <si>
-    <t xml:space="preserve">16.358455657959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7048683166504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3969459533691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.406566619873</t>
+    <t xml:space="preserve">16.3584537506104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.704870223999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3969478607178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4065685272217</t>
   </si>
   <si>
     <t xml:space="preserve">16.4450588226318</t>
   </si>
   <si>
-    <t xml:space="preserve">16.454683303833</t>
+    <t xml:space="preserve">16.4546794891357</t>
   </si>
   <si>
     <t xml:space="preserve">16.5701522827148</t>
@@ -1421,7 +1421,7 @@
     <t xml:space="preserve">16.3488311767578</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3103408813477</t>
+    <t xml:space="preserve">16.3103427886963</t>
   </si>
   <si>
     <t xml:space="preserve">16.7722263336182</t>
@@ -1436,13 +1436,13 @@
     <t xml:space="preserve">16.8203392028809</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5509071350098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5027923583984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9261875152588</t>
+    <t xml:space="preserve">16.5509090423584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5027942657471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9261894226074</t>
   </si>
   <si>
     <t xml:space="preserve">17.0897731781006</t>
@@ -1460,55 +1460,55 @@
     <t xml:space="preserve">17.0224170684814</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6182651519775</t>
+    <t xml:space="preserve">16.6182670593262</t>
   </si>
   <si>
     <t xml:space="preserve">16.6952457427979</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4643020629883</t>
+    <t xml:space="preserve">16.4643039703369</t>
   </si>
   <si>
     <t xml:space="preserve">16.6471328735352</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8010940551758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.608642578125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7626056671143</t>
+    <t xml:space="preserve">16.8010959625244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6086444854736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7626037597656</t>
   </si>
   <si>
     <t xml:space="preserve">17.3592090606689</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8018455505371</t>
+    <t xml:space="preserve">17.8018474578857</t>
   </si>
   <si>
     <t xml:space="preserve">18.2156200408936</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7056217193604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3503398895264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4369430541992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9950504302979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4080715179443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6871299743652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5235462188721</t>
+    <t xml:space="preserve">17.7056198120117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3503360748291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4369411468506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9950523376465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.408073425293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6871280670166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5235424041748</t>
   </si>
   <si>
     <t xml:space="preserve">18.3407154083252</t>
@@ -1529,25 +1529,25 @@
     <t xml:space="preserve">18.5716571807861</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6486358642578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4754314422607</t>
+    <t xml:space="preserve">18.6486396789551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4754333496094</t>
   </si>
   <si>
     <t xml:space="preserve">18.3022232055664</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3792057037354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4850521087646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3310890197754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.205997467041</t>
+    <t xml:space="preserve">18.3792037963867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4850540161133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3310928344727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2059955596924</t>
   </si>
   <si>
     <t xml:space="preserve">18.2733554840088</t>
@@ -1559,19 +1559,19 @@
     <t xml:space="preserve">18.6678829193115</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1001472473145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.28297996521</t>
+    <t xml:space="preserve">18.1001491546631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2829780578613</t>
   </si>
   <si>
     <t xml:space="preserve">19.0239200592041</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6301460266113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7071266174316</t>
+    <t xml:space="preserve">19.6301422119141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.707124710083</t>
   </si>
   <si>
     <t xml:space="preserve">19.6686363220215</t>
@@ -1580,25 +1580,25 @@
     <t xml:space="preserve">19.4761829376221</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3414688110352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.004674911499</t>
+    <t xml:space="preserve">19.3414669036865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0046730041504</t>
   </si>
   <si>
     <t xml:space="preserve">18.7256202697754</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8025989532471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0527877807617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2452430725098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9661827087402</t>
+    <t xml:space="preserve">18.8026008605957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0527896881104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2452411651611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9661846160889</t>
   </si>
   <si>
     <t xml:space="preserve">18.4176940917969</t>
@@ -1613,37 +1613,37 @@
     <t xml:space="preserve">17.5612831115723</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8107147216797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6848707199097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8195877075195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9061908721924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.232608795166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6560029983521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6944942474365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0409088134766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9639272689819</t>
+    <t xml:space="preserve">16.8107166290283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.684871673584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8195896148682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.906192779541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2326078414917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6560020446777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6944923400879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0409069061279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9639263153076</t>
   </si>
   <si>
     <t xml:space="preserve">15.1748723983765</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2999668121338</t>
+    <t xml:space="preserve">15.2999658584595</t>
   </si>
   <si>
     <t xml:space="preserve">15.2229862213135</t>
@@ -1652,10 +1652,10 @@
     <t xml:space="preserve">15.2037410736084</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2422313690186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0690221786499</t>
+    <t xml:space="preserve">15.2422304153442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0690231323242</t>
   </si>
   <si>
     <t xml:space="preserve">14.8765707015991</t>
@@ -1673,28 +1673,28 @@
     <t xml:space="preserve">15.1556272506714</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2807216644287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0112867355347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0201559066772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9335536956787</t>
+    <t xml:space="preserve">15.2807207107544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0112886428833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0201587677002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.933554649353</t>
   </si>
   <si>
     <t xml:space="preserve">13.3273296356201</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2792177200317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.587140083313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4620447158813</t>
+    <t xml:space="preserve">13.2792167663574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5871391296387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4620456695557</t>
   </si>
   <si>
     <t xml:space="preserve">13.5967617034912</t>
@@ -1721,7 +1721,7 @@
     <t xml:space="preserve">14.4339303970337</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3761940002441</t>
+    <t xml:space="preserve">14.3761949539185</t>
   </si>
   <si>
     <t xml:space="preserve">14.5205335617065</t>
@@ -1730,7 +1730,7 @@
     <t xml:space="preserve">14.5494022369385</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0009117126465</t>
+    <t xml:space="preserve">14.0009126663208</t>
   </si>
   <si>
     <t xml:space="preserve">13.9431762695312</t>
@@ -1739,37 +1739,37 @@
     <t xml:space="preserve">13.7988376617432</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9624223709106</t>
+    <t xml:space="preserve">13.9624214172363</t>
   </si>
   <si>
     <t xml:space="preserve">14.1067609786987</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1548748016357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6360063552856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9816675186157</t>
+    <t xml:space="preserve">14.1548738479614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6360054016113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9816665649414</t>
   </si>
   <si>
     <t xml:space="preserve">12.913556098938</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5197801589966</t>
+    <t xml:space="preserve">13.5197811126709</t>
   </si>
   <si>
     <t xml:space="preserve">13.3850650787354</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9527997970581</t>
+    <t xml:space="preserve">13.9527988433838</t>
   </si>
   <si>
     <t xml:space="preserve">14.2799692153931</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0594005584717</t>
+    <t xml:space="preserve">15.059401512146</t>
   </si>
   <si>
     <t xml:space="preserve">15.482795715332</t>
@@ -1781,34 +1781,34 @@
     <t xml:space="preserve">15.3095893859863</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4058151245117</t>
+    <t xml:space="preserve">15.405816078186</t>
   </si>
   <si>
     <t xml:space="preserve">15.3769474029541</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5405330657959</t>
+    <t xml:space="preserve">15.5405311584473</t>
   </si>
   <si>
     <t xml:space="preserve">15.5886459350586</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5212850570679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3673257827759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2518539428711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1460046768188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0497789382935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0882692337036</t>
+    <t xml:space="preserve">15.5212860107422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3673248291016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2518529891968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1460037231445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0497779846191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0882682800293</t>
   </si>
   <si>
     <t xml:space="preserve">15.1652507781982</t>
@@ -1817,10 +1817,10 @@
     <t xml:space="preserve">15.8484544754028</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9446811676025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2903442382812</t>
+    <t xml:space="preserve">15.9446821212769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2903432846069</t>
   </si>
   <si>
     <t xml:space="preserve">15.4443044662476</t>
@@ -1832,7 +1832,7 @@
     <t xml:space="preserve">15.6656274795532</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6271362304688</t>
+    <t xml:space="preserve">15.6271343231201</t>
   </si>
   <si>
     <t xml:space="preserve">15.0016651153564</t>
@@ -1841,73 +1841,73 @@
     <t xml:space="preserve">15.1267595291138</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4539289474487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4250602722168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6752471923828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5982666015625</t>
+    <t xml:space="preserve">15.4539270401001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4250612258911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6752490997314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5982675552368</t>
   </si>
   <si>
     <t xml:space="preserve">15.7426071166992</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9735498428345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6760025024414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2044925689697</t>
+    <t xml:space="preserve">15.9735488891602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6760005950928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2044944763184</t>
   </si>
   <si>
     <t xml:space="preserve">15.4924192428589</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0216636657715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.93581199646</t>
+    <t xml:space="preserve">16.0216617584229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9358139038086</t>
   </si>
   <si>
     <t xml:space="preserve">17.0993957519531</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7433605194092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4354343414307</t>
+    <t xml:space="preserve">16.7433586120605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4354362487793</t>
   </si>
   <si>
     <t xml:space="preserve">16.4739265441895</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0031700134277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6663780212402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.060905456543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.983922958374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1475105285645</t>
+    <t xml:space="preserve">17.0031681060791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6663761138916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0609035491943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9839248657227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1475086212158</t>
   </si>
   <si>
     <t xml:space="preserve">17.1186428070068</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4931716918945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.137134552002</t>
+    <t xml:space="preserve">16.4931697845459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1371364593506</t>
   </si>
   <si>
     <t xml:space="preserve">16.1275119781494</t>
@@ -1919,13 +1919,13 @@
     <t xml:space="preserve">16.0890197753906</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5990200042725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4835472106934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.156379699707</t>
+    <t xml:space="preserve">16.5990219116211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.483549118042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1563816070557</t>
   </si>
   <si>
     <t xml:space="preserve">17.7633571624756</t>
@@ -1937,16 +1937,16 @@
     <t xml:space="preserve">18.3599605560303</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5709056854248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5420379638672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0905227661133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9469394683838</t>
+    <t xml:space="preserve">17.5709037780762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5420360565186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0905265808105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9469413757324</t>
   </si>
   <si>
     <t xml:space="preserve">18.8521842956543</t>
@@ -1958,16 +1958,16 @@
     <t xml:space="preserve">19.8892974853516</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7923698425293</t>
+    <t xml:space="preserve">19.7923679351807</t>
   </si>
   <si>
     <t xml:space="preserve">19.2108116149902</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2301959991455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2689685821533</t>
+    <t xml:space="preserve">19.2301979064941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2689666748047</t>
   </si>
   <si>
     <t xml:space="preserve">18.8715686798096</t>
@@ -1982,10 +1982,10 @@
     <t xml:space="preserve">19.3174324035645</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5209732055664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6760578155518</t>
+    <t xml:space="preserve">19.5209770202637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6760597229004</t>
   </si>
   <si>
     <t xml:space="preserve">19.3755855560303</t>
@@ -2003,22 +2003,22 @@
     <t xml:space="preserve">20.1994609832764</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4514713287354</t>
+    <t xml:space="preserve">20.4514694213867</t>
   </si>
   <si>
     <t xml:space="preserve">20.5677814483643</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8973293304443</t>
+    <t xml:space="preserve">20.897331237793</t>
   </si>
   <si>
     <t xml:space="preserve">20.8585605621338</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1105709075928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2576160430908</t>
+    <t xml:space="preserve">21.1105690002441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2576179504395</t>
   </si>
   <si>
     <t xml:space="preserve">20.1413059234619</t>
@@ -2027,7 +2027,7 @@
     <t xml:space="preserve">19.772985458374</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5985164642334</t>
+    <t xml:space="preserve">19.598518371582</t>
   </si>
   <si>
     <t xml:space="preserve">19.9280662536621</t>
@@ -2036,10 +2036,10 @@
     <t xml:space="preserve">19.9668388366699</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3933162689209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2382335662842</t>
+    <t xml:space="preserve">20.3933143615723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2382297515869</t>
   </si>
   <si>
     <t xml:space="preserve">19.947452545166</t>
@@ -2048,37 +2048,37 @@
     <t xml:space="preserve">19.8505268096924</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0249919891357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6065521240234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5871658325195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5290126800537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0136413574219</t>
+    <t xml:space="preserve">20.0249938964844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6065502166748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5871677398682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5290088653564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0136432647705</t>
   </si>
   <si>
     <t xml:space="preserve">20.9942588806152</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7228622436523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3351554870605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4320831298828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4902381896973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5952033996582</t>
+    <t xml:space="preserve">20.722864151001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3351573944092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4320850372314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4902400970459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5952014923096</t>
   </si>
   <si>
     <t xml:space="preserve">21.4982738494873</t>
@@ -2087,16 +2087,16 @@
     <t xml:space="preserve">20.7422485351562</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3157730102539</t>
+    <t xml:space="preserve">20.3157711029053</t>
   </si>
   <si>
     <t xml:space="preserve">20.8779468536377</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3044204711914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4207344055176</t>
+    <t xml:space="preserve">21.30442237854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4207324981689</t>
   </si>
   <si>
     <t xml:space="preserve">21.478889465332</t>
@@ -2105,61 +2105,61 @@
     <t xml:space="preserve">21.5758152008057</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3431911468506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6145839691162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1767597198486</t>
+    <t xml:space="preserve">21.3431930541992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6145877838135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1767578125</t>
   </si>
   <si>
     <t xml:space="preserve">22.8164749145508</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8940143585205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.85524559021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4287662506104</t>
+    <t xml:space="preserve">22.8940162658691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8552436828613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.428768157959</t>
   </si>
   <si>
     <t xml:space="preserve">22.5838489532471</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2930698394775</t>
+    <t xml:space="preserve">22.2930717468262</t>
   </si>
   <si>
     <t xml:space="preserve">22.2736854553223</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6420078277588</t>
+    <t xml:space="preserve">22.6420059204102</t>
   </si>
   <si>
     <t xml:space="preserve">22.9327869415283</t>
   </si>
   <si>
-    <t xml:space="preserve">23.087869644165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1460227966309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3899993896484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5644664764404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6727447509766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7810173034668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7616348266602</t>
+    <t xml:space="preserve">23.0878677368164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1460208892822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3899955749512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5644645690918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6727428436279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7810192108154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7616329193115</t>
   </si>
   <si>
     <t xml:space="preserve">21.4401206970215</t>
@@ -2177,13 +2177,13 @@
     <t xml:space="preserve">22.0604476928711</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8278255462646</t>
+    <t xml:space="preserve">21.827823638916</t>
   </si>
   <si>
     <t xml:space="preserve">21.5370445251465</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6921253204346</t>
+    <t xml:space="preserve">21.6921272277832</t>
   </si>
   <si>
     <t xml:space="preserve">21.9247512817383</t>
@@ -2195,22 +2195,22 @@
     <t xml:space="preserve">21.8084392547607</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9053649902344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9554882049561</t>
+    <t xml:space="preserve">21.905366897583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9554862976074</t>
   </si>
   <si>
     <t xml:space="preserve">20.9167175292969</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8004055023193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1687240600586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6840953826904</t>
+    <t xml:space="preserve">20.8004035949707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1687259674072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6840915679932</t>
   </si>
   <si>
     <t xml:space="preserve">21.2074947357178</t>
@@ -2222,13 +2222,13 @@
     <t xml:space="preserve">20.6259365081787</t>
   </si>
   <si>
-    <t xml:space="preserve">20.645320892334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1573734283447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3512287139893</t>
+    <t xml:space="preserve">20.6453227996826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1573753356934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3512268066406</t>
   </si>
   <si>
     <t xml:space="preserve">22.8746299743652</t>
@@ -2237,16 +2237,16 @@
     <t xml:space="preserve">22.9909400939941</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3592624664307</t>
+    <t xml:space="preserve">23.359260559082</t>
   </si>
   <si>
     <t xml:space="preserve">23.8051223754883</t>
   </si>
   <si>
-    <t xml:space="preserve">24.0765190124512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2703685760498</t>
+    <t xml:space="preserve">24.0765171051025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2703704833984</t>
   </si>
   <si>
     <t xml:space="preserve">23.9214363098145</t>
@@ -2258,34 +2258,34 @@
     <t xml:space="preserve">24.1540584564209</t>
   </si>
   <si>
-    <t xml:space="preserve">24.2315979003906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3285255432129</t>
+    <t xml:space="preserve">24.2315998077393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3285236358643</t>
   </si>
   <si>
     <t xml:space="preserve">24.73561668396</t>
   </si>
   <si>
-    <t xml:space="preserve">25.2396335601807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4722595214844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7436504364014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6968441009521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3559474945068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.666109085083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2977867126465</t>
+    <t xml:space="preserve">25.2396354675293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4722576141357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7436485290527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6968460083008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3559455871582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6661109924316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2977886199951</t>
   </si>
   <si>
     <t xml:space="preserve">25.3947162628174</t>
@@ -2294,28 +2294,28 @@
     <t xml:space="preserve">24.9876251220703</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3171768188477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2008647918701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.007007598877</t>
+    <t xml:space="preserve">25.317174911499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2008628845215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0070095062256</t>
   </si>
   <si>
     <t xml:space="preserve">24.8131580352783</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9100856781006</t>
+    <t xml:space="preserve">24.910083770752</t>
   </si>
   <si>
     <t xml:space="preserve">24.7162303924561</t>
   </si>
   <si>
-    <t xml:space="preserve">25.0263977050781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0457820892334</t>
+    <t xml:space="preserve">25.0263957977295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0457801818848</t>
   </si>
   <si>
     <t xml:space="preserve">24.8519268035889</t>
@@ -2324,13 +2324,13 @@
     <t xml:space="preserve">24.9294681549072</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9488544464111</t>
+    <t xml:space="preserve">24.9488563537598</t>
   </si>
   <si>
     <t xml:space="preserve">25.0651664733887</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6854934692383</t>
+    <t xml:space="preserve">25.6854953765869</t>
   </si>
   <si>
     <t xml:space="preserve">25.7242660522461</t>
@@ -2345,13 +2345,13 @@
     <t xml:space="preserve">25.5885696411133</t>
   </si>
   <si>
-    <t xml:space="preserve">26.1507396697998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9956588745117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9375057220459</t>
+    <t xml:space="preserve">26.1507415771484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9956607818604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9375038146973</t>
   </si>
   <si>
     <t xml:space="preserve">25.5304126739502</t>
@@ -2369,7 +2369,7 @@
     <t xml:space="preserve">25.2784042358398</t>
   </si>
   <si>
-    <t xml:space="preserve">26.0538158416748</t>
+    <t xml:space="preserve">26.0538139343262</t>
   </si>
   <si>
     <t xml:space="preserve">26.6159896850586</t>
@@ -2384,7 +2384,7 @@
     <t xml:space="preserve">27.546480178833</t>
   </si>
   <si>
-    <t xml:space="preserve">27.6240215301514</t>
+    <t xml:space="preserve">27.6240234375</t>
   </si>
   <si>
     <t xml:space="preserve">27.9341869354248</t>
@@ -2393,34 +2393,34 @@
     <t xml:space="preserve">28.1086540222168</t>
   </si>
   <si>
-    <t xml:space="preserve">28.2443504333496</t>
+    <t xml:space="preserve">28.2443523406982</t>
   </si>
   <si>
     <t xml:space="preserve">28.6126728057861</t>
   </si>
   <si>
-    <t xml:space="preserve">29.2136135101318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.7096004486084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.3025074005127</t>
+    <t xml:space="preserve">29.2136173248291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.7095985412598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.3025093078613</t>
   </si>
   <si>
     <t xml:space="preserve">26.3639793395996</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6079540252686</t>
+    <t xml:space="preserve">25.6079521179199</t>
   </si>
   <si>
     <t xml:space="preserve">24.968240737915</t>
   </si>
   <si>
-    <t xml:space="preserve">23.960205078125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8325424194336</t>
+    <t xml:space="preserve">23.9602031707764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8325443267822</t>
   </si>
   <si>
     <t xml:space="preserve">23.785737991333</t>
@@ -2429,22 +2429,22 @@
     <t xml:space="preserve">20.1219215393066</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6372871398926</t>
+    <t xml:space="preserve">19.6372852325439</t>
   </si>
   <si>
     <t xml:space="preserve">15.8183870315552</t>
   </si>
   <si>
-    <t xml:space="preserve">17.582447052002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9637775421143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3611755371094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1559753417969</t>
+    <t xml:space="preserve">17.5824489593506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9637765884399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3611736297607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1559715270996</t>
   </si>
   <si>
     <t xml:space="preserve">17.7859935760498</t>
@@ -2453,25 +2453,25 @@
     <t xml:space="preserve">18.0089244842529</t>
   </si>
   <si>
-    <t xml:space="preserve">18.406322479248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1138858795166</t>
+    <t xml:space="preserve">18.4063205718994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.113883972168</t>
   </si>
   <si>
     <t xml:space="preserve">18.416015625</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4935550689697</t>
+    <t xml:space="preserve">18.4935569763184</t>
   </si>
   <si>
     <t xml:space="preserve">18.3869361877441</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1446208953857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.640604019165</t>
+    <t xml:space="preserve">18.1446189880371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6406059265137</t>
   </si>
   <si>
     <t xml:space="preserve">17.6696815490723</t>
@@ -2489,31 +2489,31 @@
     <t xml:space="preserve">18.7067947387695</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7213325500488</t>
+    <t xml:space="preserve">18.7213344573975</t>
   </si>
   <si>
     <t xml:space="preserve">19.0460357666016</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2221603393555</t>
+    <t xml:space="preserve">18.2221622467041</t>
   </si>
   <si>
     <t xml:space="preserve">21.1784191131592</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5597476959229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1284255981445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3060817718506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5483951568604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.286693572998</t>
+    <t xml:space="preserve">19.5597457885742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1284275054932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3060779571533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.548397064209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2866954803467</t>
   </si>
   <si>
     <t xml:space="preserve">20.2673091888428</t>
@@ -2528,13 +2528,13 @@
     <t xml:space="preserve">22.089527130127</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7018184661865</t>
+    <t xml:space="preserve">21.7018203735352</t>
   </si>
   <si>
     <t xml:space="preserve">22.6710834503174</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1186046600342</t>
+    <t xml:space="preserve">22.1186027526855</t>
   </si>
   <si>
     <t xml:space="preserve">21.3334999084473</t>
@@ -2546,22 +2546,22 @@
     <t xml:space="preserve">22.186450958252</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2656536102295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.322151184082</t>
+    <t xml:space="preserve">21.2656517028809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3221473693848</t>
   </si>
   <si>
     <t xml:space="preserve">21.9829063415527</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3786487579346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4852638244629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6129283905029</t>
+    <t xml:space="preserve">23.3786468505859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4852657318115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6129264831543</t>
   </si>
   <si>
     <t xml:space="preserve">23.853588104248</t>
@@ -2579,13 +2579,13 @@
     <t xml:space="preserve">24.1734428405762</t>
   </si>
   <si>
-    <t xml:space="preserve">23.708194732666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0297107696533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9715576171875</t>
+    <t xml:space="preserve">23.7081966400146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.029712677002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9715557098389</t>
   </si>
   <si>
     <t xml:space="preserve">22.2155303955078</t>
@@ -2594,10 +2594,10 @@
     <t xml:space="preserve">22.3996906280518</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0394039154053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2817192077637</t>
+    <t xml:space="preserve">23.0394058227539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2817211151123</t>
   </si>
   <si>
     <t xml:space="preserve">23.6500415802002</t>
@@ -2606,7 +2606,7 @@
     <t xml:space="preserve">23.02001953125</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0490970611572</t>
+    <t xml:space="preserve">23.0490989685059</t>
   </si>
   <si>
     <t xml:space="preserve">23.4949588775635</t>
@@ -2615,37 +2615,37 @@
     <t xml:space="preserve">23.8148136138916</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7583160400391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7970905303955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9812469482422</t>
+    <t xml:space="preserve">22.7583198547363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7970886230469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9812488555908</t>
   </si>
   <si>
     <t xml:space="preserve">23.0781745910645</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6209659576416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5918846130371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.89235496521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0959014892578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1928291320801</t>
+    <t xml:space="preserve">23.620964050293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5918827056885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8923568725586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0959033966064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1928272247314</t>
   </si>
   <si>
     <t xml:space="preserve">24.0668239593506</t>
   </si>
   <si>
-    <t xml:space="preserve">24.1152877807617</t>
+    <t xml:space="preserve">24.1152858734131</t>
   </si>
   <si>
     <t xml:space="preserve">24.5223789215088</t>
@@ -2663,13 +2663,13 @@
     <t xml:space="preserve">25.4431800842285</t>
   </si>
   <si>
-    <t xml:space="preserve">25.4334850311279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1233215332031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5110263824463</t>
+    <t xml:space="preserve">25.4334869384766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1233234405518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5110282897949</t>
   </si>
   <si>
     <t xml:space="preserve">26.9552307128906</t>
@@ -2678,7 +2678,7 @@
     <t xml:space="preserve">26.9067687988281</t>
   </si>
   <si>
-    <t xml:space="preserve">28.0601940155029</t>
+    <t xml:space="preserve">28.0601902008057</t>
   </si>
   <si>
     <t xml:space="preserve">28.6514415740967</t>
@@ -2687,7 +2687,7 @@
     <t xml:space="preserve">27.9148006439209</t>
   </si>
   <si>
-    <t xml:space="preserve">28.0020332336426</t>
+    <t xml:space="preserve">28.0020351409912</t>
   </si>
   <si>
     <t xml:space="preserve">27.5658683776855</t>
@@ -2699,19 +2699,19 @@
     <t xml:space="preserve">27.4204788208008</t>
   </si>
   <si>
-    <t xml:space="preserve">27.4398632049561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.7887992858887</t>
+    <t xml:space="preserve">27.4398612976074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.78879737854</t>
   </si>
   <si>
     <t xml:space="preserve">27.633716583252</t>
   </si>
   <si>
-    <t xml:space="preserve">27.45924949646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.6918697357178</t>
+    <t xml:space="preserve">27.4592475891113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.6918716430664</t>
   </si>
   <si>
     <t xml:space="preserve">26.9649238586426</t>
@@ -2723,7 +2723,7 @@
     <t xml:space="preserve">27.1103134155273</t>
   </si>
   <si>
-    <t xml:space="preserve">26.8970737457275</t>
+    <t xml:space="preserve">26.8970756530762</t>
   </si>
   <si>
     <t xml:space="preserve">26.8486137390137</t>
@@ -2735,79 +2735,79 @@
     <t xml:space="preserve">26.9358463287354</t>
   </si>
   <si>
-    <t xml:space="preserve">26.6547584533691</t>
+    <t xml:space="preserve">26.6547565460205</t>
   </si>
   <si>
     <t xml:space="preserve">26.8583030700684</t>
   </si>
   <si>
-    <t xml:space="preserve">28.0117282867432</t>
+    <t xml:space="preserve">28.0117301940918</t>
   </si>
   <si>
     <t xml:space="preserve">27.0715446472168</t>
   </si>
   <si>
-    <t xml:space="preserve">27.1587772369385</t>
+    <t xml:space="preserve">27.1587753295898</t>
   </si>
   <si>
     <t xml:space="preserve">27.798490524292</t>
   </si>
   <si>
-    <t xml:space="preserve">27.8566455841064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.6029777526855</t>
+    <t xml:space="preserve">27.8566474914551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.6029796600342</t>
   </si>
   <si>
     <t xml:space="preserve">28.7774486541748</t>
   </si>
   <si>
-    <t xml:space="preserve">28.9325313568115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4268550872803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.2233085632324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.1263809204102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.9923439025879</t>
+    <t xml:space="preserve">28.9325294494629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4268531799316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.2233066558838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.1263828277588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9923419952393</t>
   </si>
   <si>
     <t xml:space="preserve">28.0698833465576</t>
   </si>
   <si>
-    <t xml:space="preserve">27.8857231140137</t>
+    <t xml:space="preserve">27.8857250213623</t>
   </si>
   <si>
     <t xml:space="preserve">28.0989627838135</t>
   </si>
   <si>
-    <t xml:space="preserve">29.8242511749268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.4155025482178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6110153198242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.9211807250977</t>
+    <t xml:space="preserve">29.824254989624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.4155044555664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6110134124756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.9211769104004</t>
   </si>
   <si>
     <t xml:space="preserve">30.279806137085</t>
   </si>
   <si>
-    <t xml:space="preserve">30.4736576080322</t>
+    <t xml:space="preserve">30.4736595153809</t>
   </si>
   <si>
     <t xml:space="preserve">29.6013221740723</t>
   </si>
   <si>
-    <t xml:space="preserve">29.7660961151123</t>
+    <t xml:space="preserve">29.7660942077637</t>
   </si>
   <si>
     <t xml:space="preserve">30.2507266998291</t>
@@ -2822,7 +2822,7 @@
     <t xml:space="preserve">31.2103004455566</t>
   </si>
   <si>
-    <t xml:space="preserve">30.9970607757568</t>
+    <t xml:space="preserve">30.9970626831055</t>
   </si>
   <si>
     <t xml:space="preserve">31.3847675323486</t>
@@ -2831,19 +2831,19 @@
     <t xml:space="preserve">31.2006053924561</t>
   </si>
   <si>
-    <t xml:space="preserve">31.3944606781006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.1812210083008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.1424503326416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.278148651123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.9389038085938</t>
+    <t xml:space="preserve">31.394458770752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.1812191009521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.1424541473389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2781467437744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.938907623291</t>
   </si>
   <si>
     <t xml:space="preserve">31.0164470672607</t>
@@ -2855,7 +2855,7 @@
     <t xml:space="preserve">29.6497840881348</t>
   </si>
   <si>
-    <t xml:space="preserve">31.3653831481934</t>
+    <t xml:space="preserve">31.3653812408447</t>
   </si>
   <si>
     <t xml:space="preserve">32.470344543457</t>
@@ -2867,7 +2867,7 @@
     <t xml:space="preserve">34.1568641662598</t>
   </si>
   <si>
-    <t xml:space="preserve">33.8079261779785</t>
+    <t xml:space="preserve">33.8079299926758</t>
   </si>
   <si>
     <t xml:space="preserve">32.9549751281738</t>
@@ -2879,13 +2879,13 @@
     <t xml:space="preserve">34.0599327087402</t>
   </si>
   <si>
-    <t xml:space="preserve">34.6414909362793</t>
+    <t xml:space="preserve">34.6414985656738</t>
   </si>
   <si>
     <t xml:space="preserve">33.9339294433594</t>
   </si>
   <si>
-    <t xml:space="preserve">34.961353302002</t>
+    <t xml:space="preserve">34.9613494873047</t>
   </si>
   <si>
     <t xml:space="preserve">34.3216361999512</t>
@@ -2894,25 +2894,25 @@
     <t xml:space="preserve">34.4379463195801</t>
   </si>
   <si>
-    <t xml:space="preserve">33.1488304138184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1585159301758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.3426780700684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9857082366943</t>
+    <t xml:space="preserve">33.1488265991211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.158519744873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.3426818847656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9857120513916</t>
   </si>
   <si>
     <t xml:space="preserve">32.082633972168</t>
   </si>
   <si>
-    <t xml:space="preserve">32.4509544372559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.2263679504395</t>
+    <t xml:space="preserve">32.4509582519531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.2263717651367</t>
   </si>
   <si>
     <t xml:space="preserve">32.5381889343262</t>
@@ -2921,40 +2921,40 @@
     <t xml:space="preserve">31.7240085601807</t>
   </si>
   <si>
-    <t xml:space="preserve">31.3459987640381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.4816951751709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5980033874512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3363075256348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5495414733887</t>
+    <t xml:space="preserve">31.3459968566895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4816913604736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5980072021484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3363056182861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.54953956604</t>
   </si>
   <si>
     <t xml:space="preserve">32.0923309326172</t>
   </si>
   <si>
-    <t xml:space="preserve">32.576961517334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.8306293487549</t>
+    <t xml:space="preserve">32.5769653320312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8306274414062</t>
   </si>
   <si>
     <t xml:space="preserve">32.6351127624512</t>
   </si>
   <si>
-    <t xml:space="preserve">32.4218826293945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.9065170288086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.169864654541</t>
+    <t xml:space="preserve">32.4218788146973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.9065132141113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.1698722839355</t>
   </si>
   <si>
     <t xml:space="preserve">32.6932716369629</t>
@@ -2963,10 +2963,10 @@
     <t xml:space="preserve">32.218334197998</t>
   </si>
   <si>
-    <t xml:space="preserve">32.7611198425293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.9937438964844</t>
+    <t xml:space="preserve">32.7611236572266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.9937477111816</t>
   </si>
   <si>
     <t xml:space="preserve">32.8968162536621</t>
@@ -2978,28 +2978,28 @@
     <t xml:space="preserve">32.0050964355469</t>
   </si>
   <si>
-    <t xml:space="preserve">31.6755466461182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.7998962402344</t>
+    <t xml:space="preserve">31.6755447387695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.7998924255371</t>
   </si>
   <si>
     <t xml:space="preserve">32.6448135375977</t>
   </si>
   <si>
-    <t xml:space="preserve">32.5866508483887</t>
+    <t xml:space="preserve">32.5866546630859</t>
   </si>
   <si>
     <t xml:space="preserve">32.8677406311035</t>
   </si>
   <si>
-    <t xml:space="preserve">33.1100540161133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1391372680664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.2942161560059</t>
+    <t xml:space="preserve">33.1100578308105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1391334533691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.2942199707031</t>
   </si>
   <si>
     <t xml:space="preserve">33.0712852478027</t>
@@ -3014,13 +3014,13 @@
     <t xml:space="preserve">32.5188064575195</t>
   </si>
   <si>
-    <t xml:space="preserve">33.0518989562988</t>
+    <t xml:space="preserve">33.0519027709961</t>
   </si>
   <si>
     <t xml:space="preserve">32.8095817565918</t>
   </si>
   <si>
-    <t xml:space="preserve">32.4024925231934</t>
+    <t xml:space="preserve">32.4024963378906</t>
   </si>
   <si>
     <t xml:space="preserve">33.5365333557129</t>
@@ -3029,7 +3029,7 @@
     <t xml:space="preserve">34.3022499084473</t>
   </si>
   <si>
-    <t xml:space="preserve">35.1164360046387</t>
+    <t xml:space="preserve">35.1164321899414</t>
   </si>
   <si>
     <t xml:space="preserve">35.0001220703125</t>
@@ -3038,7 +3038,7 @@
     <t xml:space="preserve">35.4653663635254</t>
   </si>
   <si>
-    <t xml:space="preserve">35.4072113037109</t>
+    <t xml:space="preserve">35.4072074890137</t>
   </si>
   <si>
     <t xml:space="preserve">35.5235252380371</t>
@@ -3050,19 +3050,19 @@
     <t xml:space="preserve">36.0856971740723</t>
   </si>
   <si>
-    <t xml:space="preserve">35.8627624511719</t>
+    <t xml:space="preserve">35.8627700805664</t>
   </si>
   <si>
     <t xml:space="preserve">34.7674980163574</t>
   </si>
   <si>
-    <t xml:space="preserve">34.4088706970215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.8660850524902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.8176193237305</t>
+    <t xml:space="preserve">34.4088668823242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.866081237793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.8176231384277</t>
   </si>
   <si>
     <t xml:space="preserve">32.2571029663086</t>
@@ -3080,7 +3080,7 @@
     <t xml:space="preserve">30.4251956939697</t>
   </si>
   <si>
-    <t xml:space="preserve">29.930871963501</t>
+    <t xml:space="preserve">29.9308700561523</t>
   </si>
   <si>
     <t xml:space="preserve">29.1166896820068</t>
@@ -3095,25 +3095,25 @@
     <t xml:space="preserve">31.1036815643311</t>
   </si>
   <si>
-    <t xml:space="preserve">31.9469375610352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.9776763916016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.1909141540527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5883121490479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0067520141602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.9793338775635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5996646881104</t>
+    <t xml:space="preserve">31.9469432830811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.9776744842529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.1909122467041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5883159637451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0067539215088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.9793357849121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5996627807617</t>
   </si>
   <si>
     <t xml:space="preserve">32.1407928466797</t>
@@ -3122,10 +3122,10 @@
     <t xml:space="preserve">30.861364364624</t>
   </si>
   <si>
-    <t xml:space="preserve">31.2296848297119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.1230659484863</t>
+    <t xml:space="preserve">31.2296867370605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.1230640411377</t>
   </si>
   <si>
     <t xml:space="preserve">30.7644386291504</t>
@@ -3134,7 +3134,7 @@
     <t xml:space="preserve">31.4041538238525</t>
   </si>
   <si>
-    <t xml:space="preserve">31.7433929443359</t>
+    <t xml:space="preserve">31.7433948516846</t>
   </si>
   <si>
     <t xml:space="preserve">31.4235363006592</t>
@@ -3143,10 +3143,10 @@
     <t xml:space="preserve">32.0535583496094</t>
   </si>
   <si>
-    <t xml:space="preserve">31.8112392425537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.0017852783203</t>
+    <t xml:space="preserve">31.8112468719482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.0017776489258</t>
   </si>
   <si>
     <t xml:space="preserve">33.4299163818359</t>
@@ -3155,13 +3155,13 @@
     <t xml:space="preserve">34.3797950744629</t>
   </si>
   <si>
-    <t xml:space="preserve">34.1374816894531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.1277847290039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.6899566650391</t>
+    <t xml:space="preserve">34.1374778747559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.1277809143066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.6899604797363</t>
   </si>
   <si>
     <t xml:space="preserve">34.7287292480469</t>
@@ -3173,19 +3173,19 @@
     <t xml:space="preserve">35.3490562438965</t>
   </si>
   <si>
-    <t xml:space="preserve">34.8159561157227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.604377746582</t>
+    <t xml:space="preserve">34.8159599304199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.6043815612793</t>
   </si>
   <si>
     <t xml:space="preserve">34.0502471923828</t>
   </si>
   <si>
-    <t xml:space="preserve">34.3119506835938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.7303886413574</t>
+    <t xml:space="preserve">34.3119430541992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.7303848266602</t>
   </si>
   <si>
     <t xml:space="preserve">34.602725982666</t>
@@ -3194,37 +3194,37 @@
     <t xml:space="preserve">34.0793228149414</t>
   </si>
   <si>
-    <t xml:space="preserve">32.7514305114746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.383113861084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3637237548828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.567268371582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.4396057128906</t>
+    <t xml:space="preserve">32.7514343261719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3831062316895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3637199401855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.5672645568848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.4396095275879</t>
   </si>
   <si>
     <t xml:space="preserve">33.6334609985352</t>
   </si>
   <si>
-    <t xml:space="preserve">35.3199768066406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.4219017028809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.202018737793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.4999122619629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.3190383911133</t>
+    <t xml:space="preserve">35.3199806213379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.4218978881836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.2020225524902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.4999084472656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.3190422058105</t>
   </si>
   <si>
     <t xml:space="preserve">37.6310882568359</t>
@@ -3233,7 +3233,7 @@
     <t xml:space="preserve">37.9821395874023</t>
   </si>
   <si>
-    <t xml:space="preserve">37.6798439025879</t>
+    <t xml:space="preserve">37.6798400878906</t>
   </si>
   <si>
     <t xml:space="preserve">37.5725746154785</t>
@@ -3245,22 +3245,22 @@
     <t xml:space="preserve">38.8110198974609</t>
   </si>
   <si>
-    <t xml:space="preserve">38.333194732666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.4502143859863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.5867347717285</t>
+    <t xml:space="preserve">38.3331985473633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.4502105712891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.5867309570312</t>
   </si>
   <si>
     <t xml:space="preserve">39.8349266052246</t>
   </si>
   <si>
-    <t xml:space="preserve">39.1913261413574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.2205848693848</t>
+    <t xml:space="preserve">39.1913299560547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.2205810546875</t>
   </si>
   <si>
     <t xml:space="preserve">39.9324417114258</t>
@@ -3287,10 +3287,10 @@
     <t xml:space="preserve">40.3420066833496</t>
   </si>
   <si>
-    <t xml:space="preserve">41.1026229858398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.605297088623</t>
+    <t xml:space="preserve">41.1026268005371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.6053009033203</t>
   </si>
   <si>
     <t xml:space="preserve">40.4005165100098</t>
@@ -3305,7 +3305,7 @@
     <t xml:space="preserve">40.3517608642578</t>
   </si>
   <si>
-    <t xml:space="preserve">40.5955467224121</t>
+    <t xml:space="preserve">40.5955505371094</t>
   </si>
   <si>
     <t xml:space="preserve">39.6594009399414</t>
@@ -3314,16 +3314,16 @@
     <t xml:space="preserve">37.1240081787109</t>
   </si>
   <si>
-    <t xml:space="preserve">38.1284141540527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.1186637878418</t>
+    <t xml:space="preserve">38.1284103393555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.1186599731445</t>
   </si>
   <si>
     <t xml:space="preserve">38.9475402832031</t>
   </si>
   <si>
-    <t xml:space="preserve">39.561882019043</t>
+    <t xml:space="preserve">39.5618858337402</t>
   </si>
   <si>
     <t xml:space="preserve">39.7471618652344</t>
@@ -3338,7 +3338,7 @@
     <t xml:space="preserve">39.7666664123535</t>
   </si>
   <si>
-    <t xml:space="preserve">39.435115814209</t>
+    <t xml:space="preserve">39.4351196289062</t>
   </si>
   <si>
     <t xml:space="preserve">40.0202102661133</t>
@@ -3371,10 +3371,10 @@
     <t xml:space="preserve">40.8685874938965</t>
   </si>
   <si>
-    <t xml:space="preserve">41.0538635253906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.6291999816895</t>
+    <t xml:space="preserve">41.0538673400879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.6292037963867</t>
   </si>
   <si>
     <t xml:space="preserve">41.7559776306152</t>
@@ -3386,7 +3386,7 @@
     <t xml:space="preserve">41.8437423706055</t>
   </si>
   <si>
-    <t xml:space="preserve">41.8534927368164</t>
+    <t xml:space="preserve">41.8534889221191</t>
   </si>
   <si>
     <t xml:space="preserve">42.1850395202637</t>
@@ -3404,19 +3404,19 @@
     <t xml:space="preserve">42.6628684997559</t>
   </si>
   <si>
-    <t xml:space="preserve">42.3898277282715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.5946044921875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.1016883850098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.1796951293945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.3064651489258</t>
+    <t xml:space="preserve">42.3898239135742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.5946083068848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.1016845703125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.1796989440918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.306468963623</t>
   </si>
   <si>
     <t xml:space="preserve">43.6282691955566</t>
@@ -3437,40 +3437,40 @@
     <t xml:space="preserve">42.1557884216309</t>
   </si>
   <si>
-    <t xml:space="preserve">42.0777778625488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.3127555847168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.619457244873</t>
+    <t xml:space="preserve">42.0777816772461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.3127517700195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.6194534301758</t>
   </si>
   <si>
     <t xml:space="preserve">40.6150512695312</t>
   </si>
   <si>
-    <t xml:space="preserve">41.4439315795898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.6779670715332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.7160301208496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.8135414123535</t>
+    <t xml:space="preserve">41.4439277648926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.6779632568359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.7160339355469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.8135452270508</t>
   </si>
   <si>
     <t xml:space="preserve">44.9739761352539</t>
   </si>
   <si>
-    <t xml:space="preserve">43.8623046875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.5751037597656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.3810157775879</t>
+    <t xml:space="preserve">43.8623008728027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.5750999450684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.3810119628906</t>
   </si>
   <si>
     <t xml:space="preserve">40.8783378601074</t>
@@ -3485,7 +3485,7 @@
     <t xml:space="preserve">40.1079711914062</t>
   </si>
   <si>
-    <t xml:space="preserve">40.2737426757812</t>
+    <t xml:space="preserve">40.2737464904785</t>
   </si>
   <si>
     <t xml:space="preserve">40.7028121948242</t>
@@ -3494,7 +3494,7 @@
     <t xml:space="preserve">39.5911407470703</t>
   </si>
   <si>
-    <t xml:space="preserve">39.6496467590332</t>
+    <t xml:space="preserve">39.6496505737305</t>
   </si>
   <si>
     <t xml:space="preserve">40.5077819824219</t>
@@ -3527,40 +3527,40 @@
     <t xml:space="preserve">43.0139236450195</t>
   </si>
   <si>
-    <t xml:space="preserve">43.0334243774414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.6477661132812</t>
+    <t xml:space="preserve">43.0334205627441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.6477699279785</t>
   </si>
   <si>
     <t xml:space="preserve">44.622917175293</t>
   </si>
   <si>
-    <t xml:space="preserve">44.5156593322754</t>
+    <t xml:space="preserve">44.5156517028809</t>
   </si>
   <si>
     <t xml:space="preserve">45.3835372924805</t>
   </si>
   <si>
-    <t xml:space="preserve">44.925220489502</t>
+    <t xml:space="preserve">44.9252166748047</t>
   </si>
   <si>
     <t xml:space="preserve">44.3791313171387</t>
   </si>
   <si>
-    <t xml:space="preserve">44.661922454834</t>
+    <t xml:space="preserve">44.6619300842285</t>
   </si>
   <si>
     <t xml:space="preserve">44.8667068481445</t>
   </si>
   <si>
-    <t xml:space="preserve">44.0865859985352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.8871536254883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.5014991760254</t>
+    <t xml:space="preserve">44.0865898132324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.887149810791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.5014953613281</t>
   </si>
   <si>
     <t xml:space="preserve">43.442985534668</t>
@@ -3569,22 +3569,22 @@
     <t xml:space="preserve">41.2879028320312</t>
   </si>
   <si>
-    <t xml:space="preserve">42.2240447998047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.1513862609863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.6974639892578</t>
+    <t xml:space="preserve">42.224048614502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.1513786315918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.6974678039551</t>
   </si>
   <si>
     <t xml:space="preserve">42.0485191345215</t>
   </si>
   <si>
-    <t xml:space="preserve">42.0387725830078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.7320671081543</t>
+    <t xml:space="preserve">42.0387687683105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.7320709228516</t>
   </si>
   <si>
     <t xml:space="preserve">40.7613220214844</t>
@@ -3593,13 +3593,13 @@
     <t xml:space="preserve">41.8827476501465</t>
   </si>
   <si>
-    <t xml:space="preserve">40.7808227539062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.741813659668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.9173431396484</t>
+    <t xml:space="preserve">40.7808265686035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.7418174743652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.9173469543457</t>
   </si>
   <si>
     <t xml:space="preserve">41.707218170166</t>
@@ -3614,7 +3614,7 @@
     <t xml:space="preserve">42.9846687316895</t>
   </si>
   <si>
-    <t xml:space="preserve">43.0041656494141</t>
+    <t xml:space="preserve">43.0041694641113</t>
   </si>
   <si>
     <t xml:space="preserve">43.1991996765137</t>
@@ -3629,10 +3629,10 @@
     <t xml:space="preserve">45.081241607666</t>
   </si>
   <si>
-    <t xml:space="preserve">45.7443466186523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.0466461181641</t>
+    <t xml:space="preserve">45.7443428039551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.0466423034668</t>
   </si>
   <si>
     <t xml:space="preserve">46.2709274291992</t>
@@ -3641,7 +3641,7 @@
     <t xml:space="preserve">45.4810523986816</t>
   </si>
   <si>
-    <t xml:space="preserve">44.5449066162109</t>
+    <t xml:space="preserve">44.5449104309082</t>
   </si>
   <si>
     <t xml:space="preserve">44.7106819152832</t>
@@ -3653,10 +3653,10 @@
     <t xml:space="preserve">42.4970932006836</t>
   </si>
   <si>
-    <t xml:space="preserve">40.6248016357422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.8544311523438</t>
+    <t xml:space="preserve">40.6247978210449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.8544273376465</t>
   </si>
   <si>
     <t xml:space="preserve">39.513126373291</t>
@@ -3677,7 +3677,7 @@
     <t xml:space="preserve">35.037181854248</t>
   </si>
   <si>
-    <t xml:space="preserve">35.5247573852539</t>
+    <t xml:space="preserve">35.5247611999512</t>
   </si>
   <si>
     <t xml:space="preserve">35.5637664794922</t>
@@ -3698,7 +3698,7 @@
     <t xml:space="preserve">36.0903434753418</t>
   </si>
   <si>
-    <t xml:space="preserve">35.4077453613281</t>
+    <t xml:space="preserve">35.4077415466309</t>
   </si>
   <si>
     <t xml:space="preserve">35.1737060546875</t>
@@ -3710,25 +3710,25 @@
     <t xml:space="preserve">35.6417770385742</t>
   </si>
   <si>
-    <t xml:space="preserve">35.2907257080078</t>
+    <t xml:space="preserve">35.2907218933105</t>
   </si>
   <si>
     <t xml:space="preserve">34.4715957641602</t>
   </si>
   <si>
-    <t xml:space="preserve">33.8767585754395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.2614669799805</t>
+    <t xml:space="preserve">33.8767547607422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.2614707946777</t>
   </si>
   <si>
     <t xml:space="preserve">34.7836418151855</t>
   </si>
   <si>
-    <t xml:space="preserve">34.7933959960938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.6568756103516</t>
+    <t xml:space="preserve">34.793399810791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.6568794250488</t>
   </si>
   <si>
     <t xml:space="preserve">34.2765693664551</t>
@@ -3743,19 +3743,19 @@
     <t xml:space="preserve">35.7782974243164</t>
   </si>
   <si>
-    <t xml:space="preserve">36.4706611633301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.4945640563965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.0167388916016</t>
+    <t xml:space="preserve">36.4706573486328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.4945678710938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.0167427062988</t>
   </si>
   <si>
     <t xml:space="preserve">36.9972381591797</t>
   </si>
   <si>
-    <t xml:space="preserve">36.6656837463379</t>
+    <t xml:space="preserve">36.6656875610352</t>
   </si>
   <si>
     <t xml:space="preserve">35.3004760742188</t>
@@ -3764,16 +3764,16 @@
     <t xml:space="preserve">34.0912857055664</t>
   </si>
   <si>
-    <t xml:space="preserve">36.1781120300293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.208309173584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.9494171142578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.6612777709961</t>
+    <t xml:space="preserve">36.178108215332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.2083053588867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.9494209289551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.6612815856934</t>
   </si>
   <si>
     <t xml:space="preserve">35.4467468261719</t>
@@ -3782,7 +3782,7 @@
     <t xml:space="preserve">36.8119583129883</t>
   </si>
   <si>
-    <t xml:space="preserve">36.8607139587402</t>
+    <t xml:space="preserve">36.8607177734375</t>
   </si>
   <si>
     <t xml:space="preserve">36.5194129943848</t>
@@ -3794,7 +3794,7 @@
     <t xml:space="preserve">35.6222724914551</t>
   </si>
   <si>
-    <t xml:space="preserve">36.2951278686523</t>
+    <t xml:space="preserve">36.2951316833496</t>
   </si>
   <si>
     <t xml:space="preserve">36.7534484863281</t>
@@ -3806,10 +3806,10 @@
     <t xml:space="preserve">39.6008911132812</t>
   </si>
   <si>
-    <t xml:space="preserve">39.5326347351074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.8393363952637</t>
+    <t xml:space="preserve">39.5326309204102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.8393325805664</t>
   </si>
   <si>
     <t xml:space="preserve">41.9119987487793</t>
@@ -3818,16 +3818,16 @@
     <t xml:space="preserve">41.5024375915527</t>
   </si>
   <si>
-    <t xml:space="preserve">41.2976531982422</t>
+    <t xml:space="preserve">41.2976570129395</t>
   </si>
   <si>
     <t xml:space="preserve">40.4297714233398</t>
   </si>
   <si>
-    <t xml:space="preserve">39.2108306884766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.0104522705078</t>
+    <t xml:space="preserve">39.2108268737793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.0104560852051</t>
   </si>
   <si>
     <t xml:space="preserve">39.8056716918945</t>
@@ -3839,43 +3839,43 @@
     <t xml:space="preserve">38.5477294921875</t>
   </si>
   <si>
-    <t xml:space="preserve">37.3580474853516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.1922721862793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.8802223205566</t>
+    <t xml:space="preserve">37.3580436706543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.192268371582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.8802185058594</t>
   </si>
   <si>
     <t xml:space="preserve">35.983081817627</t>
   </si>
   <si>
-    <t xml:space="preserve">36.7924537658691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.2702827453613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.6754379272461</t>
+    <t xml:space="preserve">36.7924575805664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.2702789306641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.6754417419434</t>
   </si>
   <si>
     <t xml:space="preserve">36.2561225891113</t>
   </si>
   <si>
-    <t xml:space="preserve">35.8465538024902</t>
+    <t xml:space="preserve">35.8465614318848</t>
   </si>
   <si>
     <t xml:space="preserve">34.5788612365723</t>
   </si>
   <si>
-    <t xml:space="preserve">32.7553329467773</t>
+    <t xml:space="preserve">32.7553291320801</t>
   </si>
   <si>
     <t xml:space="preserve">33.4769439697266</t>
   </si>
   <si>
-    <t xml:space="preserve">33.4671936035156</t>
+    <t xml:space="preserve">33.4671897888184</t>
   </si>
   <si>
     <t xml:space="preserve">31.5168876647949</t>
@@ -3890,7 +3890,7 @@
     <t xml:space="preserve">33.4574394226074</t>
   </si>
   <si>
-    <t xml:space="preserve">31.7411727905273</t>
+    <t xml:space="preserve">31.7411708831787</t>
   </si>
   <si>
     <t xml:space="preserve">30.7952766418457</t>
@@ -3899,7 +3899,7 @@
     <t xml:space="preserve">31.1365795135498</t>
   </si>
   <si>
-    <t xml:space="preserve">31.677318572998</t>
+    <t xml:space="preserve">31.6773166656494</t>
   </si>
   <si>
     <t xml:space="preserve">31.4708518981934</t>
@@ -3908,10 +3908,10 @@
     <t xml:space="preserve">31.4118633270264</t>
   </si>
   <si>
-    <t xml:space="preserve">31.7166404724121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.8247890472412</t>
+    <t xml:space="preserve">31.7166423797607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8247871398926</t>
   </si>
   <si>
     <t xml:space="preserve">32.1688957214355</t>
@@ -3938,7 +3938,7 @@
     <t xml:space="preserve">30.2320747375488</t>
   </si>
   <si>
-    <t xml:space="preserve">28.7180118560791</t>
+    <t xml:space="preserve">28.7180137634277</t>
   </si>
   <si>
     <t xml:space="preserve">26.6533851623535</t>
@@ -3950,7 +3950,7 @@
     <t xml:space="preserve">26.7025413513184</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7783737182617</t>
+    <t xml:space="preserve">25.7783756256104</t>
   </si>
   <si>
     <t xml:space="preserve">25.857027053833</t>
@@ -3968,19 +3968,19 @@
     <t xml:space="preserve">28.3542461395264</t>
   </si>
   <si>
-    <t xml:space="preserve">29.2980766296387</t>
+    <t xml:space="preserve">29.29807472229</t>
   </si>
   <si>
     <t xml:space="preserve">29.3668975830078</t>
   </si>
   <si>
-    <t xml:space="preserve">28.7770042419434</t>
+    <t xml:space="preserve">28.7770023345947</t>
   </si>
   <si>
     <t xml:space="preserve">28.6786880493164</t>
   </si>
   <si>
-    <t xml:space="preserve">28.7573413848877</t>
+    <t xml:space="preserve">28.7573394775391</t>
   </si>
   <si>
     <t xml:space="preserve">29.878137588501</t>
@@ -3992,7 +3992,7 @@
     <t xml:space="preserve">31.1955699920654</t>
   </si>
   <si>
-    <t xml:space="preserve">32.0607490539551</t>
+    <t xml:space="preserve">32.0607452392578</t>
   </si>
   <si>
     <t xml:space="preserve">30.664665222168</t>
@@ -4007,7 +4007,7 @@
     <t xml:space="preserve">28.6393604278564</t>
   </si>
   <si>
-    <t xml:space="preserve">28.167444229126</t>
+    <t xml:space="preserve">28.1674461364746</t>
   </si>
   <si>
     <t xml:space="preserve">28.7475090026855</t>
@@ -4016,10 +4016,10 @@
     <t xml:space="preserve">29.3570652008057</t>
   </si>
   <si>
-    <t xml:space="preserve">29.278413772583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.143590927124</t>
+    <t xml:space="preserve">29.2784118652344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.1435928344727</t>
   </si>
   <si>
     <t xml:space="preserve">30.6351699829102</t>
@@ -4034,16 +4034,16 @@
     <t xml:space="preserve">30.8121376037598</t>
   </si>
   <si>
-    <t xml:space="preserve">31.834623336792</t>
+    <t xml:space="preserve">31.8346214294434</t>
   </si>
   <si>
     <t xml:space="preserve">31.6674842834473</t>
   </si>
   <si>
-    <t xml:space="preserve">31.8936100006104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.4188766479492</t>
+    <t xml:space="preserve">31.893611907959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.4188747406006</t>
   </si>
   <si>
     <t xml:space="preserve">31.3332118988037</t>
@@ -4055,10 +4055,10 @@
     <t xml:space="preserve">29.8683071136475</t>
   </si>
   <si>
-    <t xml:space="preserve">30.182918548584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4258861541748</t>
+    <t xml:space="preserve">30.1829166412354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4258880615234</t>
   </si>
   <si>
     <t xml:space="preserve">29.8978023529053</t>
@@ -4067,7 +4067,7 @@
     <t xml:space="preserve">30.2124118804932</t>
   </si>
   <si>
-    <t xml:space="preserve">28.6196994781494</t>
+    <t xml:space="preserve">28.6196975708008</t>
   </si>
   <si>
     <t xml:space="preserve">28.3050880432129</t>
@@ -4076,10 +4076,10 @@
     <t xml:space="preserve">28.2264347076416</t>
   </si>
   <si>
-    <t xml:space="preserve">27.8528347015381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.2039527893066</t>
+    <t xml:space="preserve">27.8528366088867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.203950881958</t>
   </si>
   <si>
     <t xml:space="preserve">27.1744575500488</t>
@@ -4097,7 +4097,7 @@
     <t xml:space="preserve">25.3359546661377</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6112384796143</t>
+    <t xml:space="preserve">25.6112365722656</t>
   </si>
   <si>
     <t xml:space="preserve">25.050838470459</t>
@@ -4118,10 +4118,10 @@
     <t xml:space="preserve">25.4834270477295</t>
   </si>
   <si>
-    <t xml:space="preserve">25.59157371521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8738689422607</t>
+    <t xml:space="preserve">25.5915756225586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8738708496094</t>
   </si>
   <si>
     <t xml:space="preserve">24.6182498931885</t>
@@ -4157,7 +4157,7 @@
     <t xml:space="preserve">25.6702270507812</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4469203948975</t>
+    <t xml:space="preserve">26.4469223022461</t>
   </si>
   <si>
     <t xml:space="preserve">25.95534324646</t>
@@ -4169,7 +4169,7 @@
     <t xml:space="preserve">26.5845642089844</t>
   </si>
   <si>
-    <t xml:space="preserve">26.31911277771</t>
+    <t xml:space="preserve">26.3191108703613</t>
   </si>
   <si>
     <t xml:space="preserve">26.014331817627</t>
@@ -4178,7 +4178,7 @@
     <t xml:space="preserve">25.7095527648926</t>
   </si>
   <si>
-    <t xml:space="preserve">24.991849899292</t>
+    <t xml:space="preserve">24.9918479919434</t>
   </si>
   <si>
     <t xml:space="preserve">24.1954936981201</t>
@@ -4193,13 +4193,13 @@
     <t xml:space="preserve">24.8050479888916</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7292156219482</t>
+    <t xml:space="preserve">25.7292175292969</t>
   </si>
   <si>
     <t xml:space="preserve">25.2081432342529</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4370880126953</t>
+    <t xml:space="preserve">26.4370899200439</t>
   </si>
   <si>
     <t xml:space="preserve">25.7488803863525</t>
@@ -4211,7 +4211,7 @@
     <t xml:space="preserve">25.8078689575195</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7263946533203</t>
+    <t xml:space="preserve">24.7263965606689</t>
   </si>
   <si>
     <t xml:space="preserve">24.1070079803467</t>
@@ -4220,7 +4220,7 @@
     <t xml:space="preserve">24.2643127441406</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7165641784668</t>
+    <t xml:space="preserve">24.7165660858154</t>
   </si>
   <si>
     <t xml:space="preserve">24.667407989502</t>
@@ -4229,7 +4229,7 @@
     <t xml:space="preserve">23.7137451171875</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7657241821289</t>
+    <t xml:space="preserve">24.7657222747803</t>
   </si>
   <si>
     <t xml:space="preserve">26.2011318206787</t>
@@ -4241,7 +4241,7 @@
     <t xml:space="preserve">27.6758670806885</t>
   </si>
   <si>
-    <t xml:space="preserve">28.5607070922852</t>
+    <t xml:space="preserve">28.5607089996338</t>
   </si>
   <si>
     <t xml:space="preserve">28.0887928009033</t>
@@ -4253,10 +4253,10 @@
     <t xml:space="preserve">27.1056365966797</t>
   </si>
   <si>
-    <t xml:space="preserve">27.164623260498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9188346862793</t>
+    <t xml:space="preserve">27.1646251678467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9188365936279</t>
   </si>
   <si>
     <t xml:space="preserve">26.7123737335205</t>
@@ -4268,22 +4268,22 @@
     <t xml:space="preserve">27.2826042175293</t>
   </si>
   <si>
-    <t xml:space="preserve">27.4104156494141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5480575561523</t>
+    <t xml:space="preserve">27.4104137420654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5480556488037</t>
   </si>
   <si>
     <t xml:space="preserve">26.3977642059326</t>
   </si>
   <si>
-    <t xml:space="preserve">27.184289932251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.0592994689941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.3514251708984</t>
+    <t xml:space="preserve">27.1842880249023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.0592975616455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.3514270782471</t>
   </si>
   <si>
     <t xml:space="preserve">26.5452365875244</t>
@@ -4310,13 +4310,13 @@
     <t xml:space="preserve">26.8401832580566</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4862480163574</t>
+    <t xml:space="preserve">26.4862461090088</t>
   </si>
   <si>
     <t xml:space="preserve">26.4567527770996</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2797832489014</t>
+    <t xml:space="preserve">26.27978515625</t>
   </si>
   <si>
     <t xml:space="preserve">26.8500137329102</t>
@@ -4343,16 +4343,16 @@
     <t xml:space="preserve">27.3710880279541</t>
   </si>
   <si>
-    <t xml:space="preserve">26.3682670593262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4960803985596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9974880218506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0368156433105</t>
+    <t xml:space="preserve">26.3682689666748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4960784912109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9974899291992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0368137359619</t>
   </si>
   <si>
     <t xml:space="preserve">26.6337223052979</t>
@@ -4376,25 +4376,25 @@
     <t xml:space="preserve">25.3064594268799</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1098289489746</t>
+    <t xml:space="preserve">25.109827041626</t>
   </si>
   <si>
     <t xml:space="preserve">24.8443756103516</t>
   </si>
   <si>
-    <t xml:space="preserve">28.0199718475342</t>
+    <t xml:space="preserve">28.0199737548828</t>
   </si>
   <si>
     <t xml:space="preserve">27.3317623138428</t>
   </si>
   <si>
-    <t xml:space="preserve">27.528392791748</t>
+    <t xml:space="preserve">27.5283946990967</t>
   </si>
   <si>
     <t xml:space="preserve">26.1519737243652</t>
   </si>
   <si>
-    <t xml:space="preserve">26.8795108795166</t>
+    <t xml:space="preserve">26.879508972168</t>
   </si>
   <si>
     <t xml:space="preserve">27.6856994628906</t>
@@ -4403,10 +4403,10 @@
     <t xml:space="preserve">26.9384994506836</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5943927764893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0171527862549</t>
+    <t xml:space="preserve">26.5943946838379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0171508789062</t>
   </si>
   <si>
     <t xml:space="preserve">26.8991737365723</t>
@@ -4415,7 +4415,7 @@
     <t xml:space="preserve">27.7446880340576</t>
   </si>
   <si>
-    <t xml:space="preserve">29.6126861572266</t>
+    <t xml:space="preserve">29.6126880645752</t>
   </si>
   <si>
     <t xml:space="preserve">28.9736328125</t>
@@ -4430,28 +4430,28 @@
     <t xml:space="preserve">28.6590232849121</t>
   </si>
   <si>
-    <t xml:space="preserve">28.5312156677246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4652137756348</t>
+    <t xml:space="preserve">28.531213760376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4652118682861</t>
   </si>
   <si>
     <t xml:space="preserve">28.855655670166</t>
   </si>
   <si>
-    <t xml:space="preserve">29.3275718688965</t>
+    <t xml:space="preserve">29.3275699615479</t>
   </si>
   <si>
     <t xml:space="preserve">29.6225185394287</t>
   </si>
   <si>
-    <t xml:space="preserve">30.1042671203613</t>
+    <t xml:space="preserve">30.1042652130127</t>
   </si>
   <si>
     <t xml:space="preserve">31.1169166564941</t>
   </si>
   <si>
-    <t xml:space="preserve">31.4020328521729</t>
+    <t xml:space="preserve">31.4020309448242</t>
   </si>
   <si>
     <t xml:space="preserve">31.2938842773438</t>
@@ -4460,7 +4460,7 @@
     <t xml:space="preserve">31.7264728546143</t>
   </si>
   <si>
-    <t xml:space="preserve">31.9525985717773</t>
+    <t xml:space="preserve">31.952600479126</t>
   </si>
   <si>
     <t xml:space="preserve">32.0902404785156</t>
@@ -4475,10 +4475,10 @@
     <t xml:space="preserve">32.1492309570312</t>
   </si>
   <si>
-    <t xml:space="preserve">31.7461395263672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3950233459473</t>
+    <t xml:space="preserve">31.7461357116699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.39501953125</t>
   </si>
   <si>
     <t xml:space="preserve">32.4638404846191</t>
@@ -4499,7 +4499,7 @@
     <t xml:space="preserve">32.8177795410156</t>
   </si>
   <si>
-    <t xml:space="preserve">33.2208709716797</t>
+    <t xml:space="preserve">33.220874786377</t>
   </si>
   <si>
     <t xml:space="preserve">32.7194595336914</t>
@@ -4508,7 +4508,7 @@
     <t xml:space="preserve">32.5621566772461</t>
   </si>
   <si>
-    <t xml:space="preserve">34.8922424316406</t>
+    <t xml:space="preserve">34.8922386169434</t>
   </si>
   <si>
     <t xml:space="preserve">34.2728500366211</t>
@@ -4520,10 +4520,10 @@
     <t xml:space="preserve">35.2461738586426</t>
   </si>
   <si>
-    <t xml:space="preserve">34.8430824279785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.7251014709473</t>
+    <t xml:space="preserve">34.8430786132812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.7251052856445</t>
   </si>
   <si>
     <t xml:space="preserve">35.1871871948242</t>
@@ -4535,7 +4535,7 @@
     <t xml:space="preserve">35.1281967163086</t>
   </si>
   <si>
-    <t xml:space="preserve">34.3318367004395</t>
+    <t xml:space="preserve">34.3318405151367</t>
   </si>
   <si>
     <t xml:space="preserve">33.5354843139648</t>
@@ -5226,6 +5226,9 @@
   </si>
   <si>
     <t xml:space="preserve">33.689998626709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.6300010681152</t>
   </si>
 </sst>
 </file>
@@ -61363,7 +61366,7 @@
     </row>
     <row r="2147">
       <c r="A2147" s="1" t="n">
-        <v>45450.6510416667</v>
+        <v>45450.2916666667</v>
       </c>
       <c r="B2147" t="n">
         <v>452746</v>
@@ -61384,6 +61387,32 @@
         <v>1736</v>
       </c>
       <c r="H2147" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2148">
+      <c r="A2148" s="1" t="n">
+        <v>45453.6510416667</v>
+      </c>
+      <c r="B2148" t="n">
+        <v>417276</v>
+      </c>
+      <c r="C2148" t="n">
+        <v>34.0499992370605</v>
+      </c>
+      <c r="D2148" t="n">
+        <v>33.5499992370605</v>
+      </c>
+      <c r="E2148" t="n">
+        <v>33.9700012207031</v>
+      </c>
+      <c r="F2148" t="n">
+        <v>33.6300010681152</v>
+      </c>
+      <c r="G2148" t="s">
+        <v>1738</v>
+      </c>
+      <c r="H2148" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/AMP.MI.xlsx
+++ b/data/AMP.MI.xlsx
@@ -38,25 +38,25 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">7.44491243362427</t>
+    <t xml:space="preserve">7.44491100311279</t>
   </si>
   <si>
     <t xml:space="preserve">AMP.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">7.50163459777832</t>
+    <t xml:space="preserve">7.50163507461548</t>
   </si>
   <si>
     <t xml:space="preserve">7.4212760925293</t>
   </si>
   <si>
-    <t xml:space="preserve">7.47799968719482</t>
+    <t xml:space="preserve">7.47800016403198</t>
   </si>
   <si>
     <t xml:space="preserve">7.26056146621704</t>
   </si>
   <si>
-    <t xml:space="preserve">7.0667576789856</t>
+    <t xml:space="preserve">7.06675720214844</t>
   </si>
   <si>
     <t xml:space="preserve">7.32673788070679</t>
@@ -71,61 +71,61 @@
     <t xml:space="preserve">7.13766145706177</t>
   </si>
   <si>
-    <t xml:space="preserve">7.19438362121582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30310344696045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.09039163589478</t>
+    <t xml:space="preserve">7.19438409805298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30310297012329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09039211273193</t>
   </si>
   <si>
     <t xml:space="preserve">7.24165344238281</t>
   </si>
   <si>
-    <t xml:space="preserve">7.45436525344849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34564590454102</t>
+    <t xml:space="preserve">7.45436573028564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34564542770386</t>
   </si>
   <si>
     <t xml:space="preserve">7.46381902694702</t>
   </si>
   <si>
-    <t xml:space="preserve">7.25583410263062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.28892230987549</t>
+    <t xml:space="preserve">7.25583505630493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.28892278671265</t>
   </si>
   <si>
     <t xml:space="preserve">7.52054214477539</t>
   </si>
   <si>
-    <t xml:space="preserve">7.39291477203369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.24637985229492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.156569480896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94858312606812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6082444190979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55152177810669</t>
+    <t xml:space="preserve">7.39291524887085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.24638032913208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15656900405884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94858407974243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60824489593506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.55152225494385</t>
   </si>
   <si>
     <t xml:space="preserve">6.68860292434692</t>
   </si>
   <si>
-    <t xml:space="preserve">6.42862176895142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38607978820801</t>
+    <t xml:space="preserve">6.42862224578857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38607931137085</t>
   </si>
   <si>
     <t xml:space="preserve">6.51843357086182</t>
@@ -134,151 +134,151 @@
     <t xml:space="preserve">6.71696424484253</t>
   </si>
   <si>
-    <t xml:space="preserve">6.98639965057373</t>
+    <t xml:space="preserve">6.98639869689941</t>
   </si>
   <si>
     <t xml:space="preserve">6.8115029335022</t>
   </si>
   <si>
-    <t xml:space="preserve">6.93912982940674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.80204916000366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72641801834106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.09984540939331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.99585342407227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90604066848755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90131425857544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94385623931885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.75950622558594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.73114442825317</t>
+    <t xml:space="preserve">6.93913078308105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.80204963684082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72641849517822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09984588623047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.99585294723511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90604162216187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9013147354126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94385671615601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.75950717926025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.73114585876465</t>
   </si>
   <si>
     <t xml:space="preserve">6.89658784866333</t>
   </si>
   <si>
-    <t xml:space="preserve">6.88713359832764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96276473999023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11402606964111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.21801900863647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18965721130371</t>
+    <t xml:space="preserve">6.88713312149048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96276426315308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11402654647827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.21801948547363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18965768814087</t>
   </si>
   <si>
     <t xml:space="preserve">7.31728410720825</t>
   </si>
   <si>
-    <t xml:space="preserve">7.21329164505005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1471152305603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35037326812744</t>
+    <t xml:space="preserve">7.21329212188721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14711475372314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35037231445312</t>
   </si>
   <si>
     <t xml:space="preserve">7.20383787155151</t>
   </si>
   <si>
-    <t xml:space="preserve">7.27946853637695</t>
+    <t xml:space="preserve">7.27946949005127</t>
   </si>
   <si>
     <t xml:space="preserve">7.03839540481567</t>
   </si>
   <si>
-    <t xml:space="preserve">7.0194878578186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10929918289185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37873411178589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.43545722961426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33619213104248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61508178710938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52526903152466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59617233276367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6907114982605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66707706451416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8467001914978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71434640884399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7568883895874</t>
+    <t xml:space="preserve">7.01948881149292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.109299659729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37873458862305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4354567527771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33619165420532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61508131027222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52526950836182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59617328643799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69071197509766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66707754135132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84669971466064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71434545516968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75688791275024</t>
   </si>
   <si>
     <t xml:space="preserve">7.81833934783936</t>
   </si>
   <si>
-    <t xml:space="preserve">7.85142803192139</t>
+    <t xml:space="preserve">7.8514289855957</t>
   </si>
   <si>
     <t xml:space="preserve">8.00268936157227</t>
   </si>
   <si>
-    <t xml:space="preserve">8.00741481781006</t>
+    <t xml:space="preserve">8.00741577148438</t>
   </si>
   <si>
     <t xml:space="preserve">7.98850679397583</t>
   </si>
   <si>
-    <t xml:space="preserve">7.90342330932617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0641393661499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99796104431152</t>
+    <t xml:space="preserve">7.90342283248901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.06413841247559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.997962474823</t>
   </si>
   <si>
     <t xml:space="preserve">8.21067333221436</t>
   </si>
   <si>
-    <t xml:space="preserve">8.13751602172852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2182731628418</t>
+    <t xml:space="preserve">8.13751697540283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21827411651611</t>
   </si>
   <si>
     <t xml:space="preserve">8.22777462005615</t>
@@ -293,52 +293,52 @@
     <t xml:space="preserve">8.33703517913818</t>
   </si>
   <si>
-    <t xml:space="preserve">8.36078834533691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34653568267822</t>
+    <t xml:space="preserve">8.3607873916626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34653663635254</t>
   </si>
   <si>
     <t xml:space="preserve">8.28003025054932</t>
   </si>
   <si>
-    <t xml:space="preserve">8.19927215576172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.20402240753174</t>
+    <t xml:space="preserve">8.19927310943604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.20402336120605</t>
   </si>
   <si>
     <t xml:space="preserve">8.26577854156494</t>
   </si>
   <si>
-    <t xml:space="preserve">8.13276672363281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0330057144165</t>
+    <t xml:space="preserve">8.1327657699585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03300666809082</t>
   </si>
   <si>
     <t xml:space="preserve">7.93799781799316</t>
   </si>
   <si>
-    <t xml:space="preserve">7.75748062133789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74322986602783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76698160171509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67197227478027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75273036956787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10901260375977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.06625843048096</t>
+    <t xml:space="preserve">7.75748109817505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74322938919067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76698207855225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67197322845459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75272941589355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10901355743408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.06625938415527</t>
   </si>
   <si>
     <t xml:space="preserve">8.18027019500732</t>
@@ -347,73 +347,73 @@
     <t xml:space="preserve">7.79073476791382</t>
   </si>
   <si>
-    <t xml:space="preserve">7.82873678207397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83823728561401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99025344848633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.04725742340088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00925540924072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9284987449646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83348655700684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99975395202637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08051109313965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03775787353516</t>
+    <t xml:space="preserve">7.82873725891113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83823776245117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99025440216064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0472583770752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00925445556641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92849731445312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83348751068115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99975442886353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08051013946533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03775691986084</t>
   </si>
   <si>
     <t xml:space="preserve">8.0282564163208</t>
   </si>
   <si>
-    <t xml:space="preserve">8.1755199432373</t>
+    <t xml:space="preserve">8.17551803588867</t>
   </si>
   <si>
     <t xml:space="preserve">8.30378246307373</t>
   </si>
   <si>
-    <t xml:space="preserve">8.28953075408936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31803417205811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31328201293945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.43204498291016</t>
+    <t xml:space="preserve">8.28953170776367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31803321838379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31328296661377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.43204402923584</t>
   </si>
   <si>
     <t xml:space="preserve">8.48904991149902</t>
   </si>
   <si>
-    <t xml:space="preserve">8.47479820251465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45579624176025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.4177942276001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2752799987793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41304206848145</t>
+    <t xml:space="preserve">8.47479724884033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45579528808594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41779232025146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27527904510498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41304111480713</t>
   </si>
   <si>
     <t xml:space="preserve">8.49380016326904</t>
@@ -425,7 +425,7 @@
     <t xml:space="preserve">8.7360725402832</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64106464385986</t>
+    <t xml:space="preserve">8.64106559753418</t>
   </si>
   <si>
     <t xml:space="preserve">8.76457595825195</t>
@@ -434,34 +434,34 @@
     <t xml:space="preserve">8.88808727264404</t>
   </si>
   <si>
-    <t xml:space="preserve">8.78357601165771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91659069061279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.94034099578857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.05435276031494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97834587097168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.94984340667725</t>
+    <t xml:space="preserve">8.78357887268066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91659164428711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.94034194946289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.05435180664062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97834491729736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.94984436035156</t>
   </si>
   <si>
     <t xml:space="preserve">8.878586769104</t>
   </si>
   <si>
-    <t xml:space="preserve">8.88333702087402</t>
+    <t xml:space="preserve">8.88333797454834</t>
   </si>
   <si>
     <t xml:space="preserve">8.95459365844727</t>
   </si>
   <si>
-    <t xml:space="preserve">8.86433506011963</t>
+    <t xml:space="preserve">8.86433410644531</t>
   </si>
   <si>
     <t xml:space="preserve">8.90233898162842</t>
@@ -476,7 +476,7 @@
     <t xml:space="preserve">8.72182273864746</t>
   </si>
   <si>
-    <t xml:space="preserve">8.70282077789307</t>
+    <t xml:space="preserve">8.70281982421875</t>
   </si>
   <si>
     <t xml:space="preserve">8.68856906890869</t>
@@ -488,25 +488,25 @@
     <t xml:space="preserve">8.6695671081543</t>
   </si>
   <si>
-    <t xml:space="preserve">8.66006469726562</t>
+    <t xml:space="preserve">8.66006565093994</t>
   </si>
   <si>
     <t xml:space="preserve">8.79782867431641</t>
   </si>
   <si>
-    <t xml:space="preserve">8.62681198120117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74557304382324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62206268310547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68381881713867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74082279205322</t>
+    <t xml:space="preserve">8.6268138885498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74557399749756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62206172943115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68381977081299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74082374572754</t>
   </si>
   <si>
     <t xml:space="preserve">8.59355926513672</t>
@@ -515,28 +515,28 @@
     <t xml:space="preserve">8.65531444549561</t>
   </si>
   <si>
-    <t xml:space="preserve">8.69331932067871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.82158184051514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21586799621582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.38688468933105</t>
+    <t xml:space="preserve">8.69331836700439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.82158088684082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21586894989014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.38688373565674</t>
   </si>
   <si>
     <t xml:space="preserve">9.20636558532715</t>
   </si>
   <si>
-    <t xml:space="preserve">9.1493616104126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02585029602051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.07335567474365</t>
+    <t xml:space="preserve">9.14936256408691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02585220336914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.07335376739502</t>
   </si>
   <si>
     <t xml:space="preserve">8.94509220123291</t>
@@ -545,25 +545,25 @@
     <t xml:space="preserve">8.63156318664551</t>
   </si>
   <si>
-    <t xml:space="preserve">8.55080604553223</t>
+    <t xml:space="preserve">8.55080699920654</t>
   </si>
   <si>
     <t xml:space="preserve">8.52705383300781</t>
   </si>
   <si>
-    <t xml:space="preserve">8.52230358123779</t>
+    <t xml:space="preserve">8.52230262756348</t>
   </si>
   <si>
     <t xml:space="preserve">8.71232032775879</t>
   </si>
   <si>
-    <t xml:space="preserve">8.47004699707031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5888090133667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5080509185791</t>
+    <t xml:space="preserve">8.47004795074463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58880996704102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.50805187225342</t>
   </si>
   <si>
     <t xml:space="preserve">8.59831047058105</t>
@@ -572,28 +572,28 @@
     <t xml:space="preserve">9.12086009979248</t>
   </si>
   <si>
-    <t xml:space="preserve">9.23486995697021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19686698913574</t>
+    <t xml:space="preserve">9.23487091064453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19686508178711</t>
   </si>
   <si>
     <t xml:space="preserve">8.64581489562988</t>
   </si>
   <si>
-    <t xml:space="preserve">8.28478050231934</t>
+    <t xml:space="preserve">8.28478145599365</t>
   </si>
   <si>
     <t xml:space="preserve">8.43679523468018</t>
   </si>
   <si>
-    <t xml:space="preserve">7.55321073532104</t>
+    <t xml:space="preserve">7.55321168899536</t>
   </si>
   <si>
     <t xml:space="preserve">8.10426330566406</t>
   </si>
   <si>
-    <t xml:space="preserve">8.07576084136963</t>
+    <t xml:space="preserve">8.07575988769531</t>
   </si>
   <si>
     <t xml:space="preserve">8.51280117034912</t>
@@ -602,70 +602,70 @@
     <t xml:space="preserve">8.53655433654785</t>
   </si>
   <si>
-    <t xml:space="preserve">8.57455730438232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.60781097412109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49855136871338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35603809356689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30853176116943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.50330066680908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.70757007598877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7788257598877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85483455657959</t>
+    <t xml:space="preserve">8.57455825805664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.60781192779541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.49854946136475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35603713989258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30853271484375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5033016204834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.70757102966309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77882671356201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85483264923096</t>
   </si>
   <si>
     <t xml:space="preserve">8.80257987976074</t>
   </si>
   <si>
-    <t xml:space="preserve">8.87383651733398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.84058380126953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2918758392334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.10185813903809</t>
+    <t xml:space="preserve">8.87383556365967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8405818939209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.29187488555908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.10185623168945</t>
   </si>
   <si>
     <t xml:space="preserve">9.27762413024902</t>
   </si>
   <si>
-    <t xml:space="preserve">9.40588665008545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47714519500732</t>
+    <t xml:space="preserve">9.40588569641113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47714424133301</t>
   </si>
   <si>
     <t xml:space="preserve">9.54839992523193</t>
   </si>
   <si>
-    <t xml:space="preserve">9.5198974609375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43438911437988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50089454650879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.58640384674072</t>
+    <t xml:space="preserve">9.51989650726318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4343900680542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50089550018311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.58640289306641</t>
   </si>
   <si>
     <t xml:space="preserve">9.6244068145752</t>
@@ -674,34 +674,34 @@
     <t xml:space="preserve">9.57690238952637</t>
   </si>
   <si>
-    <t xml:space="preserve">9.49614429473877</t>
+    <t xml:space="preserve">9.49614334106445</t>
   </si>
   <si>
     <t xml:space="preserve">9.24912071228027</t>
   </si>
   <si>
-    <t xml:space="preserve">9.24436950683594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.29662704467773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6054048538208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.95693683624268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1089534759521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9759407043457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0614471435547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.78592205047607</t>
+    <t xml:space="preserve">9.24437046051025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2966251373291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60540390014648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.95693778991699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1089525222778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97593975067139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0614490509033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.78592300415039</t>
   </si>
   <si>
     <t xml:space="preserve">9.85242938995361</t>
@@ -710,13 +710,13 @@
     <t xml:space="preserve">9.86192893981934</t>
   </si>
   <si>
-    <t xml:space="preserve">9.80492401123047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.93793678283691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1754589080811</t>
+    <t xml:space="preserve">9.80492305755615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.93793487548828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1754579544067</t>
   </si>
   <si>
     <t xml:space="preserve">10.1564569473267</t>
@@ -725,7 +725,7 @@
     <t xml:space="preserve">10.3369741439819</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3939790725708</t>
+    <t xml:space="preserve">10.3939781188965</t>
   </si>
   <si>
     <t xml:space="preserve">10.4129810333252</t>
@@ -734,25 +734,25 @@
     <t xml:space="preserve">10.5839977264404</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6315002441406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5174903869629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4889869689941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7360124588013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6695041656494</t>
+    <t xml:space="preserve">10.6315021514893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5174894332886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4889888763428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.736011505127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6695051193237</t>
   </si>
   <si>
     <t xml:space="preserve">10.6600036621094</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9735345840454</t>
+    <t xml:space="preserve">10.9735336303711</t>
   </si>
   <si>
     <t xml:space="preserve">11.0495414733887</t>
@@ -764,7 +764,7 @@
     <t xml:space="preserve">10.8120193481445</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8025178909302</t>
+    <t xml:space="preserve">10.8025169372559</t>
   </si>
   <si>
     <t xml:space="preserve">10.7835168838501</t>
@@ -773,22 +773,22 @@
     <t xml:space="preserve">10.8690233230591</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0590419769287</t>
+    <t xml:space="preserve">11.0590410232544</t>
   </si>
   <si>
     <t xml:space="preserve">11.0020360946655</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0970439910889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1635503768921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2965660095215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2585620880127</t>
+    <t xml:space="preserve">11.0970458984375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1635522842407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2965650558472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2585601806641</t>
   </si>
   <si>
     <t xml:space="preserve">11.4200773239136</t>
@@ -800,19 +800,19 @@
     <t xml:space="preserve">11.3725719451904</t>
   </si>
   <si>
-    <t xml:space="preserve">11.334568977356</t>
+    <t xml:space="preserve">11.3345670700073</t>
   </si>
   <si>
     <t xml:space="preserve">11.3155660629272</t>
   </si>
   <si>
-    <t xml:space="preserve">11.353569984436</t>
+    <t xml:space="preserve">11.3535690307617</t>
   </si>
   <si>
     <t xml:space="preserve">11.4485788345337</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6005926132202</t>
+    <t xml:space="preserve">11.6005916595459</t>
   </si>
   <si>
     <t xml:space="preserve">11.5815906524658</t>
@@ -824,13 +824,13 @@
     <t xml:space="preserve">11.7533178329468</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0017623901367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0399856567383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1259841918945</t>
+    <t xml:space="preserve">12.0017614364624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.039984703064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1259822845459</t>
   </si>
   <si>
     <t xml:space="preserve">12.0973176956177</t>
@@ -842,7 +842,7 @@
     <t xml:space="preserve">12.1164293289185</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1450939178467</t>
+    <t xml:space="preserve">12.145094871521</t>
   </si>
   <si>
     <t xml:space="preserve">12.2406511306763</t>
@@ -854,43 +854,43 @@
     <t xml:space="preserve">12.202428817749</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3935394287109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3648729324341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4222049713135</t>
+    <t xml:space="preserve">12.3935384750366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3648719787598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4222068786621</t>
   </si>
   <si>
     <t xml:space="preserve">12.087760925293</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3266506195068</t>
+    <t xml:space="preserve">12.3266496658325</t>
   </si>
   <si>
     <t xml:space="preserve">11.6577615737915</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4666519165039</t>
+    <t xml:space="preserve">11.4666509628296</t>
   </si>
   <si>
     <t xml:space="preserve">11.8679838180542</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9062051773071</t>
+    <t xml:space="preserve">11.9062061309814</t>
   </si>
   <si>
     <t xml:space="preserve">11.9444284439087</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9348735809326</t>
+    <t xml:space="preserve">11.9348726272583</t>
   </si>
   <si>
     <t xml:space="preserve">11.8010950088501</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7437610626221</t>
+    <t xml:space="preserve">11.7437620162964</t>
   </si>
   <si>
     <t xml:space="preserve">11.6959848403931</t>
@@ -899,16 +899,16 @@
     <t xml:space="preserve">11.6386518478394</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5430965423584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2468748092651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0462074279785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8550968170166</t>
+    <t xml:space="preserve">11.5430955886841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2468738555908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0462083816528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8550958633423</t>
   </si>
   <si>
     <t xml:space="preserve">10.7213182449341</t>
@@ -917,10 +917,10 @@
     <t xml:space="preserve">10.769097328186</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9028749465942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0748739242554</t>
+    <t xml:space="preserve">10.9028739929199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0748748779297</t>
   </si>
   <si>
     <t xml:space="preserve">11.065318107605</t>
@@ -929,13 +929,13 @@
     <t xml:space="preserve">11.1130962371826</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3042078018188</t>
+    <t xml:space="preserve">11.3042068481445</t>
   </si>
   <si>
     <t xml:space="preserve">11.5239849090576</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5526523590088</t>
+    <t xml:space="preserve">11.5526514053345</t>
   </si>
   <si>
     <t xml:space="preserve">11.5144290924072</t>
@@ -947,40 +947,40 @@
     <t xml:space="preserve">11.4379854202271</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6768732070923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6004295349121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5048742294312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4475402832031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4188737869263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.275541305542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1990966796875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0844287872314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8264303207397</t>
+    <t xml:space="preserve">11.6768751144409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6004285812378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5048732757568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4475393295288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.418872833252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2755422592163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1990957260132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0844306945801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8264293670654</t>
   </si>
   <si>
     <t xml:space="preserve">10.9984292984009</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9506521224976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3615417480469</t>
+    <t xml:space="preserve">10.9506530761719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3615407943726</t>
   </si>
   <si>
     <t xml:space="preserve">11.3328733444214</t>
@@ -989,16 +989,16 @@
     <t xml:space="preserve">11.2373180389404</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2946510314941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4857616424561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4953165054321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4093170166016</t>
+    <t xml:space="preserve">11.2946529388428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4857635498047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4953184127808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4093179702759</t>
   </si>
   <si>
     <t xml:space="preserve">11.2277631759644</t>
@@ -1013,28 +1013,28 @@
     <t xml:space="preserve">11.6099843978882</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8966503143311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.992205619812</t>
+    <t xml:space="preserve">11.8966512680054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9922065734863</t>
   </si>
   <si>
     <t xml:space="preserve">12.1642055511475</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1928730010986</t>
+    <t xml:space="preserve">12.1928720474243</t>
   </si>
   <si>
     <t xml:space="preserve">12.1355390548706</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2310943603516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2215385437012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2597599029541</t>
+    <t xml:space="preserve">12.2310953140259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2215404510498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2597618103027</t>
   </si>
   <si>
     <t xml:space="preserve">12.1546506881714</t>
@@ -1043,49 +1043,49 @@
     <t xml:space="preserve">12.0113172531128</t>
   </si>
   <si>
-    <t xml:space="preserve">12.403094291687</t>
+    <t xml:space="preserve">12.4030923843384</t>
   </si>
   <si>
     <t xml:space="preserve">12.3362054824829</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2884283065796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6706504821777</t>
+    <t xml:space="preserve">12.2884273529053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6706495285034</t>
   </si>
   <si>
     <t xml:space="preserve">12.7088718414307</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8330936431885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9764261245728</t>
+    <t xml:space="preserve">12.8330945968628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9764270782471</t>
   </si>
   <si>
     <t xml:space="preserve">13.0050935745239</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0242052078247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9955377578735</t>
+    <t xml:space="preserve">13.0242042541504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9955387115479</t>
   </si>
   <si>
     <t xml:space="preserve">12.3744277954102</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9635410308838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0304279327393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2119836807251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.355318069458</t>
+    <t xml:space="preserve">11.9635400772095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0304288864136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2119846343994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3553171157837</t>
   </si>
   <si>
     <t xml:space="preserve">12.460428237915</t>
@@ -1100,52 +1100,52 @@
     <t xml:space="preserve">11.734206199646</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5717611312866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8488731384277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9539852142334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2693176269531</t>
+    <t xml:space="preserve">11.5717639923096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8488721847534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9539842605591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2693166732788</t>
   </si>
   <si>
     <t xml:space="preserve">12.250205039978</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3839845657349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3170948028564</t>
+    <t xml:space="preserve">12.3839826583862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3170957565308</t>
   </si>
   <si>
     <t xml:space="preserve">12.5464277267456</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5177612304688</t>
+    <t xml:space="preserve">12.5177621841431</t>
   </si>
   <si>
     <t xml:space="preserve">12.3457612991333</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9157619476318</t>
+    <t xml:space="preserve">11.9157629013062</t>
   </si>
   <si>
     <t xml:space="preserve">12.3075399398804</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7279834747314</t>
+    <t xml:space="preserve">12.7279825210571</t>
   </si>
   <si>
     <t xml:space="preserve">12.7375383377075</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6897621154785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8235378265381</t>
+    <t xml:space="preserve">12.6897602081299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8235387802124</t>
   </si>
   <si>
     <t xml:space="preserve">13.3299808502197</t>
@@ -1154,25 +1154,25 @@
     <t xml:space="preserve">13.3204259872437</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2822036743164</t>
+    <t xml:space="preserve">13.2822046279907</t>
   </si>
   <si>
     <t xml:space="preserve">13.1484279632568</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6262035369873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6644258499146</t>
+    <t xml:space="preserve">13.6262044906616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6644268035889</t>
   </si>
   <si>
     <t xml:space="preserve">13.740870475769</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7599821090698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8077602386475</t>
+    <t xml:space="preserve">13.7599811553955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8077592849731</t>
   </si>
   <si>
     <t xml:space="preserve">13.7122039794922</t>
@@ -1184,40 +1184,40 @@
     <t xml:space="preserve">13.6739816665649</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5019807815552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1675367355347</t>
+    <t xml:space="preserve">13.5019826889038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.167537689209</t>
   </si>
   <si>
     <t xml:space="preserve">12.8044271469116</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5942039489746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5655364990234</t>
+    <t xml:space="preserve">12.5942049026489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5655384063721</t>
   </si>
   <si>
     <t xml:space="preserve">12.651538848877</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6993179321289</t>
+    <t xml:space="preserve">12.6993160247803</t>
   </si>
   <si>
     <t xml:space="preserve">13.0146493911743</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0719833374023</t>
+    <t xml:space="preserve">13.071982383728</t>
   </si>
   <si>
     <t xml:space="preserve">13.0433158874512</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7853174209595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4699840545654</t>
+    <t xml:space="preserve">12.7853164672852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4699831008911</t>
   </si>
   <si>
     <t xml:space="preserve">12.4413175582886</t>
@@ -1226,37 +1226,37 @@
     <t xml:space="preserve">12.9190940856934</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2344274520874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2917594909668</t>
+    <t xml:space="preserve">13.2344255447388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2917604446411</t>
   </si>
   <si>
     <t xml:space="preserve">13.4637603759766</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6070938110352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5306482315063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5210943222046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3586483001709</t>
+    <t xml:space="preserve">13.6070928573608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.530647277832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.521092414856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3586492538452</t>
   </si>
   <si>
     <t xml:space="preserve">13.5402040481567</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4446487426758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0815372467041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0528707504272</t>
+    <t xml:space="preserve">13.4446477890015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0815382003784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0528717041016</t>
   </si>
   <si>
     <t xml:space="preserve">13.4924268722534</t>
@@ -1268,37 +1268,37 @@
     <t xml:space="preserve">13.8459815979004</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5115385055542</t>
+    <t xml:space="preserve">13.5115365982056</t>
   </si>
   <si>
     <t xml:space="preserve">13.9988689422607</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2090930938721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3524255752563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.610424041748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5148706436157</t>
+    <t xml:space="preserve">14.2090911865234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3524265289307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6104249954224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5148696899414</t>
   </si>
   <si>
     <t xml:space="preserve">14.7824249267578</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8206462860107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9066476821899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1359796524048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0786457061768</t>
+    <t xml:space="preserve">14.8206472396851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9066457748413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1359806060791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0786466598511</t>
   </si>
   <si>
     <t xml:space="preserve">15.3366451263428</t>
@@ -1310,7 +1310,7 @@
     <t xml:space="preserve">15.2219800949097</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2602024078369</t>
+    <t xml:space="preserve">15.2602033615112</t>
   </si>
   <si>
     <t xml:space="preserve">15.1264238357544</t>
@@ -1322,22 +1322,22 @@
     <t xml:space="preserve">14.9353141784668</t>
   </si>
   <si>
-    <t xml:space="preserve">14.811089515686</t>
+    <t xml:space="preserve">14.8110904693604</t>
   </si>
   <si>
     <t xml:space="preserve">15.3939800262451</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4990892410278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.470422744751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4799814224243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6710901260376</t>
+    <t xml:space="preserve">15.4990911483765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4704246520996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4799795150757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6710920333862</t>
   </si>
   <si>
     <t xml:space="preserve">15.6233129501343</t>
@@ -1352,10 +1352,10 @@
     <t xml:space="preserve">15.6519784927368</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2410907745361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5755338668823</t>
+    <t xml:space="preserve">15.2410898208618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5755348205566</t>
   </si>
   <si>
     <t xml:space="preserve">15.0401563644409</t>
@@ -1367,22 +1367,22 @@
     <t xml:space="preserve">14.559024810791</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8284568786621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9535522460938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0978908538818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1356287002563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6167612075806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8380794525146</t>
+    <t xml:space="preserve">14.8284578323364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9535512924194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0978899002075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.135627746582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6167593002319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8380813598633</t>
   </si>
   <si>
     <t xml:space="preserve">14.8477039337158</t>
@@ -1397,7 +1397,7 @@
     <t xml:space="preserve">16.358455657959</t>
   </si>
   <si>
-    <t xml:space="preserve">16.704870223999</t>
+    <t xml:space="preserve">16.7048683166504</t>
   </si>
   <si>
     <t xml:space="preserve">16.3969459533691</t>
@@ -1409,7 +1409,7 @@
     <t xml:space="preserve">16.4450588226318</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4546794891357</t>
+    <t xml:space="preserve">16.4546813964844</t>
   </si>
   <si>
     <t xml:space="preserve">16.5701503753662</t>
@@ -1421,7 +1421,7 @@
     <t xml:space="preserve">16.3103427886963</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7722282409668</t>
+    <t xml:space="preserve">16.7722263336182</t>
   </si>
   <si>
     <t xml:space="preserve">16.9743022918701</t>
@@ -1430,7 +1430,7 @@
     <t xml:space="preserve">16.9165668487549</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8203411102295</t>
+    <t xml:space="preserve">16.8203392028809</t>
   </si>
   <si>
     <t xml:space="preserve">16.5509071350098</t>
@@ -1439,22 +1439,22 @@
     <t xml:space="preserve">16.5027923583984</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9261875152588</t>
+    <t xml:space="preserve">16.9261894226074</t>
   </si>
   <si>
     <t xml:space="preserve">17.0897731781006</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1378860473633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3014698028564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1763801574707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0224170684814</t>
+    <t xml:space="preserve">17.1378879547119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3014717102051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1763763427734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0224151611328</t>
   </si>
   <si>
     <t xml:space="preserve">16.6182651519775</t>
@@ -1466,19 +1466,19 @@
     <t xml:space="preserve">16.4643039703369</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6471328735352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8010921478271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6086444854736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7626056671143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3592090606689</t>
+    <t xml:space="preserve">16.6471309661865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8010940551758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.608642578125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7626075744629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3592071533203</t>
   </si>
   <si>
     <t xml:space="preserve">17.8018474578857</t>
@@ -1487,7 +1487,7 @@
     <t xml:space="preserve">18.2156200408936</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7056198120117</t>
+    <t xml:space="preserve">17.7056217193604</t>
   </si>
   <si>
     <t xml:space="preserve">18.3503379821777</t>
@@ -1496,13 +1496,13 @@
     <t xml:space="preserve">18.4369411468506</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9950523376465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4080696105957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6871280670166</t>
+    <t xml:space="preserve">18.9950542449951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4080715179443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6871318817139</t>
   </si>
   <si>
     <t xml:space="preserve">18.5235462188721</t>
@@ -1514,19 +1514,19 @@
     <t xml:space="preserve">18.1290187835693</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8980751037598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0520362854004</t>
+    <t xml:space="preserve">17.8980731964111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0520343780518</t>
   </si>
   <si>
     <t xml:space="preserve">18.0231685638428</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5716552734375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6486358642578</t>
+    <t xml:space="preserve">18.5716571807861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6486377716064</t>
   </si>
   <si>
     <t xml:space="preserve">18.4754314422607</t>
@@ -1535,13 +1535,13 @@
     <t xml:space="preserve">18.302225112915</t>
   </si>
   <si>
-    <t xml:space="preserve">18.379207611084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4850521087646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3310871124268</t>
+    <t xml:space="preserve">18.3792037963867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4850540161133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.331090927124</t>
   </si>
   <si>
     <t xml:space="preserve">18.2059993743896</t>
@@ -1550,13 +1550,13 @@
     <t xml:space="preserve">18.2733554840088</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8403396606445</t>
+    <t xml:space="preserve">17.8403377532959</t>
   </si>
   <si>
     <t xml:space="preserve">18.6678829193115</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1001472473145</t>
+    <t xml:space="preserve">18.1001491546631</t>
   </si>
   <si>
     <t xml:space="preserve">18.2829780578613</t>
@@ -1565,7 +1565,7 @@
     <t xml:space="preserve">19.0239200592041</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6301460266113</t>
+    <t xml:space="preserve">19.6301441192627</t>
   </si>
   <si>
     <t xml:space="preserve">19.7071266174316</t>
@@ -1574,10 +1574,10 @@
     <t xml:space="preserve">19.6686363220215</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4761810302734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3414688110352</t>
+    <t xml:space="preserve">19.4761829376221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3414649963379</t>
   </si>
   <si>
     <t xml:space="preserve">19.004674911499</t>
@@ -1592,31 +1592,31 @@
     <t xml:space="preserve">19.0527896881104</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2452392578125</t>
+    <t xml:space="preserve">19.2452411651611</t>
   </si>
   <si>
     <t xml:space="preserve">18.9661827087402</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4176940917969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.783353805542</t>
+    <t xml:space="preserve">18.4176959991455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7833557128906</t>
   </si>
   <si>
     <t xml:space="preserve">18.3118457794189</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5612812042236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8107147216797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6848707199097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8195896148682</t>
+    <t xml:space="preserve">17.5612831115723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8107166290283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.684871673584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8195877075195</t>
   </si>
   <si>
     <t xml:space="preserve">15.906192779541</t>
@@ -1625,7 +1625,7 @@
     <t xml:space="preserve">15.2326078414917</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6560020446777</t>
+    <t xml:space="preserve">15.6560039520264</t>
   </si>
   <si>
     <t xml:space="preserve">15.6944942474365</t>
@@ -1637,79 +1637,79 @@
     <t xml:space="preserve">15.9639272689819</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1748723983765</t>
+    <t xml:space="preserve">15.1748733520508</t>
   </si>
   <si>
     <t xml:space="preserve">15.2999658584595</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2229852676392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2037401199341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2422304153442</t>
+    <t xml:space="preserve">15.2229862213135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2037410736084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2422313690186</t>
   </si>
   <si>
     <t xml:space="preserve">15.0690231323242</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8765707015991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9246835708618</t>
+    <t xml:space="preserve">14.8765716552734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9246845245361</t>
   </si>
   <si>
     <t xml:space="preserve">14.8958158493042</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8669481277466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1556272506714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2807216644287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0112886428833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0201578140259</t>
+    <t xml:space="preserve">14.8669471740723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1556282043457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2807207107544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.011287689209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0201568603516</t>
   </si>
   <si>
     <t xml:space="preserve">13.9335536956787</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3273296356201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2792177200317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.587140083313</t>
+    <t xml:space="preserve">13.3273286819458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2792167663574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5871391296387</t>
   </si>
   <si>
     <t xml:space="preserve">13.4620456695557</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5967617034912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8565740585327</t>
+    <t xml:space="preserve">13.5967626571655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8565721511841</t>
   </si>
   <si>
     <t xml:space="preserve">13.6929893493652</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4235544204712</t>
+    <t xml:space="preserve">13.4235553741455</t>
   </si>
   <si>
     <t xml:space="preserve">14.0778942108154</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2222328186035</t>
+    <t xml:space="preserve">14.2222318649292</t>
   </si>
   <si>
     <t xml:space="preserve">14.7129859924316</t>
@@ -1724,16 +1724,16 @@
     <t xml:space="preserve">14.5205335617065</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5494012832642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0009126663208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9431772232056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7988367080688</t>
+    <t xml:space="preserve">14.5494022369385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0009136199951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9431762695312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7988386154175</t>
   </si>
   <si>
     <t xml:space="preserve">13.962423324585</t>
@@ -1742,37 +1742,37 @@
     <t xml:space="preserve">14.1067609786987</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1548748016357</t>
+    <t xml:space="preserve">14.1548738479614</t>
   </si>
   <si>
     <t xml:space="preserve">14.6360054016113</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9816675186157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.913556098938</t>
+    <t xml:space="preserve">13.9816665649414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9135570526123</t>
   </si>
   <si>
     <t xml:space="preserve">13.5197811126709</t>
   </si>
   <si>
-    <t xml:space="preserve">13.385064125061</t>
+    <t xml:space="preserve">13.3850650787354</t>
   </si>
   <si>
     <t xml:space="preserve">13.9527997970581</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2799701690674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0594005584717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4827966690063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1075134277344</t>
+    <t xml:space="preserve">14.2799692153931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0593996047974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.482795715332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1075143814087</t>
   </si>
   <si>
     <t xml:space="preserve">15.3095893859863</t>
@@ -1784,16 +1784,16 @@
     <t xml:space="preserve">15.3769474029541</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5405311584473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5886468887329</t>
+    <t xml:space="preserve">15.5405321121216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5886449813843</t>
   </si>
   <si>
     <t xml:space="preserve">15.5212860107422</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3673257827759</t>
+    <t xml:space="preserve">15.3673248291016</t>
   </si>
   <si>
     <t xml:space="preserve">15.2518529891968</t>
@@ -1802,34 +1802,34 @@
     <t xml:space="preserve">15.1460037231445</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0497798919678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0882682800293</t>
+    <t xml:space="preserve">15.0497789382935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0882701873779</t>
   </si>
   <si>
     <t xml:space="preserve">15.1652498245239</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8484544754028</t>
+    <t xml:space="preserve">15.8484554290771</t>
   </si>
   <si>
     <t xml:space="preserve">15.9446811676025</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2903432846069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4443044662476</t>
+    <t xml:space="preserve">15.2903442382812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4443054199219</t>
   </si>
   <si>
     <t xml:space="preserve">15.7810974121094</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6656274795532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6271343231201</t>
+    <t xml:space="preserve">15.6656255722046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6271352767944</t>
   </si>
   <si>
     <t xml:space="preserve">15.0016651153564</t>
@@ -1841,7 +1841,7 @@
     <t xml:space="preserve">15.4539289474487</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4250621795654</t>
+    <t xml:space="preserve">15.4250612258911</t>
   </si>
   <si>
     <t xml:space="preserve">15.6752490997314</t>
@@ -1850,22 +1850,22 @@
     <t xml:space="preserve">15.5982666015625</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7426099777222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9735517501831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6760005950928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2044944763184</t>
+    <t xml:space="preserve">15.7426071166992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9735507965088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6760025024414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2044925689697</t>
   </si>
   <si>
     <t xml:space="preserve">15.4924192428589</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0216636657715</t>
+    <t xml:space="preserve">16.0216617584229</t>
   </si>
   <si>
     <t xml:space="preserve">16.93581199646</t>
@@ -1874,37 +1874,37 @@
     <t xml:space="preserve">17.0993976593018</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7433605194092</t>
+    <t xml:space="preserve">16.7433586120605</t>
   </si>
   <si>
     <t xml:space="preserve">16.4354362487793</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4739246368408</t>
+    <t xml:space="preserve">16.4739265441895</t>
   </si>
   <si>
     <t xml:space="preserve">17.0031719207764</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6663818359375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0609073638916</t>
+    <t xml:space="preserve">16.6663799285889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.060905456543</t>
   </si>
   <si>
     <t xml:space="preserve">16.9839248657227</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1475086212158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1186428070068</t>
+    <t xml:space="preserve">17.1475105285645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1186408996582</t>
   </si>
   <si>
     <t xml:space="preserve">16.4931716918945</t>
   </si>
   <si>
-    <t xml:space="preserve">16.137134552002</t>
+    <t xml:space="preserve">16.1371364593506</t>
   </si>
   <si>
     <t xml:space="preserve">16.1275119781494</t>
@@ -1913,7 +1913,7 @@
     <t xml:space="preserve">16.1660022735596</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0890216827393</t>
+    <t xml:space="preserve">16.0890197753906</t>
   </si>
   <si>
     <t xml:space="preserve">16.5990219116211</t>
@@ -1922,10 +1922,10 @@
     <t xml:space="preserve">16.4835472106934</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1563777923584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.763355255127</t>
+    <t xml:space="preserve">16.156379699707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7633571624756</t>
   </si>
   <si>
     <t xml:space="preserve">17.9269428253174</t>
@@ -1934,58 +1934,58 @@
     <t xml:space="preserve">18.3599605560303</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5709056854248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5420360565186</t>
+    <t xml:space="preserve">17.5709037780762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5420379638672</t>
   </si>
   <si>
     <t xml:space="preserve">18.0905265808105</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9469394683838</t>
+    <t xml:space="preserve">18.9469375610352</t>
   </si>
   <si>
     <t xml:space="preserve">18.8521842956543</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1526546478271</t>
+    <t xml:space="preserve">19.1526565551758</t>
   </si>
   <si>
     <t xml:space="preserve">19.8892955780029</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7923679351807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2108135223389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2301959991455</t>
+    <t xml:space="preserve">19.7923698425293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2108116149902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2301979064941</t>
   </si>
   <si>
     <t xml:space="preserve">19.2689685821533</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8715705871582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9878807067871</t>
+    <t xml:space="preserve">18.8715667724609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9878826141357</t>
   </si>
   <si>
     <t xml:space="preserve">19.2495822906494</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3174324035645</t>
+    <t xml:space="preserve">19.3174304962158</t>
   </si>
   <si>
     <t xml:space="preserve">19.520975112915</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6760559082031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3755855560303</t>
+    <t xml:space="preserve">19.6760597229004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3755874633789</t>
   </si>
   <si>
     <t xml:space="preserve">19.4822044372559</t>
@@ -1994,7 +1994,7 @@
     <t xml:space="preserve">19.4046649932861</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5403614044189</t>
+    <t xml:space="preserve">19.5403633117676</t>
   </si>
   <si>
     <t xml:space="preserve">20.199462890625</t>
@@ -2003,16 +2003,16 @@
     <t xml:space="preserve">20.4514694213867</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5677814483643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8973293304443</t>
+    <t xml:space="preserve">20.5677795410156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.897331237793</t>
   </si>
   <si>
     <t xml:space="preserve">20.8585605621338</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1105709075928</t>
+    <t xml:space="preserve">21.1105690002441</t>
   </si>
   <si>
     <t xml:space="preserve">20.2576160430908</t>
@@ -2021,16 +2021,16 @@
     <t xml:space="preserve">20.1413059234619</t>
   </si>
   <si>
-    <t xml:space="preserve">19.772985458374</t>
+    <t xml:space="preserve">19.7729835510254</t>
   </si>
   <si>
     <t xml:space="preserve">19.5985164642334</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9280681610107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9668388366699</t>
+    <t xml:space="preserve">19.9280662536621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9668369293213</t>
   </si>
   <si>
     <t xml:space="preserve">20.3933143615723</t>
@@ -2039,7 +2039,7 @@
     <t xml:space="preserve">20.2382316589355</t>
   </si>
   <si>
-    <t xml:space="preserve">19.947452545166</t>
+    <t xml:space="preserve">19.9474506378174</t>
   </si>
   <si>
     <t xml:space="preserve">19.8505268096924</t>
@@ -2048,34 +2048,34 @@
     <t xml:space="preserve">20.0249938964844</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6065521240234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5871658325195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5290107727051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0136413574219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9942569732666</t>
+    <t xml:space="preserve">20.6065540313721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5871677398682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5290126800537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0136432647705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9942588806152</t>
   </si>
   <si>
     <t xml:space="preserve">20.7228622436523</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3351554870605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4320831298828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4902400970459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5952014923096</t>
+    <t xml:space="preserve">20.3351573944092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4320850372314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4902381896973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5951995849609</t>
   </si>
   <si>
     <t xml:space="preserve">21.4982738494873</t>
@@ -2084,19 +2084,19 @@
     <t xml:space="preserve">20.7422485351562</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3157730102539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8779468536377</t>
+    <t xml:space="preserve">20.3157711029053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8779449462891</t>
   </si>
   <si>
     <t xml:space="preserve">21.30442237854</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4207324981689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4788913726807</t>
+    <t xml:space="preserve">21.4207344055176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.478889465332</t>
   </si>
   <si>
     <t xml:space="preserve">21.5758171081543</t>
@@ -2105,28 +2105,28 @@
     <t xml:space="preserve">21.3431911468506</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6145839691162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1767597198486</t>
+    <t xml:space="preserve">21.6145858764648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1767578125</t>
   </si>
   <si>
     <t xml:space="preserve">22.8164749145508</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8940162658691</t>
+    <t xml:space="preserve">22.8940143585205</t>
   </si>
   <si>
     <t xml:space="preserve">22.85524559021</t>
   </si>
   <si>
-    <t xml:space="preserve">22.428768157959</t>
+    <t xml:space="preserve">22.4287662506104</t>
   </si>
   <si>
     <t xml:space="preserve">22.5838489532471</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2930698394775</t>
+    <t xml:space="preserve">22.2930717468262</t>
   </si>
   <si>
     <t xml:space="preserve">22.2736854553223</t>
@@ -2135,7 +2135,7 @@
     <t xml:space="preserve">22.6420059204102</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9327850341797</t>
+    <t xml:space="preserve">22.9327869415283</t>
   </si>
   <si>
     <t xml:space="preserve">23.0878677368164</t>
@@ -2144,37 +2144,37 @@
     <t xml:space="preserve">23.1460227966309</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3899974822998</t>
+    <t xml:space="preserve">22.3899993896484</t>
   </si>
   <si>
     <t xml:space="preserve">22.5644645690918</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6727447509766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7810211181641</t>
+    <t xml:space="preserve">21.6727409362793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7810192108154</t>
   </si>
   <si>
     <t xml:space="preserve">20.7616348266602</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4401206970215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0911827087402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1881122589111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4013481140137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0604476928711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8278255462646</t>
+    <t xml:space="preserve">21.4401187896729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0911865234375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1881084442139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4013500213623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0604496002197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.827823638916</t>
   </si>
   <si>
     <t xml:space="preserve">21.5370445251465</t>
@@ -2183,28 +2183,28 @@
     <t xml:space="preserve">21.6921272277832</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9247512817383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.002290725708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8084373474121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9053649902344</t>
+    <t xml:space="preserve">21.9247531890869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0022926330566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8084392547607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.905366897583</t>
   </si>
   <si>
     <t xml:space="preserve">20.9554882049561</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9167156219482</t>
+    <t xml:space="preserve">20.9167175292969</t>
   </si>
   <si>
     <t xml:space="preserve">20.8004035949707</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1687240600586</t>
+    <t xml:space="preserve">21.1687259674072</t>
   </si>
   <si>
     <t xml:space="preserve">20.6840953826904</t>
@@ -2213,13 +2213,13 @@
     <t xml:space="preserve">21.2074947357178</t>
   </si>
   <si>
-    <t xml:space="preserve">21.246265411377</t>
+    <t xml:space="preserve">21.2462673187256</t>
   </si>
   <si>
     <t xml:space="preserve">20.6259365081787</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6453227996826</t>
+    <t xml:space="preserve">20.645320892334</t>
   </si>
   <si>
     <t xml:space="preserve">22.1573734283447</t>
@@ -2231,13 +2231,13 @@
     <t xml:space="preserve">22.8746299743652</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9909400939941</t>
+    <t xml:space="preserve">22.9909420013428</t>
   </si>
   <si>
     <t xml:space="preserve">23.3592624664307</t>
   </si>
   <si>
-    <t xml:space="preserve">23.8051242828369</t>
+    <t xml:space="preserve">23.8051223754883</t>
   </si>
   <si>
     <t xml:space="preserve">24.0765171051025</t>
@@ -2249,16 +2249,16 @@
     <t xml:space="preserve">23.9214344024658</t>
   </si>
   <si>
-    <t xml:space="preserve">24.4448375701904</t>
+    <t xml:space="preserve">24.4448356628418</t>
   </si>
   <si>
     <t xml:space="preserve">24.1540584564209</t>
   </si>
   <si>
-    <t xml:space="preserve">24.2315979003906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3285236358643</t>
+    <t xml:space="preserve">24.2315998077393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3285274505615</t>
   </si>
   <si>
     <t xml:space="preserve">24.73561668396</t>
@@ -2267,34 +2267,34 @@
     <t xml:space="preserve">25.2396335601807</t>
   </si>
   <si>
-    <t xml:space="preserve">25.4722595214844</t>
+    <t xml:space="preserve">25.4722557067871</t>
   </si>
   <si>
     <t xml:space="preserve">25.7436504364014</t>
   </si>
   <si>
-    <t xml:space="preserve">24.6968441009521</t>
+    <t xml:space="preserve">24.6968460083008</t>
   </si>
   <si>
     <t xml:space="preserve">25.3559455871582</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6661109924316</t>
+    <t xml:space="preserve">25.666109085083</t>
   </si>
   <si>
     <t xml:space="preserve">25.2977886199951</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3947162628174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9876270294189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3171768188477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2008628845215</t>
+    <t xml:space="preserve">25.3947143554688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9876232147217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.317174911499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2008647918701</t>
   </si>
   <si>
     <t xml:space="preserve">25.0070095062256</t>
@@ -2303,16 +2303,16 @@
     <t xml:space="preserve">24.8131580352783</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9100856781006</t>
+    <t xml:space="preserve">24.910083770752</t>
   </si>
   <si>
     <t xml:space="preserve">24.7162322998047</t>
   </si>
   <si>
-    <t xml:space="preserve">25.0263977050781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0457801818848</t>
+    <t xml:space="preserve">25.0263957977295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0457820892334</t>
   </si>
   <si>
     <t xml:space="preserve">24.8519268035889</t>
@@ -2324,7 +2324,7 @@
     <t xml:space="preserve">24.9488544464111</t>
   </si>
   <si>
-    <t xml:space="preserve">25.0651664733887</t>
+    <t xml:space="preserve">25.0651683807373</t>
   </si>
   <si>
     <t xml:space="preserve">25.6854953765869</t>
@@ -2339,13 +2339,13 @@
     <t xml:space="preserve">25.3753318786621</t>
   </si>
   <si>
-    <t xml:space="preserve">25.5885677337646</t>
+    <t xml:space="preserve">25.5885696411133</t>
   </si>
   <si>
     <t xml:space="preserve">26.1507396697998</t>
   </si>
   <si>
-    <t xml:space="preserve">25.9956569671631</t>
+    <t xml:space="preserve">25.9956588745117</t>
   </si>
   <si>
     <t xml:space="preserve">25.9375057220459</t>
@@ -2360,10 +2360,10 @@
     <t xml:space="preserve">25.142707824707</t>
   </si>
   <si>
-    <t xml:space="preserve">24.890697479248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2784061431885</t>
+    <t xml:space="preserve">24.8907012939453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2784042358398</t>
   </si>
   <si>
     <t xml:space="preserve">26.0538139343262</t>
@@ -2375,22 +2375,22 @@
     <t xml:space="preserve">26.674144744873</t>
   </si>
   <si>
-    <t xml:space="preserve">26.790454864502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5464820861816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.6240215301514</t>
+    <t xml:space="preserve">26.7904567718506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.546480178833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.6240234375</t>
   </si>
   <si>
     <t xml:space="preserve">27.9341869354248</t>
   </si>
   <si>
-    <t xml:space="preserve">28.1086540222168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.2443523406982</t>
+    <t xml:space="preserve">28.1086559295654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.2443504333496</t>
   </si>
   <si>
     <t xml:space="preserve">28.6126728057861</t>
@@ -2399,28 +2399,28 @@
     <t xml:space="preserve">29.2136154174805</t>
   </si>
   <si>
-    <t xml:space="preserve">28.7096004486084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.3025074005127</t>
+    <t xml:space="preserve">28.7095985412598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.3025093078613</t>
   </si>
   <si>
     <t xml:space="preserve">26.3639793395996</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6079521179199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9682388305664</t>
+    <t xml:space="preserve">25.6079540252686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.968240737915</t>
   </si>
   <si>
     <t xml:space="preserve">23.960205078125</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8325443267822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7857360839844</t>
+    <t xml:space="preserve">24.8325424194336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7857398986816</t>
   </si>
   <si>
     <t xml:space="preserve">20.1219215393066</t>
@@ -2429,13 +2429,13 @@
     <t xml:space="preserve">19.6372871398926</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8183879852295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.582447052002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9637756347656</t>
+    <t xml:space="preserve">15.8183870315552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5824489593506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9637775421143</t>
   </si>
   <si>
     <t xml:space="preserve">16.3611755371094</t>
@@ -2447,7 +2447,7 @@
     <t xml:space="preserve">17.7859935760498</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0089225769043</t>
+    <t xml:space="preserve">18.0089244842529</t>
   </si>
   <si>
     <t xml:space="preserve">18.406322479248</t>
@@ -2456,49 +2456,49 @@
     <t xml:space="preserve">19.1138858795166</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4160137176514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4935550689697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3869380950928</t>
+    <t xml:space="preserve">18.416015625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4935569763184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3869361877441</t>
   </si>
   <si>
     <t xml:space="preserve">18.1446208953857</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6406059265137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6696815490723</t>
+    <t xml:space="preserve">17.640604019165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6696834564209</t>
   </si>
   <si>
     <t xml:space="preserve">17.059045791626</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9119968414307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0654220581055</t>
+    <t xml:space="preserve">17.9119987487793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0654239654541</t>
   </si>
   <si>
     <t xml:space="preserve">18.7067947387695</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7213344573975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0460357666016</t>
+    <t xml:space="preserve">18.7213325500488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0460376739502</t>
   </si>
   <si>
     <t xml:space="preserve">18.2221622467041</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1784191131592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5597476959229</t>
+    <t xml:space="preserve">21.1784172058105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5597457885742</t>
   </si>
   <si>
     <t xml:space="preserve">19.1284255981445</t>
@@ -2507,10 +2507,10 @@
     <t xml:space="preserve">20.3060817718506</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5483951568604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.286693572998</t>
+    <t xml:space="preserve">20.548397064209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2866954803467</t>
   </si>
   <si>
     <t xml:space="preserve">20.2673091888428</t>
@@ -2519,25 +2519,25 @@
     <t xml:space="preserve">20.0637645721436</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9845657348633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.089527130127</t>
+    <t xml:space="preserve">20.9845638275146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0895252227783</t>
   </si>
   <si>
     <t xml:space="preserve">21.7018184661865</t>
   </si>
   <si>
-    <t xml:space="preserve">22.671085357666</t>
+    <t xml:space="preserve">22.6710815429688</t>
   </si>
   <si>
     <t xml:space="preserve">22.1186027526855</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3334999084473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7502822875977</t>
+    <t xml:space="preserve">21.3335018157959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7502841949463</t>
   </si>
   <si>
     <t xml:space="preserve">22.186450958252</t>
@@ -2546,10 +2546,10 @@
     <t xml:space="preserve">21.2656517028809</t>
   </si>
   <si>
-    <t xml:space="preserve">22.322151184082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9829082489014</t>
+    <t xml:space="preserve">22.3221492767334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9829063415527</t>
   </si>
   <si>
     <t xml:space="preserve">23.3786468505859</t>
@@ -2558,13 +2558,13 @@
     <t xml:space="preserve">23.4852657318115</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6129283905029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8535861968994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1831378936768</t>
+    <t xml:space="preserve">22.6129302978516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.853588104248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1831359863281</t>
   </si>
   <si>
     <t xml:space="preserve">23.8729705810547</t>
@@ -2573,28 +2573,28 @@
     <t xml:space="preserve">24.2025203704834</t>
   </si>
   <si>
-    <t xml:space="preserve">24.1734428405762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7081966400146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0297107696533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9715576171875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2155323028564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3996906280518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0394039154053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2817192077637</t>
+    <t xml:space="preserve">24.1734447479248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.708194732666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.029712677002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9715557098389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2155303955078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3996887207031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0394058227539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2817211151123</t>
   </si>
   <si>
     <t xml:space="preserve">23.6500415802002</t>
@@ -2603,7 +2603,7 @@
     <t xml:space="preserve">23.02001953125</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0491008758545</t>
+    <t xml:space="preserve">23.0490951538086</t>
   </si>
   <si>
     <t xml:space="preserve">23.4949588775635</t>
@@ -2612,10 +2612,10 @@
     <t xml:space="preserve">23.8148136138916</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7583160400391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7970886230469</t>
+    <t xml:space="preserve">22.7583179473877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7970905303955</t>
   </si>
   <si>
     <t xml:space="preserve">22.9812469482422</t>
@@ -2636,19 +2636,19 @@
     <t xml:space="preserve">24.0959033966064</t>
   </si>
   <si>
-    <t xml:space="preserve">24.1928291320801</t>
+    <t xml:space="preserve">24.1928272247314</t>
   </si>
   <si>
     <t xml:space="preserve">24.0668239593506</t>
   </si>
   <si>
-    <t xml:space="preserve">24.1152877807617</t>
+    <t xml:space="preserve">24.1152858734131</t>
   </si>
   <si>
     <t xml:space="preserve">24.5223770141602</t>
   </si>
   <si>
-    <t xml:space="preserve">24.6871547698975</t>
+    <t xml:space="preserve">24.6871528625488</t>
   </si>
   <si>
     <t xml:space="preserve">25.1039371490479</t>
@@ -2660,22 +2660,22 @@
     <t xml:space="preserve">25.4431800842285</t>
   </si>
   <si>
-    <t xml:space="preserve">25.4334869384766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1233234405518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5110263824463</t>
+    <t xml:space="preserve">25.4334850311279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1233215332031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5110282897949</t>
   </si>
   <si>
     <t xml:space="preserve">26.9552307128906</t>
   </si>
   <si>
-    <t xml:space="preserve">26.9067668914795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.0601921081543</t>
+    <t xml:space="preserve">26.9067687988281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.0601940155029</t>
   </si>
   <si>
     <t xml:space="preserve">28.6514415740967</t>
@@ -2687,16 +2687,16 @@
     <t xml:space="preserve">28.0020351409912</t>
   </si>
   <si>
-    <t xml:space="preserve">27.5658664703369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.963264465332</t>
+    <t xml:space="preserve">27.5658683776855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9632663726807</t>
   </si>
   <si>
     <t xml:space="preserve">27.4204788208008</t>
   </si>
   <si>
-    <t xml:space="preserve">27.4398632049561</t>
+    <t xml:space="preserve">27.4398612976074</t>
   </si>
   <si>
     <t xml:space="preserve">27.78879737854</t>
@@ -2705,10 +2705,10 @@
     <t xml:space="preserve">27.633716583252</t>
   </si>
   <si>
-    <t xml:space="preserve">27.45924949646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.6918697357178</t>
+    <t xml:space="preserve">27.4592475891113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.6918716430664</t>
   </si>
   <si>
     <t xml:space="preserve">26.9649238586426</t>
@@ -2723,13 +2723,13 @@
     <t xml:space="preserve">26.8970756530762</t>
   </si>
   <si>
-    <t xml:space="preserve">26.8486156463623</t>
+    <t xml:space="preserve">26.8486099243164</t>
   </si>
   <si>
     <t xml:space="preserve">27.0618495941162</t>
   </si>
   <si>
-    <t xml:space="preserve">26.9358444213867</t>
+    <t xml:space="preserve">26.9358463287354</t>
   </si>
   <si>
     <t xml:space="preserve">26.6547603607178</t>
@@ -2738,22 +2738,22 @@
     <t xml:space="preserve">26.8583030700684</t>
   </si>
   <si>
-    <t xml:space="preserve">28.0117263793945</t>
+    <t xml:space="preserve">28.0117282867432</t>
   </si>
   <si>
     <t xml:space="preserve">27.0715446472168</t>
   </si>
   <si>
-    <t xml:space="preserve">27.1587753295898</t>
+    <t xml:space="preserve">27.1587772369385</t>
   </si>
   <si>
     <t xml:space="preserve">27.7984924316406</t>
   </si>
   <si>
-    <t xml:space="preserve">27.8566474914551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.6029777526855</t>
+    <t xml:space="preserve">27.8566455841064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.6029796600342</t>
   </si>
   <si>
     <t xml:space="preserve">28.7774486541748</t>
@@ -2768,52 +2768,52 @@
     <t xml:space="preserve">29.2233085632324</t>
   </si>
   <si>
-    <t xml:space="preserve">29.1263828277588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.9923439025879</t>
+    <t xml:space="preserve">29.1263809204102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9923419952393</t>
   </si>
   <si>
     <t xml:space="preserve">28.0698833465576</t>
   </si>
   <si>
-    <t xml:space="preserve">27.8857231140137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.0989627838135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.8242511749268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.4155025482178</t>
+    <t xml:space="preserve">27.8857250213623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.0989608764648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.8242530822754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.4155006408691</t>
   </si>
   <si>
     <t xml:space="preserve">29.6110134124756</t>
   </si>
   <si>
-    <t xml:space="preserve">29.921178817749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.279806137085</t>
+    <t xml:space="preserve">29.9211807250977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.2798080444336</t>
   </si>
   <si>
     <t xml:space="preserve">30.4736595153809</t>
   </si>
   <si>
-    <t xml:space="preserve">29.6013202667236</t>
+    <t xml:space="preserve">29.6013221740723</t>
   </si>
   <si>
     <t xml:space="preserve">29.7660961151123</t>
   </si>
   <si>
-    <t xml:space="preserve">30.2507286071777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.9292106628418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.452615737915</t>
+    <t xml:space="preserve">30.2507266998291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.9292125701904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4526176452637</t>
   </si>
   <si>
     <t xml:space="preserve">31.2103004455566</t>
@@ -2831,16 +2831,16 @@
     <t xml:space="preserve">31.3944606781006</t>
   </si>
   <si>
-    <t xml:space="preserve">31.1812191009521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.1424541473389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.278148651123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.938907623291</t>
+    <t xml:space="preserve">31.1812210083008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.1424522399902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2781467437744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.9389057159424</t>
   </si>
   <si>
     <t xml:space="preserve">31.0164470672607</t>
@@ -2852,37 +2852,37 @@
     <t xml:space="preserve">29.6497840881348</t>
   </si>
   <si>
-    <t xml:space="preserve">31.365385055542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.4703407287598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.3911437988281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.1568641662598</t>
+    <t xml:space="preserve">31.3653831481934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.470344543457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.3911399841309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.1568603515625</t>
   </si>
   <si>
     <t xml:space="preserve">33.8079261779785</t>
   </si>
   <si>
-    <t xml:space="preserve">32.9549713134766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.8273162841797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.0599327087402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.6414947509766</t>
+    <t xml:space="preserve">32.9549751281738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.8273124694824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.0599365234375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.6414909362793</t>
   </si>
   <si>
     <t xml:space="preserve">33.9339294433594</t>
   </si>
   <si>
-    <t xml:space="preserve">34.961353302002</t>
+    <t xml:space="preserve">34.9613494873047</t>
   </si>
   <si>
     <t xml:space="preserve">34.3216361999512</t>
@@ -2891,16 +2891,16 @@
     <t xml:space="preserve">34.4379463195801</t>
   </si>
   <si>
-    <t xml:space="preserve">33.1488265991211</t>
+    <t xml:space="preserve">33.1488304138184</t>
   </si>
   <si>
     <t xml:space="preserve">33.158519744873</t>
   </si>
   <si>
-    <t xml:space="preserve">33.3426780700684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9857082366943</t>
+    <t xml:space="preserve">33.3426818847656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.985710144043</t>
   </si>
   <si>
     <t xml:space="preserve">32.082633972168</t>
@@ -2912,49 +2912,49 @@
     <t xml:space="preserve">33.2263679504395</t>
   </si>
   <si>
-    <t xml:space="preserve">32.5381889343262</t>
+    <t xml:space="preserve">32.5381927490234</t>
   </si>
   <si>
     <t xml:space="preserve">31.7240085601807</t>
   </si>
   <si>
-    <t xml:space="preserve">31.3459949493408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.4816913604736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5980033874512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3363094329834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5495433807373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0923271179199</t>
+    <t xml:space="preserve">31.3459968566895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4816932678223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5980052947998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3363056182861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5495376586914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0923309326172</t>
   </si>
   <si>
     <t xml:space="preserve">32.576961517334</t>
   </si>
   <si>
-    <t xml:space="preserve">31.8306293487549</t>
+    <t xml:space="preserve">31.8306255340576</t>
   </si>
   <si>
     <t xml:space="preserve">32.6351127624512</t>
   </si>
   <si>
-    <t xml:space="preserve">32.4218826293945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.9065170288086</t>
+    <t xml:space="preserve">32.4218788146973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.9065093994141</t>
   </si>
   <si>
     <t xml:space="preserve">32.1698684692383</t>
   </si>
   <si>
-    <t xml:space="preserve">32.6932716369629</t>
+    <t xml:space="preserve">32.6932754516602</t>
   </si>
   <si>
     <t xml:space="preserve">32.218334197998</t>
@@ -2966,67 +2966,67 @@
     <t xml:space="preserve">32.9937477111816</t>
   </si>
   <si>
-    <t xml:space="preserve">32.8968200683594</t>
+    <t xml:space="preserve">32.8968162536621</t>
   </si>
   <si>
     <t xml:space="preserve">32.5284996032715</t>
   </si>
   <si>
-    <t xml:space="preserve">32.0051002502441</t>
+    <t xml:space="preserve">32.0050926208496</t>
   </si>
   <si>
     <t xml:space="preserve">31.6755447387695</t>
   </si>
   <si>
-    <t xml:space="preserve">32.7998962402344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.6448135375977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.5866508483887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.8677406311035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1100540161133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1391334533691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.2942199707031</t>
+    <t xml:space="preserve">32.7998924255371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6448097229004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.5866546630859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.8677444458008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1100578308105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1391372680664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.2942161560059</t>
   </si>
   <si>
     <t xml:space="preserve">33.0712852478027</t>
   </si>
   <si>
-    <t xml:space="preserve">32.8386650085449</t>
+    <t xml:space="preserve">32.8386611938477</t>
   </si>
   <si>
     <t xml:space="preserve">32.5478858947754</t>
   </si>
   <si>
-    <t xml:space="preserve">32.5188064575195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.0518951416016</t>
+    <t xml:space="preserve">32.5188102722168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.0518989562988</t>
   </si>
   <si>
     <t xml:space="preserve">32.8095855712891</t>
   </si>
   <si>
-    <t xml:space="preserve">32.4024963378906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.5365333557129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.3022499084473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.1164360046387</t>
+    <t xml:space="preserve">32.4024925231934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.5365295410156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.3022537231445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.1164321899414</t>
   </si>
   <si>
     <t xml:space="preserve">35.0001220703125</t>
@@ -3053,7 +3053,7 @@
     <t xml:space="preserve">34.7674980163574</t>
   </si>
   <si>
-    <t xml:space="preserve">34.4088706970215</t>
+    <t xml:space="preserve">34.4088745117188</t>
   </si>
   <si>
     <t xml:space="preserve">33.866081237793</t>
@@ -3062,10 +3062,10 @@
     <t xml:space="preserve">33.8176193237305</t>
   </si>
   <si>
-    <t xml:space="preserve">32.2571067810059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2861862182617</t>
+    <t xml:space="preserve">32.2571029663086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2861824035645</t>
   </si>
   <si>
     <t xml:space="preserve">32.9452819824219</t>
@@ -3074,13 +3074,13 @@
     <t xml:space="preserve">33.1972923278809</t>
   </si>
   <si>
-    <t xml:space="preserve">30.4251956939697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.9308700561523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.1166915893555</t>
+    <t xml:space="preserve">30.4251937866211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.9308681488037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.1166896820068</t>
   </si>
   <si>
     <t xml:space="preserve">29.4365482330322</t>
@@ -3089,25 +3089,25 @@
     <t xml:space="preserve">30.8419799804688</t>
   </si>
   <si>
-    <t xml:space="preserve">31.1036815643311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9469413757324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.9776744842529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.1909160614014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5883159637451</t>
+    <t xml:space="preserve">31.1036796569824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9469394683838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.9776763916016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.1909141540527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5883121490479</t>
   </si>
   <si>
     <t xml:space="preserve">31.0067539215088</t>
   </si>
   <si>
-    <t xml:space="preserve">29.9793338775635</t>
+    <t xml:space="preserve">29.9793357849121</t>
   </si>
   <si>
     <t xml:space="preserve">30.5996646881104</t>
@@ -3119,28 +3119,28 @@
     <t xml:space="preserve">30.861364364624</t>
   </si>
   <si>
-    <t xml:space="preserve">31.2296848297119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.1230640411377</t>
+    <t xml:space="preserve">31.2296867370605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.1230659484863</t>
   </si>
   <si>
     <t xml:space="preserve">30.7644386291504</t>
   </si>
   <si>
-    <t xml:space="preserve">31.4041538238525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7433967590332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.4235324859619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0535583496094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.8112468719482</t>
+    <t xml:space="preserve">31.4041519165039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7433986663818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4235363006592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0535621643066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.811243057251</t>
   </si>
   <si>
     <t xml:space="preserve">34.001781463623</t>
@@ -3158,22 +3158,22 @@
     <t xml:space="preserve">34.1277847290039</t>
   </si>
   <si>
-    <t xml:space="preserve">34.6899604797363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.7287330627441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.5138282775879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.3490562438965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.8159561157227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.6043815612793</t>
+    <t xml:space="preserve">34.6899566650391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.7287292480469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.5138320922852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.3490600585938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.8159599304199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.604377746582</t>
   </si>
   <si>
     <t xml:space="preserve">34.0502471923828</t>
@@ -3185,16 +3185,16 @@
     <t xml:space="preserve">33.7303848266602</t>
   </si>
   <si>
-    <t xml:space="preserve">34.602725982666</t>
+    <t xml:space="preserve">34.6027221679688</t>
   </si>
   <si>
     <t xml:space="preserve">34.0793228149414</t>
   </si>
   <si>
-    <t xml:space="preserve">32.7514305114746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3831100463867</t>
+    <t xml:space="preserve">32.7514266967773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.383113861084</t>
   </si>
   <si>
     <t xml:space="preserve">32.3637237548828</t>
@@ -3206,16 +3206,16 @@
     <t xml:space="preserve">33.4396095275879</t>
   </si>
   <si>
-    <t xml:space="preserve">33.6334648132324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.3199729919434</t>
+    <t xml:space="preserve">33.6334609985352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.3199768066406</t>
   </si>
   <si>
     <t xml:space="preserve">36.4218978881836</t>
   </si>
   <si>
-    <t xml:space="preserve">37.2020225524902</t>
+    <t xml:space="preserve">37.202018737793</t>
   </si>
   <si>
     <t xml:space="preserve">36.4999122619629</t>
@@ -3224,19 +3224,19 @@
     <t xml:space="preserve">37.3190383911133</t>
   </si>
   <si>
-    <t xml:space="preserve">37.6310882568359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.9821434020996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.6798439025879</t>
+    <t xml:space="preserve">37.6310844421387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.9821395874023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.6798477172852</t>
   </si>
   <si>
     <t xml:space="preserve">37.5725746154785</t>
   </si>
   <si>
-    <t xml:space="preserve">38.245433807373</t>
+    <t xml:space="preserve">38.2454299926758</t>
   </si>
   <si>
     <t xml:space="preserve">38.8110198974609</t>
@@ -3260,19 +3260,19 @@
     <t xml:space="preserve">39.2205848693848</t>
   </si>
   <si>
-    <t xml:space="preserve">39.9324417114258</t>
+    <t xml:space="preserve">39.932445526123</t>
   </si>
   <si>
     <t xml:space="preserve">39.1718254089355</t>
   </si>
   <si>
-    <t xml:space="preserve">39.3766098022461</t>
+    <t xml:space="preserve">39.3766059875488</t>
   </si>
   <si>
     <t xml:space="preserve">39.2985954284668</t>
   </si>
   <si>
-    <t xml:space="preserve">39.1815757751465</t>
+    <t xml:space="preserve">39.1815795898438</t>
   </si>
   <si>
     <t xml:space="preserve">40.2054862976074</t>
@@ -3284,7 +3284,7 @@
     <t xml:space="preserve">40.3420066833496</t>
   </si>
   <si>
-    <t xml:space="preserve">41.1026268005371</t>
+    <t xml:space="preserve">41.1026229858398</t>
   </si>
   <si>
     <t xml:space="preserve">40.605297088623</t>
@@ -3305,7 +3305,7 @@
     <t xml:space="preserve">40.5955467224121</t>
   </si>
   <si>
-    <t xml:space="preserve">39.6594009399414</t>
+    <t xml:space="preserve">39.6593971252441</t>
   </si>
   <si>
     <t xml:space="preserve">37.1240081787109</t>
@@ -3314,10 +3314,10 @@
     <t xml:space="preserve">38.1284103393555</t>
   </si>
   <si>
-    <t xml:space="preserve">38.1186637878418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.9475364685059</t>
+    <t xml:space="preserve">38.1186599731445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.9475402832031</t>
   </si>
   <si>
     <t xml:space="preserve">39.5618858337402</t>
@@ -3326,13 +3326,13 @@
     <t xml:space="preserve">39.7471618652344</t>
   </si>
   <si>
-    <t xml:space="preserve">39.0548095703125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.0397109985352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.7666625976562</t>
+    <t xml:space="preserve">39.054801940918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.0397148132324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.7666664123535</t>
   </si>
   <si>
     <t xml:space="preserve">39.435115814209</t>
@@ -3344,7 +3344,7 @@
     <t xml:space="preserve">39.3473510742188</t>
   </si>
   <si>
-    <t xml:space="preserve">40.6443023681641</t>
+    <t xml:space="preserve">40.6443061828613</t>
   </si>
   <si>
     <t xml:space="preserve">41.2488975524902</t>
@@ -3359,7 +3359,7 @@
     <t xml:space="preserve">41.3171577453613</t>
   </si>
   <si>
-    <t xml:space="preserve">40.8588371276855</t>
+    <t xml:space="preserve">40.8588409423828</t>
   </si>
   <si>
     <t xml:space="preserve">40.9368476867676</t>
@@ -3368,7 +3368,7 @@
     <t xml:space="preserve">40.8685874938965</t>
   </si>
   <si>
-    <t xml:space="preserve">41.0538673400879</t>
+    <t xml:space="preserve">41.0538635253906</t>
   </si>
   <si>
     <t xml:space="preserve">41.6292037963867</t>
@@ -3377,10 +3377,10 @@
     <t xml:space="preserve">41.7559776306152</t>
   </si>
   <si>
-    <t xml:space="preserve">41.9607582092285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.8437423706055</t>
+    <t xml:space="preserve">41.9607543945312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.8437385559082</t>
   </si>
   <si>
     <t xml:space="preserve">41.8534889221191</t>
@@ -3389,31 +3389,31 @@
     <t xml:space="preserve">42.1850395202637</t>
   </si>
   <si>
-    <t xml:space="preserve">42.7116241455078</t>
+    <t xml:space="preserve">42.7116279602051</t>
   </si>
   <si>
     <t xml:space="preserve">43.7257804870605</t>
   </si>
   <si>
-    <t xml:space="preserve">42.8773994445801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.6628684997559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.3898239135742</t>
+    <t xml:space="preserve">42.8774032592773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.6628646850586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.3898277282715</t>
   </si>
   <si>
     <t xml:space="preserve">42.5946044921875</t>
   </si>
   <si>
-    <t xml:space="preserve">43.1016883850098</t>
+    <t xml:space="preserve">43.1016845703125</t>
   </si>
   <si>
     <t xml:space="preserve">43.1796951293945</t>
   </si>
   <si>
-    <t xml:space="preserve">43.306468963623</t>
+    <t xml:space="preserve">43.3064651489258</t>
   </si>
   <si>
     <t xml:space="preserve">43.6282691955566</t>
@@ -3425,16 +3425,16 @@
     <t xml:space="preserve">43.5405044555664</t>
   </si>
   <si>
-    <t xml:space="preserve">42.6531181335449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.6043586730957</t>
+    <t xml:space="preserve">42.6531143188477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.6043548583984</t>
   </si>
   <si>
     <t xml:space="preserve">42.1557884216309</t>
   </si>
   <si>
-    <t xml:space="preserve">42.0777740478516</t>
+    <t xml:space="preserve">42.0777816772461</t>
   </si>
   <si>
     <t xml:space="preserve">40.3127517700195</t>
@@ -3443,13 +3443,13 @@
     <t xml:space="preserve">41.619457244873</t>
   </si>
   <si>
-    <t xml:space="preserve">40.615047454834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.4439277648926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.6779670715332</t>
+    <t xml:space="preserve">40.6150512695312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.4439315795898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.6779632568359</t>
   </si>
   <si>
     <t xml:space="preserve">43.7160301208496</t>
@@ -3461,7 +3461,7 @@
     <t xml:space="preserve">44.9739761352539</t>
   </si>
   <si>
-    <t xml:space="preserve">43.8623046875</t>
+    <t xml:space="preserve">43.8623008728027</t>
   </si>
   <si>
     <t xml:space="preserve">42.5751037597656</t>
@@ -3476,37 +3476,37 @@
     <t xml:space="preserve">40.1762313842773</t>
   </si>
   <si>
-    <t xml:space="preserve">39.7764205932617</t>
+    <t xml:space="preserve">39.7764167785645</t>
   </si>
   <si>
     <t xml:space="preserve">40.1079711914062</t>
   </si>
   <si>
-    <t xml:space="preserve">40.2737464904785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.7028121948242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.591136932373</t>
+    <t xml:space="preserve">40.2737426757812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.7028160095215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.5911407470703</t>
   </si>
   <si>
     <t xml:space="preserve">39.6496467590332</t>
   </si>
   <si>
-    <t xml:space="preserve">40.5077857971191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.8100776672363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.8632431030273</t>
+    <t xml:space="preserve">40.5077819824219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.8100814819336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.8632392883301</t>
   </si>
   <si>
     <t xml:space="preserve">42.2435531616211</t>
   </si>
   <si>
-    <t xml:space="preserve">43.433235168457</t>
+    <t xml:space="preserve">43.4332389831543</t>
   </si>
   <si>
     <t xml:space="preserve">42.1947937011719</t>
@@ -3518,7 +3518,7 @@
     <t xml:space="preserve">42.8578987121582</t>
   </si>
   <si>
-    <t xml:space="preserve">43.5892639160156</t>
+    <t xml:space="preserve">43.5892601013184</t>
   </si>
   <si>
     <t xml:space="preserve">43.0139236450195</t>
@@ -3539,16 +3539,16 @@
     <t xml:space="preserve">45.3835372924805</t>
   </si>
   <si>
-    <t xml:space="preserve">44.9252166748047</t>
+    <t xml:space="preserve">44.925220489502</t>
   </si>
   <si>
     <t xml:space="preserve">44.3791313171387</t>
   </si>
   <si>
-    <t xml:space="preserve">44.6619262695312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.8667030334473</t>
+    <t xml:space="preserve">44.661922454834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.8667106628418</t>
   </si>
   <si>
     <t xml:space="preserve">44.0865859985352</t>
@@ -3563,7 +3563,7 @@
     <t xml:space="preserve">43.442985534668</t>
   </si>
   <si>
-    <t xml:space="preserve">41.2879028320312</t>
+    <t xml:space="preserve">41.2879066467285</t>
   </si>
   <si>
     <t xml:space="preserve">42.224048614502</t>
@@ -3572,13 +3572,13 @@
     <t xml:space="preserve">41.1513824462891</t>
   </si>
   <si>
-    <t xml:space="preserve">41.6974678039551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.0485191345215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.0387725830078</t>
+    <t xml:space="preserve">41.6974639892578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.0485229492188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.0387687683105</t>
   </si>
   <si>
     <t xml:space="preserve">40.7320671081543</t>
@@ -3587,7 +3587,7 @@
     <t xml:space="preserve">40.7613220214844</t>
   </si>
   <si>
-    <t xml:space="preserve">41.8827476501465</t>
+    <t xml:space="preserve">41.8827438354492</t>
   </si>
   <si>
     <t xml:space="preserve">40.7808227539062</t>
@@ -3599,25 +3599,25 @@
     <t xml:space="preserve">40.9173431396484</t>
   </si>
   <si>
-    <t xml:space="preserve">41.7072143554688</t>
+    <t xml:space="preserve">41.707218170166</t>
   </si>
   <si>
     <t xml:space="preserve">42.6141090393066</t>
   </si>
   <si>
-    <t xml:space="preserve">42.126537322998</t>
+    <t xml:space="preserve">42.1265335083008</t>
   </si>
   <si>
     <t xml:space="preserve">42.9846687316895</t>
   </si>
   <si>
-    <t xml:space="preserve">43.0041656494141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.1991958618164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.1841087341309</t>
+    <t xml:space="preserve">43.0041694641113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.1991996765137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.1841049194336</t>
   </si>
   <si>
     <t xml:space="preserve">44.3108711242676</t>
@@ -3626,7 +3626,7 @@
     <t xml:space="preserve">45.081241607666</t>
   </si>
   <si>
-    <t xml:space="preserve">45.7443428039551</t>
+    <t xml:space="preserve">45.7443466186523</t>
   </si>
   <si>
     <t xml:space="preserve">46.0466423034668</t>
@@ -3635,19 +3635,19 @@
     <t xml:space="preserve">46.2709274291992</t>
   </si>
   <si>
-    <t xml:space="preserve">45.4810562133789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.5449066162109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.7106857299805</t>
+    <t xml:space="preserve">45.4810523986816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.5449104309082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.7106819152832</t>
   </si>
   <si>
     <t xml:space="preserve">43.2284545898438</t>
   </si>
   <si>
-    <t xml:space="preserve">42.4970932006836</t>
+    <t xml:space="preserve">42.4970893859863</t>
   </si>
   <si>
     <t xml:space="preserve">40.6248016357422</t>
@@ -3659,28 +3659,28 @@
     <t xml:space="preserve">39.513126373291</t>
   </si>
   <si>
-    <t xml:space="preserve">38.9572906494141</t>
+    <t xml:space="preserve">38.9572944641113</t>
   </si>
   <si>
     <t xml:space="preserve">38.7525100708008</t>
   </si>
   <si>
-    <t xml:space="preserve">37.7578620910645</t>
+    <t xml:space="preserve">37.7578582763672</t>
   </si>
   <si>
     <t xml:space="preserve">36.3146362304688</t>
   </si>
   <si>
-    <t xml:space="preserve">35.037181854248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.5247573852539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.5637626647949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.9786720275879</t>
+    <t xml:space="preserve">35.0371856689453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.5247611999512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.5637702941895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.9786758422852</t>
   </si>
   <si>
     <t xml:space="preserve">36.5974273681641</t>
@@ -3695,10 +3695,10 @@
     <t xml:space="preserve">36.0903434753418</t>
   </si>
   <si>
-    <t xml:space="preserve">35.4077453613281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.1737060546875</t>
+    <t xml:space="preserve">35.4077415466309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.1737022399902</t>
   </si>
   <si>
     <t xml:space="preserve">34.2180557250977</t>
@@ -3710,7 +3710,7 @@
     <t xml:space="preserve">35.2907218933105</t>
   </si>
   <si>
-    <t xml:space="preserve">34.4715919494629</t>
+    <t xml:space="preserve">34.4715957641602</t>
   </si>
   <si>
     <t xml:space="preserve">33.8767547607422</t>
@@ -3725,7 +3725,7 @@
     <t xml:space="preserve">34.7933959960938</t>
   </si>
   <si>
-    <t xml:space="preserve">34.6568794250488</t>
+    <t xml:space="preserve">34.6568756103516</t>
   </si>
   <si>
     <t xml:space="preserve">34.2765693664551</t>
@@ -3737,10 +3737,10 @@
     <t xml:space="preserve">35.0859413146973</t>
   </si>
   <si>
-    <t xml:space="preserve">35.7783012390137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.4706573486328</t>
+    <t xml:space="preserve">35.7782974243164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.4706611633301</t>
   </si>
   <si>
     <t xml:space="preserve">37.4945640563965</t>
@@ -3755,16 +3755,16 @@
     <t xml:space="preserve">36.6656837463379</t>
   </si>
   <si>
-    <t xml:space="preserve">35.3004760742188</t>
+    <t xml:space="preserve">35.3004722595215</t>
   </si>
   <si>
     <t xml:space="preserve">34.0912895202637</t>
   </si>
   <si>
-    <t xml:space="preserve">36.1781120300293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.2083053588867</t>
+    <t xml:space="preserve">36.178108215332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.208309173584</t>
   </si>
   <si>
     <t xml:space="preserve">34.9494209289551</t>
@@ -3773,7 +3773,7 @@
     <t xml:space="preserve">35.6612815856934</t>
   </si>
   <si>
-    <t xml:space="preserve">35.4467506408691</t>
+    <t xml:space="preserve">35.4467430114746</t>
   </si>
   <si>
     <t xml:space="preserve">36.8119583129883</t>
@@ -3791,7 +3791,7 @@
     <t xml:space="preserve">35.6222724914551</t>
   </si>
   <si>
-    <t xml:space="preserve">36.2951278686523</t>
+    <t xml:space="preserve">36.2951316833496</t>
   </si>
   <si>
     <t xml:space="preserve">36.7534484863281</t>
@@ -3803,7 +3803,7 @@
     <t xml:space="preserve">39.6008911132812</t>
   </si>
   <si>
-    <t xml:space="preserve">39.5326347351074</t>
+    <t xml:space="preserve">39.5326309204102</t>
   </si>
   <si>
     <t xml:space="preserve">40.8393363952637</t>
@@ -3815,40 +3815,40 @@
     <t xml:space="preserve">41.5024375915527</t>
   </si>
   <si>
-    <t xml:space="preserve">41.2976531982422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.4297714233398</t>
+    <t xml:space="preserve">41.2976570129395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.4297676086426</t>
   </si>
   <si>
     <t xml:space="preserve">39.2108306884766</t>
   </si>
   <si>
-    <t xml:space="preserve">40.0104560852051</t>
+    <t xml:space="preserve">40.0104522705078</t>
   </si>
   <si>
     <t xml:space="preserve">39.8056716918945</t>
   </si>
   <si>
-    <t xml:space="preserve">39.2010765075684</t>
+    <t xml:space="preserve">39.2010803222656</t>
   </si>
   <si>
     <t xml:space="preserve">38.5477294921875</t>
   </si>
   <si>
-    <t xml:space="preserve">37.3580474853516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.1922721862793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.8802223205566</t>
+    <t xml:space="preserve">37.3580436706543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.192268371582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.8802185058594</t>
   </si>
   <si>
     <t xml:space="preserve">35.983081817627</t>
   </si>
   <si>
-    <t xml:space="preserve">36.7924575805664</t>
+    <t xml:space="preserve">36.7924537658691</t>
   </si>
   <si>
     <t xml:space="preserve">37.2702827453613</t>
@@ -3857,25 +3857,25 @@
     <t xml:space="preserve">36.6754379272461</t>
   </si>
   <si>
-    <t xml:space="preserve">36.2561264038086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.8465538024902</t>
+    <t xml:space="preserve">36.2561225891113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.8465576171875</t>
   </si>
   <si>
     <t xml:space="preserve">34.5788612365723</t>
   </si>
   <si>
-    <t xml:space="preserve">32.7553291320801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.4769439697266</t>
+    <t xml:space="preserve">32.7553329467773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.4769477844238</t>
   </si>
   <si>
     <t xml:space="preserve">33.4671936035156</t>
   </si>
   <si>
-    <t xml:space="preserve">31.5168895721436</t>
+    <t xml:space="preserve">31.5168876647949</t>
   </si>
   <si>
     <t xml:space="preserve">33.3989295959473</t>
@@ -3887,7 +3887,7 @@
     <t xml:space="preserve">33.4574394226074</t>
   </si>
   <si>
-    <t xml:space="preserve">31.7411727905273</t>
+    <t xml:space="preserve">31.7411708831787</t>
   </si>
   <si>
     <t xml:space="preserve">30.7952766418457</t>

--- a/data/AMP.MI.xlsx
+++ b/data/AMP.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1739" uniqueCount="1739">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1741" uniqueCount="1741">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,13 +44,13 @@
     <t xml:space="preserve">AMP.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">7.50163507461548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4212760925293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47800016403198</t>
+    <t xml:space="preserve">7.50163459777832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.42127656936646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47799968719482</t>
   </si>
   <si>
     <t xml:space="preserve">7.26056146621704</t>
@@ -59,91 +59,91 @@
     <t xml:space="preserve">7.06675720214844</t>
   </si>
   <si>
-    <t xml:space="preserve">7.32673788070679</t>
+    <t xml:space="preserve">7.32673835754395</t>
   </si>
   <si>
     <t xml:space="preserve">7.38818836212158</t>
   </si>
   <si>
-    <t xml:space="preserve">7.27001523971558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13766145706177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19438409805298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30310297012329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.09039211273193</t>
+    <t xml:space="preserve">7.27001571655273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13766098022461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19438362121582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30310344696045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09039163589478</t>
   </si>
   <si>
     <t xml:space="preserve">7.24165344238281</t>
   </si>
   <si>
-    <t xml:space="preserve">7.45436573028564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34564542770386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46381902694702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25583505630493</t>
+    <t xml:space="preserve">7.45436525344849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34564590454102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46381950378418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25583410263062</t>
   </si>
   <si>
     <t xml:space="preserve">7.28892278671265</t>
   </si>
   <si>
-    <t xml:space="preserve">7.52054214477539</t>
+    <t xml:space="preserve">7.52054166793823</t>
   </si>
   <si>
     <t xml:space="preserve">7.39291524887085</t>
   </si>
   <si>
-    <t xml:space="preserve">7.24638032913208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15656900405884</t>
+    <t xml:space="preserve">7.24637985229492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15656852722168</t>
   </si>
   <si>
     <t xml:space="preserve">6.94858407974243</t>
   </si>
   <si>
-    <t xml:space="preserve">6.60824489593506</t>
+    <t xml:space="preserve">6.60824537277222</t>
   </si>
   <si>
     <t xml:space="preserve">6.55152225494385</t>
   </si>
   <si>
-    <t xml:space="preserve">6.68860292434692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42862224578857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38607931137085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51843357086182</t>
+    <t xml:space="preserve">6.68860244750977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42862272262573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38607978820801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51843309402466</t>
   </si>
   <si>
     <t xml:space="preserve">6.71696424484253</t>
   </si>
   <si>
-    <t xml:space="preserve">6.98639869689941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8115029335022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.93913078308105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.80204963684082</t>
+    <t xml:space="preserve">6.98639965057373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81150388717651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9391303062439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.80204916000366</t>
   </si>
   <si>
     <t xml:space="preserve">6.72641849517822</t>
@@ -152,64 +152,64 @@
     <t xml:space="preserve">7.09984588623047</t>
   </si>
   <si>
-    <t xml:space="preserve">6.99585294723511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90604162216187</t>
+    <t xml:space="preserve">6.99585342407227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90604114532471</t>
   </si>
   <si>
     <t xml:space="preserve">6.9013147354126</t>
   </si>
   <si>
-    <t xml:space="preserve">6.94385671615601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.75950717926025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.73114585876465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89658784866333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88713312149048</t>
+    <t xml:space="preserve">6.94385719299316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7595067024231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.73114490509033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89658737182617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88713359832764</t>
   </si>
   <si>
     <t xml:space="preserve">6.96276426315308</t>
   </si>
   <si>
-    <t xml:space="preserve">7.11402654647827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.21801948547363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18965768814087</t>
+    <t xml:space="preserve">7.11402559280396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.21801900863647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18965721130371</t>
   </si>
   <si>
     <t xml:space="preserve">7.31728410720825</t>
   </si>
   <si>
-    <t xml:space="preserve">7.21329212188721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14711475372314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35037231445312</t>
+    <t xml:space="preserve">7.21329164505005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1471152305603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35037279129028</t>
   </si>
   <si>
     <t xml:space="preserve">7.20383787155151</t>
   </si>
   <si>
-    <t xml:space="preserve">7.27946949005127</t>
+    <t xml:space="preserve">7.27946901321411</t>
   </si>
   <si>
     <t xml:space="preserve">7.03839540481567</t>
   </si>
   <si>
-    <t xml:space="preserve">7.01948881149292</t>
+    <t xml:space="preserve">7.0194878578186</t>
   </si>
   <si>
     <t xml:space="preserve">7.109299659729</t>
@@ -218,76 +218,76 @@
     <t xml:space="preserve">7.37873458862305</t>
   </si>
   <si>
-    <t xml:space="preserve">7.4354567527771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33619165420532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61508131027222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52526950836182</t>
+    <t xml:space="preserve">7.43545722961426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33619213104248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61508083343506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52526903152466</t>
   </si>
   <si>
     <t xml:space="preserve">7.59617328643799</t>
   </si>
   <si>
-    <t xml:space="preserve">7.69071197509766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66707754135132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.84669971466064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71434545516968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75688791275024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81833934783936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8514289855957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00268936157227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00741577148438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98850679397583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90342283248901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.06413841247559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.997962474823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21067333221436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13751697540283</t>
+    <t xml:space="preserve">7.69071102142334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66707706451416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84670066833496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71434593200684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75688934326172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81833839416504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85142660140991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00269031524658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00741672515869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98850917816162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90342378616333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0641393661499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99796295166016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21067428588867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13751602172852</t>
   </si>
   <si>
     <t xml:space="preserve">8.21827411651611</t>
   </si>
   <si>
-    <t xml:space="preserve">8.22777462005615</t>
+    <t xml:space="preserve">8.22777557373047</t>
   </si>
   <si>
     <t xml:space="preserve">8.17076969146729</t>
   </si>
   <si>
-    <t xml:space="preserve">8.29428100585938</t>
+    <t xml:space="preserve">8.29428195953369</t>
   </si>
   <si>
     <t xml:space="preserve">8.33703517913818</t>
@@ -296,70 +296,70 @@
     <t xml:space="preserve">8.3607873916626</t>
   </si>
   <si>
-    <t xml:space="preserve">8.34653663635254</t>
+    <t xml:space="preserve">8.34653759002686</t>
   </si>
   <si>
     <t xml:space="preserve">8.28003025054932</t>
   </si>
   <si>
-    <t xml:space="preserve">8.19927310943604</t>
+    <t xml:space="preserve">8.19927215576172</t>
   </si>
   <si>
     <t xml:space="preserve">8.20402336120605</t>
   </si>
   <si>
-    <t xml:space="preserve">8.26577854156494</t>
+    <t xml:space="preserve">8.26577949523926</t>
   </si>
   <si>
     <t xml:space="preserve">8.1327657699585</t>
   </si>
   <si>
-    <t xml:space="preserve">8.03300666809082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93799781799316</t>
+    <t xml:space="preserve">8.0330057144165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93799686431885</t>
   </si>
   <si>
     <t xml:space="preserve">7.75748109817505</t>
   </si>
   <si>
-    <t xml:space="preserve">7.74322938919067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76698207855225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67197322845459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75272941589355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10901355743408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.06625938415527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.18027019500732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79073476791382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82873725891113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83823776245117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99025440216064</t>
+    <t xml:space="preserve">7.74322986602783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76698160171509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67197227478027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75272989273071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10901260375977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.06626129150391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.18027114868164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79073333740234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82873773574829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83823871612549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99025249481201</t>
   </si>
   <si>
     <t xml:space="preserve">8.0472583770752</t>
   </si>
   <si>
-    <t xml:space="preserve">8.00925445556641</t>
+    <t xml:space="preserve">8.00925636291504</t>
   </si>
   <si>
     <t xml:space="preserve">7.92849731445312</t>
@@ -368,10 +368,10 @@
     <t xml:space="preserve">7.83348751068115</t>
   </si>
   <si>
-    <t xml:space="preserve">7.99975442886353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08051013946533</t>
+    <t xml:space="preserve">7.99975347518921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08051109313965</t>
   </si>
   <si>
     <t xml:space="preserve">8.03775691986084</t>
@@ -380,7 +380,7 @@
     <t xml:space="preserve">8.0282564163208</t>
   </si>
   <si>
-    <t xml:space="preserve">8.17551803588867</t>
+    <t xml:space="preserve">8.1755199432373</t>
   </si>
   <si>
     <t xml:space="preserve">8.30378246307373</t>
@@ -392,76 +392,76 @@
     <t xml:space="preserve">8.31803321838379</t>
   </si>
   <si>
-    <t xml:space="preserve">8.31328296661377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.43204402923584</t>
+    <t xml:space="preserve">8.31328201293945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.43204498291016</t>
   </si>
   <si>
     <t xml:space="preserve">8.48904991149902</t>
   </si>
   <si>
-    <t xml:space="preserve">8.47479724884033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45579528808594</t>
+    <t xml:space="preserve">8.47479820251465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45579624176025</t>
   </si>
   <si>
     <t xml:space="preserve">8.41779232025146</t>
   </si>
   <si>
-    <t xml:space="preserve">8.27527904510498</t>
+    <t xml:space="preserve">8.27527809143066</t>
   </si>
   <si>
     <t xml:space="preserve">8.41304111480713</t>
   </si>
   <si>
-    <t xml:space="preserve">8.49380016326904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63631343841553</t>
+    <t xml:space="preserve">8.49379920959473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63631439208984</t>
   </si>
   <si>
     <t xml:space="preserve">8.7360725402832</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64106559753418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76457595825195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.88808727264404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.78357887268066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91659164428711</t>
+    <t xml:space="preserve">8.64106464385986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76457691192627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.88808631896973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.78357791900635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91659069061279</t>
   </si>
   <si>
     <t xml:space="preserve">8.94034194946289</t>
   </si>
   <si>
-    <t xml:space="preserve">9.05435180664062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97834491729736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.94984436035156</t>
+    <t xml:space="preserve">9.05435371398926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.978346824646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.94984340667725</t>
   </si>
   <si>
     <t xml:space="preserve">8.878586769104</t>
   </si>
   <si>
-    <t xml:space="preserve">8.88333797454834</t>
+    <t xml:space="preserve">8.88333702087402</t>
   </si>
   <si>
     <t xml:space="preserve">8.95459365844727</t>
   </si>
   <si>
-    <t xml:space="preserve">8.86433410644531</t>
+    <t xml:space="preserve">8.86433696746826</t>
   </si>
   <si>
     <t xml:space="preserve">8.90233898162842</t>
@@ -470,7 +470,7 @@
     <t xml:space="preserve">8.89283752441406</t>
   </si>
   <si>
-    <t xml:space="preserve">8.78832721710205</t>
+    <t xml:space="preserve">8.78832817077637</t>
   </si>
   <si>
     <t xml:space="preserve">8.72182273864746</t>
@@ -485,19 +485,19 @@
     <t xml:space="preserve">8.6125602722168</t>
   </si>
   <si>
-    <t xml:space="preserve">8.6695671081543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66006565093994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.79782867431641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.6268138885498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74557399749756</t>
+    <t xml:space="preserve">8.66956520080566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66006469726562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.79782962799072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62681198120117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74557304382324</t>
   </si>
   <si>
     <t xml:space="preserve">8.62206172943115</t>
@@ -509,46 +509,46 @@
     <t xml:space="preserve">8.74082374572754</t>
   </si>
   <si>
-    <t xml:space="preserve">8.59355926513672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65531444549561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.69331836700439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.82158088684082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21586894989014</t>
+    <t xml:space="preserve">8.59356021881104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65531635284424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.69331932067871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.82158184051514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21586799621582</t>
   </si>
   <si>
     <t xml:space="preserve">9.38688373565674</t>
   </si>
   <si>
-    <t xml:space="preserve">9.20636558532715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14936256408691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02585220336914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.07335376739502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.94509220123291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63156318664551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55080699920654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52705383300781</t>
+    <t xml:space="preserve">9.20636749267578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1493616104126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02584934234619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.07335472106934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.94509124755859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63156414031982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.55080604553223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52705192565918</t>
   </si>
   <si>
     <t xml:space="preserve">8.52230262756348</t>
@@ -557,10 +557,10 @@
     <t xml:space="preserve">8.71232032775879</t>
   </si>
   <si>
-    <t xml:space="preserve">8.47004795074463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58880996704102</t>
+    <t xml:space="preserve">8.47004699707031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58880805969238</t>
   </si>
   <si>
     <t xml:space="preserve">8.50805187225342</t>
@@ -575,16 +575,16 @@
     <t xml:space="preserve">9.23487091064453</t>
   </si>
   <si>
-    <t xml:space="preserve">9.19686508178711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64581489562988</t>
+    <t xml:space="preserve">9.19686698913574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6458158493042</t>
   </si>
   <si>
     <t xml:space="preserve">8.28478145599365</t>
   </si>
   <si>
-    <t xml:space="preserve">8.43679523468018</t>
+    <t xml:space="preserve">8.43679618835449</t>
   </si>
   <si>
     <t xml:space="preserve">7.55321168899536</t>
@@ -593,40 +593,40 @@
     <t xml:space="preserve">8.10426330566406</t>
   </si>
   <si>
-    <t xml:space="preserve">8.07575988769531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.51280117034912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53655433654785</t>
+    <t xml:space="preserve">8.07576084136963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.51280307769775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53655338287354</t>
   </si>
   <si>
     <t xml:space="preserve">8.57455825805664</t>
   </si>
   <si>
-    <t xml:space="preserve">8.60781192779541</t>
+    <t xml:space="preserve">8.60781097412109</t>
   </si>
   <si>
     <t xml:space="preserve">8.49854946136475</t>
   </si>
   <si>
-    <t xml:space="preserve">8.35603713989258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30853271484375</t>
+    <t xml:space="preserve">8.35603618621826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30853176116943</t>
   </si>
   <si>
     <t xml:space="preserve">8.5033016204834</t>
   </si>
   <si>
-    <t xml:space="preserve">8.70757102966309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77882671356201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85483264923096</t>
+    <t xml:space="preserve">8.70757007598877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77882766723633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85483360290527</t>
   </si>
   <si>
     <t xml:space="preserve">8.80257987976074</t>
@@ -635,37 +635,37 @@
     <t xml:space="preserve">8.87383556365967</t>
   </si>
   <si>
-    <t xml:space="preserve">8.8405818939209</t>
+    <t xml:space="preserve">8.84058380126953</t>
   </si>
   <si>
     <t xml:space="preserve">9.29187488555908</t>
   </si>
   <si>
-    <t xml:space="preserve">9.10185623168945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27762413024902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40588569641113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47714424133301</t>
+    <t xml:space="preserve">9.10185813903809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27762508392334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40588665008545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47714328765869</t>
   </si>
   <si>
     <t xml:space="preserve">9.54839992523193</t>
   </si>
   <si>
-    <t xml:space="preserve">9.51989650726318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.4343900680542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50089550018311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.58640289306641</t>
+    <t xml:space="preserve">9.51989841461182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43438911437988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50089454650879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.58640193939209</t>
   </si>
   <si>
     <t xml:space="preserve">9.6244068145752</t>
@@ -674,19 +674,19 @@
     <t xml:space="preserve">9.57690238952637</t>
   </si>
   <si>
-    <t xml:space="preserve">9.49614334106445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24912071228027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24437046051025</t>
+    <t xml:space="preserve">9.49614429473877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24911975860596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24436950683594</t>
   </si>
   <si>
     <t xml:space="preserve">9.2966251373291</t>
   </si>
   <si>
-    <t xml:space="preserve">9.60540390014648</t>
+    <t xml:space="preserve">9.6054048538208</t>
   </si>
   <si>
     <t xml:space="preserve">9.95693778991699</t>
@@ -695,13 +695,13 @@
     <t xml:space="preserve">10.1089525222778</t>
   </si>
   <si>
-    <t xml:space="preserve">9.97593975067139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0614490509033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.78592300415039</t>
+    <t xml:space="preserve">9.9759407043457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0614471435547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.78592109680176</t>
   </si>
   <si>
     <t xml:space="preserve">9.85242938995361</t>
@@ -710,13 +710,13 @@
     <t xml:space="preserve">9.86192893981934</t>
   </si>
   <si>
-    <t xml:space="preserve">9.80492305755615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.93793487548828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1754579544067</t>
+    <t xml:space="preserve">9.80492401123047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.93793773651123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1754598617554</t>
   </si>
   <si>
     <t xml:space="preserve">10.1564569473267</t>
@@ -725,19 +725,19 @@
     <t xml:space="preserve">10.3369741439819</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3939781188965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4129810333252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5839977264404</t>
+    <t xml:space="preserve">10.3939800262451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4129800796509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5839967727661</t>
   </si>
   <si>
     <t xml:space="preserve">10.6315021514893</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5174894332886</t>
+    <t xml:space="preserve">10.5174913406372</t>
   </si>
   <si>
     <t xml:space="preserve">10.4889888763428</t>
@@ -749,31 +749,31 @@
     <t xml:space="preserve">10.6695051193237</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6600036621094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9735336303711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0495414733887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8785247802734</t>
+    <t xml:space="preserve">10.660005569458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9735345840454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0495405197144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8785257339478</t>
   </si>
   <si>
     <t xml:space="preserve">10.8120193481445</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8025169372559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7835168838501</t>
+    <t xml:space="preserve">10.8025188446045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7835149765015</t>
   </si>
   <si>
     <t xml:space="preserve">10.8690233230591</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0590410232544</t>
+    <t xml:space="preserve">11.059042930603</t>
   </si>
   <si>
     <t xml:space="preserve">11.0020360946655</t>
@@ -782,22 +782,22 @@
     <t xml:space="preserve">11.0970458984375</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1635522842407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2965650558472</t>
+    <t xml:space="preserve">11.1635513305664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2965641021729</t>
   </si>
   <si>
     <t xml:space="preserve">11.2585601806641</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4200773239136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1255483627319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3725719451904</t>
+    <t xml:space="preserve">11.4200763702393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1255474090576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3725709915161</t>
   </si>
   <si>
     <t xml:space="preserve">11.3345670700073</t>
@@ -806,37 +806,37 @@
     <t xml:space="preserve">11.3155660629272</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3535690307617</t>
+    <t xml:space="preserve">11.353569984436</t>
   </si>
   <si>
     <t xml:space="preserve">11.4485788345337</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6005916595459</t>
+    <t xml:space="preserve">11.6005926132202</t>
   </si>
   <si>
     <t xml:space="preserve">11.5815906524658</t>
   </si>
   <si>
-    <t xml:space="preserve">11.629096031189</t>
+    <t xml:space="preserve">11.6290950775146</t>
   </si>
   <si>
     <t xml:space="preserve">11.7533178329468</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0017614364624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.039984703064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1259822845459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0973176956177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1068725585938</t>
+    <t xml:space="preserve">12.0017623901367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0399827957153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1259832382202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0973167419434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1068716049194</t>
   </si>
   <si>
     <t xml:space="preserve">12.1164293289185</t>
@@ -845,58 +845,58 @@
     <t xml:space="preserve">12.145094871521</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2406511306763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2788734436035</t>
+    <t xml:space="preserve">12.2406492233276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2788724899292</t>
   </si>
   <si>
     <t xml:space="preserve">12.202428817749</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3935384750366</t>
+    <t xml:space="preserve">12.3935394287109</t>
   </si>
   <si>
     <t xml:space="preserve">12.3648719787598</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4222068786621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.087760925293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3266496658325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6577615737915</t>
+    <t xml:space="preserve">12.4222059249878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0877628326416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3266487121582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6577625274658</t>
   </si>
   <si>
     <t xml:space="preserve">11.4666509628296</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8679838180542</t>
+    <t xml:space="preserve">11.8679847717285</t>
   </si>
   <si>
     <t xml:space="preserve">11.9062061309814</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9444284439087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9348726272583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8010950088501</t>
+    <t xml:space="preserve">11.944429397583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9348735809326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8010959625244</t>
   </si>
   <si>
     <t xml:space="preserve">11.7437620162964</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6959848403931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6386518478394</t>
+    <t xml:space="preserve">11.6959838867188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.638650894165</t>
   </si>
   <si>
     <t xml:space="preserve">11.5430955886841</t>
@@ -905,13 +905,13 @@
     <t xml:space="preserve">11.2468738555908</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0462083816528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8550958633423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7213182449341</t>
+    <t xml:space="preserve">11.0462074279785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8550968170166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7213201522827</t>
   </si>
   <si>
     <t xml:space="preserve">10.769097328186</t>
@@ -920,22 +920,22 @@
     <t xml:space="preserve">10.9028739929199</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0748748779297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.065318107605</t>
+    <t xml:space="preserve">11.0748739242554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0653190612793</t>
   </si>
   <si>
     <t xml:space="preserve">11.1130962371826</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3042068481445</t>
+    <t xml:space="preserve">11.3042078018188</t>
   </si>
   <si>
     <t xml:space="preserve">11.5239849090576</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5526514053345</t>
+    <t xml:space="preserve">11.5526504516602</t>
   </si>
   <si>
     <t xml:space="preserve">11.5144290924072</t>
@@ -944,25 +944,25 @@
     <t xml:space="preserve">11.5813179016113</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4379854202271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6768751144409</t>
+    <t xml:space="preserve">11.4379835128784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6768732070923</t>
   </si>
   <si>
     <t xml:space="preserve">11.6004285812378</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5048732757568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4475393295288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.418872833252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2755422592163</t>
+    <t xml:space="preserve">11.5048742294312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4475402832031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4188737869263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.275541305542</t>
   </si>
   <si>
     <t xml:space="preserve">11.1990957260132</t>
@@ -971,7 +971,7 @@
     <t xml:space="preserve">11.0844306945801</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8264293670654</t>
+    <t xml:space="preserve">10.8264303207397</t>
   </si>
   <si>
     <t xml:space="preserve">10.9984292984009</t>
@@ -980,31 +980,31 @@
     <t xml:space="preserve">10.9506530761719</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3615407943726</t>
+    <t xml:space="preserve">11.3615398406982</t>
   </si>
   <si>
     <t xml:space="preserve">11.3328733444214</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2373180389404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2946529388428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4857635498047</t>
+    <t xml:space="preserve">11.2373189926147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2946510314941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4857625961304</t>
   </si>
   <si>
     <t xml:space="preserve">11.4953184127808</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4093179702759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2277631759644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2564296722412</t>
+    <t xml:space="preserve">11.4093170166016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.22776222229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2564287185669</t>
   </si>
   <si>
     <t xml:space="preserve">11.3424291610718</t>
@@ -1016,22 +1016,22 @@
     <t xml:space="preserve">11.8966512680054</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9922065734863</t>
+    <t xml:space="preserve">11.992205619812</t>
   </si>
   <si>
     <t xml:space="preserve">12.1642055511475</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1928720474243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1355390548706</t>
+    <t xml:space="preserve">12.1928730010986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1355400085449</t>
   </si>
   <si>
     <t xml:space="preserve">12.2310953140259</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2215404510498</t>
+    <t xml:space="preserve">12.2215394973755</t>
   </si>
   <si>
     <t xml:space="preserve">12.2597618103027</t>
@@ -1043,10 +1043,10 @@
     <t xml:space="preserve">12.0113172531128</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4030923843384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3362054824829</t>
+    <t xml:space="preserve">12.4030933380127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3362064361572</t>
   </si>
   <si>
     <t xml:space="preserve">12.2884273529053</t>
@@ -1061,10 +1061,10 @@
     <t xml:space="preserve">12.8330945968628</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9764270782471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0050935745239</t>
+    <t xml:space="preserve">12.9764280319214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0050945281982</t>
   </si>
   <si>
     <t xml:space="preserve">13.0242042541504</t>
@@ -1076,37 +1076,37 @@
     <t xml:space="preserve">12.3744277954102</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9635400772095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0304288864136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2119846343994</t>
+    <t xml:space="preserve">11.9635391235352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0304279327393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2119827270508</t>
   </si>
   <si>
     <t xml:space="preserve">12.3553171157837</t>
   </si>
   <si>
-    <t xml:space="preserve">12.460428237915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0782070159912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6195402145386</t>
+    <t xml:space="preserve">12.4604272842407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0782060623169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6195392608643</t>
   </si>
   <si>
     <t xml:space="preserve">11.734206199646</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5717639923096</t>
+    <t xml:space="preserve">11.5717630386353</t>
   </si>
   <si>
     <t xml:space="preserve">11.8488721847534</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9539842605591</t>
+    <t xml:space="preserve">11.9539823532104</t>
   </si>
   <si>
     <t xml:space="preserve">12.2693166732788</t>
@@ -1118,22 +1118,22 @@
     <t xml:space="preserve">12.3839826583862</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3170957565308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5464277267456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5177621841431</t>
+    <t xml:space="preserve">12.3170948028564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5464267730713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5177612304688</t>
   </si>
   <si>
     <t xml:space="preserve">12.3457612991333</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9157629013062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3075399398804</t>
+    <t xml:space="preserve">11.9157619476318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3075389862061</t>
   </si>
   <si>
     <t xml:space="preserve">12.7279825210571</t>
@@ -1142,13 +1142,13 @@
     <t xml:space="preserve">12.7375383377075</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6897602081299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8235387802124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3299808502197</t>
+    <t xml:space="preserve">12.6897611618042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8235378265381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.329981803894</t>
   </si>
   <si>
     <t xml:space="preserve">13.3204259872437</t>
@@ -1157,13 +1157,13 @@
     <t xml:space="preserve">13.2822046279907</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1484279632568</t>
+    <t xml:space="preserve">13.1484270095825</t>
   </si>
   <si>
     <t xml:space="preserve">13.6262044906616</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6644268035889</t>
+    <t xml:space="preserve">13.6644258499146</t>
   </si>
   <si>
     <t xml:space="preserve">13.740870475769</t>
@@ -1184,22 +1184,22 @@
     <t xml:space="preserve">13.6739816665649</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5019826889038</t>
+    <t xml:space="preserve">13.5019807815552</t>
   </si>
   <si>
     <t xml:space="preserve">13.167537689209</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8044271469116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5942049026489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5655384063721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.651538848877</t>
+    <t xml:space="preserve">12.8044261932373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5942058563232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5655393600464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6515398025513</t>
   </si>
   <si>
     <t xml:space="preserve">12.6993160247803</t>
@@ -1217,34 +1217,34 @@
     <t xml:space="preserve">12.7853164672852</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4699831008911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4413175582886</t>
+    <t xml:space="preserve">12.4699821472168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4413166046143</t>
   </si>
   <si>
     <t xml:space="preserve">12.9190940856934</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2344255447388</t>
+    <t xml:space="preserve">13.2344274520874</t>
   </si>
   <si>
     <t xml:space="preserve">13.2917604446411</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4637603759766</t>
+    <t xml:space="preserve">13.4637594223022</t>
   </si>
   <si>
     <t xml:space="preserve">13.6070928573608</t>
   </si>
   <si>
-    <t xml:space="preserve">13.530647277832</t>
+    <t xml:space="preserve">13.5306482315063</t>
   </si>
   <si>
     <t xml:space="preserve">13.521092414856</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3586492538452</t>
+    <t xml:space="preserve">13.3586473464966</t>
   </si>
   <si>
     <t xml:space="preserve">13.5402040481567</t>
@@ -1253,7 +1253,7 @@
     <t xml:space="preserve">13.4446477890015</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0815382003784</t>
+    <t xml:space="preserve">13.0815372467041</t>
   </si>
   <si>
     <t xml:space="preserve">13.0528717041016</t>
@@ -1268,34 +1268,34 @@
     <t xml:space="preserve">13.8459815979004</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5115365982056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9988689422607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2090911865234</t>
+    <t xml:space="preserve">13.5115375518799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9988698959351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2090921401978</t>
   </si>
   <si>
     <t xml:space="preserve">14.3524265289307</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6104249954224</t>
+    <t xml:space="preserve">14.6104259490967</t>
   </si>
   <si>
     <t xml:space="preserve">14.5148696899414</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7824249267578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8206472396851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9066457748413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1359806060791</t>
+    <t xml:space="preserve">14.7824239730835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8206462860107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9066476821899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1359796524048</t>
   </si>
   <si>
     <t xml:space="preserve">15.0786466598511</t>
@@ -1307,25 +1307,25 @@
     <t xml:space="preserve">15.1933126449585</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2219800949097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2602033615112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1264238357544</t>
+    <t xml:space="preserve">15.2219791412354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2602024078369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1264247894287</t>
   </si>
   <si>
     <t xml:space="preserve">15.1168689727783</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9353141784668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8110904693604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3939800262451</t>
+    <t xml:space="preserve">14.9353132247925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8110914230347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3939790725708</t>
   </si>
   <si>
     <t xml:space="preserve">15.4990911483765</t>
@@ -1337,28 +1337,28 @@
     <t xml:space="preserve">15.4799795150757</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6710920333862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6233129501343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7857599258423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8908662796021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6519784927368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2410898208618</t>
+    <t xml:space="preserve">15.6710891723633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.62331199646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7857570648193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8908653259277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6519794464111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2410907745361</t>
   </si>
   <si>
     <t xml:space="preserve">15.5755348205566</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0401563644409</t>
+    <t xml:space="preserve">15.0401554107666</t>
   </si>
   <si>
     <t xml:space="preserve">14.886194229126</t>
@@ -1370,31 +1370,31 @@
     <t xml:space="preserve">14.8284578323364</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9535512924194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0978899002075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.135627746582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6167593002319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8380813598633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8477039337158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4154376983643</t>
+    <t xml:space="preserve">14.9535522460938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0978918075562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1356296539307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6167602539062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.838080406189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8477029800415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4154386520386</t>
   </si>
   <si>
     <t xml:space="preserve">15.7233610153198</t>
   </si>
   <si>
-    <t xml:space="preserve">16.358455657959</t>
+    <t xml:space="preserve">16.3584518432617</t>
   </si>
   <si>
     <t xml:space="preserve">16.7048683166504</t>
@@ -1412,13 +1412,13 @@
     <t xml:space="preserve">16.4546813964844</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5701503753662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3488311767578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3103427886963</t>
+    <t xml:space="preserve">16.5701522827148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3488330841064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3103408813477</t>
   </si>
   <si>
     <t xml:space="preserve">16.7722263336182</t>
@@ -1430,13 +1430,13 @@
     <t xml:space="preserve">16.9165668487549</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8203392028809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5509071350098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5027923583984</t>
+    <t xml:space="preserve">16.8203411102295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5509090423584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5027942657471</t>
   </si>
   <si>
     <t xml:space="preserve">16.9261894226074</t>
@@ -1445,19 +1445,19 @@
     <t xml:space="preserve">17.0897731781006</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1378879547119</t>
+    <t xml:space="preserve">17.1378860473633</t>
   </si>
   <si>
     <t xml:space="preserve">17.3014717102051</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1763763427734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0224151611328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6182651519775</t>
+    <t xml:space="preserve">17.1763801574707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0224170684814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6182670593262</t>
   </si>
   <si>
     <t xml:space="preserve">16.6952476501465</t>
@@ -1466,25 +1466,25 @@
     <t xml:space="preserve">16.4643039703369</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6471309661865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8010940551758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.608642578125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7626075744629</t>
+    <t xml:space="preserve">16.6471347808838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8010959625244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6086406707764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7626037597656</t>
   </si>
   <si>
     <t xml:space="preserve">17.3592071533203</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8018474578857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2156200408936</t>
+    <t xml:space="preserve">17.8018493652344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2156219482422</t>
   </si>
   <si>
     <t xml:space="preserve">17.7056217193604</t>
@@ -1502,22 +1502,22 @@
     <t xml:space="preserve">18.4080715179443</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6871318817139</t>
+    <t xml:space="preserve">18.6871280670166</t>
   </si>
   <si>
     <t xml:space="preserve">18.5235462188721</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3407135009766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1290187835693</t>
+    <t xml:space="preserve">18.3407154083252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1290149688721</t>
   </si>
   <si>
     <t xml:space="preserve">17.8980731964111</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0520343780518</t>
+    <t xml:space="preserve">18.0520362854004</t>
   </si>
   <si>
     <t xml:space="preserve">18.0231685638428</t>
@@ -1526,16 +1526,16 @@
     <t xml:space="preserve">18.5716571807861</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6486377716064</t>
+    <t xml:space="preserve">18.6486396789551</t>
   </si>
   <si>
     <t xml:space="preserve">18.4754314422607</t>
   </si>
   <si>
-    <t xml:space="preserve">18.302225112915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3792037963867</t>
+    <t xml:space="preserve">18.3022232055664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3792057037354</t>
   </si>
   <si>
     <t xml:space="preserve">18.4850540161133</t>
@@ -1544,7 +1544,7 @@
     <t xml:space="preserve">18.331090927124</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2059993743896</t>
+    <t xml:space="preserve">18.2059955596924</t>
   </si>
   <si>
     <t xml:space="preserve">18.2733554840088</t>
@@ -1553,49 +1553,49 @@
     <t xml:space="preserve">17.8403377532959</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6678829193115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1001491546631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2829780578613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0239200592041</t>
+    <t xml:space="preserve">18.6678848266602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1001510620117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.28297996521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0239238739014</t>
   </si>
   <si>
     <t xml:space="preserve">19.6301441192627</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7071266174316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6686363220215</t>
+    <t xml:space="preserve">19.707124710083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6686382293701</t>
   </si>
   <si>
     <t xml:space="preserve">19.4761829376221</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3414649963379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.004674911499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7256183624268</t>
+    <t xml:space="preserve">19.3414669036865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0046730041504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.725622177124</t>
   </si>
   <si>
     <t xml:space="preserve">18.8025989532471</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0527896881104</t>
+    <t xml:space="preserve">19.0527877807617</t>
   </si>
   <si>
     <t xml:space="preserve">19.2452411651611</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9661827087402</t>
+    <t xml:space="preserve">18.9661846160889</t>
   </si>
   <si>
     <t xml:space="preserve">18.4176959991455</t>
@@ -1607,28 +1607,28 @@
     <t xml:space="preserve">18.3118457794189</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5612831115723</t>
+    <t xml:space="preserve">17.5612812042236</t>
   </si>
   <si>
     <t xml:space="preserve">16.8107166290283</t>
   </si>
   <si>
-    <t xml:space="preserve">15.684871673584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8195877075195</t>
+    <t xml:space="preserve">15.6848707199097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8195896148682</t>
   </si>
   <si>
     <t xml:space="preserve">15.906192779541</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2326078414917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6560039520264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6944942474365</t>
+    <t xml:space="preserve">15.2326097488403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6560049057007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6944923400879</t>
   </si>
   <si>
     <t xml:space="preserve">16.0409069061279</t>
@@ -1640,19 +1640,19 @@
     <t xml:space="preserve">15.1748733520508</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2999658584595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2229862213135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2037410736084</t>
+    <t xml:space="preserve">15.2999668121338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2229843139648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2037401199341</t>
   </si>
   <si>
     <t xml:space="preserve">15.2422313690186</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0690231323242</t>
+    <t xml:space="preserve">15.0690240859985</t>
   </si>
   <si>
     <t xml:space="preserve">14.8765716552734</t>
@@ -1661,22 +1661,22 @@
     <t xml:space="preserve">14.9246845245361</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8958158493042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8669471740723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1556282043457</t>
+    <t xml:space="preserve">14.8958168029785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8669490814209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1556262969971</t>
   </si>
   <si>
     <t xml:space="preserve">15.2807207107544</t>
   </si>
   <si>
-    <t xml:space="preserve">15.011287689209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0201568603516</t>
+    <t xml:space="preserve">15.0112886428833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0201578140259</t>
   </si>
   <si>
     <t xml:space="preserve">13.9335536956787</t>
@@ -1688,7 +1688,7 @@
     <t xml:space="preserve">13.2792167663574</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5871391296387</t>
+    <t xml:space="preserve">13.587140083313</t>
   </si>
   <si>
     <t xml:space="preserve">13.4620456695557</t>
@@ -1700,25 +1700,25 @@
     <t xml:space="preserve">13.8565721511841</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6929893493652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4235553741455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0778942108154</t>
+    <t xml:space="preserve">13.6929883956909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4235563278198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0778932571411</t>
   </si>
   <si>
     <t xml:space="preserve">14.2222318649292</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7129859924316</t>
+    <t xml:space="preserve">14.7129878997803</t>
   </si>
   <si>
     <t xml:space="preserve">14.4339303970337</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3761940002441</t>
+    <t xml:space="preserve">14.3761949539185</t>
   </si>
   <si>
     <t xml:space="preserve">14.5205335617065</t>
@@ -1730,61 +1730,61 @@
     <t xml:space="preserve">14.0009136199951</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9431762695312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7988386154175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.962423324585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1067609786987</t>
+    <t xml:space="preserve">13.9431772232056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7988376617432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9624223709106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1067600250244</t>
   </si>
   <si>
     <t xml:space="preserve">14.1548738479614</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6360054016113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9816665649414</t>
+    <t xml:space="preserve">14.636004447937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9816675186157</t>
   </si>
   <si>
     <t xml:space="preserve">12.9135570526123</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5197811126709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3850650787354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9527997970581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2799692153931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0593996047974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.482795715332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1075143814087</t>
+    <t xml:space="preserve">13.5197801589966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3850660324097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9528007507324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2799682617188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.059401512146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4827966690063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1075134277344</t>
   </si>
   <si>
     <t xml:space="preserve">15.3095893859863</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4058151245117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3769474029541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5405321121216</t>
+    <t xml:space="preserve">15.4058141708374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3769464492798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5405311584473</t>
   </si>
   <si>
     <t xml:space="preserve">15.5886449813843</t>
@@ -1793,43 +1793,43 @@
     <t xml:space="preserve">15.5212860107422</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3673248291016</t>
+    <t xml:space="preserve">15.3673238754272</t>
   </si>
   <si>
     <t xml:space="preserve">15.2518529891968</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1460037231445</t>
+    <t xml:space="preserve">15.1460046768188</t>
   </si>
   <si>
     <t xml:space="preserve">15.0497789382935</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0882701873779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1652498245239</t>
+    <t xml:space="preserve">15.0882692337036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1652488708496</t>
   </si>
   <si>
     <t xml:space="preserve">15.8484554290771</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9446811676025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2903442382812</t>
+    <t xml:space="preserve">15.9446840286255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2903432846069</t>
   </si>
   <si>
     <t xml:space="preserve">15.4443054199219</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7810974121094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6656255722046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6271352767944</t>
+    <t xml:space="preserve">15.7810983657837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6656265258789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6271362304688</t>
   </si>
   <si>
     <t xml:space="preserve">15.0016651153564</t>
@@ -1838,34 +1838,34 @@
     <t xml:space="preserve">15.1267595291138</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4539289474487</t>
+    <t xml:space="preserve">15.4539279937744</t>
   </si>
   <si>
     <t xml:space="preserve">15.4250612258911</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6752490997314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5982666015625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7426071166992</t>
+    <t xml:space="preserve">15.6752500534058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5982685089111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7426061630249</t>
   </si>
   <si>
     <t xml:space="preserve">15.9735507965088</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6760025024414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2044925689697</t>
+    <t xml:space="preserve">16.67600440979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2044944763184</t>
   </si>
   <si>
     <t xml:space="preserve">15.4924192428589</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0216617584229</t>
+    <t xml:space="preserve">16.0216636657715</t>
   </si>
   <si>
     <t xml:space="preserve">16.93581199646</t>
@@ -1883,10 +1883,10 @@
     <t xml:space="preserve">16.4739265441895</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0031719207764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6663799285889</t>
+    <t xml:space="preserve">17.0031700134277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6663780212402</t>
   </si>
   <si>
     <t xml:space="preserve">17.060905456543</t>
@@ -1898,13 +1898,13 @@
     <t xml:space="preserve">17.1475105285645</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1186408996582</t>
+    <t xml:space="preserve">17.1186428070068</t>
   </si>
   <si>
     <t xml:space="preserve">16.4931716918945</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1371364593506</t>
+    <t xml:space="preserve">16.137134552002</t>
   </si>
   <si>
     <t xml:space="preserve">16.1275119781494</t>
@@ -1913,64 +1913,64 @@
     <t xml:space="preserve">16.1660022735596</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0890197753906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5990219116211</t>
+    <t xml:space="preserve">16.0890216827393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5990200042725</t>
   </si>
   <si>
     <t xml:space="preserve">16.4835472106934</t>
   </si>
   <si>
-    <t xml:space="preserve">16.156379699707</t>
+    <t xml:space="preserve">16.1563777923584</t>
   </si>
   <si>
     <t xml:space="preserve">17.7633571624756</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9269428253174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3599605560303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5709037780762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5420379638672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0905265808105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9469375610352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8521842956543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1526565551758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8892955780029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7923698425293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2108116149902</t>
+    <t xml:space="preserve">17.9269409179688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3599586486816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5709056854248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5420360565186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0905246734619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9469413757324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8521862030029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1526546478271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8892974853516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7923679351807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2108135223389</t>
   </si>
   <si>
     <t xml:space="preserve">19.2301979064941</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2689685821533</t>
+    <t xml:space="preserve">19.2689666748047</t>
   </si>
   <si>
     <t xml:space="preserve">18.8715667724609</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9878826141357</t>
+    <t xml:space="preserve">18.9878807067871</t>
   </si>
   <si>
     <t xml:space="preserve">19.2495822906494</t>
@@ -1985,10 +1985,10 @@
     <t xml:space="preserve">19.6760597229004</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3755874633789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4822044372559</t>
+    <t xml:space="preserve">19.3755855560303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4822063446045</t>
   </si>
   <si>
     <t xml:space="preserve">19.4046649932861</t>
@@ -1997,13 +1997,13 @@
     <t xml:space="preserve">19.5403633117676</t>
   </si>
   <si>
-    <t xml:space="preserve">20.199462890625</t>
+    <t xml:space="preserve">20.1994609832764</t>
   </si>
   <si>
     <t xml:space="preserve">20.4514694213867</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5677795410156</t>
+    <t xml:space="preserve">20.5677814483643</t>
   </si>
   <si>
     <t xml:space="preserve">20.897331237793</t>
@@ -2030,7 +2030,7 @@
     <t xml:space="preserve">19.9280662536621</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9668369293213</t>
+    <t xml:space="preserve">19.9668388366699</t>
   </si>
   <si>
     <t xml:space="preserve">20.3933143615723</t>
@@ -2039,7 +2039,7 @@
     <t xml:space="preserve">20.2382316589355</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9474506378174</t>
+    <t xml:space="preserve">19.947452545166</t>
   </si>
   <si>
     <t xml:space="preserve">19.8505268096924</t>
@@ -2048,13 +2048,13 @@
     <t xml:space="preserve">20.0249938964844</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6065540313721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5871677398682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5290126800537</t>
+    <t xml:space="preserve">20.6065521240234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5871658325195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5290088653564</t>
   </si>
   <si>
     <t xml:space="preserve">21.0136432647705</t>
@@ -2066,16 +2066,16 @@
     <t xml:space="preserve">20.7228622436523</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3351573944092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4320850372314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4902381896973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5951995849609</t>
+    <t xml:space="preserve">20.3351593017578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4320831298828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4902400970459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5952014923096</t>
   </si>
   <si>
     <t xml:space="preserve">21.4982738494873</t>
@@ -2084,7 +2084,7 @@
     <t xml:space="preserve">20.7422485351562</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3157711029053</t>
+    <t xml:space="preserve">20.3157730102539</t>
   </si>
   <si>
     <t xml:space="preserve">20.8779449462891</t>
@@ -2102,13 +2102,13 @@
     <t xml:space="preserve">21.5758171081543</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3431911468506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6145858764648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1767578125</t>
+    <t xml:space="preserve">21.3431930541992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6145877838135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1767597198486</t>
   </si>
   <si>
     <t xml:space="preserve">22.8164749145508</t>
@@ -2117,19 +2117,19 @@
     <t xml:space="preserve">22.8940143585205</t>
   </si>
   <si>
-    <t xml:space="preserve">22.85524559021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4287662506104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5838489532471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2930717468262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2736854553223</t>
+    <t xml:space="preserve">22.8552474975586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.428768157959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5838508605957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2930698394775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2736873626709</t>
   </si>
   <si>
     <t xml:space="preserve">22.6420059204102</t>
@@ -2144,34 +2144,34 @@
     <t xml:space="preserve">23.1460227966309</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3899993896484</t>
+    <t xml:space="preserve">22.3899955749512</t>
   </si>
   <si>
     <t xml:space="preserve">22.5644645690918</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6727409362793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7810192108154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7616348266602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4401187896729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0911865234375</t>
+    <t xml:space="preserve">21.6727428436279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7810211181641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7616329193115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4401206970215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0911846160889</t>
   </si>
   <si>
     <t xml:space="preserve">21.1881084442139</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4013500213623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0604496002197</t>
+    <t xml:space="preserve">21.4013481140137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0604476928711</t>
   </si>
   <si>
     <t xml:space="preserve">21.827823638916</t>
@@ -2183,7 +2183,7 @@
     <t xml:space="preserve">21.6921272277832</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9247531890869</t>
+    <t xml:space="preserve">21.9247512817383</t>
   </si>
   <si>
     <t xml:space="preserve">22.0022926330566</t>
@@ -2192,13 +2192,13 @@
     <t xml:space="preserve">21.8084392547607</t>
   </si>
   <si>
-    <t xml:space="preserve">21.905366897583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9554882049561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9167175292969</t>
+    <t xml:space="preserve">21.9053649902344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9554862976074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9167194366455</t>
   </si>
   <si>
     <t xml:space="preserve">20.8004035949707</t>
@@ -2207,7 +2207,7 @@
     <t xml:space="preserve">21.1687259674072</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6840953826904</t>
+    <t xml:space="preserve">20.6840934753418</t>
   </si>
   <si>
     <t xml:space="preserve">21.2074947357178</t>
@@ -2219,22 +2219,22 @@
     <t xml:space="preserve">20.6259365081787</t>
   </si>
   <si>
-    <t xml:space="preserve">20.645320892334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1573734283447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3512268066406</t>
+    <t xml:space="preserve">20.6453247070312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1573715209961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3512287139893</t>
   </si>
   <si>
     <t xml:space="preserve">22.8746299743652</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9909420013428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3592624664307</t>
+    <t xml:space="preserve">22.9909400939941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.359260559082</t>
   </si>
   <si>
     <t xml:space="preserve">23.8051223754883</t>
@@ -2249,22 +2249,22 @@
     <t xml:space="preserve">23.9214344024658</t>
   </si>
   <si>
-    <t xml:space="preserve">24.4448356628418</t>
+    <t xml:space="preserve">24.4448375701904</t>
   </si>
   <si>
     <t xml:space="preserve">24.1540584564209</t>
   </si>
   <si>
-    <t xml:space="preserve">24.2315998077393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3285274505615</t>
+    <t xml:space="preserve">24.2315979003906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3285236358643</t>
   </si>
   <si>
     <t xml:space="preserve">24.73561668396</t>
   </si>
   <si>
-    <t xml:space="preserve">25.2396335601807</t>
+    <t xml:space="preserve">25.2396354675293</t>
   </si>
   <si>
     <t xml:space="preserve">25.4722557067871</t>
@@ -2273,7 +2273,7 @@
     <t xml:space="preserve">25.7436504364014</t>
   </si>
   <si>
-    <t xml:space="preserve">24.6968460083008</t>
+    <t xml:space="preserve">24.6968441009521</t>
   </si>
   <si>
     <t xml:space="preserve">25.3559455871582</t>
@@ -2282,19 +2282,19 @@
     <t xml:space="preserve">25.666109085083</t>
   </si>
   <si>
-    <t xml:space="preserve">25.2977886199951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3947143554688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9876232147217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.317174911499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2008647918701</t>
+    <t xml:space="preserve">25.2977867126465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3947162628174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9876251220703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3171768188477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2008628845215</t>
   </si>
   <si>
     <t xml:space="preserve">25.0070095062256</t>
@@ -2312,22 +2312,22 @@
     <t xml:space="preserve">25.0263957977295</t>
   </si>
   <si>
-    <t xml:space="preserve">25.0457820892334</t>
+    <t xml:space="preserve">25.0457801818848</t>
   </si>
   <si>
     <t xml:space="preserve">24.8519268035889</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9294700622559</t>
+    <t xml:space="preserve">24.9294681549072</t>
   </si>
   <si>
     <t xml:space="preserve">24.9488544464111</t>
   </si>
   <si>
-    <t xml:space="preserve">25.0651683807373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6854953765869</t>
+    <t xml:space="preserve">25.0651664733887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6854972839355</t>
   </si>
   <si>
     <t xml:space="preserve">25.7242660522461</t>
@@ -2336,22 +2336,22 @@
     <t xml:space="preserve">25.2202491760254</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3753318786621</t>
+    <t xml:space="preserve">25.3753299713135</t>
   </si>
   <si>
     <t xml:space="preserve">25.5885696411133</t>
   </si>
   <si>
-    <t xml:space="preserve">26.1507396697998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9956588745117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9375057220459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5304126739502</t>
+    <t xml:space="preserve">26.1507415771484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9956607818604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9375038146973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5304107666016</t>
   </si>
   <si>
     <t xml:space="preserve">26.2088985443115</t>
@@ -2381,34 +2381,34 @@
     <t xml:space="preserve">27.546480178833</t>
   </si>
   <si>
-    <t xml:space="preserve">27.6240234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.9341869354248</t>
+    <t xml:space="preserve">27.6240253448486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9341888427734</t>
   </si>
   <si>
     <t xml:space="preserve">28.1086559295654</t>
   </si>
   <si>
-    <t xml:space="preserve">28.2443504333496</t>
+    <t xml:space="preserve">28.2443523406982</t>
   </si>
   <si>
     <t xml:space="preserve">28.6126728057861</t>
   </si>
   <si>
-    <t xml:space="preserve">29.2136154174805</t>
+    <t xml:space="preserve">29.2136173248291</t>
   </si>
   <si>
     <t xml:space="preserve">28.7095985412598</t>
   </si>
   <si>
-    <t xml:space="preserve">28.3025093078613</t>
+    <t xml:space="preserve">28.3025074005127</t>
   </si>
   <si>
     <t xml:space="preserve">26.3639793395996</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6079540252686</t>
+    <t xml:space="preserve">25.6079521179199</t>
   </si>
   <si>
     <t xml:space="preserve">24.968240737915</t>
@@ -2423,25 +2423,25 @@
     <t xml:space="preserve">23.7857398986816</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1219215393066</t>
+    <t xml:space="preserve">20.121919631958</t>
   </si>
   <si>
     <t xml:space="preserve">19.6372871398926</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8183870315552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5824489593506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9637775421143</t>
+    <t xml:space="preserve">15.8183889389038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.582447052002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9637756347656</t>
   </si>
   <si>
     <t xml:space="preserve">16.3611755371094</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1559734344482</t>
+    <t xml:space="preserve">17.1559715270996</t>
   </si>
   <si>
     <t xml:space="preserve">17.7859935760498</t>
@@ -2453,13 +2453,13 @@
     <t xml:space="preserve">18.406322479248</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1138858795166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.416015625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4935569763184</t>
+    <t xml:space="preserve">19.113883972168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4160137176514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4935550689697</t>
   </si>
   <si>
     <t xml:space="preserve">18.3869361877441</t>
@@ -2468,10 +2468,10 @@
     <t xml:space="preserve">18.1446208953857</t>
   </si>
   <si>
-    <t xml:space="preserve">17.640604019165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6696834564209</t>
+    <t xml:space="preserve">17.6406059265137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6696815490723</t>
   </si>
   <si>
     <t xml:space="preserve">17.059045791626</t>
@@ -2480,16 +2480,16 @@
     <t xml:space="preserve">17.9119987487793</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0654239654541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7067947387695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7213325500488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0460376739502</t>
+    <t xml:space="preserve">19.0654220581055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7067966461182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7213344573975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0460357666016</t>
   </si>
   <si>
     <t xml:space="preserve">18.2221622467041</t>
@@ -2504,7 +2504,7 @@
     <t xml:space="preserve">19.1284255981445</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3060817718506</t>
+    <t xml:space="preserve">20.306079864502</t>
   </si>
   <si>
     <t xml:space="preserve">20.548397064209</t>
@@ -2513,7 +2513,7 @@
     <t xml:space="preserve">20.2866954803467</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2673091888428</t>
+    <t xml:space="preserve">20.2673110961914</t>
   </si>
   <si>
     <t xml:space="preserve">20.0637645721436</t>
@@ -2525,19 +2525,19 @@
     <t xml:space="preserve">22.0895252227783</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7018184661865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6710815429688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1186027526855</t>
+    <t xml:space="preserve">21.7018203735352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6710834503174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1186046600342</t>
   </si>
   <si>
     <t xml:space="preserve">21.3335018157959</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7502841949463</t>
+    <t xml:space="preserve">21.7502861022949</t>
   </si>
   <si>
     <t xml:space="preserve">22.186450958252</t>
@@ -2552,13 +2552,13 @@
     <t xml:space="preserve">21.9829063415527</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3786468505859</t>
+    <t xml:space="preserve">23.3786487579346</t>
   </si>
   <si>
     <t xml:space="preserve">23.4852657318115</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6129302978516</t>
+    <t xml:space="preserve">22.6129283905029</t>
   </si>
   <si>
     <t xml:space="preserve">23.853588104248</t>
@@ -2570,13 +2570,13 @@
     <t xml:space="preserve">23.8729705810547</t>
   </si>
   <si>
-    <t xml:space="preserve">24.2025203704834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1734447479248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.708194732666</t>
+    <t xml:space="preserve">24.202522277832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1734428405762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7081966400146</t>
   </si>
   <si>
     <t xml:space="preserve">23.029712677002</t>
@@ -2588,7 +2588,7 @@
     <t xml:space="preserve">22.2155303955078</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3996887207031</t>
+    <t xml:space="preserve">22.3996906280518</t>
   </si>
   <si>
     <t xml:space="preserve">23.0394058227539</t>
@@ -2600,22 +2600,22 @@
     <t xml:space="preserve">23.6500415802002</t>
   </si>
   <si>
-    <t xml:space="preserve">23.02001953125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0490951538086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4949588775635</t>
+    <t xml:space="preserve">23.0200176239014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0490970611572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4949569702148</t>
   </si>
   <si>
     <t xml:space="preserve">23.8148136138916</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7583179473877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7970905303955</t>
+    <t xml:space="preserve">22.7583160400391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7970886230469</t>
   </si>
   <si>
     <t xml:space="preserve">22.9812469482422</t>
@@ -2627,16 +2627,16 @@
     <t xml:space="preserve">23.620964050293</t>
   </si>
   <si>
-    <t xml:space="preserve">23.5918846130371</t>
+    <t xml:space="preserve">23.5918827056885</t>
   </si>
   <si>
     <t xml:space="preserve">23.8923568725586</t>
   </si>
   <si>
-    <t xml:space="preserve">24.0959033966064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1928272247314</t>
+    <t xml:space="preserve">24.0959014892578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1928253173828</t>
   </si>
   <si>
     <t xml:space="preserve">24.0668239593506</t>
@@ -2645,7 +2645,7 @@
     <t xml:space="preserve">24.1152858734131</t>
   </si>
   <si>
-    <t xml:space="preserve">24.5223770141602</t>
+    <t xml:space="preserve">24.5223789215088</t>
   </si>
   <si>
     <t xml:space="preserve">24.6871528625488</t>
@@ -2657,7 +2657,7 @@
     <t xml:space="preserve">25.6564159393311</t>
   </si>
   <si>
-    <t xml:space="preserve">25.4431800842285</t>
+    <t xml:space="preserve">25.4431819915771</t>
   </si>
   <si>
     <t xml:space="preserve">25.4334850311279</t>
@@ -2669,13 +2669,13 @@
     <t xml:space="preserve">25.5110282897949</t>
   </si>
   <si>
-    <t xml:space="preserve">26.9552307128906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9067687988281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.0601940155029</t>
+    <t xml:space="preserve">26.955228805542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9067668914795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.0601921081543</t>
   </si>
   <si>
     <t xml:space="preserve">28.6514415740967</t>
@@ -2684,10 +2684,10 @@
     <t xml:space="preserve">27.9148006439209</t>
   </si>
   <si>
-    <t xml:space="preserve">28.0020351409912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5658683776855</t>
+    <t xml:space="preserve">28.0020370483398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5658664703369</t>
   </si>
   <si>
     <t xml:space="preserve">27.9632663726807</t>
@@ -2699,10 +2699,10 @@
     <t xml:space="preserve">27.4398612976074</t>
   </si>
   <si>
-    <t xml:space="preserve">27.78879737854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.633716583252</t>
+    <t xml:space="preserve">27.7887954711914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.6337146759033</t>
   </si>
   <si>
     <t xml:space="preserve">27.4592475891113</t>
@@ -2723,7 +2723,7 @@
     <t xml:space="preserve">26.8970756530762</t>
   </si>
   <si>
-    <t xml:space="preserve">26.8486099243164</t>
+    <t xml:space="preserve">26.848611831665</t>
   </si>
   <si>
     <t xml:space="preserve">27.0618495941162</t>
@@ -2732,7 +2732,7 @@
     <t xml:space="preserve">26.9358463287354</t>
   </si>
   <si>
-    <t xml:space="preserve">26.6547603607178</t>
+    <t xml:space="preserve">26.6547584533691</t>
   </si>
   <si>
     <t xml:space="preserve">26.8583030700684</t>
@@ -2744,13 +2744,13 @@
     <t xml:space="preserve">27.0715446472168</t>
   </si>
   <si>
-    <t xml:space="preserve">27.1587772369385</t>
+    <t xml:space="preserve">27.1587753295898</t>
   </si>
   <si>
     <t xml:space="preserve">27.7984924316406</t>
   </si>
   <si>
-    <t xml:space="preserve">27.8566455841064</t>
+    <t xml:space="preserve">27.8566474914551</t>
   </si>
   <si>
     <t xml:space="preserve">28.6029796600342</t>
@@ -2765,7 +2765,7 @@
     <t xml:space="preserve">29.4268550872803</t>
   </si>
   <si>
-    <t xml:space="preserve">29.2233085632324</t>
+    <t xml:space="preserve">29.2233066558838</t>
   </si>
   <si>
     <t xml:space="preserve">29.1263809204102</t>
@@ -2777,28 +2777,28 @@
     <t xml:space="preserve">28.0698833465576</t>
   </si>
   <si>
-    <t xml:space="preserve">27.8857250213623</t>
+    <t xml:space="preserve">27.8857231140137</t>
   </si>
   <si>
     <t xml:space="preserve">28.0989608764648</t>
   </si>
   <si>
-    <t xml:space="preserve">29.8242530822754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.4155006408691</t>
+    <t xml:space="preserve">29.8242511749268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.4155025482178</t>
   </si>
   <si>
     <t xml:space="preserve">29.6110134124756</t>
   </si>
   <si>
-    <t xml:space="preserve">29.9211807250977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.2798080444336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.4736595153809</t>
+    <t xml:space="preserve">29.9211769104004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.279806137085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.4736576080322</t>
   </si>
   <si>
     <t xml:space="preserve">29.6013221740723</t>
@@ -2807,10 +2807,10 @@
     <t xml:space="preserve">29.7660961151123</t>
   </si>
   <si>
-    <t xml:space="preserve">30.2507266998291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.9292125701904</t>
+    <t xml:space="preserve">30.2507286071777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.9292106628418</t>
   </si>
   <si>
     <t xml:space="preserve">31.4526176452637</t>
@@ -2819,22 +2819,22 @@
     <t xml:space="preserve">31.2103004455566</t>
   </si>
   <si>
-    <t xml:space="preserve">30.9970607757568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3847694396973</t>
+    <t xml:space="preserve">30.9970626831055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3847675323486</t>
   </si>
   <si>
     <t xml:space="preserve">31.2006053924561</t>
   </si>
   <si>
-    <t xml:space="preserve">31.3944606781006</t>
+    <t xml:space="preserve">31.394458770752</t>
   </si>
   <si>
     <t xml:space="preserve">31.1812210083008</t>
   </si>
   <si>
-    <t xml:space="preserve">31.1424522399902</t>
+    <t xml:space="preserve">31.1424541473389</t>
   </si>
   <si>
     <t xml:space="preserve">31.2781467437744</t>
@@ -2852,10 +2852,10 @@
     <t xml:space="preserve">29.6497840881348</t>
   </si>
   <si>
-    <t xml:space="preserve">31.3653831481934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.470344543457</t>
+    <t xml:space="preserve">31.3653812408447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.4703407287598</t>
   </si>
   <si>
     <t xml:space="preserve">33.3911399841309</t>
@@ -2870,16 +2870,16 @@
     <t xml:space="preserve">32.9549751281738</t>
   </si>
   <si>
-    <t xml:space="preserve">33.8273124694824</t>
+    <t xml:space="preserve">33.8273162841797</t>
   </si>
   <si>
     <t xml:space="preserve">34.0599365234375</t>
   </si>
   <si>
-    <t xml:space="preserve">34.6414909362793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.9339294433594</t>
+    <t xml:space="preserve">34.6414947509766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.9339256286621</t>
   </si>
   <si>
     <t xml:space="preserve">34.9613494873047</t>
@@ -2897,10 +2897,10 @@
     <t xml:space="preserve">33.158519744873</t>
   </si>
   <si>
-    <t xml:space="preserve">33.3426818847656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.985710144043</t>
+    <t xml:space="preserve">33.3426856994629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9857139587402</t>
   </si>
   <si>
     <t xml:space="preserve">32.082633972168</t>
@@ -2912,10 +2912,10 @@
     <t xml:space="preserve">33.2263679504395</t>
   </si>
   <si>
-    <t xml:space="preserve">32.5381927490234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7240085601807</t>
+    <t xml:space="preserve">32.5381889343262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.724006652832</t>
   </si>
   <si>
     <t xml:space="preserve">31.3459968566895</t>
@@ -2930,7 +2930,7 @@
     <t xml:space="preserve">31.3363056182861</t>
   </si>
   <si>
-    <t xml:space="preserve">31.5495376586914</t>
+    <t xml:space="preserve">31.5495414733887</t>
   </si>
   <si>
     <t xml:space="preserve">32.0923309326172</t>
@@ -2948,13 +2948,13 @@
     <t xml:space="preserve">32.4218788146973</t>
   </si>
   <si>
-    <t xml:space="preserve">32.9065093994141</t>
+    <t xml:space="preserve">32.9065132141113</t>
   </si>
   <si>
     <t xml:space="preserve">32.1698684692383</t>
   </si>
   <si>
-    <t xml:space="preserve">32.6932754516602</t>
+    <t xml:space="preserve">32.6932716369629</t>
   </si>
   <si>
     <t xml:space="preserve">32.218334197998</t>
@@ -2966,7 +2966,7 @@
     <t xml:space="preserve">32.9937477111816</t>
   </si>
   <si>
-    <t xml:space="preserve">32.8968162536621</t>
+    <t xml:space="preserve">32.8968200683594</t>
   </si>
   <si>
     <t xml:space="preserve">32.5284996032715</t>
@@ -2981,16 +2981,16 @@
     <t xml:space="preserve">32.7998924255371</t>
   </si>
   <si>
-    <t xml:space="preserve">32.6448097229004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.5866546630859</t>
+    <t xml:space="preserve">32.6448135375977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.5866584777832</t>
   </si>
   <si>
     <t xml:space="preserve">32.8677444458008</t>
   </si>
   <si>
-    <t xml:space="preserve">33.1100578308105</t>
+    <t xml:space="preserve">33.1100540161133</t>
   </si>
   <si>
     <t xml:space="preserve">33.1391372680664</t>
@@ -2999,13 +2999,13 @@
     <t xml:space="preserve">33.2942161560059</t>
   </si>
   <si>
-    <t xml:space="preserve">33.0712852478027</t>
+    <t xml:space="preserve">33.0712890625</t>
   </si>
   <si>
     <t xml:space="preserve">32.8386611938477</t>
   </si>
   <si>
-    <t xml:space="preserve">32.5478858947754</t>
+    <t xml:space="preserve">32.5478820800781</t>
   </si>
   <si>
     <t xml:space="preserve">32.5188102722168</t>
@@ -3017,10 +3017,10 @@
     <t xml:space="preserve">32.8095855712891</t>
   </si>
   <si>
-    <t xml:space="preserve">32.4024925231934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.5365295410156</t>
+    <t xml:space="preserve">32.4024963378906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.5365333557129</t>
   </si>
   <si>
     <t xml:space="preserve">34.3022537231445</t>
@@ -3029,7 +3029,7 @@
     <t xml:space="preserve">35.1164321899414</t>
   </si>
   <si>
-    <t xml:space="preserve">35.0001220703125</t>
+    <t xml:space="preserve">35.0001258850098</t>
   </si>
   <si>
     <t xml:space="preserve">35.4653701782227</t>
@@ -3047,16 +3047,16 @@
     <t xml:space="preserve">36.0856971740723</t>
   </si>
   <si>
-    <t xml:space="preserve">35.8627662658691</t>
+    <t xml:space="preserve">35.8627700805664</t>
   </si>
   <si>
     <t xml:space="preserve">34.7674980163574</t>
   </si>
   <si>
-    <t xml:space="preserve">34.4088745117188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.866081237793</t>
+    <t xml:space="preserve">34.4088668823242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.8660774230957</t>
   </si>
   <si>
     <t xml:space="preserve">33.8176193237305</t>
@@ -3077,7 +3077,7 @@
     <t xml:space="preserve">30.4251937866211</t>
   </si>
   <si>
-    <t xml:space="preserve">29.9308681488037</t>
+    <t xml:space="preserve">29.9308700561523</t>
   </si>
   <si>
     <t xml:space="preserve">29.1166896820068</t>
@@ -3095,13 +3095,13 @@
     <t xml:space="preserve">31.9469394683838</t>
   </si>
   <si>
-    <t xml:space="preserve">30.9776763916016</t>
+    <t xml:space="preserve">30.9776744842529</t>
   </si>
   <si>
     <t xml:space="preserve">31.1909141540527</t>
   </si>
   <si>
-    <t xml:space="preserve">31.5883121490479</t>
+    <t xml:space="preserve">31.5883140563965</t>
   </si>
   <si>
     <t xml:space="preserve">31.0067539215088</t>
@@ -3110,31 +3110,31 @@
     <t xml:space="preserve">29.9793357849121</t>
   </si>
   <si>
-    <t xml:space="preserve">30.5996646881104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.1407928466797</t>
+    <t xml:space="preserve">30.5996627807617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.140796661377</t>
   </si>
   <si>
     <t xml:space="preserve">30.861364364624</t>
   </si>
   <si>
-    <t xml:space="preserve">31.2296867370605</t>
+    <t xml:space="preserve">31.2296848297119</t>
   </si>
   <si>
     <t xml:space="preserve">31.1230659484863</t>
   </si>
   <si>
-    <t xml:space="preserve">30.7644386291504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.4041519165039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7433986663818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.4235363006592</t>
+    <t xml:space="preserve">30.764440536499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4041538238525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7433948516846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4235382080078</t>
   </si>
   <si>
     <t xml:space="preserve">32.0535621643066</t>
@@ -3149,7 +3149,7 @@
     <t xml:space="preserve">33.4299163818359</t>
   </si>
   <si>
-    <t xml:space="preserve">34.3797950744629</t>
+    <t xml:space="preserve">34.3797988891602</t>
   </si>
   <si>
     <t xml:space="preserve">34.1374778747559</t>
@@ -3161,46 +3161,46 @@
     <t xml:space="preserve">34.6899566650391</t>
   </si>
   <si>
-    <t xml:space="preserve">34.7287292480469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.5138320922852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.3490600585938</t>
+    <t xml:space="preserve">34.7287330627441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.5138282775879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.3490562438965</t>
   </si>
   <si>
     <t xml:space="preserve">34.8159599304199</t>
   </si>
   <si>
-    <t xml:space="preserve">33.604377746582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.0502471923828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.3119468688965</t>
+    <t xml:space="preserve">33.6043815612793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.0502433776855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.3119430541992</t>
   </si>
   <si>
     <t xml:space="preserve">33.7303848266602</t>
   </si>
   <si>
-    <t xml:space="preserve">34.6027221679688</t>
+    <t xml:space="preserve">34.602725982666</t>
   </si>
   <si>
     <t xml:space="preserve">34.0793228149414</t>
   </si>
   <si>
-    <t xml:space="preserve">32.7514266967773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.383113861084</t>
+    <t xml:space="preserve">32.7514305114746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3831062316895</t>
   </si>
   <si>
     <t xml:space="preserve">32.3637237548828</t>
   </si>
   <si>
-    <t xml:space="preserve">32.567268371582</t>
+    <t xml:space="preserve">32.5672645568848</t>
   </si>
   <si>
     <t xml:space="preserve">33.4396095275879</t>
@@ -3215,7 +3215,7 @@
     <t xml:space="preserve">36.4218978881836</t>
   </si>
   <si>
-    <t xml:space="preserve">37.202018737793</t>
+    <t xml:space="preserve">37.2020225524902</t>
   </si>
   <si>
     <t xml:space="preserve">36.4999122619629</t>
@@ -3230,13 +3230,13 @@
     <t xml:space="preserve">37.9821395874023</t>
   </si>
   <si>
-    <t xml:space="preserve">37.6798477172852</t>
+    <t xml:space="preserve">37.6798439025879</t>
   </si>
   <si>
     <t xml:space="preserve">37.5725746154785</t>
   </si>
   <si>
-    <t xml:space="preserve">38.2454299926758</t>
+    <t xml:space="preserve">38.245433807373</t>
   </si>
   <si>
     <t xml:space="preserve">38.8110198974609</t>
@@ -3254,7 +3254,7 @@
     <t xml:space="preserve">39.8349266052246</t>
   </si>
   <si>
-    <t xml:space="preserve">39.1913261413574</t>
+    <t xml:space="preserve">39.1913299560547</t>
   </si>
   <si>
     <t xml:space="preserve">39.2205848693848</t>
@@ -3287,10 +3287,10 @@
     <t xml:space="preserve">41.1026229858398</t>
   </si>
   <si>
-    <t xml:space="preserve">40.605297088623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.4005165100098</t>
+    <t xml:space="preserve">40.6053009033203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.4005126953125</t>
   </si>
   <si>
     <t xml:space="preserve">40.566291809082</t>
@@ -3302,10 +3302,10 @@
     <t xml:space="preserve">40.3517608642578</t>
   </si>
   <si>
-    <t xml:space="preserve">40.5955467224121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.6593971252441</t>
+    <t xml:space="preserve">40.5955505371094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.6594009399414</t>
   </si>
   <si>
     <t xml:space="preserve">37.1240081787109</t>
@@ -3332,16 +3332,16 @@
     <t xml:space="preserve">40.0397148132324</t>
   </si>
   <si>
-    <t xml:space="preserve">39.7666664123535</t>
+    <t xml:space="preserve">39.7666625976562</t>
   </si>
   <si>
     <t xml:space="preserve">39.435115814209</t>
   </si>
   <si>
-    <t xml:space="preserve">40.020206451416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.3473510742188</t>
+    <t xml:space="preserve">40.0202102661133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.347354888916</t>
   </si>
   <si>
     <t xml:space="preserve">40.6443061828613</t>
@@ -3359,7 +3359,7 @@
     <t xml:space="preserve">41.3171577453613</t>
   </si>
   <si>
-    <t xml:space="preserve">40.8588409423828</t>
+    <t xml:space="preserve">40.8588371276855</t>
   </si>
   <si>
     <t xml:space="preserve">40.9368476867676</t>
@@ -3368,7 +3368,7 @@
     <t xml:space="preserve">40.8685874938965</t>
   </si>
   <si>
-    <t xml:space="preserve">41.0538635253906</t>
+    <t xml:space="preserve">41.0538673400879</t>
   </si>
   <si>
     <t xml:space="preserve">41.6292037963867</t>
@@ -3395,7 +3395,7 @@
     <t xml:space="preserve">43.7257804870605</t>
   </si>
   <si>
-    <t xml:space="preserve">42.8774032592773</t>
+    <t xml:space="preserve">42.8773994445801</t>
   </si>
   <si>
     <t xml:space="preserve">42.6628646850586</t>
@@ -3440,19 +3440,19 @@
     <t xml:space="preserve">40.3127517700195</t>
   </si>
   <si>
-    <t xml:space="preserve">41.619457244873</t>
+    <t xml:space="preserve">41.6194534301758</t>
   </si>
   <si>
     <t xml:space="preserve">40.6150512695312</t>
   </si>
   <si>
-    <t xml:space="preserve">41.4439315795898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.6779632568359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.7160301208496</t>
+    <t xml:space="preserve">41.4439277648926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.6779670715332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.7160339355469</t>
   </si>
   <si>
     <t xml:space="preserve">43.8135452270508</t>
@@ -3464,7 +3464,7 @@
     <t xml:space="preserve">43.8623008728027</t>
   </si>
   <si>
-    <t xml:space="preserve">42.5751037597656</t>
+    <t xml:space="preserve">42.5750999450684</t>
   </si>
   <si>
     <t xml:space="preserve">40.3810119628906</t>
@@ -3482,7 +3482,7 @@
     <t xml:space="preserve">40.1079711914062</t>
   </si>
   <si>
-    <t xml:space="preserve">40.2737426757812</t>
+    <t xml:space="preserve">40.2737464904785</t>
   </si>
   <si>
     <t xml:space="preserve">40.7028160095215</t>
@@ -3491,13 +3491,13 @@
     <t xml:space="preserve">39.5911407470703</t>
   </si>
   <si>
-    <t xml:space="preserve">39.6496467590332</t>
+    <t xml:space="preserve">39.6496505737305</t>
   </si>
   <si>
     <t xml:space="preserve">40.5077819824219</t>
   </si>
   <si>
-    <t xml:space="preserve">40.8100814819336</t>
+    <t xml:space="preserve">40.8100776672363</t>
   </si>
   <si>
     <t xml:space="preserve">41.8632392883301</t>
@@ -3512,7 +3512,7 @@
     <t xml:space="preserve">42.1947937011719</t>
   </si>
   <si>
-    <t xml:space="preserve">41.785228729248</t>
+    <t xml:space="preserve">41.7852249145508</t>
   </si>
   <si>
     <t xml:space="preserve">42.8578987121582</t>
@@ -3539,13 +3539,13 @@
     <t xml:space="preserve">45.3835372924805</t>
   </si>
   <si>
-    <t xml:space="preserve">44.925220489502</t>
+    <t xml:space="preserve">44.9252166748047</t>
   </si>
   <si>
     <t xml:space="preserve">44.3791313171387</t>
   </si>
   <si>
-    <t xml:space="preserve">44.661922454834</t>
+    <t xml:space="preserve">44.6619262695312</t>
   </si>
   <si>
     <t xml:space="preserve">44.8667106628418</t>
@@ -3554,13 +3554,13 @@
     <t xml:space="preserve">44.0865859985352</t>
   </si>
   <si>
-    <t xml:space="preserve">42.8871536254883</t>
+    <t xml:space="preserve">42.887149810791</t>
   </si>
   <si>
     <t xml:space="preserve">43.5014991760254</t>
   </si>
   <si>
-    <t xml:space="preserve">43.442985534668</t>
+    <t xml:space="preserve">43.4429893493652</t>
   </si>
   <si>
     <t xml:space="preserve">41.2879066467285</t>
@@ -3569,19 +3569,19 @@
     <t xml:space="preserve">42.224048614502</t>
   </si>
   <si>
-    <t xml:space="preserve">41.1513824462891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.6974639892578</t>
+    <t xml:space="preserve">41.1513786315918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.6974678039551</t>
   </si>
   <si>
     <t xml:space="preserve">42.0485229492188</t>
   </si>
   <si>
-    <t xml:space="preserve">42.0387687683105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.7320671081543</t>
+    <t xml:space="preserve">42.0387725830078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.7320709228516</t>
   </si>
   <si>
     <t xml:space="preserve">40.7613220214844</t>
@@ -3596,7 +3596,7 @@
     <t xml:space="preserve">40.7418174743652</t>
   </si>
   <si>
-    <t xml:space="preserve">40.9173431396484</t>
+    <t xml:space="preserve">40.9173469543457</t>
   </si>
   <si>
     <t xml:space="preserve">41.707218170166</t>
@@ -3614,10 +3614,10 @@
     <t xml:space="preserve">43.0041694641113</t>
   </si>
   <si>
-    <t xml:space="preserve">43.1991996765137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.1841049194336</t>
+    <t xml:space="preserve">43.1991958618164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.1841087341309</t>
   </si>
   <si>
     <t xml:space="preserve">44.3108711242676</t>
@@ -3668,22 +3668,22 @@
     <t xml:space="preserve">37.7578582763672</t>
   </si>
   <si>
-    <t xml:space="preserve">36.3146362304688</t>
+    <t xml:space="preserve">36.3146324157715</t>
   </si>
   <si>
     <t xml:space="preserve">35.0371856689453</t>
   </si>
   <si>
-    <t xml:space="preserve">35.5247611999512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.5637702941895</t>
+    <t xml:space="preserve">35.5247650146484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.5637664794922</t>
   </si>
   <si>
     <t xml:space="preserve">34.9786758422852</t>
   </si>
   <si>
-    <t xml:space="preserve">36.5974273681641</t>
+    <t xml:space="preserve">36.5974235534668</t>
   </si>
   <si>
     <t xml:space="preserve">37.2507781982422</t>
@@ -3698,7 +3698,7 @@
     <t xml:space="preserve">35.4077415466309</t>
   </si>
   <si>
-    <t xml:space="preserve">35.1737022399902</t>
+    <t xml:space="preserve">35.1737060546875</t>
   </si>
   <si>
     <t xml:space="preserve">34.2180557250977</t>
@@ -3740,13 +3740,13 @@
     <t xml:space="preserve">35.7782974243164</t>
   </si>
   <si>
-    <t xml:space="preserve">36.4706611633301</t>
+    <t xml:space="preserve">36.4706573486328</t>
   </si>
   <si>
     <t xml:space="preserve">37.4945640563965</t>
   </si>
   <si>
-    <t xml:space="preserve">37.0167388916016</t>
+    <t xml:space="preserve">37.0167427062988</t>
   </si>
   <si>
     <t xml:space="preserve">36.9972381591797</t>
@@ -3764,7 +3764,7 @@
     <t xml:space="preserve">36.178108215332</t>
   </si>
   <si>
-    <t xml:space="preserve">34.208309173584</t>
+    <t xml:space="preserve">34.2083053588867</t>
   </si>
   <si>
     <t xml:space="preserve">34.9494209289551</t>
@@ -3773,16 +3773,16 @@
     <t xml:space="preserve">35.6612815856934</t>
   </si>
   <si>
-    <t xml:space="preserve">35.4467430114746</t>
+    <t xml:space="preserve">35.4467468261719</t>
   </si>
   <si>
     <t xml:space="preserve">36.8119583129883</t>
   </si>
   <si>
-    <t xml:space="preserve">36.8607139587402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.5194129943848</t>
+    <t xml:space="preserve">36.8607177734375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.519416809082</t>
   </si>
   <si>
     <t xml:space="preserve">36.051342010498</t>
@@ -3806,7 +3806,7 @@
     <t xml:space="preserve">39.5326309204102</t>
   </si>
   <si>
-    <t xml:space="preserve">40.8393363952637</t>
+    <t xml:space="preserve">40.8393325805664</t>
   </si>
   <si>
     <t xml:space="preserve">41.9119987487793</t>
@@ -3824,7 +3824,7 @@
     <t xml:space="preserve">39.2108306884766</t>
   </si>
   <si>
-    <t xml:space="preserve">40.0104522705078</t>
+    <t xml:space="preserve">40.0104560852051</t>
   </si>
   <si>
     <t xml:space="preserve">39.8056716918945</t>
@@ -3860,7 +3860,7 @@
     <t xml:space="preserve">36.2561225891113</t>
   </si>
   <si>
-    <t xml:space="preserve">35.8465576171875</t>
+    <t xml:space="preserve">35.8465614318848</t>
   </si>
   <si>
     <t xml:space="preserve">34.5788612365723</t>
@@ -3869,22 +3869,22 @@
     <t xml:space="preserve">32.7553329467773</t>
   </si>
   <si>
-    <t xml:space="preserve">33.4769477844238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.4671936035156</t>
+    <t xml:space="preserve">33.4769439697266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.4671897888184</t>
   </si>
   <si>
     <t xml:space="preserve">31.5168876647949</t>
   </si>
   <si>
-    <t xml:space="preserve">33.3989295959473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.4086799621582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.4574394226074</t>
+    <t xml:space="preserve">33.3989334106445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.4086837768555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.4574432373047</t>
   </si>
   <si>
     <t xml:space="preserve">31.7411708831787</t>
@@ -3896,7 +3896,7 @@
     <t xml:space="preserve">31.1365795135498</t>
   </si>
   <si>
-    <t xml:space="preserve">31.677318572998</t>
+    <t xml:space="preserve">31.6773166656494</t>
   </si>
   <si>
     <t xml:space="preserve">31.4708518981934</t>
@@ -3905,10 +3905,10 @@
     <t xml:space="preserve">31.4118633270264</t>
   </si>
   <si>
-    <t xml:space="preserve">31.7166404724121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.8247890472412</t>
+    <t xml:space="preserve">31.7166423797607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8247871398926</t>
   </si>
   <si>
     <t xml:space="preserve">32.1688957214355</t>
@@ -3935,7 +3935,7 @@
     <t xml:space="preserve">30.2320747375488</t>
   </si>
   <si>
-    <t xml:space="preserve">28.7180118560791</t>
+    <t xml:space="preserve">28.7180137634277</t>
   </si>
   <si>
     <t xml:space="preserve">26.6533851623535</t>
@@ -3947,7 +3947,7 @@
     <t xml:space="preserve">26.7025413513184</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7783737182617</t>
+    <t xml:space="preserve">25.7783756256104</t>
   </si>
   <si>
     <t xml:space="preserve">25.857027053833</t>
@@ -3965,19 +3965,19 @@
     <t xml:space="preserve">28.3542461395264</t>
   </si>
   <si>
-    <t xml:space="preserve">29.2980766296387</t>
+    <t xml:space="preserve">29.29807472229</t>
   </si>
   <si>
     <t xml:space="preserve">29.3668975830078</t>
   </si>
   <si>
-    <t xml:space="preserve">28.7770042419434</t>
+    <t xml:space="preserve">28.7770023345947</t>
   </si>
   <si>
     <t xml:space="preserve">28.6786880493164</t>
   </si>
   <si>
-    <t xml:space="preserve">28.7573413848877</t>
+    <t xml:space="preserve">28.7573394775391</t>
   </si>
   <si>
     <t xml:space="preserve">29.878137588501</t>
@@ -3989,7 +3989,7 @@
     <t xml:space="preserve">31.1955699920654</t>
   </si>
   <si>
-    <t xml:space="preserve">32.0607490539551</t>
+    <t xml:space="preserve">32.0607452392578</t>
   </si>
   <si>
     <t xml:space="preserve">30.664665222168</t>
@@ -4004,7 +4004,7 @@
     <t xml:space="preserve">28.6393604278564</t>
   </si>
   <si>
-    <t xml:space="preserve">28.167444229126</t>
+    <t xml:space="preserve">28.1674461364746</t>
   </si>
   <si>
     <t xml:space="preserve">28.7475090026855</t>
@@ -4013,10 +4013,10 @@
     <t xml:space="preserve">29.3570652008057</t>
   </si>
   <si>
-    <t xml:space="preserve">29.278413772583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.143590927124</t>
+    <t xml:space="preserve">29.2784118652344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.1435928344727</t>
   </si>
   <si>
     <t xml:space="preserve">30.6351699829102</t>
@@ -4031,16 +4031,16 @@
     <t xml:space="preserve">30.8121376037598</t>
   </si>
   <si>
-    <t xml:space="preserve">31.834623336792</t>
+    <t xml:space="preserve">31.8346214294434</t>
   </si>
   <si>
     <t xml:space="preserve">31.6674842834473</t>
   </si>
   <si>
-    <t xml:space="preserve">31.8936100006104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.4188766479492</t>
+    <t xml:space="preserve">31.893611907959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.4188747406006</t>
   </si>
   <si>
     <t xml:space="preserve">31.3332118988037</t>
@@ -4052,10 +4052,10 @@
     <t xml:space="preserve">29.8683071136475</t>
   </si>
   <si>
-    <t xml:space="preserve">30.182918548584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4258861541748</t>
+    <t xml:space="preserve">30.1829166412354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4258880615234</t>
   </si>
   <si>
     <t xml:space="preserve">29.8978023529053</t>
@@ -4064,7 +4064,7 @@
     <t xml:space="preserve">30.2124118804932</t>
   </si>
   <si>
-    <t xml:space="preserve">28.6196994781494</t>
+    <t xml:space="preserve">28.6196975708008</t>
   </si>
   <si>
     <t xml:space="preserve">28.3050880432129</t>
@@ -4073,10 +4073,10 @@
     <t xml:space="preserve">28.2264347076416</t>
   </si>
   <si>
-    <t xml:space="preserve">27.8528347015381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.2039527893066</t>
+    <t xml:space="preserve">27.8528366088867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.203950881958</t>
   </si>
   <si>
     <t xml:space="preserve">27.1744575500488</t>
@@ -4094,7 +4094,7 @@
     <t xml:space="preserve">25.3359546661377</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6112384796143</t>
+    <t xml:space="preserve">25.6112365722656</t>
   </si>
   <si>
     <t xml:space="preserve">25.050838470459</t>
@@ -4115,10 +4115,10 @@
     <t xml:space="preserve">25.4834270477295</t>
   </si>
   <si>
-    <t xml:space="preserve">25.59157371521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8738689422607</t>
+    <t xml:space="preserve">25.5915756225586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8738708496094</t>
   </si>
   <si>
     <t xml:space="preserve">24.6182498931885</t>
@@ -4154,7 +4154,7 @@
     <t xml:space="preserve">25.6702270507812</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4469203948975</t>
+    <t xml:space="preserve">26.4469223022461</t>
   </si>
   <si>
     <t xml:space="preserve">25.95534324646</t>
@@ -4166,7 +4166,7 @@
     <t xml:space="preserve">26.5845642089844</t>
   </si>
   <si>
-    <t xml:space="preserve">26.31911277771</t>
+    <t xml:space="preserve">26.3191108703613</t>
   </si>
   <si>
     <t xml:space="preserve">26.014331817627</t>
@@ -4175,7 +4175,7 @@
     <t xml:space="preserve">25.7095527648926</t>
   </si>
   <si>
-    <t xml:space="preserve">24.991849899292</t>
+    <t xml:space="preserve">24.9918479919434</t>
   </si>
   <si>
     <t xml:space="preserve">24.1954936981201</t>
@@ -4190,13 +4190,13 @@
     <t xml:space="preserve">24.8050479888916</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7292156219482</t>
+    <t xml:space="preserve">25.7292175292969</t>
   </si>
   <si>
     <t xml:space="preserve">25.2081432342529</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4370880126953</t>
+    <t xml:space="preserve">26.4370899200439</t>
   </si>
   <si>
     <t xml:space="preserve">25.7488803863525</t>
@@ -4208,7 +4208,7 @@
     <t xml:space="preserve">25.8078689575195</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7263946533203</t>
+    <t xml:space="preserve">24.7263965606689</t>
   </si>
   <si>
     <t xml:space="preserve">24.1070079803467</t>
@@ -4217,7 +4217,7 @@
     <t xml:space="preserve">24.2643127441406</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7165641784668</t>
+    <t xml:space="preserve">24.7165660858154</t>
   </si>
   <si>
     <t xml:space="preserve">24.667407989502</t>
@@ -4226,7 +4226,7 @@
     <t xml:space="preserve">23.7137451171875</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7657241821289</t>
+    <t xml:space="preserve">24.7657222747803</t>
   </si>
   <si>
     <t xml:space="preserve">26.2011318206787</t>
@@ -4238,7 +4238,7 @@
     <t xml:space="preserve">27.6758670806885</t>
   </si>
   <si>
-    <t xml:space="preserve">28.5607070922852</t>
+    <t xml:space="preserve">28.5607089996338</t>
   </si>
   <si>
     <t xml:space="preserve">28.0887928009033</t>
@@ -4250,10 +4250,10 @@
     <t xml:space="preserve">27.1056365966797</t>
   </si>
   <si>
-    <t xml:space="preserve">27.164623260498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9188346862793</t>
+    <t xml:space="preserve">27.1646251678467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9188365936279</t>
   </si>
   <si>
     <t xml:space="preserve">26.7123737335205</t>
@@ -4265,22 +4265,22 @@
     <t xml:space="preserve">27.2826042175293</t>
   </si>
   <si>
-    <t xml:space="preserve">27.4104156494141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5480575561523</t>
+    <t xml:space="preserve">27.4104137420654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5480556488037</t>
   </si>
   <si>
     <t xml:space="preserve">26.3977642059326</t>
   </si>
   <si>
-    <t xml:space="preserve">27.184289932251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.0592994689941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.3514251708984</t>
+    <t xml:space="preserve">27.1842880249023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.0592975616455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.3514270782471</t>
   </si>
   <si>
     <t xml:space="preserve">26.5452365875244</t>
@@ -4307,13 +4307,13 @@
     <t xml:space="preserve">26.8401832580566</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4862480163574</t>
+    <t xml:space="preserve">26.4862461090088</t>
   </si>
   <si>
     <t xml:space="preserve">26.4567527770996</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2797832489014</t>
+    <t xml:space="preserve">26.27978515625</t>
   </si>
   <si>
     <t xml:space="preserve">26.8500137329102</t>
@@ -4340,16 +4340,16 @@
     <t xml:space="preserve">27.3710880279541</t>
   </si>
   <si>
-    <t xml:space="preserve">26.3682670593262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4960803985596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9974880218506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0368156433105</t>
+    <t xml:space="preserve">26.3682689666748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4960784912109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9974899291992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0368137359619</t>
   </si>
   <si>
     <t xml:space="preserve">26.6337223052979</t>
@@ -4373,25 +4373,25 @@
     <t xml:space="preserve">25.3064594268799</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1098289489746</t>
+    <t xml:space="preserve">25.109827041626</t>
   </si>
   <si>
     <t xml:space="preserve">24.8443756103516</t>
   </si>
   <si>
-    <t xml:space="preserve">28.0199718475342</t>
+    <t xml:space="preserve">28.0199737548828</t>
   </si>
   <si>
     <t xml:space="preserve">27.3317623138428</t>
   </si>
   <si>
-    <t xml:space="preserve">27.528392791748</t>
+    <t xml:space="preserve">27.5283946990967</t>
   </si>
   <si>
     <t xml:space="preserve">26.1519737243652</t>
   </si>
   <si>
-    <t xml:space="preserve">26.8795108795166</t>
+    <t xml:space="preserve">26.879508972168</t>
   </si>
   <si>
     <t xml:space="preserve">27.6856994628906</t>
@@ -4400,10 +4400,10 @@
     <t xml:space="preserve">26.9384994506836</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5943927764893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0171527862549</t>
+    <t xml:space="preserve">26.5943946838379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0171508789062</t>
   </si>
   <si>
     <t xml:space="preserve">26.8991737365723</t>
@@ -4412,7 +4412,7 @@
     <t xml:space="preserve">27.7446880340576</t>
   </si>
   <si>
-    <t xml:space="preserve">29.6126861572266</t>
+    <t xml:space="preserve">29.6126880645752</t>
   </si>
   <si>
     <t xml:space="preserve">28.9736328125</t>
@@ -4427,28 +4427,28 @@
     <t xml:space="preserve">28.6590232849121</t>
   </si>
   <si>
-    <t xml:space="preserve">28.5312156677246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4652137756348</t>
+    <t xml:space="preserve">28.531213760376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4652118682861</t>
   </si>
   <si>
     <t xml:space="preserve">28.855655670166</t>
   </si>
   <si>
-    <t xml:space="preserve">29.3275718688965</t>
+    <t xml:space="preserve">29.3275699615479</t>
   </si>
   <si>
     <t xml:space="preserve">29.6225185394287</t>
   </si>
   <si>
-    <t xml:space="preserve">30.1042671203613</t>
+    <t xml:space="preserve">30.1042652130127</t>
   </si>
   <si>
     <t xml:space="preserve">31.1169166564941</t>
   </si>
   <si>
-    <t xml:space="preserve">31.4020328521729</t>
+    <t xml:space="preserve">31.4020309448242</t>
   </si>
   <si>
     <t xml:space="preserve">31.2938842773438</t>
@@ -4457,7 +4457,7 @@
     <t xml:space="preserve">31.7264728546143</t>
   </si>
   <si>
-    <t xml:space="preserve">31.9525985717773</t>
+    <t xml:space="preserve">31.952600479126</t>
   </si>
   <si>
     <t xml:space="preserve">32.0902404785156</t>
@@ -4472,10 +4472,10 @@
     <t xml:space="preserve">32.1492309570312</t>
   </si>
   <si>
-    <t xml:space="preserve">31.7461395263672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3950233459473</t>
+    <t xml:space="preserve">31.7461357116699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.39501953125</t>
   </si>
   <si>
     <t xml:space="preserve">32.4638404846191</t>
@@ -4496,7 +4496,7 @@
     <t xml:space="preserve">32.8177795410156</t>
   </si>
   <si>
-    <t xml:space="preserve">33.2208709716797</t>
+    <t xml:space="preserve">33.220874786377</t>
   </si>
   <si>
     <t xml:space="preserve">32.7194595336914</t>
@@ -4505,7 +4505,7 @@
     <t xml:space="preserve">32.5621566772461</t>
   </si>
   <si>
-    <t xml:space="preserve">34.8922424316406</t>
+    <t xml:space="preserve">34.8922386169434</t>
   </si>
   <si>
     <t xml:space="preserve">34.2728500366211</t>
@@ -4517,10 +4517,10 @@
     <t xml:space="preserve">35.2461738586426</t>
   </si>
   <si>
-    <t xml:space="preserve">34.8430824279785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.7251014709473</t>
+    <t xml:space="preserve">34.8430786132812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.7251052856445</t>
   </si>
   <si>
     <t xml:space="preserve">35.1871871948242</t>
@@ -4532,7 +4532,7 @@
     <t xml:space="preserve">35.1281967163086</t>
   </si>
   <si>
-    <t xml:space="preserve">34.3318367004395</t>
+    <t xml:space="preserve">34.3318405151367</t>
   </si>
   <si>
     <t xml:space="preserve">33.5354843139648</t>
@@ -5228,7 +5228,13 @@
     <t xml:space="preserve">33.6300010681152</t>
   </si>
   <si>
+    <t xml:space="preserve">33.8300018310547</t>
+  </si>
+  <si>
     <t xml:space="preserve">34.2200012207031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.2400016784668</t>
   </si>
 </sst>
 </file>
@@ -61418,27 +61424,79 @@
     </row>
     <row r="2149">
       <c r="A2149" s="1" t="n">
-        <v>45455.6495949074</v>
+        <v>45454.2916666667</v>
       </c>
       <c r="B2149" t="n">
-        <v>313563</v>
+        <v>565467</v>
       </c>
       <c r="C2149" t="n">
-        <v>34.2799987792969</v>
+        <v>34.4199981689453</v>
       </c>
       <c r="D2149" t="n">
-        <v>33.5900001525879</v>
+        <v>33.7799987792969</v>
       </c>
       <c r="E2149" t="n">
-        <v>34.0099983215332</v>
+        <v>33.8800010681152</v>
       </c>
       <c r="F2149" t="n">
-        <v>34.2200012207031</v>
+        <v>33.8300018310547</v>
       </c>
       <c r="G2149" t="s">
         <v>1738</v>
       </c>
       <c r="H2149" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2150">
+      <c r="A2150" s="1" t="n">
+        <v>45455.2916666667</v>
+      </c>
+      <c r="B2150" t="n">
+        <v>313563</v>
+      </c>
+      <c r="C2150" t="n">
+        <v>34.2799987792969</v>
+      </c>
+      <c r="D2150" t="n">
+        <v>33.5900001525879</v>
+      </c>
+      <c r="E2150" t="n">
+        <v>34.0099983215332</v>
+      </c>
+      <c r="F2150" t="n">
+        <v>34.2200012207031</v>
+      </c>
+      <c r="G2150" t="s">
+        <v>1739</v>
+      </c>
+      <c r="H2150" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2151">
+      <c r="A2151" s="1" t="n">
+        <v>45456.6494212963</v>
+      </c>
+      <c r="B2151" t="n">
+        <v>370236</v>
+      </c>
+      <c r="C2151" t="n">
+        <v>34.2400016784668</v>
+      </c>
+      <c r="D2151" t="n">
+        <v>33.7400016784668</v>
+      </c>
+      <c r="E2151" t="n">
+        <v>34.1800003051758</v>
+      </c>
+      <c r="F2151" t="n">
+        <v>34.2400016784668</v>
+      </c>
+      <c r="G2151" t="s">
+        <v>1740</v>
+      </c>
+      <c r="H2151" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/AMP.MI.xlsx
+++ b/data/AMP.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1741" uniqueCount="1741">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1742" uniqueCount="1742">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,46 +38,46 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">7.44491100311279</t>
+    <t xml:space="preserve">7.44491052627563</t>
   </si>
   <si>
     <t xml:space="preserve">AMP.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">7.50163459777832</t>
+    <t xml:space="preserve">7.50163507461548</t>
   </si>
   <si>
     <t xml:space="preserve">7.42127656936646</t>
   </si>
   <si>
-    <t xml:space="preserve">7.47799968719482</t>
+    <t xml:space="preserve">7.47799921035767</t>
   </si>
   <si>
     <t xml:space="preserve">7.26056146621704</t>
   </si>
   <si>
-    <t xml:space="preserve">7.06675720214844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32673835754395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38818836212158</t>
+    <t xml:space="preserve">7.06675672531128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32673740386963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38818788528442</t>
   </si>
   <si>
     <t xml:space="preserve">7.27001571655273</t>
   </si>
   <si>
-    <t xml:space="preserve">7.13766098022461</t>
+    <t xml:space="preserve">7.13766145706177</t>
   </si>
   <si>
     <t xml:space="preserve">7.19438362121582</t>
   </si>
   <si>
-    <t xml:space="preserve">7.30310344696045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.09039163589478</t>
+    <t xml:space="preserve">7.30310392379761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09039211273193</t>
   </si>
   <si>
     <t xml:space="preserve">7.24165344238281</t>
@@ -89,22 +89,22 @@
     <t xml:space="preserve">7.34564590454102</t>
   </si>
   <si>
-    <t xml:space="preserve">7.46381950378418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25583410263062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.28892278671265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52054166793823</t>
+    <t xml:space="preserve">7.46381902694702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25583457946777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.28892183303833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52054357528687</t>
   </si>
   <si>
     <t xml:space="preserve">7.39291524887085</t>
   </si>
   <si>
-    <t xml:space="preserve">7.24637985229492</t>
+    <t xml:space="preserve">7.24638032913208</t>
   </si>
   <si>
     <t xml:space="preserve">7.15656852722168</t>
@@ -113,31 +113,31 @@
     <t xml:space="preserve">6.94858407974243</t>
   </si>
   <si>
-    <t xml:space="preserve">6.60824537277222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55152225494385</t>
+    <t xml:space="preserve">6.60824489593506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.55152177810669</t>
   </si>
   <si>
     <t xml:space="preserve">6.68860244750977</t>
   </si>
   <si>
-    <t xml:space="preserve">6.42862272262573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38607978820801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51843309402466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71696424484253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98639965057373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81150388717651</t>
+    <t xml:space="preserve">6.42862176895142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38607931137085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51843357086182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71696519851685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98639917373657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81150341033936</t>
   </si>
   <si>
     <t xml:space="preserve">6.9391303062439</t>
@@ -155,49 +155,49 @@
     <t xml:space="preserve">6.99585342407227</t>
   </si>
   <si>
-    <t xml:space="preserve">6.90604114532471</t>
+    <t xml:space="preserve">6.90604066848755</t>
   </si>
   <si>
     <t xml:space="preserve">6.9013147354126</t>
   </si>
   <si>
-    <t xml:space="preserve">6.94385719299316</t>
+    <t xml:space="preserve">6.94385671615601</t>
   </si>
   <si>
     <t xml:space="preserve">6.7595067024231</t>
   </si>
   <si>
-    <t xml:space="preserve">6.73114490509033</t>
+    <t xml:space="preserve">6.73114538192749</t>
   </si>
   <si>
     <t xml:space="preserve">6.89658737182617</t>
   </si>
   <si>
-    <t xml:space="preserve">6.88713359832764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96276426315308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11402559280396</t>
+    <t xml:space="preserve">6.88713407516479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96276473999023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11402654647827</t>
   </si>
   <si>
     <t xml:space="preserve">7.21801900863647</t>
   </si>
   <si>
-    <t xml:space="preserve">7.18965721130371</t>
+    <t xml:space="preserve">7.18965673446655</t>
   </si>
   <si>
     <t xml:space="preserve">7.31728410720825</t>
   </si>
   <si>
-    <t xml:space="preserve">7.21329164505005</t>
+    <t xml:space="preserve">7.21329212188721</t>
   </si>
   <si>
     <t xml:space="preserve">7.1471152305603</t>
   </si>
   <si>
-    <t xml:space="preserve">7.35037279129028</t>
+    <t xml:space="preserve">7.35037231445312</t>
   </si>
   <si>
     <t xml:space="preserve">7.20383787155151</t>
@@ -209,16 +209,16 @@
     <t xml:space="preserve">7.03839540481567</t>
   </si>
   <si>
-    <t xml:space="preserve">7.0194878578186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.109299659729</t>
+    <t xml:space="preserve">7.01948881149292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10929918289185</t>
   </si>
   <si>
     <t xml:space="preserve">7.37873458862305</t>
   </si>
   <si>
-    <t xml:space="preserve">7.43545722961426</t>
+    <t xml:space="preserve">7.4354567527771</t>
   </si>
   <si>
     <t xml:space="preserve">7.33619213104248</t>
@@ -227,55 +227,55 @@
     <t xml:space="preserve">7.61508083343506</t>
   </si>
   <si>
-    <t xml:space="preserve">7.52526903152466</t>
+    <t xml:space="preserve">7.52526950836182</t>
   </si>
   <si>
     <t xml:space="preserve">7.59617328643799</t>
   </si>
   <si>
-    <t xml:space="preserve">7.69071102142334</t>
+    <t xml:space="preserve">7.69071245193481</t>
   </si>
   <si>
     <t xml:space="preserve">7.66707706451416</t>
   </si>
   <si>
-    <t xml:space="preserve">7.84670066833496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71434593200684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75688934326172</t>
+    <t xml:space="preserve">7.84669923782349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71434640884399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75688982009888</t>
   </si>
   <si>
     <t xml:space="preserve">7.81833839416504</t>
   </si>
   <si>
-    <t xml:space="preserve">7.85142660140991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00269031524658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00741672515869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98850917816162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90342378616333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0641393661499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99796295166016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21067428588867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13751602172852</t>
+    <t xml:space="preserve">7.85142850875854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00268936157227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00741577148438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98850774765015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9034218788147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.06413745880127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.997962474823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21067333221436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13751697540283</t>
   </si>
   <si>
     <t xml:space="preserve">8.21827411651611</t>
@@ -284,10 +284,10 @@
     <t xml:space="preserve">8.22777557373047</t>
   </si>
   <si>
-    <t xml:space="preserve">8.17076969146729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29428195953369</t>
+    <t xml:space="preserve">8.17076873779297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29428005218506</t>
   </si>
   <si>
     <t xml:space="preserve">8.33703517913818</t>
@@ -296,7 +296,7 @@
     <t xml:space="preserve">8.3607873916626</t>
   </si>
   <si>
-    <t xml:space="preserve">8.34653759002686</t>
+    <t xml:space="preserve">8.34653568267822</t>
   </si>
   <si>
     <t xml:space="preserve">8.28003025054932</t>
@@ -308,37 +308,37 @@
     <t xml:space="preserve">8.20402336120605</t>
   </si>
   <si>
-    <t xml:space="preserve">8.26577949523926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1327657699585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0330057144165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93799686431885</t>
+    <t xml:space="preserve">8.26577854156494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13276672363281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03300666809082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93799829483032</t>
   </si>
   <si>
     <t xml:space="preserve">7.75748109817505</t>
   </si>
   <si>
-    <t xml:space="preserve">7.74322986602783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76698160171509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67197227478027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75272989273071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10901260375977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.06626129150391</t>
+    <t xml:space="preserve">7.74322891235352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76698207855225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67197275161743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75273036956787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1090145111084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.06625938415527</t>
   </si>
   <si>
     <t xml:space="preserve">8.18027114868164</t>
@@ -347,25 +347,25 @@
     <t xml:space="preserve">7.79073333740234</t>
   </si>
   <si>
-    <t xml:space="preserve">7.82873773574829</t>
+    <t xml:space="preserve">7.82873725891113</t>
   </si>
   <si>
     <t xml:space="preserve">7.83823871612549</t>
   </si>
   <si>
-    <t xml:space="preserve">7.99025249481201</t>
+    <t xml:space="preserve">7.99025344848633</t>
   </si>
   <si>
     <t xml:space="preserve">8.0472583770752</t>
   </si>
   <si>
-    <t xml:space="preserve">8.00925636291504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92849731445312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83348751068115</t>
+    <t xml:space="preserve">8.00925350189209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92849636077881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83348846435547</t>
   </si>
   <si>
     <t xml:space="preserve">7.99975347518921</t>
@@ -386,19 +386,19 @@
     <t xml:space="preserve">8.30378246307373</t>
   </si>
   <si>
-    <t xml:space="preserve">8.28953170776367</t>
+    <t xml:space="preserve">8.28953075408936</t>
   </si>
   <si>
     <t xml:space="preserve">8.31803321838379</t>
   </si>
   <si>
-    <t xml:space="preserve">8.31328201293945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.43204498291016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48904991149902</t>
+    <t xml:space="preserve">8.31328392028809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.43204402923584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48904895782471</t>
   </si>
   <si>
     <t xml:space="preserve">8.47479820251465</t>
@@ -410,46 +410,46 @@
     <t xml:space="preserve">8.41779232025146</t>
   </si>
   <si>
-    <t xml:space="preserve">8.27527809143066</t>
+    <t xml:space="preserve">8.27527904510498</t>
   </si>
   <si>
     <t xml:space="preserve">8.41304111480713</t>
   </si>
   <si>
-    <t xml:space="preserve">8.49379920959473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63631439208984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7360725402832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64106464385986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76457691192627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.88808631896973</t>
+    <t xml:space="preserve">8.49380111694336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63631343841553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73607349395752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64106559753418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76457786560059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.88808822631836</t>
   </si>
   <si>
     <t xml:space="preserve">8.78357791900635</t>
   </si>
   <si>
-    <t xml:space="preserve">8.91659069061279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.94034194946289</t>
+    <t xml:space="preserve">8.91658973693848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.94034290313721</t>
   </si>
   <si>
     <t xml:space="preserve">9.05435371398926</t>
   </si>
   <si>
-    <t xml:space="preserve">8.978346824646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.94984340667725</t>
+    <t xml:space="preserve">8.97834491729736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.94984245300293</t>
   </si>
   <si>
     <t xml:space="preserve">8.878586769104</t>
@@ -458,22 +458,22 @@
     <t xml:space="preserve">8.88333702087402</t>
   </si>
   <si>
-    <t xml:space="preserve">8.95459365844727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.86433696746826</t>
+    <t xml:space="preserve">8.9545955657959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.86433506011963</t>
   </si>
   <si>
     <t xml:space="preserve">8.90233898162842</t>
   </si>
   <si>
-    <t xml:space="preserve">8.89283752441406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.78832817077637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.72182273864746</t>
+    <t xml:space="preserve">8.89283657073975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.78832721710205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.72182178497314</t>
   </si>
   <si>
     <t xml:space="preserve">8.70281982421875</t>
@@ -485,25 +485,25 @@
     <t xml:space="preserve">8.6125602722168</t>
   </si>
   <si>
-    <t xml:space="preserve">8.66956520080566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66006469726562</t>
+    <t xml:space="preserve">8.66956806182861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66006660461426</t>
   </si>
   <si>
     <t xml:space="preserve">8.79782962799072</t>
   </si>
   <si>
-    <t xml:space="preserve">8.62681198120117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74557304382324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62206172943115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68381977081299</t>
+    <t xml:space="preserve">8.62681293487549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74557495117188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62206077575684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68381786346436</t>
   </si>
   <si>
     <t xml:space="preserve">8.74082374572754</t>
@@ -512,67 +512,67 @@
     <t xml:space="preserve">8.59356021881104</t>
   </si>
   <si>
-    <t xml:space="preserve">8.65531635284424</t>
+    <t xml:space="preserve">8.65531539916992</t>
   </si>
   <si>
     <t xml:space="preserve">8.69331932067871</t>
   </si>
   <si>
-    <t xml:space="preserve">8.82158184051514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21586799621582</t>
+    <t xml:space="preserve">8.82158088684082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21586894989014</t>
   </si>
   <si>
     <t xml:space="preserve">9.38688373565674</t>
   </si>
   <si>
-    <t xml:space="preserve">9.20636749267578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1493616104126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02584934234619</t>
+    <t xml:space="preserve">9.20636653900146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.14936351776123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02585124969482</t>
   </si>
   <si>
     <t xml:space="preserve">9.07335472106934</t>
   </si>
   <si>
-    <t xml:space="preserve">8.94509124755859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63156414031982</t>
+    <t xml:space="preserve">8.94509315490723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63156318664551</t>
   </si>
   <si>
     <t xml:space="preserve">8.55080604553223</t>
   </si>
   <si>
-    <t xml:space="preserve">8.52705192565918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52230262756348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71232032775879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47004699707031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58880805969238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.50805187225342</t>
+    <t xml:space="preserve">8.5270528793335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52230358123779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71232223510742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47004890441895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5888090133667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5080509185791</t>
   </si>
   <si>
     <t xml:space="preserve">8.59831047058105</t>
   </si>
   <si>
-    <t xml:space="preserve">9.12086009979248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.23487091064453</t>
+    <t xml:space="preserve">9.12085914611816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.23486995697021</t>
   </si>
   <si>
     <t xml:space="preserve">9.19686698913574</t>
@@ -581,25 +581,25 @@
     <t xml:space="preserve">8.6458158493042</t>
   </si>
   <si>
-    <t xml:space="preserve">8.28478145599365</t>
+    <t xml:space="preserve">8.28478050231934</t>
   </si>
   <si>
     <t xml:space="preserve">8.43679618835449</t>
   </si>
   <si>
-    <t xml:space="preserve">7.55321168899536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10426330566406</t>
+    <t xml:space="preserve">7.5532112121582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10426139831543</t>
   </si>
   <si>
     <t xml:space="preserve">8.07576084136963</t>
   </si>
   <si>
-    <t xml:space="preserve">8.51280307769775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53655338287354</t>
+    <t xml:space="preserve">8.51280117034912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53655433654785</t>
   </si>
   <si>
     <t xml:space="preserve">8.57455825805664</t>
@@ -611,7 +611,7 @@
     <t xml:space="preserve">8.49854946136475</t>
   </si>
   <si>
-    <t xml:space="preserve">8.35603618621826</t>
+    <t xml:space="preserve">8.35603809356689</t>
   </si>
   <si>
     <t xml:space="preserve">8.30853176116943</t>
@@ -620,10 +620,10 @@
     <t xml:space="preserve">8.5033016204834</t>
   </si>
   <si>
-    <t xml:space="preserve">8.70757007598877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77882766723633</t>
+    <t xml:space="preserve">8.70756912231445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77882671356201</t>
   </si>
   <si>
     <t xml:space="preserve">8.85483360290527</t>
@@ -632,31 +632,31 @@
     <t xml:space="preserve">8.80257987976074</t>
   </si>
   <si>
-    <t xml:space="preserve">8.87383556365967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.84058380126953</t>
+    <t xml:space="preserve">8.87383651733398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.84058284759521</t>
   </si>
   <si>
     <t xml:space="preserve">9.29187488555908</t>
   </si>
   <si>
-    <t xml:space="preserve">9.10185813903809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27762508392334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40588665008545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47714328765869</t>
+    <t xml:space="preserve">9.10185623168945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27762413024902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40588474273682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47714424133301</t>
   </si>
   <si>
     <t xml:space="preserve">9.54839992523193</t>
   </si>
   <si>
-    <t xml:space="preserve">9.51989841461182</t>
+    <t xml:space="preserve">9.51989650726318</t>
   </si>
   <si>
     <t xml:space="preserve">9.43438911437988</t>
@@ -665,10 +665,10 @@
     <t xml:space="preserve">9.50089454650879</t>
   </si>
   <si>
-    <t xml:space="preserve">9.58640193939209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6244068145752</t>
+    <t xml:space="preserve">9.58640384674072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62440490722656</t>
   </si>
   <si>
     <t xml:space="preserve">9.57690238952637</t>
@@ -677,106 +677,106 @@
     <t xml:space="preserve">9.49614429473877</t>
   </si>
   <si>
-    <t xml:space="preserve">9.24911975860596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24436950683594</t>
+    <t xml:space="preserve">9.24912166595459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24437141418457</t>
   </si>
   <si>
     <t xml:space="preserve">9.2966251373291</t>
   </si>
   <si>
-    <t xml:space="preserve">9.6054048538208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.95693778991699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1089525222778</t>
+    <t xml:space="preserve">9.60540390014648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.95693874359131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1089515686035</t>
   </si>
   <si>
     <t xml:space="preserve">9.9759407043457</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0614471435547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.78592109680176</t>
+    <t xml:space="preserve">10.0614490509033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.78592300415039</t>
   </si>
   <si>
     <t xml:space="preserve">9.85242938995361</t>
   </si>
   <si>
-    <t xml:space="preserve">9.86192893981934</t>
+    <t xml:space="preserve">9.86192989349365</t>
   </si>
   <si>
     <t xml:space="preserve">9.80492401123047</t>
   </si>
   <si>
-    <t xml:space="preserve">9.93793773651123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1754598617554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1564569473267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3369741439819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3939800262451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4129800796509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5839967727661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6315021514893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5174913406372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4889888763428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.736011505127</t>
+    <t xml:space="preserve">9.93793487548828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1754589080811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1564559936523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3369731903076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3939790725708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4129810333252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5839986801147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6315011978149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5174903869629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4889879226685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7360124588013</t>
   </si>
   <si>
     <t xml:space="preserve">10.6695051193237</t>
   </si>
   <si>
-    <t xml:space="preserve">10.660005569458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9735345840454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0495405197144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8785257339478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8120193481445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8025188446045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7835149765015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8690233230591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.059042930603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0020360946655</t>
+    <t xml:space="preserve">10.6600036621094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9735326766968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0495414733887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8785247802734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8120183944702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8025178909302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7835168838501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8690223693848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0590410232544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0020370483398</t>
   </si>
   <si>
     <t xml:space="preserve">11.0970458984375</t>
@@ -785,13 +785,13 @@
     <t xml:space="preserve">11.1635513305664</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2965641021729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2585601806641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4200763702393</t>
+    <t xml:space="preserve">11.2965669631958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2585611343384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4200773239136</t>
   </si>
   <si>
     <t xml:space="preserve">11.1255474090576</t>
@@ -806,16 +806,16 @@
     <t xml:space="preserve">11.3155660629272</t>
   </si>
   <si>
-    <t xml:space="preserve">11.353569984436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4485788345337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6005926132202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5815906524658</t>
+    <t xml:space="preserve">11.3535690307617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.448579788208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6005935668945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5815896987915</t>
   </si>
   <si>
     <t xml:space="preserve">11.6290950775146</t>
@@ -827,25 +827,25 @@
     <t xml:space="preserve">12.0017623901367</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0399827957153</t>
+    <t xml:space="preserve">12.0399837493896</t>
   </si>
   <si>
     <t xml:space="preserve">12.1259832382202</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0973167419434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1068716049194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1164293289185</t>
+    <t xml:space="preserve">12.0973176956177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1068735122681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1164283752441</t>
   </si>
   <si>
     <t xml:space="preserve">12.145094871521</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2406492233276</t>
+    <t xml:space="preserve">12.2406511306763</t>
   </si>
   <si>
     <t xml:space="preserve">12.2788724899292</t>
@@ -863,19 +863,19 @@
     <t xml:space="preserve">12.4222059249878</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0877628326416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3266487121582</t>
+    <t xml:space="preserve">12.087760925293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3266496658325</t>
   </si>
   <si>
     <t xml:space="preserve">11.6577625274658</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4666509628296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8679847717285</t>
+    <t xml:space="preserve">11.4666519165039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8679838180542</t>
   </si>
   <si>
     <t xml:space="preserve">11.9062061309814</t>
@@ -884,13 +884,13 @@
     <t xml:space="preserve">11.944429397583</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9348735809326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8010959625244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7437620162964</t>
+    <t xml:space="preserve">11.9348726272583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8010969161987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7437610626221</t>
   </si>
   <si>
     <t xml:space="preserve">11.6959838867188</t>
@@ -899,19 +899,19 @@
     <t xml:space="preserve">11.638650894165</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5430955886841</t>
+    <t xml:space="preserve">11.5430946350098</t>
   </si>
   <si>
     <t xml:space="preserve">11.2468738555908</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0462074279785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8550968170166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7213201522827</t>
+    <t xml:space="preserve">11.0462083816528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8550977706909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7213182449341</t>
   </si>
   <si>
     <t xml:space="preserve">10.769097328186</t>
@@ -920,7 +920,7 @@
     <t xml:space="preserve">10.9028739929199</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0748739242554</t>
+    <t xml:space="preserve">11.074875831604</t>
   </si>
   <si>
     <t xml:space="preserve">11.0653190612793</t>
@@ -929,85 +929,85 @@
     <t xml:space="preserve">11.1130962371826</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3042078018188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5239849090576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5526504516602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5144290924072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5813179016113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4379835128784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6768732070923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6004285812378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5048742294312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4475402832031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4188737869263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.275541305542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1990957260132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0844306945801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8264303207397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9984292984009</t>
+    <t xml:space="preserve">11.3042068481445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5239839553833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5526494979858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5144300460815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.58131980896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4379844665527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6768741607666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6004295349121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5048732757568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4475393295288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.418872833252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2755403518677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1990966796875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0844297409058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8264293670654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9984302520752</t>
   </si>
   <si>
     <t xml:space="preserve">10.9506530761719</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3615398406982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3328733444214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2373189926147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2946510314941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4857625961304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4953184127808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4093170166016</t>
+    <t xml:space="preserve">11.3615427017212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3328723907471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2373180389404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2946519851685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4857635498047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4953174591064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4093179702759</t>
   </si>
   <si>
     <t xml:space="preserve">11.22776222229</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2564287185669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3424291610718</t>
+    <t xml:space="preserve">11.2564296722412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3424282073975</t>
   </si>
   <si>
     <t xml:space="preserve">11.6099843978882</t>
@@ -1025,16 +1025,16 @@
     <t xml:space="preserve">12.1928730010986</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1355400085449</t>
+    <t xml:space="preserve">12.1355390548706</t>
   </si>
   <si>
     <t xml:space="preserve">12.2310953140259</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2215394973755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2597618103027</t>
+    <t xml:space="preserve">12.2215385437012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2597608566284</t>
   </si>
   <si>
     <t xml:space="preserve">12.1546506881714</t>
@@ -1046,7 +1046,7 @@
     <t xml:space="preserve">12.4030933380127</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3362064361572</t>
+    <t xml:space="preserve">12.3362054824829</t>
   </si>
   <si>
     <t xml:space="preserve">12.2884273529053</t>
@@ -1058,22 +1058,22 @@
     <t xml:space="preserve">12.7088718414307</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8330945968628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9764280319214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0050945281982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0242042541504</t>
+    <t xml:space="preserve">12.8330955505371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9764270782471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0050926208496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0242052078247</t>
   </si>
   <si>
     <t xml:space="preserve">12.9955387115479</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3744277954102</t>
+    <t xml:space="preserve">12.3744268417358</t>
   </si>
   <si>
     <t xml:space="preserve">11.9635391235352</t>
@@ -1082,16 +1082,16 @@
     <t xml:space="preserve">12.0304279327393</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2119827270508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3553171157837</t>
+    <t xml:space="preserve">12.2119836807251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3553161621094</t>
   </si>
   <si>
     <t xml:space="preserve">12.4604272842407</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0782060623169</t>
+    <t xml:space="preserve">12.0782070159912</t>
   </si>
   <si>
     <t xml:space="preserve">11.6195392608643</t>
@@ -1106,7 +1106,7 @@
     <t xml:space="preserve">11.8488721847534</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9539823532104</t>
+    <t xml:space="preserve">11.9539842605591</t>
   </si>
   <si>
     <t xml:space="preserve">12.2693166732788</t>
@@ -1115,16 +1115,16 @@
     <t xml:space="preserve">12.250205039978</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3839826583862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3170948028564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5464267730713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5177612304688</t>
+    <t xml:space="preserve">12.3839845657349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3170957565308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5464277267456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5177621841431</t>
   </si>
   <si>
     <t xml:space="preserve">12.3457612991333</t>
@@ -1136,25 +1136,25 @@
     <t xml:space="preserve">12.3075389862061</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7279825210571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7375383377075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6897611618042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8235378265381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.329981803894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3204259872437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2822046279907</t>
+    <t xml:space="preserve">12.7279834747314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7375392913818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6897602081299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8235387802124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3299827575684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.320426940918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2822036743164</t>
   </si>
   <si>
     <t xml:space="preserve">13.1484270095825</t>
@@ -1172,7 +1172,7 @@
     <t xml:space="preserve">13.7599811553955</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8077592849731</t>
+    <t xml:space="preserve">13.8077583312988</t>
   </si>
   <si>
     <t xml:space="preserve">13.7122039794922</t>
@@ -1181,28 +1181,28 @@
     <t xml:space="preserve">13.4542045593262</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6739816665649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5019807815552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.167537689209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8044261932373</t>
+    <t xml:space="preserve">13.6739835739136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5019817352295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1675386428833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8044271469116</t>
   </si>
   <si>
     <t xml:space="preserve">12.5942058563232</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5655393600464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6515398025513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6993160247803</t>
+    <t xml:space="preserve">12.5655374526978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6515378952026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6993169784546</t>
   </si>
   <si>
     <t xml:space="preserve">13.0146493911743</t>
@@ -1211,40 +1211,40 @@
     <t xml:space="preserve">13.071982383728</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0433158874512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7853164672852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4699821472168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4413166046143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9190940856934</t>
+    <t xml:space="preserve">13.0433168411255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7853155136108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4699831008911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4413175582886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9190950393677</t>
   </si>
   <si>
     <t xml:space="preserve">13.2344274520874</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2917604446411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4637594223022</t>
+    <t xml:space="preserve">13.2917594909668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4637603759766</t>
   </si>
   <si>
     <t xml:space="preserve">13.6070928573608</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5306482315063</t>
+    <t xml:space="preserve">13.5306491851807</t>
   </si>
   <si>
     <t xml:space="preserve">13.521092414856</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3586473464966</t>
+    <t xml:space="preserve">13.3586492538452</t>
   </si>
   <si>
     <t xml:space="preserve">13.5402040481567</t>
@@ -1259,7 +1259,7 @@
     <t xml:space="preserve">13.0528717041016</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4924268722534</t>
+    <t xml:space="preserve">13.4924249649048</t>
   </si>
   <si>
     <t xml:space="preserve">13.7695379257202</t>
@@ -1268,43 +1268,43 @@
     <t xml:space="preserve">13.8459815979004</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5115375518799</t>
+    <t xml:space="preserve">13.5115385055542</t>
   </si>
   <si>
     <t xml:space="preserve">13.9988698959351</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2090921401978</t>
+    <t xml:space="preserve">14.2090930938721</t>
   </si>
   <si>
     <t xml:space="preserve">14.3524265289307</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6104259490967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5148696899414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7824239730835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8206462860107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9066476821899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1359796524048</t>
+    <t xml:space="preserve">14.6104249954224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5148687362671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7824249267578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8206472396851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9066467285156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1359806060791</t>
   </si>
   <si>
     <t xml:space="preserve">15.0786466598511</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3366451263428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1933126449585</t>
+    <t xml:space="preserve">15.3366441726685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1933116912842</t>
   </si>
   <si>
     <t xml:space="preserve">15.2219791412354</t>
@@ -1313,22 +1313,22 @@
     <t xml:space="preserve">15.2602024078369</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1264247894287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1168689727783</t>
+    <t xml:space="preserve">15.1264228820801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.116868019104</t>
   </si>
   <si>
     <t xml:space="preserve">14.9353132247925</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8110914230347</t>
+    <t xml:space="preserve">14.811089515686</t>
   </si>
   <si>
     <t xml:space="preserve">15.3939790725708</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4990911483765</t>
+    <t xml:space="preserve">15.4990901947021</t>
   </si>
   <si>
     <t xml:space="preserve">15.4704246520996</t>
@@ -1340,28 +1340,28 @@
     <t xml:space="preserve">15.6710891723633</t>
   </si>
   <si>
-    <t xml:space="preserve">15.62331199646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7857570648193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8908653259277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6519794464111</t>
+    <t xml:space="preserve">15.6233129501343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7857599258423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8908662796021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6519784927368</t>
   </si>
   <si>
     <t xml:space="preserve">15.2410907745361</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5755348205566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0401554107666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.886194229126</t>
+    <t xml:space="preserve">15.5755338668823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0401563644409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8861932754517</t>
   </si>
   <si>
     <t xml:space="preserve">14.559024810791</t>
@@ -1370,31 +1370,31 @@
     <t xml:space="preserve">14.8284578323364</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9535522460938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0978918075562</t>
+    <t xml:space="preserve">14.9535512924194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0978908538818</t>
   </si>
   <si>
     <t xml:space="preserve">14.1356296539307</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6167602539062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.838080406189</t>
+    <t xml:space="preserve">14.6167593002319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8380813598633</t>
   </si>
   <si>
     <t xml:space="preserve">14.8477029800415</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4154386520386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7233610153198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3584518432617</t>
+    <t xml:space="preserve">15.4154376983643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7233629226685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3584537506104</t>
   </si>
   <si>
     <t xml:space="preserve">16.7048683166504</t>
@@ -1406,7 +1406,7 @@
     <t xml:space="preserve">16.406566619873</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4450588226318</t>
+    <t xml:space="preserve">16.4450569152832</t>
   </si>
   <si>
     <t xml:space="preserve">16.4546813964844</t>
@@ -1415,34 +1415,34 @@
     <t xml:space="preserve">16.5701522827148</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3488330841064</t>
+    <t xml:space="preserve">16.3488311767578</t>
   </si>
   <si>
     <t xml:space="preserve">16.3103408813477</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7722263336182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9743022918701</t>
+    <t xml:space="preserve">16.7722282409668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9743003845215</t>
   </si>
   <si>
     <t xml:space="preserve">16.9165668487549</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8203411102295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5509090423584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5027942657471</t>
+    <t xml:space="preserve">16.8203392028809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5509052276611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5027923583984</t>
   </si>
   <si>
     <t xml:space="preserve">16.9261894226074</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0897731781006</t>
+    <t xml:space="preserve">17.0897750854492</t>
   </si>
   <si>
     <t xml:space="preserve">17.1378860473633</t>
@@ -1451,7 +1451,7 @@
     <t xml:space="preserve">17.3014717102051</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1763801574707</t>
+    <t xml:space="preserve">17.1763782501221</t>
   </si>
   <si>
     <t xml:space="preserve">17.0224170684814</t>
@@ -1466,25 +1466,25 @@
     <t xml:space="preserve">16.4643039703369</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6471347808838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8010959625244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6086406707764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7626037597656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3592071533203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8018493652344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2156219482422</t>
+    <t xml:space="preserve">16.6471328735352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8010940551758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.608642578125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7626056671143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3592090606689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8018474578857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2156181335449</t>
   </si>
   <si>
     <t xml:space="preserve">17.7056217193604</t>
@@ -1493,43 +1493,43 @@
     <t xml:space="preserve">18.3503379821777</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4369411468506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9950542449951</t>
+    <t xml:space="preserve">18.436939239502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9950523376465</t>
   </si>
   <si>
     <t xml:space="preserve">18.4080715179443</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6871280670166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5235462188721</t>
+    <t xml:space="preserve">18.6871299743652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5235424041748</t>
   </si>
   <si>
     <t xml:space="preserve">18.3407154083252</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1290149688721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8980731964111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0520362854004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0231685638428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5716571807861</t>
+    <t xml:space="preserve">18.1290168762207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8980770111084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.052038192749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0231666564941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5716552734375</t>
   </si>
   <si>
     <t xml:space="preserve">18.6486396789551</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4754314422607</t>
+    <t xml:space="preserve">18.4754295349121</t>
   </si>
   <si>
     <t xml:space="preserve">18.3022232055664</t>
@@ -1544,31 +1544,31 @@
     <t xml:space="preserve">18.331090927124</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2059955596924</t>
+    <t xml:space="preserve">18.2059993743896</t>
   </si>
   <si>
     <t xml:space="preserve">18.2733554840088</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8403377532959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6678848266602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1001510620117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.28297996521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0239238739014</t>
+    <t xml:space="preserve">17.8403396606445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6678829193115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1001472473145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2829780578613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0239219665527</t>
   </si>
   <si>
     <t xml:space="preserve">19.6301441192627</t>
   </si>
   <si>
-    <t xml:space="preserve">19.707124710083</t>
+    <t xml:space="preserve">19.7071266174316</t>
   </si>
   <si>
     <t xml:space="preserve">19.6686382293701</t>
@@ -1577,52 +1577,52 @@
     <t xml:space="preserve">19.4761829376221</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3414669036865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0046730041504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.725622177124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8025989532471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0527877807617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2452411651611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9661846160889</t>
+    <t xml:space="preserve">19.3414649963379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.004674911499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7256202697754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8026008605957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0527858734131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2452392578125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9661827087402</t>
   </si>
   <si>
     <t xml:space="preserve">18.4176959991455</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7833557128906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3118457794189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5612812042236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8107166290283</t>
+    <t xml:space="preserve">18.7833576202393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3118476867676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5612850189209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.810718536377</t>
   </si>
   <si>
     <t xml:space="preserve">15.6848707199097</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8195896148682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.906192779541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2326097488403</t>
+    <t xml:space="preserve">15.8195886611938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9061908721924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2326078414917</t>
   </si>
   <si>
     <t xml:space="preserve">15.6560049057007</t>
@@ -1631,7 +1631,7 @@
     <t xml:space="preserve">15.6944923400879</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0409069061279</t>
+    <t xml:space="preserve">16.0409088134766</t>
   </si>
   <si>
     <t xml:space="preserve">15.9639272689819</t>
@@ -1640,10 +1640,10 @@
     <t xml:space="preserve">15.1748733520508</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2999668121338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2229843139648</t>
+    <t xml:space="preserve">15.2999649047852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2229852676392</t>
   </si>
   <si>
     <t xml:space="preserve">15.2037401199341</t>
@@ -1652,10 +1652,10 @@
     <t xml:space="preserve">15.2422313690186</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0690240859985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8765716552734</t>
+    <t xml:space="preserve">15.0690221786499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8765726089478</t>
   </si>
   <si>
     <t xml:space="preserve">14.9246845245361</t>
@@ -1667,13 +1667,13 @@
     <t xml:space="preserve">14.8669490814209</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1556262969971</t>
+    <t xml:space="preserve">15.1556272506714</t>
   </si>
   <si>
     <t xml:space="preserve">15.2807207107544</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0112886428833</t>
+    <t xml:space="preserve">15.011287689209</t>
   </si>
   <si>
     <t xml:space="preserve">14.0201578140259</t>
@@ -1682,13 +1682,13 @@
     <t xml:space="preserve">13.9335536956787</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3273286819458</t>
+    <t xml:space="preserve">13.3273305892944</t>
   </si>
   <si>
     <t xml:space="preserve">13.2792167663574</t>
   </si>
   <si>
-    <t xml:space="preserve">13.587140083313</t>
+    <t xml:space="preserve">13.5871391296387</t>
   </si>
   <si>
     <t xml:space="preserve">13.4620456695557</t>
@@ -1697,7 +1697,7 @@
     <t xml:space="preserve">13.5967626571655</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8565721511841</t>
+    <t xml:space="preserve">13.8565731048584</t>
   </si>
   <si>
     <t xml:space="preserve">13.6929883956909</t>
@@ -1706,19 +1706,19 @@
     <t xml:space="preserve">13.4235563278198</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0778932571411</t>
+    <t xml:space="preserve">14.0778942108154</t>
   </si>
   <si>
     <t xml:space="preserve">14.2222318649292</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7129878997803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4339303970337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3761949539185</t>
+    <t xml:space="preserve">14.7129859924316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.433931350708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3761940002441</t>
   </si>
   <si>
     <t xml:space="preserve">14.5205335617065</t>
@@ -1727,19 +1727,19 @@
     <t xml:space="preserve">14.5494022369385</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0009136199951</t>
+    <t xml:space="preserve">14.0009126663208</t>
   </si>
   <si>
     <t xml:space="preserve">13.9431772232056</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7988376617432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9624223709106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1067600250244</t>
+    <t xml:space="preserve">13.7988386154175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.962423324585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1067609786987</t>
   </si>
   <si>
     <t xml:space="preserve">14.1548738479614</t>
@@ -1748,85 +1748,85 @@
     <t xml:space="preserve">14.636004447937</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9816675186157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9135570526123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5197801589966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3850660324097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9528007507324</t>
+    <t xml:space="preserve">13.9816665649414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9135580062866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5197811126709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3850650787354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9527988433838</t>
   </si>
   <si>
     <t xml:space="preserve">14.2799682617188</t>
   </si>
   <si>
-    <t xml:space="preserve">15.059401512146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4827966690063</t>
+    <t xml:space="preserve">15.0594005584717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.482795715332</t>
   </si>
   <si>
     <t xml:space="preserve">15.1075134277344</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3095893859863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4058141708374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3769464492798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5405311584473</t>
+    <t xml:space="preserve">15.3095903396606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.405816078186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3769474029541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5405321121216</t>
   </si>
   <si>
     <t xml:space="preserve">15.5886449813843</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5212860107422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3673238754272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2518529891968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1460046768188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0497789382935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0882692337036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1652488708496</t>
+    <t xml:space="preserve">15.5212850570679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3673248291016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2518539428711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1460037231445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0497779846191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0882701873779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1652498245239</t>
   </si>
   <si>
     <t xml:space="preserve">15.8484554290771</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9446840286255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2903432846069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4443054199219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7810983657837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6656265258789</t>
+    <t xml:space="preserve">15.9446811676025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2903442382812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4443035125732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7810955047607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6656255722046</t>
   </si>
   <si>
     <t xml:space="preserve">15.6271362304688</t>
@@ -1838,25 +1838,25 @@
     <t xml:space="preserve">15.1267595291138</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4539279937744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4250612258911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6752500534058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5982685089111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7426061630249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9735507965088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.67600440979</t>
+    <t xml:space="preserve">15.4539289474487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4250602722168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6752510070801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5982666015625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7426080703735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9735488891602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6760025024414</t>
   </si>
   <si>
     <t xml:space="preserve">16.2044944763184</t>
@@ -1865,7 +1865,7 @@
     <t xml:space="preserve">15.4924192428589</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0216636657715</t>
+    <t xml:space="preserve">16.0216598510742</t>
   </si>
   <si>
     <t xml:space="preserve">16.93581199646</t>
@@ -1883,19 +1883,19 @@
     <t xml:space="preserve">16.4739265441895</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0031700134277</t>
+    <t xml:space="preserve">17.0031681060791</t>
   </si>
   <si>
     <t xml:space="preserve">16.6663780212402</t>
   </si>
   <si>
-    <t xml:space="preserve">17.060905456543</t>
+    <t xml:space="preserve">17.0609073638916</t>
   </si>
   <si>
     <t xml:space="preserve">16.9839248657227</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1475105285645</t>
+    <t xml:space="preserve">17.1475086212158</t>
   </si>
   <si>
     <t xml:space="preserve">17.1186428070068</t>
@@ -1907,13 +1907,13 @@
     <t xml:space="preserve">16.137134552002</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1275119781494</t>
+    <t xml:space="preserve">16.127513885498</t>
   </si>
   <si>
     <t xml:space="preserve">16.1660022735596</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0890216827393</t>
+    <t xml:space="preserve">16.0890197753906</t>
   </si>
   <si>
     <t xml:space="preserve">16.5990200042725</t>
@@ -1922,7 +1922,7 @@
     <t xml:space="preserve">16.4835472106934</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1563777923584</t>
+    <t xml:space="preserve">16.156379699707</t>
   </si>
   <si>
     <t xml:space="preserve">17.7633571624756</t>
@@ -1934,28 +1934,28 @@
     <t xml:space="preserve">18.3599586486816</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5709056854248</t>
+    <t xml:space="preserve">17.5709037780762</t>
   </si>
   <si>
     <t xml:space="preserve">17.5420360565186</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0905246734619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9469413757324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8521862030029</t>
+    <t xml:space="preserve">18.0905284881592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9469394683838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8521842956543</t>
   </si>
   <si>
     <t xml:space="preserve">19.1526546478271</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8892974853516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7923679351807</t>
+    <t xml:space="preserve">19.8892955780029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7923698425293</t>
   </si>
   <si>
     <t xml:space="preserve">19.2108135223389</t>
@@ -1967,40 +1967,40 @@
     <t xml:space="preserve">19.2689666748047</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8715667724609</t>
+    <t xml:space="preserve">18.8715705871582</t>
   </si>
   <si>
     <t xml:space="preserve">18.9878807067871</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2495822906494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3174304962158</t>
+    <t xml:space="preserve">19.249584197998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3174324035645</t>
   </si>
   <si>
     <t xml:space="preserve">19.520975112915</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6760597229004</t>
+    <t xml:space="preserve">19.6760578155518</t>
   </si>
   <si>
     <t xml:space="preserve">19.3755855560303</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4822063446045</t>
+    <t xml:space="preserve">19.4822044372559</t>
   </si>
   <si>
     <t xml:space="preserve">19.4046649932861</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5403633117676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1994609832764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4514694213867</t>
+    <t xml:space="preserve">19.5403614044189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.199462890625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4514713287354</t>
   </si>
   <si>
     <t xml:space="preserve">20.5677814483643</t>
@@ -2015,7 +2015,7 @@
     <t xml:space="preserve">21.1105690002441</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2576160430908</t>
+    <t xml:space="preserve">20.2576179504395</t>
   </si>
   <si>
     <t xml:space="preserve">20.1413059234619</t>
@@ -2036,16 +2036,16 @@
     <t xml:space="preserve">20.3933143615723</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2382316589355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.947452545166</t>
+    <t xml:space="preserve">20.2382335662842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9474544525146</t>
   </si>
   <si>
     <t xml:space="preserve">19.8505268096924</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0249938964844</t>
+    <t xml:space="preserve">20.0249919891357</t>
   </si>
   <si>
     <t xml:space="preserve">20.6065521240234</t>
@@ -2054,7 +2054,7 @@
     <t xml:space="preserve">20.5871658325195</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5290088653564</t>
+    <t xml:space="preserve">20.5290107727051</t>
   </si>
   <si>
     <t xml:space="preserve">21.0136432647705</t>
@@ -2066,7 +2066,7 @@
     <t xml:space="preserve">20.7228622436523</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3351593017578</t>
+    <t xml:space="preserve">20.3351554870605</t>
   </si>
   <si>
     <t xml:space="preserve">20.4320831298828</t>
@@ -2075,7 +2075,7 @@
     <t xml:space="preserve">20.4902400970459</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5952014923096</t>
+    <t xml:space="preserve">21.5952033996582</t>
   </si>
   <si>
     <t xml:space="preserve">21.4982738494873</t>
@@ -2087,13 +2087,13 @@
     <t xml:space="preserve">20.3157730102539</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8779449462891</t>
+    <t xml:space="preserve">20.8779468536377</t>
   </si>
   <si>
     <t xml:space="preserve">21.30442237854</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4207344055176</t>
+    <t xml:space="preserve">21.4207324981689</t>
   </si>
   <si>
     <t xml:space="preserve">21.478889465332</t>
@@ -2105,7 +2105,7 @@
     <t xml:space="preserve">21.3431930541992</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6145877838135</t>
+    <t xml:space="preserve">21.6145839691162</t>
   </si>
   <si>
     <t xml:space="preserve">22.1767597198486</t>
@@ -2114,28 +2114,28 @@
     <t xml:space="preserve">22.8164749145508</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8940143585205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8552474975586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.428768157959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5838508605957</t>
+    <t xml:space="preserve">22.8940162658691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.85524559021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4287662506104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5838489532471</t>
   </si>
   <si>
     <t xml:space="preserve">22.2930698394775</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2736873626709</t>
+    <t xml:space="preserve">22.2736854553223</t>
   </si>
   <si>
     <t xml:space="preserve">22.6420059204102</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9327869415283</t>
+    <t xml:space="preserve">22.9327850341797</t>
   </si>
   <si>
     <t xml:space="preserve">23.0878677368164</t>
@@ -2144,7 +2144,7 @@
     <t xml:space="preserve">23.1460227966309</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3899955749512</t>
+    <t xml:space="preserve">22.3899974822998</t>
   </si>
   <si>
     <t xml:space="preserve">22.5644645690918</t>
@@ -2153,19 +2153,19 @@
     <t xml:space="preserve">21.6727428436279</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7810211181641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7616329193115</t>
+    <t xml:space="preserve">20.7810192108154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7616348266602</t>
   </si>
   <si>
     <t xml:space="preserve">21.4401206970215</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0911846160889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1881084442139</t>
+    <t xml:space="preserve">21.0911827087402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1881122589111</t>
   </si>
   <si>
     <t xml:space="preserve">21.4013481140137</t>
@@ -2174,13 +2174,13 @@
     <t xml:space="preserve">22.0604476928711</t>
   </si>
   <si>
-    <t xml:space="preserve">21.827823638916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5370445251465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6921272277832</t>
+    <t xml:space="preserve">21.8278255462646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5370426177979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6921253204346</t>
   </si>
   <si>
     <t xml:space="preserve">21.9247512817383</t>
@@ -2189,64 +2189,64 @@
     <t xml:space="preserve">22.0022926330566</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8084392547607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9053649902344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9554862976074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9167194366455</t>
+    <t xml:space="preserve">21.8084373474121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.905366897583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9554882049561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9167156219482</t>
   </si>
   <si>
     <t xml:space="preserve">20.8004035949707</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1687259674072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6840934753418</t>
+    <t xml:space="preserve">21.1687240600586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6840953826904</t>
   </si>
   <si>
     <t xml:space="preserve">21.2074947357178</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2462673187256</t>
+    <t xml:space="preserve">21.246265411377</t>
   </si>
   <si>
     <t xml:space="preserve">20.6259365081787</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6453247070312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1573715209961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3512287139893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8746299743652</t>
+    <t xml:space="preserve">20.6453227996826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1573753356934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3512268066406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8746280670166</t>
   </si>
   <si>
     <t xml:space="preserve">22.9909400939941</t>
   </si>
   <si>
-    <t xml:space="preserve">23.359260559082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8051223754883</t>
+    <t xml:space="preserve">23.3592624664307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8051242828369</t>
   </si>
   <si>
     <t xml:space="preserve">24.0765171051025</t>
   </si>
   <si>
-    <t xml:space="preserve">24.2703704833984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9214344024658</t>
+    <t xml:space="preserve">24.2703685760498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9214363098145</t>
   </si>
   <si>
     <t xml:space="preserve">24.4448375701904</t>
@@ -2255,7 +2255,7 @@
     <t xml:space="preserve">24.1540584564209</t>
   </si>
   <si>
-    <t xml:space="preserve">24.2315979003906</t>
+    <t xml:space="preserve">24.2315998077393</t>
   </si>
   <si>
     <t xml:space="preserve">24.3285236358643</t>
@@ -2267,28 +2267,28 @@
     <t xml:space="preserve">25.2396354675293</t>
   </si>
   <si>
-    <t xml:space="preserve">25.4722557067871</t>
+    <t xml:space="preserve">25.4722576141357</t>
   </si>
   <si>
     <t xml:space="preserve">25.7436504364014</t>
   </si>
   <si>
-    <t xml:space="preserve">24.6968441009521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3559455871582</t>
+    <t xml:space="preserve">24.6968460083008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3559436798096</t>
   </si>
   <si>
     <t xml:space="preserve">25.666109085083</t>
   </si>
   <si>
-    <t xml:space="preserve">25.2977867126465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3947162628174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9876251220703</t>
+    <t xml:space="preserve">25.2977886199951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.394718170166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9876270294189</t>
   </si>
   <si>
     <t xml:space="preserve">25.3171768188477</t>
@@ -2306,7 +2306,7 @@
     <t xml:space="preserve">24.910083770752</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7162322998047</t>
+    <t xml:space="preserve">24.7162303924561</t>
   </si>
   <si>
     <t xml:space="preserve">25.0263957977295</t>
@@ -2321,19 +2321,19 @@
     <t xml:space="preserve">24.9294681549072</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9488544464111</t>
+    <t xml:space="preserve">24.9488563537598</t>
   </si>
   <si>
     <t xml:space="preserve">25.0651664733887</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6854972839355</t>
+    <t xml:space="preserve">25.6854953765869</t>
   </si>
   <si>
     <t xml:space="preserve">25.7242660522461</t>
   </si>
   <si>
-    <t xml:space="preserve">25.2202491760254</t>
+    <t xml:space="preserve">25.2202472686768</t>
   </si>
   <si>
     <t xml:space="preserve">25.3753299713135</t>
@@ -2345,22 +2345,22 @@
     <t xml:space="preserve">26.1507415771484</t>
   </si>
   <si>
-    <t xml:space="preserve">25.9956607818604</t>
+    <t xml:space="preserve">25.9956588745117</t>
   </si>
   <si>
     <t xml:space="preserve">25.9375038146973</t>
   </si>
   <si>
-    <t xml:space="preserve">25.5304107666016</t>
+    <t xml:space="preserve">25.5304126739502</t>
   </si>
   <si>
     <t xml:space="preserve">26.2088985443115</t>
   </si>
   <si>
-    <t xml:space="preserve">25.142707824707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8907012939453</t>
+    <t xml:space="preserve">25.1427097320557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8906993865967</t>
   </si>
   <si>
     <t xml:space="preserve">25.2784042358398</t>
@@ -2372,31 +2372,31 @@
     <t xml:space="preserve">26.61598777771</t>
   </si>
   <si>
-    <t xml:space="preserve">26.674144744873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.7904567718506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.546480178833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.6240253448486</t>
+    <t xml:space="preserve">26.6741428375244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.790454864502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5464820861816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.6240215301514</t>
   </si>
   <si>
     <t xml:space="preserve">27.9341888427734</t>
   </si>
   <si>
-    <t xml:space="preserve">28.1086559295654</t>
+    <t xml:space="preserve">28.1086540222168</t>
   </si>
   <si>
     <t xml:space="preserve">28.2443523406982</t>
   </si>
   <si>
-    <t xml:space="preserve">28.6126728057861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.2136173248291</t>
+    <t xml:space="preserve">28.6126708984375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.2136154174805</t>
   </si>
   <si>
     <t xml:space="preserve">28.7095985412598</t>
@@ -2411,52 +2411,52 @@
     <t xml:space="preserve">25.6079521179199</t>
   </si>
   <si>
-    <t xml:space="preserve">24.968240737915</t>
+    <t xml:space="preserve">24.9682388305664</t>
   </si>
   <si>
     <t xml:space="preserve">23.960205078125</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8325424194336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7857398986816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.121919631958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6372871398926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8183889389038</t>
+    <t xml:space="preserve">24.8325443267822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.785737991333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1219215393066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6372852325439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8183879852295</t>
   </si>
   <si>
     <t xml:space="preserve">17.582447052002</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9637756347656</t>
+    <t xml:space="preserve">15.9637775421143</t>
   </si>
   <si>
     <t xml:space="preserve">16.3611755371094</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1559715270996</t>
+    <t xml:space="preserve">17.1559753417969</t>
   </si>
   <si>
     <t xml:space="preserve">17.7859935760498</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0089244842529</t>
+    <t xml:space="preserve">18.0089225769043</t>
   </si>
   <si>
     <t xml:space="preserve">18.406322479248</t>
   </si>
   <si>
-    <t xml:space="preserve">19.113883972168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4160137176514</t>
+    <t xml:space="preserve">19.1138858795166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.416015625</t>
   </si>
   <si>
     <t xml:space="preserve">18.4935550689697</t>
@@ -2483,7 +2483,7 @@
     <t xml:space="preserve">19.0654220581055</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7067966461182</t>
+    <t xml:space="preserve">18.7067928314209</t>
   </si>
   <si>
     <t xml:space="preserve">18.7213344573975</t>
@@ -2492,16 +2492,16 @@
     <t xml:space="preserve">19.0460357666016</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2221622467041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1784172058105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5597457885742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1284255981445</t>
+    <t xml:space="preserve">18.2221641540527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1784191131592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5597476959229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1284236907959</t>
   </si>
   <si>
     <t xml:space="preserve">20.306079864502</t>
@@ -2510,109 +2510,109 @@
     <t xml:space="preserve">20.548397064209</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2866954803467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2673110961914</t>
+    <t xml:space="preserve">20.286693572998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2673091888428</t>
   </si>
   <si>
     <t xml:space="preserve">20.0637645721436</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9845638275146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0895252227783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7018203735352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6710834503174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1186046600342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3335018157959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7502861022949</t>
+    <t xml:space="preserve">20.9845657348633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.089527130127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7018184661865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.671085357666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1186027526855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3334999084473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7502841949463</t>
   </si>
   <si>
     <t xml:space="preserve">22.186450958252</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2656517028809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3221492767334</t>
+    <t xml:space="preserve">21.2656536102295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.322151184082</t>
   </si>
   <si>
     <t xml:space="preserve">21.9829063415527</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3786487579346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4852657318115</t>
+    <t xml:space="preserve">23.3786468505859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4852638244629</t>
   </si>
   <si>
     <t xml:space="preserve">22.6129283905029</t>
   </si>
   <si>
-    <t xml:space="preserve">23.853588104248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1831359863281</t>
+    <t xml:space="preserve">23.8535861968994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1831378936768</t>
   </si>
   <si>
     <t xml:space="preserve">23.8729705810547</t>
   </si>
   <si>
-    <t xml:space="preserve">24.202522277832</t>
+    <t xml:space="preserve">24.2025203704834</t>
   </si>
   <si>
     <t xml:space="preserve">24.1734428405762</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7081966400146</t>
+    <t xml:space="preserve">23.708194732666</t>
   </si>
   <si>
     <t xml:space="preserve">23.029712677002</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9715557098389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2155303955078</t>
+    <t xml:space="preserve">22.9715576171875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2155323028564</t>
   </si>
   <si>
     <t xml:space="preserve">22.3996906280518</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0394058227539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2817211151123</t>
+    <t xml:space="preserve">23.0394039154053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2817192077637</t>
   </si>
   <si>
     <t xml:space="preserve">23.6500415802002</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0200176239014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0490970611572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4949569702148</t>
+    <t xml:space="preserve">23.02001953125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0491008758545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4949607849121</t>
   </si>
   <si>
     <t xml:space="preserve">23.8148136138916</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7583160400391</t>
+    <t xml:space="preserve">22.7583179473877</t>
   </si>
   <si>
     <t xml:space="preserve">22.7970886230469</t>
@@ -2627,25 +2627,25 @@
     <t xml:space="preserve">23.620964050293</t>
   </si>
   <si>
-    <t xml:space="preserve">23.5918827056885</t>
+    <t xml:space="preserve">23.5918846130371</t>
   </si>
   <si>
     <t xml:space="preserve">23.8923568725586</t>
   </si>
   <si>
-    <t xml:space="preserve">24.0959014892578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1928253173828</t>
+    <t xml:space="preserve">24.0959033966064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1928291320801</t>
   </si>
   <si>
     <t xml:space="preserve">24.0668239593506</t>
   </si>
   <si>
-    <t xml:space="preserve">24.1152858734131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5223789215088</t>
+    <t xml:space="preserve">24.1152877807617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5223770141602</t>
   </si>
   <si>
     <t xml:space="preserve">24.6871528625488</t>
@@ -2657,22 +2657,22 @@
     <t xml:space="preserve">25.6564159393311</t>
   </si>
   <si>
-    <t xml:space="preserve">25.4431819915771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4334850311279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1233215332031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5110282897949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.955228805542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9067668914795</t>
+    <t xml:space="preserve">25.4431781768799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4334869384766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1233234405518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5110263824463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9552326202393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9067687988281</t>
   </si>
   <si>
     <t xml:space="preserve">28.0601921081543</t>
@@ -2681,10 +2681,10 @@
     <t xml:space="preserve">28.6514415740967</t>
   </si>
   <si>
-    <t xml:space="preserve">27.9148006439209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.0020370483398</t>
+    <t xml:space="preserve">27.9148025512695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.0020351409912</t>
   </si>
   <si>
     <t xml:space="preserve">27.5658664703369</t>
@@ -2696,16 +2696,16 @@
     <t xml:space="preserve">27.4204788208008</t>
   </si>
   <si>
-    <t xml:space="preserve">27.4398612976074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.7887954711914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.6337146759033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.4592475891113</t>
+    <t xml:space="preserve">27.4398632049561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.78879737854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.633716583252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.45924949646</t>
   </si>
   <si>
     <t xml:space="preserve">27.6918716430664</t>
@@ -2720,10 +2720,10 @@
     <t xml:space="preserve">27.1103134155273</t>
   </si>
   <si>
-    <t xml:space="preserve">26.8970756530762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.848611831665</t>
+    <t xml:space="preserve">26.8970737457275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.8486137390137</t>
   </si>
   <si>
     <t xml:space="preserve">27.0618495941162</t>
@@ -2732,25 +2732,25 @@
     <t xml:space="preserve">26.9358463287354</t>
   </si>
   <si>
-    <t xml:space="preserve">26.6547584533691</t>
+    <t xml:space="preserve">26.6547603607178</t>
   </si>
   <si>
     <t xml:space="preserve">26.8583030700684</t>
   </si>
   <si>
-    <t xml:space="preserve">28.0117282867432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0715446472168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.1587753295898</t>
+    <t xml:space="preserve">28.0117263793945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0715427398682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.1587772369385</t>
   </si>
   <si>
     <t xml:space="preserve">27.7984924316406</t>
   </si>
   <si>
-    <t xml:space="preserve">27.8566474914551</t>
+    <t xml:space="preserve">27.8566455841064</t>
   </si>
   <si>
     <t xml:space="preserve">28.6029796600342</t>
@@ -2759,25 +2759,25 @@
     <t xml:space="preserve">28.7774486541748</t>
   </si>
   <si>
-    <t xml:space="preserve">28.9325313568115</t>
+    <t xml:space="preserve">28.9325294494629</t>
   </si>
   <si>
     <t xml:space="preserve">29.4268550872803</t>
   </si>
   <si>
-    <t xml:space="preserve">29.2233066558838</t>
+    <t xml:space="preserve">29.2233085632324</t>
   </si>
   <si>
     <t xml:space="preserve">29.1263809204102</t>
   </si>
   <si>
-    <t xml:space="preserve">27.9923419952393</t>
+    <t xml:space="preserve">27.9923439025879</t>
   </si>
   <si>
     <t xml:space="preserve">28.0698833465576</t>
   </si>
   <si>
-    <t xml:space="preserve">27.8857231140137</t>
+    <t xml:space="preserve">27.8857250213623</t>
   </si>
   <si>
     <t xml:space="preserve">28.0989608764648</t>
@@ -2789,19 +2789,19 @@
     <t xml:space="preserve">30.4155025482178</t>
   </si>
   <si>
-    <t xml:space="preserve">29.6110134124756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.9211769104004</t>
+    <t xml:space="preserve">29.6110153198242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.9211807250977</t>
   </si>
   <si>
     <t xml:space="preserve">30.279806137085</t>
   </si>
   <si>
-    <t xml:space="preserve">30.4736576080322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6013221740723</t>
+    <t xml:space="preserve">30.4736595153809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6013202667236</t>
   </si>
   <si>
     <t xml:space="preserve">29.7660961151123</t>
@@ -2810,28 +2810,28 @@
     <t xml:space="preserve">30.2507286071777</t>
   </si>
   <si>
-    <t xml:space="preserve">30.9292106628418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.4526176452637</t>
+    <t xml:space="preserve">30.9292125701904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.452615737915</t>
   </si>
   <si>
     <t xml:space="preserve">31.2103004455566</t>
   </si>
   <si>
-    <t xml:space="preserve">30.9970626831055</t>
+    <t xml:space="preserve">30.9970607757568</t>
   </si>
   <si>
     <t xml:space="preserve">31.3847675323486</t>
   </si>
   <si>
-    <t xml:space="preserve">31.2006053924561</t>
+    <t xml:space="preserve">31.2006072998047</t>
   </si>
   <si>
     <t xml:space="preserve">31.394458770752</t>
   </si>
   <si>
-    <t xml:space="preserve">31.1812210083008</t>
+    <t xml:space="preserve">31.1812191009521</t>
   </si>
   <si>
     <t xml:space="preserve">31.1424541473389</t>
@@ -2846,43 +2846,43 @@
     <t xml:space="preserve">31.0164470672607</t>
   </si>
   <si>
-    <t xml:space="preserve">29.155460357666</t>
+    <t xml:space="preserve">29.1554584503174</t>
   </si>
   <si>
     <t xml:space="preserve">29.6497840881348</t>
   </si>
   <si>
-    <t xml:space="preserve">31.3653812408447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.4703407287598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.3911399841309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.1568603515625</t>
+    <t xml:space="preserve">31.3653831481934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.470344543457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.3911437988281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.1568641662598</t>
   </si>
   <si>
     <t xml:space="preserve">33.8079261779785</t>
   </si>
   <si>
-    <t xml:space="preserve">32.9549751281738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.8273162841797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.0599365234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.6414947509766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.9339256286621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.9613494873047</t>
+    <t xml:space="preserve">32.9549713134766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.8273124694824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.0599327087402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.6414909362793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.9339294433594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.961353302002</t>
   </si>
   <si>
     <t xml:space="preserve">34.3216361999512</t>
@@ -2894,19 +2894,19 @@
     <t xml:space="preserve">33.1488304138184</t>
   </si>
   <si>
-    <t xml:space="preserve">33.158519744873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.3426856994629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9857139587402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.082633972168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.4509582519531</t>
+    <t xml:space="preserve">33.1585159301758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.3426780700684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.985710144043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0826377868652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.4509544372559</t>
   </si>
   <si>
     <t xml:space="preserve">33.2263679504395</t>
@@ -2915,37 +2915,37 @@
     <t xml:space="preserve">32.5381889343262</t>
   </si>
   <si>
-    <t xml:space="preserve">31.724006652832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3459968566895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.4816932678223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5980052947998</t>
+    <t xml:space="preserve">31.7240085601807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3459949493408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4816951751709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5980033874512</t>
   </si>
   <si>
     <t xml:space="preserve">31.3363056182861</t>
   </si>
   <si>
-    <t xml:space="preserve">31.5495414733887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0923309326172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.576961517334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.8306255340576</t>
+    <t xml:space="preserve">31.54953956604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0923271179199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.5769577026367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8306293487549</t>
   </si>
   <si>
     <t xml:space="preserve">32.6351127624512</t>
   </si>
   <si>
-    <t xml:space="preserve">32.4218788146973</t>
+    <t xml:space="preserve">32.4218826293945</t>
   </si>
   <si>
     <t xml:space="preserve">32.9065132141113</t>
@@ -2954,7 +2954,7 @@
     <t xml:space="preserve">32.1698684692383</t>
   </si>
   <si>
-    <t xml:space="preserve">32.6932716369629</t>
+    <t xml:space="preserve">32.6932754516602</t>
   </si>
   <si>
     <t xml:space="preserve">32.218334197998</t>
@@ -2966,16 +2966,16 @@
     <t xml:space="preserve">32.9937477111816</t>
   </si>
   <si>
-    <t xml:space="preserve">32.8968200683594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.5284996032715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0050926208496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.6755447387695</t>
+    <t xml:space="preserve">32.8968162536621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.5285034179688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0050964355469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.6755485534668</t>
   </si>
   <si>
     <t xml:space="preserve">32.7998924255371</t>
@@ -2984,13 +2984,13 @@
     <t xml:space="preserve">32.6448135375977</t>
   </si>
   <si>
-    <t xml:space="preserve">32.5866584777832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.8677444458008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1100540161133</t>
+    <t xml:space="preserve">32.5866508483887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.8677406311035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1100578308105</t>
   </si>
   <si>
     <t xml:space="preserve">33.1391372680664</t>
@@ -2999,16 +2999,16 @@
     <t xml:space="preserve">33.2942161560059</t>
   </si>
   <si>
-    <t xml:space="preserve">33.0712890625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.8386611938477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.5478820800781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.5188102722168</t>
+    <t xml:space="preserve">33.0712814331055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.8386650085449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.5478858947754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.5188064575195</t>
   </si>
   <si>
     <t xml:space="preserve">33.0518989562988</t>
@@ -3017,19 +3017,19 @@
     <t xml:space="preserve">32.8095855712891</t>
   </si>
   <si>
-    <t xml:space="preserve">32.4024963378906</t>
+    <t xml:space="preserve">32.4024925231934</t>
   </si>
   <si>
     <t xml:space="preserve">33.5365333557129</t>
   </si>
   <si>
-    <t xml:space="preserve">34.3022537231445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.1164321899414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.0001258850098</t>
+    <t xml:space="preserve">34.3022499084473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.1164360046387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.0001220703125</t>
   </si>
   <si>
     <t xml:space="preserve">35.4653701782227</t>
@@ -3038,7 +3038,7 @@
     <t xml:space="preserve">35.4072113037109</t>
   </si>
   <si>
-    <t xml:space="preserve">35.5235252380371</t>
+    <t xml:space="preserve">35.5235214233398</t>
   </si>
   <si>
     <t xml:space="preserve">36.3377075195312</t>
@@ -3047,7 +3047,7 @@
     <t xml:space="preserve">36.0856971740723</t>
   </si>
   <si>
-    <t xml:space="preserve">35.8627700805664</t>
+    <t xml:space="preserve">35.8627662658691</t>
   </si>
   <si>
     <t xml:space="preserve">34.7674980163574</t>
@@ -3056,13 +3056,13 @@
     <t xml:space="preserve">34.4088668823242</t>
   </si>
   <si>
-    <t xml:space="preserve">33.8660774230957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.8176193237305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2571029663086</t>
+    <t xml:space="preserve">33.8660850524902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.8176231384277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2571067810059</t>
   </si>
   <si>
     <t xml:space="preserve">32.2861824035645</t>
@@ -3071,88 +3071,88 @@
     <t xml:space="preserve">32.9452819824219</t>
   </si>
   <si>
-    <t xml:space="preserve">33.1972923278809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.4251937866211</t>
+    <t xml:space="preserve">33.1972961425781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.4251956939697</t>
   </si>
   <si>
     <t xml:space="preserve">29.9308700561523</t>
   </si>
   <si>
-    <t xml:space="preserve">29.1166896820068</t>
+    <t xml:space="preserve">29.1166915893555</t>
   </si>
   <si>
     <t xml:space="preserve">29.4365482330322</t>
   </si>
   <si>
-    <t xml:space="preserve">30.8419799804688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.1036796569824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9469394683838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.9776744842529</t>
+    <t xml:space="preserve">30.8419818878174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.1036815643311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9469413757324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.9776763916016</t>
   </si>
   <si>
     <t xml:space="preserve">31.1909141540527</t>
   </si>
   <si>
-    <t xml:space="preserve">31.5883140563965</t>
+    <t xml:space="preserve">31.5883159637451</t>
   </si>
   <si>
     <t xml:space="preserve">31.0067539215088</t>
   </si>
   <si>
-    <t xml:space="preserve">29.9793357849121</t>
+    <t xml:space="preserve">29.9793338775635</t>
   </si>
   <si>
     <t xml:space="preserve">30.5996627807617</t>
   </si>
   <si>
-    <t xml:space="preserve">32.140796661377</t>
+    <t xml:space="preserve">32.1407928466797</t>
   </si>
   <si>
     <t xml:space="preserve">30.861364364624</t>
   </si>
   <si>
-    <t xml:space="preserve">31.2296848297119</t>
+    <t xml:space="preserve">31.2296829223633</t>
   </si>
   <si>
     <t xml:space="preserve">31.1230659484863</t>
   </si>
   <si>
-    <t xml:space="preserve">30.764440536499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.4041538238525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7433948516846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.4235382080078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0535621643066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.811243057251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.001781463623</t>
+    <t xml:space="preserve">30.7644386291504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4041519165039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7433967590332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4235363006592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0535583496094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8112468719482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.0017852783203</t>
   </si>
   <si>
     <t xml:space="preserve">33.4299163818359</t>
   </si>
   <si>
-    <t xml:space="preserve">34.3797988891602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.1374778747559</t>
+    <t xml:space="preserve">34.3797950744629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.1374740600586</t>
   </si>
   <si>
     <t xml:space="preserve">34.1277847290039</t>
@@ -3161,10 +3161,10 @@
     <t xml:space="preserve">34.6899566650391</t>
   </si>
   <si>
-    <t xml:space="preserve">34.7287330627441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.5138282775879</t>
+    <t xml:space="preserve">34.7287292480469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.5138320922852</t>
   </si>
   <si>
     <t xml:space="preserve">35.3490562438965</t>
@@ -3173,13 +3173,13 @@
     <t xml:space="preserve">34.8159599304199</t>
   </si>
   <si>
-    <t xml:space="preserve">33.6043815612793</t>
+    <t xml:space="preserve">33.604377746582</t>
   </si>
   <si>
     <t xml:space="preserve">34.0502433776855</t>
   </si>
   <si>
-    <t xml:space="preserve">34.3119430541992</t>
+    <t xml:space="preserve">34.3119506835938</t>
   </si>
   <si>
     <t xml:space="preserve">33.7303848266602</t>
@@ -3191,19 +3191,19 @@
     <t xml:space="preserve">34.0793228149414</t>
   </si>
   <si>
-    <t xml:space="preserve">32.7514305114746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3831062316895</t>
+    <t xml:space="preserve">32.7514343261719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3831100463867</t>
   </si>
   <si>
     <t xml:space="preserve">32.3637237548828</t>
   </si>
   <si>
-    <t xml:space="preserve">32.5672645568848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.4396095275879</t>
+    <t xml:space="preserve">32.567268371582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.4396057128906</t>
   </si>
   <si>
     <t xml:space="preserve">33.6334609985352</t>
@@ -3224,10 +3224,10 @@
     <t xml:space="preserve">37.3190383911133</t>
   </si>
   <si>
-    <t xml:space="preserve">37.6310844421387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.9821395874023</t>
+    <t xml:space="preserve">37.6310882568359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.9821434020996</t>
   </si>
   <si>
     <t xml:space="preserve">37.6798439025879</t>
@@ -3254,25 +3254,25 @@
     <t xml:space="preserve">39.8349266052246</t>
   </si>
   <si>
-    <t xml:space="preserve">39.1913299560547</t>
+    <t xml:space="preserve">39.1913261413574</t>
   </si>
   <si>
     <t xml:space="preserve">39.2205848693848</t>
   </si>
   <si>
-    <t xml:space="preserve">39.932445526123</t>
+    <t xml:space="preserve">39.9324417114258</t>
   </si>
   <si>
     <t xml:space="preserve">39.1718254089355</t>
   </si>
   <si>
-    <t xml:space="preserve">39.3766059875488</t>
+    <t xml:space="preserve">39.3766098022461</t>
   </si>
   <si>
     <t xml:space="preserve">39.2985954284668</t>
   </si>
   <si>
-    <t xml:space="preserve">39.1815795898438</t>
+    <t xml:space="preserve">39.1815757751465</t>
   </si>
   <si>
     <t xml:space="preserve">40.2054862976074</t>
@@ -3284,13 +3284,13 @@
     <t xml:space="preserve">40.3420066833496</t>
   </si>
   <si>
-    <t xml:space="preserve">41.1026229858398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.6053009033203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.4005126953125</t>
+    <t xml:space="preserve">41.1026268005371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.605297088623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.4005165100098</t>
   </si>
   <si>
     <t xml:space="preserve">40.566291809082</t>
@@ -3302,7 +3302,7 @@
     <t xml:space="preserve">40.3517608642578</t>
   </si>
   <si>
-    <t xml:space="preserve">40.5955505371094</t>
+    <t xml:space="preserve">40.5955467224121</t>
   </si>
   <si>
     <t xml:space="preserve">39.6594009399414</t>
@@ -3314,10 +3314,10 @@
     <t xml:space="preserve">38.1284103393555</t>
   </si>
   <si>
-    <t xml:space="preserve">38.1186599731445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.9475402832031</t>
+    <t xml:space="preserve">38.1186637878418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.9475364685059</t>
   </si>
   <si>
     <t xml:space="preserve">39.5618858337402</t>
@@ -3326,10 +3326,10 @@
     <t xml:space="preserve">39.7471618652344</t>
   </si>
   <si>
-    <t xml:space="preserve">39.054801940918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.0397148132324</t>
+    <t xml:space="preserve">39.0548095703125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.0397109985352</t>
   </si>
   <si>
     <t xml:space="preserve">39.7666625976562</t>
@@ -3338,13 +3338,13 @@
     <t xml:space="preserve">39.435115814209</t>
   </si>
   <si>
-    <t xml:space="preserve">40.0202102661133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.347354888916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.6443061828613</t>
+    <t xml:space="preserve">40.020206451416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.3473510742188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.6443023681641</t>
   </si>
   <si>
     <t xml:space="preserve">41.2488975524902</t>
@@ -3377,10 +3377,10 @@
     <t xml:space="preserve">41.7559776306152</t>
   </si>
   <si>
-    <t xml:space="preserve">41.9607543945312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.8437385559082</t>
+    <t xml:space="preserve">41.9607582092285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.8437423706055</t>
   </si>
   <si>
     <t xml:space="preserve">41.8534889221191</t>
@@ -3389,7 +3389,7 @@
     <t xml:space="preserve">42.1850395202637</t>
   </si>
   <si>
-    <t xml:space="preserve">42.7116279602051</t>
+    <t xml:space="preserve">42.7116241455078</t>
   </si>
   <si>
     <t xml:space="preserve">43.7257804870605</t>
@@ -3398,22 +3398,22 @@
     <t xml:space="preserve">42.8773994445801</t>
   </si>
   <si>
-    <t xml:space="preserve">42.6628646850586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.3898277282715</t>
+    <t xml:space="preserve">42.6628684997559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.3898239135742</t>
   </si>
   <si>
     <t xml:space="preserve">42.5946044921875</t>
   </si>
   <si>
-    <t xml:space="preserve">43.1016845703125</t>
+    <t xml:space="preserve">43.1016883850098</t>
   </si>
   <si>
     <t xml:space="preserve">43.1796951293945</t>
   </si>
   <si>
-    <t xml:space="preserve">43.3064651489258</t>
+    <t xml:space="preserve">43.306468963623</t>
   </si>
   <si>
     <t xml:space="preserve">43.6282691955566</t>
@@ -3425,25 +3425,25 @@
     <t xml:space="preserve">43.5405044555664</t>
   </si>
   <si>
-    <t xml:space="preserve">42.6531143188477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.6043548583984</t>
+    <t xml:space="preserve">42.6531181335449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.6043586730957</t>
   </si>
   <si>
     <t xml:space="preserve">42.1557884216309</t>
   </si>
   <si>
-    <t xml:space="preserve">42.0777816772461</t>
+    <t xml:space="preserve">42.0777740478516</t>
   </si>
   <si>
     <t xml:space="preserve">40.3127517700195</t>
   </si>
   <si>
-    <t xml:space="preserve">41.6194534301758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.6150512695312</t>
+    <t xml:space="preserve">41.619457244873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.615047454834</t>
   </si>
   <si>
     <t xml:space="preserve">41.4439277648926</t>
@@ -3452,7 +3452,7 @@
     <t xml:space="preserve">41.6779670715332</t>
   </si>
   <si>
-    <t xml:space="preserve">43.7160339355469</t>
+    <t xml:space="preserve">43.7160301208496</t>
   </si>
   <si>
     <t xml:space="preserve">43.8135452270508</t>
@@ -3461,10 +3461,10 @@
     <t xml:space="preserve">44.9739761352539</t>
   </si>
   <si>
-    <t xml:space="preserve">43.8623008728027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.5750999450684</t>
+    <t xml:space="preserve">43.8623046875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.5751037597656</t>
   </si>
   <si>
     <t xml:space="preserve">40.3810119628906</t>
@@ -3476,7 +3476,7 @@
     <t xml:space="preserve">40.1762313842773</t>
   </si>
   <si>
-    <t xml:space="preserve">39.7764167785645</t>
+    <t xml:space="preserve">39.7764205932617</t>
   </si>
   <si>
     <t xml:space="preserve">40.1079711914062</t>
@@ -3485,40 +3485,40 @@
     <t xml:space="preserve">40.2737464904785</t>
   </si>
   <si>
-    <t xml:space="preserve">40.7028160095215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.5911407470703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.6496505737305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.5077819824219</t>
+    <t xml:space="preserve">40.7028121948242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.591136932373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.6496467590332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.5077857971191</t>
   </si>
   <si>
     <t xml:space="preserve">40.8100776672363</t>
   </si>
   <si>
-    <t xml:space="preserve">41.8632392883301</t>
+    <t xml:space="preserve">41.8632431030273</t>
   </si>
   <si>
     <t xml:space="preserve">42.2435531616211</t>
   </si>
   <si>
-    <t xml:space="preserve">43.4332389831543</t>
+    <t xml:space="preserve">43.433235168457</t>
   </si>
   <si>
     <t xml:space="preserve">42.1947937011719</t>
   </si>
   <si>
-    <t xml:space="preserve">41.7852249145508</t>
+    <t xml:space="preserve">41.785228729248</t>
   </si>
   <si>
     <t xml:space="preserve">42.8578987121582</t>
   </si>
   <si>
-    <t xml:space="preserve">43.5892601013184</t>
+    <t xml:space="preserve">43.5892639160156</t>
   </si>
   <si>
     <t xml:space="preserve">43.0139236450195</t>
@@ -3548,46 +3548,46 @@
     <t xml:space="preserve">44.6619262695312</t>
   </si>
   <si>
-    <t xml:space="preserve">44.8667106628418</t>
+    <t xml:space="preserve">44.8667030334473</t>
   </si>
   <si>
     <t xml:space="preserve">44.0865859985352</t>
   </si>
   <si>
-    <t xml:space="preserve">42.887149810791</t>
+    <t xml:space="preserve">42.8871536254883</t>
   </si>
   <si>
     <t xml:space="preserve">43.5014991760254</t>
   </si>
   <si>
-    <t xml:space="preserve">43.4429893493652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.2879066467285</t>
+    <t xml:space="preserve">43.442985534668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.2879028320312</t>
   </si>
   <si>
     <t xml:space="preserve">42.224048614502</t>
   </si>
   <si>
-    <t xml:space="preserve">41.1513786315918</t>
+    <t xml:space="preserve">41.1513824462891</t>
   </si>
   <si>
     <t xml:space="preserve">41.6974678039551</t>
   </si>
   <si>
-    <t xml:space="preserve">42.0485229492188</t>
+    <t xml:space="preserve">42.0485191345215</t>
   </si>
   <si>
     <t xml:space="preserve">42.0387725830078</t>
   </si>
   <si>
-    <t xml:space="preserve">40.7320709228516</t>
+    <t xml:space="preserve">40.7320671081543</t>
   </si>
   <si>
     <t xml:space="preserve">40.7613220214844</t>
   </si>
   <si>
-    <t xml:space="preserve">41.8827438354492</t>
+    <t xml:space="preserve">41.8827476501465</t>
   </si>
   <si>
     <t xml:space="preserve">40.7808227539062</t>
@@ -3596,22 +3596,22 @@
     <t xml:space="preserve">40.7418174743652</t>
   </si>
   <si>
-    <t xml:space="preserve">40.9173469543457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.707218170166</t>
+    <t xml:space="preserve">40.9173431396484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.7072143554688</t>
   </si>
   <si>
     <t xml:space="preserve">42.6141090393066</t>
   </si>
   <si>
-    <t xml:space="preserve">42.1265335083008</t>
+    <t xml:space="preserve">42.126537322998</t>
   </si>
   <si>
     <t xml:space="preserve">42.9846687316895</t>
   </si>
   <si>
-    <t xml:space="preserve">43.0041694641113</t>
+    <t xml:space="preserve">43.0041656494141</t>
   </si>
   <si>
     <t xml:space="preserve">43.1991958618164</t>
@@ -3626,7 +3626,7 @@
     <t xml:space="preserve">45.081241607666</t>
   </si>
   <si>
-    <t xml:space="preserve">45.7443466186523</t>
+    <t xml:space="preserve">45.7443428039551</t>
   </si>
   <si>
     <t xml:space="preserve">46.0466423034668</t>
@@ -3635,19 +3635,19 @@
     <t xml:space="preserve">46.2709274291992</t>
   </si>
   <si>
-    <t xml:space="preserve">45.4810523986816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.5449104309082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.7106819152832</t>
+    <t xml:space="preserve">45.4810562133789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.5449066162109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.7106857299805</t>
   </si>
   <si>
     <t xml:space="preserve">43.2284545898438</t>
   </si>
   <si>
-    <t xml:space="preserve">42.4970893859863</t>
+    <t xml:space="preserve">42.4970932006836</t>
   </si>
   <si>
     <t xml:space="preserve">40.6248016357422</t>
@@ -3659,31 +3659,31 @@
     <t xml:space="preserve">39.513126373291</t>
   </si>
   <si>
-    <t xml:space="preserve">38.9572944641113</t>
+    <t xml:space="preserve">38.9572906494141</t>
   </si>
   <si>
     <t xml:space="preserve">38.7525100708008</t>
   </si>
   <si>
-    <t xml:space="preserve">37.7578582763672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.3146324157715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.0371856689453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.5247650146484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.5637664794922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.9786758422852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.5974235534668</t>
+    <t xml:space="preserve">37.7578620910645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.3146362304688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.037181854248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.5247573852539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.5637626647949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.9786720275879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.5974273681641</t>
   </si>
   <si>
     <t xml:space="preserve">37.2507781982422</t>
@@ -3695,7 +3695,7 @@
     <t xml:space="preserve">36.0903434753418</t>
   </si>
   <si>
-    <t xml:space="preserve">35.4077415466309</t>
+    <t xml:space="preserve">35.4077453613281</t>
   </si>
   <si>
     <t xml:space="preserve">35.1737060546875</t>
@@ -3710,7 +3710,7 @@
     <t xml:space="preserve">35.2907218933105</t>
   </si>
   <si>
-    <t xml:space="preserve">34.4715957641602</t>
+    <t xml:space="preserve">34.4715919494629</t>
   </si>
   <si>
     <t xml:space="preserve">33.8767547607422</t>
@@ -3725,7 +3725,7 @@
     <t xml:space="preserve">34.7933959960938</t>
   </si>
   <si>
-    <t xml:space="preserve">34.6568756103516</t>
+    <t xml:space="preserve">34.6568794250488</t>
   </si>
   <si>
     <t xml:space="preserve">34.2765693664551</t>
@@ -3737,7 +3737,7 @@
     <t xml:space="preserve">35.0859413146973</t>
   </si>
   <si>
-    <t xml:space="preserve">35.7782974243164</t>
+    <t xml:space="preserve">35.7783012390137</t>
   </si>
   <si>
     <t xml:space="preserve">36.4706573486328</t>
@@ -3746,7 +3746,7 @@
     <t xml:space="preserve">37.4945640563965</t>
   </si>
   <si>
-    <t xml:space="preserve">37.0167427062988</t>
+    <t xml:space="preserve">37.0167388916016</t>
   </si>
   <si>
     <t xml:space="preserve">36.9972381591797</t>
@@ -3755,13 +3755,13 @@
     <t xml:space="preserve">36.6656837463379</t>
   </si>
   <si>
-    <t xml:space="preserve">35.3004722595215</t>
+    <t xml:space="preserve">35.3004760742188</t>
   </si>
   <si>
     <t xml:space="preserve">34.0912895202637</t>
   </si>
   <si>
-    <t xml:space="preserve">36.178108215332</t>
+    <t xml:space="preserve">36.1781120300293</t>
   </si>
   <si>
     <t xml:space="preserve">34.2083053588867</t>
@@ -3773,16 +3773,16 @@
     <t xml:space="preserve">35.6612815856934</t>
   </si>
   <si>
-    <t xml:space="preserve">35.4467468261719</t>
+    <t xml:space="preserve">35.4467506408691</t>
   </si>
   <si>
     <t xml:space="preserve">36.8119583129883</t>
   </si>
   <si>
-    <t xml:space="preserve">36.8607177734375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.519416809082</t>
+    <t xml:space="preserve">36.8607139587402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.5194129943848</t>
   </si>
   <si>
     <t xml:space="preserve">36.051342010498</t>
@@ -3791,7 +3791,7 @@
     <t xml:space="preserve">35.6222724914551</t>
   </si>
   <si>
-    <t xml:space="preserve">36.2951316833496</t>
+    <t xml:space="preserve">36.2951278686523</t>
   </si>
   <si>
     <t xml:space="preserve">36.7534484863281</t>
@@ -3803,10 +3803,10 @@
     <t xml:space="preserve">39.6008911132812</t>
   </si>
   <si>
-    <t xml:space="preserve">39.5326309204102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.8393325805664</t>
+    <t xml:space="preserve">39.5326347351074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.8393363952637</t>
   </si>
   <si>
     <t xml:space="preserve">41.9119987487793</t>
@@ -3815,10 +3815,10 @@
     <t xml:space="preserve">41.5024375915527</t>
   </si>
   <si>
-    <t xml:space="preserve">41.2976570129395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.4297676086426</t>
+    <t xml:space="preserve">41.2976531982422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.4297714233398</t>
   </si>
   <si>
     <t xml:space="preserve">39.2108306884766</t>
@@ -3830,25 +3830,25 @@
     <t xml:space="preserve">39.8056716918945</t>
   </si>
   <si>
-    <t xml:space="preserve">39.2010803222656</t>
+    <t xml:space="preserve">39.2010765075684</t>
   </si>
   <si>
     <t xml:space="preserve">38.5477294921875</t>
   </si>
   <si>
-    <t xml:space="preserve">37.3580436706543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.192268371582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.8802185058594</t>
+    <t xml:space="preserve">37.3580474853516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.1922721862793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.8802223205566</t>
   </si>
   <si>
     <t xml:space="preserve">35.983081817627</t>
   </si>
   <si>
-    <t xml:space="preserve">36.7924537658691</t>
+    <t xml:space="preserve">36.7924575805664</t>
   </si>
   <si>
     <t xml:space="preserve">37.2702827453613</t>
@@ -3857,37 +3857,37 @@
     <t xml:space="preserve">36.6754379272461</t>
   </si>
   <si>
-    <t xml:space="preserve">36.2561225891113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.8465614318848</t>
+    <t xml:space="preserve">36.2561264038086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.8465538024902</t>
   </si>
   <si>
     <t xml:space="preserve">34.5788612365723</t>
   </si>
   <si>
-    <t xml:space="preserve">32.7553329467773</t>
+    <t xml:space="preserve">32.7553291320801</t>
   </si>
   <si>
     <t xml:space="preserve">33.4769439697266</t>
   </si>
   <si>
-    <t xml:space="preserve">33.4671897888184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5168876647949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.3989334106445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.4086837768555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.4574432373047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7411708831787</t>
+    <t xml:space="preserve">33.4671936035156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5168895721436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.3989295959473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.4086799621582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.4574394226074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7411727905273</t>
   </si>
   <si>
     <t xml:space="preserve">30.7952766418457</t>
@@ -3896,7 +3896,7 @@
     <t xml:space="preserve">31.1365795135498</t>
   </si>
   <si>
-    <t xml:space="preserve">31.6773166656494</t>
+    <t xml:space="preserve">31.677318572998</t>
   </si>
   <si>
     <t xml:space="preserve">31.4708518981934</t>
@@ -3905,10 +3905,10 @@
     <t xml:space="preserve">31.4118633270264</t>
   </si>
   <si>
-    <t xml:space="preserve">31.7166423797607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.8247871398926</t>
+    <t xml:space="preserve">31.7166404724121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8247890472412</t>
   </si>
   <si>
     <t xml:space="preserve">32.1688957214355</t>
@@ -3935,7 +3935,7 @@
     <t xml:space="preserve">30.2320747375488</t>
   </si>
   <si>
-    <t xml:space="preserve">28.7180137634277</t>
+    <t xml:space="preserve">28.7180118560791</t>
   </si>
   <si>
     <t xml:space="preserve">26.6533851623535</t>
@@ -3947,7 +3947,7 @@
     <t xml:space="preserve">26.7025413513184</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7783756256104</t>
+    <t xml:space="preserve">25.7783737182617</t>
   </si>
   <si>
     <t xml:space="preserve">25.857027053833</t>
@@ -3965,19 +3965,19 @@
     <t xml:space="preserve">28.3542461395264</t>
   </si>
   <si>
-    <t xml:space="preserve">29.29807472229</t>
+    <t xml:space="preserve">29.2980766296387</t>
   </si>
   <si>
     <t xml:space="preserve">29.3668975830078</t>
   </si>
   <si>
-    <t xml:space="preserve">28.7770023345947</t>
+    <t xml:space="preserve">28.7770042419434</t>
   </si>
   <si>
     <t xml:space="preserve">28.6786880493164</t>
   </si>
   <si>
-    <t xml:space="preserve">28.7573394775391</t>
+    <t xml:space="preserve">28.7573413848877</t>
   </si>
   <si>
     <t xml:space="preserve">29.878137588501</t>
@@ -3989,7 +3989,7 @@
     <t xml:space="preserve">31.1955699920654</t>
   </si>
   <si>
-    <t xml:space="preserve">32.0607452392578</t>
+    <t xml:space="preserve">32.0607490539551</t>
   </si>
   <si>
     <t xml:space="preserve">30.664665222168</t>
@@ -4004,7 +4004,7 @@
     <t xml:space="preserve">28.6393604278564</t>
   </si>
   <si>
-    <t xml:space="preserve">28.1674461364746</t>
+    <t xml:space="preserve">28.167444229126</t>
   </si>
   <si>
     <t xml:space="preserve">28.7475090026855</t>
@@ -4013,10 +4013,10 @@
     <t xml:space="preserve">29.3570652008057</t>
   </si>
   <si>
-    <t xml:space="preserve">29.2784118652344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.1435928344727</t>
+    <t xml:space="preserve">29.278413772583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.143590927124</t>
   </si>
   <si>
     <t xml:space="preserve">30.6351699829102</t>
@@ -4031,16 +4031,16 @@
     <t xml:space="preserve">30.8121376037598</t>
   </si>
   <si>
-    <t xml:space="preserve">31.8346214294434</t>
+    <t xml:space="preserve">31.834623336792</t>
   </si>
   <si>
     <t xml:space="preserve">31.6674842834473</t>
   </si>
   <si>
-    <t xml:space="preserve">31.893611907959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.4188747406006</t>
+    <t xml:space="preserve">31.8936100006104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.4188766479492</t>
   </si>
   <si>
     <t xml:space="preserve">31.3332118988037</t>
@@ -4052,10 +4052,10 @@
     <t xml:space="preserve">29.8683071136475</t>
   </si>
   <si>
-    <t xml:space="preserve">30.1829166412354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4258880615234</t>
+    <t xml:space="preserve">30.182918548584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4258861541748</t>
   </si>
   <si>
     <t xml:space="preserve">29.8978023529053</t>
@@ -4064,7 +4064,7 @@
     <t xml:space="preserve">30.2124118804932</t>
   </si>
   <si>
-    <t xml:space="preserve">28.6196975708008</t>
+    <t xml:space="preserve">28.6196994781494</t>
   </si>
   <si>
     <t xml:space="preserve">28.3050880432129</t>
@@ -4073,10 +4073,10 @@
     <t xml:space="preserve">28.2264347076416</t>
   </si>
   <si>
-    <t xml:space="preserve">27.8528366088867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.203950881958</t>
+    <t xml:space="preserve">27.8528347015381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.2039527893066</t>
   </si>
   <si>
     <t xml:space="preserve">27.1744575500488</t>
@@ -4094,7 +4094,7 @@
     <t xml:space="preserve">25.3359546661377</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6112365722656</t>
+    <t xml:space="preserve">25.6112384796143</t>
   </si>
   <si>
     <t xml:space="preserve">25.050838470459</t>
@@ -4115,10 +4115,10 @@
     <t xml:space="preserve">25.4834270477295</t>
   </si>
   <si>
-    <t xml:space="preserve">25.5915756225586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8738708496094</t>
+    <t xml:space="preserve">25.59157371521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8738689422607</t>
   </si>
   <si>
     <t xml:space="preserve">24.6182498931885</t>
@@ -4154,7 +4154,7 @@
     <t xml:space="preserve">25.6702270507812</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4469223022461</t>
+    <t xml:space="preserve">26.4469203948975</t>
   </si>
   <si>
     <t xml:space="preserve">25.95534324646</t>
@@ -4166,7 +4166,7 @@
     <t xml:space="preserve">26.5845642089844</t>
   </si>
   <si>
-    <t xml:space="preserve">26.3191108703613</t>
+    <t xml:space="preserve">26.31911277771</t>
   </si>
   <si>
     <t xml:space="preserve">26.014331817627</t>
@@ -4175,7 +4175,7 @@
     <t xml:space="preserve">25.7095527648926</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9918479919434</t>
+    <t xml:space="preserve">24.991849899292</t>
   </si>
   <si>
     <t xml:space="preserve">24.1954936981201</t>
@@ -4190,13 +4190,13 @@
     <t xml:space="preserve">24.8050479888916</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7292175292969</t>
+    <t xml:space="preserve">25.7292156219482</t>
   </si>
   <si>
     <t xml:space="preserve">25.2081432342529</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4370899200439</t>
+    <t xml:space="preserve">26.4370880126953</t>
   </si>
   <si>
     <t xml:space="preserve">25.7488803863525</t>
@@ -4208,7 +4208,7 @@
     <t xml:space="preserve">25.8078689575195</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7263965606689</t>
+    <t xml:space="preserve">24.7263946533203</t>
   </si>
   <si>
     <t xml:space="preserve">24.1070079803467</t>
@@ -4217,7 +4217,7 @@
     <t xml:space="preserve">24.2643127441406</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7165660858154</t>
+    <t xml:space="preserve">24.7165641784668</t>
   </si>
   <si>
     <t xml:space="preserve">24.667407989502</t>
@@ -4226,7 +4226,7 @@
     <t xml:space="preserve">23.7137451171875</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7657222747803</t>
+    <t xml:space="preserve">24.7657241821289</t>
   </si>
   <si>
     <t xml:space="preserve">26.2011318206787</t>
@@ -4238,7 +4238,7 @@
     <t xml:space="preserve">27.6758670806885</t>
   </si>
   <si>
-    <t xml:space="preserve">28.5607089996338</t>
+    <t xml:space="preserve">28.5607070922852</t>
   </si>
   <si>
     <t xml:space="preserve">28.0887928009033</t>
@@ -4250,10 +4250,10 @@
     <t xml:space="preserve">27.1056365966797</t>
   </si>
   <si>
-    <t xml:space="preserve">27.1646251678467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9188365936279</t>
+    <t xml:space="preserve">27.164623260498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9188346862793</t>
   </si>
   <si>
     <t xml:space="preserve">26.7123737335205</t>
@@ -4265,22 +4265,22 @@
     <t xml:space="preserve">27.2826042175293</t>
   </si>
   <si>
-    <t xml:space="preserve">27.4104137420654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5480556488037</t>
+    <t xml:space="preserve">27.4104156494141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5480575561523</t>
   </si>
   <si>
     <t xml:space="preserve">26.3977642059326</t>
   </si>
   <si>
-    <t xml:space="preserve">27.1842880249023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.0592975616455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.3514270782471</t>
+    <t xml:space="preserve">27.184289932251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.0592994689941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.3514251708984</t>
   </si>
   <si>
     <t xml:space="preserve">26.5452365875244</t>
@@ -4307,13 +4307,13 @@
     <t xml:space="preserve">26.8401832580566</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4862461090088</t>
+    <t xml:space="preserve">26.4862480163574</t>
   </si>
   <si>
     <t xml:space="preserve">26.4567527770996</t>
   </si>
   <si>
-    <t xml:space="preserve">26.27978515625</t>
+    <t xml:space="preserve">26.2797832489014</t>
   </si>
   <si>
     <t xml:space="preserve">26.8500137329102</t>
@@ -4340,16 +4340,16 @@
     <t xml:space="preserve">27.3710880279541</t>
   </si>
   <si>
-    <t xml:space="preserve">26.3682689666748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4960784912109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9974899291992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0368137359619</t>
+    <t xml:space="preserve">26.3682670593262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4960803985596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9974880218506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0368156433105</t>
   </si>
   <si>
     <t xml:space="preserve">26.6337223052979</t>
@@ -4373,25 +4373,25 @@
     <t xml:space="preserve">25.3064594268799</t>
   </si>
   <si>
-    <t xml:space="preserve">25.109827041626</t>
+    <t xml:space="preserve">25.1098289489746</t>
   </si>
   <si>
     <t xml:space="preserve">24.8443756103516</t>
   </si>
   <si>
-    <t xml:space="preserve">28.0199737548828</t>
+    <t xml:space="preserve">28.0199718475342</t>
   </si>
   <si>
     <t xml:space="preserve">27.3317623138428</t>
   </si>
   <si>
-    <t xml:space="preserve">27.5283946990967</t>
+    <t xml:space="preserve">27.528392791748</t>
   </si>
   <si>
     <t xml:space="preserve">26.1519737243652</t>
   </si>
   <si>
-    <t xml:space="preserve">26.879508972168</t>
+    <t xml:space="preserve">26.8795108795166</t>
   </si>
   <si>
     <t xml:space="preserve">27.6856994628906</t>
@@ -4400,10 +4400,10 @@
     <t xml:space="preserve">26.9384994506836</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5943946838379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0171508789062</t>
+    <t xml:space="preserve">26.5943927764893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0171527862549</t>
   </si>
   <si>
     <t xml:space="preserve">26.8991737365723</t>
@@ -4412,7 +4412,7 @@
     <t xml:space="preserve">27.7446880340576</t>
   </si>
   <si>
-    <t xml:space="preserve">29.6126880645752</t>
+    <t xml:space="preserve">29.6126861572266</t>
   </si>
   <si>
     <t xml:space="preserve">28.9736328125</t>
@@ -4427,28 +4427,28 @@
     <t xml:space="preserve">28.6590232849121</t>
   </si>
   <si>
-    <t xml:space="preserve">28.531213760376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4652118682861</t>
+    <t xml:space="preserve">28.5312156677246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4652137756348</t>
   </si>
   <si>
     <t xml:space="preserve">28.855655670166</t>
   </si>
   <si>
-    <t xml:space="preserve">29.3275699615479</t>
+    <t xml:space="preserve">29.3275718688965</t>
   </si>
   <si>
     <t xml:space="preserve">29.6225185394287</t>
   </si>
   <si>
-    <t xml:space="preserve">30.1042652130127</t>
+    <t xml:space="preserve">30.1042671203613</t>
   </si>
   <si>
     <t xml:space="preserve">31.1169166564941</t>
   </si>
   <si>
-    <t xml:space="preserve">31.4020309448242</t>
+    <t xml:space="preserve">31.4020328521729</t>
   </si>
   <si>
     <t xml:space="preserve">31.2938842773438</t>
@@ -4457,7 +4457,7 @@
     <t xml:space="preserve">31.7264728546143</t>
   </si>
   <si>
-    <t xml:space="preserve">31.952600479126</t>
+    <t xml:space="preserve">31.9525985717773</t>
   </si>
   <si>
     <t xml:space="preserve">32.0902404785156</t>
@@ -4472,10 +4472,10 @@
     <t xml:space="preserve">32.1492309570312</t>
   </si>
   <si>
-    <t xml:space="preserve">31.7461357116699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.39501953125</t>
+    <t xml:space="preserve">31.7461395263672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3950233459473</t>
   </si>
   <si>
     <t xml:space="preserve">32.4638404846191</t>
@@ -4496,7 +4496,7 @@
     <t xml:space="preserve">32.8177795410156</t>
   </si>
   <si>
-    <t xml:space="preserve">33.220874786377</t>
+    <t xml:space="preserve">33.2208709716797</t>
   </si>
   <si>
     <t xml:space="preserve">32.7194595336914</t>
@@ -4505,7 +4505,7 @@
     <t xml:space="preserve">32.5621566772461</t>
   </si>
   <si>
-    <t xml:space="preserve">34.8922386169434</t>
+    <t xml:space="preserve">34.8922424316406</t>
   </si>
   <si>
     <t xml:space="preserve">34.2728500366211</t>
@@ -4517,10 +4517,10 @@
     <t xml:space="preserve">35.2461738586426</t>
   </si>
   <si>
-    <t xml:space="preserve">34.8430786132812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.7251052856445</t>
+    <t xml:space="preserve">34.8430824279785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.7251014709473</t>
   </si>
   <si>
     <t xml:space="preserve">35.1871871948242</t>
@@ -4532,7 +4532,7 @@
     <t xml:space="preserve">35.1281967163086</t>
   </si>
   <si>
-    <t xml:space="preserve">34.3318405151367</t>
+    <t xml:space="preserve">34.3318367004395</t>
   </si>
   <si>
     <t xml:space="preserve">33.5354843139648</t>
@@ -5235,6 +5235,9 @@
   </si>
   <si>
     <t xml:space="preserve">34.2400016784668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.6399993896484</t>
   </si>
 </sst>
 </file>
@@ -61476,7 +61479,7 @@
     </row>
     <row r="2151">
       <c r="A2151" s="1" t="n">
-        <v>45456.6494212963</v>
+        <v>45456.2916666667</v>
       </c>
       <c r="B2151" t="n">
         <v>370236</v>
@@ -61497,6 +61500,32 @@
         <v>1740</v>
       </c>
       <c r="H2151" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2152">
+      <c r="A2152" s="1" t="n">
+        <v>45457.6496412037</v>
+      </c>
+      <c r="B2152" t="n">
+        <v>889323</v>
+      </c>
+      <c r="C2152" t="n">
+        <v>35.1399993896484</v>
+      </c>
+      <c r="D2152" t="n">
+        <v>34.0200004577637</v>
+      </c>
+      <c r="E2152" t="n">
+        <v>34.2099990844727</v>
+      </c>
+      <c r="F2152" t="n">
+        <v>34.6399993896484</v>
+      </c>
+      <c r="G2152" t="s">
+        <v>1741</v>
+      </c>
+      <c r="H2152" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/AMP.MI.xlsx
+++ b/data/AMP.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1742" uniqueCount="1742">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1743" uniqueCount="1743">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,43 +38,43 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">7.44491052627563</t>
+    <t xml:space="preserve">7.44491147994995</t>
   </si>
   <si>
     <t xml:space="preserve">AMP.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">7.50163507461548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.42127656936646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47799921035767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.26056146621704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06675672531128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32673740386963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38818788528442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27001571655273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13766145706177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19438362121582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30310392379761</t>
+    <t xml:space="preserve">7.50163459777832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.42127704620361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47799968719482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.26056098937988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06675720214844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32673788070679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38818836212158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27001428604126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13766098022461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19438409805298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30310344696045</t>
   </si>
   <si>
     <t xml:space="preserve">7.09039211273193</t>
@@ -92,13 +92,13 @@
     <t xml:space="preserve">7.46381902694702</t>
   </si>
   <si>
-    <t xml:space="preserve">7.25583457946777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.28892183303833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52054357528687</t>
+    <t xml:space="preserve">7.25583410263062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.28892278671265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52054262161255</t>
   </si>
   <si>
     <t xml:space="preserve">7.39291524887085</t>
@@ -110,13 +110,13 @@
     <t xml:space="preserve">7.15656852722168</t>
   </si>
   <si>
-    <t xml:space="preserve">6.94858407974243</t>
+    <t xml:space="preserve">6.94858360290527</t>
   </si>
   <si>
     <t xml:space="preserve">6.60824489593506</t>
   </si>
   <si>
-    <t xml:space="preserve">6.55152177810669</t>
+    <t xml:space="preserve">6.55152273178101</t>
   </si>
   <si>
     <t xml:space="preserve">6.68860244750977</t>
@@ -125,28 +125,28 @@
     <t xml:space="preserve">6.42862176895142</t>
   </si>
   <si>
-    <t xml:space="preserve">6.38607931137085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51843357086182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71696519851685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98639917373657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81150341033936</t>
+    <t xml:space="preserve">6.38607978820801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51843404769897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71696424484253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98639965057373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8115029335022</t>
   </si>
   <si>
     <t xml:space="preserve">6.9391303062439</t>
   </si>
   <si>
-    <t xml:space="preserve">6.80204916000366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72641849517822</t>
+    <t xml:space="preserve">6.8020486831665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72641801834106</t>
   </si>
   <si>
     <t xml:space="preserve">7.09984588623047</t>
@@ -155,61 +155,61 @@
     <t xml:space="preserve">6.99585342407227</t>
   </si>
   <si>
-    <t xml:space="preserve">6.90604066848755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9013147354126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94385671615601</t>
+    <t xml:space="preserve">6.90604162216187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90131521224976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94385719299316</t>
   </si>
   <si>
     <t xml:space="preserve">6.7595067024231</t>
   </si>
   <si>
-    <t xml:space="preserve">6.73114538192749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89658737182617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88713407516479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96276473999023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11402654647827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.21801900863647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18965673446655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31728410720825</t>
+    <t xml:space="preserve">6.73114442825317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89658784866333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88713359832764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96276426315308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11402559280396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.21801853179932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18965625762939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31728458404541</t>
   </si>
   <si>
     <t xml:space="preserve">7.21329212188721</t>
   </si>
   <si>
-    <t xml:space="preserve">7.1471152305603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35037231445312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20383787155151</t>
+    <t xml:space="preserve">7.14711475372314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35037279129028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20383834838867</t>
   </si>
   <si>
     <t xml:space="preserve">7.27946901321411</t>
   </si>
   <si>
-    <t xml:space="preserve">7.03839540481567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01948881149292</t>
+    <t xml:space="preserve">7.03839588165283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01948833465576</t>
   </si>
   <si>
     <t xml:space="preserve">7.10929918289185</t>
@@ -218,7 +218,7 @@
     <t xml:space="preserve">7.37873458862305</t>
   </si>
   <si>
-    <t xml:space="preserve">7.4354567527771</t>
+    <t xml:space="preserve">7.43545770645142</t>
   </si>
   <si>
     <t xml:space="preserve">7.33619213104248</t>
@@ -227,85 +227,85 @@
     <t xml:space="preserve">7.61508083343506</t>
   </si>
   <si>
-    <t xml:space="preserve">7.52526950836182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59617328643799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69071245193481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66707706451416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.84669923782349</t>
+    <t xml:space="preserve">7.52526903152466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59617376327515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6907114982605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66707754135132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8467001914978</t>
   </si>
   <si>
     <t xml:space="preserve">7.71434640884399</t>
   </si>
   <si>
-    <t xml:space="preserve">7.75688982009888</t>
+    <t xml:space="preserve">7.7568883895874</t>
   </si>
   <si>
     <t xml:space="preserve">7.81833839416504</t>
   </si>
   <si>
-    <t xml:space="preserve">7.85142850875854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00268936157227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00741577148438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98850774765015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9034218788147</t>
+    <t xml:space="preserve">7.85142755508423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00269031524658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00741672515869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9885082244873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90342283248901</t>
   </si>
   <si>
     <t xml:space="preserve">8.06413745880127</t>
   </si>
   <si>
-    <t xml:space="preserve">7.997962474823</t>
+    <t xml:space="preserve">7.99796295166016</t>
   </si>
   <si>
     <t xml:space="preserve">8.21067333221436</t>
   </si>
   <si>
-    <t xml:space="preserve">8.13751697540283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21827411651611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22777557373047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.17076873779297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29428005218506</t>
+    <t xml:space="preserve">8.13751602172852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21827507019043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22777366638184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.17076969146729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29428195953369</t>
   </si>
   <si>
     <t xml:space="preserve">8.33703517913818</t>
   </si>
   <si>
-    <t xml:space="preserve">8.3607873916626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34653568267822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28003025054932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19927215576172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.20402336120605</t>
+    <t xml:space="preserve">8.36078834533691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34653663635254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.280029296875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19927310943604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.20402240753174</t>
   </si>
   <si>
     <t xml:space="preserve">8.26577854156494</t>
@@ -317,37 +317,37 @@
     <t xml:space="preserve">8.03300666809082</t>
   </si>
   <si>
-    <t xml:space="preserve">7.93799829483032</t>
+    <t xml:space="preserve">7.93799686431885</t>
   </si>
   <si>
     <t xml:space="preserve">7.75748109817505</t>
   </si>
   <si>
-    <t xml:space="preserve">7.74322891235352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76698207855225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67197275161743</t>
+    <t xml:space="preserve">7.74322938919067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76698160171509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67197227478027</t>
   </si>
   <si>
     <t xml:space="preserve">7.75273036956787</t>
   </si>
   <si>
-    <t xml:space="preserve">8.1090145111084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.06625938415527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.18027114868164</t>
+    <t xml:space="preserve">8.10901355743408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.06626033782959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.18027210235596</t>
   </si>
   <si>
     <t xml:space="preserve">7.79073333740234</t>
   </si>
   <si>
-    <t xml:space="preserve">7.82873725891113</t>
+    <t xml:space="preserve">7.82873678207397</t>
   </si>
   <si>
     <t xml:space="preserve">7.83823871612549</t>
@@ -359,22 +359,22 @@
     <t xml:space="preserve">8.0472583770752</t>
   </si>
   <si>
-    <t xml:space="preserve">8.00925350189209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92849636077881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83348846435547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99975347518921</t>
+    <t xml:space="preserve">8.00925540924072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92849683761597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83348798751831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99975442886353</t>
   </si>
   <si>
     <t xml:space="preserve">8.08051109313965</t>
   </si>
   <si>
-    <t xml:space="preserve">8.03775691986084</t>
+    <t xml:space="preserve">8.03775787353516</t>
   </si>
   <si>
     <t xml:space="preserve">8.0282564163208</t>
@@ -389,13 +389,13 @@
     <t xml:space="preserve">8.28953075408936</t>
   </si>
   <si>
-    <t xml:space="preserve">8.31803321838379</t>
+    <t xml:space="preserve">8.31803417205811</t>
   </si>
   <si>
     <t xml:space="preserve">8.31328392028809</t>
   </si>
   <si>
-    <t xml:space="preserve">8.43204402923584</t>
+    <t xml:space="preserve">8.43204307556152</t>
   </si>
   <si>
     <t xml:space="preserve">8.48904895782471</t>
@@ -407,31 +407,31 @@
     <t xml:space="preserve">8.45579624176025</t>
   </si>
   <si>
-    <t xml:space="preserve">8.41779232025146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27527904510498</t>
+    <t xml:space="preserve">8.41779327392578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2752799987793</t>
   </si>
   <si>
     <t xml:space="preserve">8.41304111480713</t>
   </si>
   <si>
-    <t xml:space="preserve">8.49380111694336</t>
+    <t xml:space="preserve">8.49380016326904</t>
   </si>
   <si>
     <t xml:space="preserve">8.63631343841553</t>
   </si>
   <si>
-    <t xml:space="preserve">8.73607349395752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64106559753418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76457786560059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.88808822631836</t>
+    <t xml:space="preserve">8.73607158660889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64106464385986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76457595825195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.88808631896973</t>
   </si>
   <si>
     <t xml:space="preserve">8.78357791900635</t>
@@ -443,34 +443,34 @@
     <t xml:space="preserve">8.94034290313721</t>
   </si>
   <si>
-    <t xml:space="preserve">9.05435371398926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97834491729736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.94984245300293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.878586769104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.88333702087402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9545955657959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.86433506011963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90233898162842</t>
+    <t xml:space="preserve">9.05435276031494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97834587097168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.94984340667725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.87858581542969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.88333797454834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.95459365844727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.86433601379395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90233993530273</t>
   </si>
   <si>
     <t xml:space="preserve">8.89283657073975</t>
   </si>
   <si>
-    <t xml:space="preserve">8.78832721710205</t>
+    <t xml:space="preserve">8.78832817077637</t>
   </si>
   <si>
     <t xml:space="preserve">8.72182178497314</t>
@@ -479,16 +479,16 @@
     <t xml:space="preserve">8.70281982421875</t>
   </si>
   <si>
-    <t xml:space="preserve">8.68856906890869</t>
+    <t xml:space="preserve">8.68856811523438</t>
   </si>
   <si>
     <t xml:space="preserve">8.6125602722168</t>
   </si>
   <si>
-    <t xml:space="preserve">8.66956806182861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66006660461426</t>
+    <t xml:space="preserve">8.66956615447998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66006565093994</t>
   </si>
   <si>
     <t xml:space="preserve">8.79782962799072</t>
@@ -497,43 +497,43 @@
     <t xml:space="preserve">8.62681293487549</t>
   </si>
   <si>
-    <t xml:space="preserve">8.74557495117188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62206077575684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68381786346436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74082374572754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59356021881104</t>
+    <t xml:space="preserve">8.74557399749756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62206172943115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68381881713867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74082469940186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59355926513672</t>
   </si>
   <si>
     <t xml:space="preserve">8.65531539916992</t>
   </si>
   <si>
-    <t xml:space="preserve">8.69331932067871</t>
+    <t xml:space="preserve">8.69331836700439</t>
   </si>
   <si>
     <t xml:space="preserve">8.82158088684082</t>
   </si>
   <si>
-    <t xml:space="preserve">9.21586894989014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.38688373565674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20636653900146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14936351776123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02585124969482</t>
+    <t xml:space="preserve">9.21586799621582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.38688468933105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2063684463501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.14936256408691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02585029602051</t>
   </si>
   <si>
     <t xml:space="preserve">9.07335472106934</t>
@@ -542,22 +542,22 @@
     <t xml:space="preserve">8.94509315490723</t>
   </si>
   <si>
-    <t xml:space="preserve">8.63156318664551</t>
+    <t xml:space="preserve">8.63156223297119</t>
   </si>
   <si>
     <t xml:space="preserve">8.55080604553223</t>
   </si>
   <si>
-    <t xml:space="preserve">8.5270528793335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52230358123779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71232223510742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47004890441895</t>
+    <t xml:space="preserve">8.52705192565918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52230262756348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71232032775879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47004699707031</t>
   </si>
   <si>
     <t xml:space="preserve">8.5888090133667</t>
@@ -566,73 +566,73 @@
     <t xml:space="preserve">8.5080509185791</t>
   </si>
   <si>
-    <t xml:space="preserve">8.59831047058105</t>
+    <t xml:space="preserve">8.59830951690674</t>
   </si>
   <si>
     <t xml:space="preserve">9.12085914611816</t>
   </si>
   <si>
-    <t xml:space="preserve">9.23486995697021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19686698913574</t>
+    <t xml:space="preserve">9.23487091064453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19686603546143</t>
   </si>
   <si>
     <t xml:space="preserve">8.6458158493042</t>
   </si>
   <si>
-    <t xml:space="preserve">8.28478050231934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.43679618835449</t>
+    <t xml:space="preserve">8.28478145599365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.43679523468018</t>
   </si>
   <si>
     <t xml:space="preserve">7.5532112121582</t>
   </si>
   <si>
-    <t xml:space="preserve">8.10426139831543</t>
+    <t xml:space="preserve">8.10426330566406</t>
   </si>
   <si>
     <t xml:space="preserve">8.07576084136963</t>
   </si>
   <si>
-    <t xml:space="preserve">8.51280117034912</t>
+    <t xml:space="preserve">8.51280307769775</t>
   </si>
   <si>
     <t xml:space="preserve">8.53655433654785</t>
   </si>
   <si>
-    <t xml:space="preserve">8.57455825805664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.60781097412109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49854946136475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35603809356689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30853176116943</t>
+    <t xml:space="preserve">8.57455730438232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.60781192779541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.49855136871338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35603713989258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30853271484375</t>
   </si>
   <si>
     <t xml:space="preserve">8.5033016204834</t>
   </si>
   <si>
-    <t xml:space="preserve">8.70756912231445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77882671356201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85483360290527</t>
+    <t xml:space="preserve">8.70757007598877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77882862091064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85483264923096</t>
   </si>
   <si>
     <t xml:space="preserve">8.80257987976074</t>
   </si>
   <si>
-    <t xml:space="preserve">8.87383651733398</t>
+    <t xml:space="preserve">8.87383556365967</t>
   </si>
   <si>
     <t xml:space="preserve">8.84058284759521</t>
@@ -641,37 +641,37 @@
     <t xml:space="preserve">9.29187488555908</t>
   </si>
   <si>
-    <t xml:space="preserve">9.10185623168945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27762413024902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40588474273682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47714424133301</t>
+    <t xml:space="preserve">9.10185718536377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27762603759766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40588569641113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47714328765869</t>
   </si>
   <si>
     <t xml:space="preserve">9.54839992523193</t>
   </si>
   <si>
-    <t xml:space="preserve">9.51989650726318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43438911437988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50089454650879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.58640384674072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62440490722656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.57690238952637</t>
+    <t xml:space="preserve">9.5198974609375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43438816070557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50089550018311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.58640098571777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62440586090088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.57690334320068</t>
   </si>
   <si>
     <t xml:space="preserve">9.49614429473877</t>
@@ -680,142 +680,142 @@
     <t xml:space="preserve">9.24912166595459</t>
   </si>
   <si>
-    <t xml:space="preserve">9.24437141418457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2966251373291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60540390014648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.95693874359131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1089515686035</t>
+    <t xml:space="preserve">9.24437046051025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.29662609100342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6054048538208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.95693683624268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1089525222778</t>
   </si>
   <si>
     <t xml:space="preserve">9.9759407043457</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0614490509033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.78592300415039</t>
+    <t xml:space="preserve">10.0614471435547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.78592109680176</t>
   </si>
   <si>
     <t xml:space="preserve">9.85242938995361</t>
   </si>
   <si>
-    <t xml:space="preserve">9.86192989349365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.80492401123047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.93793487548828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1754589080811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1564559936523</t>
+    <t xml:space="preserve">9.86192893981934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.80492305755615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9379358291626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1754579544067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1564569473267</t>
   </si>
   <si>
     <t xml:space="preserve">10.3369731903076</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3939790725708</t>
+    <t xml:space="preserve">10.3939781188965</t>
   </si>
   <si>
     <t xml:space="preserve">10.4129810333252</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5839986801147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6315011978149</t>
+    <t xml:space="preserve">10.5839977264404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6315021514893</t>
   </si>
   <si>
     <t xml:space="preserve">10.5174903869629</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4889879226685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7360124588013</t>
+    <t xml:space="preserve">10.4889869689941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.736011505127</t>
   </si>
   <si>
     <t xml:space="preserve">10.6695051193237</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6600036621094</t>
+    <t xml:space="preserve">10.6600027084351</t>
   </si>
   <si>
     <t xml:space="preserve">10.9735326766968</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0495414733887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8785247802734</t>
+    <t xml:space="preserve">11.0495405197144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8785257339478</t>
   </si>
   <si>
     <t xml:space="preserve">10.8120183944702</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8025178909302</t>
+    <t xml:space="preserve">10.8025169372559</t>
   </si>
   <si>
     <t xml:space="preserve">10.7835168838501</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8690223693848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0590410232544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0020370483398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0970458984375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1635513305664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2965669631958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2585611343384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4200773239136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1255474090576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3725709915161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3345670700073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3155660629272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3535690307617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.448579788208</t>
+    <t xml:space="preserve">10.8690233230591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0590419769287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0020360946655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0970449447632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1635503768921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2965641021729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2585601806641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4200754165649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1255464553833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3725728988647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.334568977356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3155679702759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3535709381104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4485788345337</t>
   </si>
   <si>
     <t xml:space="preserve">11.6005935668945</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5815896987915</t>
+    <t xml:space="preserve">11.5815925598145</t>
   </si>
   <si>
     <t xml:space="preserve">11.6290950775146</t>
@@ -830,22 +830,22 @@
     <t xml:space="preserve">12.0399837493896</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1259832382202</t>
+    <t xml:space="preserve">12.1259841918945</t>
   </si>
   <si>
     <t xml:space="preserve">12.0973176956177</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1068735122681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1164283752441</t>
+    <t xml:space="preserve">12.1068725585938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1164293289185</t>
   </si>
   <si>
     <t xml:space="preserve">12.145094871521</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2406511306763</t>
+    <t xml:space="preserve">12.240650177002</t>
   </si>
   <si>
     <t xml:space="preserve">12.2788724899292</t>
@@ -860,10 +860,10 @@
     <t xml:space="preserve">12.3648719787598</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4222059249878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.087760925293</t>
+    <t xml:space="preserve">12.4222049713135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0877618789673</t>
   </si>
   <si>
     <t xml:space="preserve">12.3266496658325</t>
@@ -872,7 +872,7 @@
     <t xml:space="preserve">11.6577625274658</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4666519165039</t>
+    <t xml:space="preserve">11.4666509628296</t>
   </si>
   <si>
     <t xml:space="preserve">11.8679838180542</t>
@@ -881,46 +881,46 @@
     <t xml:space="preserve">11.9062061309814</t>
   </si>
   <si>
-    <t xml:space="preserve">11.944429397583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9348726272583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8010969161987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7437610626221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6959838867188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.638650894165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5430946350098</t>
+    <t xml:space="preserve">11.9444284439087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9348745346069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8010959625244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7437629699707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6959848403931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6386499404907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5430955886841</t>
   </si>
   <si>
     <t xml:space="preserve">11.2468738555908</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0462083816528</t>
+    <t xml:space="preserve">11.0462074279785</t>
   </si>
   <si>
     <t xml:space="preserve">10.8550977706909</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7213182449341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.769097328186</t>
+    <t xml:space="preserve">10.7213191986084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7690954208374</t>
   </si>
   <si>
     <t xml:space="preserve">10.9028739929199</t>
   </si>
   <si>
-    <t xml:space="preserve">11.074875831604</t>
+    <t xml:space="preserve">11.0748739242554</t>
   </si>
   <si>
     <t xml:space="preserve">11.0653190612793</t>
@@ -929,28 +929,28 @@
     <t xml:space="preserve">11.1130962371826</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3042068481445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5239839553833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5526494979858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5144300460815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.58131980896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4379844665527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6768741607666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6004295349121</t>
+    <t xml:space="preserve">11.3042078018188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5239858627319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5526514053345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5144290924072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.581316947937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4379835128784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6768732070923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6004285812378</t>
   </si>
   <si>
     <t xml:space="preserve">11.5048732757568</t>
@@ -959,13 +959,13 @@
     <t xml:space="preserve">11.4475393295288</t>
   </si>
   <si>
-    <t xml:space="preserve">11.418872833252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2755403518677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1990966796875</t>
+    <t xml:space="preserve">11.4188737869263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.275541305542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1990957260132</t>
   </si>
   <si>
     <t xml:space="preserve">11.0844297409058</t>
@@ -974,16 +974,16 @@
     <t xml:space="preserve">10.8264293670654</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9984302520752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9506530761719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3615427017212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3328723907471</t>
+    <t xml:space="preserve">10.9984283447266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9506521224976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3615398406982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3328742980957</t>
   </si>
   <si>
     <t xml:space="preserve">11.2373180389404</t>
@@ -995,7 +995,7 @@
     <t xml:space="preserve">11.4857635498047</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4953174591064</t>
+    <t xml:space="preserve">11.4953193664551</t>
   </si>
   <si>
     <t xml:space="preserve">11.4093179702759</t>
@@ -1007,31 +1007,31 @@
     <t xml:space="preserve">11.2564296722412</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3424282073975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6099843978882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8966512680054</t>
+    <t xml:space="preserve">11.3424301147461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6099853515625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8966522216797</t>
   </si>
   <si>
     <t xml:space="preserve">11.992205619812</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1642055511475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1928730010986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1355390548706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2310953140259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2215385437012</t>
+    <t xml:space="preserve">12.1642065048218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1928720474243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1355400085449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2310943603516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2215394973755</t>
   </si>
   <si>
     <t xml:space="preserve">12.2597608566284</t>
@@ -1040,13 +1040,13 @@
     <t xml:space="preserve">12.1546506881714</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0113172531128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4030933380127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3362054824829</t>
+    <t xml:space="preserve">12.0113182067871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.403094291687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3362073898315</t>
   </si>
   <si>
     <t xml:space="preserve">12.2884273529053</t>
@@ -1058,25 +1058,25 @@
     <t xml:space="preserve">12.7088718414307</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8330955505371</t>
+    <t xml:space="preserve">12.8330945968628</t>
   </si>
   <si>
     <t xml:space="preserve">12.9764270782471</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0050926208496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0242052078247</t>
+    <t xml:space="preserve">13.0050935745239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0242042541504</t>
   </si>
   <si>
     <t xml:space="preserve">12.9955387115479</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3744268417358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9635391235352</t>
+    <t xml:space="preserve">12.3744287490845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9635400772095</t>
   </si>
   <si>
     <t xml:space="preserve">12.0304279327393</t>
@@ -1085,19 +1085,19 @@
     <t xml:space="preserve">12.2119836807251</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3553161621094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4604272842407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0782070159912</t>
+    <t xml:space="preserve">12.355318069458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4604263305664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0782060623169</t>
   </si>
   <si>
     <t xml:space="preserve">11.6195392608643</t>
   </si>
   <si>
-    <t xml:space="preserve">11.734206199646</t>
+    <t xml:space="preserve">11.7342071533203</t>
   </si>
   <si>
     <t xml:space="preserve">11.5717630386353</t>
@@ -1115,7 +1115,7 @@
     <t xml:space="preserve">12.250205039978</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3839845657349</t>
+    <t xml:space="preserve">12.3839826583862</t>
   </si>
   <si>
     <t xml:space="preserve">12.3170957565308</t>
@@ -1136,7 +1136,7 @@
     <t xml:space="preserve">12.3075389862061</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7279834747314</t>
+    <t xml:space="preserve">12.7279825210571</t>
   </si>
   <si>
     <t xml:space="preserve">12.7375392913818</t>
@@ -1145,16 +1145,16 @@
     <t xml:space="preserve">12.6897602081299</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8235387802124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3299827575684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.320426940918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2822036743164</t>
+    <t xml:space="preserve">12.8235378265381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.329981803894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3204250335693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2822027206421</t>
   </si>
   <si>
     <t xml:space="preserve">13.1484270095825</t>
@@ -1166,43 +1166,43 @@
     <t xml:space="preserve">13.6644258499146</t>
   </si>
   <si>
-    <t xml:space="preserve">13.740870475769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7599811553955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8077583312988</t>
+    <t xml:space="preserve">13.7408695220947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7599802017212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8077592849731</t>
   </si>
   <si>
     <t xml:space="preserve">13.7122039794922</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4542045593262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6739835739136</t>
+    <t xml:space="preserve">13.4542036056519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6739816665649</t>
   </si>
   <si>
     <t xml:space="preserve">13.5019817352295</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1675386428833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8044271469116</t>
+    <t xml:space="preserve">13.167537689209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8044261932373</t>
   </si>
   <si>
     <t xml:space="preserve">12.5942058563232</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5655374526978</t>
+    <t xml:space="preserve">12.5655393600464</t>
   </si>
   <si>
     <t xml:space="preserve">12.6515378952026</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6993169784546</t>
+    <t xml:space="preserve">12.6993160247803</t>
   </si>
   <si>
     <t xml:space="preserve">13.0146493911743</t>
@@ -1211,7 +1211,7 @@
     <t xml:space="preserve">13.071982383728</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0433168411255</t>
+    <t xml:space="preserve">13.0433158874512</t>
   </si>
   <si>
     <t xml:space="preserve">12.7853155136108</t>
@@ -1220,25 +1220,25 @@
     <t xml:space="preserve">12.4699831008911</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4413175582886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9190950393677</t>
+    <t xml:space="preserve">12.4413166046143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9190940856934</t>
   </si>
   <si>
     <t xml:space="preserve">13.2344274520874</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2917594909668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4637603759766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6070928573608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5306491851807</t>
+    <t xml:space="preserve">13.2917604446411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4637594223022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6070919036865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.530647277832</t>
   </si>
   <si>
     <t xml:space="preserve">13.521092414856</t>
@@ -1250,16 +1250,16 @@
     <t xml:space="preserve">13.5402040481567</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4446477890015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0815372467041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0528717041016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4924249649048</t>
+    <t xml:space="preserve">13.4446487426758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0815382003784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0528707504272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4924259185791</t>
   </si>
   <si>
     <t xml:space="preserve">13.7695379257202</t>
@@ -1268,28 +1268,28 @@
     <t xml:space="preserve">13.8459815979004</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5115385055542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9988698959351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2090930938721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3524265289307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6104249954224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5148687362671</t>
+    <t xml:space="preserve">13.5115375518799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9988708496094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2090921401978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3524255752563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6104259490967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5148696899414</t>
   </si>
   <si>
     <t xml:space="preserve">14.7824249267578</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8206472396851</t>
+    <t xml:space="preserve">14.8206462860107</t>
   </si>
   <si>
     <t xml:space="preserve">14.9066467285156</t>
@@ -1301,10 +1301,10 @@
     <t xml:space="preserve">15.0786466598511</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3366441726685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1933116912842</t>
+    <t xml:space="preserve">15.3366460800171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1933135986328</t>
   </si>
   <si>
     <t xml:space="preserve">15.2219791412354</t>
@@ -1313,7 +1313,7 @@
     <t xml:space="preserve">15.2602024078369</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1264228820801</t>
+    <t xml:space="preserve">15.1264247894287</t>
   </si>
   <si>
     <t xml:space="preserve">15.116868019104</t>
@@ -1322,55 +1322,55 @@
     <t xml:space="preserve">14.9353132247925</t>
   </si>
   <si>
-    <t xml:space="preserve">14.811089515686</t>
+    <t xml:space="preserve">14.811092376709</t>
   </si>
   <si>
     <t xml:space="preserve">15.3939790725708</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4990901947021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4704246520996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4799795150757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6710891723633</t>
+    <t xml:space="preserve">15.4990911483765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4704236984253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4799814224243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.671088218689</t>
   </si>
   <si>
     <t xml:space="preserve">15.6233129501343</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7857599258423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8908662796021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6519784927368</t>
+    <t xml:space="preserve">15.785756111145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8908653259277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6519794464111</t>
   </si>
   <si>
     <t xml:space="preserve">15.2410907745361</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5755338668823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0401563644409</t>
+    <t xml:space="preserve">15.5755348205566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0401554107666</t>
   </si>
   <si>
     <t xml:space="preserve">14.8861932754517</t>
   </si>
   <si>
-    <t xml:space="preserve">14.559024810791</t>
+    <t xml:space="preserve">14.5590238571167</t>
   </si>
   <si>
     <t xml:space="preserve">14.8284578323364</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9535512924194</t>
+    <t xml:space="preserve">14.9535522460938</t>
   </si>
   <si>
     <t xml:space="preserve">15.0978908538818</t>
@@ -1379,7 +1379,7 @@
     <t xml:space="preserve">14.1356296539307</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6167593002319</t>
+    <t xml:space="preserve">14.6167612075806</t>
   </si>
   <si>
     <t xml:space="preserve">14.8380813598633</t>
@@ -1388,16 +1388,16 @@
     <t xml:space="preserve">14.8477029800415</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4154376983643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7233629226685</t>
+    <t xml:space="preserve">15.4154386520386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7233610153198</t>
   </si>
   <si>
     <t xml:space="preserve">16.3584537506104</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7048683166504</t>
+    <t xml:space="preserve">16.704870223999</t>
   </si>
   <si>
     <t xml:space="preserve">16.3969459533691</t>
@@ -1406,7 +1406,7 @@
     <t xml:space="preserve">16.406566619873</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4450569152832</t>
+    <t xml:space="preserve">16.4450607299805</t>
   </si>
   <si>
     <t xml:space="preserve">16.4546813964844</t>
@@ -1415,34 +1415,34 @@
     <t xml:space="preserve">16.5701522827148</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3488311767578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3103408813477</t>
+    <t xml:space="preserve">16.3488292694092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3103427886963</t>
   </si>
   <si>
     <t xml:space="preserve">16.7722282409668</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9743003845215</t>
+    <t xml:space="preserve">16.9743022918701</t>
   </si>
   <si>
     <t xml:space="preserve">16.9165668487549</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8203392028809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5509052276611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5027923583984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9261894226074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0897750854492</t>
+    <t xml:space="preserve">16.8203430175781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5509071350098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5027942657471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9261875152588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0897731781006</t>
   </si>
   <si>
     <t xml:space="preserve">17.1378860473633</t>
@@ -1451,46 +1451,46 @@
     <t xml:space="preserve">17.3014717102051</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1763782501221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0224170684814</t>
+    <t xml:space="preserve">17.1763801574707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0224151611328</t>
   </si>
   <si>
     <t xml:space="preserve">16.6182670593262</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6952476501465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4643039703369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6471328735352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8010940551758</t>
+    <t xml:space="preserve">16.6952457427979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4643020629883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6471347808838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8010959625244</t>
   </si>
   <si>
     <t xml:space="preserve">16.608642578125</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7626056671143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3592090606689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8018474578857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2156181335449</t>
+    <t xml:space="preserve">16.7626037597656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3592071533203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8018493652344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2156200408936</t>
   </si>
   <si>
     <t xml:space="preserve">17.7056217193604</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3503379821777</t>
+    <t xml:space="preserve">18.3503360748291</t>
   </si>
   <si>
     <t xml:space="preserve">18.436939239502</t>
@@ -1505,7 +1505,7 @@
     <t xml:space="preserve">18.6871299743652</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5235424041748</t>
+    <t xml:space="preserve">18.5235462188721</t>
   </si>
   <si>
     <t xml:space="preserve">18.3407154083252</t>
@@ -1514,40 +1514,40 @@
     <t xml:space="preserve">18.1290168762207</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8980770111084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.052038192749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0231666564941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5716552734375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6486396789551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4754295349121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3022232055664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3792057037354</t>
+    <t xml:space="preserve">17.8980731964111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0520343780518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0231685638428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5716571807861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6486377716064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4754314422607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3022212982178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3792037963867</t>
   </si>
   <si>
     <t xml:space="preserve">18.4850540161133</t>
   </si>
   <si>
-    <t xml:space="preserve">18.331090927124</t>
+    <t xml:space="preserve">18.3310928344727</t>
   </si>
   <si>
     <t xml:space="preserve">18.2059993743896</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2733554840088</t>
+    <t xml:space="preserve">18.2733535766602</t>
   </si>
   <si>
     <t xml:space="preserve">17.8403396606445</t>
@@ -1559,25 +1559,25 @@
     <t xml:space="preserve">18.1001472473145</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2829780578613</t>
+    <t xml:space="preserve">18.28297996521</t>
   </si>
   <si>
     <t xml:space="preserve">19.0239219665527</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6301441192627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7071266174316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6686382293701</t>
+    <t xml:space="preserve">19.6301460266113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7071285247803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6686363220215</t>
   </si>
   <si>
     <t xml:space="preserve">19.4761829376221</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3414649963379</t>
+    <t xml:space="preserve">19.3414669036865</t>
   </si>
   <si>
     <t xml:space="preserve">19.004674911499</t>
@@ -1589,28 +1589,28 @@
     <t xml:space="preserve">18.8026008605957</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0527858734131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2452392578125</t>
+    <t xml:space="preserve">19.0527877807617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2452411651611</t>
   </si>
   <si>
     <t xml:space="preserve">18.9661827087402</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4176959991455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7833576202393</t>
+    <t xml:space="preserve">18.4176940917969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.783353805542</t>
   </si>
   <si>
     <t xml:space="preserve">18.3118476867676</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5612850189209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.810718536377</t>
+    <t xml:space="preserve">17.5612812042236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8107166290283</t>
   </si>
   <si>
     <t xml:space="preserve">15.6848707199097</t>
@@ -1619,28 +1619,28 @@
     <t xml:space="preserve">15.8195886611938</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9061908721924</t>
+    <t xml:space="preserve">15.9061918258667</t>
   </si>
   <si>
     <t xml:space="preserve">15.2326078414917</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6560049057007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6944923400879</t>
+    <t xml:space="preserve">15.6560039520264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6944932937622</t>
   </si>
   <si>
     <t xml:space="preserve">16.0409088134766</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9639272689819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1748733520508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2999649047852</t>
+    <t xml:space="preserve">15.9639282226562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1748723983765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2999658584595</t>
   </si>
   <si>
     <t xml:space="preserve">15.2229852676392</t>
@@ -1652,19 +1652,19 @@
     <t xml:space="preserve">15.2422313690186</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0690221786499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8765726089478</t>
+    <t xml:space="preserve">15.0690231323242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8765716552734</t>
   </si>
   <si>
     <t xml:space="preserve">14.9246845245361</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8958168029785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8669490814209</t>
+    <t xml:space="preserve">14.8958158493042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8669481277466</t>
   </si>
   <si>
     <t xml:space="preserve">15.1556272506714</t>
@@ -1682,10 +1682,10 @@
     <t xml:space="preserve">13.9335536956787</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3273305892944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2792167663574</t>
+    <t xml:space="preserve">13.3273286819458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2792158126831</t>
   </si>
   <si>
     <t xml:space="preserve">13.5871391296387</t>
@@ -1703,19 +1703,19 @@
     <t xml:space="preserve">13.6929883956909</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4235563278198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0778942108154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2222318649292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7129859924316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.433931350708</t>
+    <t xml:space="preserve">13.4235553741455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0778932571411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2222328186035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.712986946106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4339303970337</t>
   </si>
   <si>
     <t xml:space="preserve">14.3761940002441</t>
@@ -1727,7 +1727,7 @@
     <t xml:space="preserve">14.5494022369385</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0009126663208</t>
+    <t xml:space="preserve">14.0009117126465</t>
   </si>
   <si>
     <t xml:space="preserve">13.9431772232056</t>
@@ -1736,22 +1736,22 @@
     <t xml:space="preserve">13.7988386154175</t>
   </si>
   <si>
-    <t xml:space="preserve">13.962423324585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1067609786987</t>
+    <t xml:space="preserve">13.9624223709106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.106761932373</t>
   </si>
   <si>
     <t xml:space="preserve">14.1548738479614</t>
   </si>
   <si>
-    <t xml:space="preserve">14.636004447937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9816665649414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9135580062866</t>
+    <t xml:space="preserve">14.6360054016113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.98166847229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.913556098938</t>
   </si>
   <si>
     <t xml:space="preserve">13.5197811126709</t>
@@ -1763,7 +1763,7 @@
     <t xml:space="preserve">13.9527988433838</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2799682617188</t>
+    <t xml:space="preserve">14.2799692153931</t>
   </si>
   <si>
     <t xml:space="preserve">15.0594005584717</t>
@@ -1775,43 +1775,43 @@
     <t xml:space="preserve">15.1075134277344</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3095903396606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.405816078186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3769474029541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5405321121216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5886449813843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5212850570679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3673248291016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2518539428711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1460037231445</t>
+    <t xml:space="preserve">15.3095893859863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4058151245117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3769464492798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5405302047729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5886459350586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5212869644165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3673238754272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2518529891968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1460046768188</t>
   </si>
   <si>
     <t xml:space="preserve">15.0497779846191</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0882701873779</t>
+    <t xml:space="preserve">15.0882692337036</t>
   </si>
   <si>
     <t xml:space="preserve">15.1652498245239</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8484554290771</t>
+    <t xml:space="preserve">15.8484544754028</t>
   </si>
   <si>
     <t xml:space="preserve">15.9446811676025</t>
@@ -1820,16 +1820,16 @@
     <t xml:space="preserve">15.2903442382812</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4443035125732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7810955047607</t>
+    <t xml:space="preserve">15.4443054199219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7810974121094</t>
   </si>
   <si>
     <t xml:space="preserve">15.6656255722046</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6271362304688</t>
+    <t xml:space="preserve">15.6271352767944</t>
   </si>
   <si>
     <t xml:space="preserve">15.0016651153564</t>
@@ -1838,19 +1838,19 @@
     <t xml:space="preserve">15.1267595291138</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4539289474487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4250602722168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6752510070801</t>
+    <t xml:space="preserve">15.4539279937744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4250612258911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6752490997314</t>
   </si>
   <si>
     <t xml:space="preserve">15.5982666015625</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7426080703735</t>
+    <t xml:space="preserve">15.7426071166992</t>
   </si>
   <si>
     <t xml:space="preserve">15.9735488891602</t>
@@ -1859,13 +1859,13 @@
     <t xml:space="preserve">16.6760025024414</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2044944763184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4924192428589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0216598510742</t>
+    <t xml:space="preserve">16.2044925689697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4924201965332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0216617584229</t>
   </si>
   <si>
     <t xml:space="preserve">16.93581199646</t>
@@ -1874,28 +1874,28 @@
     <t xml:space="preserve">17.0993976593018</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7433586120605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4354362487793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4739265441895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0031681060791</t>
+    <t xml:space="preserve">16.7433605194092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4354343414307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4739284515381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0031700134277</t>
   </si>
   <si>
     <t xml:space="preserve">16.6663780212402</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0609073638916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9839248657227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1475086212158</t>
+    <t xml:space="preserve">17.060905456543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9839267730713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1475124359131</t>
   </si>
   <si>
     <t xml:space="preserve">17.1186428070068</t>
@@ -1919,10 +1919,10 @@
     <t xml:space="preserve">16.5990200042725</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4835472106934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.156379699707</t>
+    <t xml:space="preserve">16.483549118042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1563816070557</t>
   </si>
   <si>
     <t xml:space="preserve">17.7633571624756</t>
@@ -1931,28 +1931,28 @@
     <t xml:space="preserve">17.9269409179688</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3599586486816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5709037780762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5420360565186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0905284881592</t>
+    <t xml:space="preserve">18.3599605560303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5709018707275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5420341491699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0905246734619</t>
   </si>
   <si>
     <t xml:space="preserve">18.9469394683838</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8521842956543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1526546478271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8892955780029</t>
+    <t xml:space="preserve">18.8521862030029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1526565551758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8892974853516</t>
   </si>
   <si>
     <t xml:space="preserve">19.7923698425293</t>
@@ -1961,25 +1961,25 @@
     <t xml:space="preserve">19.2108135223389</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2301979064941</t>
+    <t xml:space="preserve">19.2301959991455</t>
   </si>
   <si>
     <t xml:space="preserve">19.2689666748047</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8715705871582</t>
+    <t xml:space="preserve">18.8715667724609</t>
   </si>
   <si>
     <t xml:space="preserve">18.9878807067871</t>
   </si>
   <si>
-    <t xml:space="preserve">19.249584197998</t>
+    <t xml:space="preserve">19.2495822906494</t>
   </si>
   <si>
     <t xml:space="preserve">19.3174324035645</t>
   </si>
   <si>
-    <t xml:space="preserve">19.520975112915</t>
+    <t xml:space="preserve">19.5209770202637</t>
   </si>
   <si>
     <t xml:space="preserve">19.6760578155518</t>
@@ -1988,37 +1988,37 @@
     <t xml:space="preserve">19.3755855560303</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4822044372559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4046649932861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5403614044189</t>
+    <t xml:space="preserve">19.4822063446045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4046630859375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5403633117676</t>
   </si>
   <si>
     <t xml:space="preserve">20.199462890625</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4514713287354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5677814483643</t>
+    <t xml:space="preserve">20.4514675140381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5677833557129</t>
   </si>
   <si>
     <t xml:space="preserve">20.897331237793</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8585605621338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1105690002441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2576179504395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1413059234619</t>
+    <t xml:space="preserve">20.8585624694824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1105670928955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2576160430908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1413040161133</t>
   </si>
   <si>
     <t xml:space="preserve">19.7729835510254</t>
@@ -2030,28 +2030,28 @@
     <t xml:space="preserve">19.9280662536621</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9668388366699</t>
+    <t xml:space="preserve">19.9668369293213</t>
   </si>
   <si>
     <t xml:space="preserve">20.3933143615723</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2382335662842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9474544525146</t>
+    <t xml:space="preserve">20.2382316589355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.947452545166</t>
   </si>
   <si>
     <t xml:space="preserve">19.8505268096924</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0249919891357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6065521240234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5871658325195</t>
+    <t xml:space="preserve">20.0249938964844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6065502166748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5871677398682</t>
   </si>
   <si>
     <t xml:space="preserve">20.5290107727051</t>
@@ -2063,10 +2063,10 @@
     <t xml:space="preserve">20.9942588806152</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7228622436523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3351554870605</t>
+    <t xml:space="preserve">20.722864151001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3351593017578</t>
   </si>
   <si>
     <t xml:space="preserve">20.4320831298828</t>
@@ -2084,7 +2084,7 @@
     <t xml:space="preserve">20.7422485351562</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3157730102539</t>
+    <t xml:space="preserve">20.3157711029053</t>
   </si>
   <si>
     <t xml:space="preserve">20.8779468536377</t>
@@ -2093,52 +2093,52 @@
     <t xml:space="preserve">21.30442237854</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4207324981689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.478889465332</t>
+    <t xml:space="preserve">21.4207344055176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4788875579834</t>
   </si>
   <si>
     <t xml:space="preserve">21.5758171081543</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3431930541992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6145839691162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1767597198486</t>
+    <t xml:space="preserve">21.3431911468506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6145877838135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1767578125</t>
   </si>
   <si>
     <t xml:space="preserve">22.8164749145508</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8940162658691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.85524559021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4287662506104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5838489532471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2930698394775</t>
+    <t xml:space="preserve">22.8940143585205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8552436828613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.428768157959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5838508605957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2930736541748</t>
   </si>
   <si>
     <t xml:space="preserve">22.2736854553223</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6420059204102</t>
+    <t xml:space="preserve">22.6420078277588</t>
   </si>
   <si>
     <t xml:space="preserve">22.9327850341797</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0878677368164</t>
+    <t xml:space="preserve">23.087869644165</t>
   </si>
   <si>
     <t xml:space="preserve">23.1460227966309</t>
@@ -2156,16 +2156,16 @@
     <t xml:space="preserve">20.7810192108154</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7616348266602</t>
+    <t xml:space="preserve">20.7616329193115</t>
   </si>
   <si>
     <t xml:space="preserve">21.4401206970215</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0911827087402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1881122589111</t>
+    <t xml:space="preserve">21.0911846160889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1881084442139</t>
   </si>
   <si>
     <t xml:space="preserve">21.4013481140137</t>
@@ -2174,31 +2174,31 @@
     <t xml:space="preserve">22.0604476928711</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8278255462646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5370426177979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6921253204346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9247512817383</t>
+    <t xml:space="preserve">21.827823638916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5370445251465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6921272277832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9247493743896</t>
   </si>
   <si>
     <t xml:space="preserve">22.0022926330566</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8084373474121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.905366897583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9554882049561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9167156219482</t>
+    <t xml:space="preserve">21.8084392547607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9053649902344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9554862976074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9167194366455</t>
   </si>
   <si>
     <t xml:space="preserve">20.8004035949707</t>
@@ -2207,46 +2207,46 @@
     <t xml:space="preserve">21.1687240600586</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6840953826904</t>
+    <t xml:space="preserve">20.6840915679932</t>
   </si>
   <si>
     <t xml:space="preserve">21.2074947357178</t>
   </si>
   <si>
-    <t xml:space="preserve">21.246265411377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6259365081787</t>
+    <t xml:space="preserve">21.2462673187256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6259384155273</t>
   </si>
   <si>
     <t xml:space="preserve">20.6453227996826</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1573753356934</t>
+    <t xml:space="preserve">22.1573734283447</t>
   </si>
   <si>
     <t xml:space="preserve">22.3512268066406</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8746280670166</t>
+    <t xml:space="preserve">22.8746299743652</t>
   </si>
   <si>
     <t xml:space="preserve">22.9909400939941</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3592624664307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8051242828369</t>
+    <t xml:space="preserve">23.359260559082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8051223754883</t>
   </si>
   <si>
     <t xml:space="preserve">24.0765171051025</t>
   </si>
   <si>
-    <t xml:space="preserve">24.2703685760498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9214363098145</t>
+    <t xml:space="preserve">24.2703704833984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9214344024658</t>
   </si>
   <si>
     <t xml:space="preserve">24.4448375701904</t>
@@ -2255,19 +2255,19 @@
     <t xml:space="preserve">24.1540584564209</t>
   </si>
   <si>
-    <t xml:space="preserve">24.2315998077393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3285236358643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.73561668396</t>
+    <t xml:space="preserve">24.2315979003906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3285255432129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7356147766113</t>
   </si>
   <si>
     <t xml:space="preserve">25.2396354675293</t>
   </si>
   <si>
-    <t xml:space="preserve">25.4722576141357</t>
+    <t xml:space="preserve">25.4722557067871</t>
   </si>
   <si>
     <t xml:space="preserve">25.7436504364014</t>
@@ -2276,7 +2276,7 @@
     <t xml:space="preserve">24.6968460083008</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3559436798096</t>
+    <t xml:space="preserve">25.3559455871582</t>
   </si>
   <si>
     <t xml:space="preserve">25.666109085083</t>
@@ -2285,16 +2285,16 @@
     <t xml:space="preserve">25.2977886199951</t>
   </si>
   <si>
-    <t xml:space="preserve">25.394718170166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9876270294189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3171768188477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2008628845215</t>
+    <t xml:space="preserve">25.3947162628174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9876251220703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.317174911499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2008647918701</t>
   </si>
   <si>
     <t xml:space="preserve">25.0070095062256</t>
@@ -2312,16 +2312,16 @@
     <t xml:space="preserve">25.0263957977295</t>
   </si>
   <si>
-    <t xml:space="preserve">25.0457801818848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8519268035889</t>
+    <t xml:space="preserve">25.0457820892334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8519287109375</t>
   </si>
   <si>
     <t xml:space="preserve">24.9294681549072</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9488563537598</t>
+    <t xml:space="preserve">24.9488544464111</t>
   </si>
   <si>
     <t xml:space="preserve">25.0651664733887</t>
@@ -2333,7 +2333,7 @@
     <t xml:space="preserve">25.7242660522461</t>
   </si>
   <si>
-    <t xml:space="preserve">25.2202472686768</t>
+    <t xml:space="preserve">25.2202491760254</t>
   </si>
   <si>
     <t xml:space="preserve">25.3753299713135</t>
@@ -2345,7 +2345,7 @@
     <t xml:space="preserve">26.1507415771484</t>
   </si>
   <si>
-    <t xml:space="preserve">25.9956588745117</t>
+    <t xml:space="preserve">25.9956607818604</t>
   </si>
   <si>
     <t xml:space="preserve">25.9375038146973</t>
@@ -2354,10 +2354,10 @@
     <t xml:space="preserve">25.5304126739502</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2088985443115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1427097320557</t>
+    <t xml:space="preserve">26.2089004516602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.142707824707</t>
   </si>
   <si>
     <t xml:space="preserve">24.8906993865967</t>
@@ -2369,31 +2369,31 @@
     <t xml:space="preserve">26.0538139343262</t>
   </si>
   <si>
-    <t xml:space="preserve">26.61598777771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6741428375244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.790454864502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5464820861816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.6240215301514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.9341888427734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.1086540222168</t>
+    <t xml:space="preserve">26.6159896850586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.674144744873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.7904567718506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.546480178833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.6240234375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9341869354248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.1086559295654</t>
   </si>
   <si>
     <t xml:space="preserve">28.2443523406982</t>
   </si>
   <si>
-    <t xml:space="preserve">28.6126708984375</t>
+    <t xml:space="preserve">28.6126728057861</t>
   </si>
   <si>
     <t xml:space="preserve">29.2136154174805</t>
@@ -2405,7 +2405,7 @@
     <t xml:space="preserve">28.3025074005127</t>
   </si>
   <si>
-    <t xml:space="preserve">26.3639793395996</t>
+    <t xml:space="preserve">26.3639812469482</t>
   </si>
   <si>
     <t xml:space="preserve">25.6079521179199</t>
@@ -2423,31 +2423,31 @@
     <t xml:space="preserve">23.785737991333</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1219215393066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6372852325439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8183879852295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.582447052002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9637775421143</t>
+    <t xml:space="preserve">20.121919631958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6372871398926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8183870315552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5824489593506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9637756347656</t>
   </si>
   <si>
     <t xml:space="preserve">16.3611755371094</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1559753417969</t>
+    <t xml:space="preserve">17.1559715270996</t>
   </si>
   <si>
     <t xml:space="preserve">17.7859935760498</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0089225769043</t>
+    <t xml:space="preserve">18.0089244842529</t>
   </si>
   <si>
     <t xml:space="preserve">18.406322479248</t>
@@ -2459,16 +2459,16 @@
     <t xml:space="preserve">18.416015625</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4935550689697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3869361877441</t>
+    <t xml:space="preserve">18.4935569763184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3869380950928</t>
   </si>
   <si>
     <t xml:space="preserve">18.1446208953857</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6406059265137</t>
+    <t xml:space="preserve">17.640604019165</t>
   </si>
   <si>
     <t xml:space="preserve">17.6696815490723</t>
@@ -2477,10 +2477,10 @@
     <t xml:space="preserve">17.059045791626</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9119987487793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0654220581055</t>
+    <t xml:space="preserve">17.9119968414307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0654201507568</t>
   </si>
   <si>
     <t xml:space="preserve">18.7067928314209</t>
@@ -2492,16 +2492,16 @@
     <t xml:space="preserve">19.0460357666016</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2221641540527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1784191131592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5597476959229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1284236907959</t>
+    <t xml:space="preserve">18.2221603393555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1784172058105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5597457885742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1284255981445</t>
   </si>
   <si>
     <t xml:space="preserve">20.306079864502</t>
@@ -2510,7 +2510,7 @@
     <t xml:space="preserve">20.548397064209</t>
   </si>
   <si>
-    <t xml:space="preserve">20.286693572998</t>
+    <t xml:space="preserve">20.2866954803467</t>
   </si>
   <si>
     <t xml:space="preserve">20.2673091888428</t>
@@ -2528,10 +2528,10 @@
     <t xml:space="preserve">21.7018184661865</t>
   </si>
   <si>
-    <t xml:space="preserve">22.671085357666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1186027526855</t>
+    <t xml:space="preserve">22.6710834503174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1186046600342</t>
   </si>
   <si>
     <t xml:space="preserve">21.3334999084473</t>
@@ -2543,79 +2543,79 @@
     <t xml:space="preserve">22.186450958252</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2656536102295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.322151184082</t>
+    <t xml:space="preserve">21.2656517028809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3221492767334</t>
   </si>
   <si>
     <t xml:space="preserve">21.9829063415527</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3786468505859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4852638244629</t>
+    <t xml:space="preserve">23.3786487579346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4852657318115</t>
   </si>
   <si>
     <t xml:space="preserve">22.6129283905029</t>
   </si>
   <si>
-    <t xml:space="preserve">23.8535861968994</t>
+    <t xml:space="preserve">23.853588104248</t>
   </si>
   <si>
     <t xml:space="preserve">24.1831378936768</t>
   </si>
   <si>
-    <t xml:space="preserve">23.8729705810547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2025203704834</t>
+    <t xml:space="preserve">23.8729686737061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.202522277832</t>
   </si>
   <si>
     <t xml:space="preserve">24.1734428405762</t>
   </si>
   <si>
-    <t xml:space="preserve">23.708194732666</t>
+    <t xml:space="preserve">23.7081966400146</t>
   </si>
   <si>
     <t xml:space="preserve">23.029712677002</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9715576171875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2155323028564</t>
+    <t xml:space="preserve">22.9715557098389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2155284881592</t>
   </si>
   <si>
     <t xml:space="preserve">22.3996906280518</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0394039154053</t>
+    <t xml:space="preserve">23.0394058227539</t>
   </si>
   <si>
     <t xml:space="preserve">23.2817192077637</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6500415802002</t>
+    <t xml:space="preserve">23.6500396728516</t>
   </si>
   <si>
     <t xml:space="preserve">23.02001953125</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0491008758545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4949607849121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8148136138916</t>
+    <t xml:space="preserve">23.0490970611572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4949588775635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8148174285889</t>
   </si>
   <si>
     <t xml:space="preserve">22.7583179473877</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7970886230469</t>
+    <t xml:space="preserve">22.7970905303955</t>
   </si>
   <si>
     <t xml:space="preserve">22.9812469482422</t>
@@ -2627,13 +2627,13 @@
     <t xml:space="preserve">23.620964050293</t>
   </si>
   <si>
-    <t xml:space="preserve">23.5918846130371</t>
+    <t xml:space="preserve">23.5918827056885</t>
   </si>
   <si>
     <t xml:space="preserve">23.8923568725586</t>
   </si>
   <si>
-    <t xml:space="preserve">24.0959033966064</t>
+    <t xml:space="preserve">24.0959014892578</t>
   </si>
   <si>
     <t xml:space="preserve">24.1928291320801</t>
@@ -2645,13 +2645,13 @@
     <t xml:space="preserve">24.1152877807617</t>
   </si>
   <si>
-    <t xml:space="preserve">24.5223770141602</t>
+    <t xml:space="preserve">24.5223789215088</t>
   </si>
   <si>
     <t xml:space="preserve">24.6871528625488</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1039371490479</t>
+    <t xml:space="preserve">25.1039352416992</t>
   </si>
   <si>
     <t xml:space="preserve">25.6564159393311</t>
@@ -2660,19 +2660,19 @@
     <t xml:space="preserve">25.4431781768799</t>
   </si>
   <si>
-    <t xml:space="preserve">25.4334869384766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1233234405518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5110263824463</t>
+    <t xml:space="preserve">25.4334850311279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1233215332031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5110282897949</t>
   </si>
   <si>
     <t xml:space="preserve">26.9552326202393</t>
   </si>
   <si>
-    <t xml:space="preserve">26.9067687988281</t>
+    <t xml:space="preserve">26.9067668914795</t>
   </si>
   <si>
     <t xml:space="preserve">28.0601921081543</t>
@@ -2681,7 +2681,7 @@
     <t xml:space="preserve">28.6514415740967</t>
   </si>
   <si>
-    <t xml:space="preserve">27.9148025512695</t>
+    <t xml:space="preserve">27.9148006439209</t>
   </si>
   <si>
     <t xml:space="preserve">28.0020351409912</t>
@@ -2711,7 +2711,7 @@
     <t xml:space="preserve">27.6918716430664</t>
   </si>
   <si>
-    <t xml:space="preserve">26.9649238586426</t>
+    <t xml:space="preserve">26.9649257659912</t>
   </si>
   <si>
     <t xml:space="preserve">27.449556350708</t>
@@ -2723,28 +2723,28 @@
     <t xml:space="preserve">26.8970737457275</t>
   </si>
   <si>
-    <t xml:space="preserve">26.8486137390137</t>
+    <t xml:space="preserve">26.8486099243164</t>
   </si>
   <si>
     <t xml:space="preserve">27.0618495941162</t>
   </si>
   <si>
-    <t xml:space="preserve">26.9358463287354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6547603607178</t>
+    <t xml:space="preserve">26.935848236084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6547584533691</t>
   </si>
   <si>
     <t xml:space="preserve">26.8583030700684</t>
   </si>
   <si>
-    <t xml:space="preserve">28.0117263793945</t>
+    <t xml:space="preserve">28.0117282867432</t>
   </si>
   <si>
     <t xml:space="preserve">27.0715427398682</t>
   </si>
   <si>
-    <t xml:space="preserve">27.1587772369385</t>
+    <t xml:space="preserve">27.1587753295898</t>
   </si>
   <si>
     <t xml:space="preserve">27.7984924316406</t>
@@ -2765,10 +2765,10 @@
     <t xml:space="preserve">29.4268550872803</t>
   </si>
   <si>
-    <t xml:space="preserve">29.2233085632324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.1263809204102</t>
+    <t xml:space="preserve">29.2233066558838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.1263828277588</t>
   </si>
   <si>
     <t xml:space="preserve">27.9923439025879</t>
@@ -2780,25 +2780,25 @@
     <t xml:space="preserve">27.8857250213623</t>
   </si>
   <si>
-    <t xml:space="preserve">28.0989608764648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.8242511749268</t>
+    <t xml:space="preserve">28.0989627838135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.8242530822754</t>
   </si>
   <si>
     <t xml:space="preserve">30.4155025482178</t>
   </si>
   <si>
-    <t xml:space="preserve">29.6110153198242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.9211807250977</t>
+    <t xml:space="preserve">29.6110134124756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.921178817749</t>
   </si>
   <si>
     <t xml:space="preserve">30.279806137085</t>
   </si>
   <si>
-    <t xml:space="preserve">30.4736595153809</t>
+    <t xml:space="preserve">30.4736576080322</t>
   </si>
   <si>
     <t xml:space="preserve">29.6013202667236</t>
@@ -2807,25 +2807,25 @@
     <t xml:space="preserve">29.7660961151123</t>
   </si>
   <si>
-    <t xml:space="preserve">30.2507286071777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.9292125701904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.452615737915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2103004455566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.9970607757568</t>
+    <t xml:space="preserve">30.2507266998291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.9292144775391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4526138305664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2103023529053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.9970626831055</t>
   </si>
   <si>
     <t xml:space="preserve">31.3847675323486</t>
   </si>
   <si>
-    <t xml:space="preserve">31.2006072998047</t>
+    <t xml:space="preserve">31.2006053924561</t>
   </si>
   <si>
     <t xml:space="preserve">31.394458770752</t>
@@ -2834,10 +2834,10 @@
     <t xml:space="preserve">31.1812191009521</t>
   </si>
   <si>
-    <t xml:space="preserve">31.1424541473389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2781467437744</t>
+    <t xml:space="preserve">31.1424522399902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.278148651123</t>
   </si>
   <si>
     <t xml:space="preserve">30.9389057159424</t>
@@ -2846,13 +2846,13 @@
     <t xml:space="preserve">31.0164470672607</t>
   </si>
   <si>
-    <t xml:space="preserve">29.1554584503174</t>
+    <t xml:space="preserve">29.155460357666</t>
   </si>
   <si>
     <t xml:space="preserve">29.6497840881348</t>
   </si>
   <si>
-    <t xml:space="preserve">31.3653831481934</t>
+    <t xml:space="preserve">31.3653812408447</t>
   </si>
   <si>
     <t xml:space="preserve">32.470344543457</t>
@@ -2873,58 +2873,58 @@
     <t xml:space="preserve">33.8273124694824</t>
   </si>
   <si>
-    <t xml:space="preserve">34.0599327087402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.6414909362793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.9339294433594</t>
+    <t xml:space="preserve">34.0599365234375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.6414947509766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.9339332580566</t>
   </si>
   <si>
     <t xml:space="preserve">34.961353302002</t>
   </si>
   <si>
-    <t xml:space="preserve">34.3216361999512</t>
+    <t xml:space="preserve">34.3216323852539</t>
   </si>
   <si>
     <t xml:space="preserve">34.4379463195801</t>
   </si>
   <si>
-    <t xml:space="preserve">33.1488304138184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1585159301758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.3426780700684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.985710144043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0826377868652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.4509544372559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.2263679504395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.5381889343262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7240085601807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3459949493408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.4816951751709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5980033874512</t>
+    <t xml:space="preserve">33.1488265991211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.158519744873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.3426818847656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9857120513916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.082633972168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.4509620666504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.2263717651367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.5381927490234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7240104675293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3459968566895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4816913604736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5980052947998</t>
   </si>
   <si>
     <t xml:space="preserve">31.3363056182861</t>
@@ -2933,19 +2933,19 @@
     <t xml:space="preserve">31.54953956604</t>
   </si>
   <si>
-    <t xml:space="preserve">32.0923271179199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.5769577026367</t>
+    <t xml:space="preserve">32.0923309326172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.576961517334</t>
   </si>
   <si>
     <t xml:space="preserve">31.8306293487549</t>
   </si>
   <si>
-    <t xml:space="preserve">32.6351127624512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.4218826293945</t>
+    <t xml:space="preserve">32.6351165771484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.4218788146973</t>
   </si>
   <si>
     <t xml:space="preserve">32.9065132141113</t>
@@ -2954,61 +2954,61 @@
     <t xml:space="preserve">32.1698684692383</t>
   </si>
   <si>
-    <t xml:space="preserve">32.6932754516602</t>
+    <t xml:space="preserve">32.6932716369629</t>
   </si>
   <si>
     <t xml:space="preserve">32.218334197998</t>
   </si>
   <si>
-    <t xml:space="preserve">32.7611198425293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.9937477111816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.8968162536621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.5285034179688</t>
+    <t xml:space="preserve">32.7611236572266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.9937438964844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.8968200683594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.5284996032715</t>
   </si>
   <si>
     <t xml:space="preserve">32.0050964355469</t>
   </si>
   <si>
-    <t xml:space="preserve">31.6755485534668</t>
+    <t xml:space="preserve">31.6755447387695</t>
   </si>
   <si>
     <t xml:space="preserve">32.7998924255371</t>
   </si>
   <si>
-    <t xml:space="preserve">32.6448135375977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.5866508483887</t>
+    <t xml:space="preserve">32.6448097229004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.5866546630859</t>
   </si>
   <si>
     <t xml:space="preserve">32.8677406311035</t>
   </si>
   <si>
-    <t xml:space="preserve">33.1100578308105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1391372680664</t>
+    <t xml:space="preserve">33.1100540161133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1391334533691</t>
   </si>
   <si>
     <t xml:space="preserve">33.2942161560059</t>
   </si>
   <si>
-    <t xml:space="preserve">33.0712814331055</t>
+    <t xml:space="preserve">33.0712852478027</t>
   </si>
   <si>
     <t xml:space="preserve">32.8386650085449</t>
   </si>
   <si>
-    <t xml:space="preserve">32.5478858947754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.5188064575195</t>
+    <t xml:space="preserve">32.5478897094727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.5188102722168</t>
   </si>
   <si>
     <t xml:space="preserve">33.0518989562988</t>
@@ -3026,7 +3026,7 @@
     <t xml:space="preserve">34.3022499084473</t>
   </si>
   <si>
-    <t xml:space="preserve">35.1164360046387</t>
+    <t xml:space="preserve">35.1164321899414</t>
   </si>
   <si>
     <t xml:space="preserve">35.0001220703125</t>
@@ -3038,7 +3038,7 @@
     <t xml:space="preserve">35.4072113037109</t>
   </si>
   <si>
-    <t xml:space="preserve">35.5235214233398</t>
+    <t xml:space="preserve">35.5235290527344</t>
   </si>
   <si>
     <t xml:space="preserve">36.3377075195312</t>
@@ -3056,13 +3056,13 @@
     <t xml:space="preserve">34.4088668823242</t>
   </si>
   <si>
-    <t xml:space="preserve">33.8660850524902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.8176231384277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2571067810059</t>
+    <t xml:space="preserve">33.866081237793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.8176193237305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2571029663086</t>
   </si>
   <si>
     <t xml:space="preserve">32.2861824035645</t>
@@ -3071,10 +3071,10 @@
     <t xml:space="preserve">32.9452819824219</t>
   </si>
   <si>
-    <t xml:space="preserve">33.1972961425781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.4251956939697</t>
+    <t xml:space="preserve">33.1972923278809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.4251937866211</t>
   </si>
   <si>
     <t xml:space="preserve">29.9308700561523</t>
@@ -3086,64 +3086,64 @@
     <t xml:space="preserve">29.4365482330322</t>
   </si>
   <si>
-    <t xml:space="preserve">30.8419818878174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.1036815643311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9469413757324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.9776763916016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.1909141540527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5883159637451</t>
+    <t xml:space="preserve">30.8419799804688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.1036796569824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9469394683838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.9776744842529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.1909122467041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5883140563965</t>
   </si>
   <si>
     <t xml:space="preserve">31.0067539215088</t>
   </si>
   <si>
-    <t xml:space="preserve">29.9793338775635</t>
+    <t xml:space="preserve">29.9793357849121</t>
   </si>
   <si>
     <t xml:space="preserve">30.5996627807617</t>
   </si>
   <si>
-    <t xml:space="preserve">32.1407928466797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.861364364624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2296829223633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.1230659484863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.7644386291504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.4041519165039</t>
+    <t xml:space="preserve">32.140796661377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.8613662719727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2296867370605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.1230640411377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.7644367218018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4041538238525</t>
   </si>
   <si>
     <t xml:space="preserve">31.7433967590332</t>
   </si>
   <si>
-    <t xml:space="preserve">31.4235363006592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0535583496094</t>
+    <t xml:space="preserve">31.4235382080078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0535621643066</t>
   </si>
   <si>
     <t xml:space="preserve">31.8112468719482</t>
   </si>
   <si>
-    <t xml:space="preserve">34.0017852783203</t>
+    <t xml:space="preserve">34.001781463623</t>
   </si>
   <si>
     <t xml:space="preserve">33.4299163818359</t>
@@ -3152,13 +3152,13 @@
     <t xml:space="preserve">34.3797950744629</t>
   </si>
   <si>
-    <t xml:space="preserve">34.1374740600586</t>
+    <t xml:space="preserve">34.1374778747559</t>
   </si>
   <si>
     <t xml:space="preserve">34.1277847290039</t>
   </si>
   <si>
-    <t xml:space="preserve">34.6899566650391</t>
+    <t xml:space="preserve">34.6899604797363</t>
   </si>
   <si>
     <t xml:space="preserve">34.7287292480469</t>
@@ -3179,37 +3179,37 @@
     <t xml:space="preserve">34.0502433776855</t>
   </si>
   <si>
-    <t xml:space="preserve">34.3119506835938</t>
+    <t xml:space="preserve">34.3119430541992</t>
   </si>
   <si>
     <t xml:space="preserve">33.7303848266602</t>
   </si>
   <si>
-    <t xml:space="preserve">34.602725982666</t>
+    <t xml:space="preserve">34.6027297973633</t>
   </si>
   <si>
     <t xml:space="preserve">34.0793228149414</t>
   </si>
   <si>
-    <t xml:space="preserve">32.7514343261719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3831100463867</t>
+    <t xml:space="preserve">32.7514305114746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3831062316895</t>
   </si>
   <si>
     <t xml:space="preserve">32.3637237548828</t>
   </si>
   <si>
-    <t xml:space="preserve">32.567268371582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.4396057128906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.6334609985352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.3199768066406</t>
+    <t xml:space="preserve">32.5672721862793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.4396095275879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.6334571838379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.3199844360352</t>
   </si>
   <si>
     <t xml:space="preserve">36.4218978881836</t>
@@ -3224,10 +3224,10 @@
     <t xml:space="preserve">37.3190383911133</t>
   </si>
   <si>
-    <t xml:space="preserve">37.6310882568359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.9821434020996</t>
+    <t xml:space="preserve">37.6310844421387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.9821395874023</t>
   </si>
   <si>
     <t xml:space="preserve">37.6798439025879</t>
@@ -3254,25 +3254,25 @@
     <t xml:space="preserve">39.8349266052246</t>
   </si>
   <si>
-    <t xml:space="preserve">39.1913261413574</t>
+    <t xml:space="preserve">39.1913299560547</t>
   </si>
   <si>
     <t xml:space="preserve">39.2205848693848</t>
   </si>
   <si>
-    <t xml:space="preserve">39.9324417114258</t>
+    <t xml:space="preserve">39.932445526123</t>
   </si>
   <si>
     <t xml:space="preserve">39.1718254089355</t>
   </si>
   <si>
-    <t xml:space="preserve">39.3766098022461</t>
+    <t xml:space="preserve">39.3766059875488</t>
   </si>
   <si>
     <t xml:space="preserve">39.2985954284668</t>
   </si>
   <si>
-    <t xml:space="preserve">39.1815757751465</t>
+    <t xml:space="preserve">39.1815795898438</t>
   </si>
   <si>
     <t xml:space="preserve">40.2054862976074</t>
@@ -3284,13 +3284,13 @@
     <t xml:space="preserve">40.3420066833496</t>
   </si>
   <si>
-    <t xml:space="preserve">41.1026268005371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.605297088623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.4005165100098</t>
+    <t xml:space="preserve">41.1026229858398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.6053009033203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.4005126953125</t>
   </si>
   <si>
     <t xml:space="preserve">40.566291809082</t>
@@ -3302,7 +3302,7 @@
     <t xml:space="preserve">40.3517608642578</t>
   </si>
   <si>
-    <t xml:space="preserve">40.5955467224121</t>
+    <t xml:space="preserve">40.5955505371094</t>
   </si>
   <si>
     <t xml:space="preserve">39.6594009399414</t>
@@ -3314,10 +3314,10 @@
     <t xml:space="preserve">38.1284103393555</t>
   </si>
   <si>
-    <t xml:space="preserve">38.1186637878418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.9475364685059</t>
+    <t xml:space="preserve">38.1186599731445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.9475402832031</t>
   </si>
   <si>
     <t xml:space="preserve">39.5618858337402</t>
@@ -3326,10 +3326,10 @@
     <t xml:space="preserve">39.7471618652344</t>
   </si>
   <si>
-    <t xml:space="preserve">39.0548095703125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.0397109985352</t>
+    <t xml:space="preserve">39.054801940918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.0397148132324</t>
   </si>
   <si>
     <t xml:space="preserve">39.7666625976562</t>
@@ -3338,13 +3338,13 @@
     <t xml:space="preserve">39.435115814209</t>
   </si>
   <si>
-    <t xml:space="preserve">40.020206451416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.3473510742188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.6443023681641</t>
+    <t xml:space="preserve">40.0202102661133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.347354888916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.6443061828613</t>
   </si>
   <si>
     <t xml:space="preserve">41.2488975524902</t>
@@ -3377,10 +3377,10 @@
     <t xml:space="preserve">41.7559776306152</t>
   </si>
   <si>
-    <t xml:space="preserve">41.9607582092285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.8437423706055</t>
+    <t xml:space="preserve">41.9607543945312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.8437385559082</t>
   </si>
   <si>
     <t xml:space="preserve">41.8534889221191</t>
@@ -3389,7 +3389,7 @@
     <t xml:space="preserve">42.1850395202637</t>
   </si>
   <si>
-    <t xml:space="preserve">42.7116241455078</t>
+    <t xml:space="preserve">42.7116279602051</t>
   </si>
   <si>
     <t xml:space="preserve">43.7257804870605</t>
@@ -3398,22 +3398,22 @@
     <t xml:space="preserve">42.8773994445801</t>
   </si>
   <si>
-    <t xml:space="preserve">42.6628684997559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.3898239135742</t>
+    <t xml:space="preserve">42.6628646850586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.3898277282715</t>
   </si>
   <si>
     <t xml:space="preserve">42.5946044921875</t>
   </si>
   <si>
-    <t xml:space="preserve">43.1016883850098</t>
+    <t xml:space="preserve">43.1016845703125</t>
   </si>
   <si>
     <t xml:space="preserve">43.1796951293945</t>
   </si>
   <si>
-    <t xml:space="preserve">43.306468963623</t>
+    <t xml:space="preserve">43.3064651489258</t>
   </si>
   <si>
     <t xml:space="preserve">43.6282691955566</t>
@@ -3425,25 +3425,25 @@
     <t xml:space="preserve">43.5405044555664</t>
   </si>
   <si>
-    <t xml:space="preserve">42.6531181335449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.6043586730957</t>
+    <t xml:space="preserve">42.6531143188477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.6043548583984</t>
   </si>
   <si>
     <t xml:space="preserve">42.1557884216309</t>
   </si>
   <si>
-    <t xml:space="preserve">42.0777740478516</t>
+    <t xml:space="preserve">42.0777816772461</t>
   </si>
   <si>
     <t xml:space="preserve">40.3127517700195</t>
   </si>
   <si>
-    <t xml:space="preserve">41.619457244873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.615047454834</t>
+    <t xml:space="preserve">41.6194534301758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.6150512695312</t>
   </si>
   <si>
     <t xml:space="preserve">41.4439277648926</t>
@@ -3452,7 +3452,7 @@
     <t xml:space="preserve">41.6779670715332</t>
   </si>
   <si>
-    <t xml:space="preserve">43.7160301208496</t>
+    <t xml:space="preserve">43.7160339355469</t>
   </si>
   <si>
     <t xml:space="preserve">43.8135452270508</t>
@@ -3461,10 +3461,10 @@
     <t xml:space="preserve">44.9739761352539</t>
   </si>
   <si>
-    <t xml:space="preserve">43.8623046875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.5751037597656</t>
+    <t xml:space="preserve">43.8623008728027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.5750999450684</t>
   </si>
   <si>
     <t xml:space="preserve">40.3810119628906</t>
@@ -3476,7 +3476,7 @@
     <t xml:space="preserve">40.1762313842773</t>
   </si>
   <si>
-    <t xml:space="preserve">39.7764205932617</t>
+    <t xml:space="preserve">39.7764167785645</t>
   </si>
   <si>
     <t xml:space="preserve">40.1079711914062</t>
@@ -3485,40 +3485,40 @@
     <t xml:space="preserve">40.2737464904785</t>
   </si>
   <si>
-    <t xml:space="preserve">40.7028121948242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.591136932373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.6496467590332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.5077857971191</t>
+    <t xml:space="preserve">40.7028160095215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.5911407470703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.6496505737305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.5077819824219</t>
   </si>
   <si>
     <t xml:space="preserve">40.8100776672363</t>
   </si>
   <si>
-    <t xml:space="preserve">41.8632431030273</t>
+    <t xml:space="preserve">41.8632392883301</t>
   </si>
   <si>
     <t xml:space="preserve">42.2435531616211</t>
   </si>
   <si>
-    <t xml:space="preserve">43.433235168457</t>
+    <t xml:space="preserve">43.4332389831543</t>
   </si>
   <si>
     <t xml:space="preserve">42.1947937011719</t>
   </si>
   <si>
-    <t xml:space="preserve">41.785228729248</t>
+    <t xml:space="preserve">41.7852249145508</t>
   </si>
   <si>
     <t xml:space="preserve">42.8578987121582</t>
   </si>
   <si>
-    <t xml:space="preserve">43.5892639160156</t>
+    <t xml:space="preserve">43.5892601013184</t>
   </si>
   <si>
     <t xml:space="preserve">43.0139236450195</t>
@@ -3548,46 +3548,46 @@
     <t xml:space="preserve">44.6619262695312</t>
   </si>
   <si>
-    <t xml:space="preserve">44.8667030334473</t>
+    <t xml:space="preserve">44.8667106628418</t>
   </si>
   <si>
     <t xml:space="preserve">44.0865859985352</t>
   </si>
   <si>
-    <t xml:space="preserve">42.8871536254883</t>
+    <t xml:space="preserve">42.887149810791</t>
   </si>
   <si>
     <t xml:space="preserve">43.5014991760254</t>
   </si>
   <si>
-    <t xml:space="preserve">43.442985534668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.2879028320312</t>
+    <t xml:space="preserve">43.4429893493652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.2879066467285</t>
   </si>
   <si>
     <t xml:space="preserve">42.224048614502</t>
   </si>
   <si>
-    <t xml:space="preserve">41.1513824462891</t>
+    <t xml:space="preserve">41.1513786315918</t>
   </si>
   <si>
     <t xml:space="preserve">41.6974678039551</t>
   </si>
   <si>
-    <t xml:space="preserve">42.0485191345215</t>
+    <t xml:space="preserve">42.0485229492188</t>
   </si>
   <si>
     <t xml:space="preserve">42.0387725830078</t>
   </si>
   <si>
-    <t xml:space="preserve">40.7320671081543</t>
+    <t xml:space="preserve">40.7320709228516</t>
   </si>
   <si>
     <t xml:space="preserve">40.7613220214844</t>
   </si>
   <si>
-    <t xml:space="preserve">41.8827476501465</t>
+    <t xml:space="preserve">41.8827438354492</t>
   </si>
   <si>
     <t xml:space="preserve">40.7808227539062</t>
@@ -3596,22 +3596,22 @@
     <t xml:space="preserve">40.7418174743652</t>
   </si>
   <si>
-    <t xml:space="preserve">40.9173431396484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.7072143554688</t>
+    <t xml:space="preserve">40.9173469543457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.707218170166</t>
   </si>
   <si>
     <t xml:space="preserve">42.6141090393066</t>
   </si>
   <si>
-    <t xml:space="preserve">42.126537322998</t>
+    <t xml:space="preserve">42.1265335083008</t>
   </si>
   <si>
     <t xml:space="preserve">42.9846687316895</t>
   </si>
   <si>
-    <t xml:space="preserve">43.0041656494141</t>
+    <t xml:space="preserve">43.0041694641113</t>
   </si>
   <si>
     <t xml:space="preserve">43.1991958618164</t>
@@ -3626,7 +3626,7 @@
     <t xml:space="preserve">45.081241607666</t>
   </si>
   <si>
-    <t xml:space="preserve">45.7443428039551</t>
+    <t xml:space="preserve">45.7443466186523</t>
   </si>
   <si>
     <t xml:space="preserve">46.0466423034668</t>
@@ -3635,19 +3635,19 @@
     <t xml:space="preserve">46.2709274291992</t>
   </si>
   <si>
-    <t xml:space="preserve">45.4810562133789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.5449066162109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.7106857299805</t>
+    <t xml:space="preserve">45.4810523986816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.5449104309082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.7106819152832</t>
   </si>
   <si>
     <t xml:space="preserve">43.2284545898438</t>
   </si>
   <si>
-    <t xml:space="preserve">42.4970932006836</t>
+    <t xml:space="preserve">42.4970893859863</t>
   </si>
   <si>
     <t xml:space="preserve">40.6248016357422</t>
@@ -3659,31 +3659,31 @@
     <t xml:space="preserve">39.513126373291</t>
   </si>
   <si>
-    <t xml:space="preserve">38.9572906494141</t>
+    <t xml:space="preserve">38.9572944641113</t>
   </si>
   <si>
     <t xml:space="preserve">38.7525100708008</t>
   </si>
   <si>
-    <t xml:space="preserve">37.7578620910645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.3146362304688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.037181854248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.5247573852539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.5637626647949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.9786720275879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.5974273681641</t>
+    <t xml:space="preserve">37.7578582763672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.3146324157715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.0371856689453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.5247650146484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.5637664794922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.9786758422852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.5974235534668</t>
   </si>
   <si>
     <t xml:space="preserve">37.2507781982422</t>
@@ -3695,7 +3695,7 @@
     <t xml:space="preserve">36.0903434753418</t>
   </si>
   <si>
-    <t xml:space="preserve">35.4077453613281</t>
+    <t xml:space="preserve">35.4077415466309</t>
   </si>
   <si>
     <t xml:space="preserve">35.1737060546875</t>
@@ -3710,7 +3710,7 @@
     <t xml:space="preserve">35.2907218933105</t>
   </si>
   <si>
-    <t xml:space="preserve">34.4715919494629</t>
+    <t xml:space="preserve">34.4715957641602</t>
   </si>
   <si>
     <t xml:space="preserve">33.8767547607422</t>
@@ -3725,7 +3725,7 @@
     <t xml:space="preserve">34.7933959960938</t>
   </si>
   <si>
-    <t xml:space="preserve">34.6568794250488</t>
+    <t xml:space="preserve">34.6568756103516</t>
   </si>
   <si>
     <t xml:space="preserve">34.2765693664551</t>
@@ -3737,7 +3737,7 @@
     <t xml:space="preserve">35.0859413146973</t>
   </si>
   <si>
-    <t xml:space="preserve">35.7783012390137</t>
+    <t xml:space="preserve">35.7782974243164</t>
   </si>
   <si>
     <t xml:space="preserve">36.4706573486328</t>
@@ -3746,7 +3746,7 @@
     <t xml:space="preserve">37.4945640563965</t>
   </si>
   <si>
-    <t xml:space="preserve">37.0167388916016</t>
+    <t xml:space="preserve">37.0167427062988</t>
   </si>
   <si>
     <t xml:space="preserve">36.9972381591797</t>
@@ -3755,13 +3755,13 @@
     <t xml:space="preserve">36.6656837463379</t>
   </si>
   <si>
-    <t xml:space="preserve">35.3004760742188</t>
+    <t xml:space="preserve">35.3004722595215</t>
   </si>
   <si>
     <t xml:space="preserve">34.0912895202637</t>
   </si>
   <si>
-    <t xml:space="preserve">36.1781120300293</t>
+    <t xml:space="preserve">36.178108215332</t>
   </si>
   <si>
     <t xml:space="preserve">34.2083053588867</t>
@@ -3773,16 +3773,16 @@
     <t xml:space="preserve">35.6612815856934</t>
   </si>
   <si>
-    <t xml:space="preserve">35.4467506408691</t>
+    <t xml:space="preserve">35.4467468261719</t>
   </si>
   <si>
     <t xml:space="preserve">36.8119583129883</t>
   </si>
   <si>
-    <t xml:space="preserve">36.8607139587402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.5194129943848</t>
+    <t xml:space="preserve">36.8607177734375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.519416809082</t>
   </si>
   <si>
     <t xml:space="preserve">36.051342010498</t>
@@ -3791,7 +3791,7 @@
     <t xml:space="preserve">35.6222724914551</t>
   </si>
   <si>
-    <t xml:space="preserve">36.2951278686523</t>
+    <t xml:space="preserve">36.2951316833496</t>
   </si>
   <si>
     <t xml:space="preserve">36.7534484863281</t>
@@ -3803,10 +3803,10 @@
     <t xml:space="preserve">39.6008911132812</t>
   </si>
   <si>
-    <t xml:space="preserve">39.5326347351074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.8393363952637</t>
+    <t xml:space="preserve">39.5326309204102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.8393325805664</t>
   </si>
   <si>
     <t xml:space="preserve">41.9119987487793</t>
@@ -3815,10 +3815,10 @@
     <t xml:space="preserve">41.5024375915527</t>
   </si>
   <si>
-    <t xml:space="preserve">41.2976531982422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.4297714233398</t>
+    <t xml:space="preserve">41.2976570129395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.4297676086426</t>
   </si>
   <si>
     <t xml:space="preserve">39.2108306884766</t>
@@ -3830,25 +3830,25 @@
     <t xml:space="preserve">39.8056716918945</t>
   </si>
   <si>
-    <t xml:space="preserve">39.2010765075684</t>
+    <t xml:space="preserve">39.2010803222656</t>
   </si>
   <si>
     <t xml:space="preserve">38.5477294921875</t>
   </si>
   <si>
-    <t xml:space="preserve">37.3580474853516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.1922721862793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.8802223205566</t>
+    <t xml:space="preserve">37.3580436706543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.192268371582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.8802185058594</t>
   </si>
   <si>
     <t xml:space="preserve">35.983081817627</t>
   </si>
   <si>
-    <t xml:space="preserve">36.7924575805664</t>
+    <t xml:space="preserve">36.7924537658691</t>
   </si>
   <si>
     <t xml:space="preserve">37.2702827453613</t>
@@ -3857,37 +3857,37 @@
     <t xml:space="preserve">36.6754379272461</t>
   </si>
   <si>
-    <t xml:space="preserve">36.2561264038086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.8465538024902</t>
+    <t xml:space="preserve">36.2561225891113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.8465614318848</t>
   </si>
   <si>
     <t xml:space="preserve">34.5788612365723</t>
   </si>
   <si>
-    <t xml:space="preserve">32.7553291320801</t>
+    <t xml:space="preserve">32.7553329467773</t>
   </si>
   <si>
     <t xml:space="preserve">33.4769439697266</t>
   </si>
   <si>
-    <t xml:space="preserve">33.4671936035156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5168895721436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.3989295959473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.4086799621582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.4574394226074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7411727905273</t>
+    <t xml:space="preserve">33.4671897888184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5168876647949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.3989334106445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.4086837768555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.4574432373047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7411708831787</t>
   </si>
   <si>
     <t xml:space="preserve">30.7952766418457</t>
@@ -3896,7 +3896,7 @@
     <t xml:space="preserve">31.1365795135498</t>
   </si>
   <si>
-    <t xml:space="preserve">31.677318572998</t>
+    <t xml:space="preserve">31.6773166656494</t>
   </si>
   <si>
     <t xml:space="preserve">31.4708518981934</t>
@@ -3905,10 +3905,10 @@
     <t xml:space="preserve">31.4118633270264</t>
   </si>
   <si>
-    <t xml:space="preserve">31.7166404724121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.8247890472412</t>
+    <t xml:space="preserve">31.7166423797607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8247871398926</t>
   </si>
   <si>
     <t xml:space="preserve">32.1688957214355</t>
@@ -3935,7 +3935,7 @@
     <t xml:space="preserve">30.2320747375488</t>
   </si>
   <si>
-    <t xml:space="preserve">28.7180118560791</t>
+    <t xml:space="preserve">28.7180137634277</t>
   </si>
   <si>
     <t xml:space="preserve">26.6533851623535</t>
@@ -3947,7 +3947,7 @@
     <t xml:space="preserve">26.7025413513184</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7783737182617</t>
+    <t xml:space="preserve">25.7783756256104</t>
   </si>
   <si>
     <t xml:space="preserve">25.857027053833</t>
@@ -3965,19 +3965,19 @@
     <t xml:space="preserve">28.3542461395264</t>
   </si>
   <si>
-    <t xml:space="preserve">29.2980766296387</t>
+    <t xml:space="preserve">29.29807472229</t>
   </si>
   <si>
     <t xml:space="preserve">29.3668975830078</t>
   </si>
   <si>
-    <t xml:space="preserve">28.7770042419434</t>
+    <t xml:space="preserve">28.7770023345947</t>
   </si>
   <si>
     <t xml:space="preserve">28.6786880493164</t>
   </si>
   <si>
-    <t xml:space="preserve">28.7573413848877</t>
+    <t xml:space="preserve">28.7573394775391</t>
   </si>
   <si>
     <t xml:space="preserve">29.878137588501</t>
@@ -3989,7 +3989,7 @@
     <t xml:space="preserve">31.1955699920654</t>
   </si>
   <si>
-    <t xml:space="preserve">32.0607490539551</t>
+    <t xml:space="preserve">32.0607452392578</t>
   </si>
   <si>
     <t xml:space="preserve">30.664665222168</t>
@@ -4004,7 +4004,7 @@
     <t xml:space="preserve">28.6393604278564</t>
   </si>
   <si>
-    <t xml:space="preserve">28.167444229126</t>
+    <t xml:space="preserve">28.1674461364746</t>
   </si>
   <si>
     <t xml:space="preserve">28.7475090026855</t>
@@ -4013,10 +4013,10 @@
     <t xml:space="preserve">29.3570652008057</t>
   </si>
   <si>
-    <t xml:space="preserve">29.278413772583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.143590927124</t>
+    <t xml:space="preserve">29.2784118652344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.1435928344727</t>
   </si>
   <si>
     <t xml:space="preserve">30.6351699829102</t>
@@ -4031,16 +4031,16 @@
     <t xml:space="preserve">30.8121376037598</t>
   </si>
   <si>
-    <t xml:space="preserve">31.834623336792</t>
+    <t xml:space="preserve">31.8346214294434</t>
   </si>
   <si>
     <t xml:space="preserve">31.6674842834473</t>
   </si>
   <si>
-    <t xml:space="preserve">31.8936100006104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.4188766479492</t>
+    <t xml:space="preserve">31.893611907959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.4188747406006</t>
   </si>
   <si>
     <t xml:space="preserve">31.3332118988037</t>
@@ -4052,10 +4052,10 @@
     <t xml:space="preserve">29.8683071136475</t>
   </si>
   <si>
-    <t xml:space="preserve">30.182918548584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4258861541748</t>
+    <t xml:space="preserve">30.1829166412354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4258880615234</t>
   </si>
   <si>
     <t xml:space="preserve">29.8978023529053</t>
@@ -4064,7 +4064,7 @@
     <t xml:space="preserve">30.2124118804932</t>
   </si>
   <si>
-    <t xml:space="preserve">28.6196994781494</t>
+    <t xml:space="preserve">28.6196975708008</t>
   </si>
   <si>
     <t xml:space="preserve">28.3050880432129</t>
@@ -4073,10 +4073,10 @@
     <t xml:space="preserve">28.2264347076416</t>
   </si>
   <si>
-    <t xml:space="preserve">27.8528347015381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.2039527893066</t>
+    <t xml:space="preserve">27.8528366088867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.203950881958</t>
   </si>
   <si>
     <t xml:space="preserve">27.1744575500488</t>
@@ -4094,7 +4094,7 @@
     <t xml:space="preserve">25.3359546661377</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6112384796143</t>
+    <t xml:space="preserve">25.6112365722656</t>
   </si>
   <si>
     <t xml:space="preserve">25.050838470459</t>
@@ -4115,10 +4115,10 @@
     <t xml:space="preserve">25.4834270477295</t>
   </si>
   <si>
-    <t xml:space="preserve">25.59157371521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8738689422607</t>
+    <t xml:space="preserve">25.5915756225586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8738708496094</t>
   </si>
   <si>
     <t xml:space="preserve">24.6182498931885</t>
@@ -4154,7 +4154,7 @@
     <t xml:space="preserve">25.6702270507812</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4469203948975</t>
+    <t xml:space="preserve">26.4469223022461</t>
   </si>
   <si>
     <t xml:space="preserve">25.95534324646</t>
@@ -4166,7 +4166,7 @@
     <t xml:space="preserve">26.5845642089844</t>
   </si>
   <si>
-    <t xml:space="preserve">26.31911277771</t>
+    <t xml:space="preserve">26.3191108703613</t>
   </si>
   <si>
     <t xml:space="preserve">26.014331817627</t>
@@ -4175,7 +4175,7 @@
     <t xml:space="preserve">25.7095527648926</t>
   </si>
   <si>
-    <t xml:space="preserve">24.991849899292</t>
+    <t xml:space="preserve">24.9918479919434</t>
   </si>
   <si>
     <t xml:space="preserve">24.1954936981201</t>
@@ -4190,13 +4190,13 @@
     <t xml:space="preserve">24.8050479888916</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7292156219482</t>
+    <t xml:space="preserve">25.7292175292969</t>
   </si>
   <si>
     <t xml:space="preserve">25.2081432342529</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4370880126953</t>
+    <t xml:space="preserve">26.4370899200439</t>
   </si>
   <si>
     <t xml:space="preserve">25.7488803863525</t>
@@ -4208,7 +4208,7 @@
     <t xml:space="preserve">25.8078689575195</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7263946533203</t>
+    <t xml:space="preserve">24.7263965606689</t>
   </si>
   <si>
     <t xml:space="preserve">24.1070079803467</t>
@@ -4217,7 +4217,7 @@
     <t xml:space="preserve">24.2643127441406</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7165641784668</t>
+    <t xml:space="preserve">24.7165660858154</t>
   </si>
   <si>
     <t xml:space="preserve">24.667407989502</t>
@@ -4226,7 +4226,7 @@
     <t xml:space="preserve">23.7137451171875</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7657241821289</t>
+    <t xml:space="preserve">24.7657222747803</t>
   </si>
   <si>
     <t xml:space="preserve">26.2011318206787</t>
@@ -4238,7 +4238,7 @@
     <t xml:space="preserve">27.6758670806885</t>
   </si>
   <si>
-    <t xml:space="preserve">28.5607070922852</t>
+    <t xml:space="preserve">28.5607089996338</t>
   </si>
   <si>
     <t xml:space="preserve">28.0887928009033</t>
@@ -4250,10 +4250,10 @@
     <t xml:space="preserve">27.1056365966797</t>
   </si>
   <si>
-    <t xml:space="preserve">27.164623260498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9188346862793</t>
+    <t xml:space="preserve">27.1646251678467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9188365936279</t>
   </si>
   <si>
     <t xml:space="preserve">26.7123737335205</t>
@@ -4265,22 +4265,22 @@
     <t xml:space="preserve">27.2826042175293</t>
   </si>
   <si>
-    <t xml:space="preserve">27.4104156494141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5480575561523</t>
+    <t xml:space="preserve">27.4104137420654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5480556488037</t>
   </si>
   <si>
     <t xml:space="preserve">26.3977642059326</t>
   </si>
   <si>
-    <t xml:space="preserve">27.184289932251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.0592994689941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.3514251708984</t>
+    <t xml:space="preserve">27.1842880249023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.0592975616455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.3514270782471</t>
   </si>
   <si>
     <t xml:space="preserve">26.5452365875244</t>
@@ -4307,13 +4307,13 @@
     <t xml:space="preserve">26.8401832580566</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4862480163574</t>
+    <t xml:space="preserve">26.4862461090088</t>
   </si>
   <si>
     <t xml:space="preserve">26.4567527770996</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2797832489014</t>
+    <t xml:space="preserve">26.27978515625</t>
   </si>
   <si>
     <t xml:space="preserve">26.8500137329102</t>
@@ -4340,16 +4340,16 @@
     <t xml:space="preserve">27.3710880279541</t>
   </si>
   <si>
-    <t xml:space="preserve">26.3682670593262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4960803985596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9974880218506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0368156433105</t>
+    <t xml:space="preserve">26.3682689666748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4960784912109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9974899291992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0368137359619</t>
   </si>
   <si>
     <t xml:space="preserve">26.6337223052979</t>
@@ -4373,25 +4373,25 @@
     <t xml:space="preserve">25.3064594268799</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1098289489746</t>
+    <t xml:space="preserve">25.109827041626</t>
   </si>
   <si>
     <t xml:space="preserve">24.8443756103516</t>
   </si>
   <si>
-    <t xml:space="preserve">28.0199718475342</t>
+    <t xml:space="preserve">28.0199737548828</t>
   </si>
   <si>
     <t xml:space="preserve">27.3317623138428</t>
   </si>
   <si>
-    <t xml:space="preserve">27.528392791748</t>
+    <t xml:space="preserve">27.5283946990967</t>
   </si>
   <si>
     <t xml:space="preserve">26.1519737243652</t>
   </si>
   <si>
-    <t xml:space="preserve">26.8795108795166</t>
+    <t xml:space="preserve">26.879508972168</t>
   </si>
   <si>
     <t xml:space="preserve">27.6856994628906</t>
@@ -4400,10 +4400,10 @@
     <t xml:space="preserve">26.9384994506836</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5943927764893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0171527862549</t>
+    <t xml:space="preserve">26.5943946838379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0171508789062</t>
   </si>
   <si>
     <t xml:space="preserve">26.8991737365723</t>
@@ -4412,7 +4412,7 @@
     <t xml:space="preserve">27.7446880340576</t>
   </si>
   <si>
-    <t xml:space="preserve">29.6126861572266</t>
+    <t xml:space="preserve">29.6126880645752</t>
   </si>
   <si>
     <t xml:space="preserve">28.9736328125</t>
@@ -4427,28 +4427,28 @@
     <t xml:space="preserve">28.6590232849121</t>
   </si>
   <si>
-    <t xml:space="preserve">28.5312156677246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4652137756348</t>
+    <t xml:space="preserve">28.531213760376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4652118682861</t>
   </si>
   <si>
     <t xml:space="preserve">28.855655670166</t>
   </si>
   <si>
-    <t xml:space="preserve">29.3275718688965</t>
+    <t xml:space="preserve">29.3275699615479</t>
   </si>
   <si>
     <t xml:space="preserve">29.6225185394287</t>
   </si>
   <si>
-    <t xml:space="preserve">30.1042671203613</t>
+    <t xml:space="preserve">30.1042652130127</t>
   </si>
   <si>
     <t xml:space="preserve">31.1169166564941</t>
   </si>
   <si>
-    <t xml:space="preserve">31.4020328521729</t>
+    <t xml:space="preserve">31.4020309448242</t>
   </si>
   <si>
     <t xml:space="preserve">31.2938842773438</t>
@@ -4457,7 +4457,7 @@
     <t xml:space="preserve">31.7264728546143</t>
   </si>
   <si>
-    <t xml:space="preserve">31.9525985717773</t>
+    <t xml:space="preserve">31.952600479126</t>
   </si>
   <si>
     <t xml:space="preserve">32.0902404785156</t>
@@ -4472,10 +4472,10 @@
     <t xml:space="preserve">32.1492309570312</t>
   </si>
   <si>
-    <t xml:space="preserve">31.7461395263672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3950233459473</t>
+    <t xml:space="preserve">31.7461357116699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.39501953125</t>
   </si>
   <si>
     <t xml:space="preserve">32.4638404846191</t>
@@ -4496,7 +4496,7 @@
     <t xml:space="preserve">32.8177795410156</t>
   </si>
   <si>
-    <t xml:space="preserve">33.2208709716797</t>
+    <t xml:space="preserve">33.220874786377</t>
   </si>
   <si>
     <t xml:space="preserve">32.7194595336914</t>
@@ -4505,7 +4505,7 @@
     <t xml:space="preserve">32.5621566772461</t>
   </si>
   <si>
-    <t xml:space="preserve">34.8922424316406</t>
+    <t xml:space="preserve">34.8922386169434</t>
   </si>
   <si>
     <t xml:space="preserve">34.2728500366211</t>
@@ -4517,10 +4517,10 @@
     <t xml:space="preserve">35.2461738586426</t>
   </si>
   <si>
-    <t xml:space="preserve">34.8430824279785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.7251014709473</t>
+    <t xml:space="preserve">34.8430786132812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.7251052856445</t>
   </si>
   <si>
     <t xml:space="preserve">35.1871871948242</t>
@@ -4532,7 +4532,7 @@
     <t xml:space="preserve">35.1281967163086</t>
   </si>
   <si>
-    <t xml:space="preserve">34.3318367004395</t>
+    <t xml:space="preserve">34.3318405151367</t>
   </si>
   <si>
     <t xml:space="preserve">33.5354843139648</t>
@@ -5238,6 +5238,9 @@
   </si>
   <si>
     <t xml:space="preserve">34.6399993896484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.3499984741211</t>
   </si>
 </sst>
 </file>
@@ -61505,7 +61508,7 @@
     </row>
     <row r="2152">
       <c r="A2152" s="1" t="n">
-        <v>45457.6496412037</v>
+        <v>45457.2916666667</v>
       </c>
       <c r="B2152" t="n">
         <v>889323</v>
@@ -61526,6 +61529,32 @@
         <v>1741</v>
       </c>
       <c r="H2152" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2153">
+      <c r="A2153" s="1" t="n">
+        <v>45460.6493402778</v>
+      </c>
+      <c r="B2153" t="n">
+        <v>545854</v>
+      </c>
+      <c r="C2153" t="n">
+        <v>34.8400001525879</v>
+      </c>
+      <c r="D2153" t="n">
+        <v>33.7900009155273</v>
+      </c>
+      <c r="E2153" t="n">
+        <v>34.810001373291</v>
+      </c>
+      <c r="F2153" t="n">
+        <v>34.3499984741211</v>
+      </c>
+      <c r="G2153" t="s">
+        <v>1742</v>
+      </c>
+      <c r="H2153" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/AMP.MI.xlsx
+++ b/data/AMP.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1745" uniqueCount="1745">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1746" uniqueCount="1746">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,28 +38,28 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">7.44491147994995</t>
+    <t xml:space="preserve">7.44491100311279</t>
   </si>
   <si>
     <t xml:space="preserve">AMP.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">7.50163459777832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.42127704620361</t>
+    <t xml:space="preserve">7.50163507461548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.42127656936646</t>
   </si>
   <si>
     <t xml:space="preserve">7.47799968719482</t>
   </si>
   <si>
-    <t xml:space="preserve">7.26056098937988</t>
+    <t xml:space="preserve">7.26056146621704</t>
   </si>
   <si>
     <t xml:space="preserve">7.06675720214844</t>
   </si>
   <si>
-    <t xml:space="preserve">7.32673788070679</t>
+    <t xml:space="preserve">7.32673835754395</t>
   </si>
   <si>
     <t xml:space="preserve">7.38818836212158</t>
@@ -74,10 +74,10 @@
     <t xml:space="preserve">7.19438409805298</t>
   </si>
   <si>
-    <t xml:space="preserve">7.30310344696045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.09039211273193</t>
+    <t xml:space="preserve">7.30310249328613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09039163589478</t>
   </si>
   <si>
     <t xml:space="preserve">7.24165344238281</t>
@@ -86,76 +86,76 @@
     <t xml:space="preserve">7.45436525344849</t>
   </si>
   <si>
-    <t xml:space="preserve">7.34564542770386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46381950378418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25583410263062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.28892230987549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52054262161255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39291524887085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.24638032913208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15656852722168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94858407974243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6082444190979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55152177810669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.68860197067261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42862176895142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38607883453369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51843404769897</t>
+    <t xml:space="preserve">7.34564590454102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46381902694702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25583505630493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.28892278671265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52054214477539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39291477203369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.24637985229492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15656900405884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94858360290527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60824489593506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.55152273178101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68860244750977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42862272262573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38607931137085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51843309402466</t>
   </si>
   <si>
     <t xml:space="preserve">6.71696424484253</t>
   </si>
   <si>
-    <t xml:space="preserve">6.98639869689941</t>
+    <t xml:space="preserve">6.98639965057373</t>
   </si>
   <si>
     <t xml:space="preserve">6.8115029335022</t>
   </si>
   <si>
-    <t xml:space="preserve">6.9391303062439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.80204916000366</t>
+    <t xml:space="preserve">6.93913078308105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8020486831665</t>
   </si>
   <si>
     <t xml:space="preserve">6.72641801834106</t>
   </si>
   <si>
-    <t xml:space="preserve">7.09984636306763</t>
+    <t xml:space="preserve">7.09984588623047</t>
   </si>
   <si>
     <t xml:space="preserve">6.99585342407227</t>
   </si>
   <si>
-    <t xml:space="preserve">6.90604114532471</t>
+    <t xml:space="preserve">6.90604162216187</t>
   </si>
   <si>
     <t xml:space="preserve">6.9013147354126</t>
@@ -167,52 +167,52 @@
     <t xml:space="preserve">6.7595067024231</t>
   </si>
   <si>
-    <t xml:space="preserve">6.73114442825317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89658737182617</t>
+    <t xml:space="preserve">6.73114490509033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89658784866333</t>
   </si>
   <si>
     <t xml:space="preserve">6.88713359832764</t>
   </si>
   <si>
-    <t xml:space="preserve">6.96276426315308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11402654647827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.21801948547363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18965721130371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31728363037109</t>
+    <t xml:space="preserve">6.96276473999023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11402702331543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.21801900863647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18965673446655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31728410720825</t>
   </si>
   <si>
     <t xml:space="preserve">7.21329212188721</t>
   </si>
   <si>
-    <t xml:space="preserve">7.14711475372314</t>
+    <t xml:space="preserve">7.14711427688599</t>
   </si>
   <si>
     <t xml:space="preserve">7.35037279129028</t>
   </si>
   <si>
-    <t xml:space="preserve">7.20383834838867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27946901321411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03839540481567</t>
+    <t xml:space="preserve">7.20383787155151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27946853637695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03839635848999</t>
   </si>
   <si>
     <t xml:space="preserve">7.0194878578186</t>
   </si>
   <si>
-    <t xml:space="preserve">7.109299659729</t>
+    <t xml:space="preserve">7.10929918289185</t>
   </si>
   <si>
     <t xml:space="preserve">7.37873411178589</t>
@@ -221,52 +221,52 @@
     <t xml:space="preserve">7.43545722961426</t>
   </si>
   <si>
-    <t xml:space="preserve">7.33619165420532</t>
+    <t xml:space="preserve">7.33619213104248</t>
   </si>
   <si>
     <t xml:space="preserve">7.61508083343506</t>
   </si>
   <si>
-    <t xml:space="preserve">7.52526998519897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59617280960083</t>
+    <t xml:space="preserve">7.52526903152466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59617376327515</t>
   </si>
   <si>
     <t xml:space="preserve">7.6907114982605</t>
   </si>
   <si>
-    <t xml:space="preserve">7.667076587677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.84670114517212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71434640884399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7568883895874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8183388710022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85142755508423</t>
+    <t xml:space="preserve">7.66707563400269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8467001914978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71434497833252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75688791275024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81833934783936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85142803192139</t>
   </si>
   <si>
     <t xml:space="preserve">8.00268936157227</t>
   </si>
   <si>
-    <t xml:space="preserve">8.00741672515869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98850727081299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90342283248901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.06413745880127</t>
+    <t xml:space="preserve">8.00741577148438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9885082244873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90342426300049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.06413841247559</t>
   </si>
   <si>
     <t xml:space="preserve">7.99796104431152</t>
@@ -287,19 +287,19 @@
     <t xml:space="preserve">8.17076969146729</t>
   </si>
   <si>
-    <t xml:space="preserve">8.29428100585938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33703517913818</t>
+    <t xml:space="preserve">8.29428195953369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33703422546387</t>
   </si>
   <si>
     <t xml:space="preserve">8.36078834533691</t>
   </si>
   <si>
-    <t xml:space="preserve">8.34653759002686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.280029296875</t>
+    <t xml:space="preserve">8.34653568267822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28002834320068</t>
   </si>
   <si>
     <t xml:space="preserve">8.19927310943604</t>
@@ -308,7 +308,7 @@
     <t xml:space="preserve">8.20402336120605</t>
   </si>
   <si>
-    <t xml:space="preserve">8.26577854156494</t>
+    <t xml:space="preserve">8.26577949523926</t>
   </si>
   <si>
     <t xml:space="preserve">8.13276672363281</t>
@@ -317,16 +317,16 @@
     <t xml:space="preserve">8.03300666809082</t>
   </si>
   <si>
-    <t xml:space="preserve">7.93799686431885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75748157501221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74322891235352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7669825553894</t>
+    <t xml:space="preserve">7.93799829483032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75748109817505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74322986602783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76698160171509</t>
   </si>
   <si>
     <t xml:space="preserve">7.67197227478027</t>
@@ -344,34 +344,34 @@
     <t xml:space="preserve">8.18027114868164</t>
   </si>
   <si>
-    <t xml:space="preserve">7.79073333740234</t>
+    <t xml:space="preserve">7.79073429107666</t>
   </si>
   <si>
     <t xml:space="preserve">7.82873725891113</t>
   </si>
   <si>
-    <t xml:space="preserve">7.83823919296265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9902515411377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.04725933074951</t>
+    <t xml:space="preserve">7.83823776245117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99025249481201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.04725742340088</t>
   </si>
   <si>
     <t xml:space="preserve">8.00925445556641</t>
   </si>
   <si>
-    <t xml:space="preserve">7.92849683761597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83348846435547</t>
+    <t xml:space="preserve">7.92849731445312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83348941802979</t>
   </si>
   <si>
     <t xml:space="preserve">7.99975347518921</t>
   </si>
   <si>
-    <t xml:space="preserve">8.08051300048828</t>
+    <t xml:space="preserve">8.08051109313965</t>
   </si>
   <si>
     <t xml:space="preserve">8.03775596618652</t>
@@ -383,13 +383,13 @@
     <t xml:space="preserve">8.1755199432373</t>
   </si>
   <si>
-    <t xml:space="preserve">8.30378150939941</t>
+    <t xml:space="preserve">8.30378341674805</t>
   </si>
   <si>
     <t xml:space="preserve">8.28953075408936</t>
   </si>
   <si>
-    <t xml:space="preserve">8.31803417205811</t>
+    <t xml:space="preserve">8.31803321838379</t>
   </si>
   <si>
     <t xml:space="preserve">8.31328392028809</t>
@@ -398,16 +398,16 @@
     <t xml:space="preserve">8.43204402923584</t>
   </si>
   <si>
-    <t xml:space="preserve">8.48904895782471</t>
+    <t xml:space="preserve">8.48904991149902</t>
   </si>
   <si>
     <t xml:space="preserve">8.47479820251465</t>
   </si>
   <si>
-    <t xml:space="preserve">8.45579624176025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41779327392578</t>
+    <t xml:space="preserve">8.45579719543457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41779232025146</t>
   </si>
   <si>
     <t xml:space="preserve">8.2752799987793</t>
@@ -416,13 +416,13 @@
     <t xml:space="preserve">8.41304206848145</t>
   </si>
   <si>
-    <t xml:space="preserve">8.49379920959473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63631439208984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7360725402832</t>
+    <t xml:space="preserve">8.49380111694336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63631343841553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73607349395752</t>
   </si>
   <si>
     <t xml:space="preserve">8.64106464385986</t>
@@ -431,7 +431,7 @@
     <t xml:space="preserve">8.76457500457764</t>
   </si>
   <si>
-    <t xml:space="preserve">8.88808631896973</t>
+    <t xml:space="preserve">8.88808727264404</t>
   </si>
   <si>
     <t xml:space="preserve">8.78357696533203</t>
@@ -440,7 +440,7 @@
     <t xml:space="preserve">8.91658973693848</t>
   </si>
   <si>
-    <t xml:space="preserve">8.94034385681152</t>
+    <t xml:space="preserve">8.94034290313721</t>
   </si>
   <si>
     <t xml:space="preserve">9.05435276031494</t>
@@ -452,10 +452,10 @@
     <t xml:space="preserve">8.94984340667725</t>
   </si>
   <si>
-    <t xml:space="preserve">8.87858772277832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.88333702087402</t>
+    <t xml:space="preserve">8.878586769104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.88333797454834</t>
   </si>
   <si>
     <t xml:space="preserve">8.95459365844727</t>
@@ -464,28 +464,28 @@
     <t xml:space="preserve">8.86433506011963</t>
   </si>
   <si>
-    <t xml:space="preserve">8.9023380279541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89283561706543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.78832721710205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.72182273864746</t>
+    <t xml:space="preserve">8.90233898162842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89283752441406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.78832912445068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.72182178497314</t>
   </si>
   <si>
     <t xml:space="preserve">8.70281982421875</t>
   </si>
   <si>
-    <t xml:space="preserve">8.68856906890869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.6125602722168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.6695671081543</t>
+    <t xml:space="preserve">8.68857002258301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.61256122589111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66956615447998</t>
   </si>
   <si>
     <t xml:space="preserve">8.66006565093994</t>
@@ -494,19 +494,19 @@
     <t xml:space="preserve">8.79782962799072</t>
   </si>
   <si>
-    <t xml:space="preserve">8.62681293487549</t>
+    <t xml:space="preserve">8.62681198120117</t>
   </si>
   <si>
     <t xml:space="preserve">8.74557399749756</t>
   </si>
   <si>
-    <t xml:space="preserve">8.62206077575684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68381977081299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74082374572754</t>
+    <t xml:space="preserve">8.62206268310547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68381881713867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74082279205322</t>
   </si>
   <si>
     <t xml:space="preserve">8.59355926513672</t>
@@ -524,40 +524,40 @@
     <t xml:space="preserve">9.21586799621582</t>
   </si>
   <si>
-    <t xml:space="preserve">9.38688373565674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20636653900146</t>
+    <t xml:space="preserve">9.38688468933105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20636749267578</t>
   </si>
   <si>
     <t xml:space="preserve">9.14936256408691</t>
   </si>
   <si>
-    <t xml:space="preserve">9.02585029602051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.07335567474365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.94509315490723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63156318664551</t>
+    <t xml:space="preserve">9.02584934234619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.07335472106934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.94509220123291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63156414031982</t>
   </si>
   <si>
     <t xml:space="preserve">8.55080604553223</t>
   </si>
   <si>
-    <t xml:space="preserve">8.5270528793335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52230167388916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71232128143311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47004699707031</t>
+    <t xml:space="preserve">8.52705383300781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52230262756348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71231937408447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47004795074463</t>
   </si>
   <si>
     <t xml:space="preserve">8.58880805969238</t>
@@ -566,19 +566,19 @@
     <t xml:space="preserve">8.50805187225342</t>
   </si>
   <si>
-    <t xml:space="preserve">8.59830856323242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.12085914611816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.23487091064453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19686508178711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.6458158493042</t>
+    <t xml:space="preserve">8.59830951690674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.12086009979248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.23486995697021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19686698913574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64581489562988</t>
   </si>
   <si>
     <t xml:space="preserve">8.28478050231934</t>
@@ -587,40 +587,40 @@
     <t xml:space="preserve">8.43679428100586</t>
   </si>
   <si>
-    <t xml:space="preserve">7.55321216583252</t>
+    <t xml:space="preserve">7.55321168899536</t>
   </si>
   <si>
     <t xml:space="preserve">8.10426330566406</t>
   </si>
   <si>
-    <t xml:space="preserve">8.07576179504395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.51280307769775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53655433654785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57455730438232</t>
+    <t xml:space="preserve">8.07575988769531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.51280212402344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53655529022217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57455825805664</t>
   </si>
   <si>
     <t xml:space="preserve">8.60781097412109</t>
   </si>
   <si>
-    <t xml:space="preserve">8.49855041503906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35603713989258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30853271484375</t>
+    <t xml:space="preserve">8.49855136871338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35603618621826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30853176116943</t>
   </si>
   <si>
     <t xml:space="preserve">8.50330066680908</t>
   </si>
   <si>
-    <t xml:space="preserve">8.70757007598877</t>
+    <t xml:space="preserve">8.70756912231445</t>
   </si>
   <si>
     <t xml:space="preserve">8.77882766723633</t>
@@ -635,13 +635,13 @@
     <t xml:space="preserve">8.87383651733398</t>
   </si>
   <si>
-    <t xml:space="preserve">8.84058284759521</t>
+    <t xml:space="preserve">8.84058380126953</t>
   </si>
   <si>
     <t xml:space="preserve">9.29187488555908</t>
   </si>
   <si>
-    <t xml:space="preserve">9.10185813903809</t>
+    <t xml:space="preserve">9.10185718536377</t>
   </si>
   <si>
     <t xml:space="preserve">9.27762508392334</t>
@@ -659,7 +659,7 @@
     <t xml:space="preserve">9.5198974609375</t>
   </si>
   <si>
-    <t xml:space="preserve">9.43438816070557</t>
+    <t xml:space="preserve">9.43438911437988</t>
   </si>
   <si>
     <t xml:space="preserve">9.50089550018311</t>
@@ -683,28 +683,28 @@
     <t xml:space="preserve">9.24437046051025</t>
   </si>
   <si>
-    <t xml:space="preserve">9.29662609100342</t>
+    <t xml:space="preserve">9.29662704467773</t>
   </si>
   <si>
     <t xml:space="preserve">9.60540580749512</t>
   </si>
   <si>
-    <t xml:space="preserve">9.95693778991699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1089534759521</t>
+    <t xml:space="preserve">9.95693683624268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1089525222778</t>
   </si>
   <si>
     <t xml:space="preserve">9.97593975067139</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0614471435547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.78592109680176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85242748260498</t>
+    <t xml:space="preserve">10.061448097229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.78592300415039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8524284362793</t>
   </si>
   <si>
     <t xml:space="preserve">9.86192798614502</t>
@@ -719,7 +719,7 @@
     <t xml:space="preserve">10.1754589080811</t>
   </si>
   <si>
-    <t xml:space="preserve">10.156455039978</t>
+    <t xml:space="preserve">10.1564559936523</t>
   </si>
   <si>
     <t xml:space="preserve">10.3369741439819</t>
@@ -728,7 +728,7 @@
     <t xml:space="preserve">10.3939800262451</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4129829406738</t>
+    <t xml:space="preserve">10.4129819869995</t>
   </si>
   <si>
     <t xml:space="preserve">10.5839967727661</t>
@@ -740,31 +740,31 @@
     <t xml:space="preserve">10.5174913406372</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4889869689941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7360124588013</t>
+    <t xml:space="preserve">10.4889888763428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.736011505127</t>
   </si>
   <si>
     <t xml:space="preserve">10.6695051193237</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6600027084351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9735345840454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.049542427063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8785257339478</t>
+    <t xml:space="preserve">10.6600036621094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9735336303711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0495405197144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8785266876221</t>
   </si>
   <si>
     <t xml:space="preserve">10.8120193481445</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8025178909302</t>
+    <t xml:space="preserve">10.8025188446045</t>
   </si>
   <si>
     <t xml:space="preserve">10.7835168838501</t>
@@ -773,16 +773,16 @@
     <t xml:space="preserve">10.8690242767334</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0590438842773</t>
+    <t xml:space="preserve">11.059042930603</t>
   </si>
   <si>
     <t xml:space="preserve">11.0020380020142</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0970458984375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1635513305664</t>
+    <t xml:space="preserve">11.0970468521118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1635503768921</t>
   </si>
   <si>
     <t xml:space="preserve">11.2965650558472</t>
@@ -791,7 +791,7 @@
     <t xml:space="preserve">11.2585601806641</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4200754165649</t>
+    <t xml:space="preserve">11.4200773239136</t>
   </si>
   <si>
     <t xml:space="preserve">11.1255474090576</t>
@@ -806,7 +806,7 @@
     <t xml:space="preserve">11.3155660629272</t>
   </si>
   <si>
-    <t xml:space="preserve">11.353569984436</t>
+    <t xml:space="preserve">11.3535690307617</t>
   </si>
   <si>
     <t xml:space="preserve">11.4485788345337</t>
@@ -821,58 +821,58 @@
     <t xml:space="preserve">11.6290950775146</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7533178329468</t>
+    <t xml:space="preserve">11.7533187866211</t>
   </si>
   <si>
     <t xml:space="preserve">12.0017623901367</t>
   </si>
   <si>
-    <t xml:space="preserve">12.039984703064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1259822845459</t>
+    <t xml:space="preserve">12.0399837493896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1259832382202</t>
   </si>
   <si>
     <t xml:space="preserve">12.0973176956177</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1068716049194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1164283752441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.145094871521</t>
+    <t xml:space="preserve">12.1068725585938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1164274215698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1450958251953</t>
   </si>
   <si>
     <t xml:space="preserve">12.2406511306763</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2788743972778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2024297714233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3935394287109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3648719787598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4222068786621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.087760925293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3266496658325</t>
+    <t xml:space="preserve">12.2788734436035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.202428817749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3935403823853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3648710250854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4222059249878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0877618789673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3266487121582</t>
   </si>
   <si>
     <t xml:space="preserve">11.6577625274658</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4666509628296</t>
+    <t xml:space="preserve">11.4666519165039</t>
   </si>
   <si>
     <t xml:space="preserve">11.8679847717285</t>
@@ -884,13 +884,13 @@
     <t xml:space="preserve">11.9444284439087</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9348735809326</t>
+    <t xml:space="preserve">11.9348726272583</t>
   </si>
   <si>
     <t xml:space="preserve">11.8010969161987</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7437620162964</t>
+    <t xml:space="preserve">11.7437610626221</t>
   </si>
   <si>
     <t xml:space="preserve">11.6959838867188</t>
@@ -902,7 +902,7 @@
     <t xml:space="preserve">11.5430946350098</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2468748092651</t>
+    <t xml:space="preserve">11.2468738555908</t>
   </si>
   <si>
     <t xml:space="preserve">11.0462083816528</t>
@@ -920,16 +920,16 @@
     <t xml:space="preserve">10.9028739929199</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0748739242554</t>
+    <t xml:space="preserve">11.0748748779297</t>
   </si>
   <si>
     <t xml:space="preserve">11.0653190612793</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1130971908569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3042068481445</t>
+    <t xml:space="preserve">11.1130962371826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3042058944702</t>
   </si>
   <si>
     <t xml:space="preserve">11.5239858627319</t>
@@ -938,16 +938,16 @@
     <t xml:space="preserve">11.5526514053345</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5144290924072</t>
+    <t xml:space="preserve">11.5144281387329</t>
   </si>
   <si>
     <t xml:space="preserve">11.581316947937</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4379854202271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6768732070923</t>
+    <t xml:space="preserve">11.4379844665527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6768741607666</t>
   </si>
   <si>
     <t xml:space="preserve">11.6004285812378</t>
@@ -959,7 +959,7 @@
     <t xml:space="preserve">11.4475393295288</t>
   </si>
   <si>
-    <t xml:space="preserve">11.418872833252</t>
+    <t xml:space="preserve">11.4188737869263</t>
   </si>
   <si>
     <t xml:space="preserve">11.275541305542</t>
@@ -968,7 +968,7 @@
     <t xml:space="preserve">11.1990957260132</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0844287872314</t>
+    <t xml:space="preserve">11.0844297409058</t>
   </si>
   <si>
     <t xml:space="preserve">10.8264303207397</t>
@@ -977,34 +977,34 @@
     <t xml:space="preserve">10.9984292984009</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9506530761719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3615398406982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3328742980957</t>
+    <t xml:space="preserve">10.9506521224976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3615417480469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3328733444214</t>
   </si>
   <si>
     <t xml:space="preserve">11.2373180389404</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2946529388428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4857625961304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4953174591064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4093179702759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2277631759644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2564306259155</t>
+    <t xml:space="preserve">11.2946510314941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4857635498047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4953165054321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4093189239502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.22776222229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2564296722412</t>
   </si>
   <si>
     <t xml:space="preserve">11.3424291610718</t>
@@ -1019,19 +1019,19 @@
     <t xml:space="preserve">11.992205619812</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1642055511475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1928720474243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1355400085449</t>
+    <t xml:space="preserve">12.1642065048218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1928739547729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1355381011963</t>
   </si>
   <si>
     <t xml:space="preserve">12.2310943603516</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2215394973755</t>
+    <t xml:space="preserve">12.2215385437012</t>
   </si>
   <si>
     <t xml:space="preserve">12.2597608566284</t>
@@ -1040,7 +1040,7 @@
     <t xml:space="preserve">12.1546506881714</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0113172531128</t>
+    <t xml:space="preserve">12.0113162994385</t>
   </si>
   <si>
     <t xml:space="preserve">12.4030952453613</t>
@@ -1061,13 +1061,13 @@
     <t xml:space="preserve">12.8330955505371</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9764270782471</t>
+    <t xml:space="preserve">12.9764280319214</t>
   </si>
   <si>
     <t xml:space="preserve">13.0050926208496</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0242042541504</t>
+    <t xml:space="preserve">13.0242052078247</t>
   </si>
   <si>
     <t xml:space="preserve">12.9955387115479</t>
@@ -1076,22 +1076,22 @@
     <t xml:space="preserve">12.3744277954102</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9635400772095</t>
+    <t xml:space="preserve">11.9635410308838</t>
   </si>
   <si>
     <t xml:space="preserve">12.0304279327393</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2119846343994</t>
+    <t xml:space="preserve">12.2119836807251</t>
   </si>
   <si>
     <t xml:space="preserve">12.355318069458</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4604263305664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0782079696655</t>
+    <t xml:space="preserve">12.4604272842407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0782070159912</t>
   </si>
   <si>
     <t xml:space="preserve">11.6195392608643</t>
@@ -1106,7 +1106,7 @@
     <t xml:space="preserve">11.8488731384277</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9539833068848</t>
+    <t xml:space="preserve">11.9539842605591</t>
   </si>
   <si>
     <t xml:space="preserve">12.2693176269531</t>
@@ -1115,7 +1115,7 @@
     <t xml:space="preserve">12.250205039978</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3839826583862</t>
+    <t xml:space="preserve">12.3839836120605</t>
   </si>
   <si>
     <t xml:space="preserve">12.3170948028564</t>
@@ -1130,28 +1130,28 @@
     <t xml:space="preserve">12.3457612991333</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9157609939575</t>
+    <t xml:space="preserve">11.9157619476318</t>
   </si>
   <si>
     <t xml:space="preserve">12.3075389862061</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7279815673828</t>
+    <t xml:space="preserve">12.7279825210571</t>
   </si>
   <si>
     <t xml:space="preserve">12.7375383377075</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6897602081299</t>
+    <t xml:space="preserve">12.6897611618042</t>
   </si>
   <si>
     <t xml:space="preserve">12.8235387802124</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3299808502197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.320426940918</t>
+    <t xml:space="preserve">13.329981803894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3204259872437</t>
   </si>
   <si>
     <t xml:space="preserve">13.2822036743164</t>
@@ -1160,22 +1160,22 @@
     <t xml:space="preserve">13.1484260559082</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6262044906616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6644268035889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.740870475769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7599802017212</t>
+    <t xml:space="preserve">13.6262035369873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6644258499146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7408695220947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7599811553955</t>
   </si>
   <si>
     <t xml:space="preserve">13.8077592849731</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7122039794922</t>
+    <t xml:space="preserve">13.7122049331665</t>
   </si>
   <si>
     <t xml:space="preserve">13.4542045593262</t>
@@ -1193,7 +1193,7 @@
     <t xml:space="preserve">12.8044261932373</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5942049026489</t>
+    <t xml:space="preserve">12.5942058563232</t>
   </si>
   <si>
     <t xml:space="preserve">12.5655384063721</t>
@@ -1211,43 +1211,43 @@
     <t xml:space="preserve">13.071982383728</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0433158874512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7853164672852</t>
+    <t xml:space="preserve">13.0433149337769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7853174209595</t>
   </si>
   <si>
     <t xml:space="preserve">12.4699831008911</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4413175582886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9190940856934</t>
+    <t xml:space="preserve">12.4413185119629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9190921783447</t>
   </si>
   <si>
     <t xml:space="preserve">13.2344264984131</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2917594909668</t>
+    <t xml:space="preserve">13.2917604446411</t>
   </si>
   <si>
     <t xml:space="preserve">13.4637603759766</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6070919036865</t>
+    <t xml:space="preserve">13.6070928573608</t>
   </si>
   <si>
     <t xml:space="preserve">13.5306482315063</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5210933685303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3586492538452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5402050018311</t>
+    <t xml:space="preserve">13.521092414856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3586483001709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5402040481567</t>
   </si>
   <si>
     <t xml:space="preserve">13.4446477890015</t>
@@ -1259,7 +1259,7 @@
     <t xml:space="preserve">13.0528707504272</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4924259185791</t>
+    <t xml:space="preserve">13.4924268722534</t>
   </si>
   <si>
     <t xml:space="preserve">13.7695379257202</t>
@@ -1268,16 +1268,16 @@
     <t xml:space="preserve">13.8459815979004</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5115375518799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9988698959351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2090911865234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3524265289307</t>
+    <t xml:space="preserve">13.5115385055542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9988708496094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2090930938721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3524255752563</t>
   </si>
   <si>
     <t xml:space="preserve">14.6104249954224</t>
@@ -1292,7 +1292,7 @@
     <t xml:space="preserve">14.8206462860107</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9066457748413</t>
+    <t xml:space="preserve">14.9066467285156</t>
   </si>
   <si>
     <t xml:space="preserve">15.1359806060791</t>
@@ -1307,19 +1307,19 @@
     <t xml:space="preserve">15.1933135986328</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2219791412354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2602033615112</t>
+    <t xml:space="preserve">15.221981048584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2602024078369</t>
   </si>
   <si>
     <t xml:space="preserve">15.126425743103</t>
   </si>
   <si>
-    <t xml:space="preserve">15.116868019104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9353141784668</t>
+    <t xml:space="preserve">15.1168670654297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9353132247925</t>
   </si>
   <si>
     <t xml:space="preserve">14.8110914230347</t>
@@ -1328,7 +1328,7 @@
     <t xml:space="preserve">15.3939800262451</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4990911483765</t>
+    <t xml:space="preserve">15.4990892410278</t>
   </si>
   <si>
     <t xml:space="preserve">15.4704246520996</t>
@@ -1340,16 +1340,16 @@
     <t xml:space="preserve">15.6710920333862</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6233129501343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7857580184937</t>
+    <t xml:space="preserve">15.62331199646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.785756111145</t>
   </si>
   <si>
     <t xml:space="preserve">15.8908672332764</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6519784927368</t>
+    <t xml:space="preserve">15.6519775390625</t>
   </si>
   <si>
     <t xml:space="preserve">15.2410898208618</t>
@@ -1358,13 +1358,13 @@
     <t xml:space="preserve">15.5755338668823</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0401563644409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.886194229126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5590238571167</t>
+    <t xml:space="preserve">15.0401554107666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8861951828003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.559024810791</t>
   </si>
   <si>
     <t xml:space="preserve">14.8284568786621</t>
@@ -1376,19 +1376,19 @@
     <t xml:space="preserve">15.0978908538818</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1356287002563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6167612075806</t>
+    <t xml:space="preserve">14.1356296539307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6167602539062</t>
   </si>
   <si>
     <t xml:space="preserve">14.838080406189</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8477039337158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4154386520386</t>
+    <t xml:space="preserve">14.8477029800415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4154376983643</t>
   </si>
   <si>
     <t xml:space="preserve">15.7233619689941</t>
@@ -1406,10 +1406,10 @@
     <t xml:space="preserve">16.406566619873</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4450588226318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.454683303833</t>
+    <t xml:space="preserve">16.4450569152832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4546813964844</t>
   </si>
   <si>
     <t xml:space="preserve">16.5701503753662</t>
@@ -1421,13 +1421,13 @@
     <t xml:space="preserve">16.3103427886963</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7722263336182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9743022918701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9165668487549</t>
+    <t xml:space="preserve">16.7722282409668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9743003845215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9165649414062</t>
   </si>
   <si>
     <t xml:space="preserve">16.8203430175781</t>
@@ -1436,7 +1436,7 @@
     <t xml:space="preserve">16.5509071350098</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5027942657471</t>
+    <t xml:space="preserve">16.5027923583984</t>
   </si>
   <si>
     <t xml:space="preserve">16.9261875152588</t>
@@ -1445,10 +1445,10 @@
     <t xml:space="preserve">17.0897731781006</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1378841400146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3014717102051</t>
+    <t xml:space="preserve">17.1378860473633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3014698028564</t>
   </si>
   <si>
     <t xml:space="preserve">17.1763782501221</t>
@@ -1466,7 +1466,7 @@
     <t xml:space="preserve">16.4643020629883</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6471347808838</t>
+    <t xml:space="preserve">16.6471328735352</t>
   </si>
   <si>
     <t xml:space="preserve">16.8010959625244</t>
@@ -1493,13 +1493,13 @@
     <t xml:space="preserve">18.3503379821777</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4369411468506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9950523376465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4080696105957</t>
+    <t xml:space="preserve">18.436939239502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9950542449951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4080715179443</t>
   </si>
   <si>
     <t xml:space="preserve">18.6871299743652</t>
@@ -1517,7 +1517,7 @@
     <t xml:space="preserve">17.8980751037598</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0520362854004</t>
+    <t xml:space="preserve">18.0520343780518</t>
   </si>
   <si>
     <t xml:space="preserve">18.0231666564941</t>
@@ -1535,19 +1535,19 @@
     <t xml:space="preserve">18.3022232055664</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3792037963867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4850540161133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.331090927124</t>
+    <t xml:space="preserve">18.3792057037354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4850521087646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3310928344727</t>
   </si>
   <si>
     <t xml:space="preserve">18.205997467041</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2733535766602</t>
+    <t xml:space="preserve">18.2733554840088</t>
   </si>
   <si>
     <t xml:space="preserve">17.8403377532959</t>
@@ -1565,7 +1565,7 @@
     <t xml:space="preserve">19.0239200592041</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6301460266113</t>
+    <t xml:space="preserve">19.6301441192627</t>
   </si>
   <si>
     <t xml:space="preserve">19.7071285247803</t>
@@ -1574,13 +1574,13 @@
     <t xml:space="preserve">19.6686363220215</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4761848449707</t>
+    <t xml:space="preserve">19.4761829376221</t>
   </si>
   <si>
     <t xml:space="preserve">19.3414669036865</t>
   </si>
   <si>
-    <t xml:space="preserve">19.004674911499</t>
+    <t xml:space="preserve">19.0046730041504</t>
   </si>
   <si>
     <t xml:space="preserve">18.7256183624268</t>
@@ -1592,13 +1592,13 @@
     <t xml:space="preserve">19.0527858734131</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2452411651611</t>
+    <t xml:space="preserve">19.2452392578125</t>
   </si>
   <si>
     <t xml:space="preserve">18.9661827087402</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4176959991455</t>
+    <t xml:space="preserve">18.4176979064941</t>
   </si>
   <si>
     <t xml:space="preserve">18.7833557128906</t>
@@ -1610,13 +1610,13 @@
     <t xml:space="preserve">17.5612831115723</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8107166290283</t>
+    <t xml:space="preserve">16.810718536377</t>
   </si>
   <si>
     <t xml:space="preserve">15.6848707199097</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8195886611938</t>
+    <t xml:space="preserve">15.8195877075195</t>
   </si>
   <si>
     <t xml:space="preserve">15.9061918258667</t>
@@ -1634,7 +1634,7 @@
     <t xml:space="preserve">16.0409088134766</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9639282226562</t>
+    <t xml:space="preserve">15.9639301300049</t>
   </si>
   <si>
     <t xml:space="preserve">15.1748733520508</t>
@@ -1643,10 +1643,10 @@
     <t xml:space="preserve">15.2999658584595</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2229852676392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2037401199341</t>
+    <t xml:space="preserve">15.2229862213135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2037391662598</t>
   </si>
   <si>
     <t xml:space="preserve">15.2422313690186</t>
@@ -1655,7 +1655,7 @@
     <t xml:space="preserve">15.0690231323242</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8765726089478</t>
+    <t xml:space="preserve">14.8765716552734</t>
   </si>
   <si>
     <t xml:space="preserve">14.9246835708618</t>
@@ -1667,7 +1667,7 @@
     <t xml:space="preserve">14.8669481277466</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1556282043457</t>
+    <t xml:space="preserve">15.1556272506714</t>
   </si>
   <si>
     <t xml:space="preserve">15.2807207107544</t>
@@ -1676,13 +1676,13 @@
     <t xml:space="preserve">15.011287689209</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0201568603516</t>
+    <t xml:space="preserve">14.0201559066772</t>
   </si>
   <si>
     <t xml:space="preserve">13.9335536956787</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3273286819458</t>
+    <t xml:space="preserve">13.3273296356201</t>
   </si>
   <si>
     <t xml:space="preserve">13.2792167663574</t>
@@ -1694,10 +1694,10 @@
     <t xml:space="preserve">13.4620456695557</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5967626571655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8565731048584</t>
+    <t xml:space="preserve">13.5967617034912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8565721511841</t>
   </si>
   <si>
     <t xml:space="preserve">13.6929883956909</t>
@@ -1712,28 +1712,28 @@
     <t xml:space="preserve">14.2222318649292</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7129859924316</t>
+    <t xml:space="preserve">14.712986946106</t>
   </si>
   <si>
     <t xml:space="preserve">14.4339303970337</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3761940002441</t>
+    <t xml:space="preserve">14.3761930465698</t>
   </si>
   <si>
     <t xml:space="preserve">14.5205345153809</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5494022369385</t>
+    <t xml:space="preserve">14.5494031906128</t>
   </si>
   <si>
     <t xml:space="preserve">14.0009126663208</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9431762695312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7988386154175</t>
+    <t xml:space="preserve">13.9431772232056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7988376617432</t>
   </si>
   <si>
     <t xml:space="preserve">13.962423324585</t>
@@ -1742,7 +1742,7 @@
     <t xml:space="preserve">14.106761932373</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1548738479614</t>
+    <t xml:space="preserve">14.1548748016357</t>
   </si>
   <si>
     <t xml:space="preserve">14.6360054016113</t>
@@ -1754,28 +1754,28 @@
     <t xml:space="preserve">12.9135570526123</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5197811126709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.385064125061</t>
+    <t xml:space="preserve">13.5197820663452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3850631713867</t>
   </si>
   <si>
     <t xml:space="preserve">13.9527988433838</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2799692153931</t>
+    <t xml:space="preserve">14.2799682617188</t>
   </si>
   <si>
     <t xml:space="preserve">15.0593996047974</t>
   </si>
   <si>
-    <t xml:space="preserve">15.482795715332</t>
+    <t xml:space="preserve">15.4827966690063</t>
   </si>
   <si>
     <t xml:space="preserve">15.1075134277344</t>
   </si>
   <si>
-    <t xml:space="preserve">15.309588432312</t>
+    <t xml:space="preserve">15.3095893859863</t>
   </si>
   <si>
     <t xml:space="preserve">15.4058151245117</t>
@@ -1793,16 +1793,16 @@
     <t xml:space="preserve">15.5212869644165</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3673248291016</t>
+    <t xml:space="preserve">15.3673238754272</t>
   </si>
   <si>
     <t xml:space="preserve">15.2518539428711</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1460037231445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0497779846191</t>
+    <t xml:space="preserve">15.1460046768188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0497789382935</t>
   </si>
   <si>
     <t xml:space="preserve">15.0882701873779</t>
@@ -1814,16 +1814,16 @@
     <t xml:space="preserve">15.8484563827515</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9446792602539</t>
+    <t xml:space="preserve">15.9446811676025</t>
   </si>
   <si>
     <t xml:space="preserve">15.2903442382812</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4443063735962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7810974121094</t>
+    <t xml:space="preserve">15.4443054199219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7810964584351</t>
   </si>
   <si>
     <t xml:space="preserve">15.6656265258789</t>
@@ -1835,7 +1835,7 @@
     <t xml:space="preserve">15.0016641616821</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1267585754395</t>
+    <t xml:space="preserve">15.1267595291138</t>
   </si>
   <si>
     <t xml:space="preserve">15.4539279937744</t>
@@ -1850,7 +1850,7 @@
     <t xml:space="preserve">15.5982666015625</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7426071166992</t>
+    <t xml:space="preserve">15.7426080703735</t>
   </si>
   <si>
     <t xml:space="preserve">15.9735488891602</t>
@@ -1859,7 +1859,7 @@
     <t xml:space="preserve">16.6760025024414</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2044925689697</t>
+    <t xml:space="preserve">16.2044944763184</t>
   </si>
   <si>
     <t xml:space="preserve">15.4924192428589</t>
@@ -1871,25 +1871,25 @@
     <t xml:space="preserve">16.93581199646</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0993976593018</t>
+    <t xml:space="preserve">17.0993995666504</t>
   </si>
   <si>
     <t xml:space="preserve">16.7433605194092</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4354343414307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4739303588867</t>
+    <t xml:space="preserve">16.4354362487793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4739284515381</t>
   </si>
   <si>
     <t xml:space="preserve">17.0031700134277</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6663780212402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.060905456543</t>
+    <t xml:space="preserve">16.6663799285889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0609035491943</t>
   </si>
   <si>
     <t xml:space="preserve">16.9839248657227</t>
@@ -1901,13 +1901,13 @@
     <t xml:space="preserve">17.1186428070068</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4931697845459</t>
+    <t xml:space="preserve">16.4931678771973</t>
   </si>
   <si>
     <t xml:space="preserve">16.137134552002</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1275119781494</t>
+    <t xml:space="preserve">16.1275100708008</t>
   </si>
   <si>
     <t xml:space="preserve">16.1660003662109</t>
@@ -1931,10 +1931,10 @@
     <t xml:space="preserve">17.9269428253174</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3599586486816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5709037780762</t>
+    <t xml:space="preserve">18.3599605560303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5709056854248</t>
   </si>
   <si>
     <t xml:space="preserve">17.5420360565186</t>
@@ -1952,7 +1952,7 @@
     <t xml:space="preserve">19.1526565551758</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8892955780029</t>
+    <t xml:space="preserve">19.8892974853516</t>
   </si>
   <si>
     <t xml:space="preserve">19.7923698425293</t>
@@ -1979,7 +1979,7 @@
     <t xml:space="preserve">19.3174324035645</t>
   </si>
   <si>
-    <t xml:space="preserve">19.520975112915</t>
+    <t xml:space="preserve">19.5209732055664</t>
   </si>
   <si>
     <t xml:space="preserve">19.6760578155518</t>
@@ -1997,16 +1997,16 @@
     <t xml:space="preserve">19.5403633117676</t>
   </si>
   <si>
-    <t xml:space="preserve">20.199462890625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4514694213867</t>
+    <t xml:space="preserve">20.1994609832764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4514713287354</t>
   </si>
   <si>
     <t xml:space="preserve">20.5677814483643</t>
   </si>
   <si>
-    <t xml:space="preserve">20.897331237793</t>
+    <t xml:space="preserve">20.8973293304443</t>
   </si>
   <si>
     <t xml:space="preserve">20.8585624694824</t>
@@ -2021,7 +2021,7 @@
     <t xml:space="preserve">20.1413059234619</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7729835510254</t>
+    <t xml:space="preserve">19.772985458374</t>
   </si>
   <si>
     <t xml:space="preserve">19.5985164642334</t>
@@ -2033,13 +2033,13 @@
     <t xml:space="preserve">19.9668369293213</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3933143615723</t>
+    <t xml:space="preserve">20.3933162689209</t>
   </si>
   <si>
     <t xml:space="preserve">20.2382316589355</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9474506378174</t>
+    <t xml:space="preserve">19.947452545166</t>
   </si>
   <si>
     <t xml:space="preserve">19.8505268096924</t>
@@ -2048,13 +2048,13 @@
     <t xml:space="preserve">20.0249919891357</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6065521240234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5871677398682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5290126800537</t>
+    <t xml:space="preserve">20.6065502166748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5871658325195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5290107727051</t>
   </si>
   <si>
     <t xml:space="preserve">21.0136432647705</t>
@@ -2072,13 +2072,13 @@
     <t xml:space="preserve">20.4320850372314</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4902381896973</t>
+    <t xml:space="preserve">20.4902400970459</t>
   </si>
   <si>
     <t xml:space="preserve">21.5952014923096</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4982738494873</t>
+    <t xml:space="preserve">21.4982757568359</t>
   </si>
   <si>
     <t xml:space="preserve">20.7422485351562</t>
@@ -2090,13 +2090,13 @@
     <t xml:space="preserve">20.8779468536377</t>
   </si>
   <si>
-    <t xml:space="preserve">21.30442237854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4207344055176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4788875579834</t>
+    <t xml:space="preserve">21.3044204711914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4207363128662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.478889465332</t>
   </si>
   <si>
     <t xml:space="preserve">21.5758171081543</t>
@@ -2105,7 +2105,7 @@
     <t xml:space="preserve">21.3431911468506</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6145858764648</t>
+    <t xml:space="preserve">21.6145839691162</t>
   </si>
   <si>
     <t xml:space="preserve">22.1767578125</t>
@@ -2123,10 +2123,10 @@
     <t xml:space="preserve">22.4287662506104</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5838489532471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2930736541748</t>
+    <t xml:space="preserve">22.5838508605957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2930717468262</t>
   </si>
   <si>
     <t xml:space="preserve">22.2736835479736</t>
@@ -2147,7 +2147,7 @@
     <t xml:space="preserve">22.3899993896484</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5644645690918</t>
+    <t xml:space="preserve">22.5644664764404</t>
   </si>
   <si>
     <t xml:space="preserve">21.6727428436279</t>
@@ -2159,7 +2159,7 @@
     <t xml:space="preserve">20.7616329193115</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4401187896729</t>
+    <t xml:space="preserve">21.4401206970215</t>
   </si>
   <si>
     <t xml:space="preserve">21.0911846160889</t>
@@ -2174,13 +2174,13 @@
     <t xml:space="preserve">22.0604476928711</t>
   </si>
   <si>
-    <t xml:space="preserve">21.827823638916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5370445251465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6921272277832</t>
+    <t xml:space="preserve">21.8278255462646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5370464324951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6921253204346</t>
   </si>
   <si>
     <t xml:space="preserve">21.9247512817383</t>
@@ -2201,7 +2201,7 @@
     <t xml:space="preserve">20.9167175292969</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8004035949707</t>
+    <t xml:space="preserve">20.8004055023193</t>
   </si>
   <si>
     <t xml:space="preserve">21.1687240600586</t>
@@ -2213,7 +2213,7 @@
     <t xml:space="preserve">21.2074947357178</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2462673187256</t>
+    <t xml:space="preserve">21.246265411377</t>
   </si>
   <si>
     <t xml:space="preserve">20.6259384155273</t>
@@ -2222,7 +2222,7 @@
     <t xml:space="preserve">20.645320892334</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1573753356934</t>
+    <t xml:space="preserve">22.1573734283447</t>
   </si>
   <si>
     <t xml:space="preserve">22.3512268066406</t>
@@ -2237,7 +2237,7 @@
     <t xml:space="preserve">23.3592624664307</t>
   </si>
   <si>
-    <t xml:space="preserve">23.8051223754883</t>
+    <t xml:space="preserve">23.8051204681396</t>
   </si>
   <si>
     <t xml:space="preserve">24.0765171051025</t>
@@ -2252,22 +2252,22 @@
     <t xml:space="preserve">24.4448356628418</t>
   </si>
   <si>
-    <t xml:space="preserve">24.1540584564209</t>
+    <t xml:space="preserve">24.1540565490723</t>
   </si>
   <si>
     <t xml:space="preserve">24.2315998077393</t>
   </si>
   <si>
-    <t xml:space="preserve">24.3285274505615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7356147766113</t>
+    <t xml:space="preserve">24.3285255432129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.73561668396</t>
   </si>
   <si>
     <t xml:space="preserve">25.2396335601807</t>
   </si>
   <si>
-    <t xml:space="preserve">25.4722557067871</t>
+    <t xml:space="preserve">25.4722576141357</t>
   </si>
   <si>
     <t xml:space="preserve">25.7436504364014</t>
@@ -2276,7 +2276,7 @@
     <t xml:space="preserve">24.6968460083008</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3559455871582</t>
+    <t xml:space="preserve">25.3559474945068</t>
   </si>
   <si>
     <t xml:space="preserve">25.666109085083</t>
@@ -2285,19 +2285,19 @@
     <t xml:space="preserve">25.2977886199951</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3947143554688</t>
+    <t xml:space="preserve">25.3947162628174</t>
   </si>
   <si>
     <t xml:space="preserve">24.9876251220703</t>
   </si>
   <si>
-    <t xml:space="preserve">25.317174911499</t>
+    <t xml:space="preserve">25.3171768188477</t>
   </si>
   <si>
     <t xml:space="preserve">25.2008647918701</t>
   </si>
   <si>
-    <t xml:space="preserve">25.0070095062256</t>
+    <t xml:space="preserve">25.007007598877</t>
   </si>
   <si>
     <t xml:space="preserve">24.8131580352783</t>
@@ -2318,10 +2318,10 @@
     <t xml:space="preserve">24.8519287109375</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9294700622559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9488544464111</t>
+    <t xml:space="preserve">24.9294681549072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9488525390625</t>
   </si>
   <si>
     <t xml:space="preserve">25.0651664733887</t>
@@ -2336,7 +2336,7 @@
     <t xml:space="preserve">25.2202491760254</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3753299713135</t>
+    <t xml:space="preserve">25.3753318786621</t>
   </si>
   <si>
     <t xml:space="preserve">25.5885696411133</t>
@@ -2354,13 +2354,13 @@
     <t xml:space="preserve">25.5304126739502</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2089004516602</t>
+    <t xml:space="preserve">26.2088985443115</t>
   </si>
   <si>
     <t xml:space="preserve">25.142707824707</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8906993865967</t>
+    <t xml:space="preserve">24.890697479248</t>
   </si>
   <si>
     <t xml:space="preserve">25.2784042358398</t>
@@ -2378,13 +2378,13 @@
     <t xml:space="preserve">26.7904567718506</t>
   </si>
   <si>
-    <t xml:space="preserve">27.546480178833</t>
+    <t xml:space="preserve">27.5464820861816</t>
   </si>
   <si>
     <t xml:space="preserve">27.6240215301514</t>
   </si>
   <si>
-    <t xml:space="preserve">27.9341850280762</t>
+    <t xml:space="preserve">27.9341869354248</t>
   </si>
   <si>
     <t xml:space="preserve">28.1086559295654</t>
@@ -2393,13 +2393,13 @@
     <t xml:space="preserve">28.2443504333496</t>
   </si>
   <si>
-    <t xml:space="preserve">28.6126728057861</t>
+    <t xml:space="preserve">28.6126747131348</t>
   </si>
   <si>
     <t xml:space="preserve">29.2136154174805</t>
   </si>
   <si>
-    <t xml:space="preserve">28.7096004486084</t>
+    <t xml:space="preserve">28.7095985412598</t>
   </si>
   <si>
     <t xml:space="preserve">28.3025074005127</t>
@@ -2420,28 +2420,28 @@
     <t xml:space="preserve">24.8325443267822</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7857398986816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.121919631958</t>
+    <t xml:space="preserve">23.785737991333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1219215393066</t>
   </si>
   <si>
     <t xml:space="preserve">19.6372871398926</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8183870315552</t>
+    <t xml:space="preserve">15.8183860778809</t>
   </si>
   <si>
     <t xml:space="preserve">17.5824489593506</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9637775421143</t>
+    <t xml:space="preserve">15.9637756347656</t>
   </si>
   <si>
     <t xml:space="preserve">16.3611755371094</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1559734344482</t>
+    <t xml:space="preserve">17.1559753417969</t>
   </si>
   <si>
     <t xml:space="preserve">17.7859935760498</t>
@@ -2453,13 +2453,13 @@
     <t xml:space="preserve">18.406322479248</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1138877868652</t>
+    <t xml:space="preserve">19.1138858795166</t>
   </si>
   <si>
     <t xml:space="preserve">18.416015625</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4935569763184</t>
+    <t xml:space="preserve">18.4935550689697</t>
   </si>
   <si>
     <t xml:space="preserve">18.3869380950928</t>
@@ -2468,10 +2468,10 @@
     <t xml:space="preserve">18.1446208953857</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6406021118164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6696834564209</t>
+    <t xml:space="preserve">17.640604019165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6696815490723</t>
   </si>
   <si>
     <t xml:space="preserve">17.059045791626</t>
@@ -2480,10 +2480,10 @@
     <t xml:space="preserve">17.9119968414307</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0654220581055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7067928314209</t>
+    <t xml:space="preserve">19.0654239654541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7067947387695</t>
   </si>
   <si>
     <t xml:space="preserve">18.7213344573975</t>
@@ -2495,7 +2495,7 @@
     <t xml:space="preserve">18.2221603393555</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1784172058105</t>
+    <t xml:space="preserve">21.1784191131592</t>
   </si>
   <si>
     <t xml:space="preserve">19.5597476959229</t>
@@ -2504,13 +2504,13 @@
     <t xml:space="preserve">19.1284255981445</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3060817718506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.548397064209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2866954803467</t>
+    <t xml:space="preserve">20.306079864502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5483951568604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.286693572998</t>
   </si>
   <si>
     <t xml:space="preserve">20.2673091888428</t>
@@ -2519,7 +2519,7 @@
     <t xml:space="preserve">20.0637645721436</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9845657348633</t>
+    <t xml:space="preserve">20.9845638275146</t>
   </si>
   <si>
     <t xml:space="preserve">22.089527130127</t>
@@ -2531,13 +2531,13 @@
     <t xml:space="preserve">22.6710834503174</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1186027526855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3334999084473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7502841949463</t>
+    <t xml:space="preserve">22.1186046600342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3334980010986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7502822875977</t>
   </si>
   <si>
     <t xml:space="preserve">22.186450958252</t>
@@ -2564,7 +2564,7 @@
     <t xml:space="preserve">23.853588104248</t>
   </si>
   <si>
-    <t xml:space="preserve">24.1831378936768</t>
+    <t xml:space="preserve">24.1831359863281</t>
   </si>
   <si>
     <t xml:space="preserve">23.8729705810547</t>
@@ -2582,7 +2582,7 @@
     <t xml:space="preserve">23.029712677002</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9715557098389</t>
+    <t xml:space="preserve">22.9715576171875</t>
   </si>
   <si>
     <t xml:space="preserve">22.2155284881592</t>
@@ -2591,16 +2591,16 @@
     <t xml:space="preserve">22.3996906280518</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0394058227539</t>
+    <t xml:space="preserve">23.0394039154053</t>
   </si>
   <si>
     <t xml:space="preserve">23.2817192077637</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6500396728516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0200214385986</t>
+    <t xml:space="preserve">23.6500415802002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.02001953125</t>
   </si>
   <si>
     <t xml:space="preserve">23.0490970611572</t>
@@ -2612,7 +2612,7 @@
     <t xml:space="preserve">23.8148155212402</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7583179473877</t>
+    <t xml:space="preserve">22.7583160400391</t>
   </si>
   <si>
     <t xml:space="preserve">22.7970905303955</t>
@@ -2621,25 +2621,25 @@
     <t xml:space="preserve">22.9812469482422</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0781745910645</t>
+    <t xml:space="preserve">23.0781726837158</t>
   </si>
   <si>
     <t xml:space="preserve">23.620964050293</t>
   </si>
   <si>
-    <t xml:space="preserve">23.5918827056885</t>
+    <t xml:space="preserve">23.5918846130371</t>
   </si>
   <si>
     <t xml:space="preserve">23.8923568725586</t>
   </si>
   <si>
-    <t xml:space="preserve">24.0959033966064</t>
+    <t xml:space="preserve">24.0959014892578</t>
   </si>
   <si>
     <t xml:space="preserve">24.1928291320801</t>
   </si>
   <si>
-    <t xml:space="preserve">24.0668239593506</t>
+    <t xml:space="preserve">24.066822052002</t>
   </si>
   <si>
     <t xml:space="preserve">24.1152877807617</t>
@@ -2657,7 +2657,7 @@
     <t xml:space="preserve">25.6564159393311</t>
   </si>
   <si>
-    <t xml:space="preserve">25.4431781768799</t>
+    <t xml:space="preserve">25.4431800842285</t>
   </si>
   <si>
     <t xml:space="preserve">25.4334850311279</t>
@@ -2666,16 +2666,16 @@
     <t xml:space="preserve">25.1233215332031</t>
   </si>
   <si>
-    <t xml:space="preserve">25.5110282897949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9552326202393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9067668914795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.0601940155029</t>
+    <t xml:space="preserve">25.5110263824463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9552307128906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9067687988281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.0601921081543</t>
   </si>
   <si>
     <t xml:space="preserve">28.6514415740967</t>
@@ -2684,22 +2684,22 @@
     <t xml:space="preserve">27.9148006439209</t>
   </si>
   <si>
-    <t xml:space="preserve">28.0020351409912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5658664703369</t>
+    <t xml:space="preserve">28.0020332336426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5658683776855</t>
   </si>
   <si>
     <t xml:space="preserve">27.9632663726807</t>
   </si>
   <si>
-    <t xml:space="preserve">27.4204788208008</t>
+    <t xml:space="preserve">27.4204769134521</t>
   </si>
   <si>
     <t xml:space="preserve">27.4398632049561</t>
   </si>
   <si>
-    <t xml:space="preserve">27.78879737854</t>
+    <t xml:space="preserve">27.7887992858887</t>
   </si>
   <si>
     <t xml:space="preserve">27.633716583252</t>
@@ -2723,16 +2723,16 @@
     <t xml:space="preserve">26.8970737457275</t>
   </si>
   <si>
-    <t xml:space="preserve">26.8486099243164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0618495941162</t>
+    <t xml:space="preserve">26.848611831665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0618476867676</t>
   </si>
   <si>
     <t xml:space="preserve">26.935848236084</t>
   </si>
   <si>
-    <t xml:space="preserve">26.6547603607178</t>
+    <t xml:space="preserve">26.6547584533691</t>
   </si>
   <si>
     <t xml:space="preserve">26.8583030700684</t>
@@ -2747,7 +2747,7 @@
     <t xml:space="preserve">27.1587772369385</t>
   </si>
   <si>
-    <t xml:space="preserve">27.7984924316406</t>
+    <t xml:space="preserve">27.798490524292</t>
   </si>
   <si>
     <t xml:space="preserve">27.8566455841064</t>
@@ -2759,7 +2759,7 @@
     <t xml:space="preserve">28.7774486541748</t>
   </si>
   <si>
-    <t xml:space="preserve">28.9325294494629</t>
+    <t xml:space="preserve">28.9325313568115</t>
   </si>
   <si>
     <t xml:space="preserve">29.4268550872803</t>
@@ -2768,7 +2768,7 @@
     <t xml:space="preserve">29.2233085632324</t>
   </si>
   <si>
-    <t xml:space="preserve">29.1263828277588</t>
+    <t xml:space="preserve">29.1263809204102</t>
   </si>
   <si>
     <t xml:space="preserve">27.9923439025879</t>
@@ -2777,13 +2777,13 @@
     <t xml:space="preserve">28.0698833465576</t>
   </si>
   <si>
-    <t xml:space="preserve">27.8857250213623</t>
+    <t xml:space="preserve">27.8857231140137</t>
   </si>
   <si>
     <t xml:space="preserve">28.0989627838135</t>
   </si>
   <si>
-    <t xml:space="preserve">29.8242530822754</t>
+    <t xml:space="preserve">29.8242511749268</t>
   </si>
   <si>
     <t xml:space="preserve">30.4155025482178</t>
@@ -2816,16 +2816,16 @@
     <t xml:space="preserve">31.452615737915</t>
   </si>
   <si>
-    <t xml:space="preserve">31.2103023529053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.9970626831055</t>
+    <t xml:space="preserve">31.2103004455566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.9970607757568</t>
   </si>
   <si>
     <t xml:space="preserve">31.3847694396973</t>
   </si>
   <si>
-    <t xml:space="preserve">31.2006053924561</t>
+    <t xml:space="preserve">31.2006034851074</t>
   </si>
   <si>
     <t xml:space="preserve">31.3944606781006</t>
@@ -2840,7 +2840,7 @@
     <t xml:space="preserve">31.278148651123</t>
   </si>
   <si>
-    <t xml:space="preserve">30.9389057159424</t>
+    <t xml:space="preserve">30.9389038085938</t>
   </si>
   <si>
     <t xml:space="preserve">31.0164470672607</t>
@@ -2867,34 +2867,34 @@
     <t xml:space="preserve">33.8079261779785</t>
   </si>
   <si>
-    <t xml:space="preserve">32.9549713134766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.8273086547852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.0599365234375</t>
+    <t xml:space="preserve">32.9549751281738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.8273124694824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.0599327087402</t>
   </si>
   <si>
     <t xml:space="preserve">34.6414947509766</t>
   </si>
   <si>
-    <t xml:space="preserve">33.9339332580566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.9613494873047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.3216323852539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.4379463195801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1488304138184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.158519744873</t>
+    <t xml:space="preserve">33.9339294433594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.961353302002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.3216361999512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.4379501342773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1488342285156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1585159301758</t>
   </si>
   <si>
     <t xml:space="preserve">33.3426818847656</t>
@@ -2906,37 +2906,37 @@
     <t xml:space="preserve">32.082633972168</t>
   </si>
   <si>
-    <t xml:space="preserve">32.4509582519531</t>
+    <t xml:space="preserve">32.4509544372559</t>
   </si>
   <si>
     <t xml:space="preserve">33.2263679504395</t>
   </si>
   <si>
-    <t xml:space="preserve">32.5381927490234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7240104675293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3459968566895</t>
+    <t xml:space="preserve">32.5381889343262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7240085601807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3459987640381</t>
   </si>
   <si>
     <t xml:space="preserve">31.4816932678223</t>
   </si>
   <si>
-    <t xml:space="preserve">31.5980052947998</t>
+    <t xml:space="preserve">31.5980033874512</t>
   </si>
   <si>
     <t xml:space="preserve">31.3363056182861</t>
   </si>
   <si>
-    <t xml:space="preserve">31.54953956604</t>
+    <t xml:space="preserve">31.5495414733887</t>
   </si>
   <si>
     <t xml:space="preserve">32.0923309326172</t>
   </si>
   <si>
-    <t xml:space="preserve">32.576961517334</t>
+    <t xml:space="preserve">32.5769577026367</t>
   </si>
   <si>
     <t xml:space="preserve">31.8306293487549</t>
@@ -2945,16 +2945,16 @@
     <t xml:space="preserve">32.6351165771484</t>
   </si>
   <si>
-    <t xml:space="preserve">32.4218788146973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.9065093994141</t>
+    <t xml:space="preserve">32.4218826293945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.9065132141113</t>
   </si>
   <si>
     <t xml:space="preserve">32.169864654541</t>
   </si>
   <si>
-    <t xml:space="preserve">32.6932754516602</t>
+    <t xml:space="preserve">32.6932716369629</t>
   </si>
   <si>
     <t xml:space="preserve">32.218334197998</t>
@@ -2969,13 +2969,13 @@
     <t xml:space="preserve">32.8968162536621</t>
   </si>
   <si>
-    <t xml:space="preserve">32.5284996032715</t>
+    <t xml:space="preserve">32.5284957885742</t>
   </si>
   <si>
     <t xml:space="preserve">32.0050964355469</t>
   </si>
   <si>
-    <t xml:space="preserve">31.6755447387695</t>
+    <t xml:space="preserve">31.6755466461182</t>
   </si>
   <si>
     <t xml:space="preserve">32.7998924255371</t>
@@ -2996,10 +2996,10 @@
     <t xml:space="preserve">33.1391334533691</t>
   </si>
   <si>
-    <t xml:space="preserve">33.2942161560059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.0712814331055</t>
+    <t xml:space="preserve">33.2942123413086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.0712852478027</t>
   </si>
   <si>
     <t xml:space="preserve">32.8386650085449</t>
@@ -3008,13 +3008,13 @@
     <t xml:space="preserve">32.5478897094727</t>
   </si>
   <si>
-    <t xml:space="preserve">32.5188102722168</t>
+    <t xml:space="preserve">32.5188064575195</t>
   </si>
   <si>
     <t xml:space="preserve">33.0518989562988</t>
   </si>
   <si>
-    <t xml:space="preserve">32.8095855712891</t>
+    <t xml:space="preserve">32.8095817565918</t>
   </si>
   <si>
     <t xml:space="preserve">32.4024925231934</t>
@@ -3026,13 +3026,13 @@
     <t xml:space="preserve">34.3022499084473</t>
   </si>
   <si>
-    <t xml:space="preserve">35.1164321899414</t>
+    <t xml:space="preserve">35.1164360046387</t>
   </si>
   <si>
     <t xml:space="preserve">35.0001220703125</t>
   </si>
   <si>
-    <t xml:space="preserve">35.4653701782227</t>
+    <t xml:space="preserve">35.4653663635254</t>
   </si>
   <si>
     <t xml:space="preserve">35.4072113037109</t>
@@ -3056,7 +3056,7 @@
     <t xml:space="preserve">34.4088706970215</t>
   </si>
   <si>
-    <t xml:space="preserve">33.866081237793</t>
+    <t xml:space="preserve">33.8660850524902</t>
   </si>
   <si>
     <t xml:space="preserve">33.8176193237305</t>
@@ -3068,13 +3068,13 @@
     <t xml:space="preserve">32.2861824035645</t>
   </si>
   <si>
-    <t xml:space="preserve">32.9452819824219</t>
+    <t xml:space="preserve">32.9452857971191</t>
   </si>
   <si>
     <t xml:space="preserve">33.1972885131836</t>
   </si>
   <si>
-    <t xml:space="preserve">30.4251937866211</t>
+    <t xml:space="preserve">30.4251956939697</t>
   </si>
   <si>
     <t xml:space="preserve">29.9308700561523</t>
@@ -3089,19 +3089,19 @@
     <t xml:space="preserve">30.8419799804688</t>
   </si>
   <si>
-    <t xml:space="preserve">31.1036796569824</t>
+    <t xml:space="preserve">31.1036815643311</t>
   </si>
   <si>
     <t xml:space="preserve">31.9469394683838</t>
   </si>
   <si>
-    <t xml:space="preserve">30.9776763916016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.1909122467041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5883140563965</t>
+    <t xml:space="preserve">30.9776744842529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.1909141540527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5883121490479</t>
   </si>
   <si>
     <t xml:space="preserve">31.0067539215088</t>
@@ -3113,34 +3113,34 @@
     <t xml:space="preserve">30.5996646881104</t>
   </si>
   <si>
-    <t xml:space="preserve">32.1407928466797</t>
+    <t xml:space="preserve">32.140796661377</t>
   </si>
   <si>
     <t xml:space="preserve">30.8613662719727</t>
   </si>
   <si>
-    <t xml:space="preserve">31.2296886444092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.1230640411377</t>
+    <t xml:space="preserve">31.2296867370605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.1230659484863</t>
   </si>
   <si>
     <t xml:space="preserve">30.7644367218018</t>
   </si>
   <si>
-    <t xml:space="preserve">31.4041519165039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7433967590332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.4235363006592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0535621643066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.811243057251</t>
+    <t xml:space="preserve">31.4041538238525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7433929443359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4235382080078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0535583496094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8112392425537</t>
   </si>
   <si>
     <t xml:space="preserve">34.0017852783203</t>
@@ -3158,7 +3158,7 @@
     <t xml:space="preserve">34.1277847290039</t>
   </si>
   <si>
-    <t xml:space="preserve">34.6899604797363</t>
+    <t xml:space="preserve">34.6899566650391</t>
   </si>
   <si>
     <t xml:space="preserve">34.7287292480469</t>
@@ -3167,22 +3167,22 @@
     <t xml:space="preserve">35.5138320922852</t>
   </si>
   <si>
-    <t xml:space="preserve">35.3490600585938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.8159599304199</t>
+    <t xml:space="preserve">35.3490562438965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.8159561157227</t>
   </si>
   <si>
     <t xml:space="preserve">33.604377746582</t>
   </si>
   <si>
-    <t xml:space="preserve">34.0502471923828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.3119468688965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.7303848266602</t>
+    <t xml:space="preserve">34.0502433776855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.3119506835938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.7303886413574</t>
   </si>
   <si>
     <t xml:space="preserve">34.602725982666</t>
@@ -3194,13 +3194,13 @@
     <t xml:space="preserve">32.7514266967773</t>
   </si>
   <si>
-    <t xml:space="preserve">32.3831100463867</t>
+    <t xml:space="preserve">32.383113861084</t>
   </si>
   <si>
     <t xml:space="preserve">32.3637237548828</t>
   </si>
   <si>
-    <t xml:space="preserve">32.5672721862793</t>
+    <t xml:space="preserve">32.567268371582</t>
   </si>
   <si>
     <t xml:space="preserve">33.4396095275879</t>
@@ -3212,7 +3212,7 @@
     <t xml:space="preserve">35.3199806213379</t>
   </si>
   <si>
-    <t xml:space="preserve">36.4218978881836</t>
+    <t xml:space="preserve">36.4219017028809</t>
   </si>
   <si>
     <t xml:space="preserve">37.202018737793</t>
@@ -3224,19 +3224,19 @@
     <t xml:space="preserve">37.3190383911133</t>
   </si>
   <si>
-    <t xml:space="preserve">37.6310844421387</t>
+    <t xml:space="preserve">37.6310882568359</t>
   </si>
   <si>
     <t xml:space="preserve">37.9821395874023</t>
   </si>
   <si>
-    <t xml:space="preserve">37.6798477172852</t>
+    <t xml:space="preserve">37.6798439025879</t>
   </si>
   <si>
     <t xml:space="preserve">37.5725746154785</t>
   </si>
   <si>
-    <t xml:space="preserve">38.2454299926758</t>
+    <t xml:space="preserve">38.245433807373</t>
   </si>
   <si>
     <t xml:space="preserve">38.8110198974609</t>
@@ -3260,13 +3260,13 @@
     <t xml:space="preserve">39.2205848693848</t>
   </si>
   <si>
-    <t xml:space="preserve">39.932445526123</t>
+    <t xml:space="preserve">39.9324417114258</t>
   </si>
   <si>
     <t xml:space="preserve">39.1718254089355</t>
   </si>
   <si>
-    <t xml:space="preserve">39.3766059875488</t>
+    <t xml:space="preserve">39.3766098022461</t>
   </si>
   <si>
     <t xml:space="preserve">39.2985954284668</t>
@@ -3293,7 +3293,7 @@
     <t xml:space="preserve">40.4005165100098</t>
   </si>
   <si>
-    <t xml:space="preserve">40.566291809082</t>
+    <t xml:space="preserve">40.5662879943848</t>
   </si>
   <si>
     <t xml:space="preserve">40.1957359313965</t>
@@ -3305,31 +3305,31 @@
     <t xml:space="preserve">40.5955467224121</t>
   </si>
   <si>
-    <t xml:space="preserve">39.6593971252441</t>
+    <t xml:space="preserve">39.6594009399414</t>
   </si>
   <si>
     <t xml:space="preserve">37.1240081787109</t>
   </si>
   <si>
-    <t xml:space="preserve">38.1284103393555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.1186599731445</t>
+    <t xml:space="preserve">38.1284141540527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.1186637878418</t>
   </si>
   <si>
     <t xml:space="preserve">38.9475402832031</t>
   </si>
   <si>
-    <t xml:space="preserve">39.5618858337402</t>
+    <t xml:space="preserve">39.561882019043</t>
   </si>
   <si>
     <t xml:space="preserve">39.7471618652344</t>
   </si>
   <si>
-    <t xml:space="preserve">39.054801940918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.0397148132324</t>
+    <t xml:space="preserve">39.0548057556152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.0397109985352</t>
   </si>
   <si>
     <t xml:space="preserve">39.7666664123535</t>
@@ -3338,19 +3338,19 @@
     <t xml:space="preserve">39.435115814209</t>
   </si>
   <si>
-    <t xml:space="preserve">40.020206451416</t>
+    <t xml:space="preserve">40.0202102661133</t>
   </si>
   <si>
     <t xml:space="preserve">39.3473510742188</t>
   </si>
   <si>
-    <t xml:space="preserve">40.6443061828613</t>
+    <t xml:space="preserve">40.6443023681641</t>
   </si>
   <si>
     <t xml:space="preserve">41.2488975524902</t>
   </si>
   <si>
-    <t xml:space="preserve">41.3366622924805</t>
+    <t xml:space="preserve">41.3366584777832</t>
   </si>
   <si>
     <t xml:space="preserve">40.9563522338867</t>
@@ -3359,7 +3359,7 @@
     <t xml:space="preserve">41.3171577453613</t>
   </si>
   <si>
-    <t xml:space="preserve">40.8588409423828</t>
+    <t xml:space="preserve">40.8588371276855</t>
   </si>
   <si>
     <t xml:space="preserve">40.9368476867676</t>
@@ -3371,34 +3371,34 @@
     <t xml:space="preserve">41.0538635253906</t>
   </si>
   <si>
-    <t xml:space="preserve">41.6292037963867</t>
+    <t xml:space="preserve">41.6291999816895</t>
   </si>
   <si>
     <t xml:space="preserve">41.7559776306152</t>
   </si>
   <si>
-    <t xml:space="preserve">41.9607543945312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.8437385559082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.8534889221191</t>
+    <t xml:space="preserve">41.9607582092285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.8437423706055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.8534927368164</t>
   </si>
   <si>
     <t xml:space="preserve">42.1850395202637</t>
   </si>
   <si>
-    <t xml:space="preserve">42.7116279602051</t>
+    <t xml:space="preserve">42.7116241455078</t>
   </si>
   <si>
     <t xml:space="preserve">43.7257804870605</t>
   </si>
   <si>
-    <t xml:space="preserve">42.8774032592773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.6628646850586</t>
+    <t xml:space="preserve">42.8773994445801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.6628684997559</t>
   </si>
   <si>
     <t xml:space="preserve">42.3898277282715</t>
@@ -3407,7 +3407,7 @@
     <t xml:space="preserve">42.5946044921875</t>
   </si>
   <si>
-    <t xml:space="preserve">43.1016845703125</t>
+    <t xml:space="preserve">43.1016883850098</t>
   </si>
   <si>
     <t xml:space="preserve">43.1796951293945</t>
@@ -3425,19 +3425,19 @@
     <t xml:space="preserve">43.5405044555664</t>
   </si>
   <si>
-    <t xml:space="preserve">42.6531143188477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.6043548583984</t>
+    <t xml:space="preserve">42.6531181335449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.6043586730957</t>
   </si>
   <si>
     <t xml:space="preserve">42.1557884216309</t>
   </si>
   <si>
-    <t xml:space="preserve">42.0777816772461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.3127517700195</t>
+    <t xml:space="preserve">42.0777778625488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.3127555847168</t>
   </si>
   <si>
     <t xml:space="preserve">41.619457244873</t>
@@ -3449,25 +3449,25 @@
     <t xml:space="preserve">41.4439315795898</t>
   </si>
   <si>
-    <t xml:space="preserve">41.6779632568359</t>
+    <t xml:space="preserve">41.6779670715332</t>
   </si>
   <si>
     <t xml:space="preserve">43.7160301208496</t>
   </si>
   <si>
-    <t xml:space="preserve">43.8135452270508</t>
+    <t xml:space="preserve">43.8135414123535</t>
   </si>
   <si>
     <t xml:space="preserve">44.9739761352539</t>
   </si>
   <si>
-    <t xml:space="preserve">43.8623008728027</t>
+    <t xml:space="preserve">43.8623046875</t>
   </si>
   <si>
     <t xml:space="preserve">42.5751037597656</t>
   </si>
   <si>
-    <t xml:space="preserve">40.3810119628906</t>
+    <t xml:space="preserve">40.3810157775879</t>
   </si>
   <si>
     <t xml:space="preserve">40.8783378601074</t>
@@ -3476,7 +3476,7 @@
     <t xml:space="preserve">40.1762313842773</t>
   </si>
   <si>
-    <t xml:space="preserve">39.7764167785645</t>
+    <t xml:space="preserve">39.7764205932617</t>
   </si>
   <si>
     <t xml:space="preserve">40.1079711914062</t>
@@ -3485,7 +3485,7 @@
     <t xml:space="preserve">40.2737426757812</t>
   </si>
   <si>
-    <t xml:space="preserve">40.7028160095215</t>
+    <t xml:space="preserve">40.7028121948242</t>
   </si>
   <si>
     <t xml:space="preserve">39.5911407470703</t>
@@ -3497,7 +3497,7 @@
     <t xml:space="preserve">40.5077819824219</t>
   </si>
   <si>
-    <t xml:space="preserve">40.8100814819336</t>
+    <t xml:space="preserve">40.8100776672363</t>
   </si>
   <si>
     <t xml:space="preserve">41.8632392883301</t>
@@ -3527,13 +3527,13 @@
     <t xml:space="preserve">43.0334243774414</t>
   </si>
   <si>
-    <t xml:space="preserve">43.6477699279785</t>
+    <t xml:space="preserve">43.6477661132812</t>
   </si>
   <si>
     <t xml:space="preserve">44.622917175293</t>
   </si>
   <si>
-    <t xml:space="preserve">44.5156555175781</t>
+    <t xml:space="preserve">44.5156593322754</t>
   </si>
   <si>
     <t xml:space="preserve">45.3835372924805</t>
@@ -3548,7 +3548,7 @@
     <t xml:space="preserve">44.661922454834</t>
   </si>
   <si>
-    <t xml:space="preserve">44.8667106628418</t>
+    <t xml:space="preserve">44.8667068481445</t>
   </si>
   <si>
     <t xml:space="preserve">44.0865859985352</t>
@@ -3563,22 +3563,22 @@
     <t xml:space="preserve">43.442985534668</t>
   </si>
   <si>
-    <t xml:space="preserve">41.2879066467285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.224048614502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.1513824462891</t>
+    <t xml:space="preserve">41.2879028320312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.2240447998047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.1513862609863</t>
   </si>
   <si>
     <t xml:space="preserve">41.6974639892578</t>
   </si>
   <si>
-    <t xml:space="preserve">42.0485229492188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.0387687683105</t>
+    <t xml:space="preserve">42.0485191345215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.0387725830078</t>
   </si>
   <si>
     <t xml:space="preserve">40.7320671081543</t>
@@ -3587,13 +3587,13 @@
     <t xml:space="preserve">40.7613220214844</t>
   </si>
   <si>
-    <t xml:space="preserve">41.8827438354492</t>
+    <t xml:space="preserve">41.8827476501465</t>
   </si>
   <si>
     <t xml:space="preserve">40.7808227539062</t>
   </si>
   <si>
-    <t xml:space="preserve">40.7418174743652</t>
+    <t xml:space="preserve">40.741813659668</t>
   </si>
   <si>
     <t xml:space="preserve">40.9173431396484</t>
@@ -3602,7 +3602,7 @@
     <t xml:space="preserve">41.707218170166</t>
   </si>
   <si>
-    <t xml:space="preserve">42.6141090393066</t>
+    <t xml:space="preserve">42.6141128540039</t>
   </si>
   <si>
     <t xml:space="preserve">42.1265335083008</t>
@@ -3611,7 +3611,7 @@
     <t xml:space="preserve">42.9846687316895</t>
   </si>
   <si>
-    <t xml:space="preserve">43.0041694641113</t>
+    <t xml:space="preserve">43.0041656494141</t>
   </si>
   <si>
     <t xml:space="preserve">43.1991996765137</t>
@@ -3629,7 +3629,7 @@
     <t xml:space="preserve">45.7443466186523</t>
   </si>
   <si>
-    <t xml:space="preserve">46.0466423034668</t>
+    <t xml:space="preserve">46.0466461181641</t>
   </si>
   <si>
     <t xml:space="preserve">46.2709274291992</t>
@@ -3638,7 +3638,7 @@
     <t xml:space="preserve">45.4810523986816</t>
   </si>
   <si>
-    <t xml:space="preserve">44.5449104309082</t>
+    <t xml:space="preserve">44.5449066162109</t>
   </si>
   <si>
     <t xml:space="preserve">44.7106819152832</t>
@@ -3647,7 +3647,7 @@
     <t xml:space="preserve">43.2284545898438</t>
   </si>
   <si>
-    <t xml:space="preserve">42.4970893859863</t>
+    <t xml:space="preserve">42.4970932006836</t>
   </si>
   <si>
     <t xml:space="preserve">40.6248016357422</t>
@@ -3668,16 +3668,16 @@
     <t xml:space="preserve">37.7578582763672</t>
   </si>
   <si>
-    <t xml:space="preserve">36.3146362304688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.0371856689453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.5247611999512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.5637702941895</t>
+    <t xml:space="preserve">36.3146324157715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.037181854248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.5247573852539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.5637664794922</t>
   </si>
   <si>
     <t xml:space="preserve">34.9786758422852</t>
@@ -3695,10 +3695,10 @@
     <t xml:space="preserve">36.0903434753418</t>
   </si>
   <si>
-    <t xml:space="preserve">35.4077415466309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.1737022399902</t>
+    <t xml:space="preserve">35.4077453613281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.1737060546875</t>
   </si>
   <si>
     <t xml:space="preserve">34.2180557250977</t>
@@ -3707,13 +3707,13 @@
     <t xml:space="preserve">35.6417770385742</t>
   </si>
   <si>
-    <t xml:space="preserve">35.2907218933105</t>
+    <t xml:space="preserve">35.2907257080078</t>
   </si>
   <si>
     <t xml:space="preserve">34.4715957641602</t>
   </si>
   <si>
-    <t xml:space="preserve">33.8767547607422</t>
+    <t xml:space="preserve">33.8767585754395</t>
   </si>
   <si>
     <t xml:space="preserve">35.2614669799805</t>
@@ -3755,25 +3755,25 @@
     <t xml:space="preserve">36.6656837463379</t>
   </si>
   <si>
-    <t xml:space="preserve">35.3004722595215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.0912895202637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.178108215332</t>
+    <t xml:space="preserve">35.3004760742188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.0912857055664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.1781120300293</t>
   </si>
   <si>
     <t xml:space="preserve">34.208309173584</t>
   </si>
   <si>
-    <t xml:space="preserve">34.9494209289551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.6612815856934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.4467430114746</t>
+    <t xml:space="preserve">34.9494171142578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.6612777709961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.4467468261719</t>
   </si>
   <si>
     <t xml:space="preserve">36.8119583129883</t>
@@ -3791,19 +3791,19 @@
     <t xml:space="preserve">35.6222724914551</t>
   </si>
   <si>
-    <t xml:space="preserve">36.2951316833496</t>
+    <t xml:space="preserve">36.2951278686523</t>
   </si>
   <si>
     <t xml:space="preserve">36.7534484863281</t>
   </si>
   <si>
-    <t xml:space="preserve">39.0840606689453</t>
+    <t xml:space="preserve">39.0840644836426</t>
   </si>
   <si>
     <t xml:space="preserve">39.6008911132812</t>
   </si>
   <si>
-    <t xml:space="preserve">39.5326309204102</t>
+    <t xml:space="preserve">39.5326347351074</t>
   </si>
   <si>
     <t xml:space="preserve">40.8393363952637</t>
@@ -3815,10 +3815,10 @@
     <t xml:space="preserve">41.5024375915527</t>
   </si>
   <si>
-    <t xml:space="preserve">41.2976570129395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.4297676086426</t>
+    <t xml:space="preserve">41.2976531982422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.4297714233398</t>
   </si>
   <si>
     <t xml:space="preserve">39.2108306884766</t>
@@ -3836,13 +3836,13 @@
     <t xml:space="preserve">38.5477294921875</t>
   </si>
   <si>
-    <t xml:space="preserve">37.3580436706543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.192268371582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.8802185058594</t>
+    <t xml:space="preserve">37.3580474853516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.1922721862793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.8802223205566</t>
   </si>
   <si>
     <t xml:space="preserve">35.983081817627</t>
@@ -3860,7 +3860,7 @@
     <t xml:space="preserve">36.2561225891113</t>
   </si>
   <si>
-    <t xml:space="preserve">35.8465576171875</t>
+    <t xml:space="preserve">35.8465538024902</t>
   </si>
   <si>
     <t xml:space="preserve">34.5788612365723</t>
@@ -3869,7 +3869,7 @@
     <t xml:space="preserve">32.7553329467773</t>
   </si>
   <si>
-    <t xml:space="preserve">33.4769477844238</t>
+    <t xml:space="preserve">33.4769439697266</t>
   </si>
   <si>
     <t xml:space="preserve">33.4671936035156</t>
@@ -3887,7 +3887,7 @@
     <t xml:space="preserve">33.4574394226074</t>
   </si>
   <si>
-    <t xml:space="preserve">31.7411708831787</t>
+    <t xml:space="preserve">31.7411727905273</t>
   </si>
   <si>
     <t xml:space="preserve">30.7952766418457</t>
@@ -5247,6 +5247,9 @@
   </si>
   <si>
     <t xml:space="preserve">33.810001373291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.3899993896484</t>
   </si>
 </sst>
 </file>
@@ -61592,7 +61595,7 @@
     </row>
     <row r="2155">
       <c r="A2155" s="1" t="n">
-        <v>45462.6495138889</v>
+        <v>45462.2916666667</v>
       </c>
       <c r="B2155" t="n">
         <v>304052</v>
@@ -61613,6 +61616,32 @@
         <v>1744</v>
       </c>
       <c r="H2155" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2156">
+      <c r="A2156" s="1" t="n">
+        <v>45463.6495717593</v>
+      </c>
+      <c r="B2156" t="n">
+        <v>432501</v>
+      </c>
+      <c r="C2156" t="n">
+        <v>34.4599990844727</v>
+      </c>
+      <c r="D2156" t="n">
+        <v>33.7099990844727</v>
+      </c>
+      <c r="E2156" t="n">
+        <v>33.7700004577637</v>
+      </c>
+      <c r="F2156" t="n">
+        <v>34.3899993896484</v>
+      </c>
+      <c r="G2156" t="s">
+        <v>1745</v>
+      </c>
+      <c r="H2156" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/AMP.MI.xlsx
+++ b/data/AMP.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1746" uniqueCount="1746">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1747" uniqueCount="1747">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,34 +38,34 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">7.44491100311279</t>
+    <t xml:space="preserve">7.44491195678711</t>
   </si>
   <si>
     <t xml:space="preserve">AMP.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">7.50163507461548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.42127656936646</t>
+    <t xml:space="preserve">7.50163459777832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4212760925293</t>
   </si>
   <si>
     <t xml:space="preserve">7.47799968719482</t>
   </si>
   <si>
-    <t xml:space="preserve">7.26056146621704</t>
+    <t xml:space="preserve">7.26056098937988</t>
   </si>
   <si>
     <t xml:space="preserve">7.06675720214844</t>
   </si>
   <si>
-    <t xml:space="preserve">7.32673835754395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38818836212158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27001476287842</t>
+    <t xml:space="preserve">7.32673740386963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38818788528442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27001571655273</t>
   </si>
   <si>
     <t xml:space="preserve">7.13766098022461</t>
@@ -74,55 +74,55 @@
     <t xml:space="preserve">7.19438409805298</t>
   </si>
   <si>
-    <t xml:space="preserve">7.30310249328613</t>
+    <t xml:space="preserve">7.30310297012329</t>
   </si>
   <si>
     <t xml:space="preserve">7.09039163589478</t>
   </si>
   <si>
-    <t xml:space="preserve">7.24165344238281</t>
+    <t xml:space="preserve">7.24165296554565</t>
   </si>
   <si>
     <t xml:space="preserve">7.45436525344849</t>
   </si>
   <si>
-    <t xml:space="preserve">7.34564590454102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46381902694702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25583505630493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.28892278671265</t>
+    <t xml:space="preserve">7.34564542770386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46381950378418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25583410263062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.28892230987549</t>
   </si>
   <si>
     <t xml:space="preserve">7.52054214477539</t>
   </si>
   <si>
-    <t xml:space="preserve">7.39291477203369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.24637985229492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15656900405884</t>
+    <t xml:space="preserve">7.39291524887085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.24638080596924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15656852722168</t>
   </si>
   <si>
     <t xml:space="preserve">6.94858360290527</t>
   </si>
   <si>
-    <t xml:space="preserve">6.60824489593506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55152273178101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.68860244750977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42862272262573</t>
+    <t xml:space="preserve">6.60824537277222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.55152130126953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68860292434692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42862224578857</t>
   </si>
   <si>
     <t xml:space="preserve">6.38607931137085</t>
@@ -131,82 +131,82 @@
     <t xml:space="preserve">6.51843309402466</t>
   </si>
   <si>
-    <t xml:space="preserve">6.71696424484253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98639965057373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8115029335022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.93913078308105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8020486831665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72641801834106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.09984588623047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.99585342407227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90604162216187</t>
+    <t xml:space="preserve">6.71696519851685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98639917373657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81150245666504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.93912982940674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.80204963684082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72641849517822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09984540939331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.99585390090942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90604114532471</t>
   </si>
   <si>
     <t xml:space="preserve">6.9013147354126</t>
   </si>
   <si>
-    <t xml:space="preserve">6.94385719299316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7595067024231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.73114490509033</t>
+    <t xml:space="preserve">6.94385671615601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.75950717926025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.73114538192749</t>
   </si>
   <si>
     <t xml:space="preserve">6.89658784866333</t>
   </si>
   <si>
-    <t xml:space="preserve">6.88713359832764</t>
+    <t xml:space="preserve">6.88713407516479</t>
   </si>
   <si>
     <t xml:space="preserve">6.96276473999023</t>
   </si>
   <si>
-    <t xml:space="preserve">7.11402702331543</t>
+    <t xml:space="preserve">7.11402654647827</t>
   </si>
   <si>
     <t xml:space="preserve">7.21801900863647</t>
   </si>
   <si>
-    <t xml:space="preserve">7.18965673446655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31728410720825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.21329212188721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14711427688599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35037279129028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20383787155151</t>
+    <t xml:space="preserve">7.18965768814087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31728458404541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.21329164505005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14711475372314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35037326812744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20383834838867</t>
   </si>
   <si>
     <t xml:space="preserve">7.27946853637695</t>
   </si>
   <si>
-    <t xml:space="preserve">7.03839635848999</t>
+    <t xml:space="preserve">7.03839540481567</t>
   </si>
   <si>
     <t xml:space="preserve">7.0194878578186</t>
@@ -227,52 +227,52 @@
     <t xml:space="preserve">7.61508083343506</t>
   </si>
   <si>
-    <t xml:space="preserve">7.52526903152466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59617376327515</t>
+    <t xml:space="preserve">7.52526950836182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59617328643799</t>
   </si>
   <si>
     <t xml:space="preserve">7.6907114982605</t>
   </si>
   <si>
-    <t xml:space="preserve">7.66707563400269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8467001914978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71434497833252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75688791275024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81833934783936</t>
+    <t xml:space="preserve">7.66707706451416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84670066833496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71434593200684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75688886642456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8183388710022</t>
   </si>
   <si>
     <t xml:space="preserve">7.85142803192139</t>
   </si>
   <si>
-    <t xml:space="preserve">8.00268936157227</t>
+    <t xml:space="preserve">8.00268840789795</t>
   </si>
   <si>
     <t xml:space="preserve">8.00741577148438</t>
   </si>
   <si>
-    <t xml:space="preserve">7.9885082244873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90342426300049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.06413841247559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99796104431152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21067333221436</t>
+    <t xml:space="preserve">7.98850774765015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90342283248901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.06413745880127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99796152114868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21067237854004</t>
   </si>
   <si>
     <t xml:space="preserve">8.13751697540283</t>
@@ -281,25 +281,25 @@
     <t xml:space="preserve">8.21827411651611</t>
   </si>
   <si>
-    <t xml:space="preserve">8.22777462005615</t>
+    <t xml:space="preserve">8.22777557373047</t>
   </si>
   <si>
     <t xml:space="preserve">8.17076969146729</t>
   </si>
   <si>
-    <t xml:space="preserve">8.29428195953369</t>
+    <t xml:space="preserve">8.29428005218506</t>
   </si>
   <si>
     <t xml:space="preserve">8.33703422546387</t>
   </si>
   <si>
-    <t xml:space="preserve">8.36078834533691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34653568267822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28002834320068</t>
+    <t xml:space="preserve">8.3607873916626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34653663635254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.280029296875</t>
   </si>
   <si>
     <t xml:space="preserve">8.19927310943604</t>
@@ -308,28 +308,28 @@
     <t xml:space="preserve">8.20402336120605</t>
   </si>
   <si>
-    <t xml:space="preserve">8.26577949523926</t>
+    <t xml:space="preserve">8.26577854156494</t>
   </si>
   <si>
     <t xml:space="preserve">8.13276672363281</t>
   </si>
   <si>
-    <t xml:space="preserve">8.03300666809082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93799829483032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75748109817505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74322986602783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76698160171509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67197227478027</t>
+    <t xml:space="preserve">8.0330057144165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93799781799316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75748062133789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74322843551636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76698207855225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67197322845459</t>
   </si>
   <si>
     <t xml:space="preserve">7.75273036956787</t>
@@ -338,13 +338,13 @@
     <t xml:space="preserve">8.1090145111084</t>
   </si>
   <si>
-    <t xml:space="preserve">8.06626033782959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.18027114868164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79073429107666</t>
+    <t xml:space="preserve">8.06625938415527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.18026924133301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7907338142395</t>
   </si>
   <si>
     <t xml:space="preserve">7.82873725891113</t>
@@ -353,52 +353,52 @@
     <t xml:space="preserve">7.83823776245117</t>
   </si>
   <si>
-    <t xml:space="preserve">7.99025249481201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.04725742340088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00925445556641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92849731445312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83348941802979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99975347518921</t>
+    <t xml:space="preserve">7.99025344848633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0472583770752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00925540924072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92849826812744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83348798751831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99975442886353</t>
   </si>
   <si>
     <t xml:space="preserve">8.08051109313965</t>
   </si>
   <si>
-    <t xml:space="preserve">8.03775596618652</t>
+    <t xml:space="preserve">8.03775691986084</t>
   </si>
   <si>
     <t xml:space="preserve">8.0282564163208</t>
   </si>
   <si>
-    <t xml:space="preserve">8.1755199432373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30378341674805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28953075408936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31803321838379</t>
+    <t xml:space="preserve">8.17551898956299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30378246307373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28953170776367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31803512573242</t>
   </si>
   <si>
     <t xml:space="preserve">8.31328392028809</t>
   </si>
   <si>
-    <t xml:space="preserve">8.43204402923584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48904991149902</t>
+    <t xml:space="preserve">8.43204307556152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48904895782471</t>
   </si>
   <si>
     <t xml:space="preserve">8.47479820251465</t>
@@ -407,7 +407,7 @@
     <t xml:space="preserve">8.45579719543457</t>
   </si>
   <si>
-    <t xml:space="preserve">8.41779232025146</t>
+    <t xml:space="preserve">8.41779327392578</t>
   </si>
   <si>
     <t xml:space="preserve">8.2752799987793</t>
@@ -416,37 +416,37 @@
     <t xml:space="preserve">8.41304206848145</t>
   </si>
   <si>
-    <t xml:space="preserve">8.49380111694336</t>
+    <t xml:space="preserve">8.49380016326904</t>
   </si>
   <si>
     <t xml:space="preserve">8.63631343841553</t>
   </si>
   <si>
-    <t xml:space="preserve">8.73607349395752</t>
+    <t xml:space="preserve">8.7360725402832</t>
   </si>
   <si>
     <t xml:space="preserve">8.64106464385986</t>
   </si>
   <si>
-    <t xml:space="preserve">8.76457500457764</t>
+    <t xml:space="preserve">8.76457691192627</t>
   </si>
   <si>
     <t xml:space="preserve">8.88808727264404</t>
   </si>
   <si>
-    <t xml:space="preserve">8.78357696533203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91658973693848</t>
+    <t xml:space="preserve">8.78357791900635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91659069061279</t>
   </si>
   <si>
     <t xml:space="preserve">8.94034290313721</t>
   </si>
   <si>
-    <t xml:space="preserve">9.05435276031494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.978346824646</t>
+    <t xml:space="preserve">9.05435180664062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97834491729736</t>
   </si>
   <si>
     <t xml:space="preserve">8.94984340667725</t>
@@ -455,115 +455,115 @@
     <t xml:space="preserve">8.878586769104</t>
   </si>
   <si>
-    <t xml:space="preserve">8.88333797454834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.95459365844727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.86433506011963</t>
+    <t xml:space="preserve">8.88333702087402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.95459461212158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.86433410644531</t>
   </si>
   <si>
     <t xml:space="preserve">8.90233898162842</t>
   </si>
   <si>
-    <t xml:space="preserve">8.89283752441406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.78832912445068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.72182178497314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.70281982421875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68857002258301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.61256122589111</t>
+    <t xml:space="preserve">8.89283847808838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.78832721710205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.72182369232178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.70282077789307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68856906890869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.61256217956543</t>
   </si>
   <si>
     <t xml:space="preserve">8.66956615447998</t>
   </si>
   <si>
-    <t xml:space="preserve">8.66006565093994</t>
+    <t xml:space="preserve">8.66006469726562</t>
   </si>
   <si>
     <t xml:space="preserve">8.79782962799072</t>
   </si>
   <si>
-    <t xml:space="preserve">8.62681198120117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74557399749756</t>
+    <t xml:space="preserve">8.62681293487549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74557304382324</t>
   </si>
   <si>
     <t xml:space="preserve">8.62206268310547</t>
   </si>
   <si>
-    <t xml:space="preserve">8.68381881713867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74082279205322</t>
+    <t xml:space="preserve">8.68381786346436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74082374572754</t>
   </si>
   <si>
     <t xml:space="preserve">8.59355926513672</t>
   </si>
   <si>
-    <t xml:space="preserve">8.65531444549561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.69331932067871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8215799331665</t>
+    <t xml:space="preserve">8.65531539916992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.69331836700439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.82158088684082</t>
   </si>
   <si>
     <t xml:space="preserve">9.21586799621582</t>
   </si>
   <si>
-    <t xml:space="preserve">9.38688468933105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20636749267578</t>
+    <t xml:space="preserve">9.38688373565674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20636653900146</t>
   </si>
   <si>
     <t xml:space="preserve">9.14936256408691</t>
   </si>
   <si>
-    <t xml:space="preserve">9.02584934234619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.07335472106934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.94509220123291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63156414031982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55080604553223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52705383300781</t>
+    <t xml:space="preserve">9.02585029602051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.07335376739502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.94509315490723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63156318664551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.55080509185791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5270528793335</t>
   </si>
   <si>
     <t xml:space="preserve">8.52230262756348</t>
   </si>
   <si>
-    <t xml:space="preserve">8.71231937408447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47004795074463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58880805969238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.50805187225342</t>
+    <t xml:space="preserve">8.71232128143311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47004699707031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5888090133667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5080509185791</t>
   </si>
   <si>
     <t xml:space="preserve">8.59830951690674</t>
@@ -575,28 +575,28 @@
     <t xml:space="preserve">9.23486995697021</t>
   </si>
   <si>
-    <t xml:space="preserve">9.19686698913574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64581489562988</t>
+    <t xml:space="preserve">9.19686603546143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64581394195557</t>
   </si>
   <si>
     <t xml:space="preserve">8.28478050231934</t>
   </si>
   <si>
-    <t xml:space="preserve">8.43679428100586</t>
+    <t xml:space="preserve">8.43679523468018</t>
   </si>
   <si>
     <t xml:space="preserve">7.55321168899536</t>
   </si>
   <si>
-    <t xml:space="preserve">8.10426330566406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07575988769531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.51280212402344</t>
+    <t xml:space="preserve">8.10426235198975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07576179504395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.51280117034912</t>
   </si>
   <si>
     <t xml:space="preserve">8.53655529022217</t>
@@ -605,55 +605,55 @@
     <t xml:space="preserve">8.57455825805664</t>
   </si>
   <si>
-    <t xml:space="preserve">8.60781097412109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49855136871338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35603618621826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30853176116943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.50330066680908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.70756912231445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77882766723633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85483360290527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.80257987976074</t>
+    <t xml:space="preserve">8.60781192779541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.49854946136475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35603809356689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30853366851807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.50330257415771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.70757102966309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77882671356201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85483264923096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.80258083343506</t>
   </si>
   <si>
     <t xml:space="preserve">8.87383651733398</t>
   </si>
   <si>
-    <t xml:space="preserve">8.84058380126953</t>
+    <t xml:space="preserve">8.84058284759521</t>
   </si>
   <si>
     <t xml:space="preserve">9.29187488555908</t>
   </si>
   <si>
-    <t xml:space="preserve">9.10185718536377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27762508392334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40588569641113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47714424133301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.54839992523193</t>
+    <t xml:space="preserve">9.10185813903809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27762413024902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40588665008545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47714328765869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.54839897155762</t>
   </si>
   <si>
     <t xml:space="preserve">9.5198974609375</t>
@@ -668,31 +668,31 @@
     <t xml:space="preserve">9.58640384674072</t>
   </si>
   <si>
-    <t xml:space="preserve">9.6244068145752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.57690334320068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.49614429473877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24912071228027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24437046051025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.29662704467773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60540580749512</t>
+    <t xml:space="preserve">9.62440776824951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.57690238952637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.49614524841309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24912166595459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24436950683594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.29662609100342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60540390014648</t>
   </si>
   <si>
     <t xml:space="preserve">9.95693683624268</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1089525222778</t>
+    <t xml:space="preserve">10.1089515686035</t>
   </si>
   <si>
     <t xml:space="preserve">9.97593975067139</t>
@@ -701,13 +701,13 @@
     <t xml:space="preserve">10.061448097229</t>
   </si>
   <si>
-    <t xml:space="preserve">9.78592300415039</t>
+    <t xml:space="preserve">9.78592205047607</t>
   </si>
   <si>
     <t xml:space="preserve">9.8524284362793</t>
   </si>
   <si>
-    <t xml:space="preserve">9.86192798614502</t>
+    <t xml:space="preserve">9.86192893981934</t>
   </si>
   <si>
     <t xml:space="preserve">9.80492305755615</t>
@@ -716,19 +716,19 @@
     <t xml:space="preserve">9.9379358291626</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1754589080811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1564559936523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3369741439819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3939800262451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4129819869995</t>
+    <t xml:space="preserve">10.1754579544067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1564569473267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3369731903076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3939790725708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4129800796509</t>
   </si>
   <si>
     <t xml:space="preserve">10.5839967727661</t>
@@ -737,85 +737,85 @@
     <t xml:space="preserve">10.6315011978149</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5174913406372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4889888763428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.736011505127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6695051193237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6600036621094</t>
+    <t xml:space="preserve">10.5174903869629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4889879226685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7360124588013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6695041656494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.660005569458</t>
   </si>
   <si>
     <t xml:space="preserve">10.9735336303711</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0495405197144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8785266876221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8120193481445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8025188446045</t>
+    <t xml:space="preserve">11.0495414733887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8785247802734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8120183944702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8025169372559</t>
   </si>
   <si>
     <t xml:space="preserve">10.7835168838501</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8690242767334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.059042930603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0020380020142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0970468521118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1635503768921</t>
+    <t xml:space="preserve">10.8690233230591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0590419769287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0020360946655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0970458984375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1635513305664</t>
   </si>
   <si>
     <t xml:space="preserve">11.2965650558472</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2585601806641</t>
+    <t xml:space="preserve">11.258563041687</t>
   </si>
   <si>
     <t xml:space="preserve">11.4200773239136</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1255474090576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3725719451904</t>
+    <t xml:space="preserve">11.1255483627319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3725709915161</t>
   </si>
   <si>
     <t xml:space="preserve">11.3345680236816</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3155660629272</t>
+    <t xml:space="preserve">11.3155651092529</t>
   </si>
   <si>
     <t xml:space="preserve">11.3535690307617</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4485788345337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6005935668945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5815916061401</t>
+    <t xml:space="preserve">11.448579788208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6005926132202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5815906524658</t>
   </si>
   <si>
     <t xml:space="preserve">11.6290950775146</t>
@@ -827,25 +827,25 @@
     <t xml:space="preserve">12.0017623901367</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0399837493896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1259832382202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0973176956177</t>
+    <t xml:space="preserve">12.039984703064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1259841918945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0973167419434</t>
   </si>
   <si>
     <t xml:space="preserve">12.1068725585938</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1164274215698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1450958251953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2406511306763</t>
+    <t xml:space="preserve">12.1164293289185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.145094871521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.240650177002</t>
   </si>
   <si>
     <t xml:space="preserve">12.2788734436035</t>
@@ -854,10 +854,10 @@
     <t xml:space="preserve">12.202428817749</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3935403823853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3648710250854</t>
+    <t xml:space="preserve">12.3935394287109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3648719787598</t>
   </si>
   <si>
     <t xml:space="preserve">12.4222059249878</t>
@@ -866,19 +866,19 @@
     <t xml:space="preserve">12.0877618789673</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3266487121582</t>
+    <t xml:space="preserve">12.3266496658325</t>
   </si>
   <si>
     <t xml:space="preserve">11.6577625274658</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4666519165039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8679847717285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9062051773071</t>
+    <t xml:space="preserve">11.4666500091553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8679828643799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9062061309814</t>
   </si>
   <si>
     <t xml:space="preserve">11.9444284439087</t>
@@ -887,10 +887,10 @@
     <t xml:space="preserve">11.9348726272583</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8010969161987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7437610626221</t>
+    <t xml:space="preserve">11.8010959625244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7437629699707</t>
   </si>
   <si>
     <t xml:space="preserve">11.6959838867188</t>
@@ -899,70 +899,70 @@
     <t xml:space="preserve">11.638650894165</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5430946350098</t>
+    <t xml:space="preserve">11.5430965423584</t>
   </si>
   <si>
     <t xml:space="preserve">11.2468738555908</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0462083816528</t>
+    <t xml:space="preserve">11.0462074279785</t>
   </si>
   <si>
     <t xml:space="preserve">10.8550958633423</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7213191986084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.769097328186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9028739929199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0748748779297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0653190612793</t>
+    <t xml:space="preserve">10.7213201522827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7690963745117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9028730392456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0748739242554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.065318107605</t>
   </si>
   <si>
     <t xml:space="preserve">11.1130962371826</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3042058944702</t>
+    <t xml:space="preserve">11.3042068481445</t>
   </si>
   <si>
     <t xml:space="preserve">11.5239858627319</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5526514053345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5144281387329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.581316947937</t>
+    <t xml:space="preserve">11.5526523590088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5144300460815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5813188552856</t>
   </si>
   <si>
     <t xml:space="preserve">11.4379844665527</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6768741607666</t>
+    <t xml:space="preserve">11.676872253418</t>
   </si>
   <si>
     <t xml:space="preserve">11.6004285812378</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5048732757568</t>
+    <t xml:space="preserve">11.5048742294312</t>
   </si>
   <si>
     <t xml:space="preserve">11.4475393295288</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4188737869263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.275541305542</t>
+    <t xml:space="preserve">11.418872833252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2755403518677</t>
   </si>
   <si>
     <t xml:space="preserve">11.1990957260132</t>
@@ -980,7 +980,7 @@
     <t xml:space="preserve">10.9506521224976</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3615417480469</t>
+    <t xml:space="preserve">11.3615407943726</t>
   </si>
   <si>
     <t xml:space="preserve">11.3328733444214</t>
@@ -995,10 +995,10 @@
     <t xml:space="preserve">11.4857635498047</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4953165054321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4093189239502</t>
+    <t xml:space="preserve">11.4953174591064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4093179702759</t>
   </si>
   <si>
     <t xml:space="preserve">11.22776222229</t>
@@ -1010,28 +1010,28 @@
     <t xml:space="preserve">11.3424291610718</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6099843978882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8966512680054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.992205619812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1642065048218</t>
+    <t xml:space="preserve">11.6099834442139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8966503143311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9922065734863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1642045974731</t>
   </si>
   <si>
     <t xml:space="preserve">12.1928739547729</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1355381011963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2310943603516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2215385437012</t>
+    <t xml:space="preserve">12.1355390548706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2310953140259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2215394973755</t>
   </si>
   <si>
     <t xml:space="preserve">12.2597608566284</t>
@@ -1040,13 +1040,13 @@
     <t xml:space="preserve">12.1546506881714</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0113162994385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4030952453613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3362064361572</t>
+    <t xml:space="preserve">12.0113172531128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4030933380127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3362045288086</t>
   </si>
   <si>
     <t xml:space="preserve">12.2884283065796</t>
@@ -1055,52 +1055,52 @@
     <t xml:space="preserve">12.6706495285034</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7088718414307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8330955505371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9764280319214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0050926208496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0242052078247</t>
+    <t xml:space="preserve">12.708872795105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8330926895142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9764261245728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0050935745239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0242042541504</t>
   </si>
   <si>
     <t xml:space="preserve">12.9955387115479</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3744277954102</t>
+    <t xml:space="preserve">12.3744268417358</t>
   </si>
   <si>
     <t xml:space="preserve">11.9635410308838</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0304279327393</t>
+    <t xml:space="preserve">12.0304269790649</t>
   </si>
   <si>
     <t xml:space="preserve">12.2119836807251</t>
   </si>
   <si>
-    <t xml:space="preserve">12.355318069458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4604272842407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0782070159912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6195392608643</t>
+    <t xml:space="preserve">12.3553171157837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.460428237915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0782060623169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6195402145386</t>
   </si>
   <si>
     <t xml:space="preserve">11.7342071533203</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5717630386353</t>
+    <t xml:space="preserve">11.5717620849609</t>
   </si>
   <si>
     <t xml:space="preserve">11.8488731384277</t>
@@ -1109,7 +1109,7 @@
     <t xml:space="preserve">11.9539842605591</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2693176269531</t>
+    <t xml:space="preserve">12.2693166732788</t>
   </si>
   <si>
     <t xml:space="preserve">12.250205039978</t>
@@ -1118,7 +1118,7 @@
     <t xml:space="preserve">12.3839836120605</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3170948028564</t>
+    <t xml:space="preserve">12.3170957565308</t>
   </si>
   <si>
     <t xml:space="preserve">12.5464277267456</t>
@@ -1133,19 +1133,19 @@
     <t xml:space="preserve">11.9157619476318</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3075389862061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7279825210571</t>
+    <t xml:space="preserve">12.3075399398804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7279834747314</t>
   </si>
   <si>
     <t xml:space="preserve">12.7375383377075</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6897611618042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8235387802124</t>
+    <t xml:space="preserve">12.6897621154785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8235378265381</t>
   </si>
   <si>
     <t xml:space="preserve">13.329981803894</t>
@@ -1157,16 +1157,16 @@
     <t xml:space="preserve">13.2822036743164</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1484260559082</t>
+    <t xml:space="preserve">13.1484279632568</t>
   </si>
   <si>
     <t xml:space="preserve">13.6262035369873</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6644258499146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7408695220947</t>
+    <t xml:space="preserve">13.6644268035889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.740870475769</t>
   </si>
   <si>
     <t xml:space="preserve">13.7599811553955</t>
@@ -1175,16 +1175,16 @@
     <t xml:space="preserve">13.8077592849731</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7122049331665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4542045593262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6739816665649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5019826889038</t>
+    <t xml:space="preserve">13.7122039794922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4542036056519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6739826202393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5019817352295</t>
   </si>
   <si>
     <t xml:space="preserve">13.167537689209</t>
@@ -1193,13 +1193,13 @@
     <t xml:space="preserve">12.8044261932373</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5942058563232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5655384063721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6515378952026</t>
+    <t xml:space="preserve">12.5942049026489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5655374526978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.651538848877</t>
   </si>
   <si>
     <t xml:space="preserve">12.6993169784546</t>
@@ -1214,22 +1214,22 @@
     <t xml:space="preserve">13.0433149337769</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7853174209595</t>
+    <t xml:space="preserve">12.7853164672852</t>
   </si>
   <si>
     <t xml:space="preserve">12.4699831008911</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4413185119629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9190921783447</t>
+    <t xml:space="preserve">12.4413175582886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9190950393677</t>
   </si>
   <si>
     <t xml:space="preserve">13.2344264984131</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2917604446411</t>
+    <t xml:space="preserve">13.2917594909668</t>
   </si>
   <si>
     <t xml:space="preserve">13.4637603759766</t>
@@ -1241,46 +1241,46 @@
     <t xml:space="preserve">13.5306482315063</t>
   </si>
   <si>
-    <t xml:space="preserve">13.521092414856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3586483001709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5402040481567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4446477890015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0815382003784</t>
+    <t xml:space="preserve">13.5210933685303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3586492538452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5402030944824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4446487426758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0815372467041</t>
   </si>
   <si>
     <t xml:space="preserve">13.0528707504272</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4924268722534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7695379257202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8459815979004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5115385055542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9988708496094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2090930938721</t>
+    <t xml:space="preserve">13.4924278259277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7695360183716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8459806442261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5115375518799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9988689422607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2090921401978</t>
   </si>
   <si>
     <t xml:space="preserve">14.3524255752563</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6104249954224</t>
+    <t xml:space="preserve">14.610424041748</t>
   </si>
   <si>
     <t xml:space="preserve">14.5148696899414</t>
@@ -1289,94 +1289,94 @@
     <t xml:space="preserve">14.7824258804321</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8206462860107</t>
+    <t xml:space="preserve">14.8206472396851</t>
   </si>
   <si>
     <t xml:space="preserve">14.9066467285156</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1359806060791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0786466598511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3366460800171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1933135986328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.221981048584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2602024078369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.126425743103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1168670654297</t>
+    <t xml:space="preserve">15.1359796524048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0786457061768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3366451263428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1933126449585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2219800949097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2602033615112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1264247894287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.116868019104</t>
   </si>
   <si>
     <t xml:space="preserve">14.9353132247925</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8110914230347</t>
+    <t xml:space="preserve">14.8110904693604</t>
   </si>
   <si>
     <t xml:space="preserve">15.3939800262451</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4990892410278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4704246520996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.47998046875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6710920333862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.62331199646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.785756111145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8908672332764</t>
+    <t xml:space="preserve">15.4990911483765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4704236984253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4799814224243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6710901260376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6233129501343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7857580184937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8908681869507</t>
   </si>
   <si>
     <t xml:space="preserve">15.6519775390625</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2410898208618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5755338668823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0401554107666</t>
+    <t xml:space="preserve">15.2410907745361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.575532913208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0401563644409</t>
   </si>
   <si>
     <t xml:space="preserve">14.8861951828003</t>
   </si>
   <si>
-    <t xml:space="preserve">14.559024810791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8284568786621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9535531997681</t>
+    <t xml:space="preserve">14.5590238571167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8284578323364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9535512924194</t>
   </si>
   <si>
     <t xml:space="preserve">15.0978908538818</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1356296539307</t>
+    <t xml:space="preserve">14.1356287002563</t>
   </si>
   <si>
     <t xml:space="preserve">14.6167602539062</t>
@@ -1385,7 +1385,7 @@
     <t xml:space="preserve">14.838080406189</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8477029800415</t>
+    <t xml:space="preserve">14.8477039337158</t>
   </si>
   <si>
     <t xml:space="preserve">15.4154376983643</t>
@@ -1394,10 +1394,10 @@
     <t xml:space="preserve">15.7233619689941</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3584537506104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7048683166504</t>
+    <t xml:space="preserve">16.3584575653076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.704870223999</t>
   </si>
   <si>
     <t xml:space="preserve">16.3969459533691</t>
@@ -1406,55 +1406,55 @@
     <t xml:space="preserve">16.406566619873</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4450569152832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4546813964844</t>
+    <t xml:space="preserve">16.4450588226318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4546794891357</t>
   </si>
   <si>
     <t xml:space="preserve">16.5701503753662</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3488311767578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3103427886963</t>
+    <t xml:space="preserve">16.3488330841064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3103408813477</t>
   </si>
   <si>
     <t xml:space="preserve">16.7722282409668</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9743003845215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9165649414062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8203430175781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5509071350098</t>
+    <t xml:space="preserve">16.9743022918701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9165668487549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8203392028809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5509090423584</t>
   </si>
   <si>
     <t xml:space="preserve">16.5027923583984</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9261875152588</t>
+    <t xml:space="preserve">16.9261894226074</t>
   </si>
   <si>
     <t xml:space="preserve">17.0897731781006</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1378860473633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3014698028564</t>
+    <t xml:space="preserve">17.1378879547119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3014717102051</t>
   </si>
   <si>
     <t xml:space="preserve">17.1763782501221</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0224151611328</t>
+    <t xml:space="preserve">17.0224170684814</t>
   </si>
   <si>
     <t xml:space="preserve">16.6182651519775</t>
@@ -1463,13 +1463,13 @@
     <t xml:space="preserve">16.6952476501465</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4643020629883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6471328735352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8010959625244</t>
+    <t xml:space="preserve">16.4643039703369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6471309661865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8010921478271</t>
   </si>
   <si>
     <t xml:space="preserve">16.6086444854736</t>
@@ -1478,10 +1478,10 @@
     <t xml:space="preserve">16.7626056671143</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3592071533203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8018474578857</t>
+    <t xml:space="preserve">17.3592090606689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8018455505371</t>
   </si>
   <si>
     <t xml:space="preserve">18.2156200408936</t>
@@ -1490,13 +1490,13 @@
     <t xml:space="preserve">17.7056217193604</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3503379821777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.436939239502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9950542449951</t>
+    <t xml:space="preserve">18.3503398895264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4369430541992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9950504302979</t>
   </si>
   <si>
     <t xml:space="preserve">18.4080715179443</t>
@@ -1517,19 +1517,19 @@
     <t xml:space="preserve">17.8980751037598</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0520343780518</t>
+    <t xml:space="preserve">18.0520362854004</t>
   </si>
   <si>
     <t xml:space="preserve">18.0231666564941</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5716571807861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6486377716064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4754314422607</t>
+    <t xml:space="preserve">18.5716552734375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6486358642578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4754295349121</t>
   </si>
   <si>
     <t xml:space="preserve">18.3022232055664</t>
@@ -1541,34 +1541,34 @@
     <t xml:space="preserve">18.4850521087646</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3310928344727</t>
+    <t xml:space="preserve">18.3310890197754</t>
   </si>
   <si>
     <t xml:space="preserve">18.205997467041</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2733554840088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8403377532959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6678810119629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1001472473145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2829818725586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0239200592041</t>
+    <t xml:space="preserve">18.2733573913574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8403396606445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6678829193115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1001491546631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2829780578613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0239219665527</t>
   </si>
   <si>
     <t xml:space="preserve">19.6301441192627</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7071285247803</t>
+    <t xml:space="preserve">19.7071266174316</t>
   </si>
   <si>
     <t xml:space="preserve">19.6686363220215</t>
@@ -1577,28 +1577,28 @@
     <t xml:space="preserve">19.4761829376221</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3414669036865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0046730041504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7256183624268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8026027679443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0527858734131</t>
+    <t xml:space="preserve">19.3414688110352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.004674911499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7256164550781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8026008605957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0527877807617</t>
   </si>
   <si>
     <t xml:space="preserve">19.2452392578125</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9661827087402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4176979064941</t>
+    <t xml:space="preserve">18.9661846160889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4176940917969</t>
   </si>
   <si>
     <t xml:space="preserve">18.7833557128906</t>
@@ -1610,16 +1610,16 @@
     <t xml:space="preserve">17.5612831115723</t>
   </si>
   <si>
-    <t xml:space="preserve">16.810718536377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6848707199097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8195877075195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9061918258667</t>
+    <t xml:space="preserve">16.8107147216797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6848697662354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8195886611938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.906192779541</t>
   </si>
   <si>
     <t xml:space="preserve">15.2326078414917</t>
@@ -1628,37 +1628,37 @@
     <t xml:space="preserve">15.6560039520264</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6944942474365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0409088134766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9639301300049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1748733520508</t>
+    <t xml:space="preserve">15.6944923400879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0409069061279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9639272689819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1748723983765</t>
   </si>
   <si>
     <t xml:space="preserve">15.2999658584595</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2229862213135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2037391662598</t>
+    <t xml:space="preserve">15.2229852676392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2037410736084</t>
   </si>
   <si>
     <t xml:space="preserve">15.2422313690186</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0690231323242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8765716552734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9246835708618</t>
+    <t xml:space="preserve">15.0690240859985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8765707015991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9246845245361</t>
   </si>
   <si>
     <t xml:space="preserve">14.8958158493042</t>
@@ -1667,16 +1667,16 @@
     <t xml:space="preserve">14.8669481277466</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1556272506714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2807207107544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.011287689209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0201559066772</t>
+    <t xml:space="preserve">15.1556282043457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.280722618103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0112886428833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0201578140259</t>
   </si>
   <si>
     <t xml:space="preserve">13.9335536956787</t>
@@ -1688,7 +1688,7 @@
     <t xml:space="preserve">13.2792167663574</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5871391296387</t>
+    <t xml:space="preserve">13.587140083313</t>
   </si>
   <si>
     <t xml:space="preserve">13.4620456695557</t>
@@ -1697,16 +1697,16 @@
     <t xml:space="preserve">13.5967617034912</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8565721511841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6929883956909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4235553741455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0778942108154</t>
+    <t xml:space="preserve">13.8565731048584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6929893493652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4235544204712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0778932571411</t>
   </si>
   <si>
     <t xml:space="preserve">14.2222318649292</t>
@@ -1715,19 +1715,19 @@
     <t xml:space="preserve">14.712986946106</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4339303970337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3761930465698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5205345153809</t>
+    <t xml:space="preserve">14.4339294433594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3761940002441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5205335617065</t>
   </si>
   <si>
     <t xml:space="preserve">14.5494031906128</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0009126663208</t>
+    <t xml:space="preserve">14.0009136199951</t>
   </si>
   <si>
     <t xml:space="preserve">13.9431772232056</t>
@@ -1739,106 +1739,106 @@
     <t xml:space="preserve">13.962423324585</t>
   </si>
   <si>
-    <t xml:space="preserve">14.106761932373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1548748016357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6360054016113</t>
+    <t xml:space="preserve">14.1067609786987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1548757553101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6360063552856</t>
   </si>
   <si>
     <t xml:space="preserve">13.9816675186157</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9135570526123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5197820663452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3850631713867</t>
+    <t xml:space="preserve">12.913556098938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5197811126709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.385064125061</t>
   </si>
   <si>
     <t xml:space="preserve">13.9527988433838</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2799682617188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0593996047974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4827966690063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1075134277344</t>
+    <t xml:space="preserve">14.2799701690674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0594005584717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.482795715332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1075124740601</t>
   </si>
   <si>
     <t xml:space="preserve">15.3095893859863</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4058151245117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3769464492798</t>
+    <t xml:space="preserve">15.405816078186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3769483566284</t>
   </si>
   <si>
     <t xml:space="preserve">15.5405321121216</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5886449813843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5212869644165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3673238754272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2518539428711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1460046768188</t>
+    <t xml:space="preserve">15.5886468887329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5212860107422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3673257827759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2518529891968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1460037231445</t>
   </si>
   <si>
     <t xml:space="preserve">15.0497789382935</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0882701873779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1652498245239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8484563827515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9446811676025</t>
+    <t xml:space="preserve">15.0882682800293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1652488708496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8484544754028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9446792602539</t>
   </si>
   <si>
     <t xml:space="preserve">15.2903442382812</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4443054199219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7810964584351</t>
+    <t xml:space="preserve">15.4443035125732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7810974121094</t>
   </si>
   <si>
     <t xml:space="preserve">15.6656265258789</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6271362304688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0016641616821</t>
+    <t xml:space="preserve">15.6271352767944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0016651153564</t>
   </si>
   <si>
     <t xml:space="preserve">15.1267595291138</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4539279937744</t>
+    <t xml:space="preserve">15.4539289474487</t>
   </si>
   <si>
     <t xml:space="preserve">15.4250612258911</t>
@@ -1850,37 +1850,37 @@
     <t xml:space="preserve">15.5982666015625</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7426080703735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9735488891602</t>
+    <t xml:space="preserve">15.7426099777222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9735517501831</t>
   </si>
   <si>
     <t xml:space="preserve">16.6760025024414</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2044944763184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4924192428589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0216636657715</t>
+    <t xml:space="preserve">16.2044925689697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4924201965332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0216617584229</t>
   </si>
   <si>
     <t xml:space="preserve">16.93581199646</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0993995666504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7433605194092</t>
+    <t xml:space="preserve">17.0993976593018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7433586120605</t>
   </si>
   <si>
     <t xml:space="preserve">16.4354362487793</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4739284515381</t>
+    <t xml:space="preserve">16.4739265441895</t>
   </si>
   <si>
     <t xml:space="preserve">17.0031700134277</t>
@@ -1889,49 +1889,49 @@
     <t xml:space="preserve">16.6663799285889</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0609035491943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9839248657227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1475124359131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1186428070068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4931678771973</t>
+    <t xml:space="preserve">17.060905456543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.983922958374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1475086212158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1186408996582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4931697845459</t>
   </si>
   <si>
     <t xml:space="preserve">16.137134552002</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1275100708008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1660003662109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0890197753906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5990180969238</t>
+    <t xml:space="preserve">16.1275119781494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1660022735596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0890216827393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5990219116211</t>
   </si>
   <si>
     <t xml:space="preserve">16.4835472106934</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1563816070557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.763355255127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9269428253174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3599605560303</t>
+    <t xml:space="preserve">16.156379699707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7633571624756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9269409179688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3599624633789</t>
   </si>
   <si>
     <t xml:space="preserve">17.5709056854248</t>
@@ -1940,7 +1940,7 @@
     <t xml:space="preserve">17.5420360565186</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0905265808105</t>
+    <t xml:space="preserve">18.0905246734619</t>
   </si>
   <si>
     <t xml:space="preserve">18.9469394683838</t>
@@ -1964,10 +1964,10 @@
     <t xml:space="preserve">19.2301959991455</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2689685821533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8715667724609</t>
+    <t xml:space="preserve">19.2689666748047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8715686798096</t>
   </si>
   <si>
     <t xml:space="preserve">18.9878807067871</t>
@@ -1988,7 +1988,7 @@
     <t xml:space="preserve">19.3755855560303</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4822063446045</t>
+    <t xml:space="preserve">19.4822044372559</t>
   </si>
   <si>
     <t xml:space="preserve">19.4046649932861</t>
@@ -1997,7 +1997,7 @@
     <t xml:space="preserve">19.5403633117676</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1994609832764</t>
+    <t xml:space="preserve">20.199462890625</t>
   </si>
   <si>
     <t xml:space="preserve">20.4514713287354</t>
@@ -2009,10 +2009,10 @@
     <t xml:space="preserve">20.8973293304443</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8585624694824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1105690002441</t>
+    <t xml:space="preserve">20.8585605621338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1105709075928</t>
   </si>
   <si>
     <t xml:space="preserve">20.2576160430908</t>
@@ -2021,19 +2021,19 @@
     <t xml:space="preserve">20.1413059234619</t>
   </si>
   <si>
-    <t xml:space="preserve">19.772985458374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5985164642334</t>
+    <t xml:space="preserve">19.7729835510254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5985145568848</t>
   </si>
   <si>
     <t xml:space="preserve">19.9280662536621</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9668369293213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3933162689209</t>
+    <t xml:space="preserve">19.9668388366699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3933143615723</t>
   </si>
   <si>
     <t xml:space="preserve">20.2382316589355</t>
@@ -2042,13 +2042,13 @@
     <t xml:space="preserve">19.947452545166</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8505268096924</t>
+    <t xml:space="preserve">19.8505249023438</t>
   </si>
   <si>
     <t xml:space="preserve">20.0249919891357</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6065502166748</t>
+    <t xml:space="preserve">20.6065521240234</t>
   </si>
   <si>
     <t xml:space="preserve">20.5871658325195</t>
@@ -2057,49 +2057,49 @@
     <t xml:space="preserve">20.5290107727051</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0136432647705</t>
+    <t xml:space="preserve">21.0136413574219</t>
   </si>
   <si>
     <t xml:space="preserve">20.9942588806152</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7228622436523</t>
+    <t xml:space="preserve">20.722864151001</t>
   </si>
   <si>
     <t xml:space="preserve">20.3351573944092</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4320850372314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4902400970459</t>
+    <t xml:space="preserve">20.4320831298828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4902381896973</t>
   </si>
   <si>
     <t xml:space="preserve">21.5952014923096</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4982757568359</t>
+    <t xml:space="preserve">21.4982738494873</t>
   </si>
   <si>
     <t xml:space="preserve">20.7422485351562</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3157711029053</t>
+    <t xml:space="preserve">20.3157730102539</t>
   </si>
   <si>
     <t xml:space="preserve">20.8779468536377</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3044204711914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4207363128662</t>
+    <t xml:space="preserve">21.30442237854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4207324981689</t>
   </si>
   <si>
     <t xml:space="preserve">21.478889465332</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5758171081543</t>
+    <t xml:space="preserve">21.5758152008057</t>
   </si>
   <si>
     <t xml:space="preserve">21.3431911468506</t>
@@ -2108,37 +2108,37 @@
     <t xml:space="preserve">21.6145839691162</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1767578125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8164749145508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8940143585205</t>
+    <t xml:space="preserve">22.1767597198486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8164768218994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8940162658691</t>
   </si>
   <si>
     <t xml:space="preserve">22.8552436828613</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4287662506104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5838508605957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2930717468262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2736835479736</t>
+    <t xml:space="preserve">22.428768157959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5838489532471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2930698394775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2736854553223</t>
   </si>
   <si>
     <t xml:space="preserve">22.6420078277588</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9327850341797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.087869644165</t>
+    <t xml:space="preserve">22.9327869415283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0878677368164</t>
   </si>
   <si>
     <t xml:space="preserve">23.1460227966309</t>
@@ -2153,19 +2153,19 @@
     <t xml:space="preserve">21.6727428436279</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7810192108154</t>
+    <t xml:space="preserve">20.7810173034668</t>
   </si>
   <si>
     <t xml:space="preserve">20.7616329193115</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4401206970215</t>
+    <t xml:space="preserve">21.4401187896729</t>
   </si>
   <si>
     <t xml:space="preserve">21.0911846160889</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1881084442139</t>
+    <t xml:space="preserve">21.1881103515625</t>
   </si>
   <si>
     <t xml:space="preserve">21.4013481140137</t>
@@ -2177,7 +2177,7 @@
     <t xml:space="preserve">21.8278255462646</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5370464324951</t>
+    <t xml:space="preserve">21.5370426177979</t>
   </si>
   <si>
     <t xml:space="preserve">21.6921253204346</t>
@@ -2186,19 +2186,19 @@
     <t xml:space="preserve">21.9247512817383</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0022945404053</t>
+    <t xml:space="preserve">22.0022926330566</t>
   </si>
   <si>
     <t xml:space="preserve">21.8084392547607</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9053649902344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9554882049561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9167175292969</t>
+    <t xml:space="preserve">21.905366897583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9554901123047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9167156219482</t>
   </si>
   <si>
     <t xml:space="preserve">20.8004055023193</t>
@@ -2213,73 +2213,73 @@
     <t xml:space="preserve">21.2074947357178</t>
   </si>
   <si>
-    <t xml:space="preserve">21.246265411377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6259384155273</t>
+    <t xml:space="preserve">21.2462673187256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6259365081787</t>
   </si>
   <si>
     <t xml:space="preserve">20.645320892334</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1573734283447</t>
+    <t xml:space="preserve">22.1573753356934</t>
   </si>
   <si>
     <t xml:space="preserve">22.3512268066406</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8746299743652</t>
+    <t xml:space="preserve">22.8746280670166</t>
   </si>
   <si>
     <t xml:space="preserve">22.9909400939941</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3592624664307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8051204681396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0765171051025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2703704833984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9214344024658</t>
+    <t xml:space="preserve">23.359260559082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8051242828369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0765190124512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2703685760498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9214363098145</t>
   </si>
   <si>
     <t xml:space="preserve">24.4448356628418</t>
   </si>
   <si>
-    <t xml:space="preserve">24.1540565490723</t>
+    <t xml:space="preserve">24.1540584564209</t>
   </si>
   <si>
     <t xml:space="preserve">24.2315998077393</t>
   </si>
   <si>
-    <t xml:space="preserve">24.3285255432129</t>
+    <t xml:space="preserve">24.3285274505615</t>
   </si>
   <si>
     <t xml:space="preserve">24.73561668396</t>
   </si>
   <si>
-    <t xml:space="preserve">25.2396335601807</t>
+    <t xml:space="preserve">25.2396354675293</t>
   </si>
   <si>
     <t xml:space="preserve">25.4722576141357</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7436504364014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6968460083008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3559474945068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.666109085083</t>
+    <t xml:space="preserve">25.74365234375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6968441009521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3559455871582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6661109924316</t>
   </si>
   <si>
     <t xml:space="preserve">25.2977886199951</t>
@@ -2288,16 +2288,16 @@
     <t xml:space="preserve">25.3947162628174</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9876251220703</t>
+    <t xml:space="preserve">24.9876270294189</t>
   </si>
   <si>
     <t xml:space="preserve">25.3171768188477</t>
   </si>
   <si>
-    <t xml:space="preserve">25.2008647918701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.007007598877</t>
+    <t xml:space="preserve">25.2008628845215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0070095062256</t>
   </si>
   <si>
     <t xml:space="preserve">24.8131580352783</t>
@@ -2309,34 +2309,34 @@
     <t xml:space="preserve">24.7162303924561</t>
   </si>
   <si>
-    <t xml:space="preserve">25.0263957977295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0457820892334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8519287109375</t>
+    <t xml:space="preserve">25.0263977050781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0457801818848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8519268035889</t>
   </si>
   <si>
     <t xml:space="preserve">24.9294681549072</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9488525390625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0651664733887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6854934692383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7242660522461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2202491760254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3753318786621</t>
+    <t xml:space="preserve">24.9488544464111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0651683807373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6854953765869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7242641448975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2202472686768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3753299713135</t>
   </si>
   <si>
     <t xml:space="preserve">25.5885696411133</t>
@@ -2354,19 +2354,19 @@
     <t xml:space="preserve">25.5304126739502</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2088985443115</t>
+    <t xml:space="preserve">26.2088966369629</t>
   </si>
   <si>
     <t xml:space="preserve">25.142707824707</t>
   </si>
   <si>
-    <t xml:space="preserve">24.890697479248</t>
+    <t xml:space="preserve">24.8906993865967</t>
   </si>
   <si>
     <t xml:space="preserve">25.2784042358398</t>
   </si>
   <si>
-    <t xml:space="preserve">26.0538139343262</t>
+    <t xml:space="preserve">26.0538158416748</t>
   </si>
   <si>
     <t xml:space="preserve">26.61598777771</t>
@@ -2375,37 +2375,37 @@
     <t xml:space="preserve">26.674144744873</t>
   </si>
   <si>
-    <t xml:space="preserve">26.7904567718506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5464820861816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.6240215301514</t>
+    <t xml:space="preserve">26.790454864502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.546480178833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.6240234375</t>
   </si>
   <si>
     <t xml:space="preserve">27.9341869354248</t>
   </si>
   <si>
-    <t xml:space="preserve">28.1086559295654</t>
+    <t xml:space="preserve">28.1086540222168</t>
   </si>
   <si>
     <t xml:space="preserve">28.2443504333496</t>
   </si>
   <si>
-    <t xml:space="preserve">28.6126747131348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.2136154174805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.7095985412598</t>
+    <t xml:space="preserve">28.6126728057861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.2136135101318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.7096004486084</t>
   </si>
   <si>
     <t xml:space="preserve">28.3025074005127</t>
   </si>
   <si>
-    <t xml:space="preserve">26.3639812469482</t>
+    <t xml:space="preserve">26.3639793395996</t>
   </si>
   <si>
     <t xml:space="preserve">25.6079540252686</t>
@@ -2429,19 +2429,19 @@
     <t xml:space="preserve">19.6372871398926</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8183860778809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5824489593506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9637756347656</t>
+    <t xml:space="preserve">15.8183870315552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.582447052002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9637775421143</t>
   </si>
   <si>
     <t xml:space="preserve">16.3611755371094</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1559753417969</t>
+    <t xml:space="preserve">17.1559734344482</t>
   </si>
   <si>
     <t xml:space="preserve">17.7859935760498</t>
@@ -2456,16 +2456,16 @@
     <t xml:space="preserve">19.1138858795166</t>
   </si>
   <si>
-    <t xml:space="preserve">18.416015625</t>
+    <t xml:space="preserve">18.4160137176514</t>
   </si>
   <si>
     <t xml:space="preserve">18.4935550689697</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3869380950928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1446208953857</t>
+    <t xml:space="preserve">18.3869361877441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1446228027344</t>
   </si>
   <si>
     <t xml:space="preserve">17.640604019165</t>
@@ -2480,7 +2480,7 @@
     <t xml:space="preserve">17.9119968414307</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0654239654541</t>
+    <t xml:space="preserve">19.0654220581055</t>
   </si>
   <si>
     <t xml:space="preserve">18.7067947387695</t>
@@ -2492,7 +2492,7 @@
     <t xml:space="preserve">19.0460376739502</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2221603393555</t>
+    <t xml:space="preserve">18.2221622467041</t>
   </si>
   <si>
     <t xml:space="preserve">21.1784191131592</t>
@@ -2504,10 +2504,10 @@
     <t xml:space="preserve">19.1284255981445</t>
   </si>
   <si>
-    <t xml:space="preserve">20.306079864502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5483951568604</t>
+    <t xml:space="preserve">20.3060817718506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.548397064209</t>
   </si>
   <si>
     <t xml:space="preserve">20.286693572998</t>
@@ -2531,31 +2531,31 @@
     <t xml:space="preserve">22.6710834503174</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1186046600342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3334980010986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7502822875977</t>
+    <t xml:space="preserve">22.1186027526855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3335018157959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7502841949463</t>
   </si>
   <si>
     <t xml:space="preserve">22.186450958252</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2656517028809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.322151184082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9829063415527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3786487579346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4852657318115</t>
+    <t xml:space="preserve">21.2656536102295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3221492767334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9829082489014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3786468505859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4852638244629</t>
   </si>
   <si>
     <t xml:space="preserve">22.6129283905029</t>
@@ -2564,7 +2564,7 @@
     <t xml:space="preserve">23.853588104248</t>
   </si>
   <si>
-    <t xml:space="preserve">24.1831359863281</t>
+    <t xml:space="preserve">24.1831378936768</t>
   </si>
   <si>
     <t xml:space="preserve">23.8729705810547</t>
@@ -2576,22 +2576,22 @@
     <t xml:space="preserve">24.1734428405762</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7081966400146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.029712677002</t>
+    <t xml:space="preserve">23.708194732666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0297107696533</t>
   </si>
   <si>
     <t xml:space="preserve">22.9715576171875</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2155284881592</t>
+    <t xml:space="preserve">22.2155323028564</t>
   </si>
   <si>
     <t xml:space="preserve">22.3996906280518</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0394039154053</t>
+    <t xml:space="preserve">23.0394058227539</t>
   </si>
   <si>
     <t xml:space="preserve">23.2817192077637</t>
@@ -2609,19 +2609,19 @@
     <t xml:space="preserve">23.4949588775635</t>
   </si>
   <si>
-    <t xml:space="preserve">23.8148155212402</t>
+    <t xml:space="preserve">23.8148136138916</t>
   </si>
   <si>
     <t xml:space="preserve">22.7583160400391</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7970905303955</t>
+    <t xml:space="preserve">22.7970886230469</t>
   </si>
   <si>
     <t xml:space="preserve">22.9812469482422</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0781726837158</t>
+    <t xml:space="preserve">23.0781745910645</t>
   </si>
   <si>
     <t xml:space="preserve">23.620964050293</t>
@@ -2630,16 +2630,16 @@
     <t xml:space="preserve">23.5918846130371</t>
   </si>
   <si>
-    <t xml:space="preserve">23.8923568725586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0959014892578</t>
+    <t xml:space="preserve">23.89235496521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0959033966064</t>
   </si>
   <si>
     <t xml:space="preserve">24.1928291320801</t>
   </si>
   <si>
-    <t xml:space="preserve">24.066822052002</t>
+    <t xml:space="preserve">24.0668239593506</t>
   </si>
   <si>
     <t xml:space="preserve">24.1152877807617</t>
@@ -2648,10 +2648,10 @@
     <t xml:space="preserve">24.5223770141602</t>
   </si>
   <si>
-    <t xml:space="preserve">24.6871528625488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1039352416992</t>
+    <t xml:space="preserve">24.6871547698975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1039371490479</t>
   </si>
   <si>
     <t xml:space="preserve">25.6564159393311</t>
@@ -2666,16 +2666,16 @@
     <t xml:space="preserve">25.1233215332031</t>
   </si>
   <si>
-    <t xml:space="preserve">25.5110263824463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9552307128906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9067687988281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.0601921081543</t>
+    <t xml:space="preserve">25.5110282897949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9552326202393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9067668914795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.0601940155029</t>
   </si>
   <si>
     <t xml:space="preserve">28.6514415740967</t>
@@ -2684,7 +2684,7 @@
     <t xml:space="preserve">27.9148006439209</t>
   </si>
   <si>
-    <t xml:space="preserve">28.0020332336426</t>
+    <t xml:space="preserve">28.0020351409912</t>
   </si>
   <si>
     <t xml:space="preserve">27.5658683776855</t>
@@ -2693,22 +2693,22 @@
     <t xml:space="preserve">27.9632663726807</t>
   </si>
   <si>
-    <t xml:space="preserve">27.4204769134521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.4398632049561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.7887992858887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.633716583252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.4592475891113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.6918716430664</t>
+    <t xml:space="preserve">27.4204788208008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.4398612976074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.78879737854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.6337184906006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.45924949646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.6918697357178</t>
   </si>
   <si>
     <t xml:space="preserve">26.9649238586426</t>
@@ -2723,13 +2723,13 @@
     <t xml:space="preserve">26.8970737457275</t>
   </si>
   <si>
-    <t xml:space="preserve">26.848611831665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0618476867676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.935848236084</t>
+    <t xml:space="preserve">26.8486137390137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0618495941162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9358463287354</t>
   </si>
   <si>
     <t xml:space="preserve">26.6547584533691</t>
@@ -2738,22 +2738,22 @@
     <t xml:space="preserve">26.8583030700684</t>
   </si>
   <si>
-    <t xml:space="preserve">28.0117282867432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0715427398682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.1587772369385</t>
+    <t xml:space="preserve">28.0117301940918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0715446472168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.1587753295898</t>
   </si>
   <si>
     <t xml:space="preserve">27.798490524292</t>
   </si>
   <si>
-    <t xml:space="preserve">27.8566455841064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.6029796600342</t>
+    <t xml:space="preserve">27.8566474914551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.6029777526855</t>
   </si>
   <si>
     <t xml:space="preserve">28.7774486541748</t>
@@ -2777,28 +2777,28 @@
     <t xml:space="preserve">28.0698833465576</t>
   </si>
   <si>
-    <t xml:space="preserve">27.8857231140137</t>
+    <t xml:space="preserve">27.8857250213623</t>
   </si>
   <si>
     <t xml:space="preserve">28.0989627838135</t>
   </si>
   <si>
-    <t xml:space="preserve">29.8242511749268</t>
+    <t xml:space="preserve">29.8242530822754</t>
   </si>
   <si>
     <t xml:space="preserve">30.4155025482178</t>
   </si>
   <si>
-    <t xml:space="preserve">29.6110153198242</t>
+    <t xml:space="preserve">29.6110134124756</t>
   </si>
   <si>
     <t xml:space="preserve">29.9211807250977</t>
   </si>
   <si>
-    <t xml:space="preserve">30.2798080444336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.4736576080322</t>
+    <t xml:space="preserve">30.279806137085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.4736595153809</t>
   </si>
   <si>
     <t xml:space="preserve">29.6013221740723</t>
@@ -2810,7 +2810,7 @@
     <t xml:space="preserve">30.2507266998291</t>
   </si>
   <si>
-    <t xml:space="preserve">30.9292144775391</t>
+    <t xml:space="preserve">30.9292125701904</t>
   </si>
   <si>
     <t xml:space="preserve">31.452615737915</t>
@@ -2825,13 +2825,13 @@
     <t xml:space="preserve">31.3847694396973</t>
   </si>
   <si>
-    <t xml:space="preserve">31.2006034851074</t>
+    <t xml:space="preserve">31.2006053924561</t>
   </si>
   <si>
     <t xml:space="preserve">31.3944606781006</t>
   </si>
   <si>
-    <t xml:space="preserve">31.1812191009521</t>
+    <t xml:space="preserve">31.1812210083008</t>
   </si>
   <si>
     <t xml:space="preserve">31.1424522399902</t>
@@ -2849,7 +2849,7 @@
     <t xml:space="preserve">29.155460357666</t>
   </si>
   <si>
-    <t xml:space="preserve">29.6497840881348</t>
+    <t xml:space="preserve">29.6497859954834</t>
   </si>
   <si>
     <t xml:space="preserve">31.3653831481934</t>
@@ -2867,7 +2867,7 @@
     <t xml:space="preserve">33.8079261779785</t>
   </si>
   <si>
-    <t xml:space="preserve">32.9549751281738</t>
+    <t xml:space="preserve">32.9549713134766</t>
   </si>
   <si>
     <t xml:space="preserve">33.8273124694824</t>
@@ -2888,13 +2888,13 @@
     <t xml:space="preserve">34.3216361999512</t>
   </si>
   <si>
-    <t xml:space="preserve">34.4379501342773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1488342285156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1585159301758</t>
+    <t xml:space="preserve">34.4379463195801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1488304138184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.158519744873</t>
   </si>
   <si>
     <t xml:space="preserve">33.3426818847656</t>
@@ -2903,7 +2903,7 @@
     <t xml:space="preserve">31.9857082366943</t>
   </si>
   <si>
-    <t xml:space="preserve">32.082633972168</t>
+    <t xml:space="preserve">32.0826377868652</t>
   </si>
   <si>
     <t xml:space="preserve">32.4509544372559</t>
@@ -2915,10 +2915,10 @@
     <t xml:space="preserve">32.5381889343262</t>
   </si>
   <si>
-    <t xml:space="preserve">31.7240085601807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3459987640381</t>
+    <t xml:space="preserve">31.724006652832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3459968566895</t>
   </si>
   <si>
     <t xml:space="preserve">31.4816932678223</t>
@@ -2927,7 +2927,7 @@
     <t xml:space="preserve">31.5980033874512</t>
   </si>
   <si>
-    <t xml:space="preserve">31.3363056182861</t>
+    <t xml:space="preserve">31.3363075256348</t>
   </si>
   <si>
     <t xml:space="preserve">31.5495414733887</t>
@@ -2936,16 +2936,16 @@
     <t xml:space="preserve">32.0923309326172</t>
   </si>
   <si>
-    <t xml:space="preserve">32.5769577026367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.8306293487549</t>
+    <t xml:space="preserve">32.576961517334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8306331634521</t>
   </si>
   <si>
     <t xml:space="preserve">32.6351165771484</t>
   </si>
   <si>
-    <t xml:space="preserve">32.4218826293945</t>
+    <t xml:space="preserve">32.4218788146973</t>
   </si>
   <si>
     <t xml:space="preserve">32.9065132141113</t>
@@ -2963,13 +2963,13 @@
     <t xml:space="preserve">32.7611198425293</t>
   </si>
   <si>
-    <t xml:space="preserve">32.9937477111816</t>
+    <t xml:space="preserve">32.9937438964844</t>
   </si>
   <si>
     <t xml:space="preserve">32.8968162536621</t>
   </si>
   <si>
-    <t xml:space="preserve">32.5284957885742</t>
+    <t xml:space="preserve">32.5284996032715</t>
   </si>
   <si>
     <t xml:space="preserve">32.0050964355469</t>
@@ -2981,7 +2981,7 @@
     <t xml:space="preserve">32.7998924255371</t>
   </si>
   <si>
-    <t xml:space="preserve">32.6448097229004</t>
+    <t xml:space="preserve">32.6448135375977</t>
   </si>
   <si>
     <t xml:space="preserve">32.5866546630859</t>
@@ -2993,10 +2993,10 @@
     <t xml:space="preserve">33.1100540161133</t>
   </si>
   <si>
-    <t xml:space="preserve">33.1391334533691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.2942123413086</t>
+    <t xml:space="preserve">33.1391372680664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.2942161560059</t>
   </si>
   <si>
     <t xml:space="preserve">33.0712852478027</t>
@@ -3005,7 +3005,7 @@
     <t xml:space="preserve">32.8386650085449</t>
   </si>
   <si>
-    <t xml:space="preserve">32.5478897094727</t>
+    <t xml:space="preserve">32.5478858947754</t>
   </si>
   <si>
     <t xml:space="preserve">32.5188064575195</t>
@@ -3014,13 +3014,13 @@
     <t xml:space="preserve">33.0518989562988</t>
   </si>
   <si>
-    <t xml:space="preserve">32.8095817565918</t>
+    <t xml:space="preserve">32.8095855712891</t>
   </si>
   <si>
     <t xml:space="preserve">32.4024925231934</t>
   </si>
   <si>
-    <t xml:space="preserve">33.5365295410156</t>
+    <t xml:space="preserve">33.5365333557129</t>
   </si>
   <si>
     <t xml:space="preserve">34.3022499084473</t>
@@ -3029,16 +3029,16 @@
     <t xml:space="preserve">35.1164360046387</t>
   </si>
   <si>
-    <t xml:space="preserve">35.0001220703125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.4653663635254</t>
+    <t xml:space="preserve">35.0001182556152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.4653701782227</t>
   </si>
   <si>
     <t xml:space="preserve">35.4072113037109</t>
   </si>
   <si>
-    <t xml:space="preserve">35.5235290527344</t>
+    <t xml:space="preserve">35.5235252380371</t>
   </si>
   <si>
     <t xml:space="preserve">36.3377075195312</t>
@@ -3047,7 +3047,7 @@
     <t xml:space="preserve">36.0856971740723</t>
   </si>
   <si>
-    <t xml:space="preserve">35.8627624511719</t>
+    <t xml:space="preserve">35.8627662658691</t>
   </si>
   <si>
     <t xml:space="preserve">34.7674980163574</t>
@@ -3059,16 +3059,16 @@
     <t xml:space="preserve">33.8660850524902</t>
   </si>
   <si>
-    <t xml:space="preserve">33.8176193237305</t>
+    <t xml:space="preserve">33.8176231384277</t>
   </si>
   <si>
     <t xml:space="preserve">32.2571029663086</t>
   </si>
   <si>
-    <t xml:space="preserve">32.2861824035645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.9452857971191</t>
+    <t xml:space="preserve">32.2861862182617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.9452819824219</t>
   </si>
   <si>
     <t xml:space="preserve">33.1972885131836</t>
@@ -3092,13 +3092,13 @@
     <t xml:space="preserve">31.1036815643311</t>
   </si>
   <si>
-    <t xml:space="preserve">31.9469394683838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.9776744842529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.1909141540527</t>
+    <t xml:space="preserve">31.9469375610352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.9776763916016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.1909122467041</t>
   </si>
   <si>
     <t xml:space="preserve">31.5883121490479</t>
@@ -3113,7 +3113,7 @@
     <t xml:space="preserve">30.5996646881104</t>
   </si>
   <si>
-    <t xml:space="preserve">32.140796661377</t>
+    <t xml:space="preserve">32.1407890319824</t>
   </si>
   <si>
     <t xml:space="preserve">30.8613662719727</t>
@@ -3131,28 +3131,28 @@
     <t xml:space="preserve">31.4041538238525</t>
   </si>
   <si>
-    <t xml:space="preserve">31.7433929443359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.4235382080078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0535583496094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.8112392425537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.0017852783203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.4299163818359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.3797950744629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.1374778747559</t>
+    <t xml:space="preserve">31.7433967590332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4235343933105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0535621643066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.811243057251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.001781463623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.4299125671387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.3797912597656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.1374816894531</t>
   </si>
   <si>
     <t xml:space="preserve">34.1277847290039</t>
@@ -3164,7 +3164,7 @@
     <t xml:space="preserve">34.7287292480469</t>
   </si>
   <si>
-    <t xml:space="preserve">35.5138320922852</t>
+    <t xml:space="preserve">35.5138282775879</t>
   </si>
   <si>
     <t xml:space="preserve">35.3490562438965</t>
@@ -3176,13 +3176,13 @@
     <t xml:space="preserve">33.604377746582</t>
   </si>
   <si>
-    <t xml:space="preserve">34.0502433776855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.3119506835938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.7303886413574</t>
+    <t xml:space="preserve">34.0502471923828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.3119468688965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.7303848266602</t>
   </si>
   <si>
     <t xml:space="preserve">34.602725982666</t>
@@ -3191,7 +3191,7 @@
     <t xml:space="preserve">34.0793228149414</t>
   </si>
   <si>
-    <t xml:space="preserve">32.7514266967773</t>
+    <t xml:space="preserve">32.7514305114746</t>
   </si>
   <si>
     <t xml:space="preserve">32.383113861084</t>
@@ -3200,16 +3200,16 @@
     <t xml:space="preserve">32.3637237548828</t>
   </si>
   <si>
-    <t xml:space="preserve">32.567268371582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.4396095275879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.6334609985352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.3199806213379</t>
+    <t xml:space="preserve">32.5672721862793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.4396057128906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.6334648132324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.3199729919434</t>
   </si>
   <si>
     <t xml:space="preserve">36.4219017028809</t>
@@ -5250,6 +5250,9 @@
   </si>
   <si>
     <t xml:space="preserve">34.3899993896484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.0900001525879</t>
   </si>
 </sst>
 </file>
@@ -61621,7 +61624,7 @@
     </row>
     <row r="2156">
       <c r="A2156" s="1" t="n">
-        <v>45463.6495717593</v>
+        <v>45463.2916666667</v>
       </c>
       <c r="B2156" t="n">
         <v>432501</v>
@@ -61642,6 +61645,32 @@
         <v>1745</v>
       </c>
       <c r="H2156" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2157">
+      <c r="A2157" s="1" t="n">
+        <v>45464.6494212963</v>
+      </c>
+      <c r="B2157" t="n">
+        <v>1730101</v>
+      </c>
+      <c r="C2157" t="n">
+        <v>34.2200012207031</v>
+      </c>
+      <c r="D2157" t="n">
+        <v>32.8499984741211</v>
+      </c>
+      <c r="E2157" t="n">
+        <v>34.0800018310547</v>
+      </c>
+      <c r="F2157" t="n">
+        <v>33.0900001525879</v>
+      </c>
+      <c r="G2157" t="s">
+        <v>1746</v>
+      </c>
+      <c r="H2157" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/AMP.MI.xlsx
+++ b/data/AMP.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1747" uniqueCount="1747">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1748" uniqueCount="1748">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,127 +38,127 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">7.44491195678711</t>
+    <t xml:space="preserve">7.44491147994995</t>
   </si>
   <si>
     <t xml:space="preserve">AMP.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">7.50163459777832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4212760925293</t>
+    <t xml:space="preserve">7.50163412094116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.42127704620361</t>
   </si>
   <si>
     <t xml:space="preserve">7.47799968719482</t>
   </si>
   <si>
-    <t xml:space="preserve">7.26056098937988</t>
+    <t xml:space="preserve">7.26056146621704</t>
   </si>
   <si>
     <t xml:space="preserve">7.06675720214844</t>
   </si>
   <si>
-    <t xml:space="preserve">7.32673740386963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38818788528442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27001571655273</t>
+    <t xml:space="preserve">7.32673788070679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38818836212158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27001523971558</t>
   </si>
   <si>
     <t xml:space="preserve">7.13766098022461</t>
   </si>
   <si>
-    <t xml:space="preserve">7.19438409805298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30310297012329</t>
+    <t xml:space="preserve">7.19438457489014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30310344696045</t>
   </si>
   <si>
     <t xml:space="preserve">7.09039163589478</t>
   </si>
   <si>
-    <t xml:space="preserve">7.24165296554565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45436525344849</t>
+    <t xml:space="preserve">7.24165344238281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45436573028564</t>
   </si>
   <si>
     <t xml:space="preserve">7.34564542770386</t>
   </si>
   <si>
-    <t xml:space="preserve">7.46381950378418</t>
+    <t xml:space="preserve">7.46381855010986</t>
   </si>
   <si>
     <t xml:space="preserve">7.25583410263062</t>
   </si>
   <si>
-    <t xml:space="preserve">7.28892230987549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52054214477539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39291524887085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.24638080596924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15656852722168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94858360290527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60824537277222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55152130126953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.68860292434692</t>
+    <t xml:space="preserve">7.28892183303833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52054262161255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39291477203369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.24637985229492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15656900405884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94858407974243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6082444190979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.55152177810669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68860244750977</t>
   </si>
   <si>
     <t xml:space="preserve">6.42862224578857</t>
   </si>
   <si>
-    <t xml:space="preserve">6.38607931137085</t>
+    <t xml:space="preserve">6.38607883453369</t>
   </si>
   <si>
     <t xml:space="preserve">6.51843309402466</t>
   </si>
   <si>
-    <t xml:space="preserve">6.71696519851685</t>
+    <t xml:space="preserve">6.71696472167969</t>
   </si>
   <si>
     <t xml:space="preserve">6.98639917373657</t>
   </si>
   <si>
-    <t xml:space="preserve">6.81150245666504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.93912982940674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.80204963684082</t>
+    <t xml:space="preserve">6.8115029335022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9391303062439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8020486831665</t>
   </si>
   <si>
     <t xml:space="preserve">6.72641849517822</t>
   </si>
   <si>
-    <t xml:space="preserve">7.09984540939331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.99585390090942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90604114532471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9013147354126</t>
+    <t xml:space="preserve">7.09984588623047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.99585342407227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90604162216187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90131425857544</t>
   </si>
   <si>
     <t xml:space="preserve">6.94385671615601</t>
@@ -167,10 +167,10 @@
     <t xml:space="preserve">6.75950717926025</t>
   </si>
   <si>
-    <t xml:space="preserve">6.73114538192749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89658784866333</t>
+    <t xml:space="preserve">6.73114490509033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89658832550049</t>
   </si>
   <si>
     <t xml:space="preserve">6.88713407516479</t>
@@ -182,22 +182,22 @@
     <t xml:space="preserve">7.11402654647827</t>
   </si>
   <si>
-    <t xml:space="preserve">7.21801900863647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18965768814087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31728458404541</t>
+    <t xml:space="preserve">7.21801948547363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18965673446655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31728410720825</t>
   </si>
   <si>
     <t xml:space="preserve">7.21329164505005</t>
   </si>
   <si>
-    <t xml:space="preserve">7.14711475372314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35037326812744</t>
+    <t xml:space="preserve">7.1471152305603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35037231445312</t>
   </si>
   <si>
     <t xml:space="preserve">7.20383834838867</t>
@@ -212,10 +212,10 @@
     <t xml:space="preserve">7.0194878578186</t>
   </si>
   <si>
-    <t xml:space="preserve">7.10929918289185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37873411178589</t>
+    <t xml:space="preserve">7.10930013656616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37873458862305</t>
   </si>
   <si>
     <t xml:space="preserve">7.43545722961426</t>
@@ -236,40 +236,40 @@
     <t xml:space="preserve">7.6907114982605</t>
   </si>
   <si>
-    <t xml:space="preserve">7.66707706451416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.84670066833496</t>
+    <t xml:space="preserve">7.66707563400269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8467001914978</t>
   </si>
   <si>
     <t xml:space="preserve">7.71434593200684</t>
   </si>
   <si>
-    <t xml:space="preserve">7.75688886642456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8183388710022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85142803192139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00268840789795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00741577148438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98850774765015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90342283248901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.06413745880127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99796152114868</t>
+    <t xml:space="preserve">7.7568883895874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81833934783936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85142755508423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00268936157227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00741481781006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98850679397583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90342426300049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.06413841247559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.997962474823</t>
   </si>
   <si>
     <t xml:space="preserve">8.21067237854004</t>
@@ -278,16 +278,16 @@
     <t xml:space="preserve">8.13751697540283</t>
   </si>
   <si>
-    <t xml:space="preserve">8.21827411651611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22777557373047</t>
+    <t xml:space="preserve">8.21827507019043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22777462005615</t>
   </si>
   <si>
     <t xml:space="preserve">8.17076969146729</t>
   </si>
   <si>
-    <t xml:space="preserve">8.29428005218506</t>
+    <t xml:space="preserve">8.29428195953369</t>
   </si>
   <si>
     <t xml:space="preserve">8.33703422546387</t>
@@ -299,10 +299,10 @@
     <t xml:space="preserve">8.34653663635254</t>
   </si>
   <si>
-    <t xml:space="preserve">8.280029296875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19927310943604</t>
+    <t xml:space="preserve">8.28003025054932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19927215576172</t>
   </si>
   <si>
     <t xml:space="preserve">8.20402336120605</t>
@@ -314,61 +314,61 @@
     <t xml:space="preserve">8.13276672363281</t>
   </si>
   <si>
-    <t xml:space="preserve">8.0330057144165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93799781799316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75748062133789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74322843551636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76698207855225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67197322845459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75273036956787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1090145111084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.06625938415527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.18026924133301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7907338142395</t>
+    <t xml:space="preserve">8.03300666809082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93799591064453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75748157501221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74322891235352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76698160171509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67197275161743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75272989273071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10901546478271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.06626033782959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.18027114868164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79073429107666</t>
   </si>
   <si>
     <t xml:space="preserve">7.82873725891113</t>
   </si>
   <si>
-    <t xml:space="preserve">7.83823776245117</t>
+    <t xml:space="preserve">7.83823728561401</t>
   </si>
   <si>
     <t xml:space="preserve">7.99025344848633</t>
   </si>
   <si>
-    <t xml:space="preserve">8.0472583770752</t>
+    <t xml:space="preserve">8.04725933074951</t>
   </si>
   <si>
     <t xml:space="preserve">8.00925540924072</t>
   </si>
   <si>
-    <t xml:space="preserve">7.92849826812744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83348798751831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99975442886353</t>
+    <t xml:space="preserve">7.92849779129028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83348894119263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99975347518921</t>
   </si>
   <si>
     <t xml:space="preserve">8.08051109313965</t>
@@ -386,25 +386,25 @@
     <t xml:space="preserve">8.30378246307373</t>
   </si>
   <si>
-    <t xml:space="preserve">8.28953170776367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31803512573242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31328392028809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.43204307556152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48904895782471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47479820251465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45579719543457</t>
+    <t xml:space="preserve">8.28953075408936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31803417205811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31328296661377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.43204402923584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48904991149902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47479724884033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45579528808594</t>
   </si>
   <si>
     <t xml:space="preserve">8.41779327392578</t>
@@ -413,7 +413,7 @@
     <t xml:space="preserve">8.2752799987793</t>
   </si>
   <si>
-    <t xml:space="preserve">8.41304206848145</t>
+    <t xml:space="preserve">8.41304111480713</t>
   </si>
   <si>
     <t xml:space="preserve">8.49380016326904</t>
@@ -422,34 +422,34 @@
     <t xml:space="preserve">8.63631343841553</t>
   </si>
   <si>
-    <t xml:space="preserve">8.7360725402832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64106464385986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76457691192627</t>
+    <t xml:space="preserve">8.73607349395752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64106559753418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76457595825195</t>
   </si>
   <si>
     <t xml:space="preserve">8.88808727264404</t>
   </si>
   <si>
-    <t xml:space="preserve">8.78357791900635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91659069061279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.94034290313721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.05435180664062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97834491729736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.94984340667725</t>
+    <t xml:space="preserve">8.78357696533203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91658973693848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.94034194946289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.05435276031494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97834587097168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.94984245300293</t>
   </si>
   <si>
     <t xml:space="preserve">8.878586769104</t>
@@ -461,94 +461,94 @@
     <t xml:space="preserve">8.95459461212158</t>
   </si>
   <si>
-    <t xml:space="preserve">8.86433410644531</t>
+    <t xml:space="preserve">8.86433506011963</t>
   </si>
   <si>
     <t xml:space="preserve">8.90233898162842</t>
   </si>
   <si>
-    <t xml:space="preserve">8.89283847808838</t>
+    <t xml:space="preserve">8.89283752441406</t>
   </si>
   <si>
     <t xml:space="preserve">8.78832721710205</t>
   </si>
   <si>
-    <t xml:space="preserve">8.72182369232178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.70282077789307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68856906890869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.61256217956543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66956615447998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66006469726562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.79782962799072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62681293487549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74557304382324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62206268310547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68381786346436</t>
+    <t xml:space="preserve">8.72182178497314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.70281887054443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68856811523438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.61256122589111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66956806182861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66006565093994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.79782772064209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6268138885498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74557399749756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62206172943115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68381881713867</t>
   </si>
   <si>
     <t xml:space="preserve">8.74082374572754</t>
   </si>
   <si>
-    <t xml:space="preserve">8.59355926513672</t>
+    <t xml:space="preserve">8.59356021881104</t>
   </si>
   <si>
     <t xml:space="preserve">8.65531539916992</t>
   </si>
   <si>
-    <t xml:space="preserve">8.69331836700439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.82158088684082</t>
+    <t xml:space="preserve">8.69331932067871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8215799331665</t>
   </si>
   <si>
     <t xml:space="preserve">9.21586799621582</t>
   </si>
   <si>
-    <t xml:space="preserve">9.38688373565674</t>
+    <t xml:space="preserve">9.38688468933105</t>
   </si>
   <si>
     <t xml:space="preserve">9.20636653900146</t>
   </si>
   <si>
-    <t xml:space="preserve">9.14936256408691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02585029602051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.07335376739502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.94509315490723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63156318664551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55080509185791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5270528793335</t>
+    <t xml:space="preserve">9.14936065673828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02585220336914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.07335472106934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.94509220123291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63156223297119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.55080604553223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52705478668213</t>
   </si>
   <si>
     <t xml:space="preserve">8.52230262756348</t>
@@ -557,28 +557,28 @@
     <t xml:space="preserve">8.71232128143311</t>
   </si>
   <si>
-    <t xml:space="preserve">8.47004699707031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5888090133667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5080509185791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59830951690674</t>
+    <t xml:space="preserve">8.47004795074463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58880805969238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.50805282592773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59831047058105</t>
   </si>
   <si>
     <t xml:space="preserve">9.12086009979248</t>
   </si>
   <si>
-    <t xml:space="preserve">9.23486995697021</t>
+    <t xml:space="preserve">9.23487091064453</t>
   </si>
   <si>
     <t xml:space="preserve">9.19686603546143</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64581394195557</t>
+    <t xml:space="preserve">8.64581489562988</t>
   </si>
   <si>
     <t xml:space="preserve">8.28478050231934</t>
@@ -590,34 +590,34 @@
     <t xml:space="preserve">7.55321168899536</t>
   </si>
   <si>
-    <t xml:space="preserve">8.10426235198975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07576179504395</t>
+    <t xml:space="preserve">8.10426330566406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07576084136963</t>
   </si>
   <si>
     <t xml:space="preserve">8.51280117034912</t>
   </si>
   <si>
-    <t xml:space="preserve">8.53655529022217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57455825805664</t>
+    <t xml:space="preserve">8.53655433654785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57455730438232</t>
   </si>
   <si>
     <t xml:space="preserve">8.60781192779541</t>
   </si>
   <si>
-    <t xml:space="preserve">8.49854946136475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35603809356689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30853366851807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.50330257415771</t>
+    <t xml:space="preserve">8.49854850769043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35603618621826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30853271484375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5033016204834</t>
   </si>
   <si>
     <t xml:space="preserve">8.70757102966309</t>
@@ -626,13 +626,13 @@
     <t xml:space="preserve">8.77882671356201</t>
   </si>
   <si>
-    <t xml:space="preserve">8.85483264923096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.80258083343506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.87383651733398</t>
+    <t xml:space="preserve">8.85483360290527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.80257987976074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.87383460998535</t>
   </si>
   <si>
     <t xml:space="preserve">8.84058284759521</t>
@@ -647,7 +647,7 @@
     <t xml:space="preserve">9.27762413024902</t>
   </si>
   <si>
-    <t xml:space="preserve">9.40588665008545</t>
+    <t xml:space="preserve">9.40588474273682</t>
   </si>
   <si>
     <t xml:space="preserve">9.47714328765869</t>
@@ -662,28 +662,28 @@
     <t xml:space="preserve">9.43438911437988</t>
   </si>
   <si>
-    <t xml:space="preserve">9.50089550018311</t>
+    <t xml:space="preserve">9.50089645385742</t>
   </si>
   <si>
     <t xml:space="preserve">9.58640384674072</t>
   </si>
   <si>
-    <t xml:space="preserve">9.62440776824951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.57690238952637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.49614524841309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24912166595459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24436950683594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.29662609100342</t>
+    <t xml:space="preserve">9.62440586090088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.57690334320068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.49614334106445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24911975860596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24437046051025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2966251373291</t>
   </si>
   <si>
     <t xml:space="preserve">9.60540390014648</t>
@@ -692,46 +692,46 @@
     <t xml:space="preserve">9.95693683624268</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1089515686035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97593975067139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.061448097229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.78592205047607</t>
+    <t xml:space="preserve">10.1089525222778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9759407043457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0614490509033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.78592300415039</t>
   </si>
   <si>
     <t xml:space="preserve">9.8524284362793</t>
   </si>
   <si>
-    <t xml:space="preserve">9.86192893981934</t>
+    <t xml:space="preserve">9.86192989349365</t>
   </si>
   <si>
     <t xml:space="preserve">9.80492305755615</t>
   </si>
   <si>
-    <t xml:space="preserve">9.9379358291626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1754579544067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1564569473267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3369731903076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3939790725708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4129800796509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5839967727661</t>
+    <t xml:space="preserve">9.93793678283691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1754589080811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1564559936523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3369741439819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3939781188965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4129810333252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5839977264404</t>
   </si>
   <si>
     <t xml:space="preserve">10.6315011978149</t>
@@ -740,25 +740,25 @@
     <t xml:space="preserve">10.5174903869629</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4889879226685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7360124588013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6695041656494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.660005569458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9735336303711</t>
+    <t xml:space="preserve">10.4889869689941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.736011505127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6695051193237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6600046157837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9735345840454</t>
   </si>
   <si>
     <t xml:space="preserve">11.0495414733887</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8785247802734</t>
+    <t xml:space="preserve">10.8785238265991</t>
   </si>
   <si>
     <t xml:space="preserve">10.8120183944702</t>
@@ -773,25 +773,25 @@
     <t xml:space="preserve">10.8690233230591</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0590419769287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0020360946655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0970458984375</t>
+    <t xml:space="preserve">11.0590438842773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0020370483398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0970468521118</t>
   </si>
   <si>
     <t xml:space="preserve">11.1635513305664</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2965650558472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.258563041687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4200773239136</t>
+    <t xml:space="preserve">11.2965641021729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2585620880127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4200763702393</t>
   </si>
   <si>
     <t xml:space="preserve">11.1255483627319</t>
@@ -803,13 +803,13 @@
     <t xml:space="preserve">11.3345680236816</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3155651092529</t>
+    <t xml:space="preserve">11.3155660629272</t>
   </si>
   <si>
     <t xml:space="preserve">11.3535690307617</t>
   </si>
   <si>
-    <t xml:space="preserve">11.448579788208</t>
+    <t xml:space="preserve">11.4485788345337</t>
   </si>
   <si>
     <t xml:space="preserve">11.6005926132202</t>
@@ -821,28 +821,28 @@
     <t xml:space="preserve">11.6290950775146</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7533187866211</t>
+    <t xml:space="preserve">11.7533178329468</t>
   </si>
   <si>
     <t xml:space="preserve">12.0017623901367</t>
   </si>
   <si>
-    <t xml:space="preserve">12.039984703064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1259841918945</t>
+    <t xml:space="preserve">12.0399837493896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1259832382202</t>
   </si>
   <si>
     <t xml:space="preserve">12.0973167419434</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1068725585938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1164293289185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.145094871521</t>
+    <t xml:space="preserve">12.1068735122681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1164274215698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1450958251953</t>
   </si>
   <si>
     <t xml:space="preserve">12.240650177002</t>
@@ -851,10 +851,10 @@
     <t xml:space="preserve">12.2788734436035</t>
   </si>
   <si>
-    <t xml:space="preserve">12.202428817749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3935394287109</t>
+    <t xml:space="preserve">12.2024297714233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3935384750366</t>
   </si>
   <si>
     <t xml:space="preserve">12.3648719787598</t>
@@ -866,22 +866,22 @@
     <t xml:space="preserve">12.0877618789673</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3266496658325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6577625274658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4666500091553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8679828643799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9062061309814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9444284439087</t>
+    <t xml:space="preserve">12.3266487121582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6577634811401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4666519165039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8679847717285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9062051773071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.944429397583</t>
   </si>
   <si>
     <t xml:space="preserve">11.9348726272583</t>
@@ -890,7 +890,7 @@
     <t xml:space="preserve">11.8010959625244</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7437629699707</t>
+    <t xml:space="preserve">11.7437620162964</t>
   </si>
   <si>
     <t xml:space="preserve">11.6959838867188</t>
@@ -905,25 +905,25 @@
     <t xml:space="preserve">11.2468738555908</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0462074279785</t>
+    <t xml:space="preserve">11.0462093353271</t>
   </si>
   <si>
     <t xml:space="preserve">10.8550958633423</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7213201522827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7690963745117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9028730392456</t>
+    <t xml:space="preserve">10.7213191986084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.769097328186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9028739929199</t>
   </si>
   <si>
     <t xml:space="preserve">11.0748739242554</t>
   </si>
   <si>
-    <t xml:space="preserve">11.065318107605</t>
+    <t xml:space="preserve">11.0653190612793</t>
   </si>
   <si>
     <t xml:space="preserve">11.1130962371826</t>
@@ -935,28 +935,28 @@
     <t xml:space="preserve">11.5239858627319</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5526523590088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5144300460815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5813188552856</t>
+    <t xml:space="preserve">11.5526504516602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5144290924072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5813179016113</t>
   </si>
   <si>
     <t xml:space="preserve">11.4379844665527</t>
   </si>
   <si>
-    <t xml:space="preserve">11.676872253418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6004285812378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5048742294312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4475393295288</t>
+    <t xml:space="preserve">11.6768732070923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6004304885864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5048732757568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4475402832031</t>
   </si>
   <si>
     <t xml:space="preserve">11.418872833252</t>
@@ -965,34 +965,34 @@
     <t xml:space="preserve">11.2755403518677</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1990957260132</t>
+    <t xml:space="preserve">11.1990966796875</t>
   </si>
   <si>
     <t xml:space="preserve">11.0844297409058</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8264303207397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9984292984009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9506521224976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3615407943726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3328733444214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2373180389404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2946510314941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4857635498047</t>
+    <t xml:space="preserve">10.8264293670654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9984302520752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9506511688232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3615398406982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3328742980957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2373199462891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2946519851685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4857625961304</t>
   </si>
   <si>
     <t xml:space="preserve">11.4953174591064</t>
@@ -1007,31 +1007,31 @@
     <t xml:space="preserve">11.2564296722412</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3424291610718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6099834442139</t>
+    <t xml:space="preserve">11.3424282073975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6099843978882</t>
   </si>
   <si>
     <t xml:space="preserve">11.8966503143311</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9922065734863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1642045974731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1928739547729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1355390548706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2310953140259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2215394973755</t>
+    <t xml:space="preserve">11.992205619812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1642055511475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1928720474243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1355400085449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2310943603516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2215404510498</t>
   </si>
   <si>
     <t xml:space="preserve">12.2597608566284</t>
@@ -1040,13 +1040,13 @@
     <t xml:space="preserve">12.1546506881714</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0113172531128</t>
+    <t xml:space="preserve">12.0113182067871</t>
   </si>
   <si>
     <t xml:space="preserve">12.4030933380127</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3362045288086</t>
+    <t xml:space="preserve">12.3362073898315</t>
   </si>
   <si>
     <t xml:space="preserve">12.2884283065796</t>
@@ -1055,31 +1055,31 @@
     <t xml:space="preserve">12.6706495285034</t>
   </si>
   <si>
-    <t xml:space="preserve">12.708872795105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8330926895142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9764261245728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0050935745239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0242042541504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9955387115479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3744268417358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9635410308838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0304269790649</t>
+    <t xml:space="preserve">12.7088718414307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8330945968628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9764280319214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0050926208496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0242052078247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9955377578735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3744277954102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9635400772095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0304288864136</t>
   </si>
   <si>
     <t xml:space="preserve">12.2119836807251</t>
@@ -1088,13 +1088,13 @@
     <t xml:space="preserve">12.3553171157837</t>
   </si>
   <si>
-    <t xml:space="preserve">12.460428237915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0782060623169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6195402145386</t>
+    <t xml:space="preserve">12.4604272842407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0782070159912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6195392608643</t>
   </si>
   <si>
     <t xml:space="preserve">11.7342071533203</t>
@@ -1106,73 +1106,73 @@
     <t xml:space="preserve">11.8488731384277</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9539842605591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2693166732788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.250205039978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3839836120605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3170957565308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5464277267456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5177612304688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3457612991333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9157619476318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3075399398804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7279834747314</t>
+    <t xml:space="preserve">11.9539833068848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2693176269531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2502059936523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3839826583862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3170948028564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5464286804199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5177602767944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3457622528076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9157609939575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3075389862061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7279815673828</t>
   </si>
   <si>
     <t xml:space="preserve">12.7375383377075</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6897621154785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8235378265381</t>
+    <t xml:space="preserve">12.6897611618042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8235387802124</t>
   </si>
   <si>
     <t xml:space="preserve">13.329981803894</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3204259872437</t>
+    <t xml:space="preserve">13.320426940918</t>
   </si>
   <si>
     <t xml:space="preserve">13.2822036743164</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1484279632568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6262035369873</t>
+    <t xml:space="preserve">13.1484270095825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6262054443359</t>
   </si>
   <si>
     <t xml:space="preserve">13.6644268035889</t>
   </si>
   <si>
-    <t xml:space="preserve">13.740870475769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7599811553955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8077592849731</t>
+    <t xml:space="preserve">13.7408714294434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7599802017212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8077583312988</t>
   </si>
   <si>
     <t xml:space="preserve">13.7122039794922</t>
@@ -1181,7 +1181,7 @@
     <t xml:space="preserve">13.4542036056519</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6739826202393</t>
+    <t xml:space="preserve">13.6739816665649</t>
   </si>
   <si>
     <t xml:space="preserve">13.5019817352295</t>
@@ -1190,13 +1190,13 @@
     <t xml:space="preserve">13.167537689209</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8044261932373</t>
+    <t xml:space="preserve">12.804425239563</t>
   </si>
   <si>
     <t xml:space="preserve">12.5942049026489</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5655374526978</t>
+    <t xml:space="preserve">12.5655384063721</t>
   </si>
   <si>
     <t xml:space="preserve">12.651538848877</t>
@@ -1205,13 +1205,13 @@
     <t xml:space="preserve">12.6993169784546</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0146493911743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.071982383728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0433149337769</t>
+    <t xml:space="preserve">13.0146503448486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0719833374023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0433158874512</t>
   </si>
   <si>
     <t xml:space="preserve">12.7853164672852</t>
@@ -1220,13 +1220,13 @@
     <t xml:space="preserve">12.4699831008911</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4413175582886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9190950393677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2344264984131</t>
+    <t xml:space="preserve">12.4413156509399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.919093132019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2344274520874</t>
   </si>
   <si>
     <t xml:space="preserve">13.2917594909668</t>
@@ -1241,46 +1241,46 @@
     <t xml:space="preserve">13.5306482315063</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5210933685303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3586492538452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5402030944824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4446487426758</t>
+    <t xml:space="preserve">13.521092414856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3586483001709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5402050018311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4446477890015</t>
   </si>
   <si>
     <t xml:space="preserve">13.0815372467041</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0528707504272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4924278259277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7695360183716</t>
+    <t xml:space="preserve">13.0528717041016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4924268722534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7695369720459</t>
   </si>
   <si>
     <t xml:space="preserve">13.8459806442261</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5115375518799</t>
+    <t xml:space="preserve">13.5115385055542</t>
   </si>
   <si>
     <t xml:space="preserve">13.9988689422607</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2090921401978</t>
+    <t xml:space="preserve">14.2090911865234</t>
   </si>
   <si>
     <t xml:space="preserve">14.3524255752563</t>
   </si>
   <si>
-    <t xml:space="preserve">14.610424041748</t>
+    <t xml:space="preserve">14.6104249954224</t>
   </si>
   <si>
     <t xml:space="preserve">14.5148696899414</t>
@@ -1289,94 +1289,94 @@
     <t xml:space="preserve">14.7824258804321</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8206472396851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9066467285156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1359796524048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0786457061768</t>
+    <t xml:space="preserve">14.8206462860107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9066457748413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1359806060791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0786466598511</t>
   </si>
   <si>
     <t xml:space="preserve">15.3366451263428</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1933126449585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2219800949097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2602033615112</t>
+    <t xml:space="preserve">15.1933135986328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2219791412354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2602024078369</t>
   </si>
   <si>
     <t xml:space="preserve">15.1264247894287</t>
   </si>
   <si>
-    <t xml:space="preserve">15.116868019104</t>
+    <t xml:space="preserve">15.1168699264526</t>
   </si>
   <si>
     <t xml:space="preserve">14.9353132247925</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8110904693604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3939800262451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4990911483765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4704236984253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4799814224243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6710901260376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6233129501343</t>
+    <t xml:space="preserve">14.8110914230347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3939809799194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4990901947021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4704246520996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.47998046875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6710910797119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.62331199646</t>
   </si>
   <si>
     <t xml:space="preserve">15.7857580184937</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8908681869507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6519775390625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2410907745361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.575532913208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0401563644409</t>
+    <t xml:space="preserve">15.8908672332764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6519784927368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2410898208618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5755338668823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0401554107666</t>
   </si>
   <si>
     <t xml:space="preserve">14.8861951828003</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5590238571167</t>
+    <t xml:space="preserve">14.559024810791</t>
   </si>
   <si>
     <t xml:space="preserve">14.8284578323364</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9535512924194</t>
+    <t xml:space="preserve">14.9535522460938</t>
   </si>
   <si>
     <t xml:space="preserve">15.0978908538818</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1356287002563</t>
+    <t xml:space="preserve">14.1356296539307</t>
   </si>
   <si>
     <t xml:space="preserve">14.6167602539062</t>
@@ -1385,7 +1385,7 @@
     <t xml:space="preserve">14.838080406189</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8477039337158</t>
+    <t xml:space="preserve">14.8477029800415</t>
   </si>
   <si>
     <t xml:space="preserve">15.4154376983643</t>
@@ -1394,10 +1394,10 @@
     <t xml:space="preserve">15.7233619689941</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3584575653076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.704870223999</t>
+    <t xml:space="preserve">16.3584537506104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7048683166504</t>
   </si>
   <si>
     <t xml:space="preserve">16.3969459533691</t>
@@ -1409,43 +1409,43 @@
     <t xml:space="preserve">16.4450588226318</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4546794891357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5701503753662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3488330841064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3103408813477</t>
+    <t xml:space="preserve">16.454683303833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5701522827148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3488292694092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3103427886963</t>
   </si>
   <si>
     <t xml:space="preserve">16.7722282409668</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9743022918701</t>
+    <t xml:space="preserve">16.9743003845215</t>
   </si>
   <si>
     <t xml:space="preserve">16.9165668487549</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8203392028809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5509090423584</t>
+    <t xml:space="preserve">16.8203411102295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5509071350098</t>
   </si>
   <si>
     <t xml:space="preserve">16.5027923583984</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9261894226074</t>
+    <t xml:space="preserve">16.9261856079102</t>
   </si>
   <si>
     <t xml:space="preserve">17.0897731781006</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1378879547119</t>
+    <t xml:space="preserve">17.1378860473633</t>
   </si>
   <si>
     <t xml:space="preserve">17.3014717102051</t>
@@ -1454,22 +1454,22 @@
     <t xml:space="preserve">17.1763782501221</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0224170684814</t>
+    <t xml:space="preserve">17.0224151611328</t>
   </si>
   <si>
     <t xml:space="preserve">16.6182651519775</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6952476501465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4643039703369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6471309661865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8010921478271</t>
+    <t xml:space="preserve">16.6952457427979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4643020629883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6471328735352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8010959625244</t>
   </si>
   <si>
     <t xml:space="preserve">16.6086444854736</t>
@@ -1478,10 +1478,10 @@
     <t xml:space="preserve">16.7626056671143</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3592090606689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8018455505371</t>
+    <t xml:space="preserve">17.3592071533203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8018474578857</t>
   </si>
   <si>
     <t xml:space="preserve">18.2156200408936</t>
@@ -1490,13 +1490,13 @@
     <t xml:space="preserve">17.7056217193604</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3503398895264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4369430541992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9950504302979</t>
+    <t xml:space="preserve">18.3503379821777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4369411468506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9950523376465</t>
   </si>
   <si>
     <t xml:space="preserve">18.4080715179443</t>
@@ -1514,22 +1514,22 @@
     <t xml:space="preserve">18.1290168762207</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8980751037598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0520362854004</t>
+    <t xml:space="preserve">17.8980731964111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0520343780518</t>
   </si>
   <si>
     <t xml:space="preserve">18.0231666564941</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5716552734375</t>
+    <t xml:space="preserve">18.5716571807861</t>
   </si>
   <si>
     <t xml:space="preserve">18.6486358642578</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4754295349121</t>
+    <t xml:space="preserve">18.4754333496094</t>
   </si>
   <si>
     <t xml:space="preserve">18.3022232055664</t>
@@ -1541,34 +1541,34 @@
     <t xml:space="preserve">18.4850521087646</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3310890197754</t>
+    <t xml:space="preserve">18.331090927124</t>
   </si>
   <si>
     <t xml:space="preserve">18.205997467041</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2733573913574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8403396606445</t>
+    <t xml:space="preserve">18.2733554840088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8403377532959</t>
   </si>
   <si>
     <t xml:space="preserve">18.6678829193115</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1001491546631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2829780578613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0239219665527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6301441192627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7071266174316</t>
+    <t xml:space="preserve">18.1001472473145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2829818725586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0239181518555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6301460266113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7071285247803</t>
   </si>
   <si>
     <t xml:space="preserve">19.6686363220215</t>
@@ -1577,28 +1577,28 @@
     <t xml:space="preserve">19.4761829376221</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3414688110352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.004674911499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7256164550781</t>
+    <t xml:space="preserve">19.3414669036865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0046730041504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7256183624268</t>
   </si>
   <si>
     <t xml:space="preserve">18.8026008605957</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0527877807617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2452392578125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9661846160889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4176940917969</t>
+    <t xml:space="preserve">19.0527858734131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2452411651611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9661827087402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4176959991455</t>
   </si>
   <si>
     <t xml:space="preserve">18.7833557128906</t>
@@ -1610,73 +1610,73 @@
     <t xml:space="preserve">17.5612831115723</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8107147216797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6848697662354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8195886611938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.906192779541</t>
+    <t xml:space="preserve">16.8107166290283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6848707199097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8195877075195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9061918258667</t>
   </si>
   <si>
     <t xml:space="preserve">15.2326078414917</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6560039520264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6944923400879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0409069061279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9639272689819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1748723983765</t>
+    <t xml:space="preserve">15.6560029983521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6944952011108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0409088134766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9639282226562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1748733520508</t>
   </si>
   <si>
     <t xml:space="preserve">15.2999658584595</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2229852676392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2037410736084</t>
+    <t xml:space="preserve">15.2229871749878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2037401199341</t>
   </si>
   <si>
     <t xml:space="preserve">15.2422313690186</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0690240859985</t>
+    <t xml:space="preserve">15.0690221786499</t>
   </si>
   <si>
     <t xml:space="preserve">14.8765707015991</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9246845245361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8958158493042</t>
+    <t xml:space="preserve">14.9246835708618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8958148956299</t>
   </si>
   <si>
     <t xml:space="preserve">14.8669481277466</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1556282043457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.280722618103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0112886428833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0201578140259</t>
+    <t xml:space="preserve">15.1556272506714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2807216644287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.011287689209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0201559066772</t>
   </si>
   <si>
     <t xml:space="preserve">13.9335536956787</t>
@@ -1691,19 +1691,19 @@
     <t xml:space="preserve">13.587140083313</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4620456695557</t>
+    <t xml:space="preserve">13.4620447158813</t>
   </si>
   <si>
     <t xml:space="preserve">13.5967617034912</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8565731048584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6929893493652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4235544204712</t>
+    <t xml:space="preserve">13.8565721511841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6929883956909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4235553741455</t>
   </si>
   <si>
     <t xml:space="preserve">14.0778932571411</t>
@@ -1715,37 +1715,37 @@
     <t xml:space="preserve">14.712986946106</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4339294433594</t>
+    <t xml:space="preserve">14.4339303970337</t>
   </si>
   <si>
     <t xml:space="preserve">14.3761940002441</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5205335617065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5494031906128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0009136199951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9431772232056</t>
+    <t xml:space="preserve">14.5205345153809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5494022369385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0009117126465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9431762695312</t>
   </si>
   <si>
     <t xml:space="preserve">13.7988376617432</t>
   </si>
   <si>
-    <t xml:space="preserve">13.962423324585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1067609786987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1548757553101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6360063552856</t>
+    <t xml:space="preserve">13.9624223709106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.106761932373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1548748016357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6360054016113</t>
   </si>
   <si>
     <t xml:space="preserve">13.9816675186157</t>
@@ -1763,73 +1763,73 @@
     <t xml:space="preserve">13.9527988433838</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2799701690674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0594005584717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.482795715332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1075124740601</t>
+    <t xml:space="preserve">14.2799682617188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0593996047974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4827966690063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1075134277344</t>
   </si>
   <si>
     <t xml:space="preserve">15.3095893859863</t>
   </si>
   <si>
-    <t xml:space="preserve">15.405816078186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3769483566284</t>
+    <t xml:space="preserve">15.4058151245117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3769474029541</t>
   </si>
   <si>
     <t xml:space="preserve">15.5405321121216</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5886468887329</t>
+    <t xml:space="preserve">15.5886459350586</t>
   </si>
   <si>
     <t xml:space="preserve">15.5212860107422</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3673257827759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2518529891968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1460037231445</t>
+    <t xml:space="preserve">15.3673248291016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2518539428711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1460046768188</t>
   </si>
   <si>
     <t xml:space="preserve">15.0497789382935</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0882682800293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1652488708496</t>
+    <t xml:space="preserve">15.0882692337036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1652507781982</t>
   </si>
   <si>
     <t xml:space="preserve">15.8484544754028</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9446792602539</t>
+    <t xml:space="preserve">15.9446811676025</t>
   </si>
   <si>
     <t xml:space="preserve">15.2903442382812</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4443035125732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7810974121094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6656265258789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6271352767944</t>
+    <t xml:space="preserve">15.4443044662476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7810983657837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6656274795532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6271362304688</t>
   </si>
   <si>
     <t xml:space="preserve">15.0016651153564</t>
@@ -1844,25 +1844,25 @@
     <t xml:space="preserve">15.4250612258911</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6752490997314</t>
+    <t xml:space="preserve">15.6752471923828</t>
   </si>
   <si>
     <t xml:space="preserve">15.5982666015625</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7426099777222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9735517501831</t>
+    <t xml:space="preserve">15.7426071166992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9735488891602</t>
   </si>
   <si>
     <t xml:space="preserve">16.6760025024414</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2044925689697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4924201965332</t>
+    <t xml:space="preserve">16.2044944763184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4924192428589</t>
   </si>
   <si>
     <t xml:space="preserve">16.0216617584229</t>
@@ -1874,31 +1874,31 @@
     <t xml:space="preserve">17.0993976593018</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7433586120605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4354362487793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4739265441895</t>
+    <t xml:space="preserve">16.7433605194092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4354343414307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4739284515381</t>
   </si>
   <si>
     <t xml:space="preserve">17.0031700134277</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6663799285889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.060905456543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.983922958374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1475086212158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1186408996582</t>
+    <t xml:space="preserve">16.6663780212402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0609035491943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9839248657227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1475124359131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1186428070068</t>
   </si>
   <si>
     <t xml:space="preserve">16.4931697845459</t>
@@ -1910,28 +1910,28 @@
     <t xml:space="preserve">16.1275119781494</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1660022735596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0890216827393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5990219116211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4835472106934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.156379699707</t>
+    <t xml:space="preserve">16.1660003662109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0890197753906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5990200042725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.483549118042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1563816070557</t>
   </si>
   <si>
     <t xml:space="preserve">17.7633571624756</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9269409179688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3599624633789</t>
+    <t xml:space="preserve">17.9269428253174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3599605560303</t>
   </si>
   <si>
     <t xml:space="preserve">17.5709056854248</t>
@@ -1964,10 +1964,10 @@
     <t xml:space="preserve">19.2301959991455</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2689666748047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8715686798096</t>
+    <t xml:space="preserve">19.2689685821533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8715667724609</t>
   </si>
   <si>
     <t xml:space="preserve">18.9878807067871</t>
@@ -1988,7 +1988,7 @@
     <t xml:space="preserve">19.3755855560303</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4822044372559</t>
+    <t xml:space="preserve">19.4822063446045</t>
   </si>
   <si>
     <t xml:space="preserve">19.4046649932861</t>
@@ -1997,7 +1997,7 @@
     <t xml:space="preserve">19.5403633117676</t>
   </si>
   <si>
-    <t xml:space="preserve">20.199462890625</t>
+    <t xml:space="preserve">20.1994609832764</t>
   </si>
   <si>
     <t xml:space="preserve">20.4514713287354</t>
@@ -2009,10 +2009,10 @@
     <t xml:space="preserve">20.8973293304443</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8585605621338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1105709075928</t>
+    <t xml:space="preserve">20.8585624694824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1105690002441</t>
   </si>
   <si>
     <t xml:space="preserve">20.2576160430908</t>
@@ -2021,19 +2021,19 @@
     <t xml:space="preserve">20.1413059234619</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7729835510254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5985145568848</t>
+    <t xml:space="preserve">19.772985458374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5985164642334</t>
   </si>
   <si>
     <t xml:space="preserve">19.9280662536621</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9668388366699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3933143615723</t>
+    <t xml:space="preserve">19.9668369293213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3933162689209</t>
   </si>
   <si>
     <t xml:space="preserve">20.2382316589355</t>
@@ -2042,13 +2042,13 @@
     <t xml:space="preserve">19.947452545166</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8505249023438</t>
+    <t xml:space="preserve">19.8505268096924</t>
   </si>
   <si>
     <t xml:space="preserve">20.0249919891357</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6065521240234</t>
+    <t xml:space="preserve">20.6065502166748</t>
   </si>
   <si>
     <t xml:space="preserve">20.5871658325195</t>
@@ -2057,49 +2057,49 @@
     <t xml:space="preserve">20.5290107727051</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0136413574219</t>
+    <t xml:space="preserve">21.0136432647705</t>
   </si>
   <si>
     <t xml:space="preserve">20.9942588806152</t>
   </si>
   <si>
-    <t xml:space="preserve">20.722864151001</t>
+    <t xml:space="preserve">20.7228622436523</t>
   </si>
   <si>
     <t xml:space="preserve">20.3351573944092</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4320831298828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4902381896973</t>
+    <t xml:space="preserve">20.4320850372314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4902400970459</t>
   </si>
   <si>
     <t xml:space="preserve">21.5952014923096</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4982738494873</t>
+    <t xml:space="preserve">21.4982757568359</t>
   </si>
   <si>
     <t xml:space="preserve">20.7422485351562</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3157730102539</t>
+    <t xml:space="preserve">20.3157711029053</t>
   </si>
   <si>
     <t xml:space="preserve">20.8779468536377</t>
   </si>
   <si>
-    <t xml:space="preserve">21.30442237854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4207324981689</t>
+    <t xml:space="preserve">21.3044204711914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4207363128662</t>
   </si>
   <si>
     <t xml:space="preserve">21.478889465332</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5758152008057</t>
+    <t xml:space="preserve">21.5758171081543</t>
   </si>
   <si>
     <t xml:space="preserve">21.3431911468506</t>
@@ -2108,37 +2108,37 @@
     <t xml:space="preserve">21.6145839691162</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1767597198486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8164768218994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8940162658691</t>
+    <t xml:space="preserve">22.1767578125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8164749145508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8940143585205</t>
   </si>
   <si>
     <t xml:space="preserve">22.8552436828613</t>
   </si>
   <si>
-    <t xml:space="preserve">22.428768157959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5838489532471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2930698394775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2736854553223</t>
+    <t xml:space="preserve">22.4287662506104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5838508605957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2930717468262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2736835479736</t>
   </si>
   <si>
     <t xml:space="preserve">22.6420078277588</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9327869415283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0878677368164</t>
+    <t xml:space="preserve">22.9327850341797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.087869644165</t>
   </si>
   <si>
     <t xml:space="preserve">23.1460227966309</t>
@@ -2153,19 +2153,19 @@
     <t xml:space="preserve">21.6727428436279</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7810173034668</t>
+    <t xml:space="preserve">20.7810192108154</t>
   </si>
   <si>
     <t xml:space="preserve">20.7616329193115</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4401187896729</t>
+    <t xml:space="preserve">21.4401206970215</t>
   </si>
   <si>
     <t xml:space="preserve">21.0911846160889</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1881103515625</t>
+    <t xml:space="preserve">21.1881084442139</t>
   </si>
   <si>
     <t xml:space="preserve">21.4013481140137</t>
@@ -2177,7 +2177,7 @@
     <t xml:space="preserve">21.8278255462646</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5370426177979</t>
+    <t xml:space="preserve">21.5370464324951</t>
   </si>
   <si>
     <t xml:space="preserve">21.6921253204346</t>
@@ -2186,19 +2186,19 @@
     <t xml:space="preserve">21.9247512817383</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0022926330566</t>
+    <t xml:space="preserve">22.0022945404053</t>
   </si>
   <si>
     <t xml:space="preserve">21.8084392547607</t>
   </si>
   <si>
-    <t xml:space="preserve">21.905366897583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9554901123047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9167156219482</t>
+    <t xml:space="preserve">21.9053649902344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9554882049561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9167175292969</t>
   </si>
   <si>
     <t xml:space="preserve">20.8004055023193</t>
@@ -2213,73 +2213,73 @@
     <t xml:space="preserve">21.2074947357178</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2462673187256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6259365081787</t>
+    <t xml:space="preserve">21.246265411377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6259384155273</t>
   </si>
   <si>
     <t xml:space="preserve">20.645320892334</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1573753356934</t>
+    <t xml:space="preserve">22.1573734283447</t>
   </si>
   <si>
     <t xml:space="preserve">22.3512268066406</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8746280670166</t>
+    <t xml:space="preserve">22.8746299743652</t>
   </si>
   <si>
     <t xml:space="preserve">22.9909400939941</t>
   </si>
   <si>
-    <t xml:space="preserve">23.359260559082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8051242828369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0765190124512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2703685760498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9214363098145</t>
+    <t xml:space="preserve">23.3592624664307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8051204681396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0765171051025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2703704833984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9214344024658</t>
   </si>
   <si>
     <t xml:space="preserve">24.4448356628418</t>
   </si>
   <si>
-    <t xml:space="preserve">24.1540584564209</t>
+    <t xml:space="preserve">24.1540565490723</t>
   </si>
   <si>
     <t xml:space="preserve">24.2315998077393</t>
   </si>
   <si>
-    <t xml:space="preserve">24.3285274505615</t>
+    <t xml:space="preserve">24.3285255432129</t>
   </si>
   <si>
     <t xml:space="preserve">24.73561668396</t>
   </si>
   <si>
-    <t xml:space="preserve">25.2396354675293</t>
+    <t xml:space="preserve">25.2396335601807</t>
   </si>
   <si>
     <t xml:space="preserve">25.4722576141357</t>
   </si>
   <si>
-    <t xml:space="preserve">25.74365234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6968441009521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3559455871582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6661109924316</t>
+    <t xml:space="preserve">25.7436504364014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6968460083008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3559474945068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.666109085083</t>
   </si>
   <si>
     <t xml:space="preserve">25.2977886199951</t>
@@ -2288,16 +2288,16 @@
     <t xml:space="preserve">25.3947162628174</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9876270294189</t>
+    <t xml:space="preserve">24.9876251220703</t>
   </si>
   <si>
     <t xml:space="preserve">25.3171768188477</t>
   </si>
   <si>
-    <t xml:space="preserve">25.2008628845215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0070095062256</t>
+    <t xml:space="preserve">25.2008647918701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.007007598877</t>
   </si>
   <si>
     <t xml:space="preserve">24.8131580352783</t>
@@ -2309,34 +2309,34 @@
     <t xml:space="preserve">24.7162303924561</t>
   </si>
   <si>
-    <t xml:space="preserve">25.0263977050781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0457801818848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8519268035889</t>
+    <t xml:space="preserve">25.0263957977295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0457820892334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8519287109375</t>
   </si>
   <si>
     <t xml:space="preserve">24.9294681549072</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9488544464111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0651683807373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6854953765869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7242641448975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2202472686768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3753299713135</t>
+    <t xml:space="preserve">24.9488525390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0651664733887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6854934692383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7242660522461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2202491760254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3753318786621</t>
   </si>
   <si>
     <t xml:space="preserve">25.5885696411133</t>
@@ -2354,19 +2354,19 @@
     <t xml:space="preserve">25.5304126739502</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2088966369629</t>
+    <t xml:space="preserve">26.2088985443115</t>
   </si>
   <si>
     <t xml:space="preserve">25.142707824707</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8906993865967</t>
+    <t xml:space="preserve">24.890697479248</t>
   </si>
   <si>
     <t xml:space="preserve">25.2784042358398</t>
   </si>
   <si>
-    <t xml:space="preserve">26.0538158416748</t>
+    <t xml:space="preserve">26.0538139343262</t>
   </si>
   <si>
     <t xml:space="preserve">26.61598777771</t>
@@ -2375,37 +2375,37 @@
     <t xml:space="preserve">26.674144744873</t>
   </si>
   <si>
-    <t xml:space="preserve">26.790454864502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.546480178833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.6240234375</t>
+    <t xml:space="preserve">26.7904567718506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5464820861816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.6240215301514</t>
   </si>
   <si>
     <t xml:space="preserve">27.9341869354248</t>
   </si>
   <si>
-    <t xml:space="preserve">28.1086540222168</t>
+    <t xml:space="preserve">28.1086559295654</t>
   </si>
   <si>
     <t xml:space="preserve">28.2443504333496</t>
   </si>
   <si>
-    <t xml:space="preserve">28.6126728057861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.2136135101318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.7096004486084</t>
+    <t xml:space="preserve">28.6126747131348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.2136154174805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.7095985412598</t>
   </si>
   <si>
     <t xml:space="preserve">28.3025074005127</t>
   </si>
   <si>
-    <t xml:space="preserve">26.3639793395996</t>
+    <t xml:space="preserve">26.3639812469482</t>
   </si>
   <si>
     <t xml:space="preserve">25.6079540252686</t>
@@ -2429,19 +2429,19 @@
     <t xml:space="preserve">19.6372871398926</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8183870315552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.582447052002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9637775421143</t>
+    <t xml:space="preserve">15.8183860778809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5824489593506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9637756347656</t>
   </si>
   <si>
     <t xml:space="preserve">16.3611755371094</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1559734344482</t>
+    <t xml:space="preserve">17.1559753417969</t>
   </si>
   <si>
     <t xml:space="preserve">17.7859935760498</t>
@@ -2456,16 +2456,16 @@
     <t xml:space="preserve">19.1138858795166</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4160137176514</t>
+    <t xml:space="preserve">18.416015625</t>
   </si>
   <si>
     <t xml:space="preserve">18.4935550689697</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3869361877441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1446228027344</t>
+    <t xml:space="preserve">18.3869380950928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1446208953857</t>
   </si>
   <si>
     <t xml:space="preserve">17.640604019165</t>
@@ -2480,7 +2480,7 @@
     <t xml:space="preserve">17.9119968414307</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0654220581055</t>
+    <t xml:space="preserve">19.0654239654541</t>
   </si>
   <si>
     <t xml:space="preserve">18.7067947387695</t>
@@ -2492,7 +2492,7 @@
     <t xml:space="preserve">19.0460376739502</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2221622467041</t>
+    <t xml:space="preserve">18.2221603393555</t>
   </si>
   <si>
     <t xml:space="preserve">21.1784191131592</t>
@@ -2504,10 +2504,10 @@
     <t xml:space="preserve">19.1284255981445</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3060817718506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.548397064209</t>
+    <t xml:space="preserve">20.306079864502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5483951568604</t>
   </si>
   <si>
     <t xml:space="preserve">20.286693572998</t>
@@ -2531,31 +2531,31 @@
     <t xml:space="preserve">22.6710834503174</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1186027526855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3335018157959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7502841949463</t>
+    <t xml:space="preserve">22.1186046600342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3334980010986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7502822875977</t>
   </si>
   <si>
     <t xml:space="preserve">22.186450958252</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2656536102295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3221492767334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9829082489014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3786468505859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4852638244629</t>
+    <t xml:space="preserve">21.2656517028809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.322151184082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9829063415527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3786487579346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4852657318115</t>
   </si>
   <si>
     <t xml:space="preserve">22.6129283905029</t>
@@ -2564,7 +2564,7 @@
     <t xml:space="preserve">23.853588104248</t>
   </si>
   <si>
-    <t xml:space="preserve">24.1831378936768</t>
+    <t xml:space="preserve">24.1831359863281</t>
   </si>
   <si>
     <t xml:space="preserve">23.8729705810547</t>
@@ -2576,22 +2576,22 @@
     <t xml:space="preserve">24.1734428405762</t>
   </si>
   <si>
-    <t xml:space="preserve">23.708194732666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0297107696533</t>
+    <t xml:space="preserve">23.7081966400146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.029712677002</t>
   </si>
   <si>
     <t xml:space="preserve">22.9715576171875</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2155323028564</t>
+    <t xml:space="preserve">22.2155284881592</t>
   </si>
   <si>
     <t xml:space="preserve">22.3996906280518</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0394058227539</t>
+    <t xml:space="preserve">23.0394039154053</t>
   </si>
   <si>
     <t xml:space="preserve">23.2817192077637</t>
@@ -2609,19 +2609,19 @@
     <t xml:space="preserve">23.4949588775635</t>
   </si>
   <si>
-    <t xml:space="preserve">23.8148136138916</t>
+    <t xml:space="preserve">23.8148155212402</t>
   </si>
   <si>
     <t xml:space="preserve">22.7583160400391</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7970886230469</t>
+    <t xml:space="preserve">22.7970905303955</t>
   </si>
   <si>
     <t xml:space="preserve">22.9812469482422</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0781745910645</t>
+    <t xml:space="preserve">23.0781726837158</t>
   </si>
   <si>
     <t xml:space="preserve">23.620964050293</t>
@@ -2630,16 +2630,16 @@
     <t xml:space="preserve">23.5918846130371</t>
   </si>
   <si>
-    <t xml:space="preserve">23.89235496521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0959033966064</t>
+    <t xml:space="preserve">23.8923568725586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0959014892578</t>
   </si>
   <si>
     <t xml:space="preserve">24.1928291320801</t>
   </si>
   <si>
-    <t xml:space="preserve">24.0668239593506</t>
+    <t xml:space="preserve">24.066822052002</t>
   </si>
   <si>
     <t xml:space="preserve">24.1152877807617</t>
@@ -2648,10 +2648,10 @@
     <t xml:space="preserve">24.5223770141602</t>
   </si>
   <si>
-    <t xml:space="preserve">24.6871547698975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1039371490479</t>
+    <t xml:space="preserve">24.6871528625488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1039352416992</t>
   </si>
   <si>
     <t xml:space="preserve">25.6564159393311</t>
@@ -2666,16 +2666,16 @@
     <t xml:space="preserve">25.1233215332031</t>
   </si>
   <si>
-    <t xml:space="preserve">25.5110282897949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9552326202393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9067668914795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.0601940155029</t>
+    <t xml:space="preserve">25.5110263824463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9552307128906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9067687988281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.0601921081543</t>
   </si>
   <si>
     <t xml:space="preserve">28.6514415740967</t>
@@ -2684,7 +2684,7 @@
     <t xml:space="preserve">27.9148006439209</t>
   </si>
   <si>
-    <t xml:space="preserve">28.0020351409912</t>
+    <t xml:space="preserve">28.0020332336426</t>
   </si>
   <si>
     <t xml:space="preserve">27.5658683776855</t>
@@ -2693,22 +2693,22 @@
     <t xml:space="preserve">27.9632663726807</t>
   </si>
   <si>
-    <t xml:space="preserve">27.4204788208008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.4398612976074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.78879737854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.6337184906006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.45924949646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.6918697357178</t>
+    <t xml:space="preserve">27.4204769134521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.4398632049561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.7887992858887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.633716583252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.4592475891113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.6918716430664</t>
   </si>
   <si>
     <t xml:space="preserve">26.9649238586426</t>
@@ -2723,13 +2723,13 @@
     <t xml:space="preserve">26.8970737457275</t>
   </si>
   <si>
-    <t xml:space="preserve">26.8486137390137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0618495941162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9358463287354</t>
+    <t xml:space="preserve">26.848611831665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0618476867676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.935848236084</t>
   </si>
   <si>
     <t xml:space="preserve">26.6547584533691</t>
@@ -2738,22 +2738,22 @@
     <t xml:space="preserve">26.8583030700684</t>
   </si>
   <si>
-    <t xml:space="preserve">28.0117301940918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0715446472168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.1587753295898</t>
+    <t xml:space="preserve">28.0117282867432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0715427398682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.1587772369385</t>
   </si>
   <si>
     <t xml:space="preserve">27.798490524292</t>
   </si>
   <si>
-    <t xml:space="preserve">27.8566474914551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.6029777526855</t>
+    <t xml:space="preserve">27.8566455841064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.6029796600342</t>
   </si>
   <si>
     <t xml:space="preserve">28.7774486541748</t>
@@ -2777,28 +2777,28 @@
     <t xml:space="preserve">28.0698833465576</t>
   </si>
   <si>
-    <t xml:space="preserve">27.8857250213623</t>
+    <t xml:space="preserve">27.8857231140137</t>
   </si>
   <si>
     <t xml:space="preserve">28.0989627838135</t>
   </si>
   <si>
-    <t xml:space="preserve">29.8242530822754</t>
+    <t xml:space="preserve">29.8242511749268</t>
   </si>
   <si>
     <t xml:space="preserve">30.4155025482178</t>
   </si>
   <si>
-    <t xml:space="preserve">29.6110134124756</t>
+    <t xml:space="preserve">29.6110153198242</t>
   </si>
   <si>
     <t xml:space="preserve">29.9211807250977</t>
   </si>
   <si>
-    <t xml:space="preserve">30.279806137085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.4736595153809</t>
+    <t xml:space="preserve">30.2798080444336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.4736576080322</t>
   </si>
   <si>
     <t xml:space="preserve">29.6013221740723</t>
@@ -2810,7 +2810,7 @@
     <t xml:space="preserve">30.2507266998291</t>
   </si>
   <si>
-    <t xml:space="preserve">30.9292125701904</t>
+    <t xml:space="preserve">30.9292144775391</t>
   </si>
   <si>
     <t xml:space="preserve">31.452615737915</t>
@@ -2825,13 +2825,13 @@
     <t xml:space="preserve">31.3847694396973</t>
   </si>
   <si>
-    <t xml:space="preserve">31.2006053924561</t>
+    <t xml:space="preserve">31.2006034851074</t>
   </si>
   <si>
     <t xml:space="preserve">31.3944606781006</t>
   </si>
   <si>
-    <t xml:space="preserve">31.1812210083008</t>
+    <t xml:space="preserve">31.1812191009521</t>
   </si>
   <si>
     <t xml:space="preserve">31.1424522399902</t>
@@ -2849,7 +2849,7 @@
     <t xml:space="preserve">29.155460357666</t>
   </si>
   <si>
-    <t xml:space="preserve">29.6497859954834</t>
+    <t xml:space="preserve">29.6497840881348</t>
   </si>
   <si>
     <t xml:space="preserve">31.3653831481934</t>
@@ -2867,7 +2867,7 @@
     <t xml:space="preserve">33.8079261779785</t>
   </si>
   <si>
-    <t xml:space="preserve">32.9549713134766</t>
+    <t xml:space="preserve">32.9549751281738</t>
   </si>
   <si>
     <t xml:space="preserve">33.8273124694824</t>
@@ -2888,13 +2888,13 @@
     <t xml:space="preserve">34.3216361999512</t>
   </si>
   <si>
-    <t xml:space="preserve">34.4379463195801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1488304138184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.158519744873</t>
+    <t xml:space="preserve">34.4379501342773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1488342285156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1585159301758</t>
   </si>
   <si>
     <t xml:space="preserve">33.3426818847656</t>
@@ -2903,7 +2903,7 @@
     <t xml:space="preserve">31.9857082366943</t>
   </si>
   <si>
-    <t xml:space="preserve">32.0826377868652</t>
+    <t xml:space="preserve">32.082633972168</t>
   </si>
   <si>
     <t xml:space="preserve">32.4509544372559</t>
@@ -2915,10 +2915,10 @@
     <t xml:space="preserve">32.5381889343262</t>
   </si>
   <si>
-    <t xml:space="preserve">31.724006652832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3459968566895</t>
+    <t xml:space="preserve">31.7240085601807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3459987640381</t>
   </si>
   <si>
     <t xml:space="preserve">31.4816932678223</t>
@@ -2927,7 +2927,7 @@
     <t xml:space="preserve">31.5980033874512</t>
   </si>
   <si>
-    <t xml:space="preserve">31.3363075256348</t>
+    <t xml:space="preserve">31.3363056182861</t>
   </si>
   <si>
     <t xml:space="preserve">31.5495414733887</t>
@@ -2936,16 +2936,16 @@
     <t xml:space="preserve">32.0923309326172</t>
   </si>
   <si>
-    <t xml:space="preserve">32.576961517334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.8306331634521</t>
+    <t xml:space="preserve">32.5769577026367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8306293487549</t>
   </si>
   <si>
     <t xml:space="preserve">32.6351165771484</t>
   </si>
   <si>
-    <t xml:space="preserve">32.4218788146973</t>
+    <t xml:space="preserve">32.4218826293945</t>
   </si>
   <si>
     <t xml:space="preserve">32.9065132141113</t>
@@ -2963,13 +2963,13 @@
     <t xml:space="preserve">32.7611198425293</t>
   </si>
   <si>
-    <t xml:space="preserve">32.9937438964844</t>
+    <t xml:space="preserve">32.9937477111816</t>
   </si>
   <si>
     <t xml:space="preserve">32.8968162536621</t>
   </si>
   <si>
-    <t xml:space="preserve">32.5284996032715</t>
+    <t xml:space="preserve">32.5284957885742</t>
   </si>
   <si>
     <t xml:space="preserve">32.0050964355469</t>
@@ -2981,7 +2981,7 @@
     <t xml:space="preserve">32.7998924255371</t>
   </si>
   <si>
-    <t xml:space="preserve">32.6448135375977</t>
+    <t xml:space="preserve">32.6448097229004</t>
   </si>
   <si>
     <t xml:space="preserve">32.5866546630859</t>
@@ -2993,10 +2993,10 @@
     <t xml:space="preserve">33.1100540161133</t>
   </si>
   <si>
-    <t xml:space="preserve">33.1391372680664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.2942161560059</t>
+    <t xml:space="preserve">33.1391334533691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.2942123413086</t>
   </si>
   <si>
     <t xml:space="preserve">33.0712852478027</t>
@@ -3005,7 +3005,7 @@
     <t xml:space="preserve">32.8386650085449</t>
   </si>
   <si>
-    <t xml:space="preserve">32.5478858947754</t>
+    <t xml:space="preserve">32.5478897094727</t>
   </si>
   <si>
     <t xml:space="preserve">32.5188064575195</t>
@@ -3014,13 +3014,13 @@
     <t xml:space="preserve">33.0518989562988</t>
   </si>
   <si>
-    <t xml:space="preserve">32.8095855712891</t>
+    <t xml:space="preserve">32.8095817565918</t>
   </si>
   <si>
     <t xml:space="preserve">32.4024925231934</t>
   </si>
   <si>
-    <t xml:space="preserve">33.5365333557129</t>
+    <t xml:space="preserve">33.5365295410156</t>
   </si>
   <si>
     <t xml:space="preserve">34.3022499084473</t>
@@ -3029,16 +3029,16 @@
     <t xml:space="preserve">35.1164360046387</t>
   </si>
   <si>
-    <t xml:space="preserve">35.0001182556152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.4653701782227</t>
+    <t xml:space="preserve">35.0001220703125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.4653663635254</t>
   </si>
   <si>
     <t xml:space="preserve">35.4072113037109</t>
   </si>
   <si>
-    <t xml:space="preserve">35.5235252380371</t>
+    <t xml:space="preserve">35.5235290527344</t>
   </si>
   <si>
     <t xml:space="preserve">36.3377075195312</t>
@@ -3047,7 +3047,7 @@
     <t xml:space="preserve">36.0856971740723</t>
   </si>
   <si>
-    <t xml:space="preserve">35.8627662658691</t>
+    <t xml:space="preserve">35.8627624511719</t>
   </si>
   <si>
     <t xml:space="preserve">34.7674980163574</t>
@@ -3059,16 +3059,16 @@
     <t xml:space="preserve">33.8660850524902</t>
   </si>
   <si>
-    <t xml:space="preserve">33.8176231384277</t>
+    <t xml:space="preserve">33.8176193237305</t>
   </si>
   <si>
     <t xml:space="preserve">32.2571029663086</t>
   </si>
   <si>
-    <t xml:space="preserve">32.2861862182617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.9452819824219</t>
+    <t xml:space="preserve">32.2861824035645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.9452857971191</t>
   </si>
   <si>
     <t xml:space="preserve">33.1972885131836</t>
@@ -3092,13 +3092,13 @@
     <t xml:space="preserve">31.1036815643311</t>
   </si>
   <si>
-    <t xml:space="preserve">31.9469375610352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.9776763916016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.1909122467041</t>
+    <t xml:space="preserve">31.9469394683838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.9776744842529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.1909141540527</t>
   </si>
   <si>
     <t xml:space="preserve">31.5883121490479</t>
@@ -3113,7 +3113,7 @@
     <t xml:space="preserve">30.5996646881104</t>
   </si>
   <si>
-    <t xml:space="preserve">32.1407890319824</t>
+    <t xml:space="preserve">32.140796661377</t>
   </si>
   <si>
     <t xml:space="preserve">30.8613662719727</t>
@@ -3131,28 +3131,28 @@
     <t xml:space="preserve">31.4041538238525</t>
   </si>
   <si>
-    <t xml:space="preserve">31.7433967590332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.4235343933105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0535621643066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.811243057251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.001781463623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.4299125671387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.3797912597656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.1374816894531</t>
+    <t xml:space="preserve">31.7433929443359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4235382080078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0535583496094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8112392425537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.0017852783203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.4299163818359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.3797950744629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.1374778747559</t>
   </si>
   <si>
     <t xml:space="preserve">34.1277847290039</t>
@@ -3164,7 +3164,7 @@
     <t xml:space="preserve">34.7287292480469</t>
   </si>
   <si>
-    <t xml:space="preserve">35.5138282775879</t>
+    <t xml:space="preserve">35.5138320922852</t>
   </si>
   <si>
     <t xml:space="preserve">35.3490562438965</t>
@@ -3176,13 +3176,13 @@
     <t xml:space="preserve">33.604377746582</t>
   </si>
   <si>
-    <t xml:space="preserve">34.0502471923828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.3119468688965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.7303848266602</t>
+    <t xml:space="preserve">34.0502433776855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.3119506835938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.7303886413574</t>
   </si>
   <si>
     <t xml:space="preserve">34.602725982666</t>
@@ -3191,7 +3191,7 @@
     <t xml:space="preserve">34.0793228149414</t>
   </si>
   <si>
-    <t xml:space="preserve">32.7514305114746</t>
+    <t xml:space="preserve">32.7514266967773</t>
   </si>
   <si>
     <t xml:space="preserve">32.383113861084</t>
@@ -3200,16 +3200,16 @@
     <t xml:space="preserve">32.3637237548828</t>
   </si>
   <si>
-    <t xml:space="preserve">32.5672721862793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.4396057128906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.6334648132324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.3199729919434</t>
+    <t xml:space="preserve">32.567268371582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.4396095275879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.6334609985352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.3199806213379</t>
   </si>
   <si>
     <t xml:space="preserve">36.4219017028809</t>
@@ -5253,6 +5253,9 @@
   </si>
   <si>
     <t xml:space="preserve">33.0900001525879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.0099983215332</t>
   </si>
 </sst>
 </file>
@@ -61650,7 +61653,7 @@
     </row>
     <row r="2157">
       <c r="A2157" s="1" t="n">
-        <v>45464.6494212963</v>
+        <v>45464.2916666667</v>
       </c>
       <c r="B2157" t="n">
         <v>1730101</v>
@@ -61671,6 +61674,32 @@
         <v>1746</v>
       </c>
       <c r="H2157" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2158">
+      <c r="A2158" s="1" t="n">
+        <v>45467.6493287037</v>
+      </c>
+      <c r="B2158" t="n">
+        <v>541668</v>
+      </c>
+      <c r="C2158" t="n">
+        <v>34.2099990844727</v>
+      </c>
+      <c r="D2158" t="n">
+        <v>33.0999984741211</v>
+      </c>
+      <c r="E2158" t="n">
+        <v>34.0800018310547</v>
+      </c>
+      <c r="F2158" t="n">
+        <v>34.0099983215332</v>
+      </c>
+      <c r="G2158" t="s">
+        <v>1747</v>
+      </c>
+      <c r="H2158" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/AMP.MI.xlsx
+++ b/data/AMP.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1757" uniqueCount="1757">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1758" uniqueCount="1758">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">7.39182758331299</t>
+    <t xml:space="preserve">7.39182806015015</t>
   </si>
   <si>
     <t xml:space="preserve">AMP.MI</t>
@@ -50,91 +50,91 @@
     <t xml:space="preserve">7.36836194992065</t>
   </si>
   <si>
-    <t xml:space="preserve">7.42468070983887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20879220962524</t>
+    <t xml:space="preserve">7.42467975616455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20879316329956</t>
   </si>
   <si>
     <t xml:space="preserve">7.01636981964111</t>
   </si>
   <si>
-    <t xml:space="preserve">7.27449750900269</t>
+    <t xml:space="preserve">7.27449703216553</t>
   </si>
   <si>
     <t xml:space="preserve">7.33550930023193</t>
   </si>
   <si>
-    <t xml:space="preserve">7.21817827224731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08676862716675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1430869102478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25103139877319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03983592987061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19001865386963</t>
+    <t xml:space="preserve">7.21817922592163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08676910400391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14308643341064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25103092193604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03983640670776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19001913070679</t>
   </si>
   <si>
     <t xml:space="preserve">7.40121507644653</t>
   </si>
   <si>
-    <t xml:space="preserve">7.29326963424683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41060066223145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20410013198853</t>
+    <t xml:space="preserve">7.29327011108398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41060161590576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20409917831421</t>
   </si>
   <si>
     <t xml:space="preserve">7.23695182800293</t>
   </si>
   <si>
-    <t xml:space="preserve">7.46691942214966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34020328521729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19471168518066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10554075241089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89904022216797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56112766265869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50480794906616</t>
+    <t xml:space="preserve">7.46691989898682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34020280838013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19471311569214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10554122924805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89903926849365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56112718582153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50480842590332</t>
   </si>
   <si>
     <t xml:space="preserve">6.6409125328064</t>
   </si>
   <si>
-    <t xml:space="preserve">6.38278436660767</t>
+    <t xml:space="preserve">6.38278484344482</t>
   </si>
   <si>
     <t xml:space="preserve">6.34054613113403</t>
   </si>
   <si>
-    <t xml:space="preserve">6.47195672988892</t>
+    <t xml:space="preserve">6.47195529937744</t>
   </si>
   <si>
     <t xml:space="preserve">6.66907167434692</t>
   </si>
   <si>
-    <t xml:space="preserve">6.93658494949341</t>
+    <t xml:space="preserve">6.93658447265625</t>
   </si>
   <si>
     <t xml:space="preserve">6.76293563842773</t>
@@ -146,19 +146,19 @@
     <t xml:space="preserve">6.75355005264282</t>
   </si>
   <si>
-    <t xml:space="preserve">6.67845821380615</t>
+    <t xml:space="preserve">6.67845773696899</t>
   </si>
   <si>
     <t xml:space="preserve">7.04922294616699</t>
   </si>
   <si>
-    <t xml:space="preserve">6.94597148895264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85679960250854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85210752487183</t>
+    <t xml:space="preserve">6.94597196578979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8568000793457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85210704803467</t>
   </si>
   <si>
     <t xml:space="preserve">6.89434623718262</t>
@@ -170,25 +170,25 @@
     <t xml:space="preserve">6.68315124511719</t>
   </si>
   <si>
-    <t xml:space="preserve">6.84741353988647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83802700042725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91311883926392</t>
+    <t xml:space="preserve">6.84741401672363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83802795410156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91311836242676</t>
   </si>
   <si>
     <t xml:space="preserve">7.06330299377441</t>
   </si>
   <si>
-    <t xml:space="preserve">7.16655397415161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13839435577393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.26511096954346</t>
+    <t xml:space="preserve">7.16655349731445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13839340209961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2651104927063</t>
   </si>
   <si>
     <t xml:space="preserve">7.16185998916626</t>
@@ -200,40 +200,40 @@
     <t xml:space="preserve">7.29796314239502</t>
   </si>
   <si>
-    <t xml:space="preserve">7.15247297286987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.22756433486938</t>
+    <t xml:space="preserve">7.15247344970703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.22756481170654</t>
   </si>
   <si>
     <t xml:space="preserve">6.98821115493774</t>
   </si>
   <si>
-    <t xml:space="preserve">6.96943807601929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05860900878906</t>
+    <t xml:space="preserve">6.96943855285645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05860948562622</t>
   </si>
   <si>
     <t xml:space="preserve">7.32612276077271</t>
   </si>
   <si>
-    <t xml:space="preserve">7.38244104385376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.28388404846191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56078338623047</t>
+    <t xml:space="preserve">7.38244152069092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.28388452529907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56078433990479</t>
   </si>
   <si>
     <t xml:space="preserve">7.47161245346069</t>
   </si>
   <si>
-    <t xml:space="preserve">7.54201030731201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6358757019043</t>
+    <t xml:space="preserve">7.54201173782349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63587617874146</t>
   </si>
   <si>
     <t xml:space="preserve">7.61240863800049</t>
@@ -242,70 +242,70 @@
     <t xml:space="preserve">7.79075145721436</t>
   </si>
   <si>
-    <t xml:space="preserve">7.65934181213379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7015814781189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76259231567383</t>
+    <t xml:space="preserve">7.65934228897095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70158004760742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76259326934814</t>
   </si>
   <si>
     <t xml:space="preserve">7.79544544219971</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94562768936157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95032262802124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93154859542847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.84706878662109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0066385269165</t>
+    <t xml:space="preserve">7.94562864303589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95032167434692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93154811859131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84707117080688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00664043426514</t>
   </si>
   <si>
     <t xml:space="preserve">7.94093465805054</t>
   </si>
   <si>
-    <t xml:space="preserve">8.15213108062744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07949447631836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15967655181885</t>
+    <t xml:space="preserve">8.15213012695312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07949352264404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15967559814453</t>
   </si>
   <si>
     <t xml:space="preserve">8.16911029815674</t>
   </si>
   <si>
-    <t xml:space="preserve">8.11251068115234</t>
+    <t xml:space="preserve">8.11251163482666</t>
   </si>
   <si>
     <t xml:space="preserve">8.23514080047607</t>
   </si>
   <si>
-    <t xml:space="preserve">8.27759075164795</t>
+    <t xml:space="preserve">8.27759170532227</t>
   </si>
   <si>
     <t xml:space="preserve">8.30117416381836</t>
   </si>
   <si>
-    <t xml:space="preserve">8.28702354431152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22099304199219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.14081001281738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.14552593231201</t>
+    <t xml:space="preserve">8.28702545166016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22099208831787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1408109664917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.14552688598633</t>
   </si>
   <si>
     <t xml:space="preserve">8.20684242248535</t>
@@ -314,37 +314,37 @@
     <t xml:space="preserve">8.07477855682373</t>
   </si>
   <si>
-    <t xml:space="preserve">7.97573184967041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88139820098877</t>
+    <t xml:space="preserve">7.97572994232178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88139915466309</t>
   </si>
   <si>
     <t xml:space="preserve">7.7021689414978</t>
   </si>
   <si>
-    <t xml:space="preserve">7.68801879882812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71160221099854</t>
+    <t xml:space="preserve">7.68801975250244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71160268783569</t>
   </si>
   <si>
     <t xml:space="preserve">7.61727046966553</t>
   </si>
   <si>
-    <t xml:space="preserve">7.69745302200317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05119609832764</t>
+    <t xml:space="preserve">7.69745254516602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05119514465332</t>
   </si>
   <si>
     <t xml:space="preserve">8.00874710083008</t>
   </si>
   <si>
-    <t xml:space="preserve">8.12194442749023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73518419265747</t>
+    <t xml:space="preserve">8.12194347381592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73518514633179</t>
   </si>
   <si>
     <t xml:space="preserve">7.77291679382324</t>
@@ -353,28 +353,28 @@
     <t xml:space="preserve">7.78235054016113</t>
   </si>
   <si>
-    <t xml:space="preserve">7.93328237533569</t>
+    <t xml:space="preserve">7.93328142166138</t>
   </si>
   <si>
     <t xml:space="preserve">7.9898796081543</t>
   </si>
   <si>
-    <t xml:space="preserve">7.95214700698853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87196493148804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77763509750366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94271469116211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0228967666626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98044633865356</t>
+    <t xml:space="preserve">7.95214796066284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87196636199951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77763414382935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94271564483643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02289581298828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98044538497925</t>
   </si>
   <si>
     <t xml:space="preserve">7.97101402282715</t>
@@ -383,37 +383,37 @@
     <t xml:space="preserve">8.11722850799561</t>
   </si>
   <si>
-    <t xml:space="preserve">8.24457550048828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23042488098145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2587251663208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25401020050049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.37192153930664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.42852115631104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41437149047852</t>
+    <t xml:space="preserve">8.24457263946533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23042678833008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25872611999512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25400924682617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.37192249298096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42852210998535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41437244415283</t>
   </si>
   <si>
     <t xml:space="preserve">8.39550495147705</t>
   </si>
   <si>
-    <t xml:space="preserve">8.35777282714844</t>
+    <t xml:space="preserve">8.35777187347412</t>
   </si>
   <si>
     <t xml:space="preserve">8.21627616882324</t>
   </si>
   <si>
-    <t xml:space="preserve">8.35305595397949</t>
+    <t xml:space="preserve">8.35305690765381</t>
   </si>
   <si>
     <t xml:space="preserve">8.43323802947998</t>
@@ -422,70 +422,70 @@
     <t xml:space="preserve">8.57473564147949</t>
   </si>
   <si>
-    <t xml:space="preserve">8.67378234863281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57945346832275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7020845413208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.82471370697021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.72094917297363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85301494598389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.87659454345703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.98979473114014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91432952880859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.88603019714355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.81528186798096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.81999778747559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89074516296387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.80113220214844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83886337280273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.82943058013916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.72566604614258</t>
+    <t xml:space="preserve">8.67378520965576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57945251464844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.70208263397217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8247127532959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.72095012664795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85301399230957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.87659549713135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.98979377746582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91432857513428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.88602924346924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81528091430664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81999683380127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89074611663818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8011302947998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83886432647705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.82942962646484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.72566509246826</t>
   </si>
   <si>
     <t xml:space="preserve">8.65963459014893</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64076709747314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62661933898926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55115222930908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.60775279998779</t>
+    <t xml:space="preserve">8.64076805114746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62661838531494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5511531829834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.60775184631348</t>
   </si>
   <si>
     <t xml:space="preserve">8.59831809997559</t>
@@ -494,97 +494,97 @@
     <t xml:space="preserve">8.73509883880615</t>
   </si>
   <si>
-    <t xml:space="preserve">8.5653018951416</t>
+    <t xml:space="preserve">8.56530094146729</t>
   </si>
   <si>
     <t xml:space="preserve">8.6832160949707</t>
   </si>
   <si>
-    <t xml:space="preserve">8.56058502197266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62190246582031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.67849922180176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53228664398193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59360122680664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63133239746094</t>
+    <t xml:space="preserve">8.56058597564697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.621901512146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.67850017547607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53228569030762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59360218048096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63133335113525</t>
   </si>
   <si>
     <t xml:space="preserve">8.75868225097656</t>
   </si>
   <si>
-    <t xml:space="preserve">9.15015888214111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.31995487213135</t>
+    <t xml:space="preserve">9.1501579284668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.31995582580566</t>
   </si>
   <si>
     <t xml:space="preserve">9.14072418212891</t>
   </si>
   <si>
-    <t xml:space="preserve">9.08412551879883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9614953994751</t>
+    <t xml:space="preserve">9.08412456512451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.96149444580078</t>
   </si>
   <si>
     <t xml:space="preserve">9.0086612701416</t>
   </si>
   <si>
-    <t xml:space="preserve">8.88131332397461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57001972198486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48983669281006</t>
+    <t xml:space="preserve">8.88131427764893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57002067565918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48983764648438</t>
   </si>
   <si>
     <t xml:space="preserve">8.46625423431396</t>
   </si>
   <si>
-    <t xml:space="preserve">8.46153736114502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65019989013672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40965557098389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5275707244873</t>
+    <t xml:space="preserve">8.46153926849365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65020179748535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40965461730957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52756881713867</t>
   </si>
   <si>
     <t xml:space="preserve">8.4473876953125</t>
   </si>
   <si>
-    <t xml:space="preserve">8.53700256347656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.05582714080811</t>
+    <t xml:space="preserve">8.53700351715088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.05582809448242</t>
   </si>
   <si>
     <t xml:space="preserve">9.16902351379395</t>
   </si>
   <si>
-    <t xml:space="preserve">9.13129329681396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5841703414917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22570896148682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.37664127349854</t>
+    <t xml:space="preserve">9.13129138946533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58416938781738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22570991516113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.37664031982422</t>
   </si>
   <si>
     <t xml:space="preserve">7.49935626983643</t>
@@ -593,55 +593,55 @@
     <t xml:space="preserve">8.04647827148438</t>
   </si>
   <si>
-    <t xml:space="preserve">8.01817893981934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45210456848145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47568607330322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.51341915130615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54643535614014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.43795490264893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29645824432373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24929237365723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44266986846924</t>
+    <t xml:space="preserve">8.01817989349365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45210552215576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47568702697754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.51342010498047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54643630981445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.43795394897461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29645729064941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24929141998291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44266891479492</t>
   </si>
   <si>
     <t xml:space="preserve">8.64548301696777</t>
   </si>
   <si>
-    <t xml:space="preserve">8.716233253479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.79169750213623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73981666564941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.81056499481201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77754783630371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22562217712402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.03695964813232</t>
+    <t xml:space="preserve">8.71623229980469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.79169845581055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.7398157119751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8105640411377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77754878997803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22562408447266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.03696060180664</t>
   </si>
   <si>
     <t xml:space="preserve">9.21147441864014</t>
@@ -653,34 +653,34 @@
     <t xml:space="preserve">9.40957069396973</t>
   </si>
   <si>
-    <t xml:space="preserve">9.48031806945801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.4520206451416</t>
+    <t xml:space="preserve">9.48031711578369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.45201778411865</t>
   </si>
   <si>
     <t xml:space="preserve">9.36712074279785</t>
   </si>
   <si>
-    <t xml:space="preserve">9.4331521987915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.51805019378662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55578231811523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50861835479736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42843532562256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1831750869751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17845821380615</t>
+    <t xml:space="preserve">9.43315315246582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51805114746094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55578327178955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50861740112305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42843437194824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18317413330078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17845726013184</t>
   </si>
   <si>
     <t xml:space="preserve">9.23034000396729</t>
@@ -692,25 +692,25 @@
     <t xml:space="preserve">9.88594341278076</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0368757247925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.90480995178223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.98970699310303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71614742279053</t>
+    <t xml:space="preserve">10.0368747711182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.90481090545654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.98970890045166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71614646911621</t>
   </si>
   <si>
     <t xml:space="preserve">9.7821798324585</t>
   </si>
   <si>
-    <t xml:space="preserve">9.79161357879639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.73501396179199</t>
+    <t xml:space="preserve">9.79161262512207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.73501300811768</t>
   </si>
   <si>
     <t xml:space="preserve">9.8670768737793</t>
@@ -722,52 +722,52 @@
     <t xml:space="preserve">10.0840396881104</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2632684707642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3198699951172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3387355804443</t>
+    <t xml:space="preserve">10.2632713317871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3198671340942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3387365341187</t>
   </si>
   <si>
     <t xml:space="preserve">10.5085315704346</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5556983947754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4425001144409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4142007827759</t>
+    <t xml:space="preserve">10.5556974411011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4424991607666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4141998291016</t>
   </si>
   <si>
     <t xml:space="preserve">10.659462928772</t>
   </si>
   <si>
-    <t xml:space="preserve">10.593430519104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5839967727661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8952903747559</t>
+    <t xml:space="preserve">10.5934295654297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5839986801147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8952913284302</t>
   </si>
   <si>
     <t xml:space="preserve">10.9707565307617</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8009595870972</t>
+    <t xml:space="preserve">10.8009605407715</t>
   </si>
   <si>
     <t xml:space="preserve">10.7349271774292</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7254943847656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7066278457642</t>
+    <t xml:space="preserve">10.7254953384399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7066287994385</t>
   </si>
   <si>
     <t xml:space="preserve">10.7915258407593</t>
@@ -776,46 +776,46 @@
     <t xml:space="preserve">10.9801893234253</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9235916137695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0179224014282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0839548110962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2160186767578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1782846450806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3386497497559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0462217330933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.291482925415</t>
+    <t xml:space="preserve">10.9235906600952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0179214477539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0839538574219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2160177230835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1782855987549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3386487960815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0462226867676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2914819717407</t>
   </si>
   <si>
     <t xml:space="preserve">11.2537508010864</t>
   </si>
   <si>
-    <t xml:space="preserve">11.234884262085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2726182937622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3669490814209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.517879486084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4990110397339</t>
+    <t xml:space="preserve">11.2348852157593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2726173400879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3669500350952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5178785324097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4990129470825</t>
   </si>
   <si>
     <t xml:space="preserve">11.546178817749</t>
@@ -824,49 +824,49 @@
     <t xml:space="preserve">11.6695146560669</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9161882400513</t>
+    <t xml:space="preserve">11.916187286377</t>
   </si>
   <si>
     <t xml:space="preserve">11.954137802124</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0395231246948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0110607147217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0205497741699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0300359725952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0584983825684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1533727645874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1913223266602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.115424156189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3051729202271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2767095565796</t>
+    <t xml:space="preserve">12.0395221710205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.011061668396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0205488204956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0300369262695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0584993362427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1533737182617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1913213729858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1154222488403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3051719665527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2767105102539</t>
   </si>
   <si>
     <t xml:space="preserve">12.3336334228516</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0015735626221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2387599945068</t>
+    <t xml:space="preserve">12.0015726089478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2387590408325</t>
   </si>
   <si>
     <t xml:space="preserve">11.5746402740479</t>
@@ -878,13 +878,13 @@
     <t xml:space="preserve">11.7833633422852</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8213129043579</t>
+    <t xml:space="preserve">11.8213138580322</t>
   </si>
   <si>
     <t xml:space="preserve">11.859263420105</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8497743606567</t>
+    <t xml:space="preserve">11.8497762680054</t>
   </si>
   <si>
     <t xml:space="preserve">11.7169523239136</t>
@@ -896,43 +896,43 @@
     <t xml:space="preserve">11.6125907897949</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5556669235229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4607915878296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1666822433472</t>
+    <t xml:space="preserve">11.5556659698486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4607906341553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1666831970215</t>
   </si>
   <si>
     <t xml:space="preserve">10.9674472808838</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7776975631714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6448736190796</t>
+    <t xml:space="preserve">10.7776985168457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6448745727539</t>
   </si>
   <si>
     <t xml:space="preserve">10.6923122406006</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8251352310181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9959077835083</t>
+    <t xml:space="preserve">10.8251342773438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.995906829834</t>
   </si>
   <si>
     <t xml:space="preserve">10.9864206314087</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0338573455811</t>
+    <t xml:space="preserve">11.0338582992554</t>
   </si>
   <si>
     <t xml:space="preserve">11.2236061096191</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4418163299561</t>
+    <t xml:space="preserve">11.4418182373047</t>
   </si>
   <si>
     <t xml:space="preserve">11.4702787399292</t>
@@ -941,37 +941,37 @@
     <t xml:space="preserve">11.4323301315308</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4987421035767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3564310073853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.59361743927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5177164077759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4228420257568</t>
+    <t xml:space="preserve">11.4987411499023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3564300537109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5936164855957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5177173614502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4228410720825</t>
   </si>
   <si>
     <t xml:space="preserve">11.3659172058105</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3374557495117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.195143699646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1192455291748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0053949356079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7492361068726</t>
+    <t xml:space="preserve">11.3374547958374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1951446533203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1192445755005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0053968429565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7492351531982</t>
   </si>
   <si>
     <t xml:space="preserve">10.9200086593628</t>
@@ -983,28 +983,28 @@
     <t xml:space="preserve">11.2805309295654</t>
   </si>
   <si>
-    <t xml:space="preserve">11.252067565918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1571941375732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2141199111938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4038677215576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4133529663086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3279666900635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1477079391479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1761693954468</t>
+    <t xml:space="preserve">11.2520694732666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1571950912476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2141180038452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4038667678833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4133539199829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3279676437378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1477069854736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1761703491211</t>
   </si>
   <si>
     <t xml:space="preserve">11.2615566253662</t>
@@ -1013,7 +1013,7 @@
     <t xml:space="preserve">11.5272035598755</t>
   </si>
   <si>
-    <t xml:space="preserve">11.811824798584</t>
+    <t xml:space="preserve">11.8118267059326</t>
   </si>
   <si>
     <t xml:space="preserve">11.9067001342773</t>
@@ -1031,64 +1031,64 @@
     <t xml:space="preserve">12.1438856124878</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1343975067139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1723470687866</t>
+    <t xml:space="preserve">12.1343984603882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1723480224609</t>
   </si>
   <si>
     <t xml:space="preserve">12.067985534668</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9256753921509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3146572113037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2482471466064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2008094787598</t>
+    <t xml:space="preserve">11.9256734848022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3146591186523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2482461929321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2008085250854</t>
   </si>
   <si>
     <t xml:space="preserve">12.5803060531616</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6182556152344</t>
+    <t xml:space="preserve">12.6182565689087</t>
   </si>
   <si>
     <t xml:space="preserve">12.7415924072266</t>
   </si>
   <si>
-    <t xml:space="preserve">12.883903503418</t>
+    <t xml:space="preserve">12.8839025497437</t>
   </si>
   <si>
     <t xml:space="preserve">12.9123649597168</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9313411712646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9028778076172</t>
+    <t xml:space="preserve">12.931339263916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9028797149658</t>
   </si>
   <si>
     <t xml:space="preserve">12.2861967086792</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8782386779785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9446496963501</t>
+    <t xml:space="preserve">11.8782377243042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9446506500244</t>
   </si>
   <si>
     <t xml:space="preserve">12.1249094009399</t>
   </si>
   <si>
-    <t xml:space="preserve">12.26722240448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3715829849243</t>
+    <t xml:space="preserve">12.2672214508057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.37158203125</t>
   </si>
   <si>
     <t xml:space="preserve">11.9920873641968</t>
@@ -1106,43 +1106,43 @@
     <t xml:space="preserve">11.7643880844116</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8687515258789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1818342208862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1628608703613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2956848144531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2292718887329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4569683074951</t>
+    <t xml:space="preserve">11.8687505722046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1818361282349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.162859916687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2956838607788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2292728424072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4569702148438</t>
   </si>
   <si>
     <t xml:space="preserve">12.4285078048706</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2577342987061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8308019638062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.219783782959</t>
+    <t xml:space="preserve">12.2577352523804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8308000564575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2197847366333</t>
   </si>
   <si>
     <t xml:space="preserve">12.6372308731079</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6467180252075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5992803573608</t>
+    <t xml:space="preserve">12.6467189788818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5992813110352</t>
   </si>
   <si>
     <t xml:space="preserve">12.7321043014526</t>
@@ -1151,37 +1151,37 @@
     <t xml:space="preserve">13.2349376678467</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2254514694214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1874990463257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0546760559082</t>
+    <t xml:space="preserve">13.2254495620728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1875009536743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0546770095825</t>
   </si>
   <si>
     <t xml:space="preserve">13.5290470123291</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5669965744019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6428966522217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6618709564209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7093067169189</t>
+    <t xml:space="preserve">13.5669975280762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.642897605896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6618700027466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7093086242676</t>
   </si>
   <si>
     <t xml:space="preserve">13.6144342422485</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3582735061646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5764856338501</t>
+    <t xml:space="preserve">13.3582744598389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5764837265015</t>
   </si>
   <si>
     <t xml:space="preserve">13.4057102203369</t>
@@ -1190,25 +1190,25 @@
     <t xml:space="preserve">13.0736513137817</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7131280899048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5044059753418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4759435653687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5613317489624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6087694168091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9218530654907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9787788391113</t>
+    <t xml:space="preserve">12.7131290435791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5044069290161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.475944519043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5613307952881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6087684631348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.921854019165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.978777885437</t>
   </si>
   <si>
     <t xml:space="preserve">12.9503154754639</t>
@@ -1220,10 +1220,10 @@
     <t xml:space="preserve">12.3810701370239</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3526086807251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8269786834717</t>
+    <t xml:space="preserve">12.3526096343994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8269805908203</t>
   </si>
   <si>
     <t xml:space="preserve">13.1400632858276</t>
@@ -1232,19 +1232,19 @@
     <t xml:space="preserve">13.1969881057739</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3677616119385</t>
+    <t xml:space="preserve">13.3677606582642</t>
   </si>
   <si>
     <t xml:space="preserve">13.5100727081299</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4341716766357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4246854782104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2634000778198</t>
+    <t xml:space="preserve">13.4341726303101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4246845245361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2634010314941</t>
   </si>
   <si>
     <t xml:space="preserve">13.443660736084</t>
@@ -1256,40 +1256,40 @@
     <t xml:space="preserve">12.9882650375366</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9598035812378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.396222114563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6713600158691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.747257232666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4151992797852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.899055480957</t>
+    <t xml:space="preserve">12.9598016738892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3962230682373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6713590621948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7472581863403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4151983261108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8990573883057</t>
   </si>
   <si>
     <t xml:space="preserve">14.1077795028687</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2500905990601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5062503814697</t>
+    <t xml:space="preserve">14.2500915527344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5062494277954</t>
   </si>
   <si>
     <t xml:space="preserve">14.4113750457764</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6770248413086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7149724960327</t>
+    <t xml:space="preserve">14.6770238876343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.714973449707</t>
   </si>
   <si>
     <t xml:space="preserve">14.8003606796265</t>
@@ -1298,19 +1298,19 @@
     <t xml:space="preserve">15.0280590057373</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9711351394653</t>
+    <t xml:space="preserve">14.9711332321167</t>
   </si>
   <si>
     <t xml:space="preserve">15.2272930145264</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0849828720093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1134452819824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1513938903809</t>
+    <t xml:space="preserve">15.084981918335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1134443283081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1513948440552</t>
   </si>
   <si>
     <t xml:space="preserve">15.0185708999634</t>
@@ -1322,46 +1322,46 @@
     <t xml:space="preserve">14.8288221359253</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7054862976074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2842178344727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3885774612427</t>
+    <t xml:space="preserve">14.7054843902588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2842197418213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3885793685913</t>
   </si>
   <si>
     <t xml:space="preserve">15.3601188659668</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3696060180664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5593519210815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5119161605835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6732044219971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7775611877441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5403776168823</t>
+    <t xml:space="preserve">15.3696050643921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5593538284302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5119171142578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6732025146484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7775630950928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5403757095337</t>
   </si>
   <si>
     <t xml:space="preserve">15.1324195861816</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4644784927368</t>
+    <t xml:space="preserve">15.4644794464111</t>
   </si>
   <si>
     <t xml:space="preserve">14.9329175949097</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7800540924072</t>
+    <t xml:space="preserve">14.7800531387329</t>
   </si>
   <si>
     <t xml:space="preserve">14.4552164077759</t>
@@ -1370,37 +1370,37 @@
     <t xml:space="preserve">14.7227296829224</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8469314575195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9902400970459</t>
+    <t xml:space="preserve">14.8469305038452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9902410507202</t>
   </si>
   <si>
     <t xml:space="preserve">14.0348405838013</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5125417709351</t>
+    <t xml:space="preserve">14.5125398635864</t>
   </si>
   <si>
     <t xml:space="preserve">14.7322826385498</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7418375015259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3055248260498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6112518310547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2418174743652</t>
+    <t xml:space="preserve">14.7418384552002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3055229187012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6112508773804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2418193817139</t>
   </si>
   <si>
     <t xml:space="preserve">16.5857639312744</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2800350189209</t>
+    <t xml:space="preserve">16.2800331115723</t>
   </si>
   <si>
     <t xml:space="preserve">16.2895889282227</t>
@@ -1412,28 +1412,28 @@
     <t xml:space="preserve">16.3373584747314</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4520053863525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2322654724121</t>
+    <t xml:space="preserve">16.4520015716553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2322616577148</t>
   </si>
   <si>
     <t xml:space="preserve">16.1940460205078</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6526393890381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.853271484375</t>
+    <t xml:space="preserve">16.6526374816895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8532733917236</t>
   </si>
   <si>
     <t xml:space="preserve">16.7959499359131</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7004089355469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.432897567749</t>
+    <t xml:space="preserve">16.7004070281982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4328956604004</t>
   </si>
   <si>
     <t xml:space="preserve">16.3851261138916</t>
@@ -1442,37 +1442,37 @@
     <t xml:space="preserve">16.8055038452148</t>
   </si>
   <si>
-    <t xml:space="preserve">16.967924118042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0156917572021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1781101226807</t>
+    <t xml:space="preserve">16.9679222106934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0156898498535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.178108215332</t>
   </si>
   <si>
     <t xml:space="preserve">17.0539093017578</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9010467529297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4997749328613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5762062072754</t>
+    <t xml:space="preserve">16.9010429382324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4997730255127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5762042999268</t>
   </si>
   <si>
     <t xml:space="preserve">16.3469123840332</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5284366607666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6812992095947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4902210235596</t>
+    <t xml:space="preserve">16.528434753418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6812973022461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4902229309082</t>
   </si>
   <si>
     <t xml:space="preserve">16.643087387085</t>
@@ -1484,22 +1484,22 @@
     <t xml:space="preserve">17.674919128418</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0857410430908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5793781280518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2194976806641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3054828643799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8596134185791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2768211364746</t>
+    <t xml:space="preserve">18.0857391357422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5793762207031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2194957733154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3054809570312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8596153259277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.276819229126</t>
   </si>
   <si>
     <t xml:space="preserve">18.5538864135742</t>
@@ -1511,34 +1511,34 @@
     <t xml:space="preserve">18.2099418640137</t>
   </si>
   <si>
-    <t xml:space="preserve">17.999755859375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7704582214355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9233226776123</t>
+    <t xml:space="preserve">17.9997520446777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7704601287842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9233207702637</t>
   </si>
   <si>
     <t xml:space="preserve">17.8946590423584</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4392375946045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5156707763672</t>
+    <t xml:space="preserve">18.4392395019531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5156688690186</t>
   </si>
   <si>
     <t xml:space="preserve">18.3437023162842</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1717281341553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2481575012207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3532524108887</t>
+    <t xml:space="preserve">18.1717262268066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2481555938721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.35325050354</t>
   </si>
   <si>
     <t xml:space="preserve">18.2003860473633</t>
@@ -1547,31 +1547,31 @@
     <t xml:space="preserve">18.0761871337891</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1430644989014</t>
+    <t xml:space="preserve">18.14306640625</t>
   </si>
   <si>
     <t xml:space="preserve">17.713134765625</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5347805023193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9710922241211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1526184082031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.888277053833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.490177154541</t>
+    <t xml:space="preserve">18.5347785949707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9710941314697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1526165008545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8882808685303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4901809692383</t>
   </si>
   <si>
     <t xml:space="preserve">19.5666103363037</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5283946990967</t>
+    <t xml:space="preserve">19.5283966064453</t>
   </si>
   <si>
     <t xml:space="preserve">19.3373165130615</t>
@@ -1580,46 +1580,46 @@
     <t xml:space="preserve">19.2035598754883</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8691692352295</t>
+    <t xml:space="preserve">18.8691673278809</t>
   </si>
   <si>
     <t xml:space="preserve">18.5921039581299</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6685371398926</t>
+    <t xml:space="preserve">18.6685352325439</t>
   </si>
   <si>
     <t xml:space="preserve">18.9169387817383</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1080169677734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8309535980225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.286376953125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6494293212891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1812839508057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4360675811768</t>
+    <t xml:space="preserve">19.1080188751221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8309516906738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2863731384277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6494255065918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.181282043457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4360656738281</t>
   </si>
   <si>
     <t xml:space="preserve">16.6908569335938</t>
   </si>
   <si>
-    <t xml:space="preserve">15.573034286499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7067928314209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.792778968811</t>
+    <t xml:space="preserve">15.5730361938477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7067937850952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7927780151367</t>
   </si>
   <si>
     <t xml:space="preserve">15.1239976882935</t>
@@ -1628,19 +1628,19 @@
     <t xml:space="preserve">15.5443744659424</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5825891494751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9265356063843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8501024246216</t>
+    <t xml:space="preserve">15.5825881958008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9265336990356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8501005172729</t>
   </si>
   <si>
     <t xml:space="preserve">15.0666732788086</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1908740997314</t>
+    <t xml:space="preserve">15.1908750534058</t>
   </si>
   <si>
     <t xml:space="preserve">15.1144437789917</t>
@@ -1655,10 +1655,10 @@
     <t xml:space="preserve">14.9615783691406</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7704992294312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8182706832886</t>
+    <t xml:space="preserve">14.7704982757568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8182697296143</t>
   </si>
   <si>
     <t xml:space="preserve">14.789608001709</t>
@@ -1670,37 +1670,37 @@
     <t xml:space="preserve">15.0475664138794</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1717691421509</t>
+    <t xml:space="preserve">15.1717672348022</t>
   </si>
   <si>
     <t xml:space="preserve">14.9042558670044</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9201917648315</t>
+    <t xml:space="preserve">13.9201908111572</t>
   </si>
   <si>
     <t xml:space="preserve">13.8342046737671</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2323045730591</t>
+    <t xml:space="preserve">13.2323026657104</t>
   </si>
   <si>
     <t xml:space="preserve">13.184534072876</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4902620315552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3660583496094</t>
+    <t xml:space="preserve">13.4902629852295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3660593032837</t>
   </si>
   <si>
     <t xml:space="preserve">13.4998159408569</t>
   </si>
   <si>
-    <t xml:space="preserve">13.757773399353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5953559875488</t>
+    <t xml:space="preserve">13.7577724456787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5953540802002</t>
   </si>
   <si>
     <t xml:space="preserve">13.3278427124023</t>
@@ -1709,37 +1709,37 @@
     <t xml:space="preserve">13.9775171279907</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1208257675171</t>
+    <t xml:space="preserve">14.1208248138428</t>
   </si>
   <si>
     <t xml:space="preserve">14.6080799102783</t>
   </si>
   <si>
-    <t xml:space="preserve">14.331015586853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2736892700195</t>
+    <t xml:space="preserve">14.3310146331787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2736902236938</t>
   </si>
   <si>
     <t xml:space="preserve">14.4170007705688</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4456634521484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9010848999023</t>
+    <t xml:space="preserve">14.4456615447998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.901083946228</t>
   </si>
   <si>
     <t xml:space="preserve">13.8437604904175</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7004508972168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.862868309021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.006178855896</t>
+    <t xml:space="preserve">13.7004499435425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8628673553467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0061798095703</t>
   </si>
   <si>
     <t xml:space="preserve">14.0539484024048</t>
@@ -1751,7 +1751,7 @@
     <t xml:space="preserve">13.8819761276245</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8214807510376</t>
+    <t xml:space="preserve">12.8214797973633</t>
   </si>
   <si>
     <t xml:space="preserve">13.4233846664429</t>
@@ -1769,22 +1769,22 @@
     <t xml:space="preserve">14.9520254135132</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3724012374878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9997959136963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2004299163818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2959699630737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2673072814941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4297256469727</t>
+    <t xml:space="preserve">15.3724021911621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.999794960022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2004289627075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2959690093994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2673063278198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.429723739624</t>
   </si>
   <si>
     <t xml:space="preserve">15.4774971008301</t>
@@ -1793,100 +1793,100 @@
     <t xml:space="preserve">15.4106168746948</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2577543258667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1431064605713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.038010597229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9424715042114</t>
+    <t xml:space="preserve">15.2577533721924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.143105506897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0380096435547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9424724578857</t>
   </si>
   <si>
     <t xml:space="preserve">14.9806880950928</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0571203231812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7354555130005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8309926986694</t>
+    <t xml:space="preserve">15.0571193695068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7354545593262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8309936523438</t>
   </si>
   <si>
     <t xml:space="preserve">15.1813220977783</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3341856002808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6685752868652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5539302825928</t>
+    <t xml:space="preserve">15.3341846466064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6685771942139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5539293289185</t>
   </si>
   <si>
     <t xml:space="preserve">15.5157117843628</t>
   </si>
   <si>
-    <t xml:space="preserve">14.894702911377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0189046859741</t>
+    <t xml:space="preserve">14.8947010040283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0189037322998</t>
   </si>
   <si>
     <t xml:space="preserve">15.3437385559082</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3150777816772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5634851455688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4870500564575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6303606033325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8596572875977</t>
+    <t xml:space="preserve">15.3150787353516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5634822845459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4870491027832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6303596496582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.859658241272</t>
   </si>
   <si>
     <t xml:space="preserve">16.5570983886719</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0889549255371</t>
+    <t xml:space="preserve">16.0889530181885</t>
   </si>
   <si>
     <t xml:space="preserve">15.3819561004639</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9074268341064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8150577545166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9774761199951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6239776611328</t>
+    <t xml:space="preserve">15.9074249267578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.815055847168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9774742126465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6239757537842</t>
   </si>
   <si>
     <t xml:space="preserve">16.3182487487793</t>
   </si>
   <si>
-    <t xml:space="preserve">16.356466293335</t>
+    <t xml:space="preserve">16.3564643859863</t>
   </si>
   <si>
     <t xml:space="preserve">16.8819332122803</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5475444793701</t>
+    <t xml:space="preserve">16.5475463867188</t>
   </si>
   <si>
     <t xml:space="preserve">16.9392585754395</t>
@@ -1895,7 +1895,7 @@
     <t xml:space="preserve">16.8628273010254</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0252475738525</t>
+    <t xml:space="preserve">17.0252456665039</t>
   </si>
   <si>
     <t xml:space="preserve">16.9965858459473</t>
@@ -1904,19 +1904,19 @@
     <t xml:space="preserve">16.3755702972412</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0220737457275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0125217437744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0507354736328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9743032455444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4806671142578</t>
+    <t xml:space="preserve">16.0220756530762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0125198364258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0507335662842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9743013381958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4806652069092</t>
   </si>
   <si>
     <t xml:space="preserve">16.3660182952881</t>
@@ -1928,13 +1928,13 @@
     <t xml:space="preserve">17.6367034912109</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7991199493408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2290515899658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4456233978271</t>
+    <t xml:space="preserve">17.7991180419922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2290496826172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4456214904785</t>
   </si>
   <si>
     <t xml:space="preserve">17.4169597625732</t>
@@ -1943,55 +1943,55 @@
     <t xml:space="preserve">17.961540222168</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8118457794189</t>
+    <t xml:space="preserve">18.8118438720703</t>
   </si>
   <si>
     <t xml:space="preserve">18.7177658081055</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0160942077637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7474822998047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6512489318848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0738334655762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0930843353271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1315727233887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7370128631592</t>
+    <t xml:space="preserve">19.0160961151123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.747486114502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6512470245361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0738353729248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0930824279785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1315765380859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7370109558105</t>
   </si>
   <si>
     <t xml:space="preserve">18.8524951934814</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1123332977295</t>
+    <t xml:space="preserve">19.1123313903809</t>
   </si>
   <si>
     <t xml:space="preserve">19.1796951293945</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3817863464355</t>
+    <t xml:space="preserve">19.3817882537842</t>
   </si>
   <si>
     <t xml:space="preserve">19.5357646942139</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2374362945557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.343297958374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2663078308105</t>
+    <t xml:space="preserve">19.237434387207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3432941436768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2663059234619</t>
   </si>
   <si>
     <t xml:space="preserve">19.4010372161865</t>
@@ -2000,19 +2000,19 @@
     <t xml:space="preserve">20.0554370880127</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3056468963623</t>
+    <t xml:space="preserve">20.3056488037109</t>
   </si>
   <si>
     <t xml:space="preserve">20.4211292266846</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7483310699463</t>
+    <t xml:space="preserve">20.7483291625977</t>
   </si>
   <si>
     <t xml:space="preserve">20.7098369598389</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9600467681885</t>
+    <t xml:space="preserve">20.9600486755371</t>
   </si>
   <si>
     <t xml:space="preserve">20.1131763458252</t>
@@ -2021,16 +2021,16 @@
     <t xml:space="preserve">19.9976940155029</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6319999694824</t>
+    <t xml:space="preserve">19.6320018768311</t>
   </si>
   <si>
     <t xml:space="preserve">19.458776473999</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7859764099121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8244724273682</t>
+    <t xml:space="preserve">19.7859783172607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8244705200195</t>
   </si>
   <si>
     <t xml:space="preserve">20.2479057312012</t>
@@ -2039,19 +2039,19 @@
     <t xml:space="preserve">20.0939292907715</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8052234649658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7089900970459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8822116851807</t>
+    <t xml:space="preserve">19.8052253723145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7089881896973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8822135925293</t>
   </si>
   <si>
     <t xml:space="preserve">20.459623336792</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4403781890869</t>
+    <t xml:space="preserve">20.4403800964355</t>
   </si>
   <si>
     <t xml:space="preserve">20.3826351165771</t>
@@ -2066,19 +2066,19 @@
     <t xml:space="preserve">20.5751056671143</t>
   </si>
   <si>
-    <t xml:space="preserve">20.19016456604</t>
+    <t xml:space="preserve">20.1901664733887</t>
   </si>
   <si>
     <t xml:space="preserve">20.2864017486572</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3441429138184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4412269592285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3449878692627</t>
+    <t xml:space="preserve">20.3441410064697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4412250518799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.34499168396</t>
   </si>
   <si>
     <t xml:space="preserve">20.594352722168</t>
@@ -2090,28 +2090,28 @@
     <t xml:space="preserve">20.7290840148926</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1525173187256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2679996490479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.325740814209</t>
+    <t xml:space="preserve">21.152515411377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2680015563965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3257389068604</t>
   </si>
   <si>
     <t xml:space="preserve">21.4219779968262</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1910133361816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.460470199585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0186328887939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6537895202637</t>
+    <t xml:space="preserve">21.191011428833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4604721069336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0186367034912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6537914276123</t>
   </si>
   <si>
     <t xml:space="preserve">22.7307777404785</t>
@@ -2123,49 +2123,49 @@
     <t xml:space="preserve">22.2688465118408</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4228229522705</t>
+    <t xml:space="preserve">22.4228248596191</t>
   </si>
   <si>
     <t xml:space="preserve">22.1341190338135</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1148719787598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4805660247803</t>
+    <t xml:space="preserve">22.1148700714111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4805641174316</t>
   </si>
   <si>
     <t xml:space="preserve">22.7692718505859</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9232482910156</t>
+    <t xml:space="preserve">22.9232501983643</t>
   </si>
   <si>
     <t xml:space="preserve">22.9809894561768</t>
   </si>
   <si>
-    <t xml:space="preserve">22.230354309082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4035778045654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5182132720947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.632848739624</t>
+    <t xml:space="preserve">22.2303524017334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4035797119141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5182151794434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6328468322754</t>
   </si>
   <si>
     <t xml:space="preserve">20.6135997772217</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2872486114502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9407997131348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0370349884033</t>
+    <t xml:space="preserve">21.2872505187988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9408016204834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.037036895752</t>
   </si>
   <si>
     <t xml:space="preserve">21.2487525939941</t>
@@ -2174,28 +2174,28 @@
     <t xml:space="preserve">21.9031543731689</t>
   </si>
   <si>
-    <t xml:space="preserve">21.672191619873</t>
+    <t xml:space="preserve">21.6721897125244</t>
   </si>
   <si>
     <t xml:space="preserve">21.3834819793701</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5374584197998</t>
+    <t xml:space="preserve">21.5374565124512</t>
   </si>
   <si>
     <t xml:space="preserve">21.768424987793</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8454132080078</t>
+    <t xml:space="preserve">21.8454151153564</t>
   </si>
   <si>
     <t xml:space="preserve">21.6529407501221</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7491798400879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8060741424561</t>
+    <t xml:space="preserve">21.7491779327393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8060722351074</t>
   </si>
   <si>
     <t xml:space="preserve">20.7675762176514</t>
@@ -2204,22 +2204,22 @@
     <t xml:space="preserve">20.6520938873291</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0177898406982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5366115570068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0562839508057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0947761535645</t>
+    <t xml:space="preserve">21.0177879333496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5366134643555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.056282043457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0947780609131</t>
   </si>
   <si>
     <t xml:space="preserve">20.4788722991943</t>
   </si>
   <si>
-    <t xml:space="preserve">20.498119354248</t>
+    <t xml:space="preserve">20.4981174468994</t>
   </si>
   <si>
     <t xml:space="preserve">21.9993915557861</t>
@@ -2228,7 +2228,7 @@
     <t xml:space="preserve">22.1918601989746</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7115287780762</t>
+    <t xml:space="preserve">22.7115306854248</t>
   </si>
   <si>
     <t xml:space="preserve">22.8270130157471</t>
@@ -2237,22 +2237,22 @@
     <t xml:space="preserve">23.1927070617676</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6353893280029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9048461914062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.097318649292</t>
+    <t xml:space="preserve">23.6353874206543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9048480987549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0973167419434</t>
   </si>
   <si>
     <t xml:space="preserve">23.7508716583252</t>
   </si>
   <si>
-    <t xml:space="preserve">24.2705421447754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9818344116211</t>
+    <t xml:space="preserve">24.2705402374268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9818363189697</t>
   </si>
   <si>
     <t xml:space="preserve">24.0588245391846</t>
@@ -2267,10 +2267,10 @@
     <t xml:space="preserve">25.0596714019775</t>
   </si>
   <si>
-    <t xml:space="preserve">25.2906360626221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5600967407227</t>
+    <t xml:space="preserve">25.2906379699707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.560094833374</t>
   </si>
   <si>
     <t xml:space="preserve">24.5207538604736</t>
@@ -2285,10 +2285,10 @@
     <t xml:space="preserve">25.1174125671387</t>
   </si>
   <si>
-    <t xml:space="preserve">25.2136478424072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8094596862793</t>
+    <t xml:space="preserve">25.2136497497559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8094615936279</t>
   </si>
   <si>
     <t xml:space="preserve">25.1366596221924</t>
@@ -2297,7 +2297,7 @@
     <t xml:space="preserve">25.0211772918701</t>
   </si>
   <si>
-    <t xml:space="preserve">24.828706741333</t>
+    <t xml:space="preserve">24.8287048339844</t>
   </si>
   <si>
     <t xml:space="preserve">24.6362380981445</t>
@@ -2315,40 +2315,40 @@
     <t xml:space="preserve">24.8672027587891</t>
   </si>
   <si>
-    <t xml:space="preserve">24.6747303009033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7517185211182</t>
+    <t xml:space="preserve">24.6747283935547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7517166137695</t>
   </si>
   <si>
     <t xml:space="preserve">24.7709655761719</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8864479064941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5023517608643</t>
+    <t xml:space="preserve">24.8864459991455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5023536682129</t>
   </si>
   <si>
     <t xml:space="preserve">25.5408496856689</t>
   </si>
   <si>
-    <t xml:space="preserve">25.0404243469238</t>
+    <t xml:space="preserve">25.0404262542725</t>
   </si>
   <si>
     <t xml:space="preserve">25.1944007873535</t>
   </si>
   <si>
-    <t xml:space="preserve">25.406120300293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.964282989502</t>
+    <t xml:space="preserve">25.4061164855957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9642810821533</t>
   </si>
   <si>
     <t xml:space="preserve">25.8103046417236</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7525653839111</t>
+    <t xml:space="preserve">25.7525634765625</t>
   </si>
   <si>
     <t xml:space="preserve">25.3483753204346</t>
@@ -2360,85 +2360,85 @@
     <t xml:space="preserve">24.963436126709</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7132263183594</t>
+    <t xml:space="preserve">24.7132244110107</t>
   </si>
   <si>
     <t xml:space="preserve">25.098165512085</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8680458068848</t>
+    <t xml:space="preserve">25.8680477142334</t>
   </si>
   <si>
     <t xml:space="preserve">26.4262104034424</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4839534759521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5994358062744</t>
+    <t xml:space="preserve">26.4839553833008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5994338989258</t>
   </si>
   <si>
     <t xml:space="preserve">27.3500728607178</t>
   </si>
   <si>
-    <t xml:space="preserve">27.427059173584</t>
+    <t xml:space="preserve">27.4270610809326</t>
   </si>
   <si>
     <t xml:space="preserve">27.735013961792</t>
   </si>
   <si>
-    <t xml:space="preserve">27.9082336425781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.0429668426514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.4086608886719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.0053157806396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.5048961639404</t>
+    <t xml:space="preserve">27.9082355499268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.0429649353027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.4086589813232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.0053176879883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.5048980712891</t>
   </si>
   <si>
     <t xml:space="preserve">28.1007080078125</t>
   </si>
   <si>
-    <t xml:space="preserve">26.1760005950928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4253635406494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7902126312256</t>
+    <t xml:space="preserve">26.1760025024414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.425365447998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7902145385742</t>
   </si>
   <si>
     <t xml:space="preserve">23.789363861084</t>
   </si>
   <si>
-    <t xml:space="preserve">24.655481338501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6161422729492</t>
+    <t xml:space="preserve">24.6554832458496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6161441802979</t>
   </si>
   <si>
     <t xml:space="preserve">19.9784488677979</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4972705841064</t>
+    <t xml:space="preserve">19.4972724914551</t>
   </si>
   <si>
     <t xml:space="preserve">15.7056007385254</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4570827484131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8499536514282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2445182800293</t>
+    <t xml:space="preserve">17.4570808410645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8499546051025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2445163726807</t>
   </si>
   <si>
     <t xml:space="preserve">17.0336494445801</t>
@@ -2447,25 +2447,25 @@
     <t xml:space="preserve">17.6591758728027</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8805198669434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2750816345215</t>
+    <t xml:space="preserve">17.8805179595947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2750835418701</t>
   </si>
   <si>
     <t xml:space="preserve">18.9776000976562</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2847061157227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3616943359375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2558364868164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0152473449707</t>
+    <t xml:space="preserve">18.284704208374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3616924285889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2558345794678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0152454376221</t>
   </si>
   <si>
     <t xml:space="preserve">17.5148258209229</t>
@@ -2480,7 +2480,7 @@
     <t xml:space="preserve">17.7842826843262</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9294834136963</t>
+    <t xml:space="preserve">18.9294853210449</t>
   </si>
   <si>
     <t xml:space="preserve">18.5734119415283</t>
@@ -2495,22 +2495,22 @@
     <t xml:space="preserve">18.0922355651855</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0274143218994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4202842712402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.992036819458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1612930297852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4018840789795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1420497894287</t>
+    <t xml:space="preserve">21.0274124145508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4202823638916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9920387268066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1612949371338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4018821716309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1420459747314</t>
   </si>
   <si>
     <t xml:space="preserve">20.1228008270264</t>
@@ -2519,16 +2519,16 @@
     <t xml:space="preserve">19.9207077026367</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8349437713623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9320240020752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5470809936523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5094337463379</t>
+    <t xml:space="preserve">20.8349418640137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9320259094238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5470848083496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5094356536865</t>
   </si>
   <si>
     <t xml:space="preserve">21.9608936309814</t>
@@ -2537,7 +2537,7 @@
     <t xml:space="preserve">21.1813888549805</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5952014923096</t>
+    <t xml:space="preserve">21.5952033996582</t>
   </si>
   <si>
     <t xml:space="preserve">22.186450958252</t>
@@ -2549,7 +2549,7 @@
     <t xml:space="preserve">22.3221492767334</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9829044342041</t>
+    <t xml:space="preserve">21.9829063415527</t>
   </si>
   <si>
     <t xml:space="preserve">22.2930717468262</t>
@@ -2558,13 +2558,13 @@
     <t xml:space="preserve">23.3786468505859</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4852638244629</t>
+    <t xml:space="preserve">23.4852657318115</t>
   </si>
   <si>
     <t xml:space="preserve">22.6129283905029</t>
   </si>
   <si>
-    <t xml:space="preserve">23.853588104248</t>
+    <t xml:space="preserve">23.8535861968994</t>
   </si>
   <si>
     <t xml:space="preserve">24.1831359863281</t>
@@ -2582,13 +2582,13 @@
     <t xml:space="preserve">23.708194732666</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0297145843506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9715557098389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9909400939941</t>
+    <t xml:space="preserve">23.029712677002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9715576171875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9909420013428</t>
   </si>
   <si>
     <t xml:space="preserve">22.2155303955078</t>
@@ -2606,7 +2606,7 @@
     <t xml:space="preserve">23.6500415802002</t>
   </si>
   <si>
-    <t xml:space="preserve">23.02001953125</t>
+    <t xml:space="preserve">23.0200214385986</t>
   </si>
   <si>
     <t xml:space="preserve">23.0490989685059</t>
@@ -2624,10 +2624,10 @@
     <t xml:space="preserve">22.8164730072021</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8940162658691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7970905303955</t>
+    <t xml:space="preserve">22.8940181732178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7970886230469</t>
   </si>
   <si>
     <t xml:space="preserve">22.9812488555908</t>
@@ -2639,7 +2639,7 @@
     <t xml:space="preserve">23.620964050293</t>
   </si>
   <si>
-    <t xml:space="preserve">23.5918827056885</t>
+    <t xml:space="preserve">23.5918846130371</t>
   </si>
   <si>
     <t xml:space="preserve">23.8923568725586</t>
@@ -2657,13 +2657,13 @@
     <t xml:space="preserve">24.1152877807617</t>
   </si>
   <si>
-    <t xml:space="preserve">24.5223789215088</t>
+    <t xml:space="preserve">24.5223770141602</t>
   </si>
   <si>
     <t xml:space="preserve">24.6871509552002</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1039371490479</t>
+    <t xml:space="preserve">25.1039352416992</t>
   </si>
   <si>
     <t xml:space="preserve">25.0263938903809</t>
@@ -2672,7 +2672,7 @@
     <t xml:space="preserve">25.6564159393311</t>
   </si>
   <si>
-    <t xml:space="preserve">25.4431781768799</t>
+    <t xml:space="preserve">25.4431800842285</t>
   </si>
   <si>
     <t xml:space="preserve">25.2977905273438</t>
@@ -2681,10 +2681,10 @@
     <t xml:space="preserve">25.4334869384766</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1233234405518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.317174911499</t>
+    <t xml:space="preserve">25.1233215332031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3171768188477</t>
   </si>
   <si>
     <t xml:space="preserve">25.5110282897949</t>
@@ -2696,28 +2696,28 @@
     <t xml:space="preserve">26.9067687988281</t>
   </si>
   <si>
-    <t xml:space="preserve">28.0601902008057</t>
+    <t xml:space="preserve">28.0601921081543</t>
   </si>
   <si>
     <t xml:space="preserve">28.6514415740967</t>
   </si>
   <si>
-    <t xml:space="preserve">27.9148025512695</t>
+    <t xml:space="preserve">27.9148006439209</t>
   </si>
   <si>
     <t xml:space="preserve">28.0020351409912</t>
   </si>
   <si>
-    <t xml:space="preserve">27.5658664703369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.9632682800293</t>
+    <t xml:space="preserve">27.5658683776855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9632663726807</t>
   </si>
   <si>
     <t xml:space="preserve">27.4204788208008</t>
   </si>
   <si>
-    <t xml:space="preserve">27.4398612976074</t>
+    <t xml:space="preserve">27.4398632049561</t>
   </si>
   <si>
     <t xml:space="preserve">27.78879737854</t>
@@ -2726,25 +2726,25 @@
     <t xml:space="preserve">27.633716583252</t>
   </si>
   <si>
-    <t xml:space="preserve">27.4592475891113</t>
+    <t xml:space="preserve">27.45924949646</t>
   </si>
   <si>
     <t xml:space="preserve">27.6918716430664</t>
   </si>
   <si>
-    <t xml:space="preserve">26.9649219512939</t>
+    <t xml:space="preserve">26.9649238586426</t>
   </si>
   <si>
     <t xml:space="preserve">27.449556350708</t>
   </si>
   <si>
-    <t xml:space="preserve">27.1103134155273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.8970737457275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.8486137390137</t>
+    <t xml:space="preserve">27.1103115081787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.8970756530762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.8486156463623</t>
   </si>
   <si>
     <t xml:space="preserve">27.0618495941162</t>
@@ -2762,13 +2762,13 @@
     <t xml:space="preserve">28.0117282867432</t>
   </si>
   <si>
-    <t xml:space="preserve">27.0715427398682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.1587791442871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.6240234375</t>
+    <t xml:space="preserve">27.0715446472168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.1587772369385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.6240215301514</t>
   </si>
   <si>
     <t xml:space="preserve">27.798490524292</t>
@@ -2777,7 +2777,7 @@
     <t xml:space="preserve">27.8566474914551</t>
   </si>
   <si>
-    <t xml:space="preserve">28.6029796600342</t>
+    <t xml:space="preserve">28.6029815673828</t>
   </si>
   <si>
     <t xml:space="preserve">28.7774467468262</t>
@@ -2792,19 +2792,19 @@
     <t xml:space="preserve">29.2233085632324</t>
   </si>
   <si>
-    <t xml:space="preserve">29.1263809204102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.9923419952393</t>
+    <t xml:space="preserve">29.1263828277588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9923439025879</t>
   </si>
   <si>
     <t xml:space="preserve">28.0698833465576</t>
   </si>
   <si>
-    <t xml:space="preserve">27.8857250213623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.0989608764648</t>
+    <t xml:space="preserve">27.8857231140137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.0989627838135</t>
   </si>
   <si>
     <t xml:space="preserve">29.8242530822754</t>
@@ -2813,13 +2813,13 @@
     <t xml:space="preserve">30.4155025482178</t>
   </si>
   <si>
-    <t xml:space="preserve">29.6110153198242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.9211807250977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.279806137085</t>
+    <t xml:space="preserve">29.6110134124756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.921178817749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.2798080444336</t>
   </si>
   <si>
     <t xml:space="preserve">30.4736595153809</t>
@@ -2831,7 +2831,7 @@
     <t xml:space="preserve">29.7660961151123</t>
   </si>
   <si>
-    <t xml:space="preserve">30.2507266998291</t>
+    <t xml:space="preserve">30.2507286071777</t>
   </si>
   <si>
     <t xml:space="preserve">30.9292144775391</t>
@@ -2846,16 +2846,16 @@
     <t xml:space="preserve">30.9970607757568</t>
   </si>
   <si>
-    <t xml:space="preserve">31.3847675323486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2006072998047</t>
+    <t xml:space="preserve">31.3847694396973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2006053924561</t>
   </si>
   <si>
     <t xml:space="preserve">31.394458770752</t>
   </si>
   <si>
-    <t xml:space="preserve">31.1812191009521</t>
+    <t xml:space="preserve">31.1812210083008</t>
   </si>
   <si>
     <t xml:space="preserve">31.1424541473389</t>
@@ -2882,13 +2882,13 @@
     <t xml:space="preserve">32.4703483581543</t>
   </si>
   <si>
-    <t xml:space="preserve">33.3911399841309</t>
+    <t xml:space="preserve">33.3911437988281</t>
   </si>
   <si>
     <t xml:space="preserve">34.1568641662598</t>
   </si>
   <si>
-    <t xml:space="preserve">33.8079299926758</t>
+    <t xml:space="preserve">33.8079261779785</t>
   </si>
   <si>
     <t xml:space="preserve">32.9549751281738</t>
@@ -2912,25 +2912,25 @@
     <t xml:space="preserve">34.3216361999512</t>
   </si>
   <si>
-    <t xml:space="preserve">34.4379501342773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1488304138184</t>
+    <t xml:space="preserve">34.4379463195801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1488265991211</t>
   </si>
   <si>
     <t xml:space="preserve">33.158519744873</t>
   </si>
   <si>
-    <t xml:space="preserve">33.3426818847656</t>
+    <t xml:space="preserve">33.3426780700684</t>
   </si>
   <si>
     <t xml:space="preserve">31.9857120513916</t>
   </si>
   <si>
-    <t xml:space="preserve">32.0826377868652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.4509544372559</t>
+    <t xml:space="preserve">32.082633972168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.4509582519531</t>
   </si>
   <si>
     <t xml:space="preserve">33.2263679504395</t>
@@ -2939,22 +2939,22 @@
     <t xml:space="preserve">32.5381927490234</t>
   </si>
   <si>
-    <t xml:space="preserve">31.7240104675293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3459949493408</t>
+    <t xml:space="preserve">31.7240085601807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3459930419922</t>
   </si>
   <si>
     <t xml:space="preserve">31.4816932678223</t>
   </si>
   <si>
-    <t xml:space="preserve">31.5980014801025</t>
+    <t xml:space="preserve">31.5980033874512</t>
   </si>
   <si>
     <t xml:space="preserve">31.3363037109375</t>
   </si>
   <si>
-    <t xml:space="preserve">31.54953956604</t>
+    <t xml:space="preserve">31.5495414733887</t>
   </si>
   <si>
     <t xml:space="preserve">32.0923309326172</t>
@@ -2975,16 +2975,16 @@
     <t xml:space="preserve">32.9065093994141</t>
   </si>
   <si>
-    <t xml:space="preserve">32.1698722839355</t>
+    <t xml:space="preserve">32.1698684692383</t>
   </si>
   <si>
     <t xml:space="preserve">32.6932754516602</t>
   </si>
   <si>
-    <t xml:space="preserve">32.218334197998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.7611198425293</t>
+    <t xml:space="preserve">32.2183380126953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.7611236572266</t>
   </si>
   <si>
     <t xml:space="preserve">32.9937477111816</t>
@@ -2993,7 +2993,7 @@
     <t xml:space="preserve">32.8968162536621</t>
   </si>
   <si>
-    <t xml:space="preserve">32.5285034179688</t>
+    <t xml:space="preserve">32.5284996032715</t>
   </si>
   <si>
     <t xml:space="preserve">32.0050964355469</t>
@@ -3014,10 +3014,10 @@
     <t xml:space="preserve">32.8677406311035</t>
   </si>
   <si>
-    <t xml:space="preserve">33.1100578308105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1391372680664</t>
+    <t xml:space="preserve">33.1100540161133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1391334533691</t>
   </si>
   <si>
     <t xml:space="preserve">33.2942161560059</t>
@@ -3026,7 +3026,7 @@
     <t xml:space="preserve">33.0712814331055</t>
   </si>
   <si>
-    <t xml:space="preserve">32.8386650085449</t>
+    <t xml:space="preserve">32.8386611938477</t>
   </si>
   <si>
     <t xml:space="preserve">32.5478858947754</t>
@@ -3035,28 +3035,28 @@
     <t xml:space="preserve">32.5188064575195</t>
   </si>
   <si>
-    <t xml:space="preserve">33.0519027709961</t>
+    <t xml:space="preserve">33.0518989562988</t>
   </si>
   <si>
     <t xml:space="preserve">32.8095817565918</t>
   </si>
   <si>
-    <t xml:space="preserve">32.4024925231934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.5365333557129</t>
+    <t xml:space="preserve">32.4024963378906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.5365371704102</t>
   </si>
   <si>
     <t xml:space="preserve">34.3022499084473</t>
   </si>
   <si>
-    <t xml:space="preserve">35.1164360046387</t>
+    <t xml:space="preserve">35.1164321899414</t>
   </si>
   <si>
     <t xml:space="preserve">35.0001220703125</t>
   </si>
   <si>
-    <t xml:space="preserve">35.4653701782227</t>
+    <t xml:space="preserve">35.4653663635254</t>
   </si>
   <si>
     <t xml:space="preserve">35.4072074890137</t>
@@ -3065,7 +3065,7 @@
     <t xml:space="preserve">35.5235252380371</t>
   </si>
   <si>
-    <t xml:space="preserve">36.3377075195312</t>
+    <t xml:space="preserve">36.3377113342285</t>
   </si>
   <si>
     <t xml:space="preserve">36.0856971740723</t>
@@ -3074,19 +3074,19 @@
     <t xml:space="preserve">35.8627662658691</t>
   </si>
   <si>
-    <t xml:space="preserve">34.7674980163574</t>
+    <t xml:space="preserve">34.7675018310547</t>
   </si>
   <si>
     <t xml:space="preserve">34.4088668823242</t>
   </si>
   <si>
-    <t xml:space="preserve">33.8660850524902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.8176231384277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2571029663086</t>
+    <t xml:space="preserve">33.866081237793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.8176193237305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2571067810059</t>
   </si>
   <si>
     <t xml:space="preserve">32.2861824035645</t>
@@ -3095,7 +3095,7 @@
     <t xml:space="preserve">32.9452819824219</t>
   </si>
   <si>
-    <t xml:space="preserve">33.1972961425781</t>
+    <t xml:space="preserve">33.1972923278809</t>
   </si>
   <si>
     <t xml:space="preserve">30.4251956939697</t>
@@ -3104,10 +3104,10 @@
     <t xml:space="preserve">29.9308700561523</t>
   </si>
   <si>
-    <t xml:space="preserve">29.1166896820068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4365482330322</t>
+    <t xml:space="preserve">29.1166915893555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4365463256836</t>
   </si>
   <si>
     <t xml:space="preserve">30.8419799804688</t>
@@ -3122,10 +3122,10 @@
     <t xml:space="preserve">30.9776763916016</t>
   </si>
   <si>
-    <t xml:space="preserve">31.1909141540527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5883159637451</t>
+    <t xml:space="preserve">31.1909122467041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5883140563965</t>
   </si>
   <si>
     <t xml:space="preserve">31.0067558288574</t>
@@ -3152,7 +3152,7 @@
     <t xml:space="preserve">30.7644367218018</t>
   </si>
   <si>
-    <t xml:space="preserve">31.4041519165039</t>
+    <t xml:space="preserve">31.4041538238525</t>
   </si>
   <si>
     <t xml:space="preserve">31.7433986663818</t>
@@ -3161,49 +3161,49 @@
     <t xml:space="preserve">31.4235382080078</t>
   </si>
   <si>
-    <t xml:space="preserve">32.0535583496094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.8112468719482</t>
+    <t xml:space="preserve">32.0535545349121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.811243057251</t>
   </si>
   <si>
     <t xml:space="preserve">34.001781463623</t>
   </si>
   <si>
-    <t xml:space="preserve">33.4299163818359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.3797950744629</t>
+    <t xml:space="preserve">33.4299201965332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.3797912597656</t>
   </si>
   <si>
     <t xml:space="preserve">34.1374740600586</t>
   </si>
   <si>
-    <t xml:space="preserve">34.1277847290039</t>
+    <t xml:space="preserve">34.1277809143066</t>
   </si>
   <si>
     <t xml:space="preserve">34.6899566650391</t>
   </si>
   <si>
-    <t xml:space="preserve">34.7287292480469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.5138320922852</t>
+    <t xml:space="preserve">34.7287330627441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.5138282775879</t>
   </si>
   <si>
     <t xml:space="preserve">35.3490562438965</t>
   </si>
   <si>
-    <t xml:space="preserve">34.8159599304199</t>
+    <t xml:space="preserve">34.8159637451172</t>
   </si>
   <si>
     <t xml:space="preserve">33.6043815612793</t>
   </si>
   <si>
-    <t xml:space="preserve">34.0502433776855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.3119468688965</t>
+    <t xml:space="preserve">34.0502471923828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.3119430541992</t>
   </si>
   <si>
     <t xml:space="preserve">33.7303848266602</t>
@@ -3212,7 +3212,7 @@
     <t xml:space="preserve">34.602725982666</t>
   </si>
   <si>
-    <t xml:space="preserve">34.0793228149414</t>
+    <t xml:space="preserve">34.0793190002441</t>
   </si>
   <si>
     <t xml:space="preserve">32.7514343261719</t>
@@ -3227,7 +3227,7 @@
     <t xml:space="preserve">32.5672645568848</t>
   </si>
   <si>
-    <t xml:space="preserve">33.4396057128906</t>
+    <t xml:space="preserve">33.4396095275879</t>
   </si>
   <si>
     <t xml:space="preserve">33.6334609985352</t>
@@ -3239,28 +3239,28 @@
     <t xml:space="preserve">36.4218978881836</t>
   </si>
   <si>
-    <t xml:space="preserve">37.202018737793</t>
+    <t xml:space="preserve">37.2020225524902</t>
   </si>
   <si>
     <t xml:space="preserve">36.4999084472656</t>
   </si>
   <si>
-    <t xml:space="preserve">37.3190383911133</t>
+    <t xml:space="preserve">37.3190422058105</t>
   </si>
   <si>
     <t xml:space="preserve">37.6310882568359</t>
   </si>
   <si>
-    <t xml:space="preserve">37.9821434020996</t>
+    <t xml:space="preserve">37.9821395874023</t>
   </si>
   <si>
     <t xml:space="preserve">37.6798400878906</t>
   </si>
   <si>
-    <t xml:space="preserve">37.5725784301758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.2454299926758</t>
+    <t xml:space="preserve">37.5725746154785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.245433807373</t>
   </si>
   <si>
     <t xml:space="preserve">38.8110198974609</t>
@@ -3281,7 +3281,7 @@
     <t xml:space="preserve">39.1913299560547</t>
   </si>
   <si>
-    <t xml:space="preserve">39.2205848693848</t>
+    <t xml:space="preserve">39.2205810546875</t>
   </si>
   <si>
     <t xml:space="preserve">39.9324417114258</t>
@@ -3314,13 +3314,13 @@
     <t xml:space="preserve">40.6053009033203</t>
   </si>
   <si>
-    <t xml:space="preserve">40.400520324707</t>
+    <t xml:space="preserve">40.4005165100098</t>
   </si>
   <si>
     <t xml:space="preserve">40.5662879943848</t>
   </si>
   <si>
-    <t xml:space="preserve">40.1957321166992</t>
+    <t xml:space="preserve">40.1957359313965</t>
   </si>
   <si>
     <t xml:space="preserve">40.3517608642578</t>
@@ -3329,7 +3329,7 @@
     <t xml:space="preserve">40.5955505371094</t>
   </si>
   <si>
-    <t xml:space="preserve">39.6593971252441</t>
+    <t xml:space="preserve">39.6594009399414</t>
   </si>
   <si>
     <t xml:space="preserve">37.1240081787109</t>
@@ -3338,19 +3338,19 @@
     <t xml:space="preserve">38.1284103393555</t>
   </si>
   <si>
-    <t xml:space="preserve">38.1186637878418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.9475364685059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.5618896484375</t>
+    <t xml:space="preserve">38.1186599731445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.9475402832031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.5618858337402</t>
   </si>
   <si>
     <t xml:space="preserve">39.7471618652344</t>
   </si>
   <si>
-    <t xml:space="preserve">39.0548095703125</t>
+    <t xml:space="preserve">39.0548057556152</t>
   </si>
   <si>
     <t xml:space="preserve">40.0397109985352</t>
@@ -3359,10 +3359,10 @@
     <t xml:space="preserve">39.7666664123535</t>
   </si>
   <si>
-    <t xml:space="preserve">39.435115814209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.020206451416</t>
+    <t xml:space="preserve">39.4351196289062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.0202102661133</t>
   </si>
   <si>
     <t xml:space="preserve">39.3473510742188</t>
@@ -3374,7 +3374,7 @@
     <t xml:space="preserve">41.2488975524902</t>
   </si>
   <si>
-    <t xml:space="preserve">41.3366622924805</t>
+    <t xml:space="preserve">41.3366584777832</t>
   </si>
   <si>
     <t xml:space="preserve">40.9563522338867</t>
@@ -3383,10 +3383,10 @@
     <t xml:space="preserve">41.3171577453613</t>
   </si>
   <si>
-    <t xml:space="preserve">40.8588409423828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.9368515014648</t>
+    <t xml:space="preserve">40.8588371276855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.9368476867676</t>
   </si>
   <si>
     <t xml:space="preserve">40.8685874938965</t>
@@ -3401,7 +3401,7 @@
     <t xml:space="preserve">41.7559776306152</t>
   </si>
   <si>
-    <t xml:space="preserve">41.9607543945312</t>
+    <t xml:space="preserve">41.9607582092285</t>
   </si>
   <si>
     <t xml:space="preserve">41.8437423706055</t>
@@ -3419,7 +3419,7 @@
     <t xml:space="preserve">43.7257804870605</t>
   </si>
   <si>
-    <t xml:space="preserve">42.8774032592773</t>
+    <t xml:space="preserve">42.8773994445801</t>
   </si>
   <si>
     <t xml:space="preserve">42.6628684997559</t>
@@ -3431,10 +3431,10 @@
     <t xml:space="preserve">42.5946083068848</t>
   </si>
   <si>
-    <t xml:space="preserve">43.1016883850098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.1796951293945</t>
+    <t xml:space="preserve">43.1016845703125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.1796989440918</t>
   </si>
   <si>
     <t xml:space="preserve">43.306468963623</t>
@@ -3443,10 +3443,10 @@
     <t xml:space="preserve">43.6282691955566</t>
   </si>
   <si>
-    <t xml:space="preserve">43.0236701965332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.5405006408691</t>
+    <t xml:space="preserve">43.0236740112305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.5405044555664</t>
   </si>
   <si>
     <t xml:space="preserve">42.6531181335449</t>
@@ -3458,13 +3458,13 @@
     <t xml:space="preserve">42.1557884216309</t>
   </si>
   <si>
-    <t xml:space="preserve">42.0777778625488</t>
+    <t xml:space="preserve">42.0777816772461</t>
   </si>
   <si>
     <t xml:space="preserve">40.3127517700195</t>
   </si>
   <si>
-    <t xml:space="preserve">41.619457244873</t>
+    <t xml:space="preserve">41.6194534301758</t>
   </si>
   <si>
     <t xml:space="preserve">40.6150512695312</t>
@@ -3476,10 +3476,10 @@
     <t xml:space="preserve">41.6779632568359</t>
   </si>
   <si>
-    <t xml:space="preserve">43.7160301208496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.813549041748</t>
+    <t xml:space="preserve">43.7160339355469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.8135452270508</t>
   </si>
   <si>
     <t xml:space="preserve">44.9739761352539</t>
@@ -3488,10 +3488,10 @@
     <t xml:space="preserve">43.8623008728027</t>
   </si>
   <si>
-    <t xml:space="preserve">42.5751037597656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.3810081481934</t>
+    <t xml:space="preserve">42.5750999450684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.3810119628906</t>
   </si>
   <si>
     <t xml:space="preserve">40.8783378601074</t>
@@ -3512,10 +3512,10 @@
     <t xml:space="preserve">40.7028121948242</t>
   </si>
   <si>
-    <t xml:space="preserve">39.591136932373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.6496467590332</t>
+    <t xml:space="preserve">39.5911407470703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.6496505737305</t>
   </si>
   <si>
     <t xml:space="preserve">40.5077819824219</t>
@@ -3524,10 +3524,10 @@
     <t xml:space="preserve">40.8100776672363</t>
   </si>
   <si>
-    <t xml:space="preserve">41.8632431030273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.2435493469238</t>
+    <t xml:space="preserve">41.8632392883301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.2435531616211</t>
   </si>
   <si>
     <t xml:space="preserve">43.4332389831543</t>
@@ -3542,10 +3542,10 @@
     <t xml:space="preserve">42.8578987121582</t>
   </si>
   <si>
-    <t xml:space="preserve">43.5892639160156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.0139198303223</t>
+    <t xml:space="preserve">43.5892601013184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.0139236450195</t>
   </si>
   <si>
     <t xml:space="preserve">43.0334205627441</t>
@@ -3557,10 +3557,10 @@
     <t xml:space="preserve">44.622917175293</t>
   </si>
   <si>
-    <t xml:space="preserve">44.5156555175781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.3835411071777</t>
+    <t xml:space="preserve">44.5156517028809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.3835372924805</t>
   </si>
   <si>
     <t xml:space="preserve">44.9252166748047</t>
@@ -3575,16 +3575,16 @@
     <t xml:space="preserve">44.8667068481445</t>
   </si>
   <si>
-    <t xml:space="preserve">44.0865859985352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.8871536254883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.5014991760254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.4429893493652</t>
+    <t xml:space="preserve">44.0865898132324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.887149810791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.5014953613281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.442985534668</t>
   </si>
   <si>
     <t xml:space="preserve">41.2879028320312</t>
@@ -3593,7 +3593,7 @@
     <t xml:space="preserve">42.224048614502</t>
   </si>
   <si>
-    <t xml:space="preserve">41.1513824462891</t>
+    <t xml:space="preserve">41.1513786315918</t>
   </si>
   <si>
     <t xml:space="preserve">41.6974678039551</t>
@@ -3602,10 +3602,10 @@
     <t xml:space="preserve">42.0485191345215</t>
   </si>
   <si>
-    <t xml:space="preserve">42.0387725830078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.7320671081543</t>
+    <t xml:space="preserve">42.0387687683105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.7320709228516</t>
   </si>
   <si>
     <t xml:space="preserve">40.7613220214844</t>
@@ -3620,13 +3620,13 @@
     <t xml:space="preserve">40.7418174743652</t>
   </si>
   <si>
-    <t xml:space="preserve">40.9173431396484</t>
+    <t xml:space="preserve">40.9173469543457</t>
   </si>
   <si>
     <t xml:space="preserve">41.707218170166</t>
   </si>
   <si>
-    <t xml:space="preserve">42.6141090393066</t>
+    <t xml:space="preserve">42.6141128540039</t>
   </si>
   <si>
     <t xml:space="preserve">42.1265335083008</t>
@@ -3635,10 +3635,10 @@
     <t xml:space="preserve">42.9846687316895</t>
   </si>
   <si>
-    <t xml:space="preserve">43.0041656494141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.1991958618164</t>
+    <t xml:space="preserve">43.0041694641113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.1991996765137</t>
   </si>
   <si>
     <t xml:space="preserve">44.1841049194336</t>
@@ -3653,10 +3653,10 @@
     <t xml:space="preserve">45.7443428039551</t>
   </si>
   <si>
-    <t xml:space="preserve">46.0466384887695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.2709312438965</t>
+    <t xml:space="preserve">46.0466423034668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.2709274291992</t>
   </si>
   <si>
     <t xml:space="preserve">45.4810523986816</t>
@@ -3671,25 +3671,25 @@
     <t xml:space="preserve">43.2284545898438</t>
   </si>
   <si>
-    <t xml:space="preserve">42.4970893859863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.6248016357422</t>
+    <t xml:space="preserve">42.4970932006836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.6247978210449</t>
   </si>
   <si>
     <t xml:space="preserve">39.8544273376465</t>
   </si>
   <si>
-    <t xml:space="preserve">39.5131301879883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.9572906494141</t>
+    <t xml:space="preserve">39.513126373291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.9572944641113</t>
   </si>
   <si>
     <t xml:space="preserve">38.7525100708008</t>
   </si>
   <si>
-    <t xml:space="preserve">37.7578620910645</t>
+    <t xml:space="preserve">37.7578582763672</t>
   </si>
   <si>
     <t xml:space="preserve">36.3146324157715</t>
@@ -3710,13 +3710,13 @@
     <t xml:space="preserve">36.5974273681641</t>
   </si>
   <si>
-    <t xml:space="preserve">37.2507820129395</t>
+    <t xml:space="preserve">37.2507781982422</t>
   </si>
   <si>
     <t xml:space="preserve">38.4307098388672</t>
   </si>
   <si>
-    <t xml:space="preserve">36.0903472900391</t>
+    <t xml:space="preserve">36.0903434753418</t>
   </si>
   <si>
     <t xml:space="preserve">35.4077415466309</t>
@@ -3725,10 +3725,10 @@
     <t xml:space="preserve">35.1737060546875</t>
   </si>
   <si>
-    <t xml:space="preserve">34.2180595397949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.6417808532715</t>
+    <t xml:space="preserve">34.2180557250977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.6417770385742</t>
   </si>
   <si>
     <t xml:space="preserve">35.2907218933105</t>
@@ -3740,7 +3740,7 @@
     <t xml:space="preserve">33.8767547607422</t>
   </si>
   <si>
-    <t xml:space="preserve">35.2614669799805</t>
+    <t xml:space="preserve">35.2614707946777</t>
   </si>
   <si>
     <t xml:space="preserve">34.7836418151855</t>
@@ -3758,7 +3758,7 @@
     <t xml:space="preserve">34.335075378418</t>
   </si>
   <si>
-    <t xml:space="preserve">35.0859375</t>
+    <t xml:space="preserve">35.0859413146973</t>
   </si>
   <si>
     <t xml:space="preserve">35.7782974243164</t>
@@ -3770,25 +3770,25 @@
     <t xml:space="preserve">37.4945678710938</t>
   </si>
   <si>
-    <t xml:space="preserve">37.0167388916016</t>
+    <t xml:space="preserve">37.0167427062988</t>
   </si>
   <si>
     <t xml:space="preserve">36.9972381591797</t>
   </si>
   <si>
-    <t xml:space="preserve">36.6656837463379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.300479888916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.0912895202637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.1781120300293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.208309173584</t>
+    <t xml:space="preserve">36.6656875610352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.3004760742188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.0912857055664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.178108215332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.2083053588867</t>
   </si>
   <si>
     <t xml:space="preserve">34.9494209289551</t>
@@ -3797,7 +3797,7 @@
     <t xml:space="preserve">35.6612815856934</t>
   </si>
   <si>
-    <t xml:space="preserve">35.4467506408691</t>
+    <t xml:space="preserve">35.4467468261719</t>
   </si>
   <si>
     <t xml:space="preserve">36.8119583129883</t>
@@ -3812,22 +3812,22 @@
     <t xml:space="preserve">36.051342010498</t>
   </si>
   <si>
-    <t xml:space="preserve">35.6222763061523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.2951278686523</t>
+    <t xml:space="preserve">35.6222724914551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.2951316833496</t>
   </si>
   <si>
     <t xml:space="preserve">36.7534484863281</t>
   </si>
   <si>
-    <t xml:space="preserve">39.0840606689453</t>
+    <t xml:space="preserve">39.0840644836426</t>
   </si>
   <si>
     <t xml:space="preserve">39.6008911132812</t>
   </si>
   <si>
-    <t xml:space="preserve">39.5326347351074</t>
+    <t xml:space="preserve">39.5326309204102</t>
   </si>
   <si>
     <t xml:space="preserve">40.8393325805664</t>
@@ -3836,7 +3836,7 @@
     <t xml:space="preserve">41.9119987487793</t>
   </si>
   <si>
-    <t xml:space="preserve">41.50244140625</t>
+    <t xml:space="preserve">41.5024375915527</t>
   </si>
   <si>
     <t xml:space="preserve">41.2976570129395</t>
@@ -3845,7 +3845,7 @@
     <t xml:space="preserve">40.4297714233398</t>
   </si>
   <si>
-    <t xml:space="preserve">39.2108306884766</t>
+    <t xml:space="preserve">39.2108268737793</t>
   </si>
   <si>
     <t xml:space="preserve">40.0104560852051</t>
@@ -3866,7 +3866,7 @@
     <t xml:space="preserve">37.192268371582</t>
   </si>
   <si>
-    <t xml:space="preserve">36.8802223205566</t>
+    <t xml:space="preserve">36.8802185058594</t>
   </si>
   <si>
     <t xml:space="preserve">35.983081817627</t>
@@ -3875,16 +3875,16 @@
     <t xml:space="preserve">36.7924575805664</t>
   </si>
   <si>
-    <t xml:space="preserve">37.2702827453613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.6754379272461</t>
+    <t xml:space="preserve">37.2702789306641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.6754417419434</t>
   </si>
   <si>
     <t xml:space="preserve">36.2561225891113</t>
   </si>
   <si>
-    <t xml:space="preserve">35.8465576171875</t>
+    <t xml:space="preserve">35.8465614318848</t>
   </si>
   <si>
     <t xml:space="preserve">34.5788612365723</t>
@@ -3893,13 +3893,13 @@
     <t xml:space="preserve">32.7553291320801</t>
   </si>
   <si>
-    <t xml:space="preserve">33.4769401550293</t>
+    <t xml:space="preserve">33.4769439697266</t>
   </si>
   <si>
     <t xml:space="preserve">33.4671897888184</t>
   </si>
   <si>
-    <t xml:space="preserve">31.5168895721436</t>
+    <t xml:space="preserve">31.5168876647949</t>
   </si>
   <si>
     <t xml:space="preserve">33.3989295959473</t>
@@ -3911,10 +3911,10 @@
     <t xml:space="preserve">33.4574394226074</t>
   </si>
   <si>
-    <t xml:space="preserve">31.741174697876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.7952747344971</t>
+    <t xml:space="preserve">31.7411708831787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.7952766418457</t>
   </si>
   <si>
     <t xml:space="preserve">31.1365795135498</t>
@@ -5283,6 +5283,9 @@
   </si>
   <si>
     <t xml:space="preserve">33.4599990844727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1599998474121</t>
   </si>
 </sst>
 </file>
@@ -61732,7 +61735,7 @@
     </row>
     <row r="2159">
       <c r="A2159" s="1" t="n">
-        <v>45468.649537037</v>
+        <v>45468.2916666667</v>
       </c>
       <c r="B2159" t="n">
         <v>291590</v>
@@ -61753,6 +61756,32 @@
         <v>1756</v>
       </c>
       <c r="H2159" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2160">
+      <c r="A2160" s="1" t="n">
+        <v>45469.6525578704</v>
+      </c>
+      <c r="B2160" t="n">
+        <v>562356</v>
+      </c>
+      <c r="C2160" t="n">
+        <v>33.75</v>
+      </c>
+      <c r="D2160" t="n">
+        <v>33.1599998474121</v>
+      </c>
+      <c r="E2160" t="n">
+        <v>33.3800010681152</v>
+      </c>
+      <c r="F2160" t="n">
+        <v>33.1599998474121</v>
+      </c>
+      <c r="G2160" t="s">
+        <v>1757</v>
+      </c>
+      <c r="H2160" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/AMP.MI.xlsx
+++ b/data/AMP.MI.xlsx
@@ -44,37 +44,37 @@
     <t xml:space="preserve">AMP.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">7.4481463432312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36836194992065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.42467975616455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20879316329956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01636981964111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27449703216553</t>
+    <t xml:space="preserve">7.44814729690552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36836242675781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.42468023300171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20879220962524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01637077331543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27449655532837</t>
   </si>
   <si>
     <t xml:space="preserve">7.33550930023193</t>
   </si>
   <si>
-    <t xml:space="preserve">7.21817922592163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08676910400391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14308643341064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25103092193604</t>
+    <t xml:space="preserve">7.21817827224731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08676815032959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1430869102478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25103187561035</t>
   </si>
   <si>
     <t xml:space="preserve">7.03983640670776</t>
@@ -83,22 +83,22 @@
     <t xml:space="preserve">7.19001913070679</t>
   </si>
   <si>
-    <t xml:space="preserve">7.40121507644653</t>
+    <t xml:space="preserve">7.40121459960938</t>
   </si>
   <si>
     <t xml:space="preserve">7.29327011108398</t>
   </si>
   <si>
-    <t xml:space="preserve">7.41060161590576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20409917831421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.23695182800293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46691989898682</t>
+    <t xml:space="preserve">7.4106011390686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20409870147705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23695278167725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46691942214966</t>
   </si>
   <si>
     <t xml:space="preserve">7.34020280838013</t>
@@ -107,55 +107,55 @@
     <t xml:space="preserve">7.19471311569214</t>
   </si>
   <si>
-    <t xml:space="preserve">7.10554122924805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89903926849365</t>
+    <t xml:space="preserve">7.10554218292236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89903974533081</t>
   </si>
   <si>
     <t xml:space="preserve">6.56112718582153</t>
   </si>
   <si>
-    <t xml:space="preserve">6.50480842590332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6409125328064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38278484344482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34054613113403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47195529937744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66907167434692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.93658447265625</t>
+    <t xml:space="preserve">6.50480890274048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64091205596924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38278532028198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34054565429688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47195625305176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66907119750977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.93658494949341</t>
   </si>
   <si>
     <t xml:space="preserve">6.76293563842773</t>
   </si>
   <si>
-    <t xml:space="preserve">6.88965272903442</t>
+    <t xml:space="preserve">6.88965320587158</t>
   </si>
   <si>
     <t xml:space="preserve">6.75355005264282</t>
   </si>
   <si>
-    <t xml:space="preserve">6.67845773696899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04922294616699</t>
+    <t xml:space="preserve">6.67845821380615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04922342300415</t>
   </si>
   <si>
     <t xml:space="preserve">6.94597196578979</t>
   </si>
   <si>
-    <t xml:space="preserve">6.8568000793457</t>
+    <t xml:space="preserve">6.85680055618286</t>
   </si>
   <si>
     <t xml:space="preserve">6.85210704803467</t>
@@ -167,19 +167,19 @@
     <t xml:space="preserve">6.71131086349487</t>
   </si>
   <si>
-    <t xml:space="preserve">6.68315124511719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84741401672363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83802795410156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91311836242676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06330299377441</t>
+    <t xml:space="preserve">6.68315076828003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84741353988647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8380274772644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91311931610107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06330251693726</t>
   </si>
   <si>
     <t xml:space="preserve">7.16655349731445</t>
@@ -188,7 +188,7 @@
     <t xml:space="preserve">7.13839340209961</t>
   </si>
   <si>
-    <t xml:space="preserve">7.2651104927063</t>
+    <t xml:space="preserve">7.26511144638062</t>
   </si>
   <si>
     <t xml:space="preserve">7.16185998916626</t>
@@ -197,118 +197,118 @@
     <t xml:space="preserve">7.09615516662598</t>
   </si>
   <si>
-    <t xml:space="preserve">7.29796314239502</t>
+    <t xml:space="preserve">7.29796361923218</t>
   </si>
   <si>
     <t xml:space="preserve">7.15247344970703</t>
   </si>
   <si>
-    <t xml:space="preserve">7.22756481170654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98821115493774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96943855285645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05860948562622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32612276077271</t>
+    <t xml:space="preserve">7.22756433486938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98821067810059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96943807601929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.0586085319519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32612323760986</t>
   </si>
   <si>
     <t xml:space="preserve">7.38244152069092</t>
   </si>
   <si>
-    <t xml:space="preserve">7.28388452529907</t>
+    <t xml:space="preserve">7.28388404846191</t>
   </si>
   <si>
     <t xml:space="preserve">7.56078433990479</t>
   </si>
   <si>
-    <t xml:space="preserve">7.47161245346069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54201173782349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63587617874146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61240863800049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79075145721436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65934228897095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70158004760742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76259326934814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79544544219971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94562864303589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95032167434692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93154811859131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.84707117080688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00664043426514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94093465805054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15213012695312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07949352264404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15967559814453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.16911029815674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11251163482666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23514080047607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27759170532227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30117416381836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28702545166016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22099208831787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1408109664917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.14552688598633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.20684242248535</t>
+    <t xml:space="preserve">7.47161293029785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54201126098633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6358757019043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6124095916748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79075241088867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65934085845947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70158052444458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76259279251099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79544496536255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94562911987305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95032072067261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93154859542847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84707069396973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00663948059082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94093608856201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15213203430176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07949542999268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15967655181885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.16910839080811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11251068115234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23514175415039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27759075164795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30117511749268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28702449798584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22099113464355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.14080905914307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.14552783966064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.20684337615967</t>
   </si>
   <si>
     <t xml:space="preserve">8.07477855682373</t>
@@ -323,97 +323,97 @@
     <t xml:space="preserve">7.7021689414978</t>
   </si>
   <si>
-    <t xml:space="preserve">7.68801975250244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71160268783569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61727046966553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69745254516602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05119514465332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00874710083008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12194347381592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73518514633179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77291679382324</t>
+    <t xml:space="preserve">7.68801927566528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71160125732422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61726999282837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6974515914917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05119609832764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00874614715576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12194538116455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73518466949463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7729172706604</t>
   </si>
   <si>
     <t xml:space="preserve">7.78235054016113</t>
   </si>
   <si>
-    <t xml:space="preserve">7.93328142166138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9898796081543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95214796066284</t>
+    <t xml:space="preserve">7.93328189849854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98987913131714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9521484375</t>
   </si>
   <si>
     <t xml:space="preserve">7.87196636199951</t>
   </si>
   <si>
-    <t xml:space="preserve">7.77763414382935</t>
+    <t xml:space="preserve">7.77763366699219</t>
   </si>
   <si>
     <t xml:space="preserve">7.94271564483643</t>
   </si>
   <si>
-    <t xml:space="preserve">8.02289581298828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98044538497925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97101402282715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11722850799561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24457263946533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23042678833008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25872611999512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25400924682617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.37192249298096</t>
+    <t xml:space="preserve">8.0228967666626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98044729232788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97101354598999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11722660064697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24457550048828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23042583465576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2587251663208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25400829315186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.37192344665527</t>
   </si>
   <si>
     <t xml:space="preserve">8.42852210998535</t>
   </si>
   <si>
-    <t xml:space="preserve">8.41437244415283</t>
+    <t xml:space="preserve">8.41437149047852</t>
   </si>
   <si>
     <t xml:space="preserve">8.39550495147705</t>
   </si>
   <si>
-    <t xml:space="preserve">8.35777187347412</t>
+    <t xml:space="preserve">8.35777282714844</t>
   </si>
   <si>
     <t xml:space="preserve">8.21627616882324</t>
   </si>
   <si>
-    <t xml:space="preserve">8.35305690765381</t>
+    <t xml:space="preserve">8.35305595397949</t>
   </si>
   <si>
     <t xml:space="preserve">8.43323802947998</t>
@@ -422,31 +422,31 @@
     <t xml:space="preserve">8.57473564147949</t>
   </si>
   <si>
-    <t xml:space="preserve">8.67378520965576</t>
+    <t xml:space="preserve">8.67378330230713</t>
   </si>
   <si>
     <t xml:space="preserve">8.57945251464844</t>
   </si>
   <si>
-    <t xml:space="preserve">8.70208263397217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8247127532959</t>
+    <t xml:space="preserve">8.70208358764648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.82471370697021</t>
   </si>
   <si>
     <t xml:space="preserve">8.72095012664795</t>
   </si>
   <si>
-    <t xml:space="preserve">8.85301399230957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.87659549713135</t>
+    <t xml:space="preserve">8.85301303863525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.87659645080566</t>
   </si>
   <si>
     <t xml:space="preserve">8.98979377746582</t>
   </si>
   <si>
-    <t xml:space="preserve">8.91432857513428</t>
+    <t xml:space="preserve">8.91432952880859</t>
   </si>
   <si>
     <t xml:space="preserve">8.88602924346924</t>
@@ -455,58 +455,58 @@
     <t xml:space="preserve">8.81528091430664</t>
   </si>
   <si>
-    <t xml:space="preserve">8.81999683380127</t>
+    <t xml:space="preserve">8.81999778747559</t>
   </si>
   <si>
     <t xml:space="preserve">8.89074611663818</t>
   </si>
   <si>
-    <t xml:space="preserve">8.8011302947998</t>
+    <t xml:space="preserve">8.80113220214844</t>
   </si>
   <si>
     <t xml:space="preserve">8.83886432647705</t>
   </si>
   <si>
-    <t xml:space="preserve">8.82942962646484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.72566509246826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65963459014893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64076805114746</t>
+    <t xml:space="preserve">8.82943153381348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.72566604614258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65963363647461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64076709747314</t>
   </si>
   <si>
     <t xml:space="preserve">8.62661838531494</t>
   </si>
   <si>
-    <t xml:space="preserve">8.5511531829834</t>
+    <t xml:space="preserve">8.55115222930908</t>
   </si>
   <si>
     <t xml:space="preserve">8.60775184631348</t>
   </si>
   <si>
-    <t xml:space="preserve">8.59831809997559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73509883880615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56530094146729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.6832160949707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56058597564697</t>
+    <t xml:space="preserve">8.59831714630127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73509788513184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56530284881592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68321704864502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56058406829834</t>
   </si>
   <si>
     <t xml:space="preserve">8.621901512146</t>
   </si>
   <si>
-    <t xml:space="preserve">8.67850017547607</t>
+    <t xml:space="preserve">8.67850112915039</t>
   </si>
   <si>
     <t xml:space="preserve">8.53228569030762</t>
@@ -515,7 +515,7 @@
     <t xml:space="preserve">8.59360218048096</t>
   </si>
   <si>
-    <t xml:space="preserve">8.63133335113525</t>
+    <t xml:space="preserve">8.63133430480957</t>
   </si>
   <si>
     <t xml:space="preserve">8.75868225097656</t>
@@ -524,25 +524,25 @@
     <t xml:space="preserve">9.1501579284668</t>
   </si>
   <si>
-    <t xml:space="preserve">9.31995582580566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14072418212891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.08412456512451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.96149444580078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.0086612701416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.88131427764893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57002067565918</t>
+    <t xml:space="preserve">9.31995487213135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.14072513580322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.08412551879883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9614953994751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00866031646729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.88131237030029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57001876831055</t>
   </si>
   <si>
     <t xml:space="preserve">8.48983764648438</t>
@@ -551,25 +551,25 @@
     <t xml:space="preserve">8.46625423431396</t>
   </si>
   <si>
-    <t xml:space="preserve">8.46153926849365</t>
+    <t xml:space="preserve">8.4615364074707</t>
   </si>
   <si>
     <t xml:space="preserve">8.65020179748535</t>
   </si>
   <si>
-    <t xml:space="preserve">8.40965461730957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52756881713867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.4473876953125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53700351715088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.05582809448242</t>
+    <t xml:space="preserve">8.40965557098389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52756977081299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44738674163818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53700256347656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.05582618713379</t>
   </si>
   <si>
     <t xml:space="preserve">9.16902351379395</t>
@@ -584,10 +584,10 @@
     <t xml:space="preserve">8.22570991516113</t>
   </si>
   <si>
-    <t xml:space="preserve">8.37664031982422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49935626983643</t>
+    <t xml:space="preserve">8.37663841247559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49935579299927</t>
   </si>
   <si>
     <t xml:space="preserve">8.04647827148438</t>
@@ -596,49 +596,49 @@
     <t xml:space="preserve">8.01817989349365</t>
   </si>
   <si>
-    <t xml:space="preserve">8.45210552215576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47568702697754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.51342010498047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54643630981445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.43795394897461</t>
+    <t xml:space="preserve">8.45210456848145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47568798065186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.51341915130615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54643726348877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.43795585632324</t>
   </si>
   <si>
     <t xml:space="preserve">8.29645729064941</t>
   </si>
   <si>
-    <t xml:space="preserve">8.24929141998291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44266891479492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64548301696777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71623229980469</t>
+    <t xml:space="preserve">8.24929046630859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44267177581787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64548492431641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.716233253479</t>
   </si>
   <si>
     <t xml:space="preserve">8.79169845581055</t>
   </si>
   <si>
-    <t xml:space="preserve">8.7398157119751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8105640411377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77754878997803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22562408447266</t>
+    <t xml:space="preserve">8.73981666564941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81056499481201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77754783630371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22562217712402</t>
   </si>
   <si>
     <t xml:space="preserve">9.03696060180664</t>
@@ -650,22 +650,22 @@
     <t xml:space="preserve">9.3388204574585</t>
   </si>
   <si>
-    <t xml:space="preserve">9.40957069396973</t>
+    <t xml:space="preserve">9.40956878662109</t>
   </si>
   <si>
     <t xml:space="preserve">9.48031711578369</t>
   </si>
   <si>
-    <t xml:space="preserve">9.45201778411865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.36712074279785</t>
+    <t xml:space="preserve">9.45201873779297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.36711978912354</t>
   </si>
   <si>
     <t xml:space="preserve">9.43315315246582</t>
   </si>
   <si>
-    <t xml:space="preserve">9.51805114746094</t>
+    <t xml:space="preserve">9.5180492401123</t>
   </si>
   <si>
     <t xml:space="preserve">9.55578327178955</t>
@@ -686,10 +686,10 @@
     <t xml:space="preserve">9.23034000396729</t>
   </si>
   <si>
-    <t xml:space="preserve">9.53691673278809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.88594341278076</t>
+    <t xml:space="preserve">9.53691864013672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.88594245910645</t>
   </si>
   <si>
     <t xml:space="preserve">10.0368747711182</t>
@@ -701,37 +701,37 @@
     <t xml:space="preserve">9.98970890045166</t>
   </si>
   <si>
-    <t xml:space="preserve">9.71614646911621</t>
+    <t xml:space="preserve">9.71614742279053</t>
   </si>
   <si>
     <t xml:space="preserve">9.7821798324585</t>
   </si>
   <si>
-    <t xml:space="preserve">9.79161262512207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.73501300811768</t>
+    <t xml:space="preserve">9.79161071777344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.73501205444336</t>
   </si>
   <si>
     <t xml:space="preserve">9.8670768737793</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1029071807861</t>
+    <t xml:space="preserve">10.1029062271118</t>
   </si>
   <si>
     <t xml:space="preserve">10.0840396881104</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2632713317871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3198671340942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3387365341187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5085315704346</t>
+    <t xml:space="preserve">10.2632703781128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3198680877686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.33873462677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5085325241089</t>
   </si>
   <si>
     <t xml:space="preserve">10.5556974411011</t>
@@ -740,7 +740,7 @@
     <t xml:space="preserve">10.4424991607666</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4141998291016</t>
+    <t xml:space="preserve">10.4142007827759</t>
   </si>
   <si>
     <t xml:space="preserve">10.659462928772</t>
@@ -749,13 +749,13 @@
     <t xml:space="preserve">10.5934295654297</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5839986801147</t>
+    <t xml:space="preserve">10.5839967727661</t>
   </si>
   <si>
     <t xml:space="preserve">10.8952913284302</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9707565307617</t>
+    <t xml:space="preserve">10.9707546234131</t>
   </si>
   <si>
     <t xml:space="preserve">10.8009605407715</t>
@@ -764,22 +764,22 @@
     <t xml:space="preserve">10.7349271774292</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7254953384399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7066287994385</t>
+    <t xml:space="preserve">10.7254943847656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7066268920898</t>
   </si>
   <si>
     <t xml:space="preserve">10.7915258407593</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9801893234253</t>
+    <t xml:space="preserve">10.9801902770996</t>
   </si>
   <si>
     <t xml:space="preserve">10.9235906600952</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0179214477539</t>
+    <t xml:space="preserve">11.0179224014282</t>
   </si>
   <si>
     <t xml:space="preserve">11.0839538574219</t>
@@ -791,25 +791,25 @@
     <t xml:space="preserve">11.1782855987549</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3386487960815</t>
+    <t xml:space="preserve">11.3386497497559</t>
   </si>
   <si>
     <t xml:space="preserve">11.0462226867676</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2914819717407</t>
+    <t xml:space="preserve">11.291482925415</t>
   </si>
   <si>
     <t xml:space="preserve">11.2537508010864</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2348852157593</t>
+    <t xml:space="preserve">11.234884262085</t>
   </si>
   <si>
     <t xml:space="preserve">11.2726173400879</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3669500350952</t>
+    <t xml:space="preserve">11.3669490814209</t>
   </si>
   <si>
     <t xml:space="preserve">11.5178785324097</t>
@@ -818,109 +818,109 @@
     <t xml:space="preserve">11.4990129470825</t>
   </si>
   <si>
-    <t xml:space="preserve">11.546178817749</t>
+    <t xml:space="preserve">11.5461778640747</t>
   </si>
   <si>
     <t xml:space="preserve">11.6695146560669</t>
   </si>
   <si>
-    <t xml:space="preserve">11.916187286377</t>
+    <t xml:space="preserve">11.9161882400513</t>
   </si>
   <si>
     <t xml:space="preserve">11.954137802124</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0395221710205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.011061668396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0205488204956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0300369262695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0584993362427</t>
+    <t xml:space="preserve">12.0395240783691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0110607147217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0205478668213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0300378799438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0584983825684</t>
   </si>
   <si>
     <t xml:space="preserve">12.1533737182617</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1913213729858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1154222488403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3051719665527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2767105102539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3336334228516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0015726089478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2387590408325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5746402740479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3848915100098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7833633422852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8213138580322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.859263420105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8497762680054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7169523239136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.660026550293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6125907897949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5556659698486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4607906341553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1666831970215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9674472808838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7776985168457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6448745727539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6923122406006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8251342773438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.995906829834</t>
+    <t xml:space="preserve">12.1913223266602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1154232025146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3051710128784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.276707649231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3336324691772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0015745162964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2387599945068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5746393203735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3848934173584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7833642959595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8213129043579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8592624664307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8497753143311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7169513702393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6600284576416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6125898361206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5556669235229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4607915878296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1666822433472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9674463272095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7776966094971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6448736190796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6923112869263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8251361846924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9959087371826</t>
   </si>
   <si>
     <t xml:space="preserve">10.9864206314087</t>
@@ -929,16 +929,16 @@
     <t xml:space="preserve">11.0338582992554</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2236061096191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4418182373047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4702787399292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4323301315308</t>
+    <t xml:space="preserve">11.2236080169678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4418172836304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4702796936035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4323291778564</t>
   </si>
   <si>
     <t xml:space="preserve">11.4987411499023</t>
@@ -947,52 +947,52 @@
     <t xml:space="preserve">11.3564300537109</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5936164855957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5177173614502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4228410720825</t>
+    <t xml:space="preserve">11.5936155319214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5177154541016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4228429794312</t>
   </si>
   <si>
     <t xml:space="preserve">11.3659172058105</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3374547958374</t>
+    <t xml:space="preserve">11.3374557495117</t>
   </si>
   <si>
     <t xml:space="preserve">11.1951446533203</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1192445755005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0053968429565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7492351531982</t>
+    <t xml:space="preserve">11.1192455291748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0053958892822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7492361068726</t>
   </si>
   <si>
     <t xml:space="preserve">10.9200086593628</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8725719451904</t>
+    <t xml:space="preserve">10.8725728988647</t>
   </si>
   <si>
     <t xml:space="preserve">11.2805309295654</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2520694732666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1571950912476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2141180038452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4038667678833</t>
+    <t xml:space="preserve">11.2520685195923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1571941375732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2141189575195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4038677215576</t>
   </si>
   <si>
     <t xml:space="preserve">11.4133539199829</t>
@@ -1001,10 +1001,10 @@
     <t xml:space="preserve">11.3279676437378</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1477069854736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1761703491211</t>
+    <t xml:space="preserve">11.1477060317993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1761674880981</t>
   </si>
   <si>
     <t xml:space="preserve">11.2615566253662</t>
@@ -1016,79 +1016,79 @@
     <t xml:space="preserve">11.8118267059326</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9067001342773</t>
+    <t xml:space="preserve">11.906699180603</t>
   </si>
   <si>
     <t xml:space="preserve">12.0774726867676</t>
   </si>
   <si>
-    <t xml:space="preserve">12.105936050415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0490102767944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1438856124878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1343984603882</t>
+    <t xml:space="preserve">12.1059350967407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0490112304688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1438846588135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1343975067139</t>
   </si>
   <si>
     <t xml:space="preserve">12.1723480224609</t>
   </si>
   <si>
-    <t xml:space="preserve">12.067985534668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9256734848022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3146591186523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2482461929321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2008085250854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5803060531616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6182565689087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7415924072266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8839025497437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9123649597168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.931339263916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9028797149658</t>
+    <t xml:space="preserve">12.0679864883423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9256744384766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.314658164978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2482471466064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2008094787598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5803070068359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6182546615601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7415914535522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.883903503418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9123659133911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9313402175903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9028778076172</t>
   </si>
   <si>
     <t xml:space="preserve">12.2861967086792</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8782377243042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9446506500244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1249094009399</t>
+    <t xml:space="preserve">11.8782386779785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9446496963501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1249103546143</t>
   </si>
   <si>
     <t xml:space="preserve">12.2672214508057</t>
   </si>
   <si>
-    <t xml:space="preserve">12.37158203125</t>
+    <t xml:space="preserve">12.3715829849243</t>
   </si>
   <si>
     <t xml:space="preserve">11.9920873641968</t>
@@ -1109,7 +1109,7 @@
     <t xml:space="preserve">11.8687505722046</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1818361282349</t>
+    <t xml:space="preserve">12.1818342208862</t>
   </si>
   <si>
     <t xml:space="preserve">12.162859916687</t>
@@ -1121,25 +1121,25 @@
     <t xml:space="preserve">12.2292728424072</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4569702148438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4285078048706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2577352523804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8308000564575</t>
+    <t xml:space="preserve">12.4569692611694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4285097122192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2577342987061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8308019638062</t>
   </si>
   <si>
     <t xml:space="preserve">12.2197847366333</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6372308731079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6467189788818</t>
+    <t xml:space="preserve">12.6372299194336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6467180252075</t>
   </si>
   <si>
     <t xml:space="preserve">12.5992813110352</t>
@@ -1148,25 +1148,25 @@
     <t xml:space="preserve">12.7321043014526</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2349376678467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2254495620728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1875009536743</t>
+    <t xml:space="preserve">13.2349367141724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2254486083984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1875</t>
   </si>
   <si>
     <t xml:space="preserve">13.0546770095825</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5290470123291</t>
+    <t xml:space="preserve">13.5290479660034</t>
   </si>
   <si>
     <t xml:space="preserve">13.5669975280762</t>
   </si>
   <si>
-    <t xml:space="preserve">13.642897605896</t>
+    <t xml:space="preserve">13.6428966522217</t>
   </si>
   <si>
     <t xml:space="preserve">13.6618700027466</t>
@@ -1178,43 +1178,43 @@
     <t xml:space="preserve">13.6144342422485</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3582744598389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5764837265015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4057102203369</t>
+    <t xml:space="preserve">13.3582735061646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5764827728271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4057092666626</t>
   </si>
   <si>
     <t xml:space="preserve">13.0736513137817</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7131290435791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5044069290161</t>
+    <t xml:space="preserve">12.7131299972534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5044059753418</t>
   </si>
   <si>
     <t xml:space="preserve">12.475944519043</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5613307952881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6087684631348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.921854019165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.978777885437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9503154754639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6941547393799</t>
+    <t xml:space="preserve">12.5613317489624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6087703704834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9218530654907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9787769317627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9503164291382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6941566467285</t>
   </si>
   <si>
     <t xml:space="preserve">12.3810701370239</t>
@@ -1223,7 +1223,7 @@
     <t xml:space="preserve">12.3526096343994</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8269805908203</t>
+    <t xml:space="preserve">12.826979637146</t>
   </si>
   <si>
     <t xml:space="preserve">13.1400632858276</t>
@@ -1235,28 +1235,28 @@
     <t xml:space="preserve">13.3677606582642</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5100727081299</t>
+    <t xml:space="preserve">13.5100736618042</t>
   </si>
   <si>
     <t xml:space="preserve">13.4341726303101</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4246845245361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2634010314941</t>
+    <t xml:space="preserve">13.4246854782104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2633981704712</t>
   </si>
   <si>
     <t xml:space="preserve">13.443660736084</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3487854003906</t>
+    <t xml:space="preserve">13.3487873077393</t>
   </si>
   <si>
     <t xml:space="preserve">12.9882650375366</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9598016738892</t>
+    <t xml:space="preserve">12.9598026275635</t>
   </si>
   <si>
     <t xml:space="preserve">13.3962230682373</t>
@@ -1265,37 +1265,37 @@
     <t xml:space="preserve">13.6713590621948</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7472581863403</t>
+    <t xml:space="preserve">13.747257232666</t>
   </si>
   <si>
     <t xml:space="preserve">13.4151983261108</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8990573883057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1077795028687</t>
+    <t xml:space="preserve">13.8990564346313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1077785491943</t>
   </si>
   <si>
     <t xml:space="preserve">14.2500915527344</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5062494277954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4113750457764</t>
+    <t xml:space="preserve">14.5062503814697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4113779067993</t>
   </si>
   <si>
     <t xml:space="preserve">14.6770238876343</t>
   </si>
   <si>
-    <t xml:space="preserve">14.714973449707</t>
+    <t xml:space="preserve">14.7149724960327</t>
   </si>
   <si>
     <t xml:space="preserve">14.8003606796265</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0280590057373</t>
+    <t xml:space="preserve">15.028058052063</t>
   </si>
   <si>
     <t xml:space="preserve">14.9711332321167</t>
@@ -1310,46 +1310,46 @@
     <t xml:space="preserve">15.1134443283081</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1513948440552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0185708999634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0090837478638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8288221359253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7054843902588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2842197418213</t>
+    <t xml:space="preserve">15.1513938903809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0185699462891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0090847015381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.828821182251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7054853439331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.284218788147</t>
   </si>
   <si>
     <t xml:space="preserve">15.3885793685913</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3601188659668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3696050643921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5593538284302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5119171142578</t>
+    <t xml:space="preserve">15.3601179122925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3696069717407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5593528747559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5119152069092</t>
   </si>
   <si>
     <t xml:space="preserve">15.6732025146484</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7775630950928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5403757095337</t>
+    <t xml:space="preserve">15.7775621414185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5403785705566</t>
   </si>
   <si>
     <t xml:space="preserve">15.1324195861816</t>
@@ -1358,124 +1358,124 @@
     <t xml:space="preserve">15.4644794464111</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9329175949097</t>
+    <t xml:space="preserve">14.932915687561</t>
   </si>
   <si>
     <t xml:space="preserve">14.7800531387329</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4552164077759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7227296829224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8469305038452</t>
+    <t xml:space="preserve">14.4552154541016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.722728729248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8469314575195</t>
   </si>
   <si>
     <t xml:space="preserve">14.9902410507202</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0348405838013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5125398635864</t>
+    <t xml:space="preserve">14.034839630127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5125417709351</t>
   </si>
   <si>
     <t xml:space="preserve">14.7322826385498</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7418384552002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3055229187012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6112508773804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2418193817139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5857639312744</t>
+    <t xml:space="preserve">14.7418375015259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3055238723755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6112518310547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2418155670166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5857601165771</t>
   </si>
   <si>
     <t xml:space="preserve">16.2800331115723</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2895889282227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3278007507324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3373584747314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4520015716553</t>
+    <t xml:space="preserve">16.2895851135254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3278026580811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3373546600342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4520053863525</t>
   </si>
   <si>
     <t xml:space="preserve">16.2322616577148</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1940460205078</t>
+    <t xml:space="preserve">16.1940479278564</t>
   </si>
   <si>
     <t xml:space="preserve">16.6526374816895</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8532733917236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7959499359131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7004070281982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4328956604004</t>
+    <t xml:space="preserve">16.853271484375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7959518432617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7004089355469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4328994750977</t>
   </si>
   <si>
     <t xml:space="preserve">16.3851261138916</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8055038452148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9679222106934</t>
+    <t xml:space="preserve">16.8055019378662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9679203033447</t>
   </si>
   <si>
     <t xml:space="preserve">17.0156898498535</t>
   </si>
   <si>
-    <t xml:space="preserve">17.178108215332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0539093017578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9010429382324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4997730255127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5762042999268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3469123840332</t>
+    <t xml:space="preserve">17.1781101226807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0539073944092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9010448455811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.49977684021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.576208114624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3469104766846</t>
   </si>
   <si>
     <t xml:space="preserve">16.528434753418</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6812973022461</t>
+    <t xml:space="preserve">16.6812992095947</t>
   </si>
   <si>
     <t xml:space="preserve">16.4902229309082</t>
   </si>
   <si>
-    <t xml:space="preserve">16.643087387085</t>
+    <t xml:space="preserve">16.6430835723877</t>
   </si>
   <si>
     <t xml:space="preserve">17.2354335784912</t>
@@ -1499,58 +1499,58 @@
     <t xml:space="preserve">18.8596153259277</t>
   </si>
   <si>
-    <t xml:space="preserve">18.276819229126</t>
+    <t xml:space="preserve">18.2768211364746</t>
   </si>
   <si>
     <t xml:space="preserve">18.5538864135742</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3914699554443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2099418640137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9997520446777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7704601287842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9233207702637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8946590423584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4392395019531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5156688690186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3437023162842</t>
+    <t xml:space="preserve">18.3914680480957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2099437713623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9997539520264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7704582214355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9233226776123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.894660949707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4392375946045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5156707763672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3437004089355</t>
   </si>
   <si>
     <t xml:space="preserve">18.1717262268066</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2481555938721</t>
+    <t xml:space="preserve">18.2481575012207</t>
   </si>
   <si>
     <t xml:space="preserve">18.35325050354</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2003860473633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0761871337891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.14306640625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.713134765625</t>
+    <t xml:space="preserve">18.2003898620605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0761852264404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1430644989014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7131328582764</t>
   </si>
   <si>
     <t xml:space="preserve">18.5347785949707</t>
@@ -1559,22 +1559,22 @@
     <t xml:space="preserve">17.9710941314697</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1526165008545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8882808685303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4901809692383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5666103363037</t>
+    <t xml:space="preserve">18.1526203155518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.888277053833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4901790618896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5666122436523</t>
   </si>
   <si>
     <t xml:space="preserve">19.5283966064453</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3373165130615</t>
+    <t xml:space="preserve">19.3373146057129</t>
   </si>
   <si>
     <t xml:space="preserve">19.2035598754883</t>
@@ -1592,25 +1592,25 @@
     <t xml:space="preserve">18.9169387817383</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1080188751221</t>
+    <t xml:space="preserve">19.1080169677734</t>
   </si>
   <si>
     <t xml:space="preserve">18.8309516906738</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2863731384277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6494255065918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.181282043457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4360656738281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6908569335938</t>
+    <t xml:space="preserve">18.2863750457764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6494274139404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1812801361084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4360694885254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6908531188965</t>
   </si>
   <si>
     <t xml:space="preserve">15.5730361938477</t>
@@ -1622,19 +1622,19 @@
     <t xml:space="preserve">15.7927780151367</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1239976882935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5443744659424</t>
+    <t xml:space="preserve">15.1239967346191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5443735122681</t>
   </si>
   <si>
     <t xml:space="preserve">15.5825881958008</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9265336990356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8501005172729</t>
+    <t xml:space="preserve">15.9265327453613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8501033782959</t>
   </si>
   <si>
     <t xml:space="preserve">15.0666732788086</t>
@@ -1646,10 +1646,10 @@
     <t xml:space="preserve">15.1144437789917</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0953359603882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1335515975952</t>
+    <t xml:space="preserve">15.0953350067139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1335506439209</t>
   </si>
   <si>
     <t xml:space="preserve">14.9615783691406</t>
@@ -1658,16 +1658,16 @@
     <t xml:space="preserve">14.7704982757568</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8182697296143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.789608001709</t>
+    <t xml:space="preserve">14.8182687759399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7896060943604</t>
   </si>
   <si>
     <t xml:space="preserve">14.7609443664551</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0475664138794</t>
+    <t xml:space="preserve">15.0475654602051</t>
   </si>
   <si>
     <t xml:space="preserve">15.1717672348022</t>
@@ -1676,34 +1676,34 @@
     <t xml:space="preserve">14.9042558670044</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9201908111572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8342046737671</t>
+    <t xml:space="preserve">13.9201917648315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8342056274414</t>
   </si>
   <si>
     <t xml:space="preserve">13.2323026657104</t>
   </si>
   <si>
-    <t xml:space="preserve">13.184534072876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4902629852295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3660593032837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4998159408569</t>
+    <t xml:space="preserve">13.1845331192017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4902610778809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.366060256958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4998149871826</t>
   </si>
   <si>
     <t xml:space="preserve">13.7577724456787</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5953540802002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3278427124023</t>
+    <t xml:space="preserve">13.5953550338745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3278436660767</t>
   </si>
   <si>
     <t xml:space="preserve">13.9775171279907</t>
@@ -1712,7 +1712,7 @@
     <t xml:space="preserve">14.1208248138428</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6080799102783</t>
+    <t xml:space="preserve">14.6080808639526</t>
   </si>
   <si>
     <t xml:space="preserve">14.3310146331787</t>
@@ -1724,13 +1724,13 @@
     <t xml:space="preserve">14.4170007705688</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4456615447998</t>
+    <t xml:space="preserve">14.4456624984741</t>
   </si>
   <si>
     <t xml:space="preserve">13.901083946228</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8437604904175</t>
+    <t xml:space="preserve">13.8437595367432</t>
   </si>
   <si>
     <t xml:space="preserve">13.7004499435425</t>
@@ -1739,10 +1739,10 @@
     <t xml:space="preserve">13.8628673553467</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0061798095703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0539484024048</t>
+    <t xml:space="preserve">14.0061779022217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0539474487305</t>
   </si>
   <si>
     <t xml:space="preserve">14.5316486358643</t>
@@ -1751,40 +1751,40 @@
     <t xml:space="preserve">13.8819761276245</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8214797973633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4233846664429</t>
+    <t xml:space="preserve">12.8214807510376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4233827590942</t>
   </si>
   <si>
     <t xml:space="preserve">13.2896280288696</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8533143997192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1781511306763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9520254135132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3724021911621</t>
+    <t xml:space="preserve">13.8533134460449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1781520843506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9520244598389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3724012374878</t>
   </si>
   <si>
     <t xml:space="preserve">14.999794960022</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2004289627075</t>
+    <t xml:space="preserve">15.2004299163818</t>
   </si>
   <si>
     <t xml:space="preserve">15.2959690093994</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2673063278198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.429723739624</t>
+    <t xml:space="preserve">15.2673072814941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4297246932983</t>
   </si>
   <si>
     <t xml:space="preserve">15.4774971008301</t>
@@ -1793,16 +1793,16 @@
     <t xml:space="preserve">15.4106168746948</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2577533721924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.143105506897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0380096435547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9424724578857</t>
+    <t xml:space="preserve">15.2577524185181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1431064605713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0380115509033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9424715042114</t>
   </si>
   <si>
     <t xml:space="preserve">14.9806880950928</t>
@@ -1811,7 +1811,7 @@
     <t xml:space="preserve">15.0571193695068</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7354545593262</t>
+    <t xml:space="preserve">15.7354526519775</t>
   </si>
   <si>
     <t xml:space="preserve">15.8309936523438</t>
@@ -1823,22 +1823,22 @@
     <t xml:space="preserve">15.3341846466064</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6685771942139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5539293289185</t>
+    <t xml:space="preserve">15.6685762405396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5539283752441</t>
   </si>
   <si>
     <t xml:space="preserve">15.5157117843628</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8947010040283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0189037322998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3437385559082</t>
+    <t xml:space="preserve">14.894700050354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0189027786255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3437395095825</t>
   </si>
   <si>
     <t xml:space="preserve">15.3150787353516</t>
@@ -1847,19 +1847,19 @@
     <t xml:space="preserve">15.5634822845459</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4870491027832</t>
+    <t xml:space="preserve">15.4870500564575</t>
   </si>
   <si>
     <t xml:space="preserve">15.6303596496582</t>
   </si>
   <si>
-    <t xml:space="preserve">15.859658241272</t>
+    <t xml:space="preserve">15.859655380249</t>
   </si>
   <si>
     <t xml:space="preserve">16.5570983886719</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0889530181885</t>
+    <t xml:space="preserve">16.0889549255371</t>
   </si>
   <si>
     <t xml:space="preserve">15.3819561004639</t>
@@ -1868,13 +1868,13 @@
     <t xml:space="preserve">15.9074249267578</t>
   </si>
   <si>
-    <t xml:space="preserve">16.815055847168</t>
+    <t xml:space="preserve">16.8150596618652</t>
   </si>
   <si>
     <t xml:space="preserve">16.9774742126465</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6239757537842</t>
+    <t xml:space="preserve">16.6239776611328</t>
   </si>
   <si>
     <t xml:space="preserve">16.3182487487793</t>
@@ -1886,22 +1886,22 @@
     <t xml:space="preserve">16.8819332122803</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5475463867188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9392585754395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8628273010254</t>
+    <t xml:space="preserve">16.5475444793701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9392566680908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.862829208374</t>
   </si>
   <si>
     <t xml:space="preserve">17.0252456665039</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9965858459473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3755702972412</t>
+    <t xml:space="preserve">16.9965839385986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3755722045898</t>
   </si>
   <si>
     <t xml:space="preserve">16.0220756530762</t>
@@ -1910,40 +1910,40 @@
     <t xml:space="preserve">16.0125198364258</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0507335662842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9743013381958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4806652069092</t>
+    <t xml:space="preserve">16.0507354736328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9743041992188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4806671142578</t>
   </si>
   <si>
     <t xml:space="preserve">16.3660182952881</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0411853790283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6367034912109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7991180419922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2290496826172</t>
+    <t xml:space="preserve">16.0411834716797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6366996765137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7991218566895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2290515899658</t>
   </si>
   <si>
     <t xml:space="preserve">17.4456214904785</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4169597625732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.961540222168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8118438720703</t>
+    <t xml:space="preserve">17.4169578552246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9615383148193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8118457794189</t>
   </si>
   <si>
     <t xml:space="preserve">18.7177658081055</t>
@@ -1952,13 +1952,13 @@
     <t xml:space="preserve">19.0160961151123</t>
   </si>
   <si>
-    <t xml:space="preserve">19.747486114502</t>
+    <t xml:space="preserve">19.7474842071533</t>
   </si>
   <si>
     <t xml:space="preserve">19.6512470245361</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0738353729248</t>
+    <t xml:space="preserve">19.0738372802734</t>
   </si>
   <si>
     <t xml:space="preserve">19.0930824279785</t>
@@ -1967,7 +1967,7 @@
     <t xml:space="preserve">19.1315765380859</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7370109558105</t>
+    <t xml:space="preserve">18.7370090484619</t>
   </si>
   <si>
     <t xml:space="preserve">18.8524951934814</t>
@@ -1976,7 +1976,7 @@
     <t xml:space="preserve">19.1123313903809</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1796951293945</t>
+    <t xml:space="preserve">19.1796970367432</t>
   </si>
   <si>
     <t xml:space="preserve">19.3817882537842</t>
@@ -1988,19 +1988,19 @@
     <t xml:space="preserve">19.237434387207</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3432941436768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2663059234619</t>
+    <t xml:space="preserve">19.3432960510254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2663078308105</t>
   </si>
   <si>
     <t xml:space="preserve">19.4010372161865</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0554370880127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3056488037109</t>
+    <t xml:space="preserve">20.0554351806641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3056449890137</t>
   </si>
   <si>
     <t xml:space="preserve">20.4211292266846</t>
@@ -2009,25 +2009,25 @@
     <t xml:space="preserve">20.7483291625977</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7098369598389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9600486755371</t>
+    <t xml:space="preserve">20.7098350524902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9600467681885</t>
   </si>
   <si>
     <t xml:space="preserve">20.1131763458252</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9976940155029</t>
+    <t xml:space="preserve">19.9976959228516</t>
   </si>
   <si>
     <t xml:space="preserve">19.6320018768311</t>
   </si>
   <si>
-    <t xml:space="preserve">19.458776473999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7859783172607</t>
+    <t xml:space="preserve">19.4587783813477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7859764099121</t>
   </si>
   <si>
     <t xml:space="preserve">19.8244705200195</t>
@@ -2042,7 +2042,7 @@
     <t xml:space="preserve">19.8052253723145</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7089881896973</t>
+    <t xml:space="preserve">19.7089900970459</t>
   </si>
   <si>
     <t xml:space="preserve">19.8822135925293</t>
@@ -2051,7 +2051,7 @@
     <t xml:space="preserve">20.459623336792</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4403800964355</t>
+    <t xml:space="preserve">20.4403762817383</t>
   </si>
   <si>
     <t xml:space="preserve">20.3826351165771</t>
@@ -2060,10 +2060,10 @@
     <t xml:space="preserve">20.8638134002686</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8445644378662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5751056671143</t>
+    <t xml:space="preserve">20.8445663452148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5751075744629</t>
   </si>
   <si>
     <t xml:space="preserve">20.1901664733887</t>
@@ -2078,10 +2078,10 @@
     <t xml:space="preserve">21.4412250518799</t>
   </si>
   <si>
-    <t xml:space="preserve">21.34499168396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.594352722168</t>
+    <t xml:space="preserve">21.3449897766113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5943508148193</t>
   </si>
   <si>
     <t xml:space="preserve">20.1709175109863</t>
@@ -2090,16 +2090,16 @@
     <t xml:space="preserve">20.7290840148926</t>
   </si>
   <si>
-    <t xml:space="preserve">21.152515411377</t>
+    <t xml:space="preserve">21.1525192260742</t>
   </si>
   <si>
     <t xml:space="preserve">21.2680015563965</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3257389068604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4219779968262</t>
+    <t xml:space="preserve">21.325740814209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4219760894775</t>
   </si>
   <si>
     <t xml:space="preserve">21.191011428833</t>
@@ -2108,19 +2108,19 @@
     <t xml:space="preserve">21.4604721069336</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0186367034912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6537914276123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7307777404785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6922836303711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2688465118408</t>
+    <t xml:space="preserve">22.0186347961426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6537895202637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7307758331299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6922817230225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2688484191895</t>
   </si>
   <si>
     <t xml:space="preserve">22.4228248596191</t>
@@ -2132,145 +2132,145 @@
     <t xml:space="preserve">22.1148700714111</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4805641174316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7692718505859</t>
+    <t xml:space="preserve">22.4805660247803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7692737579346</t>
   </si>
   <si>
     <t xml:space="preserve">22.9232501983643</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9809894561768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2303524017334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4035797119141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5182151794434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6328468322754</t>
+    <t xml:space="preserve">22.9809856414795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.230354309082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4035758972168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5182132720947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.632848739624</t>
   </si>
   <si>
     <t xml:space="preserve">20.6135997772217</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2872505187988</t>
+    <t xml:space="preserve">21.2872486114502</t>
   </si>
   <si>
     <t xml:space="preserve">20.9408016204834</t>
   </si>
   <si>
-    <t xml:space="preserve">21.037036895752</t>
+    <t xml:space="preserve">21.0370349884033</t>
   </si>
   <si>
     <t xml:space="preserve">21.2487525939941</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9031543731689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6721897125244</t>
+    <t xml:space="preserve">21.9031524658203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6721878051758</t>
   </si>
   <si>
     <t xml:space="preserve">21.3834819793701</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5374565124512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.768424987793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8454151153564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6529407501221</t>
+    <t xml:space="preserve">21.5374584197998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7684230804443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8454132080078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6529445648193</t>
   </si>
   <si>
     <t xml:space="preserve">21.7491779327393</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8060722351074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7675762176514</t>
+    <t xml:space="preserve">20.8060703277588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7675800323486</t>
   </si>
   <si>
     <t xml:space="preserve">20.6520938873291</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0177879333496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5366134643555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.056282043457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0947780609131</t>
+    <t xml:space="preserve">21.0177898406982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5366115570068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0562839508057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0947761535645</t>
   </si>
   <si>
     <t xml:space="preserve">20.4788722991943</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4981174468994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9993915557861</t>
+    <t xml:space="preserve">20.498119354248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9993896484375</t>
   </si>
   <si>
     <t xml:space="preserve">22.1918601989746</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7115306854248</t>
+    <t xml:space="preserve">22.7115325927734</t>
   </si>
   <si>
     <t xml:space="preserve">22.8270130157471</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1927070617676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6353874206543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9048480987549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0973167419434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7508716583252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2705402374268</t>
+    <t xml:space="preserve">23.1927051544189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6353893280029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9048461914062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.097318649292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7508735656738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2705421447754</t>
   </si>
   <si>
     <t xml:space="preserve">23.9818363189697</t>
   </si>
   <si>
-    <t xml:space="preserve">24.0588245391846</t>
+    <t xml:space="preserve">24.0588226318359</t>
   </si>
   <si>
     <t xml:space="preserve">24.1550598144531</t>
   </si>
   <si>
-    <t xml:space="preserve">24.5592498779297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0596714019775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2906379699707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.560094833374</t>
+    <t xml:space="preserve">24.5592479705811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0596733093262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2906360626221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5600929260254</t>
   </si>
   <si>
     <t xml:space="preserve">24.5207538604736</t>
@@ -2282,13 +2282,13 @@
     <t xml:space="preserve">25.4831066131592</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1174125671387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2136497497559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8094615936279</t>
+    <t xml:space="preserve">25.1174144744873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2136478424072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8094596862793</t>
   </si>
   <si>
     <t xml:space="preserve">25.1366596221924</t>
@@ -2297,10 +2297,10 @@
     <t xml:space="preserve">25.0211772918701</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8287048339844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6362380981445</t>
+    <t xml:space="preserve">24.828706741333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6362342834473</t>
   </si>
   <si>
     <t xml:space="preserve">24.7324714660645</t>
@@ -2309,49 +2309,49 @@
     <t xml:space="preserve">24.5400009155273</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8479518890381</t>
+    <t xml:space="preserve">24.8479537963867</t>
   </si>
   <si>
     <t xml:space="preserve">24.8672027587891</t>
   </si>
   <si>
-    <t xml:space="preserve">24.6747283935547</t>
+    <t xml:space="preserve">24.6747303009033</t>
   </si>
   <si>
     <t xml:space="preserve">24.7517166137695</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7709655761719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8864459991455</t>
+    <t xml:space="preserve">24.7709674835205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8864479064941</t>
   </si>
   <si>
     <t xml:space="preserve">25.5023536682129</t>
   </si>
   <si>
-    <t xml:space="preserve">25.5408496856689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0404262542725</t>
+    <t xml:space="preserve">25.5408477783203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0404224395752</t>
   </si>
   <si>
     <t xml:space="preserve">25.1944007873535</t>
   </si>
   <si>
-    <t xml:space="preserve">25.4061164855957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9642810821533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8103046417236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7525634765625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3483753204346</t>
+    <t xml:space="preserve">25.406120300293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.964282989502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8103084564209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7525653839111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3483772277832</t>
   </si>
   <si>
     <t xml:space="preserve">26.0220260620117</t>
@@ -2366,103 +2366,103 @@
     <t xml:space="preserve">25.098165512085</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8680477142334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4262104034424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4839553833008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5994338989258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.3500728607178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.4270610809326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.735013961792</t>
+    <t xml:space="preserve">25.8680458068848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4262142181396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4839534759521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.599437713623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.3500709533691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.427059173584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.7350120544434</t>
   </si>
   <si>
     <t xml:space="preserve">27.9082355499268</t>
   </si>
   <si>
-    <t xml:space="preserve">28.0429649353027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.4086589813232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.0053176879883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.5048980712891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.1007080078125</t>
+    <t xml:space="preserve">28.0429668426514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.4086608886719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.0053195953369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.5048942565918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.1007061004639</t>
   </si>
   <si>
     <t xml:space="preserve">26.1760025024414</t>
   </si>
   <si>
-    <t xml:space="preserve">25.425365447998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7902145385742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.789363861084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6554832458496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6161441802979</t>
+    <t xml:space="preserve">25.4253635406494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.790210723877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7893657684326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6554851531982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6161403656006</t>
   </si>
   <si>
     <t xml:space="preserve">19.9784488677979</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4972724914551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7056007385254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4570808410645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8499546051025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2445163726807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0336494445801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6591758728027</t>
+    <t xml:space="preserve">19.4972705841064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7055997848511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4570846557617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8499517440796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2445182800293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0336475372314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6591777801514</t>
   </si>
   <si>
     <t xml:space="preserve">17.8805179595947</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2750835418701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9776000976562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.284704208374</t>
+    <t xml:space="preserve">18.2750816345215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9776020050049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2847061157227</t>
   </si>
   <si>
     <t xml:space="preserve">18.3616924285889</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2558345794678</t>
+    <t xml:space="preserve">18.2558364868164</t>
   </si>
   <si>
     <t xml:space="preserve">18.0152454376221</t>
@@ -2474,19 +2474,19 @@
     <t xml:space="preserve">17.5436935424805</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9374122619629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7842826843262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9294853210449</t>
+    <t xml:space="preserve">16.9374103546143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7842807769775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9294834136963</t>
   </si>
   <si>
     <t xml:space="preserve">18.5734119415283</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5878505706787</t>
+    <t xml:space="preserve">18.5878486633301</t>
   </si>
   <si>
     <t xml:space="preserve">18.9102344512939</t>
@@ -2495,13 +2495,13 @@
     <t xml:space="preserve">18.0922355651855</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0274124145508</t>
+    <t xml:space="preserve">21.0274143218994</t>
   </si>
   <si>
     <t xml:space="preserve">19.4202823638916</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9920387268066</t>
+    <t xml:space="preserve">18.992036819458</t>
   </si>
   <si>
     <t xml:space="preserve">20.1612949371338</t>
@@ -2510,10 +2510,10 @@
     <t xml:space="preserve">20.4018821716309</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1420459747314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1228008270264</t>
+    <t xml:space="preserve">20.1420478820801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.122802734375</t>
   </si>
   <si>
     <t xml:space="preserve">19.9207077026367</t>
@@ -2522,10 +2522,10 @@
     <t xml:space="preserve">20.8349418640137</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9320259094238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5470848083496</t>
+    <t xml:space="preserve">21.9320240020752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5470809936523</t>
   </si>
   <si>
     <t xml:space="preserve">22.5094356536865</t>
@@ -2537,7 +2537,7 @@
     <t xml:space="preserve">21.1813888549805</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5952033996582</t>
+    <t xml:space="preserve">21.5952014923096</t>
   </si>
   <si>
     <t xml:space="preserve">22.186450958252</t>
@@ -2555,7 +2555,7 @@
     <t xml:space="preserve">22.2930717468262</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3786468505859</t>
+    <t xml:space="preserve">23.3786487579346</t>
   </si>
   <si>
     <t xml:space="preserve">23.4852657318115</t>
@@ -2567,10 +2567,10 @@
     <t xml:space="preserve">23.8535861968994</t>
   </si>
   <si>
-    <t xml:space="preserve">24.1831359863281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8729705810547</t>
+    <t xml:space="preserve">24.1831378936768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8729686737061</t>
   </si>
   <si>
     <t xml:space="preserve">24.2025203704834</t>
@@ -2579,58 +2579,58 @@
     <t xml:space="preserve">24.1734428405762</t>
   </si>
   <si>
-    <t xml:space="preserve">23.708194732666</t>
+    <t xml:space="preserve">23.7081966400146</t>
   </si>
   <si>
     <t xml:space="preserve">23.029712677002</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9715576171875</t>
+    <t xml:space="preserve">22.9715557098389</t>
   </si>
   <si>
     <t xml:space="preserve">22.9909420013428</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2155303955078</t>
+    <t xml:space="preserve">22.2155284881592</t>
   </si>
   <si>
     <t xml:space="preserve">22.3996906280518</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0394039154053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2817192077637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6500415802002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0200214385986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0490989685059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4949607849121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8148136138916</t>
+    <t xml:space="preserve">23.0394058227539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2817211151123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6500396728516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.02001953125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0490970611572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4949569702148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8148155212402</t>
   </si>
   <si>
     <t xml:space="preserve">22.7583179473877</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8164730072021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8940181732178</t>
+    <t xml:space="preserve">22.8164749145508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8940143585205</t>
   </si>
   <si>
     <t xml:space="preserve">22.7970886230469</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9812488555908</t>
+    <t xml:space="preserve">22.9812469482422</t>
   </si>
   <si>
     <t xml:space="preserve">23.0781745910645</t>
@@ -2639,16 +2639,16 @@
     <t xml:space="preserve">23.620964050293</t>
   </si>
   <si>
-    <t xml:space="preserve">23.5918846130371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8923568725586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0959033966064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1928291320801</t>
+    <t xml:space="preserve">23.5918827056885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8923587799072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0959014892578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1928272247314</t>
   </si>
   <si>
     <t xml:space="preserve">24.0668239593506</t>
@@ -2660,13 +2660,13 @@
     <t xml:space="preserve">24.5223770141602</t>
   </si>
   <si>
-    <t xml:space="preserve">24.6871509552002</t>
+    <t xml:space="preserve">24.6871528625488</t>
   </si>
   <si>
     <t xml:space="preserve">25.1039352416992</t>
   </si>
   <si>
-    <t xml:space="preserve">25.0263938903809</t>
+    <t xml:space="preserve">25.0263957977295</t>
   </si>
   <si>
     <t xml:space="preserve">25.6564159393311</t>
@@ -2681,16 +2681,16 @@
     <t xml:space="preserve">25.4334869384766</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1233215332031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3171768188477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5110282897949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9552326202393</t>
+    <t xml:space="preserve">25.1233234405518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.317174911499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5110263824463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9552307128906</t>
   </si>
   <si>
     <t xml:space="preserve">26.9067687988281</t>
@@ -2708,7 +2708,7 @@
     <t xml:space="preserve">28.0020351409912</t>
   </si>
   <si>
-    <t xml:space="preserve">27.5658683776855</t>
+    <t xml:space="preserve">27.5658664703369</t>
   </si>
   <si>
     <t xml:space="preserve">27.9632663726807</t>
@@ -2717,13 +2717,13 @@
     <t xml:space="preserve">27.4204788208008</t>
   </si>
   <si>
-    <t xml:space="preserve">27.4398632049561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.78879737854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.633716583252</t>
+    <t xml:space="preserve">27.4398612976074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.7887954711914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.6337146759033</t>
   </si>
   <si>
     <t xml:space="preserve">27.45924949646</t>
@@ -2732,19 +2732,19 @@
     <t xml:space="preserve">27.6918716430664</t>
   </si>
   <si>
-    <t xml:space="preserve">26.9649238586426</t>
+    <t xml:space="preserve">26.9649257659912</t>
   </si>
   <si>
     <t xml:space="preserve">27.449556350708</t>
   </si>
   <si>
-    <t xml:space="preserve">27.1103115081787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.8970756530762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.8486156463623</t>
+    <t xml:space="preserve">27.1103134155273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.8970737457275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.848611831665</t>
   </si>
   <si>
     <t xml:space="preserve">27.0618495941162</t>
@@ -2762,46 +2762,46 @@
     <t xml:space="preserve">28.0117282867432</t>
   </si>
   <si>
-    <t xml:space="preserve">27.0715446472168</t>
+    <t xml:space="preserve">27.0715427398682</t>
   </si>
   <si>
     <t xml:space="preserve">27.1587772369385</t>
   </si>
   <si>
-    <t xml:space="preserve">27.6240215301514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.798490524292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.8566474914551</t>
+    <t xml:space="preserve">27.6240234375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.7984924316406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.8566455841064</t>
   </si>
   <si>
     <t xml:space="preserve">28.6029815673828</t>
   </si>
   <si>
-    <t xml:space="preserve">28.7774467468262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.9325275421143</t>
+    <t xml:space="preserve">28.7774486541748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.9325294494629</t>
   </si>
   <si>
     <t xml:space="preserve">29.4268531799316</t>
   </si>
   <si>
-    <t xml:space="preserve">29.2233085632324</t>
+    <t xml:space="preserve">29.2233066558838</t>
   </si>
   <si>
     <t xml:space="preserve">29.1263828277588</t>
   </si>
   <si>
-    <t xml:space="preserve">27.9923439025879</t>
+    <t xml:space="preserve">27.9923419952393</t>
   </si>
   <si>
     <t xml:space="preserve">28.0698833465576</t>
   </si>
   <si>
-    <t xml:space="preserve">27.8857231140137</t>
+    <t xml:space="preserve">27.8857250213623</t>
   </si>
   <si>
     <t xml:space="preserve">28.0989627838135</t>
@@ -2810,7 +2810,7 @@
     <t xml:space="preserve">29.8242530822754</t>
   </si>
   <si>
-    <t xml:space="preserve">30.4155025482178</t>
+    <t xml:space="preserve">30.4155044555664</t>
   </si>
   <si>
     <t xml:space="preserve">29.6110134124756</t>
@@ -2819,22 +2819,22 @@
     <t xml:space="preserve">29.921178817749</t>
   </si>
   <si>
-    <t xml:space="preserve">30.2798080444336</t>
+    <t xml:space="preserve">30.279806137085</t>
   </si>
   <si>
     <t xml:space="preserve">30.4736595153809</t>
   </si>
   <si>
-    <t xml:space="preserve">29.6013221740723</t>
+    <t xml:space="preserve">29.6013202667236</t>
   </si>
   <si>
     <t xml:space="preserve">29.7660961151123</t>
   </si>
   <si>
-    <t xml:space="preserve">30.2507286071777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.9292144775391</t>
+    <t xml:space="preserve">30.2507266998291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.9292125701904</t>
   </si>
   <si>
     <t xml:space="preserve">31.452615737915</t>
@@ -2843,10 +2843,10 @@
     <t xml:space="preserve">31.2103004455566</t>
   </si>
   <si>
-    <t xml:space="preserve">30.9970607757568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3847694396973</t>
+    <t xml:space="preserve">30.9970626831055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.384765625</t>
   </si>
   <si>
     <t xml:space="preserve">31.2006053924561</t>
@@ -2855,31 +2855,31 @@
     <t xml:space="preserve">31.394458770752</t>
   </si>
   <si>
-    <t xml:space="preserve">31.1812210083008</t>
+    <t xml:space="preserve">31.1812191009521</t>
   </si>
   <si>
     <t xml:space="preserve">31.1424541473389</t>
   </si>
   <si>
-    <t xml:space="preserve">31.2781467437744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.9389057159424</t>
+    <t xml:space="preserve">31.278148651123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.938907623291</t>
   </si>
   <si>
     <t xml:space="preserve">31.0164470672607</t>
   </si>
   <si>
-    <t xml:space="preserve">29.1554584503174</t>
+    <t xml:space="preserve">29.155460357666</t>
   </si>
   <si>
     <t xml:space="preserve">29.6497840881348</t>
   </si>
   <si>
-    <t xml:space="preserve">31.3653831481934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.4703483581543</t>
+    <t xml:space="preserve">31.3653812408447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.470344543457</t>
   </si>
   <si>
     <t xml:space="preserve">33.3911437988281</t>
@@ -2888,10 +2888,10 @@
     <t xml:space="preserve">34.1568641662598</t>
   </si>
   <si>
-    <t xml:space="preserve">33.8079261779785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.9549751281738</t>
+    <t xml:space="preserve">33.8079299926758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.9549713134766</t>
   </si>
   <si>
     <t xml:space="preserve">33.8273124694824</t>
@@ -2900,13 +2900,13 @@
     <t xml:space="preserve">34.0599327087402</t>
   </si>
   <si>
-    <t xml:space="preserve">34.6414947509766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.9339294433594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.9613494873047</t>
+    <t xml:space="preserve">34.6414985656738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.9339332580566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.961353302002</t>
   </si>
   <si>
     <t xml:space="preserve">34.3216361999512</t>
@@ -2918,10 +2918,10 @@
     <t xml:space="preserve">33.1488265991211</t>
   </si>
   <si>
-    <t xml:space="preserve">33.158519744873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.3426780700684</t>
+    <t xml:space="preserve">33.1585159301758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.3426818847656</t>
   </si>
   <si>
     <t xml:space="preserve">31.9857120513916</t>
@@ -2936,25 +2936,25 @@
     <t xml:space="preserve">33.2263679504395</t>
   </si>
   <si>
-    <t xml:space="preserve">32.5381927490234</t>
+    <t xml:space="preserve">32.5381889343262</t>
   </si>
   <si>
     <t xml:space="preserve">31.7240085601807</t>
   </si>
   <si>
-    <t xml:space="preserve">31.3459930419922</t>
+    <t xml:space="preserve">31.3459968566895</t>
   </si>
   <si>
     <t xml:space="preserve">31.4816932678223</t>
   </si>
   <si>
-    <t xml:space="preserve">31.5980033874512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3363037109375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5495414733887</t>
+    <t xml:space="preserve">31.5980072021484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3363056182861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.54953956604</t>
   </si>
   <si>
     <t xml:space="preserve">32.0923309326172</t>
@@ -2963,13 +2963,13 @@
     <t xml:space="preserve">32.576961517334</t>
   </si>
   <si>
-    <t xml:space="preserve">31.8306274414062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.6351127624512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.4218826293945</t>
+    <t xml:space="preserve">31.8306293487549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6351165771484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.4218788146973</t>
   </si>
   <si>
     <t xml:space="preserve">32.9065093994141</t>
@@ -2978,10 +2978,10 @@
     <t xml:space="preserve">32.1698684692383</t>
   </si>
   <si>
-    <t xml:space="preserve">32.6932754516602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2183380126953</t>
+    <t xml:space="preserve">32.6932716369629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.218334197998</t>
   </si>
   <si>
     <t xml:space="preserve">32.7611236572266</t>
@@ -2999,13 +2999,13 @@
     <t xml:space="preserve">32.0050964355469</t>
   </si>
   <si>
-    <t xml:space="preserve">31.6755466461182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.7998886108398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.6448135375977</t>
+    <t xml:space="preserve">31.6755447387695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.7998924255371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6448097229004</t>
   </si>
   <si>
     <t xml:space="preserve">32.5866546630859</t>
@@ -3014,16 +3014,16 @@
     <t xml:space="preserve">32.8677406311035</t>
   </si>
   <si>
-    <t xml:space="preserve">33.1100540161133</t>
+    <t xml:space="preserve">33.1100578308105</t>
   </si>
   <si>
     <t xml:space="preserve">33.1391334533691</t>
   </si>
   <si>
-    <t xml:space="preserve">33.2942161560059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.0712814331055</t>
+    <t xml:space="preserve">33.2942199707031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.0712852478027</t>
   </si>
   <si>
     <t xml:space="preserve">32.8386611938477</t>
@@ -3035,16 +3035,16 @@
     <t xml:space="preserve">32.5188064575195</t>
   </si>
   <si>
-    <t xml:space="preserve">33.0518989562988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.8095817565918</t>
+    <t xml:space="preserve">33.0519027709961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.8095855712891</t>
   </si>
   <si>
     <t xml:space="preserve">32.4024963378906</t>
   </si>
   <si>
-    <t xml:space="preserve">33.5365371704102</t>
+    <t xml:space="preserve">33.5365295410156</t>
   </si>
   <si>
     <t xml:space="preserve">34.3022499084473</t>
@@ -3059,22 +3059,22 @@
     <t xml:space="preserve">35.4653663635254</t>
   </si>
   <si>
-    <t xml:space="preserve">35.4072074890137</t>
+    <t xml:space="preserve">35.4072113037109</t>
   </si>
   <si>
     <t xml:space="preserve">35.5235252380371</t>
   </si>
   <si>
-    <t xml:space="preserve">36.3377113342285</t>
+    <t xml:space="preserve">36.337703704834</t>
   </si>
   <si>
     <t xml:space="preserve">36.0856971740723</t>
   </si>
   <si>
-    <t xml:space="preserve">35.8627662658691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.7675018310547</t>
+    <t xml:space="preserve">35.8627700805664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.7674980163574</t>
   </si>
   <si>
     <t xml:space="preserve">34.4088668823242</t>
@@ -3083,19 +3083,19 @@
     <t xml:space="preserve">33.866081237793</t>
   </si>
   <si>
-    <t xml:space="preserve">33.8176193237305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2571067810059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2861824035645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.9452819824219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1972923278809</t>
+    <t xml:space="preserve">33.8176231384277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2571029663086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2861862182617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.9452857971191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1972885131836</t>
   </si>
   <si>
     <t xml:space="preserve">30.4251956939697</t>
@@ -3107,28 +3107,28 @@
     <t xml:space="preserve">29.1166915893555</t>
   </si>
   <si>
-    <t xml:space="preserve">29.4365463256836</t>
+    <t xml:space="preserve">29.4365482330322</t>
   </si>
   <si>
     <t xml:space="preserve">30.8419799804688</t>
   </si>
   <si>
-    <t xml:space="preserve">31.1036796569824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9469394683838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.9776763916016</t>
+    <t xml:space="preserve">31.1036815643311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9469432830811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.9776744842529</t>
   </si>
   <si>
     <t xml:space="preserve">31.1909122467041</t>
   </si>
   <si>
-    <t xml:space="preserve">31.5883140563965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0067558288574</t>
+    <t xml:space="preserve">31.5883159637451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0067539215088</t>
   </si>
   <si>
     <t xml:space="preserve">29.9793357849121</t>
@@ -3137,31 +3137,31 @@
     <t xml:space="preserve">30.5996627807617</t>
   </si>
   <si>
-    <t xml:space="preserve">32.1407928466797</t>
+    <t xml:space="preserve">32.140796661377</t>
   </si>
   <si>
     <t xml:space="preserve">30.861364364624</t>
   </si>
   <si>
-    <t xml:space="preserve">31.2296848297119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.1230659484863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.7644367218018</t>
+    <t xml:space="preserve">31.2296867370605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.1230640411377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.7644386291504</t>
   </si>
   <si>
     <t xml:space="preserve">31.4041538238525</t>
   </si>
   <si>
-    <t xml:space="preserve">31.7433986663818</t>
+    <t xml:space="preserve">31.7433967590332</t>
   </si>
   <si>
     <t xml:space="preserve">31.4235382080078</t>
   </si>
   <si>
-    <t xml:space="preserve">32.0535545349121</t>
+    <t xml:space="preserve">32.0535621643066</t>
   </si>
   <si>
     <t xml:space="preserve">31.811243057251</t>
@@ -3170,37 +3170,37 @@
     <t xml:space="preserve">34.001781463623</t>
   </si>
   <si>
-    <t xml:space="preserve">33.4299201965332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.3797912597656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.1374740600586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.1277809143066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.6899566650391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.7287330627441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.5138282775879</t>
+    <t xml:space="preserve">33.4299163818359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.3797950744629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.1374778747559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.1277847290039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.6899604797363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.7287292480469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.5138320922852</t>
   </si>
   <si>
     <t xml:space="preserve">35.3490562438965</t>
   </si>
   <si>
-    <t xml:space="preserve">34.8159637451172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.6043815612793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.0502471923828</t>
+    <t xml:space="preserve">34.8159599304199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.604377746582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.0502433776855</t>
   </si>
   <si>
     <t xml:space="preserve">34.3119430541992</t>
@@ -3212,19 +3212,19 @@
     <t xml:space="preserve">34.602725982666</t>
   </si>
   <si>
-    <t xml:space="preserve">34.0793190002441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.7514343261719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3831100463867</t>
+    <t xml:space="preserve">34.0793228149414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.7514305114746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3831062316895</t>
   </si>
   <si>
     <t xml:space="preserve">32.3637237548828</t>
   </si>
   <si>
-    <t xml:space="preserve">32.5672645568848</t>
+    <t xml:space="preserve">32.567268371582</t>
   </si>
   <si>
     <t xml:space="preserve">33.4396095275879</t>
@@ -61761,7 +61761,7 @@
     </row>
     <row r="2160">
       <c r="A2160" s="1" t="n">
-        <v>45469.6525578704</v>
+        <v>45469.2916666667</v>
       </c>
       <c r="B2160" t="n">
         <v>562356</v>
@@ -61782,6 +61782,32 @@
         <v>1757</v>
       </c>
       <c r="H2160" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2161">
+      <c r="A2161" s="1" t="n">
+        <v>45470.649525463</v>
+      </c>
+      <c r="B2161" t="n">
+        <v>646212</v>
+      </c>
+      <c r="C2161" t="n">
+        <v>33.7099990844727</v>
+      </c>
+      <c r="D2161" t="n">
+        <v>33.0200004577637</v>
+      </c>
+      <c r="E2161" t="n">
+        <v>33.1699981689453</v>
+      </c>
+      <c r="F2161" t="n">
+        <v>33.6800003051758</v>
+      </c>
+      <c r="G2161" t="s">
+        <v>1738</v>
+      </c>
+      <c r="H2161" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/AMP.MI.xlsx
+++ b/data/AMP.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1758" uniqueCount="1758">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1759" uniqueCount="1759">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,46 +44,46 @@
     <t xml:space="preserve">AMP.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">7.44814729690552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36836242675781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.42468023300171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20879220962524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01637077331543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27449655532837</t>
+    <t xml:space="preserve">7.44814682006836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36836194992065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.42468070983887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2087926864624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01636981964111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27449703216553</t>
   </si>
   <si>
     <t xml:space="preserve">7.33550930023193</t>
   </si>
   <si>
-    <t xml:space="preserve">7.21817827224731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08676815032959</t>
+    <t xml:space="preserve">7.21817874908447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08676862716675</t>
   </si>
   <si>
     <t xml:space="preserve">7.1430869102478</t>
   </si>
   <si>
-    <t xml:space="preserve">7.25103187561035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03983640670776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19001913070679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40121459960938</t>
+    <t xml:space="preserve">7.25103139877319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03983592987061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19001865386963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40121507644653</t>
   </si>
   <si>
     <t xml:space="preserve">7.29327011108398</t>
@@ -92,97 +92,97 @@
     <t xml:space="preserve">7.4106011390686</t>
   </si>
   <si>
-    <t xml:space="preserve">7.20409870147705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.23695278167725</t>
+    <t xml:space="preserve">7.20409917831421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23695135116577</t>
   </si>
   <si>
     <t xml:space="preserve">7.46691942214966</t>
   </si>
   <si>
-    <t xml:space="preserve">7.34020280838013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19471311569214</t>
+    <t xml:space="preserve">7.34020328521729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19471216201782</t>
   </si>
   <si>
     <t xml:space="preserve">7.10554218292236</t>
   </si>
   <si>
-    <t xml:space="preserve">6.89903974533081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56112718582153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50480890274048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64091205596924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38278532028198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34054565429688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47195625305176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66907119750977</t>
+    <t xml:space="preserve">6.89903926849365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56112766265869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50480842590332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64091157913208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38278484344482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34054517745972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4719557762146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66907167434692</t>
   </si>
   <si>
     <t xml:space="preserve">6.93658494949341</t>
   </si>
   <si>
-    <t xml:space="preserve">6.76293563842773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88965320587158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.75355005264282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67845821380615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04922342300415</t>
+    <t xml:space="preserve">6.76293611526489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88965272903442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.75354957580566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67845678329468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04922246932983</t>
   </si>
   <si>
     <t xml:space="preserve">6.94597196578979</t>
   </si>
   <si>
-    <t xml:space="preserve">6.85680055618286</t>
+    <t xml:space="preserve">6.85680103302002</t>
   </si>
   <si>
     <t xml:space="preserve">6.85210704803467</t>
   </si>
   <si>
-    <t xml:space="preserve">6.89434623718262</t>
+    <t xml:space="preserve">6.8943452835083</t>
   </si>
   <si>
     <t xml:space="preserve">6.71131086349487</t>
   </si>
   <si>
-    <t xml:space="preserve">6.68315076828003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84741353988647</t>
+    <t xml:space="preserve">6.68315172195435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84741449356079</t>
   </si>
   <si>
     <t xml:space="preserve">6.8380274772644</t>
   </si>
   <si>
-    <t xml:space="preserve">6.91311931610107</t>
+    <t xml:space="preserve">6.91311836242676</t>
   </si>
   <si>
     <t xml:space="preserve">7.06330251693726</t>
   </si>
   <si>
-    <t xml:space="preserve">7.16655349731445</t>
+    <t xml:space="preserve">7.16655397415161</t>
   </si>
   <si>
     <t xml:space="preserve">7.13839340209961</t>
@@ -191,19 +191,19 @@
     <t xml:space="preserve">7.26511144638062</t>
   </si>
   <si>
-    <t xml:space="preserve">7.16185998916626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.09615516662598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29796361923218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15247344970703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.22756433486938</t>
+    <t xml:space="preserve">7.16186046600342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09615468978882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29796314239502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15247297286987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.22756481170654</t>
   </si>
   <si>
     <t xml:space="preserve">6.98821067810059</t>
@@ -230,58 +230,58 @@
     <t xml:space="preserve">7.47161293029785</t>
   </si>
   <si>
-    <t xml:space="preserve">7.54201126098633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6358757019043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6124095916748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79075241088867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65934085845947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70158052444458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76259279251099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79544496536255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94562911987305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95032072067261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93154859542847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.84707069396973</t>
+    <t xml:space="preserve">7.54201078414917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63587617874146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61240911483765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79075193405151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65934276580811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70158004760742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7625937461853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79544639587402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94562768936157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95032215118408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93154954910278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84707117080688</t>
   </si>
   <si>
     <t xml:space="preserve">8.00663948059082</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94093608856201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15213203430176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07949542999268</t>
+    <t xml:space="preserve">7.94093561172485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15213108062744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07949447631836</t>
   </si>
   <si>
     <t xml:space="preserve">8.15967655181885</t>
   </si>
   <si>
-    <t xml:space="preserve">8.16910839080811</t>
+    <t xml:space="preserve">8.16911029815674</t>
   </si>
   <si>
     <t xml:space="preserve">8.11251068115234</t>
@@ -290,25 +290,25 @@
     <t xml:space="preserve">8.23514175415039</t>
   </si>
   <si>
-    <t xml:space="preserve">8.27759075164795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30117511749268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28702449798584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22099113464355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.14080905914307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.14552783966064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.20684337615967</t>
+    <t xml:space="preserve">8.27759170532227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30117416381836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28702545166016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22099304199219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.14081192016602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.14552593231201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.20684146881104</t>
   </si>
   <si>
     <t xml:space="preserve">8.07477855682373</t>
@@ -326,64 +326,64 @@
     <t xml:space="preserve">7.68801927566528</t>
   </si>
   <si>
-    <t xml:space="preserve">7.71160125732422</t>
+    <t xml:space="preserve">7.71160268783569</t>
   </si>
   <si>
     <t xml:space="preserve">7.61726999282837</t>
   </si>
   <si>
-    <t xml:space="preserve">7.6974515914917</t>
+    <t xml:space="preserve">7.69745254516602</t>
   </si>
   <si>
     <t xml:space="preserve">8.05119609832764</t>
   </si>
   <si>
-    <t xml:space="preserve">8.00874614715576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12194538116455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73518466949463</t>
+    <t xml:space="preserve">8.00874710083008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12194347381592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73518562316895</t>
   </si>
   <si>
     <t xml:space="preserve">7.7729172706604</t>
   </si>
   <si>
-    <t xml:space="preserve">7.78235054016113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93328189849854</t>
+    <t xml:space="preserve">7.78235149383545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93328094482422</t>
   </si>
   <si>
     <t xml:space="preserve">7.98987913131714</t>
   </si>
   <si>
-    <t xml:space="preserve">7.9521484375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87196636199951</t>
+    <t xml:space="preserve">7.95214700698853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87196445465088</t>
   </si>
   <si>
     <t xml:space="preserve">7.77763366699219</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94271564483643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0228967666626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98044729232788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97101354598999</t>
+    <t xml:space="preserve">7.94271421432495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02289485931396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98044776916504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97101497650146</t>
   </si>
   <si>
     <t xml:space="preserve">8.11722660064697</t>
   </si>
   <si>
-    <t xml:space="preserve">8.24457550048828</t>
+    <t xml:space="preserve">8.24457454681396</t>
   </si>
   <si>
     <t xml:space="preserve">8.23042583465576</t>
@@ -392,10 +392,10 @@
     <t xml:space="preserve">8.2587251663208</t>
   </si>
   <si>
-    <t xml:space="preserve">8.25400829315186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.37192344665527</t>
+    <t xml:space="preserve">8.25400924682617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.37192440032959</t>
   </si>
   <si>
     <t xml:space="preserve">8.42852210998535</t>
@@ -404,10 +404,10 @@
     <t xml:space="preserve">8.41437149047852</t>
   </si>
   <si>
-    <t xml:space="preserve">8.39550495147705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35777282714844</t>
+    <t xml:space="preserve">8.39550399780273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35777187347412</t>
   </si>
   <si>
     <t xml:space="preserve">8.21627616882324</t>
@@ -422,7 +422,7 @@
     <t xml:space="preserve">8.57473564147949</t>
   </si>
   <si>
-    <t xml:space="preserve">8.67378330230713</t>
+    <t xml:space="preserve">8.67378425598145</t>
   </si>
   <si>
     <t xml:space="preserve">8.57945251464844</t>
@@ -431,22 +431,22 @@
     <t xml:space="preserve">8.70208358764648</t>
   </si>
   <si>
-    <t xml:space="preserve">8.82471370697021</t>
+    <t xml:space="preserve">8.8247127532959</t>
   </si>
   <si>
     <t xml:space="preserve">8.72095012664795</t>
   </si>
   <si>
-    <t xml:space="preserve">8.85301303863525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.87659645080566</t>
+    <t xml:space="preserve">8.85301399230957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.87659549713135</t>
   </si>
   <si>
     <t xml:space="preserve">8.98979377746582</t>
   </si>
   <si>
-    <t xml:space="preserve">8.91432952880859</t>
+    <t xml:space="preserve">8.91432857513428</t>
   </si>
   <si>
     <t xml:space="preserve">8.88602924346924</t>
@@ -455,25 +455,25 @@
     <t xml:space="preserve">8.81528091430664</t>
   </si>
   <si>
-    <t xml:space="preserve">8.81999778747559</t>
+    <t xml:space="preserve">8.8199987411499</t>
   </si>
   <si>
     <t xml:space="preserve">8.89074611663818</t>
   </si>
   <si>
-    <t xml:space="preserve">8.80113220214844</t>
+    <t xml:space="preserve">8.80113124847412</t>
   </si>
   <si>
     <t xml:space="preserve">8.83886432647705</t>
   </si>
   <si>
-    <t xml:space="preserve">8.82943153381348</t>
+    <t xml:space="preserve">8.82942962646484</t>
   </si>
   <si>
     <t xml:space="preserve">8.72566604614258</t>
   </si>
   <si>
-    <t xml:space="preserve">8.65963363647461</t>
+    <t xml:space="preserve">8.65963554382324</t>
   </si>
   <si>
     <t xml:space="preserve">8.64076709747314</t>
@@ -491,85 +491,85 @@
     <t xml:space="preserve">8.59831714630127</t>
   </si>
   <si>
-    <t xml:space="preserve">8.73509788513184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56530284881592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68321704864502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56058406829834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.621901512146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.67850112915039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53228569030762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59360218048096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63133430480957</t>
+    <t xml:space="preserve">8.73509883880615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5653018951416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6832160949707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56058692932129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62190246582031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.67849922180176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53228759765625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59360122680664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63133335113525</t>
   </si>
   <si>
     <t xml:space="preserve">8.75868225097656</t>
   </si>
   <si>
-    <t xml:space="preserve">9.1501579284668</t>
+    <t xml:space="preserve">9.15015697479248</t>
   </si>
   <si>
     <t xml:space="preserve">9.31995487213135</t>
   </si>
   <si>
-    <t xml:space="preserve">9.14072513580322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.08412551879883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9614953994751</t>
+    <t xml:space="preserve">9.14072418212891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.08412456512451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.96149444580078</t>
   </si>
   <si>
     <t xml:space="preserve">9.00866031646729</t>
   </si>
   <si>
-    <t xml:space="preserve">8.88131237030029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57001876831055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48983764648438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.46625423431396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.4615364074707</t>
+    <t xml:space="preserve">8.88131427764893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57001972198486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48983669281006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.46625518798828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.46153926849365</t>
   </si>
   <si>
     <t xml:space="preserve">8.65020179748535</t>
   </si>
   <si>
-    <t xml:space="preserve">8.40965557098389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52756977081299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44738674163818</t>
+    <t xml:space="preserve">8.40965461730957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5275707244873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4473876953125</t>
   </si>
   <si>
     <t xml:space="preserve">8.53700256347656</t>
   </si>
   <si>
-    <t xml:space="preserve">9.05582618713379</t>
+    <t xml:space="preserve">9.05582714080811</t>
   </si>
   <si>
     <t xml:space="preserve">9.16902351379395</t>
@@ -578,61 +578,61 @@
     <t xml:space="preserve">9.13129138946533</t>
   </si>
   <si>
-    <t xml:space="preserve">8.58416938781738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22570991516113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.37663841247559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49935579299927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.04647827148438</t>
+    <t xml:space="preserve">8.58416748046875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22570896148682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3766393661499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49935626983643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.04647922515869</t>
   </si>
   <si>
     <t xml:space="preserve">8.01817989349365</t>
   </si>
   <si>
-    <t xml:space="preserve">8.45210456848145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47568798065186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.51341915130615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54643726348877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.43795585632324</t>
+    <t xml:space="preserve">8.45210552215576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47568702697754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.51342010498047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54643630981445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.43795394897461</t>
   </si>
   <si>
     <t xml:space="preserve">8.29645729064941</t>
   </si>
   <si>
-    <t xml:space="preserve">8.24929046630859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44267177581787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64548492431641</t>
+    <t xml:space="preserve">8.24929141998291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44267082214355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64548397064209</t>
   </si>
   <si>
     <t xml:space="preserve">8.716233253479</t>
   </si>
   <si>
-    <t xml:space="preserve">8.79169845581055</t>
+    <t xml:space="preserve">8.79169750213623</t>
   </si>
   <si>
     <t xml:space="preserve">8.73981666564941</t>
   </si>
   <si>
-    <t xml:space="preserve">8.81056499481201</t>
+    <t xml:space="preserve">8.8105640411377</t>
   </si>
   <si>
     <t xml:space="preserve">8.77754783630371</t>
@@ -641,7 +641,7 @@
     <t xml:space="preserve">9.22562217712402</t>
   </si>
   <si>
-    <t xml:space="preserve">9.03696060180664</t>
+    <t xml:space="preserve">9.03695964813232</t>
   </si>
   <si>
     <t xml:space="preserve">9.21147441864014</t>
@@ -650,22 +650,22 @@
     <t xml:space="preserve">9.3388204574585</t>
   </si>
   <si>
-    <t xml:space="preserve">9.40956878662109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48031711578369</t>
+    <t xml:space="preserve">9.40956974029541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48031806945801</t>
   </si>
   <si>
     <t xml:space="preserve">9.45201873779297</t>
   </si>
   <si>
-    <t xml:space="preserve">9.36711978912354</t>
+    <t xml:space="preserve">9.36712074279785</t>
   </si>
   <si>
     <t xml:space="preserve">9.43315315246582</t>
   </si>
   <si>
-    <t xml:space="preserve">9.5180492401123</t>
+    <t xml:space="preserve">9.51805019378662</t>
   </si>
   <si>
     <t xml:space="preserve">9.55578327178955</t>
@@ -674,19 +674,19 @@
     <t xml:space="preserve">9.50861740112305</t>
   </si>
   <si>
-    <t xml:space="preserve">9.42843437194824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18317413330078</t>
+    <t xml:space="preserve">9.42843532562256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18317317962646</t>
   </si>
   <si>
     <t xml:space="preserve">9.17845726013184</t>
   </si>
   <si>
-    <t xml:space="preserve">9.23034000396729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53691864013672</t>
+    <t xml:space="preserve">9.23033809661865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53691673278809</t>
   </si>
   <si>
     <t xml:space="preserve">9.88594245910645</t>
@@ -698,19 +698,19 @@
     <t xml:space="preserve">9.90481090545654</t>
   </si>
   <si>
-    <t xml:space="preserve">9.98970890045166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71614742279053</t>
+    <t xml:space="preserve">9.98970985412598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71614646911621</t>
   </si>
   <si>
     <t xml:space="preserve">9.7821798324585</t>
   </si>
   <si>
-    <t xml:space="preserve">9.79161071777344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.73501205444336</t>
+    <t xml:space="preserve">9.79161167144775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.73501300811768</t>
   </si>
   <si>
     <t xml:space="preserve">9.8670768737793</t>
@@ -719,28 +719,28 @@
     <t xml:space="preserve">10.1029062271118</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0840396881104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2632703781128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3198680877686</t>
+    <t xml:space="preserve">10.0840406417847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2632713317871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3198671340942</t>
   </si>
   <si>
     <t xml:space="preserve">10.33873462677</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5085325241089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5556974411011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4424991607666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4142007827759</t>
+    <t xml:space="preserve">10.5085306167603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5556983947754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4424982070923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4141998291016</t>
   </si>
   <si>
     <t xml:space="preserve">10.659462928772</t>
@@ -749,16 +749,16 @@
     <t xml:space="preserve">10.5934295654297</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5839967727661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8952913284302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9707546234131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8009605407715</t>
+    <t xml:space="preserve">10.5839986801147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8952903747559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9707555770874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8009586334229</t>
   </si>
   <si>
     <t xml:space="preserve">10.7349271774292</t>
@@ -767,10 +767,10 @@
     <t xml:space="preserve">10.7254943847656</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7066268920898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7915258407593</t>
+    <t xml:space="preserve">10.7066287994385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7915267944336</t>
   </si>
   <si>
     <t xml:space="preserve">10.9801902770996</t>
@@ -785,7 +785,7 @@
     <t xml:space="preserve">11.0839538574219</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2160177230835</t>
+    <t xml:space="preserve">11.2160167694092</t>
   </si>
   <si>
     <t xml:space="preserve">11.1782855987549</t>
@@ -797,31 +797,31 @@
     <t xml:space="preserve">11.0462226867676</t>
   </si>
   <si>
-    <t xml:space="preserve">11.291482925415</t>
+    <t xml:space="preserve">11.2914838790894</t>
   </si>
   <si>
     <t xml:space="preserve">11.2537508010864</t>
   </si>
   <si>
-    <t xml:space="preserve">11.234884262085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2726173400879</t>
+    <t xml:space="preserve">11.2348852157593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2726163864136</t>
   </si>
   <si>
     <t xml:space="preserve">11.3669490814209</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5178785324097</t>
+    <t xml:space="preserve">11.5178804397583</t>
   </si>
   <si>
     <t xml:space="preserve">11.4990129470825</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5461778640747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6695146560669</t>
+    <t xml:space="preserve">11.546178817749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6695156097412</t>
   </si>
   <si>
     <t xml:space="preserve">11.9161882400513</t>
@@ -830,58 +830,58 @@
     <t xml:space="preserve">11.954137802124</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0395240783691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0110607147217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0205478668213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0300378799438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0584983825684</t>
+    <t xml:space="preserve">12.0395221710205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0110626220703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0205497741699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0300369262695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0584993362427</t>
   </si>
   <si>
     <t xml:space="preserve">12.1533737182617</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1913223266602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1154232025146</t>
+    <t xml:space="preserve">12.1913213729858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.115424156189</t>
   </si>
   <si>
     <t xml:space="preserve">12.3051710128784</t>
   </si>
   <si>
-    <t xml:space="preserve">12.276707649231</t>
+    <t xml:space="preserve">12.2767086029053</t>
   </si>
   <si>
     <t xml:space="preserve">12.3336324691772</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0015745162964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2387599945068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5746393203735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3848934173584</t>
+    <t xml:space="preserve">12.0015726089478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2387590408325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5746421813965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3848924636841</t>
   </si>
   <si>
     <t xml:space="preserve">11.7833642959595</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8213129043579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8592624664307</t>
+    <t xml:space="preserve">11.8213138580322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.859263420105</t>
   </si>
   <si>
     <t xml:space="preserve">11.8497753143311</t>
@@ -890,58 +890,58 @@
     <t xml:space="preserve">11.7169513702393</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6600284576416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6125898361206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5556669235229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4607915878296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1666822433472</t>
+    <t xml:space="preserve">11.660026550293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6125907897949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5556659698486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4607925415039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1666841506958</t>
   </si>
   <si>
     <t xml:space="preserve">10.9674463272095</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7776966094971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6448736190796</t>
+    <t xml:space="preserve">10.7776975631714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6448755264282</t>
   </si>
   <si>
     <t xml:space="preserve">10.6923112869263</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8251361846924</t>
+    <t xml:space="preserve">10.8251352310181</t>
   </si>
   <si>
     <t xml:space="preserve">10.9959087371826</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9864206314087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0338582992554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2236080169678</t>
+    <t xml:space="preserve">10.986421585083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0338573455811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2236051559448</t>
   </si>
   <si>
     <t xml:space="preserve">11.4418172836304</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4702796936035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4323291778564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4987411499023</t>
+    <t xml:space="preserve">11.4702787399292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4323301315308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4987421035767</t>
   </si>
   <si>
     <t xml:space="preserve">11.3564300537109</t>
@@ -950,19 +950,19 @@
     <t xml:space="preserve">11.5936155319214</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5177154541016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4228429794312</t>
+    <t xml:space="preserve">11.5177164077759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4228420257568</t>
   </si>
   <si>
     <t xml:space="preserve">11.3659172058105</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3374557495117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1951446533203</t>
+    <t xml:space="preserve">11.3374547958374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.195143699646</t>
   </si>
   <si>
     <t xml:space="preserve">11.1192455291748</t>
@@ -971,40 +971,40 @@
     <t xml:space="preserve">11.0053958892822</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7492361068726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9200086593628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8725728988647</t>
+    <t xml:space="preserve">10.7492351531982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9200096130371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8725719451904</t>
   </si>
   <si>
     <t xml:space="preserve">11.2805309295654</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2520685195923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1571941375732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2141189575195</t>
+    <t xml:space="preserve">11.2520694732666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1571931838989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2141180038452</t>
   </si>
   <si>
     <t xml:space="preserve">11.4038677215576</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4133539199829</t>
+    <t xml:space="preserve">11.4133548736572</t>
   </si>
   <si>
     <t xml:space="preserve">11.3279676437378</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1477060317993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1761674880981</t>
+    <t xml:space="preserve">11.1477069854736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1761693954468</t>
   </si>
   <si>
     <t xml:space="preserve">11.2615566253662</t>
@@ -1013,28 +1013,28 @@
     <t xml:space="preserve">11.5272035598755</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8118267059326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.906699180603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0774726867676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1059350967407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0490112304688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1438846588135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1343975067139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1723480224609</t>
+    <t xml:space="preserve">11.8118257522583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9067010879517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0774745941162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1059370040894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0490121841431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1438865661621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1343984603882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1723489761353</t>
   </si>
   <si>
     <t xml:space="preserve">12.0679864883423</t>
@@ -1043,10 +1043,10 @@
     <t xml:space="preserve">11.9256744384766</t>
   </si>
   <si>
-    <t xml:space="preserve">12.314658164978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2482471466064</t>
+    <t xml:space="preserve">12.3146572113037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2482452392578</t>
   </si>
   <si>
     <t xml:space="preserve">12.2008094787598</t>
@@ -1055,34 +1055,34 @@
     <t xml:space="preserve">12.5803070068359</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6182546615601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7415914535522</t>
+    <t xml:space="preserve">12.6182565689087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7415933609009</t>
   </si>
   <si>
     <t xml:space="preserve">12.883903503418</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9123659133911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9313402175903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9028778076172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2861967086792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8782386779785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9446496963501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1249103546143</t>
+    <t xml:space="preserve">12.9123649597168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9313411712646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9028787612915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2861957550049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8782377243042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9446506500244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1249094009399</t>
   </si>
   <si>
     <t xml:space="preserve">12.2672214508057</t>
@@ -1094,25 +1094,25 @@
     <t xml:space="preserve">11.9920873641968</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5366907119751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6505393981934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4892539978027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7643880844116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8687505722046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1818342208862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.162859916687</t>
+    <t xml:space="preserve">11.5366897583008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6505403518677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4892549514771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7643890380859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8687496185303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1818351745605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1628589630127</t>
   </si>
   <si>
     <t xml:space="preserve">12.2956838607788</t>
@@ -1124,85 +1124,85 @@
     <t xml:space="preserve">12.4569692611694</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4285097122192</t>
+    <t xml:space="preserve">12.4285078048706</t>
   </si>
   <si>
     <t xml:space="preserve">12.2577342987061</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8308019638062</t>
+    <t xml:space="preserve">11.8308010101318</t>
   </si>
   <si>
     <t xml:space="preserve">12.2197847366333</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6372299194336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6467180252075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5992813110352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7321043014526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2349367141724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2254486083984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0546770095825</t>
+    <t xml:space="preserve">12.6372308731079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6467170715332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5992803573608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.732105255127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2349376678467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2254495620728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1875009536743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0546779632568</t>
   </si>
   <si>
     <t xml:space="preserve">13.5290479660034</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5669975280762</t>
+    <t xml:space="preserve">13.5669965744019</t>
   </si>
   <si>
     <t xml:space="preserve">13.6428966522217</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6618700027466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7093086242676</t>
+    <t xml:space="preserve">13.6618690490723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7093095779419</t>
   </si>
   <si>
     <t xml:space="preserve">13.6144342422485</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3582735061646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5764827728271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4057092666626</t>
+    <t xml:space="preserve">13.3582744598389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5764846801758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4057111740112</t>
   </si>
   <si>
     <t xml:space="preserve">13.0736513137817</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7131299972534</t>
+    <t xml:space="preserve">12.7131290435791</t>
   </si>
   <si>
     <t xml:space="preserve">12.5044059753418</t>
   </si>
   <si>
-    <t xml:space="preserve">12.475944519043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5613317489624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6087703704834</t>
+    <t xml:space="preserve">12.4759435653687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5613307952881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6087684631348</t>
   </si>
   <si>
     <t xml:space="preserve">12.9218530654907</t>
@@ -1211,25 +1211,25 @@
     <t xml:space="preserve">12.9787769317627</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9503164291382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6941566467285</t>
+    <t xml:space="preserve">12.9503154754639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6941537857056</t>
   </si>
   <si>
     <t xml:space="preserve">12.3810701370239</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3526096343994</t>
+    <t xml:space="preserve">12.3526077270508</t>
   </si>
   <si>
     <t xml:space="preserve">12.826979637146</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1400632858276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1969881057739</t>
+    <t xml:space="preserve">13.140064239502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1969890594482</t>
   </si>
   <si>
     <t xml:space="preserve">13.3677606582642</t>
@@ -1238,37 +1238,37 @@
     <t xml:space="preserve">13.5100736618042</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4341726303101</t>
+    <t xml:space="preserve">13.4341735839844</t>
   </si>
   <si>
     <t xml:space="preserve">13.4246854782104</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2633981704712</t>
+    <t xml:space="preserve">13.2634000778198</t>
   </si>
   <si>
     <t xml:space="preserve">13.443660736084</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3487873077393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9882650375366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9598026275635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3962230682373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6713590621948</t>
+    <t xml:space="preserve">13.3487863540649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9882640838623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9598016738892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3962240219116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6713600158691</t>
   </si>
   <si>
     <t xml:space="preserve">13.747257232666</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4151983261108</t>
+    <t xml:space="preserve">13.4151992797852</t>
   </si>
   <si>
     <t xml:space="preserve">13.8990564346313</t>
@@ -1277,16 +1277,16 @@
     <t xml:space="preserve">14.1077785491943</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2500915527344</t>
+    <t xml:space="preserve">14.2500896453857</t>
   </si>
   <si>
     <t xml:space="preserve">14.5062503814697</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4113779067993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6770238876343</t>
+    <t xml:space="preserve">14.4113750457764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6770248413086</t>
   </si>
   <si>
     <t xml:space="preserve">14.7149724960327</t>
@@ -1298,31 +1298,31 @@
     <t xml:space="preserve">15.028058052063</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9711332321167</t>
+    <t xml:space="preserve">14.971134185791</t>
   </si>
   <si>
     <t xml:space="preserve">15.2272930145264</t>
   </si>
   <si>
-    <t xml:space="preserve">15.084981918335</t>
+    <t xml:space="preserve">15.0849828720093</t>
   </si>
   <si>
     <t xml:space="preserve">15.1134443283081</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1513938903809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0185699462891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0090847015381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.828821182251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7054853439331</t>
+    <t xml:space="preserve">15.1513948440552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0185708999634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0090837478638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8288230895996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7054862976074</t>
   </si>
   <si>
     <t xml:space="preserve">15.284218788147</t>
@@ -1331,25 +1331,25 @@
     <t xml:space="preserve">15.3885793685913</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3601179122925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3696069717407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5593528747559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5119152069092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6732025146484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7775621414185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5403785705566</t>
+    <t xml:space="preserve">15.3601188659668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3696050643921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5593547821045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5119180679321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6732015609741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7775640487671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.540376663208</t>
   </si>
   <si>
     <t xml:space="preserve">15.1324195861816</t>
@@ -1358,13 +1358,13 @@
     <t xml:space="preserve">15.4644794464111</t>
   </si>
   <si>
-    <t xml:space="preserve">14.932915687561</t>
+    <t xml:space="preserve">14.9329175949097</t>
   </si>
   <si>
     <t xml:space="preserve">14.7800531387329</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4552154541016</t>
+    <t xml:space="preserve">14.4552173614502</t>
   </si>
   <si>
     <t xml:space="preserve">14.722728729248</t>
@@ -1373,13 +1373,13 @@
     <t xml:space="preserve">14.8469314575195</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9902410507202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.034839630127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5125417709351</t>
+    <t xml:space="preserve">14.9902420043945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0348386764526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5125398635864</t>
   </si>
   <si>
     <t xml:space="preserve">14.7322826385498</t>
@@ -1388,16 +1388,16 @@
     <t xml:space="preserve">14.7418375015259</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3055238723755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6112518310547</t>
+    <t xml:space="preserve">15.3055229187012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6112508773804</t>
   </si>
   <si>
     <t xml:space="preserve">16.2418155670166</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5857601165771</t>
+    <t xml:space="preserve">16.5857620239258</t>
   </si>
   <si>
     <t xml:space="preserve">16.2800331115723</t>
@@ -1406,64 +1406,64 @@
     <t xml:space="preserve">16.2895851135254</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3278026580811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3373546600342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4520053863525</t>
+    <t xml:space="preserve">16.3278007507324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3373603820801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4520015716553</t>
   </si>
   <si>
     <t xml:space="preserve">16.2322616577148</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1940479278564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6526374816895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.853271484375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7959518432617</t>
+    <t xml:space="preserve">16.1940460205078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6526393890381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8532733917236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7959480285645</t>
   </si>
   <si>
     <t xml:space="preserve">16.7004089355469</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4328994750977</t>
+    <t xml:space="preserve">16.4328956604004</t>
   </si>
   <si>
     <t xml:space="preserve">16.3851261138916</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8055019378662</t>
+    <t xml:space="preserve">16.8055038452148</t>
   </si>
   <si>
     <t xml:space="preserve">16.9679203033447</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0156898498535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1781101226807</t>
+    <t xml:space="preserve">17.0156936645508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.178108215332</t>
   </si>
   <si>
     <t xml:space="preserve">17.0539073944092</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9010448455811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.49977684021</t>
+    <t xml:space="preserve">16.9010429382324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4997730255127</t>
   </si>
   <si>
     <t xml:space="preserve">16.576208114624</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3469104766846</t>
+    <t xml:space="preserve">16.3469123840332</t>
   </si>
   <si>
     <t xml:space="preserve">16.528434753418</t>
@@ -1472,19 +1472,19 @@
     <t xml:space="preserve">16.6812992095947</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4902229309082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6430835723877</t>
+    <t xml:space="preserve">16.4902210235596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6430854797363</t>
   </si>
   <si>
     <t xml:space="preserve">17.2354335784912</t>
   </si>
   <si>
-    <t xml:space="preserve">17.674919128418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0857391357422</t>
+    <t xml:space="preserve">17.6749172210693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0857410430908</t>
   </si>
   <si>
     <t xml:space="preserve">17.5793762207031</t>
@@ -1493,13 +1493,13 @@
     <t xml:space="preserve">18.2194957733154</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3054809570312</t>
+    <t xml:space="preserve">18.3054828643799</t>
   </si>
   <si>
     <t xml:space="preserve">18.8596153259277</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2768211364746</t>
+    <t xml:space="preserve">18.276819229126</t>
   </si>
   <si>
     <t xml:space="preserve">18.5538864135742</t>
@@ -1508,10 +1508,10 @@
     <t xml:space="preserve">18.3914680480957</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2099437713623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9997539520264</t>
+    <t xml:space="preserve">18.2099418640137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9997520446777</t>
   </si>
   <si>
     <t xml:space="preserve">17.7704582214355</t>
@@ -1520,10 +1520,10 @@
     <t xml:space="preserve">17.9233226776123</t>
   </si>
   <si>
-    <t xml:space="preserve">17.894660949707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4392375946045</t>
+    <t xml:space="preserve">17.8946590423584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4392395019531</t>
   </si>
   <si>
     <t xml:space="preserve">18.5156707763672</t>
@@ -1532,16 +1532,16 @@
     <t xml:space="preserve">18.3437004089355</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1717262268066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2481575012207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.35325050354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2003898620605</t>
+    <t xml:space="preserve">18.1717281341553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2481594085693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3532524108887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2003879547119</t>
   </si>
   <si>
     <t xml:space="preserve">18.0761852264404</t>
@@ -1550,34 +1550,34 @@
     <t xml:space="preserve">18.1430644989014</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7131328582764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5347785949707</t>
+    <t xml:space="preserve">17.713134765625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5347766876221</t>
   </si>
   <si>
     <t xml:space="preserve">17.9710941314697</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1526203155518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.888277053833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4901790618896</t>
+    <t xml:space="preserve">18.1526165008545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8882789611816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4901809692383</t>
   </si>
   <si>
     <t xml:space="preserve">19.5666122436523</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5283966064453</t>
+    <t xml:space="preserve">19.5283946990967</t>
   </si>
   <si>
     <t xml:space="preserve">19.3373146057129</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2035598754883</t>
+    <t xml:space="preserve">19.2035579681396</t>
   </si>
   <si>
     <t xml:space="preserve">18.8691673278809</t>
@@ -1586,28 +1586,28 @@
     <t xml:space="preserve">18.5921039581299</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6685352325439</t>
+    <t xml:space="preserve">18.6685371398926</t>
   </si>
   <si>
     <t xml:space="preserve">18.9169387817383</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1080169677734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8309516906738</t>
+    <t xml:space="preserve">19.1080188751221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8309497833252</t>
   </si>
   <si>
     <t xml:space="preserve">18.2863750457764</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6494274139404</t>
+    <t xml:space="preserve">18.6494255065918</t>
   </si>
   <si>
     <t xml:space="preserve">18.1812801361084</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4360694885254</t>
+    <t xml:space="preserve">17.4360675811768</t>
   </si>
   <si>
     <t xml:space="preserve">16.6908531188965</t>
@@ -1616,16 +1616,16 @@
     <t xml:space="preserve">15.5730361938477</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7067937850952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7927780151367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1239967346191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5443735122681</t>
+    <t xml:space="preserve">15.7067928314209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7927799224854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1239976882935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5443744659424</t>
   </si>
   <si>
     <t xml:space="preserve">15.5825881958008</t>
@@ -1634,10 +1634,10 @@
     <t xml:space="preserve">15.9265327453613</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8501033782959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0666732788086</t>
+    <t xml:space="preserve">15.8501005172729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0666742324829</t>
   </si>
   <si>
     <t xml:space="preserve">15.1908750534058</t>
@@ -1652,16 +1652,16 @@
     <t xml:space="preserve">15.1335506439209</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9615783691406</t>
+    <t xml:space="preserve">14.9615793228149</t>
   </si>
   <si>
     <t xml:space="preserve">14.7704982757568</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8182687759399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7896060943604</t>
+    <t xml:space="preserve">14.8182678222656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7896070480347</t>
   </si>
   <si>
     <t xml:space="preserve">14.7609443664551</t>
@@ -1670,7 +1670,7 @@
     <t xml:space="preserve">15.0475654602051</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1717672348022</t>
+    <t xml:space="preserve">15.1717662811279</t>
   </si>
   <si>
     <t xml:space="preserve">14.9042558670044</t>
@@ -1682,19 +1682,19 @@
     <t xml:space="preserve">13.8342056274414</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2323026657104</t>
+    <t xml:space="preserve">13.2323036193848</t>
   </si>
   <si>
     <t xml:space="preserve">13.1845331192017</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4902610778809</t>
+    <t xml:space="preserve">13.4902620315552</t>
   </si>
   <si>
     <t xml:space="preserve">13.366060256958</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4998149871826</t>
+    <t xml:space="preserve">13.4998159408569</t>
   </si>
   <si>
     <t xml:space="preserve">13.7577724456787</t>
@@ -1706,10 +1706,10 @@
     <t xml:space="preserve">13.3278436660767</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9775171279907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1208248138428</t>
+    <t xml:space="preserve">13.9775161743164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1208257675171</t>
   </si>
   <si>
     <t xml:space="preserve">14.6080808639526</t>
@@ -1718,7 +1718,7 @@
     <t xml:space="preserve">14.3310146331787</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2736902236938</t>
+    <t xml:space="preserve">14.2736911773682</t>
   </si>
   <si>
     <t xml:space="preserve">14.4170007705688</t>
@@ -1733,7 +1733,7 @@
     <t xml:space="preserve">13.8437595367432</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7004499435425</t>
+    <t xml:space="preserve">13.7004508972168</t>
   </si>
   <si>
     <t xml:space="preserve">13.8628673553467</t>
@@ -1742,43 +1742,43 @@
     <t xml:space="preserve">14.0061779022217</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0539474487305</t>
+    <t xml:space="preserve">14.0539484024048</t>
   </si>
   <si>
     <t xml:space="preserve">14.5316486358643</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8819761276245</t>
+    <t xml:space="preserve">13.8819751739502</t>
   </si>
   <si>
     <t xml:space="preserve">12.8214807510376</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4233827590942</t>
+    <t xml:space="preserve">13.4233846664429</t>
   </si>
   <si>
     <t xml:space="preserve">13.2896280288696</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8533134460449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1781520843506</t>
+    <t xml:space="preserve">13.8533143997192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.178150177002</t>
   </si>
   <si>
     <t xml:space="preserve">14.9520244598389</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3724012374878</t>
+    <t xml:space="preserve">15.3724021911621</t>
   </si>
   <si>
     <t xml:space="preserve">14.999794960022</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2004299163818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2959690093994</t>
+    <t xml:space="preserve">15.2004289627075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2959680557251</t>
   </si>
   <si>
     <t xml:space="preserve">15.2673072814941</t>
@@ -1787,70 +1787,70 @@
     <t xml:space="preserve">15.4297246932983</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4774971008301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4106168746948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2577524185181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1431064605713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0380115509033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9424715042114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9806880950928</t>
+    <t xml:space="preserve">15.4774961471558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4106159210205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2577543258667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.143105506897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.038010597229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9424724578857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9806871414185</t>
   </si>
   <si>
     <t xml:space="preserve">15.0571193695068</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7354526519775</t>
+    <t xml:space="preserve">15.7354545593262</t>
   </si>
   <si>
     <t xml:space="preserve">15.8309936523438</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1813220977783</t>
+    <t xml:space="preserve">15.1813230514526</t>
   </si>
   <si>
     <t xml:space="preserve">15.3341846466064</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6685762405396</t>
+    <t xml:space="preserve">15.6685771942139</t>
   </si>
   <si>
     <t xml:space="preserve">15.5539283752441</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5157117843628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.894700050354</t>
+    <t xml:space="preserve">15.5157108306885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8947010040283</t>
   </si>
   <si>
     <t xml:space="preserve">15.0189027786255</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3437395095825</t>
+    <t xml:space="preserve">15.3437385559082</t>
   </si>
   <si>
     <t xml:space="preserve">15.3150787353516</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5634822845459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4870500564575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6303596496582</t>
+    <t xml:space="preserve">15.5634832382202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4870481491089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6303586959839</t>
   </si>
   <si>
     <t xml:space="preserve">15.859655380249</t>
@@ -1859,40 +1859,40 @@
     <t xml:space="preserve">16.5570983886719</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0889549255371</t>
+    <t xml:space="preserve">16.0889530181885</t>
   </si>
   <si>
     <t xml:space="preserve">15.3819561004639</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9074249267578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8150596618652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9774742126465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6239776611328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3182487487793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3564643859863</t>
+    <t xml:space="preserve">15.9074258804321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8150577545166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9774761199951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6239757537842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3182468414307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.356466293335</t>
   </si>
   <si>
     <t xml:space="preserve">16.8819332122803</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5475444793701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9392566680908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.862829208374</t>
+    <t xml:space="preserve">16.5475463867188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9392604827881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8628273010254</t>
   </si>
   <si>
     <t xml:space="preserve">17.0252456665039</t>
@@ -1901,46 +1901,46 @@
     <t xml:space="preserve">16.9965839385986</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3755722045898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0220756530762</t>
+    <t xml:space="preserve">16.3755683898926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0220775604248</t>
   </si>
   <si>
     <t xml:space="preserve">16.0125198364258</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0507354736328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9743041992188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4806671142578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3660182952881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0411834716797</t>
+    <t xml:space="preserve">16.0507335662842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9743022918701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4806652069092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3660163879395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0411853790283</t>
   </si>
   <si>
     <t xml:space="preserve">17.6366996765137</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7991218566895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2290515899658</t>
+    <t xml:space="preserve">17.7991180419922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2290496826172</t>
   </si>
   <si>
     <t xml:space="preserve">17.4456214904785</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4169578552246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9615383148193</t>
+    <t xml:space="preserve">17.4169597625732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.961540222168</t>
   </si>
   <si>
     <t xml:space="preserve">18.8118457794189</t>
@@ -1952,13 +1952,13 @@
     <t xml:space="preserve">19.0160961151123</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7474842071533</t>
+    <t xml:space="preserve">19.747486114502</t>
   </si>
   <si>
     <t xml:space="preserve">19.6512470245361</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0738372802734</t>
+    <t xml:space="preserve">19.0738353729248</t>
   </si>
   <si>
     <t xml:space="preserve">19.0930824279785</t>
@@ -1967,52 +1967,52 @@
     <t xml:space="preserve">19.1315765380859</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7370090484619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8524951934814</t>
+    <t xml:space="preserve">18.7370109558105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8524971008301</t>
   </si>
   <si>
     <t xml:space="preserve">19.1123313903809</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1796970367432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3817882537842</t>
+    <t xml:space="preserve">19.1796951293945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3817901611328</t>
   </si>
   <si>
     <t xml:space="preserve">19.5357646942139</t>
   </si>
   <si>
-    <t xml:space="preserve">19.237434387207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3432960510254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2663078308105</t>
+    <t xml:space="preserve">19.2374362945557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3432922363281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2663059234619</t>
   </si>
   <si>
     <t xml:space="preserve">19.4010372161865</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0554351806641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3056449890137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4211292266846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7483291625977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7098350524902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9600467681885</t>
+    <t xml:space="preserve">20.0554370880127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3056488037109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4211273193359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.748327255249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7098369598389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9600486755371</t>
   </si>
   <si>
     <t xml:space="preserve">20.1131763458252</t>
@@ -2024,10 +2024,10 @@
     <t xml:space="preserve">19.6320018768311</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4587783813477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7859764099121</t>
+    <t xml:space="preserve">19.458776473999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7859783172607</t>
   </si>
   <si>
     <t xml:space="preserve">19.8244705200195</t>
@@ -2042,19 +2042,19 @@
     <t xml:space="preserve">19.8052253723145</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7089900970459</t>
+    <t xml:space="preserve">19.7089881896973</t>
   </si>
   <si>
     <t xml:space="preserve">19.8822135925293</t>
   </si>
   <si>
-    <t xml:space="preserve">20.459623336792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4403762817383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3826351165771</t>
+    <t xml:space="preserve">20.4596252441406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4403781890869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3826370239258</t>
   </si>
   <si>
     <t xml:space="preserve">20.8638134002686</t>
@@ -2063,7 +2063,7 @@
     <t xml:space="preserve">20.8445663452148</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5751075744629</t>
+    <t xml:space="preserve">20.5751056671143</t>
   </si>
   <si>
     <t xml:space="preserve">20.1901664733887</t>
@@ -2075,13 +2075,13 @@
     <t xml:space="preserve">20.3441410064697</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4412250518799</t>
+    <t xml:space="preserve">21.4412231445312</t>
   </si>
   <si>
     <t xml:space="preserve">21.3449897766113</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5943508148193</t>
+    <t xml:space="preserve">20.594352722168</t>
   </si>
   <si>
     <t xml:space="preserve">20.1709175109863</t>
@@ -2090,7 +2090,7 @@
     <t xml:space="preserve">20.7290840148926</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1525192260742</t>
+    <t xml:space="preserve">21.1525173187256</t>
   </si>
   <si>
     <t xml:space="preserve">21.2680015563965</t>
@@ -2099,31 +2099,31 @@
     <t xml:space="preserve">21.325740814209</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4219760894775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.191011428833</t>
+    <t xml:space="preserve">21.4219779968262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1910133361816</t>
   </si>
   <si>
     <t xml:space="preserve">21.4604721069336</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0186347961426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6537895202637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7307758331299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6922817230225</t>
+    <t xml:space="preserve">22.0186367034912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6537933349609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7307796478271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6922836303711</t>
   </si>
   <si>
     <t xml:space="preserve">22.2688484191895</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4228248596191</t>
+    <t xml:space="preserve">22.4228229522705</t>
   </si>
   <si>
     <t xml:space="preserve">22.1341190338135</t>
@@ -2135,19 +2135,19 @@
     <t xml:space="preserve">22.4805660247803</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7692737579346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9232501983643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9809856414795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.230354309082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4035758972168</t>
+    <t xml:space="preserve">22.7692680358887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9232482910156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9809894561768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2303524017334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4035797119141</t>
   </si>
   <si>
     <t xml:space="preserve">21.5182132720947</t>
@@ -2165,40 +2165,40 @@
     <t xml:space="preserve">20.9408016204834</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0370349884033</t>
+    <t xml:space="preserve">21.037036895752</t>
   </si>
   <si>
     <t xml:space="preserve">21.2487525939941</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9031524658203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6721878051758</t>
+    <t xml:space="preserve">21.9031543731689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6721897125244</t>
   </si>
   <si>
     <t xml:space="preserve">21.3834819793701</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5374584197998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7684230804443</t>
+    <t xml:space="preserve">21.5374603271484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7684268951416</t>
   </si>
   <si>
     <t xml:space="preserve">21.8454132080078</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6529445648193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7491779327393</t>
+    <t xml:space="preserve">21.6529407501221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7491798400879</t>
   </si>
   <si>
     <t xml:space="preserve">20.8060703277588</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7675800323486</t>
+    <t xml:space="preserve">20.767578125</t>
   </si>
   <si>
     <t xml:space="preserve">20.6520938873291</t>
@@ -2207,46 +2207,46 @@
     <t xml:space="preserve">21.0177898406982</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5366115570068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0562839508057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0947761535645</t>
+    <t xml:space="preserve">20.5366134643555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0562801361084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0947780609131</t>
   </si>
   <si>
     <t xml:space="preserve">20.4788722991943</t>
   </si>
   <si>
-    <t xml:space="preserve">20.498119354248</t>
+    <t xml:space="preserve">20.4981174468994</t>
   </si>
   <si>
     <t xml:space="preserve">21.9993896484375</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1918601989746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7115325927734</t>
+    <t xml:space="preserve">22.191858291626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7115287780762</t>
   </si>
   <si>
     <t xml:space="preserve">22.8270130157471</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1927051544189</t>
+    <t xml:space="preserve">23.1927070617676</t>
   </si>
   <si>
     <t xml:space="preserve">23.6353893280029</t>
   </si>
   <si>
-    <t xml:space="preserve">23.9048461914062</t>
+    <t xml:space="preserve">23.9048480987549</t>
   </si>
   <si>
     <t xml:space="preserve">24.097318649292</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7508735656738</t>
+    <t xml:space="preserve">23.7508716583252</t>
   </si>
   <si>
     <t xml:space="preserve">24.2705421447754</t>
@@ -2255,7 +2255,7 @@
     <t xml:space="preserve">23.9818363189697</t>
   </si>
   <si>
-    <t xml:space="preserve">24.0588226318359</t>
+    <t xml:space="preserve">24.0588264465332</t>
   </si>
   <si>
     <t xml:space="preserve">24.1550598144531</t>
@@ -2264,13 +2264,13 @@
     <t xml:space="preserve">24.5592479705811</t>
   </si>
   <si>
-    <t xml:space="preserve">25.0596733093262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2906360626221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5600929260254</t>
+    <t xml:space="preserve">25.0596714019775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2906379699707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.560094833374</t>
   </si>
   <si>
     <t xml:space="preserve">24.5207538604736</t>
@@ -2279,19 +2279,19 @@
     <t xml:space="preserve">25.1751537322998</t>
   </si>
   <si>
-    <t xml:space="preserve">25.4831066131592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1174144744873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2136478424072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8094596862793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1366596221924</t>
+    <t xml:space="preserve">25.4831047058105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.11741065979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2136497497559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8094615936279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.136661529541</t>
   </si>
   <si>
     <t xml:space="preserve">25.0211772918701</t>
@@ -2300,28 +2300,28 @@
     <t xml:space="preserve">24.828706741333</t>
   </si>
   <si>
-    <t xml:space="preserve">24.6362342834473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7324714660645</t>
+    <t xml:space="preserve">24.6362380981445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7324695587158</t>
   </si>
   <si>
     <t xml:space="preserve">24.5400009155273</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8479537963867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8672027587891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6747303009033</t>
+    <t xml:space="preserve">24.8479518890381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8672008514404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6747283935547</t>
   </si>
   <si>
     <t xml:space="preserve">24.7517166137695</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7709674835205</t>
+    <t xml:space="preserve">24.7709636688232</t>
   </si>
   <si>
     <t xml:space="preserve">24.8864479064941</t>
@@ -2333,22 +2333,22 @@
     <t xml:space="preserve">25.5408477783203</t>
   </si>
   <si>
-    <t xml:space="preserve">25.0404224395752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1944007873535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.406120300293</t>
+    <t xml:space="preserve">25.0404262542725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1944026947021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4061164855957</t>
   </si>
   <si>
     <t xml:space="preserve">25.964282989502</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8103084564209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7525653839111</t>
+    <t xml:space="preserve">25.8103046417236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7525634765625</t>
   </si>
   <si>
     <t xml:space="preserve">25.3483772277832</t>
@@ -2357,40 +2357,40 @@
     <t xml:space="preserve">26.0220260620117</t>
   </si>
   <si>
-    <t xml:space="preserve">24.963436126709</t>
+    <t xml:space="preserve">24.9634380340576</t>
   </si>
   <si>
     <t xml:space="preserve">24.7132244110107</t>
   </si>
   <si>
-    <t xml:space="preserve">25.098165512085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8680458068848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4262142181396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4839534759521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.599437713623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.3500709533691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.427059173584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.7350120544434</t>
+    <t xml:space="preserve">25.0981636047363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8680477142334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.426212310791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4839553833008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5994358062744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.3500728607178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.4270610809326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.735013961792</t>
   </si>
   <si>
     <t xml:space="preserve">27.9082355499268</t>
   </si>
   <si>
-    <t xml:space="preserve">28.0429668426514</t>
+    <t xml:space="preserve">28.0429649353027</t>
   </si>
   <si>
     <t xml:space="preserve">28.4086608886719</t>
@@ -2399,55 +2399,55 @@
     <t xml:space="preserve">29.0053195953369</t>
   </si>
   <si>
-    <t xml:space="preserve">28.5048942565918</t>
+    <t xml:space="preserve">28.5048961639404</t>
   </si>
   <si>
     <t xml:space="preserve">28.1007061004639</t>
   </si>
   <si>
-    <t xml:space="preserve">26.1760025024414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4253635406494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.790210723877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7893657684326</t>
+    <t xml:space="preserve">26.1760005950928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.425365447998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7902145385742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7893619537354</t>
   </si>
   <si>
     <t xml:space="preserve">24.6554851531982</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6161403656006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9784488677979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4972705841064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7055997848511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4570846557617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8499517440796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2445182800293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0336475372314</t>
+    <t xml:space="preserve">23.6161422729492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9784469604492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4972724914551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7056007385254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4570827484131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8499536514282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2445163726807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0336494445801</t>
   </si>
   <si>
     <t xml:space="preserve">17.6591777801514</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8805179595947</t>
+    <t xml:space="preserve">17.8805160522461</t>
   </si>
   <si>
     <t xml:space="preserve">18.2750816345215</t>
@@ -2456,37 +2456,37 @@
     <t xml:space="preserve">18.9776020050049</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2847061157227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3616924285889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2558364868164</t>
+    <t xml:space="preserve">18.284704208374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3616943359375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2558345794678</t>
   </si>
   <si>
     <t xml:space="preserve">18.0152454376221</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5148258209229</t>
+    <t xml:space="preserve">17.5148239135742</t>
   </si>
   <si>
     <t xml:space="preserve">17.5436935424805</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9374103546143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7842807769775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9294834136963</t>
+    <t xml:space="preserve">16.9374122619629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7842845916748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9294853210449</t>
   </si>
   <si>
     <t xml:space="preserve">18.5734119415283</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5878486633301</t>
+    <t xml:space="preserve">18.5878505706787</t>
   </si>
   <si>
     <t xml:space="preserve">18.9102344512939</t>
@@ -2498,10 +2498,10 @@
     <t xml:space="preserve">21.0274143218994</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4202823638916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.992036819458</t>
+    <t xml:space="preserve">19.4202842712402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9920387268066</t>
   </si>
   <si>
     <t xml:space="preserve">20.1612949371338</t>
@@ -2513,7 +2513,7 @@
     <t xml:space="preserve">20.1420478820801</t>
   </si>
   <si>
-    <t xml:space="preserve">20.122802734375</t>
+    <t xml:space="preserve">20.1228008270264</t>
   </si>
   <si>
     <t xml:space="preserve">19.9207077026367</t>
@@ -2522,31 +2522,31 @@
     <t xml:space="preserve">20.8349418640137</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9320240020752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5470809936523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5094356536865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9608936309814</t>
+    <t xml:space="preserve">21.9320259094238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5470848083496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5094337463379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9608955383301</t>
   </si>
   <si>
     <t xml:space="preserve">21.1813888549805</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5952014923096</t>
+    <t xml:space="preserve">21.5952033996582</t>
   </si>
   <si>
     <t xml:space="preserve">22.186450958252</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2656517028809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3221492767334</t>
+    <t xml:space="preserve">21.2656536102295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.322151184082</t>
   </si>
   <si>
     <t xml:space="preserve">21.9829063415527</t>
@@ -2555,10 +2555,10 @@
     <t xml:space="preserve">22.2930717468262</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3786487579346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4852657318115</t>
+    <t xml:space="preserve">23.3786468505859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4852638244629</t>
   </si>
   <si>
     <t xml:space="preserve">22.6129283905029</t>
@@ -2567,10 +2567,10 @@
     <t xml:space="preserve">23.8535861968994</t>
   </si>
   <si>
-    <t xml:space="preserve">24.1831378936768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8729686737061</t>
+    <t xml:space="preserve">24.1831359863281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8729705810547</t>
   </si>
   <si>
     <t xml:space="preserve">24.2025203704834</t>
@@ -2579,19 +2579,19 @@
     <t xml:space="preserve">24.1734428405762</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7081966400146</t>
+    <t xml:space="preserve">23.708194732666</t>
   </si>
   <si>
     <t xml:space="preserve">23.029712677002</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9715557098389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9909420013428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2155284881592</t>
+    <t xml:space="preserve">22.9715576171875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9909400939941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2155303955078</t>
   </si>
   <si>
     <t xml:space="preserve">22.3996906280518</t>
@@ -2600,7 +2600,7 @@
     <t xml:space="preserve">23.0394058227539</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2817211151123</t>
+    <t xml:space="preserve">23.2817192077637</t>
   </si>
   <si>
     <t xml:space="preserve">23.6500396728516</t>
@@ -2609,46 +2609,46 @@
     <t xml:space="preserve">23.02001953125</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0490970611572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4949569702148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8148155212402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7583179473877</t>
+    <t xml:space="preserve">23.0490989685059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4949588775635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8148136138916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7583160400391</t>
   </si>
   <si>
     <t xml:space="preserve">22.8164749145508</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8940143585205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7970886230469</t>
+    <t xml:space="preserve">22.8940162658691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7970905303955</t>
   </si>
   <si>
     <t xml:space="preserve">22.9812469482422</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0781745910645</t>
+    <t xml:space="preserve">23.0781764984131</t>
   </si>
   <si>
     <t xml:space="preserve">23.620964050293</t>
   </si>
   <si>
-    <t xml:space="preserve">23.5918827056885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8923587799072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0959014892578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1928272247314</t>
+    <t xml:space="preserve">23.5918846130371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.89235496521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0959033966064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1928291320801</t>
   </si>
   <si>
     <t xml:space="preserve">24.0668239593506</t>
@@ -2663,37 +2663,37 @@
     <t xml:space="preserve">24.6871528625488</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1039352416992</t>
+    <t xml:space="preserve">25.1039371490479</t>
   </si>
   <si>
     <t xml:space="preserve">25.0263957977295</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6564159393311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4431800842285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2977905273438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4334869384766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1233234405518</t>
+    <t xml:space="preserve">25.6564178466797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4431781768799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2977886199951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4334850311279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1233215332031</t>
   </si>
   <si>
     <t xml:space="preserve">25.317174911499</t>
   </si>
   <si>
-    <t xml:space="preserve">25.5110263824463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9552307128906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9067687988281</t>
+    <t xml:space="preserve">25.5110282897949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9552326202393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9067668914795</t>
   </si>
   <si>
     <t xml:space="preserve">28.0601921081543</t>
@@ -2702,7 +2702,7 @@
     <t xml:space="preserve">28.6514415740967</t>
   </si>
   <si>
-    <t xml:space="preserve">27.9148006439209</t>
+    <t xml:space="preserve">27.9148025512695</t>
   </si>
   <si>
     <t xml:space="preserve">28.0020351409912</t>
@@ -2717,25 +2717,25 @@
     <t xml:space="preserve">27.4204788208008</t>
   </si>
   <si>
-    <t xml:space="preserve">27.4398612976074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.7887954711914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.6337146759033</t>
+    <t xml:space="preserve">27.4398632049561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.78879737854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.633716583252</t>
   </si>
   <si>
     <t xml:space="preserve">27.45924949646</t>
   </si>
   <si>
-    <t xml:space="preserve">27.6918716430664</t>
+    <t xml:space="preserve">27.6918697357178</t>
   </si>
   <si>
     <t xml:space="preserve">26.9649257659912</t>
   </si>
   <si>
-    <t xml:space="preserve">27.449556350708</t>
+    <t xml:space="preserve">27.4495544433594</t>
   </si>
   <si>
     <t xml:space="preserve">27.1103134155273</t>
@@ -2744,16 +2744,16 @@
     <t xml:space="preserve">26.8970737457275</t>
   </si>
   <si>
-    <t xml:space="preserve">26.848611831665</t>
+    <t xml:space="preserve">26.8486137390137</t>
   </si>
   <si>
     <t xml:space="preserve">27.0618495941162</t>
   </si>
   <si>
-    <t xml:space="preserve">26.935848236084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6547584533691</t>
+    <t xml:space="preserve">26.9358463287354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6547603607178</t>
   </si>
   <si>
     <t xml:space="preserve">26.8583030700684</t>
@@ -2762,22 +2762,22 @@
     <t xml:space="preserve">28.0117282867432</t>
   </si>
   <si>
-    <t xml:space="preserve">27.0715427398682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.1587772369385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.6240234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.7984924316406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.8566455841064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.6029815673828</t>
+    <t xml:space="preserve">27.0715446472168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.1587753295898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.6240215301514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.798490524292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.8566474914551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.6029796600342</t>
   </si>
   <si>
     <t xml:space="preserve">28.7774486541748</t>
@@ -2786,16 +2786,16 @@
     <t xml:space="preserve">28.9325294494629</t>
   </si>
   <si>
-    <t xml:space="preserve">29.4268531799316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.2233066558838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.1263828277588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.9923419952393</t>
+    <t xml:space="preserve">29.4268550872803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.2233085632324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.1263809204102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9923439025879</t>
   </si>
   <si>
     <t xml:space="preserve">28.0698833465576</t>
@@ -2804,31 +2804,31 @@
     <t xml:space="preserve">27.8857250213623</t>
   </si>
   <si>
-    <t xml:space="preserve">28.0989627838135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.8242530822754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.4155044555664</t>
+    <t xml:space="preserve">28.0989608764648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.8242511749268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.4155006408691</t>
   </si>
   <si>
     <t xml:space="preserve">29.6110134124756</t>
   </si>
   <si>
-    <t xml:space="preserve">29.921178817749</t>
+    <t xml:space="preserve">29.9211807250977</t>
   </si>
   <si>
     <t xml:space="preserve">30.279806137085</t>
   </si>
   <si>
-    <t xml:space="preserve">30.4736595153809</t>
+    <t xml:space="preserve">30.4736614227295</t>
   </si>
   <si>
     <t xml:space="preserve">29.6013202667236</t>
   </si>
   <si>
-    <t xml:space="preserve">29.7660961151123</t>
+    <t xml:space="preserve">29.7660942077637</t>
   </si>
   <si>
     <t xml:space="preserve">30.2507266998291</t>
@@ -2843,10 +2843,10 @@
     <t xml:space="preserve">31.2103004455566</t>
   </si>
   <si>
-    <t xml:space="preserve">30.9970626831055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.384765625</t>
+    <t xml:space="preserve">30.9970607757568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3847675323486</t>
   </si>
   <si>
     <t xml:space="preserve">31.2006053924561</t>
@@ -2855,7 +2855,7 @@
     <t xml:space="preserve">31.394458770752</t>
   </si>
   <si>
-    <t xml:space="preserve">31.1812191009521</t>
+    <t xml:space="preserve">31.1812210083008</t>
   </si>
   <si>
     <t xml:space="preserve">31.1424541473389</t>
@@ -2864,7 +2864,7 @@
     <t xml:space="preserve">31.278148651123</t>
   </si>
   <si>
-    <t xml:space="preserve">30.938907623291</t>
+    <t xml:space="preserve">30.9389057159424</t>
   </si>
   <si>
     <t xml:space="preserve">31.0164470672607</t>
@@ -2876,7 +2876,7 @@
     <t xml:space="preserve">29.6497840881348</t>
   </si>
   <si>
-    <t xml:space="preserve">31.3653812408447</t>
+    <t xml:space="preserve">31.365385055542</t>
   </si>
   <si>
     <t xml:space="preserve">32.470344543457</t>
@@ -2885,22 +2885,22 @@
     <t xml:space="preserve">33.3911437988281</t>
   </si>
   <si>
-    <t xml:space="preserve">34.1568641662598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.8079299926758</t>
+    <t xml:space="preserve">34.156867980957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.8079261779785</t>
   </si>
   <si>
     <t xml:space="preserve">32.9549713134766</t>
   </si>
   <si>
-    <t xml:space="preserve">33.8273124694824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.0599327087402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.6414985656738</t>
+    <t xml:space="preserve">33.8273162841797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.0599365234375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.6414947509766</t>
   </si>
   <si>
     <t xml:space="preserve">33.9339332580566</t>
@@ -2915,22 +2915,22 @@
     <t xml:space="preserve">34.4379463195801</t>
   </si>
   <si>
-    <t xml:space="preserve">33.1488265991211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1585159301758</t>
+    <t xml:space="preserve">33.1488304138184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.158519744873</t>
   </si>
   <si>
     <t xml:space="preserve">33.3426818847656</t>
   </si>
   <si>
-    <t xml:space="preserve">31.9857120513916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.082633972168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.4509582519531</t>
+    <t xml:space="preserve">31.985710144043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0826377868652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.4509544372559</t>
   </si>
   <si>
     <t xml:space="preserve">33.2263679504395</t>
@@ -2939,22 +2939,22 @@
     <t xml:space="preserve">32.5381889343262</t>
   </si>
   <si>
-    <t xml:space="preserve">31.7240085601807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3459968566895</t>
+    <t xml:space="preserve">31.724006652832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3459949493408</t>
   </si>
   <si>
     <t xml:space="preserve">31.4816932678223</t>
   </si>
   <si>
-    <t xml:space="preserve">31.5980072021484</t>
+    <t xml:space="preserve">31.5980033874512</t>
   </si>
   <si>
     <t xml:space="preserve">31.3363056182861</t>
   </si>
   <si>
-    <t xml:space="preserve">31.54953956604</t>
+    <t xml:space="preserve">31.5495414733887</t>
   </si>
   <si>
     <t xml:space="preserve">32.0923309326172</t>
@@ -2972,10 +2972,10 @@
     <t xml:space="preserve">32.4218788146973</t>
   </si>
   <si>
-    <t xml:space="preserve">32.9065093994141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.1698684692383</t>
+    <t xml:space="preserve">32.9065132141113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.169864654541</t>
   </si>
   <si>
     <t xml:space="preserve">32.6932716369629</t>
@@ -2999,34 +2999,34 @@
     <t xml:space="preserve">32.0050964355469</t>
   </si>
   <si>
-    <t xml:space="preserve">31.6755447387695</t>
+    <t xml:space="preserve">31.6755466461182</t>
   </si>
   <si>
     <t xml:space="preserve">32.7998924255371</t>
   </si>
   <si>
-    <t xml:space="preserve">32.6448097229004</t>
+    <t xml:space="preserve">32.6448135375977</t>
   </si>
   <si>
     <t xml:space="preserve">32.5866546630859</t>
   </si>
   <si>
-    <t xml:space="preserve">32.8677406311035</t>
+    <t xml:space="preserve">32.8677444458008</t>
   </si>
   <si>
     <t xml:space="preserve">33.1100578308105</t>
   </si>
   <si>
-    <t xml:space="preserve">33.1391334533691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.2942199707031</t>
+    <t xml:space="preserve">33.1391372680664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.2942161560059</t>
   </si>
   <si>
     <t xml:space="preserve">33.0712852478027</t>
   </si>
   <si>
-    <t xml:space="preserve">32.8386611938477</t>
+    <t xml:space="preserve">32.8386650085449</t>
   </si>
   <si>
     <t xml:space="preserve">32.5478858947754</t>
@@ -3035,34 +3035,34 @@
     <t xml:space="preserve">32.5188064575195</t>
   </si>
   <si>
-    <t xml:space="preserve">33.0519027709961</t>
+    <t xml:space="preserve">33.0518989562988</t>
   </si>
   <si>
     <t xml:space="preserve">32.8095855712891</t>
   </si>
   <si>
-    <t xml:space="preserve">32.4024963378906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.5365295410156</t>
+    <t xml:space="preserve">32.4024925231934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.5365333557129</t>
   </si>
   <si>
     <t xml:space="preserve">34.3022499084473</t>
   </si>
   <si>
-    <t xml:space="preserve">35.1164321899414</t>
+    <t xml:space="preserve">35.1164360046387</t>
   </si>
   <si>
     <t xml:space="preserve">35.0001220703125</t>
   </si>
   <si>
-    <t xml:space="preserve">35.4653663635254</t>
+    <t xml:space="preserve">35.4653701782227</t>
   </si>
   <si>
     <t xml:space="preserve">35.4072113037109</t>
   </si>
   <si>
-    <t xml:space="preserve">35.5235252380371</t>
+    <t xml:space="preserve">35.5235214233398</t>
   </si>
   <si>
     <t xml:space="preserve">36.337703704834</t>
@@ -3071,40 +3071,40 @@
     <t xml:space="preserve">36.0856971740723</t>
   </si>
   <si>
-    <t xml:space="preserve">35.8627700805664</t>
+    <t xml:space="preserve">35.8627624511719</t>
   </si>
   <si>
     <t xml:space="preserve">34.7674980163574</t>
   </si>
   <si>
-    <t xml:space="preserve">34.4088668823242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.866081237793</t>
+    <t xml:space="preserve">34.4088706970215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.8660850524902</t>
   </si>
   <si>
     <t xml:space="preserve">33.8176231384277</t>
   </si>
   <si>
-    <t xml:space="preserve">32.2571029663086</t>
+    <t xml:space="preserve">32.2571067810059</t>
   </si>
   <si>
     <t xml:space="preserve">32.2861862182617</t>
   </si>
   <si>
-    <t xml:space="preserve">32.9452857971191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1972885131836</t>
+    <t xml:space="preserve">32.9452819824219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1972923278809</t>
   </si>
   <si>
     <t xml:space="preserve">30.4251956939697</t>
   </si>
   <si>
-    <t xml:space="preserve">29.9308700561523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.1166915893555</t>
+    <t xml:space="preserve">29.930871963501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.1166896820068</t>
   </si>
   <si>
     <t xml:space="preserve">29.4365482330322</t>
@@ -3116,19 +3116,19 @@
     <t xml:space="preserve">31.1036815643311</t>
   </si>
   <si>
-    <t xml:space="preserve">31.9469432830811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.9776744842529</t>
+    <t xml:space="preserve">31.9469375610352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.9776763916016</t>
   </si>
   <si>
     <t xml:space="preserve">31.1909122467041</t>
   </si>
   <si>
-    <t xml:space="preserve">31.5883159637451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0067539215088</t>
+    <t xml:space="preserve">31.5883121490479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0067558288574</t>
   </si>
   <si>
     <t xml:space="preserve">29.9793357849121</t>
@@ -3137,16 +3137,16 @@
     <t xml:space="preserve">30.5996627807617</t>
   </si>
   <si>
-    <t xml:space="preserve">32.140796661377</t>
+    <t xml:space="preserve">32.1407928466797</t>
   </si>
   <si>
     <t xml:space="preserve">30.861364364624</t>
   </si>
   <si>
-    <t xml:space="preserve">31.2296867370605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.1230640411377</t>
+    <t xml:space="preserve">31.2296848297119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.123067855835</t>
   </si>
   <si>
     <t xml:space="preserve">30.7644386291504</t>
@@ -3158,13 +3158,13 @@
     <t xml:space="preserve">31.7433967590332</t>
   </si>
   <si>
-    <t xml:space="preserve">31.4235382080078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0535621643066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.811243057251</t>
+    <t xml:space="preserve">31.4235363006592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0535583496094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8112468719482</t>
   </si>
   <si>
     <t xml:space="preserve">34.001781463623</t>
@@ -3182,13 +3182,13 @@
     <t xml:space="preserve">34.1277847290039</t>
   </si>
   <si>
-    <t xml:space="preserve">34.6899604797363</t>
+    <t xml:space="preserve">34.6899566650391</t>
   </si>
   <si>
     <t xml:space="preserve">34.7287292480469</t>
   </si>
   <si>
-    <t xml:space="preserve">35.5138320922852</t>
+    <t xml:space="preserve">35.5138282775879</t>
   </si>
   <si>
     <t xml:space="preserve">35.3490562438965</t>
@@ -3200,52 +3200,52 @@
     <t xml:space="preserve">33.604377746582</t>
   </si>
   <si>
-    <t xml:space="preserve">34.0502433776855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.3119430541992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.7303848266602</t>
+    <t xml:space="preserve">34.0502471923828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.3119468688965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.7303810119629</t>
   </si>
   <si>
     <t xml:space="preserve">34.602725982666</t>
   </si>
   <si>
-    <t xml:space="preserve">34.0793228149414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.7514305114746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3831062316895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3637237548828</t>
+    <t xml:space="preserve">34.0793190002441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.7514343261719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.383113861084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3637275695801</t>
   </si>
   <si>
     <t xml:space="preserve">32.567268371582</t>
   </si>
   <si>
-    <t xml:space="preserve">33.4396095275879</t>
+    <t xml:space="preserve">33.4396057128906</t>
   </si>
   <si>
     <t xml:space="preserve">33.6334609985352</t>
   </si>
   <si>
-    <t xml:space="preserve">35.3199806213379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.4218978881836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.2020225524902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.4999084472656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.3190422058105</t>
+    <t xml:space="preserve">35.3199768066406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.4219017028809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.202018737793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.4999122619629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.3190383911133</t>
   </si>
   <si>
     <t xml:space="preserve">37.6310882568359</t>
@@ -3254,7 +3254,7 @@
     <t xml:space="preserve">37.9821395874023</t>
   </si>
   <si>
-    <t xml:space="preserve">37.6798400878906</t>
+    <t xml:space="preserve">37.6798439025879</t>
   </si>
   <si>
     <t xml:space="preserve">37.5725746154785</t>
@@ -3266,22 +3266,22 @@
     <t xml:space="preserve">38.8110198974609</t>
   </si>
   <si>
-    <t xml:space="preserve">38.3331985473633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.4502105712891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.5867309570312</t>
+    <t xml:space="preserve">38.333194732666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.4502143859863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.5867347717285</t>
   </si>
   <si>
     <t xml:space="preserve">39.8349266052246</t>
   </si>
   <si>
-    <t xml:space="preserve">39.1913299560547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.2205810546875</t>
+    <t xml:space="preserve">39.1913261413574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.2205848693848</t>
   </si>
   <si>
     <t xml:space="preserve">39.9324417114258</t>
@@ -3308,10 +3308,10 @@
     <t xml:space="preserve">40.3420066833496</t>
   </si>
   <si>
-    <t xml:space="preserve">41.1026268005371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.6053009033203</t>
+    <t xml:space="preserve">41.1026229858398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.605297088623</t>
   </si>
   <si>
     <t xml:space="preserve">40.4005165100098</t>
@@ -3326,7 +3326,7 @@
     <t xml:space="preserve">40.3517608642578</t>
   </si>
   <si>
-    <t xml:space="preserve">40.5955505371094</t>
+    <t xml:space="preserve">40.5955467224121</t>
   </si>
   <si>
     <t xml:space="preserve">39.6594009399414</t>
@@ -3335,16 +3335,16 @@
     <t xml:space="preserve">37.1240081787109</t>
   </si>
   <si>
-    <t xml:space="preserve">38.1284103393555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.1186599731445</t>
+    <t xml:space="preserve">38.1284141540527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.1186637878418</t>
   </si>
   <si>
     <t xml:space="preserve">38.9475402832031</t>
   </si>
   <si>
-    <t xml:space="preserve">39.5618858337402</t>
+    <t xml:space="preserve">39.561882019043</t>
   </si>
   <si>
     <t xml:space="preserve">39.7471618652344</t>
@@ -3359,7 +3359,7 @@
     <t xml:space="preserve">39.7666664123535</t>
   </si>
   <si>
-    <t xml:space="preserve">39.4351196289062</t>
+    <t xml:space="preserve">39.435115814209</t>
   </si>
   <si>
     <t xml:space="preserve">40.0202102661133</t>
@@ -3392,10 +3392,10 @@
     <t xml:space="preserve">40.8685874938965</t>
   </si>
   <si>
-    <t xml:space="preserve">41.0538673400879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.6292037963867</t>
+    <t xml:space="preserve">41.0538635253906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.6291999816895</t>
   </si>
   <si>
     <t xml:space="preserve">41.7559776306152</t>
@@ -3407,7 +3407,7 @@
     <t xml:space="preserve">41.8437423706055</t>
   </si>
   <si>
-    <t xml:space="preserve">41.8534889221191</t>
+    <t xml:space="preserve">41.8534927368164</t>
   </si>
   <si>
     <t xml:space="preserve">42.1850395202637</t>
@@ -3425,19 +3425,19 @@
     <t xml:space="preserve">42.6628684997559</t>
   </si>
   <si>
-    <t xml:space="preserve">42.3898239135742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.5946083068848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.1016845703125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.1796989440918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.306468963623</t>
+    <t xml:space="preserve">42.3898277282715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.5946044921875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.1016883850098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.1796951293945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.3064651489258</t>
   </si>
   <si>
     <t xml:space="preserve">43.6282691955566</t>
@@ -3458,40 +3458,40 @@
     <t xml:space="preserve">42.1557884216309</t>
   </si>
   <si>
-    <t xml:space="preserve">42.0777816772461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.3127517700195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.6194534301758</t>
+    <t xml:space="preserve">42.0777778625488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.3127555847168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.619457244873</t>
   </si>
   <si>
     <t xml:space="preserve">40.6150512695312</t>
   </si>
   <si>
-    <t xml:space="preserve">41.4439277648926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.6779632568359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.7160339355469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.8135452270508</t>
+    <t xml:space="preserve">41.4439315795898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.6779670715332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.7160301208496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.8135414123535</t>
   </si>
   <si>
     <t xml:space="preserve">44.9739761352539</t>
   </si>
   <si>
-    <t xml:space="preserve">43.8623008728027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.5750999450684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.3810119628906</t>
+    <t xml:space="preserve">43.8623046875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.5751037597656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.3810157775879</t>
   </si>
   <si>
     <t xml:space="preserve">40.8783378601074</t>
@@ -3506,7 +3506,7 @@
     <t xml:space="preserve">40.1079711914062</t>
   </si>
   <si>
-    <t xml:space="preserve">40.2737464904785</t>
+    <t xml:space="preserve">40.2737426757812</t>
   </si>
   <si>
     <t xml:space="preserve">40.7028121948242</t>
@@ -3515,7 +3515,7 @@
     <t xml:space="preserve">39.5911407470703</t>
   </si>
   <si>
-    <t xml:space="preserve">39.6496505737305</t>
+    <t xml:space="preserve">39.6496467590332</t>
   </si>
   <si>
     <t xml:space="preserve">40.5077819824219</t>
@@ -3548,40 +3548,40 @@
     <t xml:space="preserve">43.0139236450195</t>
   </si>
   <si>
-    <t xml:space="preserve">43.0334205627441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.6477699279785</t>
+    <t xml:space="preserve">43.0334243774414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.6477661132812</t>
   </si>
   <si>
     <t xml:space="preserve">44.622917175293</t>
   </si>
   <si>
-    <t xml:space="preserve">44.5156517028809</t>
+    <t xml:space="preserve">44.5156593322754</t>
   </si>
   <si>
     <t xml:space="preserve">45.3835372924805</t>
   </si>
   <si>
-    <t xml:space="preserve">44.9252166748047</t>
+    <t xml:space="preserve">44.925220489502</t>
   </si>
   <si>
     <t xml:space="preserve">44.3791313171387</t>
   </si>
   <si>
-    <t xml:space="preserve">44.6619300842285</t>
+    <t xml:space="preserve">44.661922454834</t>
   </si>
   <si>
     <t xml:space="preserve">44.8667068481445</t>
   </si>
   <si>
-    <t xml:space="preserve">44.0865898132324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.887149810791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.5014953613281</t>
+    <t xml:space="preserve">44.0865859985352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.8871536254883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.5014991760254</t>
   </si>
   <si>
     <t xml:space="preserve">43.442985534668</t>
@@ -3590,22 +3590,22 @@
     <t xml:space="preserve">41.2879028320312</t>
   </si>
   <si>
-    <t xml:space="preserve">42.224048614502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.1513786315918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.6974678039551</t>
+    <t xml:space="preserve">42.2240447998047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.1513862609863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.6974639892578</t>
   </si>
   <si>
     <t xml:space="preserve">42.0485191345215</t>
   </si>
   <si>
-    <t xml:space="preserve">42.0387687683105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.7320709228516</t>
+    <t xml:space="preserve">42.0387725830078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.7320671081543</t>
   </si>
   <si>
     <t xml:space="preserve">40.7613220214844</t>
@@ -3614,13 +3614,13 @@
     <t xml:space="preserve">41.8827476501465</t>
   </si>
   <si>
-    <t xml:space="preserve">40.7808265686035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.7418174743652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.9173469543457</t>
+    <t xml:space="preserve">40.7808227539062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.741813659668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.9173431396484</t>
   </si>
   <si>
     <t xml:space="preserve">41.707218170166</t>
@@ -3635,7 +3635,7 @@
     <t xml:space="preserve">42.9846687316895</t>
   </si>
   <si>
-    <t xml:space="preserve">43.0041694641113</t>
+    <t xml:space="preserve">43.0041656494141</t>
   </si>
   <si>
     <t xml:space="preserve">43.1991996765137</t>
@@ -3650,10 +3650,10 @@
     <t xml:space="preserve">45.081241607666</t>
   </si>
   <si>
-    <t xml:space="preserve">45.7443428039551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.0466423034668</t>
+    <t xml:space="preserve">45.7443466186523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.0466461181641</t>
   </si>
   <si>
     <t xml:space="preserve">46.2709274291992</t>
@@ -3662,7 +3662,7 @@
     <t xml:space="preserve">45.4810523986816</t>
   </si>
   <si>
-    <t xml:space="preserve">44.5449104309082</t>
+    <t xml:space="preserve">44.5449066162109</t>
   </si>
   <si>
     <t xml:space="preserve">44.7106819152832</t>
@@ -3674,10 +3674,10 @@
     <t xml:space="preserve">42.4970932006836</t>
   </si>
   <si>
-    <t xml:space="preserve">40.6247978210449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.8544273376465</t>
+    <t xml:space="preserve">40.6248016357422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.8544311523438</t>
   </si>
   <si>
     <t xml:space="preserve">39.513126373291</t>
@@ -3698,7 +3698,7 @@
     <t xml:space="preserve">35.037181854248</t>
   </si>
   <si>
-    <t xml:space="preserve">35.5247611999512</t>
+    <t xml:space="preserve">35.5247573852539</t>
   </si>
   <si>
     <t xml:space="preserve">35.5637664794922</t>
@@ -3719,7 +3719,7 @@
     <t xml:space="preserve">36.0903434753418</t>
   </si>
   <si>
-    <t xml:space="preserve">35.4077415466309</t>
+    <t xml:space="preserve">35.4077453613281</t>
   </si>
   <si>
     <t xml:space="preserve">35.1737060546875</t>
@@ -3731,25 +3731,25 @@
     <t xml:space="preserve">35.6417770385742</t>
   </si>
   <si>
-    <t xml:space="preserve">35.2907218933105</t>
+    <t xml:space="preserve">35.2907257080078</t>
   </si>
   <si>
     <t xml:space="preserve">34.4715957641602</t>
   </si>
   <si>
-    <t xml:space="preserve">33.8767547607422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.2614707946777</t>
+    <t xml:space="preserve">33.8767585754395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.2614669799805</t>
   </si>
   <si>
     <t xml:space="preserve">34.7836418151855</t>
   </si>
   <si>
-    <t xml:space="preserve">34.793399810791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.6568794250488</t>
+    <t xml:space="preserve">34.7933959960938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.6568756103516</t>
   </si>
   <si>
     <t xml:space="preserve">34.2765693664551</t>
@@ -3764,19 +3764,19 @@
     <t xml:space="preserve">35.7782974243164</t>
   </si>
   <si>
-    <t xml:space="preserve">36.4706573486328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.4945678710938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.0167427062988</t>
+    <t xml:space="preserve">36.4706611633301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.4945640563965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.0167388916016</t>
   </si>
   <si>
     <t xml:space="preserve">36.9972381591797</t>
   </si>
   <si>
-    <t xml:space="preserve">36.6656875610352</t>
+    <t xml:space="preserve">36.6656837463379</t>
   </si>
   <si>
     <t xml:space="preserve">35.3004760742188</t>
@@ -3785,16 +3785,16 @@
     <t xml:space="preserve">34.0912857055664</t>
   </si>
   <si>
-    <t xml:space="preserve">36.178108215332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.2083053588867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.9494209289551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.6612815856934</t>
+    <t xml:space="preserve">36.1781120300293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.208309173584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.9494171142578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.6612777709961</t>
   </si>
   <si>
     <t xml:space="preserve">35.4467468261719</t>
@@ -3803,7 +3803,7 @@
     <t xml:space="preserve">36.8119583129883</t>
   </si>
   <si>
-    <t xml:space="preserve">36.8607177734375</t>
+    <t xml:space="preserve">36.8607139587402</t>
   </si>
   <si>
     <t xml:space="preserve">36.5194129943848</t>
@@ -3815,7 +3815,7 @@
     <t xml:space="preserve">35.6222724914551</t>
   </si>
   <si>
-    <t xml:space="preserve">36.2951316833496</t>
+    <t xml:space="preserve">36.2951278686523</t>
   </si>
   <si>
     <t xml:space="preserve">36.7534484863281</t>
@@ -3827,10 +3827,10 @@
     <t xml:space="preserve">39.6008911132812</t>
   </si>
   <si>
-    <t xml:space="preserve">39.5326309204102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.8393325805664</t>
+    <t xml:space="preserve">39.5326347351074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.8393363952637</t>
   </si>
   <si>
     <t xml:space="preserve">41.9119987487793</t>
@@ -3839,16 +3839,16 @@
     <t xml:space="preserve">41.5024375915527</t>
   </si>
   <si>
-    <t xml:space="preserve">41.2976570129395</t>
+    <t xml:space="preserve">41.2976531982422</t>
   </si>
   <si>
     <t xml:space="preserve">40.4297714233398</t>
   </si>
   <si>
-    <t xml:space="preserve">39.2108268737793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.0104560852051</t>
+    <t xml:space="preserve">39.2108306884766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.0104522705078</t>
   </si>
   <si>
     <t xml:space="preserve">39.8056716918945</t>
@@ -3860,43 +3860,43 @@
     <t xml:space="preserve">38.5477294921875</t>
   </si>
   <si>
-    <t xml:space="preserve">37.3580436706543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.192268371582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.8802185058594</t>
+    <t xml:space="preserve">37.3580474853516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.1922721862793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.8802223205566</t>
   </si>
   <si>
     <t xml:space="preserve">35.983081817627</t>
   </si>
   <si>
-    <t xml:space="preserve">36.7924575805664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.2702789306641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.6754417419434</t>
+    <t xml:space="preserve">36.7924537658691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.2702827453613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.6754379272461</t>
   </si>
   <si>
     <t xml:space="preserve">36.2561225891113</t>
   </si>
   <si>
-    <t xml:space="preserve">35.8465614318848</t>
+    <t xml:space="preserve">35.8465538024902</t>
   </si>
   <si>
     <t xml:space="preserve">34.5788612365723</t>
   </si>
   <si>
-    <t xml:space="preserve">32.7553291320801</t>
+    <t xml:space="preserve">32.7553329467773</t>
   </si>
   <si>
     <t xml:space="preserve">33.4769439697266</t>
   </si>
   <si>
-    <t xml:space="preserve">33.4671897888184</t>
+    <t xml:space="preserve">33.4671936035156</t>
   </si>
   <si>
     <t xml:space="preserve">31.5168876647949</t>
@@ -3911,7 +3911,7 @@
     <t xml:space="preserve">33.4574394226074</t>
   </si>
   <si>
-    <t xml:space="preserve">31.7411708831787</t>
+    <t xml:space="preserve">31.7411727905273</t>
   </si>
   <si>
     <t xml:space="preserve">30.7952766418457</t>
@@ -3920,7 +3920,7 @@
     <t xml:space="preserve">31.1365795135498</t>
   </si>
   <si>
-    <t xml:space="preserve">31.6773166656494</t>
+    <t xml:space="preserve">31.677318572998</t>
   </si>
   <si>
     <t xml:space="preserve">31.4708518981934</t>
@@ -3929,10 +3929,10 @@
     <t xml:space="preserve">31.4118633270264</t>
   </si>
   <si>
-    <t xml:space="preserve">31.7166423797607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.8247871398926</t>
+    <t xml:space="preserve">31.7166404724121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8247890472412</t>
   </si>
   <si>
     <t xml:space="preserve">32.1688957214355</t>
@@ -3959,7 +3959,7 @@
     <t xml:space="preserve">30.2320747375488</t>
   </si>
   <si>
-    <t xml:space="preserve">28.7180137634277</t>
+    <t xml:space="preserve">28.7180118560791</t>
   </si>
   <si>
     <t xml:space="preserve">26.6533851623535</t>
@@ -3971,7 +3971,7 @@
     <t xml:space="preserve">26.7025413513184</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7783756256104</t>
+    <t xml:space="preserve">25.7783737182617</t>
   </si>
   <si>
     <t xml:space="preserve">25.857027053833</t>
@@ -3989,19 +3989,19 @@
     <t xml:space="preserve">28.3542461395264</t>
   </si>
   <si>
-    <t xml:space="preserve">29.29807472229</t>
+    <t xml:space="preserve">29.2980766296387</t>
   </si>
   <si>
     <t xml:space="preserve">29.3668975830078</t>
   </si>
   <si>
-    <t xml:space="preserve">28.7770023345947</t>
+    <t xml:space="preserve">28.7770042419434</t>
   </si>
   <si>
     <t xml:space="preserve">28.6786880493164</t>
   </si>
   <si>
-    <t xml:space="preserve">28.7573394775391</t>
+    <t xml:space="preserve">28.7573413848877</t>
   </si>
   <si>
     <t xml:space="preserve">29.878137588501</t>
@@ -4013,7 +4013,7 @@
     <t xml:space="preserve">31.1955699920654</t>
   </si>
   <si>
-    <t xml:space="preserve">32.0607452392578</t>
+    <t xml:space="preserve">32.0607490539551</t>
   </si>
   <si>
     <t xml:space="preserve">30.664665222168</t>
@@ -4028,7 +4028,7 @@
     <t xml:space="preserve">28.6393604278564</t>
   </si>
   <si>
-    <t xml:space="preserve">28.1674461364746</t>
+    <t xml:space="preserve">28.167444229126</t>
   </si>
   <si>
     <t xml:space="preserve">28.7475090026855</t>
@@ -4037,10 +4037,10 @@
     <t xml:space="preserve">29.3570652008057</t>
   </si>
   <si>
-    <t xml:space="preserve">29.2784118652344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.1435928344727</t>
+    <t xml:space="preserve">29.278413772583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.143590927124</t>
   </si>
   <si>
     <t xml:space="preserve">30.6351699829102</t>
@@ -4055,16 +4055,16 @@
     <t xml:space="preserve">30.8121376037598</t>
   </si>
   <si>
-    <t xml:space="preserve">31.8346214294434</t>
+    <t xml:space="preserve">31.834623336792</t>
   </si>
   <si>
     <t xml:space="preserve">31.6674842834473</t>
   </si>
   <si>
-    <t xml:space="preserve">31.893611907959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.4188747406006</t>
+    <t xml:space="preserve">31.8936100006104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.4188766479492</t>
   </si>
   <si>
     <t xml:space="preserve">31.3332118988037</t>
@@ -4076,10 +4076,10 @@
     <t xml:space="preserve">29.8683071136475</t>
   </si>
   <si>
-    <t xml:space="preserve">30.1829166412354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4258880615234</t>
+    <t xml:space="preserve">30.182918548584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4258861541748</t>
   </si>
   <si>
     <t xml:space="preserve">29.8978023529053</t>
@@ -4088,7 +4088,7 @@
     <t xml:space="preserve">30.2124118804932</t>
   </si>
   <si>
-    <t xml:space="preserve">28.6196975708008</t>
+    <t xml:space="preserve">28.6196994781494</t>
   </si>
   <si>
     <t xml:space="preserve">28.3050880432129</t>
@@ -4097,10 +4097,10 @@
     <t xml:space="preserve">28.2264347076416</t>
   </si>
   <si>
-    <t xml:space="preserve">27.8528366088867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.203950881958</t>
+    <t xml:space="preserve">27.8528347015381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.2039527893066</t>
   </si>
   <si>
     <t xml:space="preserve">27.1744575500488</t>
@@ -4118,7 +4118,7 @@
     <t xml:space="preserve">25.3359546661377</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6112365722656</t>
+    <t xml:space="preserve">25.6112384796143</t>
   </si>
   <si>
     <t xml:space="preserve">25.050838470459</t>
@@ -4139,10 +4139,10 @@
     <t xml:space="preserve">25.4834270477295</t>
   </si>
   <si>
-    <t xml:space="preserve">25.5915756225586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8738708496094</t>
+    <t xml:space="preserve">25.59157371521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8738689422607</t>
   </si>
   <si>
     <t xml:space="preserve">24.6182498931885</t>
@@ -4178,7 +4178,7 @@
     <t xml:space="preserve">25.6702270507812</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4469223022461</t>
+    <t xml:space="preserve">26.4469203948975</t>
   </si>
   <si>
     <t xml:space="preserve">25.95534324646</t>
@@ -4190,7 +4190,7 @@
     <t xml:space="preserve">26.5845642089844</t>
   </si>
   <si>
-    <t xml:space="preserve">26.3191108703613</t>
+    <t xml:space="preserve">26.31911277771</t>
   </si>
   <si>
     <t xml:space="preserve">26.014331817627</t>
@@ -4199,7 +4199,7 @@
     <t xml:space="preserve">25.7095527648926</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9918479919434</t>
+    <t xml:space="preserve">24.991849899292</t>
   </si>
   <si>
     <t xml:space="preserve">24.1954936981201</t>
@@ -4214,13 +4214,13 @@
     <t xml:space="preserve">24.8050479888916</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7292175292969</t>
+    <t xml:space="preserve">25.7292156219482</t>
   </si>
   <si>
     <t xml:space="preserve">25.2081432342529</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4370899200439</t>
+    <t xml:space="preserve">26.4370880126953</t>
   </si>
   <si>
     <t xml:space="preserve">25.7488803863525</t>
@@ -4232,7 +4232,7 @@
     <t xml:space="preserve">25.8078689575195</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7263965606689</t>
+    <t xml:space="preserve">24.7263946533203</t>
   </si>
   <si>
     <t xml:space="preserve">24.1070079803467</t>
@@ -4241,7 +4241,7 @@
     <t xml:space="preserve">24.2643127441406</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7165660858154</t>
+    <t xml:space="preserve">24.7165641784668</t>
   </si>
   <si>
     <t xml:space="preserve">24.667407989502</t>
@@ -4250,7 +4250,7 @@
     <t xml:space="preserve">23.7137451171875</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7657222747803</t>
+    <t xml:space="preserve">24.7657241821289</t>
   </si>
   <si>
     <t xml:space="preserve">26.2011318206787</t>
@@ -4262,7 +4262,7 @@
     <t xml:space="preserve">27.6758670806885</t>
   </si>
   <si>
-    <t xml:space="preserve">28.5607089996338</t>
+    <t xml:space="preserve">28.5607070922852</t>
   </si>
   <si>
     <t xml:space="preserve">28.0887928009033</t>
@@ -4274,10 +4274,10 @@
     <t xml:space="preserve">27.1056365966797</t>
   </si>
   <si>
-    <t xml:space="preserve">27.1646251678467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9188365936279</t>
+    <t xml:space="preserve">27.164623260498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9188346862793</t>
   </si>
   <si>
     <t xml:space="preserve">26.7123737335205</t>
@@ -4289,22 +4289,22 @@
     <t xml:space="preserve">27.2826042175293</t>
   </si>
   <si>
-    <t xml:space="preserve">27.4104137420654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5480556488037</t>
+    <t xml:space="preserve">27.4104156494141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5480575561523</t>
   </si>
   <si>
     <t xml:space="preserve">26.3977642059326</t>
   </si>
   <si>
-    <t xml:space="preserve">27.1842880249023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.0592975616455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.3514270782471</t>
+    <t xml:space="preserve">27.184289932251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.0592994689941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.3514251708984</t>
   </si>
   <si>
     <t xml:space="preserve">26.5452365875244</t>
@@ -4331,13 +4331,13 @@
     <t xml:space="preserve">26.8401832580566</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4862461090088</t>
+    <t xml:space="preserve">26.4862480163574</t>
   </si>
   <si>
     <t xml:space="preserve">26.4567527770996</t>
   </si>
   <si>
-    <t xml:space="preserve">26.27978515625</t>
+    <t xml:space="preserve">26.2797832489014</t>
   </si>
   <si>
     <t xml:space="preserve">26.8500137329102</t>
@@ -4364,16 +4364,16 @@
     <t xml:space="preserve">27.3710880279541</t>
   </si>
   <si>
-    <t xml:space="preserve">26.3682689666748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4960784912109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9974899291992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0368137359619</t>
+    <t xml:space="preserve">26.3682670593262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4960803985596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9974880218506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0368156433105</t>
   </si>
   <si>
     <t xml:space="preserve">26.6337223052979</t>
@@ -4397,25 +4397,25 @@
     <t xml:space="preserve">25.3064594268799</t>
   </si>
   <si>
-    <t xml:space="preserve">25.109827041626</t>
+    <t xml:space="preserve">25.1098289489746</t>
   </si>
   <si>
     <t xml:space="preserve">24.8443756103516</t>
   </si>
   <si>
-    <t xml:space="preserve">28.0199737548828</t>
+    <t xml:space="preserve">28.0199718475342</t>
   </si>
   <si>
     <t xml:space="preserve">27.3317623138428</t>
   </si>
   <si>
-    <t xml:space="preserve">27.5283946990967</t>
+    <t xml:space="preserve">27.528392791748</t>
   </si>
   <si>
     <t xml:space="preserve">26.1519737243652</t>
   </si>
   <si>
-    <t xml:space="preserve">26.879508972168</t>
+    <t xml:space="preserve">26.8795108795166</t>
   </si>
   <si>
     <t xml:space="preserve">27.6856994628906</t>
@@ -4424,10 +4424,10 @@
     <t xml:space="preserve">26.9384994506836</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5943946838379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0171508789062</t>
+    <t xml:space="preserve">26.5943927764893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0171527862549</t>
   </si>
   <si>
     <t xml:space="preserve">26.8991737365723</t>
@@ -4436,7 +4436,7 @@
     <t xml:space="preserve">27.7446880340576</t>
   </si>
   <si>
-    <t xml:space="preserve">29.6126880645752</t>
+    <t xml:space="preserve">29.6126861572266</t>
   </si>
   <si>
     <t xml:space="preserve">28.9736328125</t>
@@ -4451,28 +4451,28 @@
     <t xml:space="preserve">28.6590232849121</t>
   </si>
   <si>
-    <t xml:space="preserve">28.531213760376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4652118682861</t>
+    <t xml:space="preserve">28.5312156677246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4652137756348</t>
   </si>
   <si>
     <t xml:space="preserve">28.855655670166</t>
   </si>
   <si>
-    <t xml:space="preserve">29.3275699615479</t>
+    <t xml:space="preserve">29.3275718688965</t>
   </si>
   <si>
     <t xml:space="preserve">29.6225185394287</t>
   </si>
   <si>
-    <t xml:space="preserve">30.1042652130127</t>
+    <t xml:space="preserve">30.1042671203613</t>
   </si>
   <si>
     <t xml:space="preserve">31.1169166564941</t>
   </si>
   <si>
-    <t xml:space="preserve">31.4020309448242</t>
+    <t xml:space="preserve">31.4020328521729</t>
   </si>
   <si>
     <t xml:space="preserve">31.2938842773438</t>
@@ -4481,7 +4481,7 @@
     <t xml:space="preserve">31.7264728546143</t>
   </si>
   <si>
-    <t xml:space="preserve">31.952600479126</t>
+    <t xml:space="preserve">31.9525985717773</t>
   </si>
   <si>
     <t xml:space="preserve">32.0902404785156</t>
@@ -4496,10 +4496,10 @@
     <t xml:space="preserve">32.1492309570312</t>
   </si>
   <si>
-    <t xml:space="preserve">31.7461357116699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.39501953125</t>
+    <t xml:space="preserve">31.7461395263672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3950233459473</t>
   </si>
   <si>
     <t xml:space="preserve">32.4638404846191</t>
@@ -4520,7 +4520,7 @@
     <t xml:space="preserve">32.8177795410156</t>
   </si>
   <si>
-    <t xml:space="preserve">33.220874786377</t>
+    <t xml:space="preserve">33.2208709716797</t>
   </si>
   <si>
     <t xml:space="preserve">32.7194595336914</t>
@@ -4529,7 +4529,7 @@
     <t xml:space="preserve">32.5621566772461</t>
   </si>
   <si>
-    <t xml:space="preserve">34.8922386169434</t>
+    <t xml:space="preserve">34.8922424316406</t>
   </si>
   <si>
     <t xml:space="preserve">34.2728500366211</t>
@@ -4541,10 +4541,10 @@
     <t xml:space="preserve">35.2461738586426</t>
   </si>
   <si>
-    <t xml:space="preserve">34.8430786132812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.7251052856445</t>
+    <t xml:space="preserve">34.8430824279785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.7251014709473</t>
   </si>
   <si>
     <t xml:space="preserve">35.1871871948242</t>
@@ -4556,7 +4556,7 @@
     <t xml:space="preserve">35.1281967163086</t>
   </si>
   <si>
-    <t xml:space="preserve">34.3318405151367</t>
+    <t xml:space="preserve">34.3318367004395</t>
   </si>
   <si>
     <t xml:space="preserve">33.5354843139648</t>
@@ -5286,6 +5286,9 @@
   </si>
   <si>
     <t xml:space="preserve">33.1599998474121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.2400016784668</t>
   </si>
 </sst>
 </file>
@@ -61787,7 +61790,7 @@
     </row>
     <row r="2161">
       <c r="A2161" s="1" t="n">
-        <v>45470.649525463</v>
+        <v>45470.2916666667</v>
       </c>
       <c r="B2161" t="n">
         <v>646212</v>
@@ -61808,6 +61811,32 @@
         <v>1738</v>
       </c>
       <c r="H2161" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2162">
+      <c r="A2162" s="1" t="n">
+        <v>45471.6495601852</v>
+      </c>
+      <c r="B2162" t="n">
+        <v>431550</v>
+      </c>
+      <c r="C2162" t="n">
+        <v>34</v>
+      </c>
+      <c r="D2162" t="n">
+        <v>33.1100006103516</v>
+      </c>
+      <c r="E2162" t="n">
+        <v>33.8199996948242</v>
+      </c>
+      <c r="F2162" t="n">
+        <v>33.2400016784668</v>
+      </c>
+      <c r="G2162" t="s">
+        <v>1758</v>
+      </c>
+      <c r="H2162" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/AMP.MI.xlsx
+++ b/data/AMP.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1759" uniqueCount="1759">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1761" uniqueCount="1761">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,169 +38,169 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">7.39182806015015</t>
+    <t xml:space="preserve">7.3918285369873</t>
   </si>
   <si>
     <t xml:space="preserve">AMP.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">7.44814682006836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36836194992065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.42468070983887</t>
+    <t xml:space="preserve">7.4481463432312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3683614730835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.42468023300171</t>
   </si>
   <si>
     <t xml:space="preserve">7.2087926864624</t>
   </si>
   <si>
-    <t xml:space="preserve">7.01636981964111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27449703216553</t>
+    <t xml:space="preserve">7.01637077331543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27449798583984</t>
   </si>
   <si>
     <t xml:space="preserve">7.33550930023193</t>
   </si>
   <si>
-    <t xml:space="preserve">7.21817874908447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08676862716675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1430869102478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25103139877319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03983592987061</t>
+    <t xml:space="preserve">7.21817922592163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08676910400391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14308738708496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25103092193604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03983688354492</t>
   </si>
   <si>
     <t xml:space="preserve">7.19001865386963</t>
   </si>
   <si>
-    <t xml:space="preserve">7.40121507644653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29327011108398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4106011390686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20409917831421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.23695135116577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46691942214966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34020328521729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19471216201782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10554218292236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89903926849365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56112766265869</t>
+    <t xml:space="preserve">7.40121412277222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29326963424683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41060066223145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20410013198853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23695087432861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46691989898682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34020280838013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19471263885498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10554122924805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89903974533081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56112623214722</t>
   </si>
   <si>
     <t xml:space="preserve">6.50480842590332</t>
   </si>
   <si>
-    <t xml:space="preserve">6.64091157913208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38278484344482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34054517745972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4719557762146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66907167434692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.93658494949341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.76293611526489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88965272903442</t>
+    <t xml:space="preserve">6.64091205596924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38278532028198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34054565429688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47195625305176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66907215118408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.93658542633057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.76293659210205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88965320587158</t>
   </si>
   <si>
     <t xml:space="preserve">6.75354957580566</t>
   </si>
   <si>
-    <t xml:space="preserve">6.67845678329468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04922246932983</t>
+    <t xml:space="preserve">6.67845726013184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04922294616699</t>
   </si>
   <si>
     <t xml:space="preserve">6.94597196578979</t>
   </si>
   <si>
-    <t xml:space="preserve">6.85680103302002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85210704803467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8943452835083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71131086349487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.68315172195435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84741449356079</t>
+    <t xml:space="preserve">6.8568000793457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85210752487183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89434576034546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71130990982056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68315124511719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84741401672363</t>
   </si>
   <si>
     <t xml:space="preserve">6.8380274772644</t>
   </si>
   <si>
-    <t xml:space="preserve">6.91311836242676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06330251693726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.16655397415161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13839340209961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.26511144638062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.16186046600342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.09615468978882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29796314239502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15247297286987</t>
+    <t xml:space="preserve">6.91311883926392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06330299377441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.16655302047729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13839292526245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.26511096954346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.16185998916626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09615516662598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29796361923218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15247249603271</t>
   </si>
   <si>
     <t xml:space="preserve">7.22756481170654</t>
@@ -209,16 +209,16 @@
     <t xml:space="preserve">6.98821067810059</t>
   </si>
   <si>
-    <t xml:space="preserve">6.96943807601929</t>
+    <t xml:space="preserve">6.96943759918213</t>
   </si>
   <si>
     <t xml:space="preserve">7.0586085319519</t>
   </si>
   <si>
-    <t xml:space="preserve">7.32612323760986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38244152069092</t>
+    <t xml:space="preserve">7.32612276077271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38244104385376</t>
   </si>
   <si>
     <t xml:space="preserve">7.28388404846191</t>
@@ -230,52 +230,52 @@
     <t xml:space="preserve">7.47161293029785</t>
   </si>
   <si>
-    <t xml:space="preserve">7.54201078414917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63587617874146</t>
+    <t xml:space="preserve">7.54201173782349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63587665557861</t>
   </si>
   <si>
     <t xml:space="preserve">7.61240911483765</t>
   </si>
   <si>
-    <t xml:space="preserve">7.79075193405151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65934276580811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70158004760742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7625937461853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79544639587402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94562768936157</t>
+    <t xml:space="preserve">7.79075145721436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65934228897095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70157957077026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76259326934814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79544591903687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94562911987305</t>
   </si>
   <si>
     <t xml:space="preserve">7.95032215118408</t>
   </si>
   <si>
-    <t xml:space="preserve">7.93154954910278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.84707117080688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00663948059082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94093561172485</t>
+    <t xml:space="preserve">7.93154811859131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84706974029541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00664043426514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9409351348877</t>
   </si>
   <si>
     <t xml:space="preserve">8.15213108062744</t>
   </si>
   <si>
-    <t xml:space="preserve">8.07949447631836</t>
+    <t xml:space="preserve">8.07949542999268</t>
   </si>
   <si>
     <t xml:space="preserve">8.15967655181885</t>
@@ -284,31 +284,31 @@
     <t xml:space="preserve">8.16911029815674</t>
   </si>
   <si>
-    <t xml:space="preserve">8.11251068115234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23514175415039</t>
+    <t xml:space="preserve">8.11251258850098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23514270782471</t>
   </si>
   <si>
     <t xml:space="preserve">8.27759170532227</t>
   </si>
   <si>
-    <t xml:space="preserve">8.30117416381836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28702545166016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22099304199219</t>
+    <t xml:space="preserve">8.30117511749268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28702259063721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22099208831787</t>
   </si>
   <si>
     <t xml:space="preserve">8.14081192016602</t>
   </si>
   <si>
-    <t xml:space="preserve">8.14552593231201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.20684146881104</t>
+    <t xml:space="preserve">8.14552688598633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.20684242248535</t>
   </si>
   <si>
     <t xml:space="preserve">8.07477855682373</t>
@@ -317,7 +317,7 @@
     <t xml:space="preserve">7.97572994232178</t>
   </si>
   <si>
-    <t xml:space="preserve">7.88139915466309</t>
+    <t xml:space="preserve">7.88139772415161</t>
   </si>
   <si>
     <t xml:space="preserve">7.7021689414978</t>
@@ -326,25 +326,25 @@
     <t xml:space="preserve">7.68801927566528</t>
   </si>
   <si>
-    <t xml:space="preserve">7.71160268783569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61726999282837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69745254516602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05119609832764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00874710083008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12194347381592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73518562316895</t>
+    <t xml:space="preserve">7.71160316467285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61727094650269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69745206832886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05119514465332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00874614715576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12194442749023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73518466949463</t>
   </si>
   <si>
     <t xml:space="preserve">7.7729172706604</t>
@@ -353,34 +353,34 @@
     <t xml:space="preserve">7.78235149383545</t>
   </si>
   <si>
-    <t xml:space="preserve">7.93328094482422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98987913131714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95214700698853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87196445465088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77763366699219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94271421432495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02289485931396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98044776916504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97101497650146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11722660064697</t>
+    <t xml:space="preserve">7.93328046798706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98988008499146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95214748382568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87196588516235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77763319015503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94271373748779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02289581298828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98044681549072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97101306915283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11722850799561</t>
   </si>
   <si>
     <t xml:space="preserve">8.24457454681396</t>
@@ -389,64 +389,64 @@
     <t xml:space="preserve">8.23042583465576</t>
   </si>
   <si>
-    <t xml:space="preserve">8.2587251663208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25400924682617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.37192440032959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.42852210998535</t>
+    <t xml:space="preserve">8.25872611999512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25401020050049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.37192153930664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42852115631104</t>
   </si>
   <si>
     <t xml:space="preserve">8.41437149047852</t>
   </si>
   <si>
-    <t xml:space="preserve">8.39550399780273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35777187347412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21627616882324</t>
+    <t xml:space="preserve">8.39550495147705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35777282714844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21627712249756</t>
   </si>
   <si>
     <t xml:space="preserve">8.35305595397949</t>
   </si>
   <si>
-    <t xml:space="preserve">8.43323802947998</t>
+    <t xml:space="preserve">8.43323707580566</t>
   </si>
   <si>
     <t xml:space="preserve">8.57473564147949</t>
   </si>
   <si>
-    <t xml:space="preserve">8.67378425598145</t>
+    <t xml:space="preserve">8.67378520965576</t>
   </si>
   <si>
     <t xml:space="preserve">8.57945251464844</t>
   </si>
   <si>
-    <t xml:space="preserve">8.70208358764648</t>
+    <t xml:space="preserve">8.70208263397217</t>
   </si>
   <si>
     <t xml:space="preserve">8.8247127532959</t>
   </si>
   <si>
-    <t xml:space="preserve">8.72095012664795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85301399230957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.87659549713135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.98979377746582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91432857513428</t>
+    <t xml:space="preserve">8.72094917297363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85301494598389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.87659645080566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9897928237915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91432952880859</t>
   </si>
   <si>
     <t xml:space="preserve">8.88602924346924</t>
@@ -455,25 +455,25 @@
     <t xml:space="preserve">8.81528091430664</t>
   </si>
   <si>
-    <t xml:space="preserve">8.8199987411499</t>
+    <t xml:space="preserve">8.81999778747559</t>
   </si>
   <si>
     <t xml:space="preserve">8.89074611663818</t>
   </si>
   <si>
-    <t xml:space="preserve">8.80113124847412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83886432647705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.82942962646484</t>
+    <t xml:space="preserve">8.80112934112549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83886337280273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.82943058013916</t>
   </si>
   <si>
     <t xml:space="preserve">8.72566604614258</t>
   </si>
   <si>
-    <t xml:space="preserve">8.65963554382324</t>
+    <t xml:space="preserve">8.65963363647461</t>
   </si>
   <si>
     <t xml:space="preserve">8.64076709747314</t>
@@ -482,25 +482,25 @@
     <t xml:space="preserve">8.62661838531494</t>
   </si>
   <si>
-    <t xml:space="preserve">8.55115222930908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.60775184631348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59831714630127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73509883880615</t>
+    <t xml:space="preserve">8.5511531829834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.60775279998779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5983190536499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73509979248047</t>
   </si>
   <si>
     <t xml:space="preserve">8.5653018951416</t>
   </si>
   <si>
-    <t xml:space="preserve">8.6832160949707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56058692932129</t>
+    <t xml:space="preserve">8.68321800231934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56058597564697</t>
   </si>
   <si>
     <t xml:space="preserve">8.62190246582031</t>
@@ -509,94 +509,94 @@
     <t xml:space="preserve">8.67849922180176</t>
   </si>
   <si>
-    <t xml:space="preserve">8.53228759765625</t>
+    <t xml:space="preserve">8.53228664398193</t>
   </si>
   <si>
     <t xml:space="preserve">8.59360122680664</t>
   </si>
   <si>
-    <t xml:space="preserve">8.63133335113525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.75868225097656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.15015697479248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.31995487213135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14072418212891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.08412456512451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.96149444580078</t>
+    <t xml:space="preserve">8.63133430480957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.75868129730225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1501579284668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.31995582580566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.14072513580322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.08412647247314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9614953994751</t>
   </si>
   <si>
     <t xml:space="preserve">9.00866031646729</t>
   </si>
   <si>
-    <t xml:space="preserve">8.88131427764893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57001972198486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48983669281006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.46625518798828</t>
+    <t xml:space="preserve">8.88131237030029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57001876831055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48983860015869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.46625423431396</t>
   </si>
   <si>
     <t xml:space="preserve">8.46153926849365</t>
   </si>
   <si>
-    <t xml:space="preserve">8.65020179748535</t>
+    <t xml:space="preserve">8.65020084381104</t>
   </si>
   <si>
     <t xml:space="preserve">8.40965461730957</t>
   </si>
   <si>
-    <t xml:space="preserve">8.5275707244873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.4473876953125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53700256347656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.05582714080811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.16902351379395</t>
+    <t xml:space="preserve">8.52756881713867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44738674163818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53700351715088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.05582809448242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.16902256011963</t>
   </si>
   <si>
     <t xml:space="preserve">9.13129138946533</t>
   </si>
   <si>
-    <t xml:space="preserve">8.58416748046875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22570896148682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3766393661499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49935626983643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.04647922515869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01817989349365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45210552215576</t>
+    <t xml:space="preserve">8.58416938781738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22570991516113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.37664031982422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49935674667358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.04647731781006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01817893981934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45210456848145</t>
   </si>
   <si>
     <t xml:space="preserve">8.47568702697754</t>
@@ -605,13 +605,13 @@
     <t xml:space="preserve">8.51342010498047</t>
   </si>
   <si>
-    <t xml:space="preserve">8.54643630981445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.43795394897461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29645729064941</t>
+    <t xml:space="preserve">8.54643726348877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.43795585632324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2964563369751</t>
   </si>
   <si>
     <t xml:space="preserve">8.24929141998291</t>
@@ -620,37 +620,37 @@
     <t xml:space="preserve">8.44267082214355</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64548397064209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.716233253479</t>
+    <t xml:space="preserve">8.64548492431641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71623229980469</t>
   </si>
   <si>
     <t xml:space="preserve">8.79169750213623</t>
   </si>
   <si>
-    <t xml:space="preserve">8.73981666564941</t>
+    <t xml:space="preserve">8.73981475830078</t>
   </si>
   <si>
     <t xml:space="preserve">8.8105640411377</t>
   </si>
   <si>
-    <t xml:space="preserve">8.77754783630371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22562217712402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.03695964813232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21147441864014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.3388204574585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40956974029541</t>
+    <t xml:space="preserve">8.77754878997803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22562313079834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.03696060180664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21147346496582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33881950378418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40957069396973</t>
   </si>
   <si>
     <t xml:space="preserve">9.48031806945801</t>
@@ -662,7 +662,7 @@
     <t xml:space="preserve">9.36712074279785</t>
   </si>
   <si>
-    <t xml:space="preserve">9.43315315246582</t>
+    <t xml:space="preserve">9.4331521987915</t>
   </si>
   <si>
     <t xml:space="preserve">9.51805019378662</t>
@@ -671,19 +671,19 @@
     <t xml:space="preserve">9.55578327178955</t>
   </si>
   <si>
-    <t xml:space="preserve">9.50861740112305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42843532562256</t>
+    <t xml:space="preserve">9.50861835479736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42843627929688</t>
   </si>
   <si>
     <t xml:space="preserve">9.18317317962646</t>
   </si>
   <si>
-    <t xml:space="preserve">9.17845726013184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.23033809661865</t>
+    <t xml:space="preserve">9.17845630645752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.23033905029297</t>
   </si>
   <si>
     <t xml:space="preserve">9.53691673278809</t>
@@ -695,61 +695,61 @@
     <t xml:space="preserve">10.0368747711182</t>
   </si>
   <si>
-    <t xml:space="preserve">9.90481090545654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.98970985412598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71614646911621</t>
+    <t xml:space="preserve">9.90480995178223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.98970890045166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71614742279053</t>
   </si>
   <si>
     <t xml:space="preserve">9.7821798324585</t>
   </si>
   <si>
-    <t xml:space="preserve">9.79161167144775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.73501300811768</t>
+    <t xml:space="preserve">9.79161357879639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.73501491546631</t>
   </si>
   <si>
     <t xml:space="preserve">9.8670768737793</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1029062271118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0840406417847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2632713317871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3198671340942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.33873462677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5085306167603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5556983947754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4424982070923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4141998291016</t>
+    <t xml:space="preserve">10.1029071807861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.084038734436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2632703781128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3198680877686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3387365341187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5085325241089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5556964874268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4424991607666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4141988754272</t>
   </si>
   <si>
     <t xml:space="preserve">10.659462928772</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5934295654297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5839986801147</t>
+    <t xml:space="preserve">10.5934286117554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5839967727661</t>
   </si>
   <si>
     <t xml:space="preserve">10.8952903747559</t>
@@ -758,49 +758,49 @@
     <t xml:space="preserve">10.9707555770874</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8009586334229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7349271774292</t>
+    <t xml:space="preserve">10.8009605407715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7349281311035</t>
   </si>
   <si>
     <t xml:space="preserve">10.7254943847656</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7066287994385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7915267944336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9801902770996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9235906600952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0179224014282</t>
+    <t xml:space="preserve">10.7066278457642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7915258407593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9801912307739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9235897064209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0179204940796</t>
   </si>
   <si>
     <t xml:space="preserve">11.0839538574219</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2160167694092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1782855987549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3386497497559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0462226867676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2914838790894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2537508010864</t>
+    <t xml:space="preserve">11.2160186767578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1782865524292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3386478424072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0462217330933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.291482925415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2537498474121</t>
   </si>
   <si>
     <t xml:space="preserve">11.2348852157593</t>
@@ -809,19 +809,19 @@
     <t xml:space="preserve">11.2726163864136</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3669490814209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5178804397583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4990129470825</t>
+    <t xml:space="preserve">11.3669471740723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.517879486084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4990119934082</t>
   </si>
   <si>
     <t xml:space="preserve">11.546178817749</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6695156097412</t>
+    <t xml:space="preserve">11.6695146560669</t>
   </si>
   <si>
     <t xml:space="preserve">11.9161882400513</t>
@@ -830,91 +830,91 @@
     <t xml:space="preserve">11.954137802124</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0395221710205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0110626220703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0205497741699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0300369262695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0584993362427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1533737182617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1913213729858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.115424156189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3051710128784</t>
+    <t xml:space="preserve">12.0395240783691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.011061668396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0205488204956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0300359725952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0584983825684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.153374671936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1913223266602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1154232025146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3051719665527</t>
   </si>
   <si>
     <t xml:space="preserve">12.2767086029053</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3336324691772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0015726089478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2387590408325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5746421813965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3848924636841</t>
+    <t xml:space="preserve">12.3336343765259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0015735626221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2387580871582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5746412277222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3848915100098</t>
   </si>
   <si>
     <t xml:space="preserve">11.7833642959595</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8213138580322</t>
+    <t xml:space="preserve">11.8213129043579</t>
   </si>
   <si>
     <t xml:space="preserve">11.859263420105</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8497753143311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7169513702393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.660026550293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6125907897949</t>
+    <t xml:space="preserve">11.8497743606567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7169523239136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6600294113159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6125898361206</t>
   </si>
   <si>
     <t xml:space="preserve">11.5556659698486</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4607925415039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1666841506958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9674463272095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7776975631714</t>
+    <t xml:space="preserve">11.4607906341553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1666812896729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9674453735352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7776985168457</t>
   </si>
   <si>
     <t xml:space="preserve">10.6448755264282</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6923112869263</t>
+    <t xml:space="preserve">10.6923122406006</t>
   </si>
   <si>
     <t xml:space="preserve">10.8251352310181</t>
@@ -926,22 +926,22 @@
     <t xml:space="preserve">10.986421585083</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0338573455811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2236051559448</t>
+    <t xml:space="preserve">11.0338582992554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2236061096191</t>
   </si>
   <si>
     <t xml:space="preserve">11.4418172836304</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4702787399292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4323301315308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4987421035767</t>
+    <t xml:space="preserve">11.4702796936035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4323282241821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4987411499023</t>
   </si>
   <si>
     <t xml:space="preserve">11.3564300537109</t>
@@ -953,40 +953,40 @@
     <t xml:space="preserve">11.5177164077759</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4228420257568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3659172058105</t>
+    <t xml:space="preserve">11.4228429794312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3659181594849</t>
   </si>
   <si>
     <t xml:space="preserve">11.3374547958374</t>
   </si>
   <si>
-    <t xml:space="preserve">11.195143699646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1192455291748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0053958892822</t>
+    <t xml:space="preserve">11.1951456069946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1192445755005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0053968429565</t>
   </si>
   <si>
     <t xml:space="preserve">10.7492351531982</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9200096130371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8725719451904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2805309295654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2520694732666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1571931838989</t>
+    <t xml:space="preserve">10.9200077056885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8725728988647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2805299758911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2520685195923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1571950912476</t>
   </si>
   <si>
     <t xml:space="preserve">11.2141180038452</t>
@@ -998,7 +998,7 @@
     <t xml:space="preserve">11.4133548736572</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3279676437378</t>
+    <t xml:space="preserve">11.3279685974121</t>
   </si>
   <si>
     <t xml:space="preserve">11.1477069854736</t>
@@ -1007,10 +1007,10 @@
     <t xml:space="preserve">11.1761693954468</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2615566253662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5272035598755</t>
+    <t xml:space="preserve">11.2615556716919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5272045135498</t>
   </si>
   <si>
     <t xml:space="preserve">11.8118257522583</t>
@@ -1019,43 +1019,43 @@
     <t xml:space="preserve">11.9067010879517</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0774745941162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1059370040894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0490121841431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1438865661621</t>
+    <t xml:space="preserve">12.0774736404419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.105936050415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0490102767944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1438846588135</t>
   </si>
   <si>
     <t xml:space="preserve">12.1343984603882</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1723489761353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0679864883423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9256744384766</t>
+    <t xml:space="preserve">12.1723480224609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.067985534668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9256725311279</t>
   </si>
   <si>
     <t xml:space="preserve">12.3146572113037</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2482452392578</t>
+    <t xml:space="preserve">12.2482461929321</t>
   </si>
   <si>
     <t xml:space="preserve">12.2008094787598</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5803070068359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6182565689087</t>
+    <t xml:space="preserve">12.5803060531616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.618257522583</t>
   </si>
   <si>
     <t xml:space="preserve">12.7415933609009</t>
@@ -1067,7 +1067,7 @@
     <t xml:space="preserve">12.9123649597168</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9313411712646</t>
+    <t xml:space="preserve">12.9313402175903</t>
   </si>
   <si>
     <t xml:space="preserve">12.9028787612915</t>
@@ -1076,58 +1076,58 @@
     <t xml:space="preserve">12.2861957550049</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8782377243042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9446506500244</t>
+    <t xml:space="preserve">11.8782367706299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9446496963501</t>
   </si>
   <si>
     <t xml:space="preserve">12.1249094009399</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2672214508057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3715829849243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9920873641968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5366897583008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6505403518677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4892549514771</t>
+    <t xml:space="preserve">12.26722240448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3715839385986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9920864105225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5366907119751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6505393981934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4892539978027</t>
   </si>
   <si>
     <t xml:space="preserve">11.7643890380859</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8687496185303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1818351745605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1628589630127</t>
+    <t xml:space="preserve">11.8687515258789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1818361282349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1628580093384</t>
   </si>
   <si>
     <t xml:space="preserve">12.2956838607788</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2292728424072</t>
+    <t xml:space="preserve">12.2292737960815</t>
   </si>
   <si>
     <t xml:space="preserve">12.4569692611694</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4285078048706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2577342987061</t>
+    <t xml:space="preserve">12.4285087585449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2577352523804</t>
   </si>
   <si>
     <t xml:space="preserve">11.8308010101318</t>
@@ -1136,16 +1136,16 @@
     <t xml:space="preserve">12.2197847366333</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6372308731079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6467170715332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5992803573608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.732105255127</t>
+    <t xml:space="preserve">12.6372289657593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6467189788818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5992813110352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7321033477783</t>
   </si>
   <si>
     <t xml:space="preserve">13.2349376678467</t>
@@ -1154,10 +1154,10 @@
     <t xml:space="preserve">13.2254495620728</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1875009536743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0546779632568</t>
+    <t xml:space="preserve">13.1875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0546760559082</t>
   </si>
   <si>
     <t xml:space="preserve">13.5290479660034</t>
@@ -1169,22 +1169,22 @@
     <t xml:space="preserve">13.6428966522217</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6618690490723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7093095779419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6144342422485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3582744598389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5764846801758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4057111740112</t>
+    <t xml:space="preserve">13.6618709564209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7093086242676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6144332885742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3582735061646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5764856338501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4057121276855</t>
   </si>
   <si>
     <t xml:space="preserve">13.0736513137817</t>
@@ -1193,52 +1193,52 @@
     <t xml:space="preserve">12.7131290435791</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5044059753418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4759435653687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5613307952881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6087684631348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9218530654907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9787769317627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9503154754639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6941537857056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3810701370239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3526077270508</t>
+    <t xml:space="preserve">12.5044078826904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.475944519043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5613298416138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6087675094604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9218521118164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.978777885437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9503145217896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6941556930542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3810710906982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3526096343994</t>
   </si>
   <si>
     <t xml:space="preserve">12.826979637146</t>
   </si>
   <si>
-    <t xml:space="preserve">13.140064239502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1969890594482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3677606582642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5100736618042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4341735839844</t>
+    <t xml:space="preserve">13.1400632858276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1969881057739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3677616119385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5100727081299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4341726303101</t>
   </si>
   <si>
     <t xml:space="preserve">13.4246854782104</t>
@@ -1250,70 +1250,70 @@
     <t xml:space="preserve">13.443660736084</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3487863540649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9882640838623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9598016738892</t>
+    <t xml:space="preserve">13.3487873077393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9882650375366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9598026275635</t>
   </si>
   <si>
     <t xml:space="preserve">13.3962240219116</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6713600158691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.747257232666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4151992797852</t>
+    <t xml:space="preserve">13.6713581085205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7472581863403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4151973724365</t>
   </si>
   <si>
     <t xml:space="preserve">13.8990564346313</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1077785491943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2500896453857</t>
+    <t xml:space="preserve">14.1077795028687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2500905990601</t>
   </si>
   <si>
     <t xml:space="preserve">14.5062503814697</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4113750457764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6770248413086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7149724960327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8003606796265</t>
+    <t xml:space="preserve">14.4113759994507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6770238876343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.714973449707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8003597259521</t>
   </si>
   <si>
     <t xml:space="preserve">15.028058052063</t>
   </si>
   <si>
-    <t xml:space="preserve">14.971134185791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2272930145264</t>
+    <t xml:space="preserve">14.9711322784424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2272920608521</t>
   </si>
   <si>
     <t xml:space="preserve">15.0849828720093</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1134443283081</t>
+    <t xml:space="preserve">15.1134452819824</t>
   </si>
   <si>
     <t xml:space="preserve">15.1513948440552</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0185708999634</t>
+    <t xml:space="preserve">15.0185699462891</t>
   </si>
   <si>
     <t xml:space="preserve">15.0090837478638</t>
@@ -1322,31 +1322,31 @@
     <t xml:space="preserve">14.8288230895996</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7054862976074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.284218788147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3885793685913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3601188659668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3696050643921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5593547821045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5119180679321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6732015609741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7775640487671</t>
+    <t xml:space="preserve">14.7054872512817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2842197418213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.388578414917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3601179122925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3696041107178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5593538284302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5119161605835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6732034683228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7775611877441</t>
   </si>
   <si>
     <t xml:space="preserve">15.540376663208</t>
@@ -1355,10 +1355,10 @@
     <t xml:space="preserve">15.1324195861816</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4644794464111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9329175949097</t>
+    <t xml:space="preserve">15.4644784927368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9329166412354</t>
   </si>
   <si>
     <t xml:space="preserve">14.7800531387329</t>
@@ -1391,49 +1391,49 @@
     <t xml:space="preserve">15.3055229187012</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6112508773804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2418155670166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5857620239258</t>
+    <t xml:space="preserve">15.6112518310547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2418174743652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5857601165771</t>
   </si>
   <si>
     <t xml:space="preserve">16.2800331115723</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2895851135254</t>
+    <t xml:space="preserve">16.289587020874</t>
   </si>
   <si>
     <t xml:space="preserve">16.3278007507324</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3373603820801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4520015716553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2322616577148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1940460205078</t>
+    <t xml:space="preserve">16.3373565673828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4520034790039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2322635650635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1940479278564</t>
   </si>
   <si>
     <t xml:space="preserve">16.6526393890381</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8532733917236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7959480285645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7004089355469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4328956604004</t>
+    <t xml:space="preserve">16.853271484375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7959499359131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7004070281982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.432897567749</t>
   </si>
   <si>
     <t xml:space="preserve">16.3851261138916</t>
@@ -1442,10 +1442,10 @@
     <t xml:space="preserve">16.8055038452148</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9679203033447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0156936645508</t>
+    <t xml:space="preserve">16.967924118042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0156917572021</t>
   </si>
   <si>
     <t xml:space="preserve">17.178108215332</t>
@@ -1454,13 +1454,13 @@
     <t xml:space="preserve">17.0539073944092</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9010429382324</t>
+    <t xml:space="preserve">16.9010467529297</t>
   </si>
   <si>
     <t xml:space="preserve">16.4997730255127</t>
   </si>
   <si>
-    <t xml:space="preserve">16.576208114624</t>
+    <t xml:space="preserve">16.5762062072754</t>
   </si>
   <si>
     <t xml:space="preserve">16.3469123840332</t>
@@ -1469,61 +1469,61 @@
     <t xml:space="preserve">16.528434753418</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6812992095947</t>
+    <t xml:space="preserve">16.6812973022461</t>
   </si>
   <si>
     <t xml:space="preserve">16.4902210235596</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6430854797363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2354335784912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6749172210693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0857410430908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5793762207031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2194957733154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3054828643799</t>
+    <t xml:space="preserve">16.643087387085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2354354858398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6749153137207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0857391357422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5793781280518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2194976806641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3054847717285</t>
   </si>
   <si>
     <t xml:space="preserve">18.8596153259277</t>
   </si>
   <si>
-    <t xml:space="preserve">18.276819229126</t>
+    <t xml:space="preserve">18.2768211364746</t>
   </si>
   <si>
     <t xml:space="preserve">18.5538864135742</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3914680480957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2099418640137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9997520446777</t>
+    <t xml:space="preserve">18.391471862793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2099437713623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9997539520264</t>
   </si>
   <si>
     <t xml:space="preserve">17.7704582214355</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9233226776123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8946590423584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4392395019531</t>
+    <t xml:space="preserve">17.9233207702637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.894660949707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4392375946045</t>
   </si>
   <si>
     <t xml:space="preserve">18.5156707763672</t>
@@ -1532,19 +1532,19 @@
     <t xml:space="preserve">18.3437004089355</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1717281341553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2481594085693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3532524108887</t>
+    <t xml:space="preserve">18.171724319458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2481555938721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3532485961914</t>
   </si>
   <si>
     <t xml:space="preserve">18.2003879547119</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0761852264404</t>
+    <t xml:space="preserve">18.0761833190918</t>
   </si>
   <si>
     <t xml:space="preserve">18.1430644989014</t>
@@ -1556,22 +1556,22 @@
     <t xml:space="preserve">18.5347766876221</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9710941314697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1526165008545</t>
+    <t xml:space="preserve">17.9710922241211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1526184082031</t>
   </si>
   <si>
     <t xml:space="preserve">18.8882789611816</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4901809692383</t>
+    <t xml:space="preserve">19.4901790618896</t>
   </si>
   <si>
     <t xml:space="preserve">19.5666122436523</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5283946990967</t>
+    <t xml:space="preserve">19.5283966064453</t>
   </si>
   <si>
     <t xml:space="preserve">19.3373146057129</t>
@@ -1580,13 +1580,13 @@
     <t xml:space="preserve">19.2035579681396</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8691673278809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5921039581299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6685371398926</t>
+    <t xml:space="preserve">18.8691711425781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5921020507812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6685390472412</t>
   </si>
   <si>
     <t xml:space="preserve">18.9169387817383</t>
@@ -1601,19 +1601,19 @@
     <t xml:space="preserve">18.2863750457764</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6494255065918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1812801361084</t>
+    <t xml:space="preserve">18.6494274139404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1812782287598</t>
   </si>
   <si>
     <t xml:space="preserve">17.4360675811768</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6908531188965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5730361938477</t>
+    <t xml:space="preserve">16.6908550262451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.573034286499</t>
   </si>
   <si>
     <t xml:space="preserve">15.7067928314209</t>
@@ -1625,40 +1625,40 @@
     <t xml:space="preserve">15.1239976882935</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5443744659424</t>
+    <t xml:space="preserve">15.544376373291</t>
   </si>
   <si>
     <t xml:space="preserve">15.5825881958008</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9265327453613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8501005172729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0666742324829</t>
+    <t xml:space="preserve">15.9265336990356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8501014709473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0666732788086</t>
   </si>
   <si>
     <t xml:space="preserve">15.1908750534058</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1144437789917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0953350067139</t>
+    <t xml:space="preserve">15.1144428253174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0953359603882</t>
   </si>
   <si>
     <t xml:space="preserve">15.1335506439209</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9615793228149</t>
+    <t xml:space="preserve">14.9615783691406</t>
   </si>
   <si>
     <t xml:space="preserve">14.7704982757568</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8182678222656</t>
+    <t xml:space="preserve">14.8182687759399</t>
   </si>
   <si>
     <t xml:space="preserve">14.7896070480347</t>
@@ -1667,13 +1667,13 @@
     <t xml:space="preserve">14.7609443664551</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0475654602051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1717662811279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9042558670044</t>
+    <t xml:space="preserve">15.0475645065308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1717681884766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9042568206787</t>
   </si>
   <si>
     <t xml:space="preserve">13.9201917648315</t>
@@ -1685,13 +1685,13 @@
     <t xml:space="preserve">13.2323036193848</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1845331192017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4902620315552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.366060256958</t>
+    <t xml:space="preserve">13.1845321655273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4902610778809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3660593032837</t>
   </si>
   <si>
     <t xml:space="preserve">13.4998159408569</t>
@@ -1703,7 +1703,7 @@
     <t xml:space="preserve">13.5953550338745</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3278436660767</t>
+    <t xml:space="preserve">13.327844619751</t>
   </si>
   <si>
     <t xml:space="preserve">13.9775161743164</t>
@@ -1718,7 +1718,7 @@
     <t xml:space="preserve">14.3310146331787</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2736911773682</t>
+    <t xml:space="preserve">14.2736892700195</t>
   </si>
   <si>
     <t xml:space="preserve">14.4170007705688</t>
@@ -1736,10 +1736,10 @@
     <t xml:space="preserve">13.7004508972168</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8628673553467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0061779022217</t>
+    <t xml:space="preserve">13.8628692626953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.006178855896</t>
   </si>
   <si>
     <t xml:space="preserve">14.0539484024048</t>
@@ -1754,13 +1754,13 @@
     <t xml:space="preserve">12.8214807510376</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4233846664429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2896280288696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8533143997192</t>
+    <t xml:space="preserve">13.4233827590942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2896270751953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8533134460449</t>
   </si>
   <si>
     <t xml:space="preserve">14.178150177002</t>
@@ -1772,34 +1772,34 @@
     <t xml:space="preserve">15.3724021911621</t>
   </si>
   <si>
-    <t xml:space="preserve">14.999794960022</t>
+    <t xml:space="preserve">14.9997959136963</t>
   </si>
   <si>
     <t xml:space="preserve">15.2004289627075</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2959680557251</t>
+    <t xml:space="preserve">15.2959699630737</t>
   </si>
   <si>
     <t xml:space="preserve">15.2673072814941</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4297246932983</t>
+    <t xml:space="preserve">15.429723739624</t>
   </si>
   <si>
     <t xml:space="preserve">15.4774961471558</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4106159210205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2577543258667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.143105506897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.038010597229</t>
+    <t xml:space="preserve">15.4106168746948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2577514648438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1431045532227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0380115509033</t>
   </si>
   <si>
     <t xml:space="preserve">14.9424724578857</t>
@@ -1808,28 +1808,28 @@
     <t xml:space="preserve">14.9806871414185</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0571193695068</t>
+    <t xml:space="preserve">15.0571184158325</t>
   </si>
   <si>
     <t xml:space="preserve">15.7354545593262</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8309936523438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1813230514526</t>
+    <t xml:space="preserve">15.8309917449951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.181321144104</t>
   </si>
   <si>
     <t xml:space="preserve">15.3341846466064</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6685771942139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5539283752441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5157108306885</t>
+    <t xml:space="preserve">15.6685752868652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5539293289185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5157117843628</t>
   </si>
   <si>
     <t xml:space="preserve">14.8947010040283</t>
@@ -1838,7 +1838,7 @@
     <t xml:space="preserve">15.0189027786255</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3437385559082</t>
+    <t xml:space="preserve">15.3437376022339</t>
   </si>
   <si>
     <t xml:space="preserve">15.3150787353516</t>
@@ -1850,82 +1850,82 @@
     <t xml:space="preserve">15.4870481491089</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6303586959839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.859655380249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5570983886719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0889530181885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3819561004639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9074258804321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8150577545166</t>
+    <t xml:space="preserve">15.6303596496582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8596572875977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5571002960205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0889511108398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3819551467896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9074230194092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8150596618652</t>
   </si>
   <si>
     <t xml:space="preserve">16.9774761199951</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6239757537842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3182468414307</t>
+    <t xml:space="preserve">16.6239776611328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3182506561279</t>
   </si>
   <si>
     <t xml:space="preserve">16.356466293335</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8819332122803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5475463867188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9392604827881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8628273010254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0252456665039</t>
+    <t xml:space="preserve">16.8819351196289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5475444793701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9392585754395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8628253936768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0252437591553</t>
   </si>
   <si>
     <t xml:space="preserve">16.9965839385986</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3755683898926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0220775604248</t>
+    <t xml:space="preserve">16.3755702972412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0220737457275</t>
   </si>
   <si>
     <t xml:space="preserve">16.0125198364258</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0507335662842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9743022918701</t>
+    <t xml:space="preserve">16.0507354736328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9743041992188</t>
   </si>
   <si>
     <t xml:space="preserve">16.4806652069092</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3660163879395</t>
+    <t xml:space="preserve">16.3660182952881</t>
   </si>
   <si>
     <t xml:space="preserve">16.0411853790283</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6366996765137</t>
+    <t xml:space="preserve">17.6367015838623</t>
   </si>
   <si>
     <t xml:space="preserve">17.7991180419922</t>
@@ -1934,13 +1934,13 @@
     <t xml:space="preserve">18.2290496826172</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4456214904785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4169597625732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.961540222168</t>
+    <t xml:space="preserve">17.4456233978271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4169578552246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9615383148193</t>
   </si>
   <si>
     <t xml:space="preserve">18.8118457794189</t>
@@ -1949,34 +1949,34 @@
     <t xml:space="preserve">18.7177658081055</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0160961151123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.747486114502</t>
+    <t xml:space="preserve">19.0160942077637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7474822998047</t>
   </si>
   <si>
     <t xml:space="preserve">19.6512470245361</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0738353729248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0930824279785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1315765380859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7370109558105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8524971008301</t>
+    <t xml:space="preserve">19.0738372802734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0930843353271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1315746307373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7370090484619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8524951934814</t>
   </si>
   <si>
     <t xml:space="preserve">19.1123313903809</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1796951293945</t>
+    <t xml:space="preserve">19.1796970367432</t>
   </si>
   <si>
     <t xml:space="preserve">19.3817901611328</t>
@@ -1985,25 +1985,25 @@
     <t xml:space="preserve">19.5357646942139</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2374362945557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3432922363281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2663059234619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4010372161865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0554370880127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3056488037109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4211273193359</t>
+    <t xml:space="preserve">19.237434387207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3432941436768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2663078308105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4010353088379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0554351806641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3056507110596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4211292266846</t>
   </si>
   <si>
     <t xml:space="preserve">20.748327255249</t>
@@ -2012,37 +2012,37 @@
     <t xml:space="preserve">20.7098369598389</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9600486755371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1131763458252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9976959228516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6320018768311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.458776473999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7859783172607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8244705200195</t>
+    <t xml:space="preserve">20.9600505828857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1131782531738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9976940155029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6319999694824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4587783813477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7859764099121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8244724273682</t>
   </si>
   <si>
     <t xml:space="preserve">20.2479057312012</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0939292907715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8052253723145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7089881896973</t>
+    <t xml:space="preserve">20.0939273834229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8052234649658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7089900970459</t>
   </si>
   <si>
     <t xml:space="preserve">19.8822135925293</t>
@@ -2054,13 +2054,13 @@
     <t xml:space="preserve">20.4403781890869</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3826370239258</t>
+    <t xml:space="preserve">20.3826351165771</t>
   </si>
   <si>
     <t xml:space="preserve">20.8638134002686</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8445663452148</t>
+    <t xml:space="preserve">20.8445644378662</t>
   </si>
   <si>
     <t xml:space="preserve">20.5751056671143</t>
@@ -2075,7 +2075,7 @@
     <t xml:space="preserve">20.3441410064697</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4412231445312</t>
+    <t xml:space="preserve">21.4412250518799</t>
   </si>
   <si>
     <t xml:space="preserve">21.3449897766113</t>
@@ -2087,7 +2087,7 @@
     <t xml:space="preserve">20.1709175109863</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7290840148926</t>
+    <t xml:space="preserve">20.7290821075439</t>
   </si>
   <si>
     <t xml:space="preserve">21.1525173187256</t>
@@ -2096,16 +2096,16 @@
     <t xml:space="preserve">21.2680015563965</t>
   </si>
   <si>
-    <t xml:space="preserve">21.325740814209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4219779968262</t>
+    <t xml:space="preserve">21.3257389068604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4219799041748</t>
   </si>
   <si>
     <t xml:space="preserve">21.1910133361816</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4604721069336</t>
+    <t xml:space="preserve">21.460470199585</t>
   </si>
   <si>
     <t xml:space="preserve">22.0186367034912</t>
@@ -2114,10 +2114,10 @@
     <t xml:space="preserve">22.6537933349609</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7307796478271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6922836303711</t>
+    <t xml:space="preserve">22.7307777404785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6922817230225</t>
   </si>
   <si>
     <t xml:space="preserve">22.2688484191895</t>
@@ -2135,10 +2135,10 @@
     <t xml:space="preserve">22.4805660247803</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7692680358887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9232482910156</t>
+    <t xml:space="preserve">22.7692718505859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.923246383667</t>
   </si>
   <si>
     <t xml:space="preserve">22.9809894561768</t>
@@ -2150,13 +2150,13 @@
     <t xml:space="preserve">22.4035797119141</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5182132720947</t>
+    <t xml:space="preserve">21.5182151794434</t>
   </si>
   <si>
     <t xml:space="preserve">20.632848739624</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6135997772217</t>
+    <t xml:space="preserve">20.6136016845703</t>
   </si>
   <si>
     <t xml:space="preserve">21.2872486114502</t>
@@ -2171,7 +2171,7 @@
     <t xml:space="preserve">21.2487525939941</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9031543731689</t>
+    <t xml:space="preserve">21.9031562805176</t>
   </si>
   <si>
     <t xml:space="preserve">21.6721897125244</t>
@@ -2183,7 +2183,7 @@
     <t xml:space="preserve">21.5374603271484</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7684268951416</t>
+    <t xml:space="preserve">21.768424987793</t>
   </si>
   <si>
     <t xml:space="preserve">21.8454132080078</t>
@@ -2192,10 +2192,10 @@
     <t xml:space="preserve">21.6529407501221</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7491798400879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8060703277588</t>
+    <t xml:space="preserve">21.7491779327393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8060741424561</t>
   </si>
   <si>
     <t xml:space="preserve">20.767578125</t>
@@ -2204,19 +2204,19 @@
     <t xml:space="preserve">20.6520938873291</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0177898406982</t>
+    <t xml:space="preserve">21.0177879333496</t>
   </si>
   <si>
     <t xml:space="preserve">20.5366134643555</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0562801361084</t>
+    <t xml:space="preserve">21.0562839508057</t>
   </si>
   <si>
     <t xml:space="preserve">21.0947780609131</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4788722991943</t>
+    <t xml:space="preserve">20.4788703918457</t>
   </si>
   <si>
     <t xml:space="preserve">20.4981174468994</t>
@@ -2225,7 +2225,7 @@
     <t xml:space="preserve">21.9993896484375</t>
   </si>
   <si>
-    <t xml:space="preserve">22.191858291626</t>
+    <t xml:space="preserve">22.1918601989746</t>
   </si>
   <si>
     <t xml:space="preserve">22.7115287780762</t>
@@ -2234,31 +2234,31 @@
     <t xml:space="preserve">22.8270130157471</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1927070617676</t>
+    <t xml:space="preserve">23.1927051544189</t>
   </si>
   <si>
     <t xml:space="preserve">23.6353893280029</t>
   </si>
   <si>
-    <t xml:space="preserve">23.9048480987549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.097318649292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7508716583252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2705421447754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9818363189697</t>
+    <t xml:space="preserve">23.9048500061035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0973167419434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7508735656738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2705402374268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9818382263184</t>
   </si>
   <si>
     <t xml:space="preserve">24.0588264465332</t>
   </si>
   <si>
-    <t xml:space="preserve">24.1550598144531</t>
+    <t xml:space="preserve">24.1550617218018</t>
   </si>
   <si>
     <t xml:space="preserve">24.5592479705811</t>
@@ -2270,25 +2270,25 @@
     <t xml:space="preserve">25.2906379699707</t>
   </si>
   <si>
-    <t xml:space="preserve">25.560094833374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5207538604736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1751537322998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4831047058105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.11741065979</t>
+    <t xml:space="preserve">25.5600929260254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.520751953125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1751518249512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4831066131592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1174144744873</t>
   </si>
   <si>
     <t xml:space="preserve">25.2136497497559</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8094615936279</t>
+    <t xml:space="preserve">24.8094596862793</t>
   </si>
   <si>
     <t xml:space="preserve">25.136661529541</t>
@@ -2303,22 +2303,22 @@
     <t xml:space="preserve">24.6362380981445</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7324695587158</t>
+    <t xml:space="preserve">24.7324733734131</t>
   </si>
   <si>
     <t xml:space="preserve">24.5400009155273</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8479518890381</t>
+    <t xml:space="preserve">24.8479537963867</t>
   </si>
   <si>
     <t xml:space="preserve">24.8672008514404</t>
   </si>
   <si>
-    <t xml:space="preserve">24.6747283935547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7517166137695</t>
+    <t xml:space="preserve">24.6747303009033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7517185211182</t>
   </si>
   <si>
     <t xml:space="preserve">24.7709636688232</t>
@@ -2333,13 +2333,13 @@
     <t xml:space="preserve">25.5408477783203</t>
   </si>
   <si>
-    <t xml:space="preserve">25.0404262542725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1944026947021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4061164855957</t>
+    <t xml:space="preserve">25.0404243469238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1944007873535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4061183929443</t>
   </si>
   <si>
     <t xml:space="preserve">25.964282989502</t>
@@ -2348,7 +2348,7 @@
     <t xml:space="preserve">25.8103046417236</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7525634765625</t>
+    <t xml:space="preserve">25.7525672912598</t>
   </si>
   <si>
     <t xml:space="preserve">25.3483772277832</t>
@@ -2357,13 +2357,13 @@
     <t xml:space="preserve">26.0220260620117</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9634380340576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7132244110107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0981636047363</t>
+    <t xml:space="preserve">24.963436126709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7132225036621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0981674194336</t>
   </si>
   <si>
     <t xml:space="preserve">25.8680477142334</t>
@@ -2372,16 +2372,16 @@
     <t xml:space="preserve">26.426212310791</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4839553833008</t>
+    <t xml:space="preserve">26.4839534759521</t>
   </si>
   <si>
     <t xml:space="preserve">26.5994358062744</t>
   </si>
   <si>
-    <t xml:space="preserve">27.3500728607178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.4270610809326</t>
+    <t xml:space="preserve">27.3500709533691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.427059173584</t>
   </si>
   <si>
     <t xml:space="preserve">27.735013961792</t>
@@ -2393,10 +2393,10 @@
     <t xml:space="preserve">28.0429649353027</t>
   </si>
   <si>
-    <t xml:space="preserve">28.4086608886719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.0053195953369</t>
+    <t xml:space="preserve">28.4086589813232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.0053176879883</t>
   </si>
   <si>
     <t xml:space="preserve">28.5048961639404</t>
@@ -2405,16 +2405,16 @@
     <t xml:space="preserve">28.1007061004639</t>
   </si>
   <si>
-    <t xml:space="preserve">26.1760005950928</t>
+    <t xml:space="preserve">26.1760025024414</t>
   </si>
   <si>
     <t xml:space="preserve">25.425365447998</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7902145385742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7893619537354</t>
+    <t xml:space="preserve">24.7902126312256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.789363861084</t>
   </si>
   <si>
     <t xml:space="preserve">24.6554851531982</t>
@@ -2426,61 +2426,61 @@
     <t xml:space="preserve">19.9784469604492</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4972724914551</t>
+    <t xml:space="preserve">19.4972705841064</t>
   </si>
   <si>
     <t xml:space="preserve">15.7056007385254</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4570827484131</t>
+    <t xml:space="preserve">17.4570808410645</t>
   </si>
   <si>
     <t xml:space="preserve">15.8499536514282</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2445163726807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0336494445801</t>
+    <t xml:space="preserve">16.2445182800293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0336475372314</t>
   </si>
   <si>
     <t xml:space="preserve">17.6591777801514</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8805160522461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2750816345215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9776020050049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.284704208374</t>
+    <t xml:space="preserve">17.8805179595947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2750835418701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9776000976562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2847061157227</t>
   </si>
   <si>
     <t xml:space="preserve">18.3616943359375</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2558345794678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0152454376221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5148239135742</t>
+    <t xml:space="preserve">18.2558364868164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0152473449707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5148258209229</t>
   </si>
   <si>
     <t xml:space="preserve">17.5436935424805</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9374122619629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7842845916748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9294853210449</t>
+    <t xml:space="preserve">16.9374141693115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7842826843262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9294834136963</t>
   </si>
   <si>
     <t xml:space="preserve">18.5734119415283</t>
@@ -2495,13 +2495,13 @@
     <t xml:space="preserve">18.0922355651855</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0274143218994</t>
+    <t xml:space="preserve">21.0274124145508</t>
   </si>
   <si>
     <t xml:space="preserve">19.4202842712402</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9920387268066</t>
+    <t xml:space="preserve">18.992036819458</t>
   </si>
   <si>
     <t xml:space="preserve">20.1612949371338</t>
@@ -2510,43 +2510,43 @@
     <t xml:space="preserve">20.4018821716309</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1420478820801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1228008270264</t>
+    <t xml:space="preserve">20.1420459747314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.122802734375</t>
   </si>
   <si>
     <t xml:space="preserve">19.9207077026367</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8349418640137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9320259094238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5470848083496</t>
+    <t xml:space="preserve">20.834939956665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9320240020752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.547082901001</t>
   </si>
   <si>
     <t xml:space="preserve">22.5094337463379</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9608955383301</t>
+    <t xml:space="preserve">21.9608936309814</t>
   </si>
   <si>
     <t xml:space="preserve">21.1813888549805</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5952033996582</t>
+    <t xml:space="preserve">21.5951995849609</t>
   </si>
   <si>
     <t xml:space="preserve">22.186450958252</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2656536102295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.322151184082</t>
+    <t xml:space="preserve">21.2656517028809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3221492767334</t>
   </si>
   <si>
     <t xml:space="preserve">21.9829063415527</t>
@@ -2558,13 +2558,13 @@
     <t xml:space="preserve">23.3786468505859</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4852638244629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6129283905029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8535861968994</t>
+    <t xml:space="preserve">23.4852657318115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6129302978516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.853588104248</t>
   </si>
   <si>
     <t xml:space="preserve">24.1831359863281</t>
@@ -2576,7 +2576,7 @@
     <t xml:space="preserve">24.2025203704834</t>
   </si>
   <si>
-    <t xml:space="preserve">24.1734428405762</t>
+    <t xml:space="preserve">24.1734447479248</t>
   </si>
   <si>
     <t xml:space="preserve">23.708194732666</t>
@@ -2585,31 +2585,31 @@
     <t xml:space="preserve">23.029712677002</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9715576171875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9909400939941</t>
+    <t xml:space="preserve">22.9715557098389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9909420013428</t>
   </si>
   <si>
     <t xml:space="preserve">22.2155303955078</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3996906280518</t>
+    <t xml:space="preserve">22.3996887207031</t>
   </si>
   <si>
     <t xml:space="preserve">23.0394058227539</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2817192077637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6500396728516</t>
+    <t xml:space="preserve">23.2817211151123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6500415802002</t>
   </si>
   <si>
     <t xml:space="preserve">23.02001953125</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0490989685059</t>
+    <t xml:space="preserve">23.0490951538086</t>
   </si>
   <si>
     <t xml:space="preserve">23.4949588775635</t>
@@ -2618,13 +2618,13 @@
     <t xml:space="preserve">23.8148136138916</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7583160400391</t>
+    <t xml:space="preserve">22.7583179473877</t>
   </si>
   <si>
     <t xml:space="preserve">22.8164749145508</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8940162658691</t>
+    <t xml:space="preserve">22.8940143585205</t>
   </si>
   <si>
     <t xml:space="preserve">22.7970905303955</t>
@@ -2633,7 +2633,7 @@
     <t xml:space="preserve">22.9812469482422</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0781764984131</t>
+    <t xml:space="preserve">23.0781745910645</t>
   </si>
   <si>
     <t xml:space="preserve">23.620964050293</t>
@@ -2642,19 +2642,19 @@
     <t xml:space="preserve">23.5918846130371</t>
   </si>
   <si>
-    <t xml:space="preserve">23.89235496521</t>
+    <t xml:space="preserve">23.8923568725586</t>
   </si>
   <si>
     <t xml:space="preserve">24.0959033966064</t>
   </si>
   <si>
-    <t xml:space="preserve">24.1928291320801</t>
+    <t xml:space="preserve">24.1928272247314</t>
   </si>
   <si>
     <t xml:space="preserve">24.0668239593506</t>
   </si>
   <si>
-    <t xml:space="preserve">24.1152877807617</t>
+    <t xml:space="preserve">24.1152858734131</t>
   </si>
   <si>
     <t xml:space="preserve">24.5223770141602</t>
@@ -2669,10 +2669,10 @@
     <t xml:space="preserve">25.0263957977295</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6564178466797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4431781768799</t>
+    <t xml:space="preserve">25.6564159393311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4431800842285</t>
   </si>
   <si>
     <t xml:space="preserve">25.2977886199951</t>
@@ -2690,25 +2690,25 @@
     <t xml:space="preserve">25.5110282897949</t>
   </si>
   <si>
-    <t xml:space="preserve">26.9552326202393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9067668914795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.0601921081543</t>
+    <t xml:space="preserve">26.9552307128906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9067687988281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.0601940155029</t>
   </si>
   <si>
     <t xml:space="preserve">28.6514415740967</t>
   </si>
   <si>
-    <t xml:space="preserve">27.9148025512695</t>
+    <t xml:space="preserve">27.9148006439209</t>
   </si>
   <si>
     <t xml:space="preserve">28.0020351409912</t>
   </si>
   <si>
-    <t xml:space="preserve">27.5658664703369</t>
+    <t xml:space="preserve">27.5658683776855</t>
   </si>
   <si>
     <t xml:space="preserve">27.9632663726807</t>
@@ -2717,7 +2717,7 @@
     <t xml:space="preserve">27.4204788208008</t>
   </si>
   <si>
-    <t xml:space="preserve">27.4398632049561</t>
+    <t xml:space="preserve">27.4398612976074</t>
   </si>
   <si>
     <t xml:space="preserve">27.78879737854</t>
@@ -2726,25 +2726,25 @@
     <t xml:space="preserve">27.633716583252</t>
   </si>
   <si>
-    <t xml:space="preserve">27.45924949646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.6918697357178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9649257659912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.4495544433594</t>
+    <t xml:space="preserve">27.4592475891113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.6918716430664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9649238586426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.449556350708</t>
   </si>
   <si>
     <t xml:space="preserve">27.1103134155273</t>
   </si>
   <si>
-    <t xml:space="preserve">26.8970737457275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.8486137390137</t>
+    <t xml:space="preserve">26.8970756530762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.8486099243164</t>
   </si>
   <si>
     <t xml:space="preserve">27.0618495941162</t>
@@ -2765,16 +2765,16 @@
     <t xml:space="preserve">27.0715446472168</t>
   </si>
   <si>
-    <t xml:space="preserve">27.1587753295898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.6240215301514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.798490524292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.8566474914551</t>
+    <t xml:space="preserve">27.1587772369385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.6240234375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.7984924316406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.8566455841064</t>
   </si>
   <si>
     <t xml:space="preserve">28.6029796600342</t>
@@ -2783,7 +2783,7 @@
     <t xml:space="preserve">28.7774486541748</t>
   </si>
   <si>
-    <t xml:space="preserve">28.9325294494629</t>
+    <t xml:space="preserve">28.9325313568115</t>
   </si>
   <si>
     <t xml:space="preserve">29.4268550872803</t>
@@ -2795,7 +2795,7 @@
     <t xml:space="preserve">29.1263809204102</t>
   </si>
   <si>
-    <t xml:space="preserve">27.9923439025879</t>
+    <t xml:space="preserve">27.9923419952393</t>
   </si>
   <si>
     <t xml:space="preserve">28.0698833465576</t>
@@ -2807,7 +2807,7 @@
     <t xml:space="preserve">28.0989608764648</t>
   </si>
   <si>
-    <t xml:space="preserve">29.8242511749268</t>
+    <t xml:space="preserve">29.8242530822754</t>
   </si>
   <si>
     <t xml:space="preserve">30.4155006408691</t>
@@ -2819,16 +2819,16 @@
     <t xml:space="preserve">29.9211807250977</t>
   </si>
   <si>
-    <t xml:space="preserve">30.279806137085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.4736614227295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6013202667236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.7660942077637</t>
+    <t xml:space="preserve">30.2798080444336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.4736595153809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6013221740723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.7660961151123</t>
   </si>
   <si>
     <t xml:space="preserve">30.2507266998291</t>
@@ -2837,7 +2837,7 @@
     <t xml:space="preserve">30.9292125701904</t>
   </si>
   <si>
-    <t xml:space="preserve">31.452615737915</t>
+    <t xml:space="preserve">31.4526176452637</t>
   </si>
   <si>
     <t xml:space="preserve">31.2103004455566</t>
@@ -2846,22 +2846,22 @@
     <t xml:space="preserve">30.9970607757568</t>
   </si>
   <si>
-    <t xml:space="preserve">31.3847675323486</t>
+    <t xml:space="preserve">31.3847694396973</t>
   </si>
   <si>
     <t xml:space="preserve">31.2006053924561</t>
   </si>
   <si>
-    <t xml:space="preserve">31.394458770752</t>
+    <t xml:space="preserve">31.3944606781006</t>
   </si>
   <si>
     <t xml:space="preserve">31.1812210083008</t>
   </si>
   <si>
-    <t xml:space="preserve">31.1424541473389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.278148651123</t>
+    <t xml:space="preserve">31.1424522399902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2781467437744</t>
   </si>
   <si>
     <t xml:space="preserve">30.9389057159424</t>
@@ -2876,37 +2876,37 @@
     <t xml:space="preserve">29.6497840881348</t>
   </si>
   <si>
-    <t xml:space="preserve">31.365385055542</t>
+    <t xml:space="preserve">31.3653831481934</t>
   </si>
   <si>
     <t xml:space="preserve">32.470344543457</t>
   </si>
   <si>
-    <t xml:space="preserve">33.3911437988281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.156867980957</t>
+    <t xml:space="preserve">33.3911399841309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.1568603515625</t>
   </si>
   <si>
     <t xml:space="preserve">33.8079261779785</t>
   </si>
   <si>
-    <t xml:space="preserve">32.9549713134766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.8273162841797</t>
+    <t xml:space="preserve">32.9549751281738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.8273124694824</t>
   </si>
   <si>
     <t xml:space="preserve">34.0599365234375</t>
   </si>
   <si>
-    <t xml:space="preserve">34.6414947509766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.9339332580566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.961353302002</t>
+    <t xml:space="preserve">34.6414909362793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.9339294433594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.9613494873047</t>
   </si>
   <si>
     <t xml:space="preserve">34.3216361999512</t>
@@ -2927,34 +2927,34 @@
     <t xml:space="preserve">31.985710144043</t>
   </si>
   <si>
-    <t xml:space="preserve">32.0826377868652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.4509544372559</t>
+    <t xml:space="preserve">32.082633972168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.4509582519531</t>
   </si>
   <si>
     <t xml:space="preserve">33.2263679504395</t>
   </si>
   <si>
-    <t xml:space="preserve">32.5381889343262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.724006652832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3459949493408</t>
+    <t xml:space="preserve">32.5381927490234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7240085601807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3459968566895</t>
   </si>
   <si>
     <t xml:space="preserve">31.4816932678223</t>
   </si>
   <si>
-    <t xml:space="preserve">31.5980033874512</t>
+    <t xml:space="preserve">31.5980052947998</t>
   </si>
   <si>
     <t xml:space="preserve">31.3363056182861</t>
   </si>
   <si>
-    <t xml:space="preserve">31.5495414733887</t>
+    <t xml:space="preserve">31.5495376586914</t>
   </si>
   <si>
     <t xml:space="preserve">32.0923309326172</t>
@@ -2963,28 +2963,28 @@
     <t xml:space="preserve">32.576961517334</t>
   </si>
   <si>
-    <t xml:space="preserve">31.8306293487549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.6351165771484</t>
+    <t xml:space="preserve">31.8306255340576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6351127624512</t>
   </si>
   <si>
     <t xml:space="preserve">32.4218788146973</t>
   </si>
   <si>
-    <t xml:space="preserve">32.9065132141113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.169864654541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.6932716369629</t>
+    <t xml:space="preserve">32.9065093994141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.1698684692383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6932754516602</t>
   </si>
   <si>
     <t xml:space="preserve">32.218334197998</t>
   </si>
   <si>
-    <t xml:space="preserve">32.7611236572266</t>
+    <t xml:space="preserve">32.7611198425293</t>
   </si>
   <si>
     <t xml:space="preserve">32.9937477111816</t>
@@ -2996,16 +2996,16 @@
     <t xml:space="preserve">32.5284996032715</t>
   </si>
   <si>
-    <t xml:space="preserve">32.0050964355469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.6755466461182</t>
+    <t xml:space="preserve">32.0050926208496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.6755447387695</t>
   </si>
   <si>
     <t xml:space="preserve">32.7998924255371</t>
   </si>
   <si>
-    <t xml:space="preserve">32.6448135375977</t>
+    <t xml:space="preserve">32.6448097229004</t>
   </si>
   <si>
     <t xml:space="preserve">32.5866546630859</t>
@@ -3026,13 +3026,13 @@
     <t xml:space="preserve">33.0712852478027</t>
   </si>
   <si>
-    <t xml:space="preserve">32.8386650085449</t>
+    <t xml:space="preserve">32.8386611938477</t>
   </si>
   <si>
     <t xml:space="preserve">32.5478858947754</t>
   </si>
   <si>
-    <t xml:space="preserve">32.5188064575195</t>
+    <t xml:space="preserve">32.5188102722168</t>
   </si>
   <si>
     <t xml:space="preserve">33.0518989562988</t>
@@ -3044,13 +3044,13 @@
     <t xml:space="preserve">32.4024925231934</t>
   </si>
   <si>
-    <t xml:space="preserve">33.5365333557129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.3022499084473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.1164360046387</t>
+    <t xml:space="preserve">33.5365295410156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.3022537231445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.1164321899414</t>
   </si>
   <si>
     <t xml:space="preserve">35.0001220703125</t>
@@ -3062,34 +3062,34 @@
     <t xml:space="preserve">35.4072113037109</t>
   </si>
   <si>
-    <t xml:space="preserve">35.5235214233398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.337703704834</t>
+    <t xml:space="preserve">35.5235252380371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.3377075195312</t>
   </si>
   <si>
     <t xml:space="preserve">36.0856971740723</t>
   </si>
   <si>
-    <t xml:space="preserve">35.8627624511719</t>
+    <t xml:space="preserve">35.8627662658691</t>
   </si>
   <si>
     <t xml:space="preserve">34.7674980163574</t>
   </si>
   <si>
-    <t xml:space="preserve">34.4088706970215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.8660850524902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.8176231384277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2571067810059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2861862182617</t>
+    <t xml:space="preserve">34.4088745117188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.866081237793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.8176193237305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2571029663086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2861824035645</t>
   </si>
   <si>
     <t xml:space="preserve">32.9452819824219</t>
@@ -3098,10 +3098,10 @@
     <t xml:space="preserve">33.1972923278809</t>
   </si>
   <si>
-    <t xml:space="preserve">30.4251956939697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.930871963501</t>
+    <t xml:space="preserve">30.4251937866211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.9308681488037</t>
   </si>
   <si>
     <t xml:space="preserve">29.1166896820068</t>
@@ -3113,28 +3113,28 @@
     <t xml:space="preserve">30.8419799804688</t>
   </si>
   <si>
-    <t xml:space="preserve">31.1036815643311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9469375610352</t>
+    <t xml:space="preserve">31.1036796569824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9469394683838</t>
   </si>
   <si>
     <t xml:space="preserve">30.9776763916016</t>
   </si>
   <si>
-    <t xml:space="preserve">31.1909122467041</t>
+    <t xml:space="preserve">31.1909141540527</t>
   </si>
   <si>
     <t xml:space="preserve">31.5883121490479</t>
   </si>
   <si>
-    <t xml:space="preserve">31.0067558288574</t>
+    <t xml:space="preserve">31.0067539215088</t>
   </si>
   <si>
     <t xml:space="preserve">29.9793357849121</t>
   </si>
   <si>
-    <t xml:space="preserve">30.5996627807617</t>
+    <t xml:space="preserve">30.5996646881104</t>
   </si>
   <si>
     <t xml:space="preserve">32.1407928466797</t>
@@ -3143,28 +3143,28 @@
     <t xml:space="preserve">30.861364364624</t>
   </si>
   <si>
-    <t xml:space="preserve">31.2296848297119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.123067855835</t>
+    <t xml:space="preserve">31.2296867370605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.1230659484863</t>
   </si>
   <si>
     <t xml:space="preserve">30.7644386291504</t>
   </si>
   <si>
-    <t xml:space="preserve">31.4041538238525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7433967590332</t>
+    <t xml:space="preserve">31.4041519165039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7433986663818</t>
   </si>
   <si>
     <t xml:space="preserve">31.4235363006592</t>
   </si>
   <si>
-    <t xml:space="preserve">32.0535583496094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.8112468719482</t>
+    <t xml:space="preserve">32.0535621643066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.811243057251</t>
   </si>
   <si>
     <t xml:space="preserve">34.001781463623</t>
@@ -3188,10 +3188,10 @@
     <t xml:space="preserve">34.7287292480469</t>
   </si>
   <si>
-    <t xml:space="preserve">35.5138282775879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.3490562438965</t>
+    <t xml:space="preserve">35.5138320922852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.3490600585938</t>
   </si>
   <si>
     <t xml:space="preserve">34.8159599304199</t>
@@ -3206,28 +3206,28 @@
     <t xml:space="preserve">34.3119468688965</t>
   </si>
   <si>
-    <t xml:space="preserve">33.7303810119629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.602725982666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.0793190002441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.7514343261719</t>
+    <t xml:space="preserve">33.7303848266602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.6027221679688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.0793228149414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.7514266967773</t>
   </si>
   <si>
     <t xml:space="preserve">32.383113861084</t>
   </si>
   <si>
-    <t xml:space="preserve">32.3637275695801</t>
+    <t xml:space="preserve">32.3637237548828</t>
   </si>
   <si>
     <t xml:space="preserve">32.567268371582</t>
   </si>
   <si>
-    <t xml:space="preserve">33.4396057128906</t>
+    <t xml:space="preserve">33.4396095275879</t>
   </si>
   <si>
     <t xml:space="preserve">33.6334609985352</t>
@@ -3236,7 +3236,7 @@
     <t xml:space="preserve">35.3199768066406</t>
   </si>
   <si>
-    <t xml:space="preserve">36.4219017028809</t>
+    <t xml:space="preserve">36.4218978881836</t>
   </si>
   <si>
     <t xml:space="preserve">37.202018737793</t>
@@ -3248,19 +3248,19 @@
     <t xml:space="preserve">37.3190383911133</t>
   </si>
   <si>
-    <t xml:space="preserve">37.6310882568359</t>
+    <t xml:space="preserve">37.6310844421387</t>
   </si>
   <si>
     <t xml:space="preserve">37.9821395874023</t>
   </si>
   <si>
-    <t xml:space="preserve">37.6798439025879</t>
+    <t xml:space="preserve">37.6798477172852</t>
   </si>
   <si>
     <t xml:space="preserve">37.5725746154785</t>
   </si>
   <si>
-    <t xml:space="preserve">38.245433807373</t>
+    <t xml:space="preserve">38.2454299926758</t>
   </si>
   <si>
     <t xml:space="preserve">38.8110198974609</t>
@@ -3284,13 +3284,13 @@
     <t xml:space="preserve">39.2205848693848</t>
   </si>
   <si>
-    <t xml:space="preserve">39.9324417114258</t>
+    <t xml:space="preserve">39.932445526123</t>
   </si>
   <si>
     <t xml:space="preserve">39.1718254089355</t>
   </si>
   <si>
-    <t xml:space="preserve">39.3766098022461</t>
+    <t xml:space="preserve">39.3766059875488</t>
   </si>
   <si>
     <t xml:space="preserve">39.2985954284668</t>
@@ -3317,7 +3317,7 @@
     <t xml:space="preserve">40.4005165100098</t>
   </si>
   <si>
-    <t xml:space="preserve">40.5662879943848</t>
+    <t xml:space="preserve">40.566291809082</t>
   </si>
   <si>
     <t xml:space="preserve">40.1957359313965</t>
@@ -3329,31 +3329,31 @@
     <t xml:space="preserve">40.5955467224121</t>
   </si>
   <si>
-    <t xml:space="preserve">39.6594009399414</t>
+    <t xml:space="preserve">39.6593971252441</t>
   </si>
   <si>
     <t xml:space="preserve">37.1240081787109</t>
   </si>
   <si>
-    <t xml:space="preserve">38.1284141540527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.1186637878418</t>
+    <t xml:space="preserve">38.1284103393555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.1186599731445</t>
   </si>
   <si>
     <t xml:space="preserve">38.9475402832031</t>
   </si>
   <si>
-    <t xml:space="preserve">39.561882019043</t>
+    <t xml:space="preserve">39.5618858337402</t>
   </si>
   <si>
     <t xml:space="preserve">39.7471618652344</t>
   </si>
   <si>
-    <t xml:space="preserve">39.0548057556152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.0397109985352</t>
+    <t xml:space="preserve">39.054801940918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.0397148132324</t>
   </si>
   <si>
     <t xml:space="preserve">39.7666664123535</t>
@@ -3362,19 +3362,19 @@
     <t xml:space="preserve">39.435115814209</t>
   </si>
   <si>
-    <t xml:space="preserve">40.0202102661133</t>
+    <t xml:space="preserve">40.020206451416</t>
   </si>
   <si>
     <t xml:space="preserve">39.3473510742188</t>
   </si>
   <si>
-    <t xml:space="preserve">40.6443023681641</t>
+    <t xml:space="preserve">40.6443061828613</t>
   </si>
   <si>
     <t xml:space="preserve">41.2488975524902</t>
   </si>
   <si>
-    <t xml:space="preserve">41.3366584777832</t>
+    <t xml:space="preserve">41.3366622924805</t>
   </si>
   <si>
     <t xml:space="preserve">40.9563522338867</t>
@@ -3383,7 +3383,7 @@
     <t xml:space="preserve">41.3171577453613</t>
   </si>
   <si>
-    <t xml:space="preserve">40.8588371276855</t>
+    <t xml:space="preserve">40.8588409423828</t>
   </si>
   <si>
     <t xml:space="preserve">40.9368476867676</t>
@@ -3395,34 +3395,34 @@
     <t xml:space="preserve">41.0538635253906</t>
   </si>
   <si>
-    <t xml:space="preserve">41.6291999816895</t>
+    <t xml:space="preserve">41.6292037963867</t>
   </si>
   <si>
     <t xml:space="preserve">41.7559776306152</t>
   </si>
   <si>
-    <t xml:space="preserve">41.9607582092285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.8437423706055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.8534927368164</t>
+    <t xml:space="preserve">41.9607543945312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.8437385559082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.8534889221191</t>
   </si>
   <si>
     <t xml:space="preserve">42.1850395202637</t>
   </si>
   <si>
-    <t xml:space="preserve">42.7116241455078</t>
+    <t xml:space="preserve">42.7116279602051</t>
   </si>
   <si>
     <t xml:space="preserve">43.7257804870605</t>
   </si>
   <si>
-    <t xml:space="preserve">42.8773994445801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.6628684997559</t>
+    <t xml:space="preserve">42.8774032592773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.6628646850586</t>
   </si>
   <si>
     <t xml:space="preserve">42.3898277282715</t>
@@ -3431,7 +3431,7 @@
     <t xml:space="preserve">42.5946044921875</t>
   </si>
   <si>
-    <t xml:space="preserve">43.1016883850098</t>
+    <t xml:space="preserve">43.1016845703125</t>
   </si>
   <si>
     <t xml:space="preserve">43.1796951293945</t>
@@ -3449,19 +3449,19 @@
     <t xml:space="preserve">43.5405044555664</t>
   </si>
   <si>
-    <t xml:space="preserve">42.6531181335449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.6043586730957</t>
+    <t xml:space="preserve">42.6531143188477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.6043548583984</t>
   </si>
   <si>
     <t xml:space="preserve">42.1557884216309</t>
   </si>
   <si>
-    <t xml:space="preserve">42.0777778625488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.3127555847168</t>
+    <t xml:space="preserve">42.0777816772461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.3127517700195</t>
   </si>
   <si>
     <t xml:space="preserve">41.619457244873</t>
@@ -3473,25 +3473,25 @@
     <t xml:space="preserve">41.4439315795898</t>
   </si>
   <si>
-    <t xml:space="preserve">41.6779670715332</t>
+    <t xml:space="preserve">41.6779632568359</t>
   </si>
   <si>
     <t xml:space="preserve">43.7160301208496</t>
   </si>
   <si>
-    <t xml:space="preserve">43.8135414123535</t>
+    <t xml:space="preserve">43.8135452270508</t>
   </si>
   <si>
     <t xml:space="preserve">44.9739761352539</t>
   </si>
   <si>
-    <t xml:space="preserve">43.8623046875</t>
+    <t xml:space="preserve">43.8623008728027</t>
   </si>
   <si>
     <t xml:space="preserve">42.5751037597656</t>
   </si>
   <si>
-    <t xml:space="preserve">40.3810157775879</t>
+    <t xml:space="preserve">40.3810119628906</t>
   </si>
   <si>
     <t xml:space="preserve">40.8783378601074</t>
@@ -3500,7 +3500,7 @@
     <t xml:space="preserve">40.1762313842773</t>
   </si>
   <si>
-    <t xml:space="preserve">39.7764205932617</t>
+    <t xml:space="preserve">39.7764167785645</t>
   </si>
   <si>
     <t xml:space="preserve">40.1079711914062</t>
@@ -3509,7 +3509,7 @@
     <t xml:space="preserve">40.2737426757812</t>
   </si>
   <si>
-    <t xml:space="preserve">40.7028121948242</t>
+    <t xml:space="preserve">40.7028160095215</t>
   </si>
   <si>
     <t xml:space="preserve">39.5911407470703</t>
@@ -3521,7 +3521,7 @@
     <t xml:space="preserve">40.5077819824219</t>
   </si>
   <si>
-    <t xml:space="preserve">40.8100776672363</t>
+    <t xml:space="preserve">40.8100814819336</t>
   </si>
   <si>
     <t xml:space="preserve">41.8632392883301</t>
@@ -3551,13 +3551,13 @@
     <t xml:space="preserve">43.0334243774414</t>
   </si>
   <si>
-    <t xml:space="preserve">43.6477661132812</t>
+    <t xml:space="preserve">43.6477699279785</t>
   </si>
   <si>
     <t xml:space="preserve">44.622917175293</t>
   </si>
   <si>
-    <t xml:space="preserve">44.5156593322754</t>
+    <t xml:space="preserve">44.5156555175781</t>
   </si>
   <si>
     <t xml:space="preserve">45.3835372924805</t>
@@ -3572,7 +3572,7 @@
     <t xml:space="preserve">44.661922454834</t>
   </si>
   <si>
-    <t xml:space="preserve">44.8667068481445</t>
+    <t xml:space="preserve">44.8667106628418</t>
   </si>
   <si>
     <t xml:space="preserve">44.0865859985352</t>
@@ -3587,22 +3587,22 @@
     <t xml:space="preserve">43.442985534668</t>
   </si>
   <si>
-    <t xml:space="preserve">41.2879028320312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.2240447998047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.1513862609863</t>
+    <t xml:space="preserve">41.2879066467285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.224048614502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.1513824462891</t>
   </si>
   <si>
     <t xml:space="preserve">41.6974639892578</t>
   </si>
   <si>
-    <t xml:space="preserve">42.0485191345215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.0387725830078</t>
+    <t xml:space="preserve">42.0485229492188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.0387687683105</t>
   </si>
   <si>
     <t xml:space="preserve">40.7320671081543</t>
@@ -3611,13 +3611,13 @@
     <t xml:space="preserve">40.7613220214844</t>
   </si>
   <si>
-    <t xml:space="preserve">41.8827476501465</t>
+    <t xml:space="preserve">41.8827438354492</t>
   </si>
   <si>
     <t xml:space="preserve">40.7808227539062</t>
   </si>
   <si>
-    <t xml:space="preserve">40.741813659668</t>
+    <t xml:space="preserve">40.7418174743652</t>
   </si>
   <si>
     <t xml:space="preserve">40.9173431396484</t>
@@ -3626,7 +3626,7 @@
     <t xml:space="preserve">41.707218170166</t>
   </si>
   <si>
-    <t xml:space="preserve">42.6141128540039</t>
+    <t xml:space="preserve">42.6141090393066</t>
   </si>
   <si>
     <t xml:space="preserve">42.1265335083008</t>
@@ -3635,7 +3635,7 @@
     <t xml:space="preserve">42.9846687316895</t>
   </si>
   <si>
-    <t xml:space="preserve">43.0041656494141</t>
+    <t xml:space="preserve">43.0041694641113</t>
   </si>
   <si>
     <t xml:space="preserve">43.1991996765137</t>
@@ -3653,7 +3653,7 @@
     <t xml:space="preserve">45.7443466186523</t>
   </si>
   <si>
-    <t xml:space="preserve">46.0466461181641</t>
+    <t xml:space="preserve">46.0466423034668</t>
   </si>
   <si>
     <t xml:space="preserve">46.2709274291992</t>
@@ -3662,7 +3662,7 @@
     <t xml:space="preserve">45.4810523986816</t>
   </si>
   <si>
-    <t xml:space="preserve">44.5449066162109</t>
+    <t xml:space="preserve">44.5449104309082</t>
   </si>
   <si>
     <t xml:space="preserve">44.7106819152832</t>
@@ -3671,7 +3671,7 @@
     <t xml:space="preserve">43.2284545898438</t>
   </si>
   <si>
-    <t xml:space="preserve">42.4970932006836</t>
+    <t xml:space="preserve">42.4970893859863</t>
   </si>
   <si>
     <t xml:space="preserve">40.6248016357422</t>
@@ -3692,16 +3692,16 @@
     <t xml:space="preserve">37.7578582763672</t>
   </si>
   <si>
-    <t xml:space="preserve">36.3146324157715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.037181854248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.5247573852539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.5637664794922</t>
+    <t xml:space="preserve">36.3146362304688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.0371856689453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.5247611999512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.5637702941895</t>
   </si>
   <si>
     <t xml:space="preserve">34.9786758422852</t>
@@ -3719,10 +3719,10 @@
     <t xml:space="preserve">36.0903434753418</t>
   </si>
   <si>
-    <t xml:space="preserve">35.4077453613281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.1737060546875</t>
+    <t xml:space="preserve">35.4077415466309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.1737022399902</t>
   </si>
   <si>
     <t xml:space="preserve">34.2180557250977</t>
@@ -3731,13 +3731,13 @@
     <t xml:space="preserve">35.6417770385742</t>
   </si>
   <si>
-    <t xml:space="preserve">35.2907257080078</t>
+    <t xml:space="preserve">35.2907218933105</t>
   </si>
   <si>
     <t xml:space="preserve">34.4715957641602</t>
   </si>
   <si>
-    <t xml:space="preserve">33.8767585754395</t>
+    <t xml:space="preserve">33.8767547607422</t>
   </si>
   <si>
     <t xml:space="preserve">35.2614669799805</t>
@@ -3779,25 +3779,25 @@
     <t xml:space="preserve">36.6656837463379</t>
   </si>
   <si>
-    <t xml:space="preserve">35.3004760742188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.0912857055664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.1781120300293</t>
+    <t xml:space="preserve">35.3004722595215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.0912895202637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.178108215332</t>
   </si>
   <si>
     <t xml:space="preserve">34.208309173584</t>
   </si>
   <si>
-    <t xml:space="preserve">34.9494171142578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.6612777709961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.4467468261719</t>
+    <t xml:space="preserve">34.9494209289551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.6612815856934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.4467430114746</t>
   </si>
   <si>
     <t xml:space="preserve">36.8119583129883</t>
@@ -3815,19 +3815,19 @@
     <t xml:space="preserve">35.6222724914551</t>
   </si>
   <si>
-    <t xml:space="preserve">36.2951278686523</t>
+    <t xml:space="preserve">36.2951316833496</t>
   </si>
   <si>
     <t xml:space="preserve">36.7534484863281</t>
   </si>
   <si>
-    <t xml:space="preserve">39.0840644836426</t>
+    <t xml:space="preserve">39.0840606689453</t>
   </si>
   <si>
     <t xml:space="preserve">39.6008911132812</t>
   </si>
   <si>
-    <t xml:space="preserve">39.5326347351074</t>
+    <t xml:space="preserve">39.5326309204102</t>
   </si>
   <si>
     <t xml:space="preserve">40.8393363952637</t>
@@ -3839,10 +3839,10 @@
     <t xml:space="preserve">41.5024375915527</t>
   </si>
   <si>
-    <t xml:space="preserve">41.2976531982422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.4297714233398</t>
+    <t xml:space="preserve">41.2976570129395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.4297676086426</t>
   </si>
   <si>
     <t xml:space="preserve">39.2108306884766</t>
@@ -3860,13 +3860,13 @@
     <t xml:space="preserve">38.5477294921875</t>
   </si>
   <si>
-    <t xml:space="preserve">37.3580474853516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.1922721862793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.8802223205566</t>
+    <t xml:space="preserve">37.3580436706543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.192268371582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.8802185058594</t>
   </si>
   <si>
     <t xml:space="preserve">35.983081817627</t>
@@ -3884,7 +3884,7 @@
     <t xml:space="preserve">36.2561225891113</t>
   </si>
   <si>
-    <t xml:space="preserve">35.8465538024902</t>
+    <t xml:space="preserve">35.8465576171875</t>
   </si>
   <si>
     <t xml:space="preserve">34.5788612365723</t>
@@ -3893,7 +3893,7 @@
     <t xml:space="preserve">32.7553329467773</t>
   </si>
   <si>
-    <t xml:space="preserve">33.4769439697266</t>
+    <t xml:space="preserve">33.4769477844238</t>
   </si>
   <si>
     <t xml:space="preserve">33.4671936035156</t>
@@ -3911,7 +3911,7 @@
     <t xml:space="preserve">33.4574394226074</t>
   </si>
   <si>
-    <t xml:space="preserve">31.7411727905273</t>
+    <t xml:space="preserve">31.7411708831787</t>
   </si>
   <si>
     <t xml:space="preserve">30.7952766418457</t>
@@ -5289,6 +5289,12 @@
   </si>
   <si>
     <t xml:space="preserve">33.2400016784668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.2200012207031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.4700012207031</t>
   </si>
 </sst>
 </file>
@@ -61816,7 +61822,7 @@
     </row>
     <row r="2162">
       <c r="A2162" s="1" t="n">
-        <v>45471.6495601852</v>
+        <v>45471.2916666667</v>
       </c>
       <c r="B2162" t="n">
         <v>431550</v>
@@ -61837,6 +61843,58 @@
         <v>1758</v>
       </c>
       <c r="H2162" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2163">
+      <c r="A2163" s="1" t="n">
+        <v>45474.2916666667</v>
+      </c>
+      <c r="B2163" t="n">
+        <v>406542</v>
+      </c>
+      <c r="C2163" t="n">
+        <v>33.8899993896484</v>
+      </c>
+      <c r="D2163" t="n">
+        <v>32.8600006103516</v>
+      </c>
+      <c r="E2163" t="n">
+        <v>33.4000015258789</v>
+      </c>
+      <c r="F2163" t="n">
+        <v>33.2200012207031</v>
+      </c>
+      <c r="G2163" t="s">
+        <v>1759</v>
+      </c>
+      <c r="H2163" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2164">
+      <c r="A2164" s="1" t="n">
+        <v>45475.6493402778</v>
+      </c>
+      <c r="B2164" t="n">
+        <v>378830</v>
+      </c>
+      <c r="C2164" t="n">
+        <v>33.5900001525879</v>
+      </c>
+      <c r="D2164" t="n">
+        <v>32.7900009155273</v>
+      </c>
+      <c r="E2164" t="n">
+        <v>32.9799995422363</v>
+      </c>
+      <c r="F2164" t="n">
+        <v>33.4700012207031</v>
+      </c>
+      <c r="G2164" t="s">
+        <v>1760</v>
+      </c>
+      <c r="H2164" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/AMP.MI.xlsx
+++ b/data/AMP.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1761" uniqueCount="1761">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1762" uniqueCount="1762">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,118 +38,118 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">7.3918285369873</t>
+    <t xml:space="preserve">7.39182806015015</t>
   </si>
   <si>
     <t xml:space="preserve">AMP.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">7.4481463432312</t>
+    <t xml:space="preserve">7.44814729690552</t>
   </si>
   <si>
     <t xml:space="preserve">7.3683614730835</t>
   </si>
   <si>
-    <t xml:space="preserve">7.42468023300171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2087926864624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01637077331543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27449798583984</t>
+    <t xml:space="preserve">7.42468070983887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20879220962524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01636934280396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27449703216553</t>
   </si>
   <si>
     <t xml:space="preserve">7.33550930023193</t>
   </si>
   <si>
-    <t xml:space="preserve">7.21817922592163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08676910400391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14308738708496</t>
+    <t xml:space="preserve">7.21817874908447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08676862716675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1430869102478</t>
   </si>
   <si>
     <t xml:space="preserve">7.25103092193604</t>
   </si>
   <si>
-    <t xml:space="preserve">7.03983688354492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19001865386963</t>
+    <t xml:space="preserve">7.03983545303345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19001913070679</t>
   </si>
   <si>
     <t xml:space="preserve">7.40121412277222</t>
   </si>
   <si>
-    <t xml:space="preserve">7.29326963424683</t>
+    <t xml:space="preserve">7.29327011108398</t>
   </si>
   <si>
     <t xml:space="preserve">7.41060066223145</t>
   </si>
   <si>
-    <t xml:space="preserve">7.20410013198853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.23695087432861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46691989898682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34020280838013</t>
+    <t xml:space="preserve">7.20409917831421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23695230484009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4669189453125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34020328521729</t>
   </si>
   <si>
     <t xml:space="preserve">7.19471263885498</t>
   </si>
   <si>
-    <t xml:space="preserve">7.10554122924805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89903974533081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56112623214722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50480842590332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64091205596924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38278532028198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34054565429688</t>
+    <t xml:space="preserve">7.10554170608521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89903926849365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56112766265869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50480890274048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64091157913208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38278484344482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34054517745972</t>
   </si>
   <si>
     <t xml:space="preserve">6.47195625305176</t>
   </si>
   <si>
-    <t xml:space="preserve">6.66907215118408</t>
+    <t xml:space="preserve">6.66907119750977</t>
   </si>
   <si>
     <t xml:space="preserve">6.93658542633057</t>
   </si>
   <si>
-    <t xml:space="preserve">6.76293659210205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88965320587158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.75354957580566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67845726013184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04922294616699</t>
+    <t xml:space="preserve">6.76293611526489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88965272903442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.75354909896851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67845821380615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04922342300415</t>
   </si>
   <si>
     <t xml:space="preserve">6.94597196578979</t>
@@ -158,37 +158,37 @@
     <t xml:space="preserve">6.8568000793457</t>
   </si>
   <si>
-    <t xml:space="preserve">6.85210752487183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89434576034546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71130990982056</t>
+    <t xml:space="preserve">6.85210704803467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8943452835083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71131086349487</t>
   </si>
   <si>
     <t xml:space="preserve">6.68315124511719</t>
   </si>
   <si>
-    <t xml:space="preserve">6.84741401672363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8380274772644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91311883926392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06330299377441</t>
+    <t xml:space="preserve">6.84741353988647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83802700042725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91311931610107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06330251693726</t>
   </si>
   <si>
     <t xml:space="preserve">7.16655302047729</t>
   </si>
   <si>
-    <t xml:space="preserve">7.13839292526245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.26511096954346</t>
+    <t xml:space="preserve">7.13839340209961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2651104927063</t>
   </si>
   <si>
     <t xml:space="preserve">7.16185998916626</t>
@@ -197,118 +197,118 @@
     <t xml:space="preserve">7.09615516662598</t>
   </si>
   <si>
-    <t xml:space="preserve">7.29796361923218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15247249603271</t>
+    <t xml:space="preserve">7.29796409606934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15247344970703</t>
   </si>
   <si>
     <t xml:space="preserve">7.22756481170654</t>
   </si>
   <si>
-    <t xml:space="preserve">6.98821067810059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96943759918213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.0586085319519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32612276077271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38244104385376</t>
+    <t xml:space="preserve">6.98821115493774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96943807601929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05860900878906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32612323760986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38244199752808</t>
   </si>
   <si>
     <t xml:space="preserve">7.28388404846191</t>
   </si>
   <si>
-    <t xml:space="preserve">7.56078433990479</t>
+    <t xml:space="preserve">7.56078481674194</t>
   </si>
   <si>
     <t xml:space="preserve">7.47161293029785</t>
   </si>
   <si>
-    <t xml:space="preserve">7.54201173782349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63587665557861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61240911483765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79075145721436</t>
+    <t xml:space="preserve">7.54201078414917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63587522506714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61240863800049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79075193405151</t>
   </si>
   <si>
     <t xml:space="preserve">7.65934228897095</t>
   </si>
   <si>
-    <t xml:space="preserve">7.70157957077026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76259326934814</t>
+    <t xml:space="preserve">7.70158052444458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7625937461853</t>
   </si>
   <si>
     <t xml:space="preserve">7.79544591903687</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94562911987305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95032215118408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93154811859131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.84706974029541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00664043426514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9409351348877</t>
+    <t xml:space="preserve">7.94562768936157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95032119750977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93154764175415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84707117080688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00663948059082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94093656539917</t>
   </si>
   <si>
     <t xml:space="preserve">8.15213108062744</t>
   </si>
   <si>
-    <t xml:space="preserve">8.07949542999268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15967655181885</t>
+    <t xml:space="preserve">8.07949447631836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15967559814453</t>
   </si>
   <si>
     <t xml:space="preserve">8.16911029815674</t>
   </si>
   <si>
-    <t xml:space="preserve">8.11251258850098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23514270782471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27759170532227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30117511749268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28702259063721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22099208831787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.14081192016602</t>
+    <t xml:space="preserve">8.11251068115234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23514175415039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27759075164795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30117321014404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28702545166016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22099304199219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.14081001281738</t>
   </si>
   <si>
     <t xml:space="preserve">8.14552688598633</t>
   </si>
   <si>
-    <t xml:space="preserve">8.20684242248535</t>
+    <t xml:space="preserve">8.20684337615967</t>
   </si>
   <si>
     <t xml:space="preserve">8.07477855682373</t>
@@ -317,28 +317,28 @@
     <t xml:space="preserve">7.97572994232178</t>
   </si>
   <si>
-    <t xml:space="preserve">7.88139772415161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7021689414978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.68801927566528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71160316467285</t>
+    <t xml:space="preserve">7.88139820098877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70216798782349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.68801975250244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71160221099854</t>
   </si>
   <si>
     <t xml:space="preserve">7.61727094650269</t>
   </si>
   <si>
-    <t xml:space="preserve">7.69745206832886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05119514465332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00874614715576</t>
+    <t xml:space="preserve">7.69745254516602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.051194190979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00874519348145</t>
   </si>
   <si>
     <t xml:space="preserve">8.12194442749023</t>
@@ -350,55 +350,55 @@
     <t xml:space="preserve">7.7729172706604</t>
   </si>
   <si>
-    <t xml:space="preserve">7.78235149383545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93328046798706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98988008499146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95214748382568</t>
+    <t xml:space="preserve">7.78234958648682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93328094482422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98988103866577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95214891433716</t>
   </si>
   <si>
     <t xml:space="preserve">7.87196588516235</t>
   </si>
   <si>
-    <t xml:space="preserve">7.77763319015503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94271373748779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02289581298828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98044681549072</t>
+    <t xml:space="preserve">7.77763366699219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94271516799927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0228967666626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98044776916504</t>
   </si>
   <si>
     <t xml:space="preserve">7.97101306915283</t>
   </si>
   <si>
-    <t xml:space="preserve">8.11722850799561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24457454681396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23042583465576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25872611999512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25401020050049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.37192153930664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.42852115631104</t>
+    <t xml:space="preserve">8.11722755432129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2445764541626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23042488098145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2587251663208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25400829315186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.37192249298096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42852210998535</t>
   </si>
   <si>
     <t xml:space="preserve">8.41437149047852</t>
@@ -407,97 +407,97 @@
     <t xml:space="preserve">8.39550495147705</t>
   </si>
   <si>
-    <t xml:space="preserve">8.35777282714844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21627712249756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35305595397949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.43323707580566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57473564147949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.67378520965576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57945251464844</t>
+    <t xml:space="preserve">8.35777187347412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21627521514893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35305500030518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.43323802947998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57473468780518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.67378330230713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57945346832275</t>
   </si>
   <si>
     <t xml:space="preserve">8.70208263397217</t>
   </si>
   <si>
-    <t xml:space="preserve">8.8247127532959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.72094917297363</t>
+    <t xml:space="preserve">8.82471370697021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.72095012664795</t>
   </si>
   <si>
     <t xml:space="preserve">8.85301494598389</t>
   </si>
   <si>
-    <t xml:space="preserve">8.87659645080566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9897928237915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91432952880859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.88602924346924</t>
+    <t xml:space="preserve">8.87659549713135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.98979473114014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91432857513428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.88603019714355</t>
   </si>
   <si>
     <t xml:space="preserve">8.81528091430664</t>
   </si>
   <si>
-    <t xml:space="preserve">8.81999778747559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89074611663818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.80112934112549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83886337280273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.82943058013916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.72566604614258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65963363647461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64076709747314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62661838531494</t>
+    <t xml:space="preserve">8.8199987411499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89074516296387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8011302947998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83886241912842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.82942867279053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.72566509246826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65963459014893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64076900482178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62661743164062</t>
   </si>
   <si>
     <t xml:space="preserve">8.5511531829834</t>
   </si>
   <si>
-    <t xml:space="preserve">8.60775279998779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5983190536499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73509979248047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5653018951416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68321800231934</t>
+    <t xml:space="preserve">8.60775089263916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59831809997559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73509883880615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56530380249023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6832160949707</t>
   </si>
   <si>
     <t xml:space="preserve">8.56058597564697</t>
@@ -506,7 +506,7 @@
     <t xml:space="preserve">8.62190246582031</t>
   </si>
   <si>
-    <t xml:space="preserve">8.67849922180176</t>
+    <t xml:space="preserve">8.67850017547607</t>
   </si>
   <si>
     <t xml:space="preserve">8.53228664398193</t>
@@ -524,22 +524,22 @@
     <t xml:space="preserve">9.1501579284668</t>
   </si>
   <si>
-    <t xml:space="preserve">9.31995582580566</t>
+    <t xml:space="preserve">9.31995487213135</t>
   </si>
   <si>
     <t xml:space="preserve">9.14072513580322</t>
   </si>
   <si>
-    <t xml:space="preserve">9.08412647247314</t>
+    <t xml:space="preserve">9.08412551879883</t>
   </si>
   <si>
     <t xml:space="preserve">8.9614953994751</t>
   </si>
   <si>
-    <t xml:space="preserve">9.00866031646729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.88131237030029</t>
+    <t xml:space="preserve">9.0086612701416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.88131141662598</t>
   </si>
   <si>
     <t xml:space="preserve">8.57001876831055</t>
@@ -548,70 +548,70 @@
     <t xml:space="preserve">8.48983860015869</t>
   </si>
   <si>
-    <t xml:space="preserve">8.46625423431396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.46153926849365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65020084381104</t>
+    <t xml:space="preserve">8.46625518798828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.46153831481934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65019989013672</t>
   </si>
   <si>
     <t xml:space="preserve">8.40965461730957</t>
   </si>
   <si>
-    <t xml:space="preserve">8.52756881713867</t>
+    <t xml:space="preserve">8.5275707244873</t>
   </si>
   <si>
     <t xml:space="preserve">8.44738674163818</t>
   </si>
   <si>
-    <t xml:space="preserve">8.53700351715088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.05582809448242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.16902256011963</t>
+    <t xml:space="preserve">8.53700065612793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.05582714080811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.16902351379395</t>
   </si>
   <si>
     <t xml:space="preserve">9.13129138946533</t>
   </si>
   <si>
-    <t xml:space="preserve">8.58416938781738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22570991516113</t>
+    <t xml:space="preserve">8.58416843414307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22570896148682</t>
   </si>
   <si>
     <t xml:space="preserve">8.37664031982422</t>
   </si>
   <si>
-    <t xml:space="preserve">7.49935674667358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.04647731781006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01817893981934</t>
+    <t xml:space="preserve">7.49935579299927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.04647827148438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01817989349365</t>
   </si>
   <si>
     <t xml:space="preserve">8.45210456848145</t>
   </si>
   <si>
-    <t xml:space="preserve">8.47568702697754</t>
+    <t xml:space="preserve">8.47568798065186</t>
   </si>
   <si>
     <t xml:space="preserve">8.51342010498047</t>
   </si>
   <si>
-    <t xml:space="preserve">8.54643726348877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.43795585632324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2964563369751</t>
+    <t xml:space="preserve">8.54643535614014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.43795490264893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29645824432373</t>
   </si>
   <si>
     <t xml:space="preserve">8.24929141998291</t>
@@ -620,88 +620,88 @@
     <t xml:space="preserve">8.44267082214355</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64548492431641</t>
+    <t xml:space="preserve">8.64548397064209</t>
   </si>
   <si>
     <t xml:space="preserve">8.71623229980469</t>
   </si>
   <si>
-    <t xml:space="preserve">8.79169750213623</t>
+    <t xml:space="preserve">8.79169654846191</t>
   </si>
   <si>
     <t xml:space="preserve">8.73981475830078</t>
   </si>
   <si>
-    <t xml:space="preserve">8.8105640411377</t>
+    <t xml:space="preserve">8.81056499481201</t>
   </si>
   <si>
     <t xml:space="preserve">8.77754878997803</t>
   </si>
   <si>
-    <t xml:space="preserve">9.22562313079834</t>
+    <t xml:space="preserve">9.22562217712402</t>
   </si>
   <si>
     <t xml:space="preserve">9.03696060180664</t>
   </si>
   <si>
-    <t xml:space="preserve">9.21147346496582</t>
+    <t xml:space="preserve">9.21147441864014</t>
   </si>
   <si>
     <t xml:space="preserve">9.33881950378418</t>
   </si>
   <si>
-    <t xml:space="preserve">9.40957069396973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48031806945801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.45201873779297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.36712074279785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.4331521987915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.51805019378662</t>
+    <t xml:space="preserve">9.40956974029541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48031711578369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.45201969146729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.36711978912354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43315410614014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51805114746094</t>
   </si>
   <si>
     <t xml:space="preserve">9.55578327178955</t>
   </si>
   <si>
-    <t xml:space="preserve">9.50861835479736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42843627929688</t>
+    <t xml:space="preserve">9.50861644744873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42843532562256</t>
   </si>
   <si>
     <t xml:space="preserve">9.18317317962646</t>
   </si>
   <si>
-    <t xml:space="preserve">9.17845630645752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.23033905029297</t>
+    <t xml:space="preserve">9.17845726013184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2303409576416</t>
   </si>
   <si>
     <t xml:space="preserve">9.53691673278809</t>
   </si>
   <si>
-    <t xml:space="preserve">9.88594245910645</t>
+    <t xml:space="preserve">9.88594341278076</t>
   </si>
   <si>
     <t xml:space="preserve">10.0368747711182</t>
   </si>
   <si>
-    <t xml:space="preserve">9.90480995178223</t>
+    <t xml:space="preserve">9.90480899810791</t>
   </si>
   <si>
     <t xml:space="preserve">9.98970890045166</t>
   </si>
   <si>
-    <t xml:space="preserve">9.71614742279053</t>
+    <t xml:space="preserve">9.71614837646484</t>
   </si>
   <si>
     <t xml:space="preserve">9.7821798324585</t>
@@ -710,28 +710,28 @@
     <t xml:space="preserve">9.79161357879639</t>
   </si>
   <si>
-    <t xml:space="preserve">9.73501491546631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8670768737793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1029071807861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.084038734436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2632703781128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3198680877686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3387365341187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5085325241089</t>
+    <t xml:space="preserve">9.73501300811768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.86707782745361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1029062271118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0840406417847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2632684707642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3198690414429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3387336730957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5085334777832</t>
   </si>
   <si>
     <t xml:space="preserve">10.5556964874268</t>
@@ -740,10 +740,10 @@
     <t xml:space="preserve">10.4424991607666</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4141988754272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.659462928772</t>
+    <t xml:space="preserve">10.4141979217529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6594619750977</t>
   </si>
   <si>
     <t xml:space="preserve">10.5934286117554</t>
@@ -752,13 +752,13 @@
     <t xml:space="preserve">10.5839967727661</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8952903747559</t>
+    <t xml:space="preserve">10.8952913284302</t>
   </si>
   <si>
     <t xml:space="preserve">10.9707555770874</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8009605407715</t>
+    <t xml:space="preserve">10.8009595870972</t>
   </si>
   <si>
     <t xml:space="preserve">10.7349281311035</t>
@@ -767,19 +767,19 @@
     <t xml:space="preserve">10.7254943847656</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7066278457642</t>
+    <t xml:space="preserve">10.7066268920898</t>
   </si>
   <si>
     <t xml:space="preserve">10.7915258407593</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9801912307739</t>
+    <t xml:space="preserve">10.9801893234253</t>
   </si>
   <si>
     <t xml:space="preserve">10.9235897064209</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0179204940796</t>
+    <t xml:space="preserve">11.0179214477539</t>
   </si>
   <si>
     <t xml:space="preserve">11.0839538574219</t>
@@ -791,34 +791,34 @@
     <t xml:space="preserve">11.1782865524292</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3386478424072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0462217330933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.291482925415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2537498474121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2348852157593</t>
+    <t xml:space="preserve">11.3386487960815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0462226867676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2914848327637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2537517547607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.234884262085</t>
   </si>
   <si>
     <t xml:space="preserve">11.2726163864136</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3669471740723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.517879486084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4990119934082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.546178817749</t>
+    <t xml:space="preserve">11.3669490814209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5178785324097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4990129470825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5461797714233</t>
   </si>
   <si>
     <t xml:space="preserve">11.6695146560669</t>
@@ -827,10 +827,10 @@
     <t xml:space="preserve">11.9161882400513</t>
   </si>
   <si>
-    <t xml:space="preserve">11.954137802124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0395240783691</t>
+    <t xml:space="preserve">11.9541368484497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0395231246948</t>
   </si>
   <si>
     <t xml:space="preserve">12.011061668396</t>
@@ -839,43 +839,43 @@
     <t xml:space="preserve">12.0205488204956</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0300359725952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0584983825684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.153374671936</t>
+    <t xml:space="preserve">12.0300369262695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.058497428894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1533737182617</t>
   </si>
   <si>
     <t xml:space="preserve">12.1913223266602</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1154232025146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3051719665527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2767086029053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3336343765259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0015735626221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2387580871582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5746412277222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3848915100098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7833642959595</t>
+    <t xml:space="preserve">12.115424156189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3051729202271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.276707649231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3336334228516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0015745162964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2387590408325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5746421813965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3848924636841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7833633422852</t>
   </si>
   <si>
     <t xml:space="preserve">11.8213129043579</t>
@@ -884,34 +884,34 @@
     <t xml:space="preserve">11.859263420105</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8497743606567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7169523239136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6600294113159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6125898361206</t>
+    <t xml:space="preserve">11.8497753143311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7169513702393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6600255966187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6125917434692</t>
   </si>
   <si>
     <t xml:space="preserve">11.5556659698486</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4607906341553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1666812896729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9674453735352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7776985168457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6448755264282</t>
+    <t xml:space="preserve">11.4607925415039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1666831970215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9674472808838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7776966094971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6448736190796</t>
   </si>
   <si>
     <t xml:space="preserve">10.6923122406006</t>
@@ -923,7 +923,7 @@
     <t xml:space="preserve">10.9959087371826</t>
   </si>
   <si>
-    <t xml:space="preserve">10.986421585083</t>
+    <t xml:space="preserve">10.9864206314087</t>
   </si>
   <si>
     <t xml:space="preserve">11.0338582992554</t>
@@ -932,73 +932,73 @@
     <t xml:space="preserve">11.2236061096191</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4418172836304</t>
+    <t xml:space="preserve">11.4418163299561</t>
   </si>
   <si>
     <t xml:space="preserve">11.4702796936035</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4323282241821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4987411499023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3564300537109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5936155319214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5177164077759</t>
+    <t xml:space="preserve">11.4323301315308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.498743057251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3564310073853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5936145782471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5177154541016</t>
   </si>
   <si>
     <t xml:space="preserve">11.4228429794312</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3659181594849</t>
+    <t xml:space="preserve">11.3659172058105</t>
   </si>
   <si>
     <t xml:space="preserve">11.3374547958374</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1951456069946</t>
+    <t xml:space="preserve">11.1951446533203</t>
   </si>
   <si>
     <t xml:space="preserve">11.1192445755005</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0053968429565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7492351531982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9200077056885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8725728988647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2805299758911</t>
+    <t xml:space="preserve">11.0053958892822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7492370605469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9200096130371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8725719451904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2805318832397</t>
   </si>
   <si>
     <t xml:space="preserve">11.2520685195923</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1571950912476</t>
+    <t xml:space="preserve">11.1571931838989</t>
   </si>
   <si>
     <t xml:space="preserve">11.2141180038452</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4038677215576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4133548736572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3279685974121</t>
+    <t xml:space="preserve">11.4038667678833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4133539199829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3279676437378</t>
   </si>
   <si>
     <t xml:space="preserve">11.1477069854736</t>
@@ -1010,55 +1010,55 @@
     <t xml:space="preserve">11.2615556716919</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5272045135498</t>
+    <t xml:space="preserve">11.5272026062012</t>
   </si>
   <si>
     <t xml:space="preserve">11.8118257522583</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9067010879517</t>
+    <t xml:space="preserve">11.9067001342773</t>
   </si>
   <si>
     <t xml:space="preserve">12.0774736404419</t>
   </si>
   <si>
-    <t xml:space="preserve">12.105936050415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0490102767944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1438846588135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1343984603882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1723480224609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.067985534668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9256725311279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3146572113037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2482461929321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2008094787598</t>
+    <t xml:space="preserve">12.1059370040894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0490112304688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1438865661621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1343975067139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1723470687866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0679864883423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9256744384766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.314658164978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2482452392578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2008085250854</t>
   </si>
   <si>
     <t xml:space="preserve">12.5803060531616</t>
   </si>
   <si>
-    <t xml:space="preserve">12.618257522583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7415933609009</t>
+    <t xml:space="preserve">12.6182556152344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7415914535522</t>
   </si>
   <si>
     <t xml:space="preserve">12.883903503418</t>
@@ -1070,52 +1070,52 @@
     <t xml:space="preserve">12.9313402175903</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9028787612915</t>
+    <t xml:space="preserve">12.9028797149658</t>
   </si>
   <si>
     <t xml:space="preserve">12.2861957550049</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8782367706299</t>
+    <t xml:space="preserve">11.8782386779785</t>
   </si>
   <si>
     <t xml:space="preserve">11.9446496963501</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1249094009399</t>
+    <t xml:space="preserve">12.1249103546143</t>
   </si>
   <si>
     <t xml:space="preserve">12.26722240448</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3715839385986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9920864105225</t>
+    <t xml:space="preserve">12.3715848922729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9920883178711</t>
   </si>
   <si>
     <t xml:space="preserve">11.5366907119751</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6505393981934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4892539978027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7643890380859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8687515258789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1818361282349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1628580093384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2956838607788</t>
+    <t xml:space="preserve">11.6505403518677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4892549514771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7643899917603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8687505722046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1818351745605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1628589630127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2956857681274</t>
   </si>
   <si>
     <t xml:space="preserve">12.2292737960815</t>
@@ -1124,28 +1124,28 @@
     <t xml:space="preserve">12.4569692611694</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4285087585449</t>
+    <t xml:space="preserve">12.4285078048706</t>
   </si>
   <si>
     <t xml:space="preserve">12.2577352523804</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8308010101318</t>
+    <t xml:space="preserve">11.8308000564575</t>
   </si>
   <si>
     <t xml:space="preserve">12.2197847366333</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6372289657593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6467189788818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5992813110352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7321033477783</t>
+    <t xml:space="preserve">12.6372308731079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6467180252075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5992803573608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.732105255127</t>
   </si>
   <si>
     <t xml:space="preserve">13.2349376678467</t>
@@ -1157,52 +1157,52 @@
     <t xml:space="preserve">13.1875</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0546760559082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5290479660034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5669965744019</t>
+    <t xml:space="preserve">13.0546779632568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5290470123291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5669975280762</t>
   </si>
   <si>
     <t xml:space="preserve">13.6428966522217</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6618709564209</t>
+    <t xml:space="preserve">13.6618690490723</t>
   </si>
   <si>
     <t xml:space="preserve">13.7093086242676</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6144332885742</t>
+    <t xml:space="preserve">13.6144351959229</t>
   </si>
   <si>
     <t xml:space="preserve">13.3582735061646</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5764856338501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4057121276855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0736513137817</t>
+    <t xml:space="preserve">13.5764837265015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4057111740112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0736503601074</t>
   </si>
   <si>
     <t xml:space="preserve">12.7131290435791</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5044078826904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.475944519043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5613298416138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6087675094604</t>
+    <t xml:space="preserve">12.5044069290161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4759426116943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5613317489624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6087694168091</t>
   </si>
   <si>
     <t xml:space="preserve">12.9218521118164</t>
@@ -1211,19 +1211,19 @@
     <t xml:space="preserve">12.978777885437</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9503145217896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6941556930542</t>
+    <t xml:space="preserve">12.9503154754639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6941547393799</t>
   </si>
   <si>
     <t xml:space="preserve">12.3810710906982</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3526096343994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.826979637146</t>
+    <t xml:space="preserve">12.3526086807251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8269805908203</t>
   </si>
   <si>
     <t xml:space="preserve">13.1400632858276</t>
@@ -1235,16 +1235,16 @@
     <t xml:space="preserve">13.3677616119385</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5100727081299</t>
+    <t xml:space="preserve">13.5100708007812</t>
   </si>
   <si>
     <t xml:space="preserve">13.4341726303101</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4246854782104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2634000778198</t>
+    <t xml:space="preserve">13.4246864318848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2633991241455</t>
   </si>
   <si>
     <t xml:space="preserve">13.443660736084</t>
@@ -1253,25 +1253,25 @@
     <t xml:space="preserve">13.3487873077393</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9882650375366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9598026275635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3962240219116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6713581085205</t>
+    <t xml:space="preserve">12.9882640838623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9598016738892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.396222114563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6713590621948</t>
   </si>
   <si>
     <t xml:space="preserve">13.7472581863403</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4151973724365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8990564346313</t>
+    <t xml:space="preserve">13.4151983261108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.899055480957</t>
   </si>
   <si>
     <t xml:space="preserve">14.1077795028687</t>
@@ -1286,19 +1286,19 @@
     <t xml:space="preserve">14.4113759994507</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6770238876343</t>
+    <t xml:space="preserve">14.6770257949829</t>
   </si>
   <si>
     <t xml:space="preserve">14.714973449707</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8003597259521</t>
+    <t xml:space="preserve">14.8003606796265</t>
   </si>
   <si>
     <t xml:space="preserve">15.028058052063</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9711322784424</t>
+    <t xml:space="preserve">14.971134185791</t>
   </si>
   <si>
     <t xml:space="preserve">15.2272920608521</t>
@@ -1310,130 +1310,130 @@
     <t xml:space="preserve">15.1134452819824</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1513948440552</t>
+    <t xml:space="preserve">15.1513938903809</t>
   </si>
   <si>
     <t xml:space="preserve">15.0185699462891</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0090837478638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8288230895996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7054872512817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2842197418213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.388578414917</t>
+    <t xml:space="preserve">15.0090827941895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8288240432739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7054862976074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2842178344727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3885793685913</t>
   </si>
   <si>
     <t xml:space="preserve">15.3601179122925</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3696041107178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5593538284302</t>
+    <t xml:space="preserve">15.3696069717407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5593528747559</t>
   </si>
   <si>
     <t xml:space="preserve">15.5119161605835</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6732034683228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7775611877441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.540376663208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1324195861816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4644784927368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9329166412354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7800531387329</t>
+    <t xml:space="preserve">15.6732025146484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7775621414185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5403776168823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1324186325073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4644794464111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9329175949097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7800540924072</t>
   </si>
   <si>
     <t xml:space="preserve">14.4552173614502</t>
   </si>
   <si>
-    <t xml:space="preserve">14.722728729248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8469314575195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9902420043945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0348386764526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5125398635864</t>
+    <t xml:space="preserve">14.7227296829224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8469305038452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9902400970459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.034839630127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5125408172607</t>
   </si>
   <si>
     <t xml:space="preserve">14.7322826385498</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7418375015259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3055229187012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6112518310547</t>
+    <t xml:space="preserve">14.7418365478516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3055238723755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6112508773804</t>
   </si>
   <si>
     <t xml:space="preserve">16.2418174743652</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5857601165771</t>
+    <t xml:space="preserve">16.5857620239258</t>
   </si>
   <si>
     <t xml:space="preserve">16.2800331115723</t>
   </si>
   <si>
-    <t xml:space="preserve">16.289587020874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3278007507324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3373565673828</t>
+    <t xml:space="preserve">16.2895851135254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3278026580811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3373584747314</t>
   </si>
   <si>
     <t xml:space="preserve">16.4520034790039</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2322635650635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1940479278564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6526393890381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.853271484375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7959499359131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7004070281982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.432897567749</t>
+    <t xml:space="preserve">16.2322616577148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1940460205078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6526412963867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8532733917236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7959480285645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7004108428955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4328956604004</t>
   </si>
   <si>
     <t xml:space="preserve">16.3851261138916</t>
@@ -1442,46 +1442,46 @@
     <t xml:space="preserve">16.8055038452148</t>
   </si>
   <si>
-    <t xml:space="preserve">16.967924118042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0156917572021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.178108215332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0539073944092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9010467529297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4997730255127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5762062072754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3469123840332</t>
+    <t xml:space="preserve">16.9679222106934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0156936645508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1781101226807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0539054870605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9010429382324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4997749328613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.576208114624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3469104766846</t>
   </si>
   <si>
     <t xml:space="preserve">16.528434753418</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6812973022461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4902210235596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.643087387085</t>
+    <t xml:space="preserve">16.6812992095947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4902229309082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6430835723877</t>
   </si>
   <si>
     <t xml:space="preserve">17.2354354858398</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6749153137207</t>
+    <t xml:space="preserve">17.6749172210693</t>
   </si>
   <si>
     <t xml:space="preserve">18.0857391357422</t>
@@ -1493,25 +1493,25 @@
     <t xml:space="preserve">18.2194976806641</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3054847717285</t>
+    <t xml:space="preserve">18.3054828643799</t>
   </si>
   <si>
     <t xml:space="preserve">18.8596153259277</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2768211364746</t>
+    <t xml:space="preserve">18.2768230438232</t>
   </si>
   <si>
     <t xml:space="preserve">18.5538864135742</t>
   </si>
   <si>
-    <t xml:space="preserve">18.391471862793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2099437713623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9997539520264</t>
+    <t xml:space="preserve">18.3914699554443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2099418640137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.999755859375</t>
   </si>
   <si>
     <t xml:space="preserve">17.7704582214355</t>
@@ -1523,46 +1523,46 @@
     <t xml:space="preserve">17.894660949707</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4392375946045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5156707763672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3437004089355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.171724319458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2481555938721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3532485961914</t>
+    <t xml:space="preserve">18.4392356872559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5156688690186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3436985015869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1717281341553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2481594085693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.35325050354</t>
   </si>
   <si>
     <t xml:space="preserve">18.2003879547119</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0761833190918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1430644989014</t>
+    <t xml:space="preserve">18.0761852264404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.14306640625</t>
   </si>
   <si>
     <t xml:space="preserve">17.713134765625</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5347766876221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9710922241211</t>
+    <t xml:space="preserve">18.5347785949707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9710903167725</t>
   </si>
   <si>
     <t xml:space="preserve">18.1526184082031</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8882789611816</t>
+    <t xml:space="preserve">18.888277053833</t>
   </si>
   <si>
     <t xml:space="preserve">19.4901790618896</t>
@@ -1571,22 +1571,22 @@
     <t xml:space="preserve">19.5666122436523</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5283966064453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3373146057129</t>
+    <t xml:space="preserve">19.5283946990967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3373165130615</t>
   </si>
   <si>
     <t xml:space="preserve">19.2035579681396</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8691711425781</t>
+    <t xml:space="preserve">18.8691673278809</t>
   </si>
   <si>
     <t xml:space="preserve">18.5921020507812</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6685390472412</t>
+    <t xml:space="preserve">18.6685352325439</t>
   </si>
   <si>
     <t xml:space="preserve">18.9169387817383</t>
@@ -1595,43 +1595,43 @@
     <t xml:space="preserve">19.1080188751221</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8309497833252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2863750457764</t>
+    <t xml:space="preserve">18.8309535980225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2863731384277</t>
   </si>
   <si>
     <t xml:space="preserve">18.6494274139404</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1812782287598</t>
+    <t xml:space="preserve">18.1812801361084</t>
   </si>
   <si>
     <t xml:space="preserve">17.4360675811768</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6908550262451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.573034286499</t>
+    <t xml:space="preserve">16.6908531188965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5730361938477</t>
   </si>
   <si>
     <t xml:space="preserve">15.7067928314209</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7927799224854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1239976882935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.544376373291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5825881958008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9265336990356</t>
+    <t xml:space="preserve">15.792778968811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1239967346191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5443725585938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5825891494751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9265327453613</t>
   </si>
   <si>
     <t xml:space="preserve">15.8501014709473</t>
@@ -1640,7 +1640,7 @@
     <t xml:space="preserve">15.0666732788086</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1908750534058</t>
+    <t xml:space="preserve">15.1908731460571</t>
   </si>
   <si>
     <t xml:space="preserve">15.1144428253174</t>
@@ -1649,10 +1649,10 @@
     <t xml:space="preserve">15.0953359603882</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1335506439209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9615783691406</t>
+    <t xml:space="preserve">15.1335515975952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9615793228149</t>
   </si>
   <si>
     <t xml:space="preserve">14.7704982757568</t>
@@ -1667,16 +1667,16 @@
     <t xml:space="preserve">14.7609443664551</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0475645065308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1717681884766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9042568206787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9201917648315</t>
+    <t xml:space="preserve">15.0475664138794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1717672348022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9042558670044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9201927185059</t>
   </si>
   <si>
     <t xml:space="preserve">13.8342056274414</t>
@@ -1685,7 +1685,7 @@
     <t xml:space="preserve">13.2323036193848</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1845321655273</t>
+    <t xml:space="preserve">13.184534072876</t>
   </si>
   <si>
     <t xml:space="preserve">13.4902610778809</t>
@@ -1694,25 +1694,25 @@
     <t xml:space="preserve">13.3660593032837</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4998159408569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7577724456787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5953550338745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.327844619751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9775161743164</t>
+    <t xml:space="preserve">13.4998149871826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.757773399353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5953569412231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3278427124023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9775171279907</t>
   </si>
   <si>
     <t xml:space="preserve">14.1208257675171</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6080808639526</t>
+    <t xml:space="preserve">14.6080799102783</t>
   </si>
   <si>
     <t xml:space="preserve">14.3310146331787</t>
@@ -1724,10 +1724,10 @@
     <t xml:space="preserve">14.4170007705688</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4456624984741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.901083946228</t>
+    <t xml:space="preserve">14.4456634521484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9010848999023</t>
   </si>
   <si>
     <t xml:space="preserve">13.8437595367432</t>
@@ -1736,100 +1736,100 @@
     <t xml:space="preserve">13.7004508972168</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8628692626953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.006178855896</t>
+    <t xml:space="preserve">13.862868309021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0061769485474</t>
   </si>
   <si>
     <t xml:space="preserve">14.0539484024048</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5316486358643</t>
+    <t xml:space="preserve">14.5316495895386</t>
   </si>
   <si>
     <t xml:space="preserve">13.8819751739502</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8214807510376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4233827590942</t>
+    <t xml:space="preserve">12.8214817047119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4233846664429</t>
   </si>
   <si>
     <t xml:space="preserve">13.2896270751953</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8533134460449</t>
+    <t xml:space="preserve">13.8533143997192</t>
   </si>
   <si>
     <t xml:space="preserve">14.178150177002</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9520244598389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3724021911621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9997959136963</t>
+    <t xml:space="preserve">14.9520235061646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3724012374878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.999794960022</t>
   </si>
   <si>
     <t xml:space="preserve">15.2004289627075</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2959699630737</t>
+    <t xml:space="preserve">15.2959690093994</t>
   </si>
   <si>
     <t xml:space="preserve">15.2673072814941</t>
   </si>
   <si>
-    <t xml:space="preserve">15.429723739624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4774961471558</t>
+    <t xml:space="preserve">15.4297256469727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4774980545044</t>
   </si>
   <si>
     <t xml:space="preserve">15.4106168746948</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2577514648438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1431045532227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0380115509033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9424724578857</t>
+    <t xml:space="preserve">15.2577533721924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.143105506897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.038010597229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9424715042114</t>
   </si>
   <si>
     <t xml:space="preserve">14.9806871414185</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0571184158325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7354545593262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8309917449951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.181321144104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3341846466064</t>
+    <t xml:space="preserve">15.0571193695068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7354536056519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8309926986694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1813220977783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3341836929321</t>
   </si>
   <si>
     <t xml:space="preserve">15.6685752868652</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5539293289185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5157117843628</t>
+    <t xml:space="preserve">15.5539283752441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5157108306885</t>
   </si>
   <si>
     <t xml:space="preserve">14.8947010040283</t>
@@ -1838,40 +1838,40 @@
     <t xml:space="preserve">15.0189027786255</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3437376022339</t>
+    <t xml:space="preserve">15.3437395095825</t>
   </si>
   <si>
     <t xml:space="preserve">15.3150787353516</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5634832382202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4870481491089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6303596496582</t>
+    <t xml:space="preserve">15.5634841918945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4870500564575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6303615570068</t>
   </si>
   <si>
     <t xml:space="preserve">15.8596572875977</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5571002960205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0889511108398</t>
+    <t xml:space="preserve">16.5570964813232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0889530181885</t>
   </si>
   <si>
     <t xml:space="preserve">15.3819551467896</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9074230194092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8150596618652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9774761199951</t>
+    <t xml:space="preserve">15.9074258804321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.815055847168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9774742126465</t>
   </si>
   <si>
     <t xml:space="preserve">16.6239776611328</t>
@@ -1892,22 +1892,22 @@
     <t xml:space="preserve">16.9392585754395</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8628253936768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0252437591553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9965839385986</t>
+    <t xml:space="preserve">16.8628273010254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0252456665039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.99658203125</t>
   </si>
   <si>
     <t xml:space="preserve">16.3755702972412</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0220737457275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0125198364258</t>
+    <t xml:space="preserve">16.0220756530762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0125217437744</t>
   </si>
   <si>
     <t xml:space="preserve">16.0507354736328</t>
@@ -1916,28 +1916,28 @@
     <t xml:space="preserve">15.9743041992188</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4806652069092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3660182952881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0411853790283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6367015838623</t>
+    <t xml:space="preserve">16.4806671142578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3660163879395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0411834716797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6366996765137</t>
   </si>
   <si>
     <t xml:space="preserve">17.7991180419922</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2290496826172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4456233978271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4169578552246</t>
+    <t xml:space="preserve">18.2290515899658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4456214904785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4169597625732</t>
   </si>
   <si>
     <t xml:space="preserve">17.9615383148193</t>
@@ -1949,7 +1949,7 @@
     <t xml:space="preserve">18.7177658081055</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0160942077637</t>
+    <t xml:space="preserve">19.0160961151123</t>
   </si>
   <si>
     <t xml:space="preserve">19.7474822998047</t>
@@ -1958,7 +1958,7 @@
     <t xml:space="preserve">19.6512470245361</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0738372802734</t>
+    <t xml:space="preserve">19.0738353729248</t>
   </si>
   <si>
     <t xml:space="preserve">19.0930843353271</t>
@@ -1967,91 +1967,91 @@
     <t xml:space="preserve">19.1315746307373</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7370090484619</t>
+    <t xml:space="preserve">18.7370128631592</t>
   </si>
   <si>
     <t xml:space="preserve">18.8524951934814</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1123313903809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1796970367432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3817901611328</t>
+    <t xml:space="preserve">19.1123332977295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1796932220459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3817882537842</t>
   </si>
   <si>
     <t xml:space="preserve">19.5357646942139</t>
   </si>
   <si>
-    <t xml:space="preserve">19.237434387207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3432941436768</t>
+    <t xml:space="preserve">19.2374362945557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3432960510254</t>
   </si>
   <si>
     <t xml:space="preserve">19.2663078308105</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4010353088379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0554351806641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3056507110596</t>
+    <t xml:space="preserve">19.4010372161865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0554370880127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3056488037109</t>
   </si>
   <si>
     <t xml:space="preserve">20.4211292266846</t>
   </si>
   <si>
-    <t xml:space="preserve">20.748327255249</t>
+    <t xml:space="preserve">20.7483291625977</t>
   </si>
   <si>
     <t xml:space="preserve">20.7098369598389</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9600505828857</t>
+    <t xml:space="preserve">20.9600448608398</t>
   </si>
   <si>
     <t xml:space="preserve">20.1131782531738</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9976940155029</t>
+    <t xml:space="preserve">19.9976959228516</t>
   </si>
   <si>
     <t xml:space="preserve">19.6319999694824</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4587783813477</t>
+    <t xml:space="preserve">19.458776473999</t>
   </si>
   <si>
     <t xml:space="preserve">19.7859764099121</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8244724273682</t>
+    <t xml:space="preserve">19.8244705200195</t>
   </si>
   <si>
     <t xml:space="preserve">20.2479057312012</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0939273834229</t>
+    <t xml:space="preserve">20.0939311981201</t>
   </si>
   <si>
     <t xml:space="preserve">19.8052234649658</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7089900970459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8822135925293</t>
+    <t xml:space="preserve">19.7089881896973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.882209777832</t>
   </si>
   <si>
     <t xml:space="preserve">20.4596252441406</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4403781890869</t>
+    <t xml:space="preserve">20.4403762817383</t>
   </si>
   <si>
     <t xml:space="preserve">20.3826351165771</t>
@@ -2066,58 +2066,58 @@
     <t xml:space="preserve">20.5751056671143</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1901664733887</t>
+    <t xml:space="preserve">20.19016456604</t>
   </si>
   <si>
     <t xml:space="preserve">20.2864017486572</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3441410064697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4412250518799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3449897766113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.594352722168</t>
+    <t xml:space="preserve">20.3441429138184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4412269592285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3449878692627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5943508148193</t>
   </si>
   <si>
     <t xml:space="preserve">20.1709175109863</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7290821075439</t>
+    <t xml:space="preserve">20.7290840148926</t>
   </si>
   <si>
     <t xml:space="preserve">21.1525173187256</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2680015563965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3257389068604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4219799041748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1910133361816</t>
+    <t xml:space="preserve">21.2679996490479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.325740814209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4219779968262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1910152435303</t>
   </si>
   <si>
     <t xml:space="preserve">21.460470199585</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0186367034912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6537933349609</t>
+    <t xml:space="preserve">22.0186328887939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6537895202637</t>
   </si>
   <si>
     <t xml:space="preserve">22.7307777404785</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6922817230225</t>
+    <t xml:space="preserve">22.6922836303711</t>
   </si>
   <si>
     <t xml:space="preserve">22.2688484191895</t>
@@ -2129,13 +2129,13 @@
     <t xml:space="preserve">22.1341190338135</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1148700714111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4805660247803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7692718505859</t>
+    <t xml:space="preserve">22.1148738861084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4805679321289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7692699432373</t>
   </si>
   <si>
     <t xml:space="preserve">22.923246383667</t>
@@ -2144,70 +2144,70 @@
     <t xml:space="preserve">22.9809894561768</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2303524017334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4035797119141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5182151794434</t>
+    <t xml:space="preserve">22.230354309082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4035778045654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5182113647461</t>
   </si>
   <si>
     <t xml:space="preserve">20.632848739624</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6136016845703</t>
+    <t xml:space="preserve">20.6135997772217</t>
   </si>
   <si>
     <t xml:space="preserve">21.2872486114502</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9408016204834</t>
+    <t xml:space="preserve">20.9407997131348</t>
   </si>
   <si>
     <t xml:space="preserve">21.037036895752</t>
   </si>
   <si>
-    <t xml:space="preserve">21.24875259399